--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175582</v>
+        <v>0.285419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187398</v>
+        <v>0.278689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196981</v>
+        <v>0.316842</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175593</v>
+        <v>0.285874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18811</v>
+        <v>0.278963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197429</v>
+        <v>0.317423</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176977</v>
+        <v>0.28744</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188968</v>
+        <v>0.280258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198779</v>
+        <v>0.319055</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17769</v>
+        <v>0.289518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19052</v>
+        <v>0.28166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200464</v>
+        <v>0.321157</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178599</v>
+        <v>0.291253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192027</v>
+        <v>0.282801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20246</v>
+        <v>0.323286</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18004</v>
+        <v>0.294504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194634</v>
+        <v>0.284844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205486</v>
+        <v>0.327361</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182486</v>
+        <v>0.299166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197555</v>
+        <v>0.288216</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210282</v>
+        <v>0.333404</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18621</v>
+        <v>0.30598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201365</v>
+        <v>0.292943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193639</v>
+        <v>0.31526</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183707</v>
+        <v>0.285553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188636</v>
+        <v>0.278445</v>
       </c>
       <c r="D10" t="n">
-        <v>0.195159</v>
+        <v>0.315217</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184576</v>
+        <v>0.285747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189457</v>
+        <v>0.278517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196928</v>
+        <v>0.315088</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181526</v>
+        <v>0.28623</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187113</v>
+        <v>0.279111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194229</v>
+        <v>0.315582</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183858</v>
+        <v>0.286555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187459</v>
+        <v>0.279983</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194593</v>
+        <v>0.316279</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184466</v>
+        <v>0.287503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189711</v>
+        <v>0.279779</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196403</v>
+        <v>0.316332</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185488</v>
+        <v>0.287932</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18919</v>
+        <v>0.280263</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196249</v>
+        <v>0.316632</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182308</v>
+        <v>0.28871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189207</v>
+        <v>0.280997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19629</v>
+        <v>0.317848</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184681</v>
+        <v>0.289792</v>
       </c>
       <c r="C17" t="n">
-        <v>0.190861</v>
+        <v>0.281789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197142</v>
+        <v>0.318317</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184225</v>
+        <v>0.290919</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192238</v>
+        <v>0.282772</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198369</v>
+        <v>0.319618</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185597</v>
+        <v>0.293253</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193545</v>
+        <v>0.284483</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200681</v>
+        <v>0.322291</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187712</v>
+        <v>0.295322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.194244</v>
+        <v>0.285727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202277</v>
+        <v>0.32402</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189019</v>
+        <v>0.298967</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196579</v>
+        <v>0.288803</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205238</v>
+        <v>0.328206</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192023</v>
+        <v>0.303547</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198476</v>
+        <v>0.292058</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208539</v>
+        <v>0.352811</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.194005</v>
+        <v>0.310733</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201895</v>
+        <v>0.295963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201314</v>
+        <v>0.322627</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203676</v>
+        <v>0.298136</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189455</v>
+        <v>0.293866</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201696</v>
+        <v>0.323725</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20453</v>
+        <v>0.298483</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189835</v>
+        <v>0.294001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201456</v>
+        <v>0.323583</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203239</v>
+        <v>0.297962</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191911</v>
+        <v>0.295264</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201374</v>
+        <v>0.325013</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20221</v>
+        <v>0.297653</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191548</v>
+        <v>0.295677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202851</v>
+        <v>0.325417</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202521</v>
+        <v>0.298695</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192591</v>
+        <v>0.295519</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20341</v>
+        <v>0.323941</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201388</v>
+        <v>0.298992</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192623</v>
+        <v>0.296087</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204009</v>
+        <v>0.325051</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2018</v>
+        <v>0.300043</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193874</v>
+        <v>0.297566</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206042</v>
+        <v>0.325824</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202342</v>
+        <v>0.301186</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194468</v>
+        <v>0.29813</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205299</v>
+        <v>0.327187</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202944</v>
+        <v>0.303179</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194848</v>
+        <v>0.300019</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206398</v>
+        <v>0.328436</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203647</v>
+        <v>0.304448</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196121</v>
+        <v>0.300594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208303</v>
+        <v>0.330271</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.204892</v>
+        <v>0.305908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19851</v>
+        <v>0.302354</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209739</v>
+        <v>0.334199</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205945</v>
+        <v>0.310038</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199843</v>
+        <v>0.304042</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212553</v>
+        <v>0.336062</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.207623</v>
+        <v>0.314215</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202885</v>
+        <v>0.307518</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216344</v>
+        <v>0.343023</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21211</v>
+        <v>0.321714</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207161</v>
+        <v>0.313355</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220482</v>
+        <v>0.351682</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234247</v>
+        <v>0.317717</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20804</v>
+        <v>0.319509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219658</v>
+        <v>0.35326</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232953</v>
+        <v>0.321708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208877</v>
+        <v>0.323661</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220178</v>
+        <v>0.352741</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233497</v>
+        <v>0.318964</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209484</v>
+        <v>0.322156</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220446</v>
+        <v>0.351165</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234541</v>
+        <v>0.319721</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209716</v>
+        <v>0.324108</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220578</v>
+        <v>0.351835</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233453</v>
+        <v>0.321195</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211874</v>
+        <v>0.323103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222485</v>
+        <v>0.354053</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233087</v>
+        <v>0.320065</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213347</v>
+        <v>0.323201</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22283</v>
+        <v>0.353061</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233432</v>
+        <v>0.320072</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212713</v>
+        <v>0.324135</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222711</v>
+        <v>0.358916</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23335</v>
+        <v>0.325479</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214313</v>
+        <v>0.324808</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224372</v>
+        <v>0.354619</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233815</v>
+        <v>0.323094</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215508</v>
+        <v>0.325685</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22563</v>
+        <v>0.355961</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233932</v>
+        <v>0.325539</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216277</v>
+        <v>0.326553</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226924</v>
+        <v>0.356555</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234269</v>
+        <v>0.327177</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218531</v>
+        <v>0.329141</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229042</v>
+        <v>0.361493</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235322</v>
+        <v>0.330811</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221933</v>
+        <v>0.331833</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232807</v>
+        <v>0.363841</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237015</v>
+        <v>0.335549</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224533</v>
+        <v>0.334075</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236966</v>
+        <v>0.369027</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242067</v>
+        <v>0.340529</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228914</v>
+        <v>0.337152</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23446</v>
+        <v>0.387257</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.243919</v>
+        <v>0.352398</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235722</v>
+        <v>0.346003</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234614</v>
+        <v>0.378847</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258437</v>
+        <v>0.345933</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226194</v>
+        <v>0.348299</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233565</v>
+        <v>0.387907</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258033</v>
+        <v>0.345872</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226792</v>
+        <v>0.347997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232832</v>
+        <v>0.388864</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259284</v>
+        <v>0.345045</v>
       </c>
       <c r="C55" t="n">
-        <v>0.228052</v>
+        <v>0.347852</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234463</v>
+        <v>0.387111</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259109</v>
+        <v>0.347361</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228121</v>
+        <v>0.34887</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235231</v>
+        <v>0.389381</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260179</v>
+        <v>0.346707</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228773</v>
+        <v>0.349516</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234888</v>
+        <v>0.390236</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259784</v>
+        <v>0.345686</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230134</v>
+        <v>0.349259</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236632</v>
+        <v>0.388126</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260977</v>
+        <v>0.346458</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231585</v>
+        <v>0.350013</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237538</v>
+        <v>0.389755</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260374</v>
+        <v>0.351176</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233296</v>
+        <v>0.351529</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23909</v>
+        <v>0.391229</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260882</v>
+        <v>0.352081</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234622</v>
+        <v>0.352397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24117</v>
+        <v>0.393092</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262431</v>
+        <v>0.350589</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236642</v>
+        <v>0.354351</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242845</v>
+        <v>0.394736</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261495</v>
+        <v>0.352709</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238526</v>
+        <v>0.356081</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246182</v>
+        <v>0.397127</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265897</v>
+        <v>0.359795</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24342</v>
+        <v>0.357948</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25187</v>
+        <v>0.400344</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266474</v>
+        <v>0.364921</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247159</v>
+        <v>0.362477</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257727</v>
+        <v>0.408504</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271543</v>
+        <v>0.374703</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252401</v>
+        <v>0.370518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241435</v>
+        <v>0.40944</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277518</v>
+        <v>0.363534</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237543</v>
+        <v>0.365239</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241139</v>
+        <v>0.4108</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277904</v>
+        <v>0.361322</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237824</v>
+        <v>0.365001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24118</v>
+        <v>0.417472</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27775</v>
+        <v>0.365206</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238483</v>
+        <v>0.365601</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241698</v>
+        <v>0.417828</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278386</v>
+        <v>0.365941</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238761</v>
+        <v>0.365863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242322</v>
+        <v>0.418168</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.27793</v>
+        <v>0.366147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239257</v>
+        <v>0.366285</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242804</v>
+        <v>0.418844</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278796</v>
+        <v>0.363517</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239872</v>
+        <v>0.366953</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243515</v>
+        <v>0.420566</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278233</v>
+        <v>0.368262</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241485</v>
+        <v>0.367613</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24489</v>
+        <v>0.421128</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279076</v>
+        <v>0.369284</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24288</v>
+        <v>0.36835</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246551</v>
+        <v>0.421815</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279777</v>
+        <v>0.371301</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24434</v>
+        <v>0.364138</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248422</v>
+        <v>0.422863</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280362</v>
+        <v>0.372654</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246544</v>
+        <v>0.370732</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251149</v>
+        <v>0.425035</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.28151</v>
+        <v>0.375862</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247136</v>
+        <v>0.372491</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254003</v>
+        <v>0.42792</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283404</v>
+        <v>0.380067</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251426</v>
+        <v>0.375675</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258767</v>
+        <v>0.42647</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28619</v>
+        <v>0.381953</v>
       </c>
       <c r="C79" t="n">
-        <v>0.255823</v>
+        <v>0.374313</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265637</v>
+        <v>0.438175</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290359</v>
+        <v>0.39</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260164</v>
+        <v>0.385615</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254739</v>
+        <v>0.44769</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.295387</v>
+        <v>0.387888</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233</v>
+        <v>0.386092</v>
       </c>
       <c r="D81" t="n">
-        <v>0.245329</v>
+        <v>0.436739</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.288776</v>
+        <v>0.38725</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246822</v>
+        <v>0.38668</v>
       </c>
       <c r="D82" t="n">
-        <v>0.258101</v>
+        <v>0.436777</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304821</v>
+        <v>0.386451</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241656</v>
+        <v>0.389121</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253278</v>
+        <v>0.450128</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.29939</v>
+        <v>0.389034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238541</v>
+        <v>0.387892</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251525</v>
+        <v>0.4495</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.292841</v>
+        <v>0.387812</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244436</v>
+        <v>0.387947</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254599</v>
+        <v>0.439824</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300968</v>
+        <v>0.388117</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238515</v>
+        <v>0.388229</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249057</v>
+        <v>0.441678</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293985</v>
+        <v>0.391959</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243792</v>
+        <v>0.390632</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256547</v>
+        <v>0.444448</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.392243</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244854</v>
+        <v>0.391318</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257352</v>
+        <v>0.445587</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303749</v>
+        <v>0.392043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.243893</v>
+        <v>0.394666</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254544</v>
+        <v>0.441863</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300578</v>
+        <v>0.394785</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248155</v>
+        <v>0.382969</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26131</v>
+        <v>0.455208</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.305305</v>
+        <v>0.396233</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24974</v>
+        <v>0.396335</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264361</v>
+        <v>0.453509</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305304</v>
+        <v>0.399907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253491</v>
+        <v>0.397489</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269643</v>
+        <v>0.464091</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.307001</v>
+        <v>0.406998</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258732</v>
+        <v>0.401397</v>
       </c>
       <c r="D93" t="n">
-        <v>0.276767</v>
+        <v>0.464927</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31263</v>
+        <v>0.413687</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263013</v>
+        <v>0.408066</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400516</v>
+        <v>0.649033</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.476803</v>
+        <v>0.603369</v>
       </c>
       <c r="C95" t="n">
-        <v>0.417707</v>
+        <v>0.547558</v>
       </c>
       <c r="D95" t="n">
-        <v>0.403098</v>
+        <v>0.5860030000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.477214</v>
+        <v>0.615772</v>
       </c>
       <c r="C96" t="n">
-        <v>0.412554</v>
+        <v>0.593002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39846</v>
+        <v>0.658629</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.48104</v>
+        <v>0.610687</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407924</v>
+        <v>0.593295</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395149</v>
+        <v>0.6734520000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.477036</v>
+        <v>0.619659</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409837</v>
+        <v>0.560419</v>
       </c>
       <c r="D98" t="n">
-        <v>0.390914</v>
+        <v>0.659946</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.481234</v>
+        <v>0.611717</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411013</v>
+        <v>0.608532</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399393</v>
+        <v>0.673114</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.488578</v>
+        <v>0.600769</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417174</v>
+        <v>0.5978599999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393679</v>
+        <v>0.667837</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490411</v>
+        <v>0.6106510000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409481</v>
+        <v>0.594074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388526</v>
+        <v>0.669842</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.478422</v>
+        <v>0.601337</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408886</v>
+        <v>0.558269</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401719</v>
+        <v>0.595424</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486595</v>
+        <v>0.600588</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415632</v>
+        <v>0.591619</v>
       </c>
       <c r="D103" t="n">
-        <v>0.408842</v>
+        <v>0.671705</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477532</v>
+        <v>0.612163</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.604272</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412563</v>
+        <v>0.609009</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480502</v>
+        <v>0.625858</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418588</v>
+        <v>0.599898</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410654</v>
+        <v>0.606506</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.475954</v>
+        <v>0.61657</v>
       </c>
       <c r="C106" t="n">
-        <v>0.384605</v>
+        <v>0.5522629999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.367507</v>
+        <v>0.588578</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.444713</v>
+        <v>0.617449</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423627</v>
+        <v>0.596147</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4079</v>
+        <v>0.657094</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.48205</v>
+        <v>0.617371</v>
       </c>
       <c r="C108" t="n">
-        <v>0.426169</v>
+        <v>0.594002</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6649350000000001</v>
+        <v>1.18749</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492807</v>
+        <v>0.61558</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433394</v>
+        <v>0.5913659999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665007</v>
+        <v>1.18561</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7757540000000001</v>
+        <v>1.05416</v>
       </c>
       <c r="C110" t="n">
-        <v>0.663028</v>
+        <v>1.03726</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666459</v>
+        <v>1.13872</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.772755</v>
+        <v>1.05435</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663344</v>
+        <v>1.03653</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656247</v>
+        <v>1.17278</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778676</v>
+        <v>1.05633</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66453</v>
+        <v>1.0356</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6685179999999999</v>
+        <v>1.17567</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.77629</v>
+        <v>1.05408</v>
       </c>
       <c r="C113" t="n">
-        <v>0.664819</v>
+        <v>1.03563</v>
       </c>
       <c r="D113" t="n">
-        <v>0.669671</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780725</v>
+        <v>1.0548</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666248</v>
+        <v>1.00944</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658605</v>
+        <v>1.17332</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.777699</v>
+        <v>1.05397</v>
       </c>
       <c r="C115" t="n">
-        <v>0.669109</v>
+        <v>1.03513</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6609159999999999</v>
+        <v>1.17278</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.773817</v>
+        <v>1.05545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.65315</v>
+        <v>1.03459</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675315</v>
+        <v>1.17912</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776245</v>
+        <v>1.05674</v>
       </c>
       <c r="C117" t="n">
-        <v>0.671681</v>
+        <v>1.03814</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677643</v>
+        <v>1.1796</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.771709</v>
+        <v>1.0584</v>
       </c>
       <c r="C118" t="n">
-        <v>0.674525</v>
+        <v>1.03524</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680607</v>
+        <v>1.13679</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.774236</v>
+        <v>1.05822</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677685</v>
+        <v>1.01396</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671281</v>
+        <v>1.17866</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.776613</v>
+        <v>1.06026</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681552</v>
+        <v>1.03979</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689898</v>
+        <v>1.17253</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76011</v>
+        <v>1.06309</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6865250000000001</v>
+        <v>1.04095</v>
       </c>
       <c r="D121" t="n">
-        <v>0.69617</v>
+        <v>1.12274</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.790106</v>
+        <v>1.06621</v>
       </c>
       <c r="C122" t="n">
-        <v>0.678732</v>
+        <v>1.04353</v>
       </c>
       <c r="D122" t="n">
-        <v>0.693424</v>
+        <v>1.14424</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.777213</v>
+        <v>1.07178</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703301</v>
+        <v>1.04933</v>
       </c>
       <c r="D123" t="n">
-        <v>0.777894</v>
+        <v>1.6191</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.032</v>
+        <v>1.31306</v>
       </c>
       <c r="C124" t="n">
-        <v>0.769261</v>
+        <v>1.30802</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779385</v>
+        <v>1.65095</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04384</v>
+        <v>1.31901</v>
       </c>
       <c r="C125" t="n">
-        <v>0.763287</v>
+        <v>1.3237</v>
       </c>
       <c r="D125" t="n">
-        <v>0.781417</v>
+        <v>1.64335</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03512</v>
+        <v>1.31784</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764727</v>
+        <v>1.31127</v>
       </c>
       <c r="D126" t="n">
-        <v>0.781675</v>
+        <v>1.65079</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03478</v>
+        <v>1.32641</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772716</v>
+        <v>1.32251</v>
       </c>
       <c r="D127" t="n">
-        <v>0.77679</v>
+        <v>1.65259</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03908</v>
+        <v>1.32819</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773665</v>
+        <v>1.31947</v>
       </c>
       <c r="D128" t="n">
-        <v>0.778334</v>
+        <v>1.64323</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02628</v>
+        <v>1.31844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776442</v>
+        <v>1.31051</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788753</v>
+        <v>1.6462</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03808</v>
+        <v>1.33055</v>
       </c>
       <c r="C130" t="n">
-        <v>0.771387</v>
+        <v>1.3179</v>
       </c>
       <c r="D130" t="n">
-        <v>0.790849</v>
+        <v>1.65242</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01243</v>
+        <v>1.30919</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782213</v>
+        <v>1.32654</v>
       </c>
       <c r="D131" t="n">
-        <v>0.788184</v>
+        <v>1.65537</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04498</v>
+        <v>1.33279</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785311</v>
+        <v>1.32147</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7913520000000001</v>
+        <v>1.65815</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01934</v>
+        <v>1.32639</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788792</v>
+        <v>1.31948</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8030890000000001</v>
+        <v>1.65369</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04257</v>
+        <v>1.32823</v>
       </c>
       <c r="C134" t="n">
-        <v>0.794122</v>
+        <v>1.32433</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811127</v>
+        <v>1.66226</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02015</v>
+        <v>1.3483</v>
       </c>
       <c r="C135" t="n">
-        <v>0.801991</v>
+        <v>1.32416</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820533</v>
+        <v>1.67836</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04755</v>
+        <v>1.33858</v>
       </c>
       <c r="C136" t="n">
-        <v>0.804652</v>
+        <v>1.3444</v>
       </c>
       <c r="D136" t="n">
-        <v>0.83536</v>
+        <v>1.68983</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05496</v>
+        <v>1.36</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824147</v>
+        <v>1.35677</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829619</v>
+        <v>2.09869</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25008</v>
+        <v>1.45935</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816793</v>
+        <v>1.45917</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827971</v>
+        <v>2.09178</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26411</v>
+        <v>1.45849</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818452</v>
+        <v>1.45596</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833684</v>
+        <v>2.09615</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26271</v>
+        <v>1.45809</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821253</v>
+        <v>1.46162</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834429</v>
+        <v>2.09186</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26331</v>
+        <v>1.46106</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820883</v>
+        <v>1.45876</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8359</v>
+        <v>2.06673</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26367</v>
+        <v>1.45915</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823438</v>
+        <v>1.4489</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838637</v>
+        <v>2.09618</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26437</v>
+        <v>1.45895</v>
       </c>
       <c r="C143" t="n">
-        <v>0.823267</v>
+        <v>1.4579</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8421920000000001</v>
+        <v>2.07141</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285419</v>
+        <v>0.285935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278689</v>
+        <v>0.278529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.316842</v>
+        <v>0.317002</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.285874</v>
+        <v>0.286273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278963</v>
+        <v>0.278926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317423</v>
+        <v>0.317446</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28744</v>
+        <v>0.287705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280258</v>
+        <v>0.280248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319055</v>
+        <v>0.319113</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289518</v>
+        <v>0.289827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.28166</v>
+        <v>0.281697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321157</v>
+        <v>0.321221</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291253</v>
+        <v>0.291607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282801</v>
+        <v>0.282648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323286</v>
+        <v>0.323383</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294504</v>
+        <v>0.294656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284844</v>
+        <v>0.284811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.327361</v>
+        <v>0.327192</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299166</v>
+        <v>0.299411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288216</v>
+        <v>0.287909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333404</v>
+        <v>0.333389</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30598</v>
+        <v>0.305845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292943</v>
+        <v>0.293327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31526</v>
+        <v>0.315558</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.285553</v>
+        <v>0.286279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278445</v>
+        <v>0.278601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315217</v>
+        <v>0.315333</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285747</v>
+        <v>0.286465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.278517</v>
+        <v>0.278778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.315088</v>
+        <v>0.31544</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28623</v>
+        <v>0.286223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.279111</v>
+        <v>0.279301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.315582</v>
+        <v>0.315544</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286555</v>
+        <v>0.286446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279983</v>
+        <v>0.279916</v>
       </c>
       <c r="D13" t="n">
-        <v>0.316279</v>
+        <v>0.316236</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.287503</v>
+        <v>0.288359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279779</v>
+        <v>0.280617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316332</v>
+        <v>0.316165</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.287932</v>
+        <v>0.288658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280263</v>
+        <v>0.280474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316632</v>
+        <v>0.316552</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.28871</v>
+        <v>0.288781</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280997</v>
+        <v>0.281123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.317848</v>
+        <v>0.317598</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289792</v>
+        <v>0.290827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281789</v>
+        <v>0.282794</v>
       </c>
       <c r="D17" t="n">
-        <v>0.318317</v>
+        <v>0.318677</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.290919</v>
+        <v>0.290892</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282772</v>
+        <v>0.282843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319618</v>
+        <v>0.319587</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293253</v>
+        <v>0.293159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284483</v>
+        <v>0.284451</v>
       </c>
       <c r="D19" t="n">
-        <v>0.322291</v>
+        <v>0.321896</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.295322</v>
+        <v>0.29605</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285727</v>
+        <v>0.285815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32402</v>
+        <v>0.3241</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.298967</v>
+        <v>0.2998</v>
       </c>
       <c r="C21" t="n">
-        <v>0.288803</v>
+        <v>0.287979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328206</v>
+        <v>0.327349</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303547</v>
+        <v>0.303366</v>
       </c>
       <c r="C22" t="n">
-        <v>0.292058</v>
+        <v>0.29137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.352811</v>
+        <v>0.33329</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.310733</v>
+        <v>0.309613</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295963</v>
+        <v>0.296143</v>
       </c>
       <c r="D23" t="n">
-        <v>0.322627</v>
+        <v>0.323122</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298136</v>
+        <v>0.314173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293866</v>
+        <v>0.311717</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323725</v>
+        <v>0.324309</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.298483</v>
+        <v>0.295974</v>
       </c>
       <c r="C25" t="n">
-        <v>0.294001</v>
+        <v>0.294306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323583</v>
+        <v>0.324175</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297962</v>
+        <v>0.296471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.295264</v>
+        <v>0.292873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325013</v>
+        <v>0.322079</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297653</v>
+        <v>0.297498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.295677</v>
+        <v>0.301252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.325417</v>
+        <v>0.342891</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.298695</v>
+        <v>0.297692</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295519</v>
+        <v>0.294852</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323941</v>
+        <v>0.324696</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298992</v>
+        <v>0.298902</v>
       </c>
       <c r="C29" t="n">
-        <v>0.296087</v>
+        <v>0.295739</v>
       </c>
       <c r="D29" t="n">
-        <v>0.325051</v>
+        <v>0.3263</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.300043</v>
+        <v>0.299413</v>
       </c>
       <c r="C30" t="n">
-        <v>0.297566</v>
+        <v>0.306258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.325824</v>
+        <v>0.343056</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.301186</v>
+        <v>0.299827</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29813</v>
+        <v>0.296752</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327187</v>
+        <v>0.327357</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.303179</v>
+        <v>0.303062</v>
       </c>
       <c r="C32" t="n">
-        <v>0.300019</v>
+        <v>0.29916</v>
       </c>
       <c r="D32" t="n">
-        <v>0.328436</v>
+        <v>0.328012</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.304448</v>
+        <v>0.304237</v>
       </c>
       <c r="C33" t="n">
-        <v>0.300594</v>
+        <v>0.300803</v>
       </c>
       <c r="D33" t="n">
-        <v>0.330271</v>
+        <v>0.330712</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.305908</v>
+        <v>0.307308</v>
       </c>
       <c r="C34" t="n">
-        <v>0.302354</v>
+        <v>0.301555</v>
       </c>
       <c r="D34" t="n">
-        <v>0.334199</v>
+        <v>0.33297</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310038</v>
+        <v>0.310112</v>
       </c>
       <c r="C35" t="n">
-        <v>0.304042</v>
+        <v>0.304801</v>
       </c>
       <c r="D35" t="n">
-        <v>0.336062</v>
+        <v>0.337562</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314215</v>
+        <v>0.314477</v>
       </c>
       <c r="C36" t="n">
-        <v>0.307518</v>
+        <v>0.308147</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343023</v>
+        <v>0.356752</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321714</v>
+        <v>0.321342</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313355</v>
+        <v>0.311751</v>
       </c>
       <c r="D37" t="n">
-        <v>0.351682</v>
+        <v>0.353472</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.317717</v>
+        <v>0.323419</v>
       </c>
       <c r="C38" t="n">
-        <v>0.319509</v>
+        <v>0.322918</v>
       </c>
       <c r="D38" t="n">
-        <v>0.35326</v>
+        <v>0.352704</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321708</v>
+        <v>0.321061</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323661</v>
+        <v>0.323673</v>
       </c>
       <c r="D39" t="n">
-        <v>0.352741</v>
+        <v>0.354932</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.318964</v>
+        <v>0.321338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.322156</v>
+        <v>0.32287</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351165</v>
+        <v>0.352677</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.319721</v>
+        <v>0.319967</v>
       </c>
       <c r="C41" t="n">
-        <v>0.324108</v>
+        <v>0.322407</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351835</v>
+        <v>0.351834</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321195</v>
+        <v>0.321314</v>
       </c>
       <c r="C42" t="n">
-        <v>0.323103</v>
+        <v>0.322646</v>
       </c>
       <c r="D42" t="n">
-        <v>0.354053</v>
+        <v>0.351001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.320065</v>
+        <v>0.322248</v>
       </c>
       <c r="C43" t="n">
-        <v>0.323201</v>
+        <v>0.324049</v>
       </c>
       <c r="D43" t="n">
-        <v>0.353061</v>
+        <v>0.354322</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.320072</v>
+        <v>0.323666</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324135</v>
+        <v>0.324505</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358916</v>
+        <v>0.353648</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.325479</v>
+        <v>0.325179</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324808</v>
+        <v>0.324175</v>
       </c>
       <c r="D45" t="n">
-        <v>0.354619</v>
+        <v>0.353999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.323094</v>
+        <v>0.323894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.325685</v>
+        <v>0.32425</v>
       </c>
       <c r="D46" t="n">
-        <v>0.355961</v>
+        <v>0.355345</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.325539</v>
+        <v>0.326828</v>
       </c>
       <c r="C47" t="n">
-        <v>0.326553</v>
+        <v>0.325622</v>
       </c>
       <c r="D47" t="n">
-        <v>0.356555</v>
+        <v>0.35756</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.327177</v>
+        <v>0.328077</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329141</v>
+        <v>0.327825</v>
       </c>
       <c r="D48" t="n">
-        <v>0.361493</v>
+        <v>0.359168</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.330811</v>
+        <v>0.330469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331833</v>
+        <v>0.331012</v>
       </c>
       <c r="D49" t="n">
-        <v>0.363841</v>
+        <v>0.36313</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335549</v>
+        <v>0.33371</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334075</v>
+        <v>0.347001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.369027</v>
+        <v>0.368606</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.340529</v>
+        <v>0.341701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.337152</v>
+        <v>0.337987</v>
       </c>
       <c r="D51" t="n">
-        <v>0.387257</v>
+        <v>0.377579</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.352398</v>
+        <v>0.35261</v>
       </c>
       <c r="C52" t="n">
-        <v>0.346003</v>
+        <v>0.344969</v>
       </c>
       <c r="D52" t="n">
-        <v>0.378847</v>
+        <v>0.384772</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345933</v>
+        <v>0.34407</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348299</v>
+        <v>0.34719</v>
       </c>
       <c r="D53" t="n">
-        <v>0.387907</v>
+        <v>0.385391</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.345872</v>
+        <v>0.346498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347997</v>
+        <v>0.347473</v>
       </c>
       <c r="D54" t="n">
-        <v>0.388864</v>
+        <v>0.385932</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.345045</v>
+        <v>0.345944</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347852</v>
+        <v>0.347962</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387111</v>
+        <v>0.386847</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.347361</v>
+        <v>0.345148</v>
       </c>
       <c r="C56" t="n">
-        <v>0.34887</v>
+        <v>0.34827</v>
       </c>
       <c r="D56" t="n">
-        <v>0.389381</v>
+        <v>0.386708</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.346707</v>
+        <v>0.348497</v>
       </c>
       <c r="C57" t="n">
-        <v>0.349516</v>
+        <v>0.348486</v>
       </c>
       <c r="D57" t="n">
-        <v>0.390236</v>
+        <v>0.387848</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.345686</v>
+        <v>0.349559</v>
       </c>
       <c r="C58" t="n">
-        <v>0.349259</v>
+        <v>0.349637</v>
       </c>
       <c r="D58" t="n">
-        <v>0.388126</v>
+        <v>0.388412</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.346458</v>
+        <v>0.349148</v>
       </c>
       <c r="C59" t="n">
-        <v>0.350013</v>
+        <v>0.350926</v>
       </c>
       <c r="D59" t="n">
-        <v>0.389755</v>
+        <v>0.389319</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.351176</v>
+        <v>0.348706</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351529</v>
+        <v>0.349319</v>
       </c>
       <c r="D60" t="n">
-        <v>0.391229</v>
+        <v>0.390747</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.352081</v>
+        <v>0.350455</v>
       </c>
       <c r="C61" t="n">
-        <v>0.352397</v>
+        <v>0.352162</v>
       </c>
       <c r="D61" t="n">
-        <v>0.393092</v>
+        <v>0.390362</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.350589</v>
+        <v>0.354956</v>
       </c>
       <c r="C62" t="n">
-        <v>0.354351</v>
+        <v>0.353535</v>
       </c>
       <c r="D62" t="n">
-        <v>0.394736</v>
+        <v>0.393022</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.352709</v>
+        <v>0.355708</v>
       </c>
       <c r="C63" t="n">
-        <v>0.356081</v>
+        <v>0.355599</v>
       </c>
       <c r="D63" t="n">
-        <v>0.397127</v>
+        <v>0.397335</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.359795</v>
+        <v>0.357918</v>
       </c>
       <c r="C64" t="n">
-        <v>0.357948</v>
+        <v>0.357811</v>
       </c>
       <c r="D64" t="n">
-        <v>0.400344</v>
+        <v>0.401895</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.364921</v>
+        <v>0.365275</v>
       </c>
       <c r="C65" t="n">
-        <v>0.362477</v>
+        <v>0.362677</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408504</v>
+        <v>0.407153</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.374703</v>
+        <v>0.374532</v>
       </c>
       <c r="C66" t="n">
-        <v>0.370518</v>
+        <v>0.368318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.40944</v>
+        <v>0.417272</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363534</v>
+        <v>0.360992</v>
       </c>
       <c r="C67" t="n">
-        <v>0.365239</v>
+        <v>0.360054</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4108</v>
+        <v>0.418076</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.361322</v>
+        <v>0.361364</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365001</v>
+        <v>0.365424</v>
       </c>
       <c r="D68" t="n">
-        <v>0.417472</v>
+        <v>0.418322</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365206</v>
+        <v>0.363703</v>
       </c>
       <c r="C69" t="n">
-        <v>0.365601</v>
+        <v>0.365745</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417828</v>
+        <v>0.418326</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365941</v>
+        <v>0.365572</v>
       </c>
       <c r="C70" t="n">
-        <v>0.365863</v>
+        <v>0.366111</v>
       </c>
       <c r="D70" t="n">
-        <v>0.418168</v>
+        <v>0.412588</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366147</v>
+        <v>0.363966</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366285</v>
+        <v>0.366561</v>
       </c>
       <c r="D71" t="n">
-        <v>0.418844</v>
+        <v>0.419181</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.363517</v>
+        <v>0.366683</v>
       </c>
       <c r="C72" t="n">
-        <v>0.366953</v>
+        <v>0.36659</v>
       </c>
       <c r="D72" t="n">
-        <v>0.420566</v>
+        <v>0.419046</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.368262</v>
+        <v>0.366033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.367613</v>
+        <v>0.367405</v>
       </c>
       <c r="D73" t="n">
-        <v>0.421128</v>
+        <v>0.420708</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369284</v>
+        <v>0.368895</v>
       </c>
       <c r="C74" t="n">
-        <v>0.36835</v>
+        <v>0.36841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.421815</v>
+        <v>0.421597</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.371301</v>
+        <v>0.370679</v>
       </c>
       <c r="C75" t="n">
-        <v>0.364138</v>
+        <v>0.364325</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422863</v>
+        <v>0.423864</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.372654</v>
+        <v>0.372692</v>
       </c>
       <c r="C76" t="n">
-        <v>0.370732</v>
+        <v>0.370672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.425035</v>
+        <v>0.425353</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.375862</v>
+        <v>0.372576</v>
       </c>
       <c r="C77" t="n">
-        <v>0.372491</v>
+        <v>0.372492</v>
       </c>
       <c r="D77" t="n">
-        <v>0.42792</v>
+        <v>0.427225</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.380067</v>
+        <v>0.375779</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375675</v>
+        <v>0.371075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42647</v>
+        <v>0.42671</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.381953</v>
+        <v>0.381502</v>
       </c>
       <c r="C79" t="n">
-        <v>0.374313</v>
+        <v>0.374825</v>
       </c>
       <c r="D79" t="n">
-        <v>0.438175</v>
+        <v>0.433277</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.39</v>
+        <v>0.392372</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385615</v>
+        <v>0.38586</v>
       </c>
       <c r="D80" t="n">
-        <v>0.44769</v>
+        <v>0.436607</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387888</v>
+        <v>0.388004</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386092</v>
+        <v>0.387354</v>
       </c>
       <c r="D81" t="n">
-        <v>0.436739</v>
+        <v>0.440159</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38725</v>
+        <v>0.38722</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38668</v>
+        <v>0.394997</v>
       </c>
       <c r="D82" t="n">
-        <v>0.436777</v>
+        <v>0.43718</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386451</v>
+        <v>0.387812</v>
       </c>
       <c r="C83" t="n">
-        <v>0.389121</v>
+        <v>0.38694</v>
       </c>
       <c r="D83" t="n">
-        <v>0.450128</v>
+        <v>0.449413</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389034</v>
+        <v>0.387665</v>
       </c>
       <c r="C84" t="n">
-        <v>0.387892</v>
+        <v>0.382103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4495</v>
+        <v>0.452872</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.387812</v>
+        <v>0.38914</v>
       </c>
       <c r="C85" t="n">
-        <v>0.387947</v>
+        <v>0.387509</v>
       </c>
       <c r="D85" t="n">
-        <v>0.439824</v>
+        <v>0.449844</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.388117</v>
+        <v>0.390276</v>
       </c>
       <c r="C86" t="n">
-        <v>0.388229</v>
+        <v>0.395166</v>
       </c>
       <c r="D86" t="n">
-        <v>0.441678</v>
+        <v>0.438116</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.391959</v>
+        <v>0.388269</v>
       </c>
       <c r="C87" t="n">
-        <v>0.390632</v>
+        <v>0.394123</v>
       </c>
       <c r="D87" t="n">
-        <v>0.444448</v>
+        <v>0.451092</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.392243</v>
+        <v>0.398167</v>
       </c>
       <c r="C88" t="n">
-        <v>0.391318</v>
+        <v>0.389279</v>
       </c>
       <c r="D88" t="n">
-        <v>0.445587</v>
+        <v>0.452127</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.392043</v>
+        <v>0.391131</v>
       </c>
       <c r="C89" t="n">
-        <v>0.394666</v>
+        <v>0.390018</v>
       </c>
       <c r="D89" t="n">
-        <v>0.441863</v>
+        <v>0.453969</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.394785</v>
+        <v>0.394434</v>
       </c>
       <c r="C90" t="n">
-        <v>0.382969</v>
+        <v>0.392114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.455208</v>
+        <v>0.458645</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396233</v>
+        <v>0.395902</v>
       </c>
       <c r="C91" t="n">
-        <v>0.396335</v>
+        <v>0.394108</v>
       </c>
       <c r="D91" t="n">
-        <v>0.453509</v>
+        <v>0.458791</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.399907</v>
+        <v>0.402384</v>
       </c>
       <c r="C92" t="n">
-        <v>0.397489</v>
+        <v>0.385631</v>
       </c>
       <c r="D92" t="n">
-        <v>0.464091</v>
+        <v>0.462801</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.406998</v>
+        <v>0.410765</v>
       </c>
       <c r="C93" t="n">
-        <v>0.401397</v>
+        <v>0.405298</v>
       </c>
       <c r="D93" t="n">
-        <v>0.464927</v>
+        <v>0.467584</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413687</v>
+        <v>0.412682</v>
       </c>
       <c r="C94" t="n">
-        <v>0.408066</v>
+        <v>0.411899</v>
       </c>
       <c r="D94" t="n">
-        <v>0.649033</v>
+        <v>0.647193</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.603369</v>
+        <v>0.596997</v>
       </c>
       <c r="C95" t="n">
-        <v>0.547558</v>
+        <v>0.588017</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5860030000000001</v>
+        <v>0.661045</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.615772</v>
+        <v>0.594006</v>
       </c>
       <c r="C96" t="n">
-        <v>0.593002</v>
+        <v>0.582182</v>
       </c>
       <c r="D96" t="n">
-        <v>0.658629</v>
+        <v>0.580936</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.610687</v>
+        <v>0.593957</v>
       </c>
       <c r="C97" t="n">
-        <v>0.593295</v>
+        <v>0.583892</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6734520000000001</v>
+        <v>0.58067</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.619659</v>
+        <v>0.591821</v>
       </c>
       <c r="C98" t="n">
-        <v>0.560419</v>
+        <v>0.585017</v>
       </c>
       <c r="D98" t="n">
-        <v>0.659946</v>
+        <v>0.657816</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.611717</v>
+        <v>0.587866</v>
       </c>
       <c r="C99" t="n">
-        <v>0.608532</v>
+        <v>0.582937</v>
       </c>
       <c r="D99" t="n">
-        <v>0.673114</v>
+        <v>0.668258</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.600769</v>
+        <v>0.602834</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5978599999999999</v>
+        <v>0.576275</v>
       </c>
       <c r="D100" t="n">
-        <v>0.667837</v>
+        <v>0.644031</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6106510000000001</v>
+        <v>0.597698</v>
       </c>
       <c r="C101" t="n">
-        <v>0.594074</v>
+        <v>0.5847059999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.669842</v>
+        <v>0.670916</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.601337</v>
+        <v>0.5840959999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.558269</v>
+        <v>0.584542</v>
       </c>
       <c r="D102" t="n">
-        <v>0.595424</v>
+        <v>0.597463</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.600588</v>
+        <v>0.597406</v>
       </c>
       <c r="C103" t="n">
-        <v>0.591619</v>
+        <v>0.596839</v>
       </c>
       <c r="D103" t="n">
-        <v>0.671705</v>
+        <v>0.6461170000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.612163</v>
+        <v>0.6040450000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.604272</v>
+        <v>0.5452050000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.609009</v>
+        <v>0.575072</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.625858</v>
+        <v>0.597982</v>
       </c>
       <c r="C105" t="n">
-        <v>0.599898</v>
+        <v>0.581294</v>
       </c>
       <c r="D105" t="n">
-        <v>0.606506</v>
+        <v>0.63885</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.61657</v>
+        <v>0.60092</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5522629999999999</v>
+        <v>0.587069</v>
       </c>
       <c r="D106" t="n">
-        <v>0.588578</v>
+        <v>0.655576</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.617449</v>
+        <v>0.607561</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596147</v>
+        <v>0.547508</v>
       </c>
       <c r="D107" t="n">
-        <v>0.657094</v>
+        <v>0.66352</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.617371</v>
+        <v>0.60508</v>
       </c>
       <c r="C108" t="n">
-        <v>0.594002</v>
+        <v>0.5956090000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18749</v>
+        <v>1.13998</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.61558</v>
+        <v>0.612443</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5913659999999999</v>
+        <v>0.589739</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18561</v>
+        <v>1.13897</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05416</v>
+        <v>1.0533</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03726</v>
+        <v>1.03752</v>
       </c>
       <c r="D110" t="n">
-        <v>1.13872</v>
+        <v>1.17833</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05435</v>
+        <v>1.0536</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03653</v>
+        <v>1.01121</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17278</v>
+        <v>1.1715</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05633</v>
+        <v>1.05497</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0356</v>
+        <v>1.03665</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17567</v>
+        <v>1.17865</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05408</v>
+        <v>1.05432</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03563</v>
+        <v>1.03714</v>
       </c>
       <c r="D113" t="n">
-        <v>1.181</v>
+        <v>1.17392</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0548</v>
+        <v>1.05374</v>
       </c>
       <c r="C114" t="n">
-        <v>1.00944</v>
+        <v>1.0367</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17332</v>
+        <v>1.17957</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05397</v>
+        <v>1.05442</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03513</v>
+        <v>1.03523</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17278</v>
+        <v>1.17906</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05545</v>
+        <v>1.05563</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03459</v>
+        <v>1.03427</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17912</v>
+        <v>1.17903</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05674</v>
+        <v>1.05581</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03814</v>
+        <v>1.01099</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1796</v>
+        <v>1.13632</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0584</v>
+        <v>1.0556</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03524</v>
+        <v>1.04016</v>
       </c>
       <c r="D118" t="n">
-        <v>1.13679</v>
+        <v>1.18103</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05822</v>
+        <v>1.05838</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01396</v>
+        <v>1.0384</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17866</v>
+        <v>1.18201</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06026</v>
+        <v>1.06071</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03979</v>
+        <v>1.04289</v>
       </c>
       <c r="D120" t="n">
-        <v>1.17253</v>
+        <v>1.17225</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06309</v>
+        <v>1.06434</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04095</v>
+        <v>1.04337</v>
       </c>
       <c r="D121" t="n">
-        <v>1.12274</v>
+        <v>1.18694</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06621</v>
+        <v>1.06813</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04353</v>
+        <v>1.04682</v>
       </c>
       <c r="D122" t="n">
-        <v>1.14424</v>
+        <v>1.17999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07178</v>
+        <v>1.07335</v>
       </c>
       <c r="C123" t="n">
-        <v>1.04933</v>
+        <v>1.05205</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6191</v>
+        <v>1.6507</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31306</v>
+        <v>1.31913</v>
       </c>
       <c r="C124" t="n">
-        <v>1.30802</v>
+        <v>1.31079</v>
       </c>
       <c r="D124" t="n">
-        <v>1.65095</v>
+        <v>1.63357</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31901</v>
+        <v>1.31589</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3237</v>
+        <v>1.31214</v>
       </c>
       <c r="D125" t="n">
-        <v>1.64335</v>
+        <v>1.61688</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31784</v>
+        <v>1.32061</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31127</v>
+        <v>1.3221</v>
       </c>
       <c r="D126" t="n">
-        <v>1.65079</v>
+        <v>1.6139</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32641</v>
+        <v>1.31976</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32251</v>
+        <v>1.33433</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65259</v>
+        <v>1.6244</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32819</v>
+        <v>1.33022</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31947</v>
+        <v>1.33452</v>
       </c>
       <c r="D128" t="n">
-        <v>1.64323</v>
+        <v>1.61555</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31844</v>
+        <v>1.31852</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31051</v>
+        <v>1.31799</v>
       </c>
       <c r="D129" t="n">
-        <v>1.6462</v>
+        <v>1.62065</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33055</v>
+        <v>1.31642</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3179</v>
+        <v>1.32925</v>
       </c>
       <c r="D130" t="n">
-        <v>1.65242</v>
+        <v>1.65607</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.30919</v>
+        <v>1.3132</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32654</v>
+        <v>1.31627</v>
       </c>
       <c r="D131" t="n">
-        <v>1.65537</v>
+        <v>1.64137</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33279</v>
+        <v>1.32701</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32147</v>
+        <v>1.32429</v>
       </c>
       <c r="D132" t="n">
-        <v>1.65815</v>
+        <v>1.6515</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32639</v>
+        <v>1.32934</v>
       </c>
       <c r="C133" t="n">
-        <v>1.31948</v>
+        <v>1.32901</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65369</v>
+        <v>1.65458</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32823</v>
+        <v>1.32377</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32433</v>
+        <v>1.32667</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66226</v>
+        <v>1.66233</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.3483</v>
+        <v>1.33594</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32416</v>
+        <v>1.32437</v>
       </c>
       <c r="D135" t="n">
-        <v>1.67836</v>
+        <v>1.68376</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33858</v>
+        <v>1.34784</v>
       </c>
       <c r="C136" t="n">
-        <v>1.3444</v>
+        <v>1.33479</v>
       </c>
       <c r="D136" t="n">
-        <v>1.68983</v>
+        <v>1.65323</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36</v>
+        <v>1.35517</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35677</v>
+        <v>1.34199</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09869</v>
+        <v>2.09293</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.45935</v>
+        <v>1.45823</v>
       </c>
       <c r="C138" t="n">
-        <v>1.45917</v>
+        <v>1.44477</v>
       </c>
       <c r="D138" t="n">
-        <v>2.09178</v>
+        <v>2.0652</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.45849</v>
+        <v>1.45493</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45596</v>
+        <v>1.45731</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09615</v>
+        <v>2.06533</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45809</v>
+        <v>1.45819</v>
       </c>
       <c r="C140" t="n">
-        <v>1.46162</v>
+        <v>1.4447</v>
       </c>
       <c r="D140" t="n">
-        <v>2.09186</v>
+        <v>2.08914</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.46106</v>
+        <v>1.46014</v>
       </c>
       <c r="C141" t="n">
-        <v>1.45876</v>
+        <v>1.44813</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06673</v>
+        <v>2.09492</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.45915</v>
+        <v>1.45541</v>
       </c>
       <c r="C142" t="n">
-        <v>1.4489</v>
+        <v>1.45609</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09618</v>
+        <v>2.09221</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45895</v>
+        <v>1.45986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4579</v>
+        <v>1.46286</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07141</v>
+        <v>2.06929</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285935</v>
+        <v>0.285415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278529</v>
+        <v>0.278211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.317002</v>
+        <v>0.316734</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286273</v>
+        <v>0.286298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278926</v>
+        <v>0.278867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317446</v>
+        <v>0.31733</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287705</v>
+        <v>0.287949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280248</v>
+        <v>0.280158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319113</v>
+        <v>0.318939</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289827</v>
+        <v>0.289643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281697</v>
+        <v>0.281447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321221</v>
+        <v>0.321344</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291607</v>
+        <v>0.291092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282648</v>
+        <v>0.282615</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323383</v>
+        <v>0.323467</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294656</v>
+        <v>0.294545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284811</v>
+        <v>0.284738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.327192</v>
+        <v>0.32735</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299411</v>
+        <v>0.2992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.287909</v>
+        <v>0.287823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333389</v>
+        <v>0.333399</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305845</v>
+        <v>0.305981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293327</v>
+        <v>0.293151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315558</v>
+        <v>0.315175</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.286279</v>
+        <v>0.28622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278601</v>
+        <v>0.278465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315333</v>
+        <v>0.31528</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.286465</v>
+        <v>0.285688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.278778</v>
+        <v>0.27863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31544</v>
+        <v>0.315032</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286223</v>
+        <v>0.287413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.279301</v>
+        <v>0.279822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.315544</v>
+        <v>0.316396</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286446</v>
+        <v>0.286547</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279916</v>
+        <v>0.279204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.316236</v>
+        <v>0.315527</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.288359</v>
+        <v>0.28822</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280617</v>
+        <v>0.280439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316165</v>
+        <v>0.315994</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.288658</v>
+        <v>0.288273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280474</v>
+        <v>0.280409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316552</v>
+        <v>0.316731</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288781</v>
+        <v>0.288751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.281123</v>
+        <v>0.281061</v>
       </c>
       <c r="D16" t="n">
-        <v>0.317598</v>
+        <v>0.317521</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.290827</v>
+        <v>0.291962</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282794</v>
+        <v>0.282152</v>
       </c>
       <c r="D17" t="n">
-        <v>0.318677</v>
+        <v>0.318478</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.290892</v>
+        <v>0.291532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282843</v>
+        <v>0.282695</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319587</v>
+        <v>0.319674</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293159</v>
+        <v>0.294643</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284451</v>
+        <v>0.285984</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321896</v>
+        <v>0.322369</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.29605</v>
+        <v>0.295426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285815</v>
+        <v>0.285742</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3241</v>
+        <v>0.323968</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2998</v>
+        <v>0.299021</v>
       </c>
       <c r="C21" t="n">
-        <v>0.287979</v>
+        <v>0.288521</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327349</v>
+        <v>0.327729</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303366</v>
+        <v>0.304366</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29137</v>
+        <v>0.291224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33329</v>
+        <v>0.33311</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309613</v>
+        <v>0.309884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296143</v>
+        <v>0.296096</v>
       </c>
       <c r="D23" t="n">
-        <v>0.323122</v>
+        <v>0.326084</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.314173</v>
+        <v>0.296556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.311717</v>
+        <v>0.293703</v>
       </c>
       <c r="D24" t="n">
-        <v>0.324309</v>
+        <v>0.32296</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.295974</v>
+        <v>0.297046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.294306</v>
+        <v>0.293601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324175</v>
+        <v>0.324906</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296471</v>
+        <v>0.297846</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292873</v>
+        <v>0.293116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322079</v>
+        <v>0.324234</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297498</v>
+        <v>0.298628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.301252</v>
+        <v>0.295423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.342891</v>
+        <v>0.326225</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297692</v>
+        <v>0.299569</v>
       </c>
       <c r="C28" t="n">
-        <v>0.294852</v>
+        <v>0.294626</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324696</v>
+        <v>0.324969</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298902</v>
+        <v>0.299609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.295739</v>
+        <v>0.297049</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3263</v>
+        <v>0.327109</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.299413</v>
+        <v>0.301482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.306258</v>
+        <v>0.298257</v>
       </c>
       <c r="D30" t="n">
-        <v>0.343056</v>
+        <v>0.327823</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299827</v>
+        <v>0.301817</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296752</v>
+        <v>0.297181</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327357</v>
+        <v>0.328723</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.303062</v>
+        <v>0.304112</v>
       </c>
       <c r="C32" t="n">
-        <v>0.29916</v>
+        <v>0.298625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.328012</v>
+        <v>0.328656</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.304237</v>
+        <v>0.305089</v>
       </c>
       <c r="C33" t="n">
-        <v>0.300803</v>
+        <v>0.29965</v>
       </c>
       <c r="D33" t="n">
-        <v>0.330712</v>
+        <v>0.331035</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307308</v>
+        <v>0.307679</v>
       </c>
       <c r="C34" t="n">
-        <v>0.301555</v>
+        <v>0.301313</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33297</v>
+        <v>0.33498</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310112</v>
+        <v>0.311198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.304801</v>
+        <v>0.322398</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337562</v>
+        <v>0.338542</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314477</v>
+        <v>0.315257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.308147</v>
+        <v>0.307695</v>
       </c>
       <c r="D36" t="n">
-        <v>0.356752</v>
+        <v>0.344979</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321342</v>
+        <v>0.322224</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311751</v>
+        <v>0.313863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.353472</v>
+        <v>0.351947</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323419</v>
+        <v>0.322316</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322918</v>
+        <v>0.322798</v>
       </c>
       <c r="D38" t="n">
-        <v>0.352704</v>
+        <v>0.351608</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321061</v>
+        <v>0.320182</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323673</v>
+        <v>0.322265</v>
       </c>
       <c r="D39" t="n">
-        <v>0.354932</v>
+        <v>0.352639</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321338</v>
+        <v>0.320627</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32287</v>
+        <v>0.321995</v>
       </c>
       <c r="D40" t="n">
-        <v>0.352677</v>
+        <v>0.351898</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.319967</v>
+        <v>0.321214</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322407</v>
+        <v>0.322476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.351834</v>
+        <v>0.35251</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321314</v>
+        <v>0.321305</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322646</v>
+        <v>0.323243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.351001</v>
+        <v>0.352117</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.322248</v>
+        <v>0.321707</v>
       </c>
       <c r="C43" t="n">
-        <v>0.324049</v>
+        <v>0.323843</v>
       </c>
       <c r="D43" t="n">
-        <v>0.354322</v>
+        <v>0.354847</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.323666</v>
+        <v>0.322339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324505</v>
+        <v>0.324818</v>
       </c>
       <c r="D44" t="n">
-        <v>0.353648</v>
+        <v>0.354885</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.325179</v>
+        <v>0.325369</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324175</v>
+        <v>0.324565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.353999</v>
+        <v>0.355079</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.323894</v>
+        <v>0.32357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32425</v>
+        <v>0.325121</v>
       </c>
       <c r="D46" t="n">
-        <v>0.355345</v>
+        <v>0.356692</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.326828</v>
+        <v>0.32767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325622</v>
+        <v>0.326246</v>
       </c>
       <c r="D47" t="n">
-        <v>0.35756</v>
+        <v>0.357612</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.328077</v>
+        <v>0.328898</v>
       </c>
       <c r="C48" t="n">
-        <v>0.327825</v>
+        <v>0.329173</v>
       </c>
       <c r="D48" t="n">
-        <v>0.359168</v>
+        <v>0.360676</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.330469</v>
+        <v>0.331859</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331012</v>
+        <v>0.331527</v>
       </c>
       <c r="D49" t="n">
-        <v>0.36313</v>
+        <v>0.364482</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.33371</v>
+        <v>0.336123</v>
       </c>
       <c r="C50" t="n">
-        <v>0.347001</v>
+        <v>0.333987</v>
       </c>
       <c r="D50" t="n">
-        <v>0.368606</v>
+        <v>0.368897</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.341701</v>
+        <v>0.343683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.337987</v>
+        <v>0.339115</v>
       </c>
       <c r="D51" t="n">
-        <v>0.377579</v>
+        <v>0.38879</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.35261</v>
+        <v>0.351936</v>
       </c>
       <c r="C52" t="n">
-        <v>0.344969</v>
+        <v>0.345365</v>
       </c>
       <c r="D52" t="n">
-        <v>0.384772</v>
+        <v>0.388557</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34407</v>
+        <v>0.345194</v>
       </c>
       <c r="C53" t="n">
-        <v>0.34719</v>
+        <v>0.348254</v>
       </c>
       <c r="D53" t="n">
-        <v>0.385391</v>
+        <v>0.386754</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.346498</v>
+        <v>0.345386</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347473</v>
+        <v>0.348656</v>
       </c>
       <c r="D54" t="n">
-        <v>0.385932</v>
+        <v>0.388257</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.345944</v>
+        <v>0.34404</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347962</v>
+        <v>0.348651</v>
       </c>
       <c r="D55" t="n">
-        <v>0.386847</v>
+        <v>0.387755</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.345148</v>
+        <v>0.347118</v>
       </c>
       <c r="C56" t="n">
-        <v>0.34827</v>
+        <v>0.348031</v>
       </c>
       <c r="D56" t="n">
-        <v>0.386708</v>
+        <v>0.386592</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.348497</v>
+        <v>0.346263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.348486</v>
+        <v>0.348387</v>
       </c>
       <c r="D57" t="n">
-        <v>0.387848</v>
+        <v>0.385741</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.349559</v>
+        <v>0.348048</v>
       </c>
       <c r="C58" t="n">
-        <v>0.349637</v>
+        <v>0.349087</v>
       </c>
       <c r="D58" t="n">
-        <v>0.388412</v>
+        <v>0.388874</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.349148</v>
+        <v>0.347489</v>
       </c>
       <c r="C59" t="n">
-        <v>0.350926</v>
+        <v>0.349882</v>
       </c>
       <c r="D59" t="n">
-        <v>0.389319</v>
+        <v>0.389821</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.348706</v>
+        <v>0.350033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.349319</v>
+        <v>0.351553</v>
       </c>
       <c r="D60" t="n">
-        <v>0.390747</v>
+        <v>0.393071</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.350455</v>
+        <v>0.351024</v>
       </c>
       <c r="C61" t="n">
-        <v>0.352162</v>
+        <v>0.351877</v>
       </c>
       <c r="D61" t="n">
-        <v>0.390362</v>
+        <v>0.392174</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.354956</v>
+        <v>0.352965</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353535</v>
+        <v>0.353447</v>
       </c>
       <c r="D62" t="n">
-        <v>0.393022</v>
+        <v>0.396433</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355708</v>
+        <v>0.355625</v>
       </c>
       <c r="C63" t="n">
-        <v>0.355599</v>
+        <v>0.355602</v>
       </c>
       <c r="D63" t="n">
-        <v>0.397335</v>
+        <v>0.39906</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.357918</v>
+        <v>0.360701</v>
       </c>
       <c r="C64" t="n">
-        <v>0.357811</v>
+        <v>0.357903</v>
       </c>
       <c r="D64" t="n">
-        <v>0.401895</v>
+        <v>0.40211</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.365275</v>
+        <v>0.367402</v>
       </c>
       <c r="C65" t="n">
-        <v>0.362677</v>
+        <v>0.362337</v>
       </c>
       <c r="D65" t="n">
-        <v>0.407153</v>
+        <v>0.407712</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.374532</v>
+        <v>0.375413</v>
       </c>
       <c r="C66" t="n">
-        <v>0.368318</v>
+        <v>0.370508</v>
       </c>
       <c r="D66" t="n">
-        <v>0.417272</v>
+        <v>0.416667</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.360992</v>
+        <v>0.364951</v>
       </c>
       <c r="C67" t="n">
-        <v>0.360054</v>
+        <v>0.36552</v>
       </c>
       <c r="D67" t="n">
-        <v>0.418076</v>
+        <v>0.417094</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.361364</v>
+        <v>0.364373</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365424</v>
+        <v>0.365578</v>
       </c>
       <c r="D68" t="n">
-        <v>0.418322</v>
+        <v>0.417409</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.363703</v>
+        <v>0.364768</v>
       </c>
       <c r="C69" t="n">
-        <v>0.365745</v>
+        <v>0.365543</v>
       </c>
       <c r="D69" t="n">
-        <v>0.418326</v>
+        <v>0.41747</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365572</v>
+        <v>0.36563</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366111</v>
+        <v>0.366106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.412588</v>
+        <v>0.41786</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.363966</v>
+        <v>0.366067</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366561</v>
+        <v>0.366405</v>
       </c>
       <c r="D71" t="n">
-        <v>0.419181</v>
+        <v>0.418255</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366683</v>
+        <v>0.366045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.36659</v>
+        <v>0.367167</v>
       </c>
       <c r="D72" t="n">
-        <v>0.419046</v>
+        <v>0.418994</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366033</v>
+        <v>0.368088</v>
       </c>
       <c r="C73" t="n">
-        <v>0.367405</v>
+        <v>0.367557</v>
       </c>
       <c r="D73" t="n">
-        <v>0.420708</v>
+        <v>0.420071</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.368895</v>
+        <v>0.368493</v>
       </c>
       <c r="C74" t="n">
-        <v>0.36841</v>
+        <v>0.36815</v>
       </c>
       <c r="D74" t="n">
-        <v>0.421597</v>
+        <v>0.421168</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370679</v>
+        <v>0.370317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.364325</v>
+        <v>0.369454</v>
       </c>
       <c r="D75" t="n">
-        <v>0.423864</v>
+        <v>0.422184</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.372692</v>
+        <v>0.371739</v>
       </c>
       <c r="C76" t="n">
-        <v>0.370672</v>
+        <v>0.370932</v>
       </c>
       <c r="D76" t="n">
-        <v>0.425353</v>
+        <v>0.424293</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.372576</v>
+        <v>0.375724</v>
       </c>
       <c r="C77" t="n">
-        <v>0.372492</v>
+        <v>0.372692</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427225</v>
+        <v>0.427434</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.375779</v>
+        <v>0.37983</v>
       </c>
       <c r="C78" t="n">
-        <v>0.371075</v>
+        <v>0.37612</v>
       </c>
       <c r="D78" t="n">
-        <v>0.42671</v>
+        <v>0.432622</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.381502</v>
+        <v>0.384464</v>
       </c>
       <c r="C79" t="n">
-        <v>0.374825</v>
+        <v>0.379649</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433277</v>
+        <v>0.43727</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392372</v>
+        <v>0.392526</v>
       </c>
       <c r="C80" t="n">
-        <v>0.38586</v>
+        <v>0.386173</v>
       </c>
       <c r="D80" t="n">
-        <v>0.436607</v>
+        <v>0.449135</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.388004</v>
+        <v>0.387921</v>
       </c>
       <c r="C81" t="n">
-        <v>0.387354</v>
+        <v>0.386487</v>
       </c>
       <c r="D81" t="n">
-        <v>0.440159</v>
+        <v>0.449351</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38722</v>
+        <v>0.387822</v>
       </c>
       <c r="C82" t="n">
-        <v>0.394997</v>
+        <v>0.386718</v>
       </c>
       <c r="D82" t="n">
-        <v>0.43718</v>
+        <v>0.450408</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.387812</v>
+        <v>0.388858</v>
       </c>
       <c r="C83" t="n">
-        <v>0.38694</v>
+        <v>0.387586</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449413</v>
+        <v>0.449654</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.387665</v>
+        <v>0.388181</v>
       </c>
       <c r="C84" t="n">
-        <v>0.382103</v>
+        <v>0.388096</v>
       </c>
       <c r="D84" t="n">
-        <v>0.452872</v>
+        <v>0.450525</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.38914</v>
+        <v>0.388078</v>
       </c>
       <c r="C85" t="n">
-        <v>0.387509</v>
+        <v>0.388687</v>
       </c>
       <c r="D85" t="n">
-        <v>0.449844</v>
+        <v>0.450462</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390276</v>
+        <v>0.388389</v>
       </c>
       <c r="C86" t="n">
-        <v>0.395166</v>
+        <v>0.388437</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438116</v>
+        <v>0.451066</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.388269</v>
+        <v>0.389014</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394123</v>
+        <v>0.389389</v>
       </c>
       <c r="D87" t="n">
-        <v>0.451092</v>
+        <v>0.452325</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.398167</v>
+        <v>0.392625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389279</v>
+        <v>0.391927</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452127</v>
+        <v>0.452281</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.391131</v>
+        <v>0.392402</v>
       </c>
       <c r="C89" t="n">
-        <v>0.390018</v>
+        <v>0.381809</v>
       </c>
       <c r="D89" t="n">
-        <v>0.453969</v>
+        <v>0.45471</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.394434</v>
+        <v>0.397097</v>
       </c>
       <c r="C90" t="n">
-        <v>0.392114</v>
+        <v>0.394236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.458645</v>
+        <v>0.445658</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.395902</v>
+        <v>0.396975</v>
       </c>
       <c r="C91" t="n">
-        <v>0.394108</v>
+        <v>0.394739</v>
       </c>
       <c r="D91" t="n">
-        <v>0.458791</v>
+        <v>0.448259</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.402384</v>
+        <v>0.402519</v>
       </c>
       <c r="C92" t="n">
-        <v>0.385631</v>
+        <v>0.396862</v>
       </c>
       <c r="D92" t="n">
-        <v>0.462801</v>
+        <v>0.463649</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.410765</v>
+        <v>0.406133</v>
       </c>
       <c r="C93" t="n">
-        <v>0.405298</v>
+        <v>0.400657</v>
       </c>
       <c r="D93" t="n">
-        <v>0.467584</v>
+        <v>0.468102</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.412682</v>
+        <v>0.413809</v>
       </c>
       <c r="C94" t="n">
-        <v>0.411899</v>
+        <v>0.407632</v>
       </c>
       <c r="D94" t="n">
-        <v>0.647193</v>
+        <v>0.648442</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.596997</v>
+        <v>0.599333</v>
       </c>
       <c r="C95" t="n">
-        <v>0.588017</v>
+        <v>0.585696</v>
       </c>
       <c r="D95" t="n">
-        <v>0.661045</v>
+        <v>0.658388</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.594006</v>
+        <v>0.593776</v>
       </c>
       <c r="C96" t="n">
-        <v>0.582182</v>
+        <v>0.539255</v>
       </c>
       <c r="D96" t="n">
-        <v>0.580936</v>
+        <v>0.577391</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.593957</v>
+        <v>0.587664</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583892</v>
+        <v>0.580355</v>
       </c>
       <c r="D97" t="n">
-        <v>0.58067</v>
+        <v>0.571949</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.591821</v>
+        <v>0.5807330000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.585017</v>
+        <v>0.533196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.657816</v>
+        <v>0.647039</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.587866</v>
+        <v>0.582013</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582937</v>
+        <v>0.572568</v>
       </c>
       <c r="D99" t="n">
-        <v>0.668258</v>
+        <v>0.645103</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.602834</v>
+        <v>0.588592</v>
       </c>
       <c r="C100" t="n">
-        <v>0.576275</v>
+        <v>0.535219</v>
       </c>
       <c r="D100" t="n">
-        <v>0.644031</v>
+        <v>0.632454</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.597698</v>
+        <v>0.583743</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5847059999999999</v>
+        <v>0.522604</v>
       </c>
       <c r="D101" t="n">
-        <v>0.670916</v>
+        <v>0.562439</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5840959999999999</v>
+        <v>0.578339</v>
       </c>
       <c r="C102" t="n">
-        <v>0.584542</v>
+        <v>0.565877</v>
       </c>
       <c r="D102" t="n">
-        <v>0.597463</v>
+        <v>0.6357660000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.597406</v>
+        <v>0.581445</v>
       </c>
       <c r="C103" t="n">
-        <v>0.596839</v>
+        <v>0.574257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6461170000000001</v>
+        <v>0.644424</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6040450000000001</v>
+        <v>0.595429</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5452050000000001</v>
+        <v>0.552356</v>
       </c>
       <c r="D104" t="n">
-        <v>0.575072</v>
+        <v>0.657144</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.597982</v>
+        <v>0.591741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.581294</v>
+        <v>0.586766</v>
       </c>
       <c r="D105" t="n">
-        <v>0.63885</v>
+        <v>0.660291</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.60092</v>
+        <v>0.598907</v>
       </c>
       <c r="C106" t="n">
-        <v>0.587069</v>
+        <v>0.592809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.655576</v>
+        <v>0.66747</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.607561</v>
+        <v>0.615243</v>
       </c>
       <c r="C107" t="n">
-        <v>0.547508</v>
+        <v>0.591944</v>
       </c>
       <c r="D107" t="n">
-        <v>0.66352</v>
+        <v>0.663741</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.60508</v>
+        <v>0.624428</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5956090000000001</v>
+        <v>0.600488</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13998</v>
+        <v>1.13895</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.612443</v>
+        <v>0.630348</v>
       </c>
       <c r="C109" t="n">
-        <v>0.589739</v>
+        <v>0.613718</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13897</v>
+        <v>1.13724</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0533</v>
+        <v>1.056</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03752</v>
+        <v>1.01181</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17833</v>
+        <v>1.1856</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0536</v>
+        <v>1.05363</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01121</v>
+        <v>1.03817</v>
       </c>
       <c r="D111" t="n">
-        <v>1.1715</v>
+        <v>1.18555</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05497</v>
+        <v>1.0549</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03665</v>
+        <v>1.0106</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17865</v>
+        <v>1.13979</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05432</v>
+        <v>1.05209</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03714</v>
+        <v>1.03663</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17392</v>
+        <v>1.1799</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05374</v>
+        <v>1.05423</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0367</v>
+        <v>1.03605</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17957</v>
+        <v>1.18171</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05442</v>
+        <v>1.05533</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03523</v>
+        <v>1.01128</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17906</v>
+        <v>1.13949</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05563</v>
+        <v>1.05673</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03427</v>
+        <v>1.03815</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17903</v>
+        <v>1.17913</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05581</v>
+        <v>1.05355</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01099</v>
+        <v>1.03557</v>
       </c>
       <c r="D117" t="n">
-        <v>1.13632</v>
+        <v>1.17839</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0556</v>
+        <v>1.05473</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04016</v>
+        <v>1.03933</v>
       </c>
       <c r="D118" t="n">
-        <v>1.18103</v>
+        <v>1.17926</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05838</v>
+        <v>1.05832</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0384</v>
+        <v>1.01118</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18201</v>
+        <v>1.18021</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06071</v>
+        <v>1.05895</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04289</v>
+        <v>1.04032</v>
       </c>
       <c r="D120" t="n">
-        <v>1.17225</v>
+        <v>1.13687</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06434</v>
+        <v>1.06231</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04337</v>
+        <v>1.01495</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18694</v>
+        <v>1.18142</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06813</v>
+        <v>1.06633</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04682</v>
+        <v>1.04492</v>
       </c>
       <c r="D122" t="n">
-        <v>1.17999</v>
+        <v>1.14341</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07335</v>
+        <v>1.07249</v>
       </c>
       <c r="C123" t="n">
-        <v>1.05205</v>
+        <v>1.02392</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6507</v>
+        <v>1.64278</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31913</v>
+        <v>1.3241</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31079</v>
+        <v>1.33495</v>
       </c>
       <c r="D124" t="n">
-        <v>1.63357</v>
+        <v>1.64804</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31589</v>
+        <v>1.31468</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31214</v>
+        <v>1.2967</v>
       </c>
       <c r="D125" t="n">
-        <v>1.61688</v>
+        <v>1.6436</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32061</v>
+        <v>1.31854</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3221</v>
+        <v>1.31637</v>
       </c>
       <c r="D126" t="n">
-        <v>1.6139</v>
+        <v>1.59775</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31976</v>
+        <v>1.31527</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33433</v>
+        <v>1.29669</v>
       </c>
       <c r="D127" t="n">
-        <v>1.6244</v>
+        <v>1.60472</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33022</v>
+        <v>1.31337</v>
       </c>
       <c r="C128" t="n">
-        <v>1.33452</v>
+        <v>1.31158</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61555</v>
+        <v>1.63775</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31852</v>
+        <v>1.31939</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31799</v>
+        <v>1.32979</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62065</v>
+        <v>1.64967</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31642</v>
+        <v>1.31211</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32925</v>
+        <v>1.32297</v>
       </c>
       <c r="D130" t="n">
-        <v>1.65607</v>
+        <v>1.64298</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3132</v>
+        <v>1.31483</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31627</v>
+        <v>1.32142</v>
       </c>
       <c r="D131" t="n">
-        <v>1.64137</v>
+        <v>1.64284</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32701</v>
+        <v>1.31456</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32429</v>
+        <v>1.32535</v>
       </c>
       <c r="D132" t="n">
-        <v>1.6515</v>
+        <v>1.63747</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32934</v>
+        <v>1.32204</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32901</v>
+        <v>1.33357</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65458</v>
+        <v>1.64471</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32377</v>
+        <v>1.32187</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32667</v>
+        <v>1.32325</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66233</v>
+        <v>1.65124</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33594</v>
+        <v>1.32858</v>
       </c>
       <c r="C135" t="n">
-        <v>1.32437</v>
+        <v>1.33702</v>
       </c>
       <c r="D135" t="n">
-        <v>1.68376</v>
+        <v>1.67213</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34784</v>
+        <v>1.33029</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33479</v>
+        <v>1.33539</v>
       </c>
       <c r="D136" t="n">
-        <v>1.65323</v>
+        <v>1.67656</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35517</v>
+        <v>1.35411</v>
       </c>
       <c r="C137" t="n">
-        <v>1.34199</v>
+        <v>1.34416</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09293</v>
+        <v>2.06308</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.45823</v>
+        <v>1.45875</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44477</v>
+        <v>1.45568</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0652</v>
+        <v>2.0633</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.45493</v>
+        <v>1.45598</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45731</v>
+        <v>1.46033</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06533</v>
+        <v>2.06596</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45819</v>
+        <v>1.45817</v>
       </c>
       <c r="C140" t="n">
-        <v>1.4447</v>
+        <v>1.4495</v>
       </c>
       <c r="D140" t="n">
-        <v>2.08914</v>
+        <v>2.09374</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.46014</v>
+        <v>1.46371</v>
       </c>
       <c r="C141" t="n">
-        <v>1.44813</v>
+        <v>1.45986</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09492</v>
+        <v>2.09104</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.45541</v>
+        <v>1.45921</v>
       </c>
       <c r="C142" t="n">
-        <v>1.45609</v>
+        <v>1.44805</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09221</v>
+        <v>2.09398</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45986</v>
+        <v>1.45732</v>
       </c>
       <c r="C143" t="n">
-        <v>1.46286</v>
+        <v>1.4592</v>
       </c>
       <c r="D143" t="n">
-        <v>2.06929</v>
+        <v>2.09408</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285415</v>
+        <v>0.285309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278211</v>
+        <v>0.278354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.316734</v>
+        <v>0.316716</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286298</v>
+        <v>0.286068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278867</v>
+        <v>0.278833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31733</v>
+        <v>0.317324</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287949</v>
+        <v>0.287658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280158</v>
+        <v>0.280163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318939</v>
+        <v>0.318966</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289643</v>
+        <v>0.290759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281447</v>
+        <v>0.281483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321344</v>
+        <v>0.321101</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291092</v>
+        <v>0.291395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282615</v>
+        <v>0.282517</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323467</v>
+        <v>0.323188</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294545</v>
+        <v>0.294713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284738</v>
+        <v>0.28467</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32735</v>
+        <v>0.326987</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2992</v>
+        <v>0.299334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.287823</v>
+        <v>0.28787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333399</v>
+        <v>0.333098</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305981</v>
+        <v>0.305968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293151</v>
+        <v>0.293074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315175</v>
+        <v>0.315068</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.28622</v>
+        <v>0.288098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278465</v>
+        <v>0.278848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31528</v>
+        <v>0.315186</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285688</v>
+        <v>0.287363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.27863</v>
+        <v>0.279971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.315032</v>
+        <v>0.316117</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.287413</v>
+        <v>0.289457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.279822</v>
+        <v>0.283694</v>
       </c>
       <c r="D12" t="n">
-        <v>0.316396</v>
+        <v>0.318654</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286547</v>
+        <v>0.288155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279204</v>
+        <v>0.281014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.315527</v>
+        <v>0.316005</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28822</v>
+        <v>0.288243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280439</v>
+        <v>0.281094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315994</v>
+        <v>0.316918</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.288273</v>
+        <v>0.289637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280409</v>
+        <v>0.281257</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316731</v>
+        <v>0.317384</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288751</v>
+        <v>0.29082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.281061</v>
+        <v>0.282276</v>
       </c>
       <c r="D16" t="n">
-        <v>0.317521</v>
+        <v>0.318008</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.291962</v>
+        <v>0.290978</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282152</v>
+        <v>0.282223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.318478</v>
+        <v>0.318329</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291532</v>
+        <v>0.292123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282695</v>
+        <v>0.283958</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319674</v>
+        <v>0.320373</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294643</v>
+        <v>0.293807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.285984</v>
+        <v>0.284755</v>
       </c>
       <c r="D19" t="n">
-        <v>0.322369</v>
+        <v>0.321849</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.295426</v>
+        <v>0.297171</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285742</v>
+        <v>0.286705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.323968</v>
+        <v>0.323819</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299021</v>
+        <v>0.299841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.288521</v>
+        <v>0.288953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327729</v>
+        <v>0.327503</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.304366</v>
+        <v>0.305453</v>
       </c>
       <c r="C22" t="n">
-        <v>0.291224</v>
+        <v>0.292738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33311</v>
+        <v>0.334032</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309884</v>
+        <v>0.311808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296096</v>
+        <v>0.296786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326084</v>
+        <v>0.322198</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296556</v>
+        <v>0.296879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293703</v>
+        <v>0.291556</v>
       </c>
       <c r="D24" t="n">
-        <v>0.32296</v>
+        <v>0.321919</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297046</v>
+        <v>0.296751</v>
       </c>
       <c r="C25" t="n">
-        <v>0.293601</v>
+        <v>0.291278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324906</v>
+        <v>0.323065</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297846</v>
+        <v>0.297778</v>
       </c>
       <c r="C26" t="n">
-        <v>0.293116</v>
+        <v>0.292592</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324234</v>
+        <v>0.323619</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298628</v>
+        <v>0.298382</v>
       </c>
       <c r="C27" t="n">
-        <v>0.295423</v>
+        <v>0.293637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326225</v>
+        <v>0.324427</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.299569</v>
+        <v>0.299766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.294626</v>
+        <v>0.29471</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324969</v>
+        <v>0.323831</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.299609</v>
+        <v>0.300008</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297049</v>
+        <v>0.296806</v>
       </c>
       <c r="D29" t="n">
-        <v>0.327109</v>
+        <v>0.326214</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301482</v>
+        <v>0.301436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.298257</v>
+        <v>0.295142</v>
       </c>
       <c r="D30" t="n">
-        <v>0.327823</v>
+        <v>0.325894</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.301817</v>
+        <v>0.302411</v>
       </c>
       <c r="C31" t="n">
-        <v>0.297181</v>
+        <v>0.297937</v>
       </c>
       <c r="D31" t="n">
-        <v>0.328723</v>
+        <v>0.327489</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304112</v>
+        <v>0.303767</v>
       </c>
       <c r="C32" t="n">
-        <v>0.298625</v>
+        <v>0.298871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.328656</v>
+        <v>0.329745</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305089</v>
+        <v>0.305608</v>
       </c>
       <c r="C33" t="n">
-        <v>0.29965</v>
+        <v>0.301469</v>
       </c>
       <c r="D33" t="n">
-        <v>0.331035</v>
+        <v>0.33217</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307679</v>
+        <v>0.307533</v>
       </c>
       <c r="C34" t="n">
-        <v>0.301313</v>
+        <v>0.301164</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33498</v>
+        <v>0.334536</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311198</v>
+        <v>0.310118</v>
       </c>
       <c r="C35" t="n">
-        <v>0.322398</v>
+        <v>0.304067</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338542</v>
+        <v>0.33814</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315257</v>
+        <v>0.315416</v>
       </c>
       <c r="C36" t="n">
-        <v>0.307695</v>
+        <v>0.306757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.344979</v>
+        <v>0.342267</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322224</v>
+        <v>0.322438</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313863</v>
+        <v>0.311553</v>
       </c>
       <c r="D37" t="n">
-        <v>0.351947</v>
+        <v>0.344797</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.322316</v>
+        <v>0.316858</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322798</v>
+        <v>0.32069</v>
       </c>
       <c r="D38" t="n">
-        <v>0.351608</v>
+        <v>0.352661</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320182</v>
+        <v>0.318021</v>
       </c>
       <c r="C39" t="n">
-        <v>0.322265</v>
+        <v>0.320201</v>
       </c>
       <c r="D39" t="n">
-        <v>0.352639</v>
+        <v>0.352906</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320627</v>
+        <v>0.320003</v>
       </c>
       <c r="C40" t="n">
-        <v>0.321995</v>
+        <v>0.315817</v>
       </c>
       <c r="D40" t="n">
-        <v>0.351898</v>
+        <v>0.352358</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.321214</v>
+        <v>0.319803</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322476</v>
+        <v>0.321543</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35251</v>
+        <v>0.354145</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321305</v>
+        <v>0.318959</v>
       </c>
       <c r="C42" t="n">
-        <v>0.323243</v>
+        <v>0.323011</v>
       </c>
       <c r="D42" t="n">
-        <v>0.352117</v>
+        <v>0.354521</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321707</v>
+        <v>0.319921</v>
       </c>
       <c r="C43" t="n">
-        <v>0.323843</v>
+        <v>0.322788</v>
       </c>
       <c r="D43" t="n">
-        <v>0.354847</v>
+        <v>0.354273</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.322339</v>
+        <v>0.322722</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324818</v>
+        <v>0.323432</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354885</v>
+        <v>0.356765</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.325369</v>
+        <v>0.323427</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324565</v>
+        <v>0.320636</v>
       </c>
       <c r="D45" t="n">
-        <v>0.355079</v>
+        <v>0.357239</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.32357</v>
+        <v>0.324732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.325121</v>
+        <v>0.321528</v>
       </c>
       <c r="D46" t="n">
-        <v>0.356692</v>
+        <v>0.358208</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.32767</v>
+        <v>0.323059</v>
       </c>
       <c r="C47" t="n">
-        <v>0.326246</v>
+        <v>0.325945</v>
       </c>
       <c r="D47" t="n">
-        <v>0.357612</v>
+        <v>0.357953</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.328898</v>
+        <v>0.328705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329173</v>
+        <v>0.325767</v>
       </c>
       <c r="D48" t="n">
-        <v>0.360676</v>
+        <v>0.360975</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.331859</v>
+        <v>0.33221</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331527</v>
+        <v>0.329424</v>
       </c>
       <c r="D49" t="n">
-        <v>0.364482</v>
+        <v>0.363684</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.336123</v>
+        <v>0.335863</v>
       </c>
       <c r="C50" t="n">
-        <v>0.333987</v>
+        <v>0.331316</v>
       </c>
       <c r="D50" t="n">
-        <v>0.368897</v>
+        <v>0.36986</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.343683</v>
+        <v>0.341437</v>
       </c>
       <c r="C51" t="n">
-        <v>0.339115</v>
+        <v>0.33833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.38879</v>
+        <v>0.377305</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.351936</v>
+        <v>0.355114</v>
       </c>
       <c r="C52" t="n">
-        <v>0.345365</v>
+        <v>0.347183</v>
       </c>
       <c r="D52" t="n">
-        <v>0.388557</v>
+        <v>0.375058</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345194</v>
+        <v>0.344858</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348254</v>
+        <v>0.344848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.386754</v>
+        <v>0.388108</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.345386</v>
+        <v>0.340216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348656</v>
+        <v>0.344903</v>
       </c>
       <c r="D54" t="n">
-        <v>0.388257</v>
+        <v>0.381498</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34404</v>
+        <v>0.345914</v>
       </c>
       <c r="C55" t="n">
-        <v>0.348651</v>
+        <v>0.339136</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387755</v>
+        <v>0.378511</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.347118</v>
+        <v>0.340964</v>
       </c>
       <c r="C56" t="n">
-        <v>0.348031</v>
+        <v>0.346763</v>
       </c>
       <c r="D56" t="n">
-        <v>0.386592</v>
+        <v>0.387358</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.346263</v>
+        <v>0.348485</v>
       </c>
       <c r="C57" t="n">
-        <v>0.348387</v>
+        <v>0.346669</v>
       </c>
       <c r="D57" t="n">
-        <v>0.385741</v>
+        <v>0.38925</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348048</v>
+        <v>0.347933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.349087</v>
+        <v>0.347798</v>
       </c>
       <c r="D58" t="n">
-        <v>0.388874</v>
+        <v>0.38967</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.347489</v>
+        <v>0.343943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349882</v>
+        <v>0.348058</v>
       </c>
       <c r="D59" t="n">
-        <v>0.389821</v>
+        <v>0.383998</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.350033</v>
+        <v>0.351257</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351553</v>
+        <v>0.342186</v>
       </c>
       <c r="D60" t="n">
-        <v>0.393071</v>
+        <v>0.383174</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.351024</v>
+        <v>0.352994</v>
       </c>
       <c r="C61" t="n">
-        <v>0.351877</v>
+        <v>0.345404</v>
       </c>
       <c r="D61" t="n">
-        <v>0.392174</v>
+        <v>0.382246</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.352965</v>
+        <v>0.348237</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353447</v>
+        <v>0.352614</v>
       </c>
       <c r="D62" t="n">
-        <v>0.396433</v>
+        <v>0.395219</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355625</v>
+        <v>0.350973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.355602</v>
+        <v>0.354834</v>
       </c>
       <c r="D63" t="n">
-        <v>0.39906</v>
+        <v>0.398892</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360701</v>
+        <v>0.361149</v>
       </c>
       <c r="C64" t="n">
-        <v>0.357903</v>
+        <v>0.357286</v>
       </c>
       <c r="D64" t="n">
-        <v>0.40211</v>
+        <v>0.403037</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.367402</v>
+        <v>0.361319</v>
       </c>
       <c r="C65" t="n">
-        <v>0.362337</v>
+        <v>0.361853</v>
       </c>
       <c r="D65" t="n">
-        <v>0.407712</v>
+        <v>0.408082</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.375413</v>
+        <v>0.375578</v>
       </c>
       <c r="C66" t="n">
-        <v>0.370508</v>
+        <v>0.368046</v>
       </c>
       <c r="D66" t="n">
-        <v>0.416667</v>
+        <v>0.411154</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364951</v>
+        <v>0.360829</v>
       </c>
       <c r="C67" t="n">
-        <v>0.36552</v>
+        <v>0.355231</v>
       </c>
       <c r="D67" t="n">
-        <v>0.417094</v>
+        <v>0.411162</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.364373</v>
+        <v>0.361483</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365578</v>
+        <v>0.357397</v>
       </c>
       <c r="D68" t="n">
-        <v>0.417409</v>
+        <v>0.413133</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.364768</v>
+        <v>0.362152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.365543</v>
+        <v>0.356512</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41747</v>
+        <v>0.41431</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36563</v>
+        <v>0.362533</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366106</v>
+        <v>0.357671</v>
       </c>
       <c r="D70" t="n">
-        <v>0.41786</v>
+        <v>0.412282</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366067</v>
+        <v>0.362995</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366405</v>
+        <v>0.358558</v>
       </c>
       <c r="D71" t="n">
-        <v>0.418255</v>
+        <v>0.413323</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366045</v>
+        <v>0.362989</v>
       </c>
       <c r="C72" t="n">
-        <v>0.367167</v>
+        <v>0.358786</v>
       </c>
       <c r="D72" t="n">
-        <v>0.418994</v>
+        <v>0.413933</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.368088</v>
+        <v>0.364441</v>
       </c>
       <c r="C73" t="n">
-        <v>0.367557</v>
+        <v>0.359961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.420071</v>
+        <v>0.414249</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.368493</v>
+        <v>0.364997</v>
       </c>
       <c r="C74" t="n">
-        <v>0.36815</v>
+        <v>0.361069</v>
       </c>
       <c r="D74" t="n">
-        <v>0.421168</v>
+        <v>0.415552</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370317</v>
+        <v>0.367528</v>
       </c>
       <c r="C75" t="n">
-        <v>0.369454</v>
+        <v>0.363302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422184</v>
+        <v>0.41739</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.371739</v>
+        <v>0.369241</v>
       </c>
       <c r="C76" t="n">
-        <v>0.370932</v>
+        <v>0.363748</v>
       </c>
       <c r="D76" t="n">
-        <v>0.424293</v>
+        <v>0.418977</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.375724</v>
+        <v>0.372511</v>
       </c>
       <c r="C77" t="n">
-        <v>0.372692</v>
+        <v>0.366377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427434</v>
+        <v>0.423692</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.37983</v>
+        <v>0.376296</v>
       </c>
       <c r="C78" t="n">
-        <v>0.37612</v>
+        <v>0.369915</v>
       </c>
       <c r="D78" t="n">
-        <v>0.432622</v>
+        <v>0.428932</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.384464</v>
+        <v>0.381802</v>
       </c>
       <c r="C79" t="n">
-        <v>0.379649</v>
+        <v>0.373745</v>
       </c>
       <c r="D79" t="n">
-        <v>0.43727</v>
+        <v>0.433082</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392526</v>
+        <v>0.390413</v>
       </c>
       <c r="C80" t="n">
-        <v>0.386173</v>
+        <v>0.380749</v>
       </c>
       <c r="D80" t="n">
-        <v>0.449135</v>
+        <v>0.449383</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387921</v>
+        <v>0.387916</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386487</v>
+        <v>0.382546</v>
       </c>
       <c r="D81" t="n">
-        <v>0.449351</v>
+        <v>0.438954</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387822</v>
+        <v>0.391096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.386718</v>
+        <v>0.384048</v>
       </c>
       <c r="D82" t="n">
-        <v>0.450408</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.388858</v>
+        <v>0.390668</v>
       </c>
       <c r="C83" t="n">
-        <v>0.387586</v>
+        <v>0.378729</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449654</v>
+        <v>0.43847</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.388181</v>
+        <v>0.386703</v>
       </c>
       <c r="C84" t="n">
-        <v>0.388096</v>
+        <v>0.384791</v>
       </c>
       <c r="D84" t="n">
-        <v>0.450525</v>
+        <v>0.452408</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.388078</v>
+        <v>0.391264</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388687</v>
+        <v>0.385667</v>
       </c>
       <c r="D85" t="n">
-        <v>0.450462</v>
+        <v>0.450398</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.388389</v>
+        <v>0.38979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.388437</v>
+        <v>0.388014</v>
       </c>
       <c r="D86" t="n">
-        <v>0.451066</v>
+        <v>0.454078</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.389014</v>
+        <v>0.38984</v>
       </c>
       <c r="C87" t="n">
-        <v>0.389389</v>
+        <v>0.377057</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452325</v>
+        <v>0.453469</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.392625</v>
+        <v>0.393236</v>
       </c>
       <c r="C88" t="n">
-        <v>0.391927</v>
+        <v>0.389008</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452281</v>
+        <v>0.452558</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.392402</v>
+        <v>0.395624</v>
       </c>
       <c r="C89" t="n">
-        <v>0.381809</v>
+        <v>0.391034</v>
       </c>
       <c r="D89" t="n">
-        <v>0.45471</v>
+        <v>0.44201</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.397097</v>
+        <v>0.39601</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394236</v>
+        <v>0.380788</v>
       </c>
       <c r="D90" t="n">
-        <v>0.445658</v>
+        <v>0.456349</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396975</v>
+        <v>0.398426</v>
       </c>
       <c r="C91" t="n">
-        <v>0.394739</v>
+        <v>0.384332</v>
       </c>
       <c r="D91" t="n">
-        <v>0.448259</v>
+        <v>0.449989</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.402519</v>
+        <v>0.401552</v>
       </c>
       <c r="C92" t="n">
-        <v>0.396862</v>
+        <v>0.397404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.463649</v>
+        <v>0.466015</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.406133</v>
+        <v>0.41604</v>
       </c>
       <c r="C93" t="n">
-        <v>0.400657</v>
+        <v>0.402937</v>
       </c>
       <c r="D93" t="n">
-        <v>0.468102</v>
+        <v>0.468169</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413809</v>
+        <v>0.41374</v>
       </c>
       <c r="C94" t="n">
-        <v>0.407632</v>
+        <v>0.406386</v>
       </c>
       <c r="D94" t="n">
-        <v>0.648442</v>
+        <v>0.668534</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.599333</v>
+        <v>0.617038</v>
       </c>
       <c r="C95" t="n">
-        <v>0.585696</v>
+        <v>0.607684</v>
       </c>
       <c r="D95" t="n">
-        <v>0.658388</v>
+        <v>0.608853</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.593776</v>
+        <v>0.615301</v>
       </c>
       <c r="C96" t="n">
-        <v>0.539255</v>
+        <v>0.6097050000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.577391</v>
+        <v>0.68026</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.587664</v>
+        <v>0.622534</v>
       </c>
       <c r="C97" t="n">
-        <v>0.580355</v>
+        <v>0.611878</v>
       </c>
       <c r="D97" t="n">
-        <v>0.571949</v>
+        <v>0.664725</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5807330000000001</v>
+        <v>0.629822</v>
       </c>
       <c r="C98" t="n">
-        <v>0.533196</v>
+        <v>0.601942</v>
       </c>
       <c r="D98" t="n">
-        <v>0.647039</v>
+        <v>0.668569</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.582013</v>
+        <v>0.6165119999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.572568</v>
+        <v>0.598961</v>
       </c>
       <c r="D99" t="n">
-        <v>0.645103</v>
+        <v>0.6632169999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.588592</v>
+        <v>0.612662</v>
       </c>
       <c r="C100" t="n">
-        <v>0.535219</v>
+        <v>0.548567</v>
       </c>
       <c r="D100" t="n">
-        <v>0.632454</v>
+        <v>0.598817</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.583743</v>
+        <v>0.62273</v>
       </c>
       <c r="C101" t="n">
-        <v>0.522604</v>
+        <v>0.599963</v>
       </c>
       <c r="D101" t="n">
-        <v>0.562439</v>
+        <v>0.662998</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.578339</v>
+        <v>0.622758</v>
       </c>
       <c r="C102" t="n">
-        <v>0.565877</v>
+        <v>0.568105</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6357660000000001</v>
+        <v>0.672187</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.581445</v>
+        <v>0.623105</v>
       </c>
       <c r="C103" t="n">
-        <v>0.574257</v>
+        <v>0.614139</v>
       </c>
       <c r="D103" t="n">
-        <v>0.644424</v>
+        <v>0.61321</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.595429</v>
+        <v>0.621905</v>
       </c>
       <c r="C104" t="n">
-        <v>0.552356</v>
+        <v>0.611087</v>
       </c>
       <c r="D104" t="n">
-        <v>0.657144</v>
+        <v>0.674109</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.591741</v>
+        <v>0.62741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.586766</v>
+        <v>0.605665</v>
       </c>
       <c r="D105" t="n">
-        <v>0.660291</v>
+        <v>0.664866</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.598907</v>
+        <v>0.629093</v>
       </c>
       <c r="C106" t="n">
-        <v>0.592809</v>
+        <v>0.564713</v>
       </c>
       <c r="D106" t="n">
-        <v>0.66747</v>
+        <v>0.662614</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.615243</v>
+        <v>0.62313</v>
       </c>
       <c r="C107" t="n">
-        <v>0.591944</v>
+        <v>0.601189</v>
       </c>
       <c r="D107" t="n">
-        <v>0.663741</v>
+        <v>0.666867</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.624428</v>
+        <v>0.631008</v>
       </c>
       <c r="C108" t="n">
-        <v>0.600488</v>
+        <v>0.6017670000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>1.13895</v>
+        <v>1.25729</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.630348</v>
+        <v>0.6420129999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.613718</v>
+        <v>0.616981</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13724</v>
+        <v>1.26314</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.056</v>
+        <v>1.13642</v>
       </c>
       <c r="C110" t="n">
-        <v>1.01181</v>
+        <v>1.10937</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1856</v>
+        <v>1.24863</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05363</v>
+        <v>1.13236</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03817</v>
+        <v>1.11274</v>
       </c>
       <c r="D111" t="n">
-        <v>1.18555</v>
+        <v>1.24969</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0549</v>
+        <v>1.13384</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0106</v>
+        <v>1.11071</v>
       </c>
       <c r="D112" t="n">
-        <v>1.13979</v>
+        <v>1.25688</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05209</v>
+        <v>1.1368</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03663</v>
+        <v>1.08199</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1799</v>
+        <v>1.20569</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05423</v>
+        <v>1.13586</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03605</v>
+        <v>1.11201</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18171</v>
+        <v>1.26064</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05533</v>
+        <v>1.13871</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01128</v>
+        <v>1.11017</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13949</v>
+        <v>1.25407</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05673</v>
+        <v>1.13588</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03815</v>
+        <v>1.11365</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17913</v>
+        <v>1.24823</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05355</v>
+        <v>1.13775</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03557</v>
+        <v>1.1116</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17839</v>
+        <v>1.17805</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05473</v>
+        <v>1.13516</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03933</v>
+        <v>1.11027</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17926</v>
+        <v>1.25436</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05832</v>
+        <v>1.13545</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01118</v>
+        <v>1.11248</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18021</v>
+        <v>1.25273</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05895</v>
+        <v>1.13981</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04032</v>
+        <v>1.11495</v>
       </c>
       <c r="D120" t="n">
-        <v>1.13687</v>
+        <v>1.19963</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06231</v>
+        <v>1.1401</v>
       </c>
       <c r="C121" t="n">
-        <v>1.01495</v>
+        <v>1.11545</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18142</v>
+        <v>1.24493</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06633</v>
+        <v>1.15082</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04492</v>
+        <v>1.0899</v>
       </c>
       <c r="D122" t="n">
-        <v>1.14341</v>
+        <v>1.19562</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07249</v>
+        <v>1.147</v>
       </c>
       <c r="C123" t="n">
-        <v>1.02392</v>
+        <v>1.09159</v>
       </c>
       <c r="D123" t="n">
-        <v>1.64278</v>
+        <v>1.74242</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3241</v>
+        <v>1.45432</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33495</v>
+        <v>1.42942</v>
       </c>
       <c r="D124" t="n">
-        <v>1.64804</v>
+        <v>1.7757</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31468</v>
+        <v>1.42625</v>
       </c>
       <c r="C125" t="n">
-        <v>1.2967</v>
+        <v>1.43706</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6436</v>
+        <v>1.77953</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31854</v>
+        <v>1.43067</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31637</v>
+        <v>1.44369</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59775</v>
+        <v>1.77552</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31527</v>
+        <v>1.43038</v>
       </c>
       <c r="C127" t="n">
-        <v>1.29669</v>
+        <v>1.45214</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60472</v>
+        <v>1.77953</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31337</v>
+        <v>1.43765</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31158</v>
+        <v>1.44467</v>
       </c>
       <c r="D128" t="n">
-        <v>1.63775</v>
+        <v>1.77421</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31939</v>
+        <v>1.4217</v>
       </c>
       <c r="C129" t="n">
-        <v>1.32979</v>
+        <v>1.43059</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64967</v>
+        <v>1.78537</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31211</v>
+        <v>1.43684</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32297</v>
+        <v>1.44057</v>
       </c>
       <c r="D130" t="n">
-        <v>1.64298</v>
+        <v>1.73452</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.31483</v>
+        <v>1.43206</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32142</v>
+        <v>1.4509</v>
       </c>
       <c r="D131" t="n">
-        <v>1.64284</v>
+        <v>1.78337</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31456</v>
+        <v>1.42931</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32535</v>
+        <v>1.44496</v>
       </c>
       <c r="D132" t="n">
-        <v>1.63747</v>
+        <v>1.78534</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32204</v>
+        <v>1.43671</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33357</v>
+        <v>1.44006</v>
       </c>
       <c r="D133" t="n">
-        <v>1.64471</v>
+        <v>1.78834</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32187</v>
+        <v>1.44385</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32325</v>
+        <v>1.40397</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65124</v>
+        <v>1.79032</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32858</v>
+        <v>1.44748</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33702</v>
+        <v>1.46225</v>
       </c>
       <c r="D135" t="n">
-        <v>1.67213</v>
+        <v>1.79077</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33029</v>
+        <v>1.43752</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33539</v>
+        <v>1.45348</v>
       </c>
       <c r="D136" t="n">
-        <v>1.67656</v>
+        <v>1.76036</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35411</v>
+        <v>1.46244</v>
       </c>
       <c r="C137" t="n">
-        <v>1.34416</v>
+        <v>1.48025</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06308</v>
+        <v>2.29798</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.45875</v>
+        <v>1.59276</v>
       </c>
       <c r="C138" t="n">
-        <v>1.45568</v>
+        <v>1.58135</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0633</v>
+        <v>2.28907</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.45598</v>
+        <v>1.58977</v>
       </c>
       <c r="C139" t="n">
-        <v>1.46033</v>
+        <v>1.57509</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06596</v>
+        <v>2.28994</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45817</v>
+        <v>1.58208</v>
       </c>
       <c r="C140" t="n">
-        <v>1.4495</v>
+        <v>1.60347</v>
       </c>
       <c r="D140" t="n">
-        <v>2.09374</v>
+        <v>2.26784</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.46371</v>
+        <v>1.56201</v>
       </c>
       <c r="C141" t="n">
-        <v>1.45986</v>
+        <v>1.54717</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09104</v>
+        <v>2.26871</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.45921</v>
+        <v>1.56848</v>
       </c>
       <c r="C142" t="n">
-        <v>1.44805</v>
+        <v>1.56533</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09398</v>
+        <v>2.26869</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45732</v>
+        <v>1.56928</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4592</v>
+        <v>1.56832</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09408</v>
+        <v>2.26541</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285309</v>
+        <v>0.285485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278354</v>
+        <v>0.278549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.316716</v>
+        <v>0.317066</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286068</v>
+        <v>0.286219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278833</v>
+        <v>0.279058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317324</v>
+        <v>0.317685</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287658</v>
+        <v>0.287453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280163</v>
+        <v>0.280326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318966</v>
+        <v>0.319376</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.290759</v>
+        <v>0.289481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281483</v>
+        <v>0.281731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321101</v>
+        <v>0.321638</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291395</v>
+        <v>0.291323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282517</v>
+        <v>0.282644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323188</v>
+        <v>0.32357</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294713</v>
+        <v>0.294574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28467</v>
+        <v>0.284854</v>
       </c>
       <c r="D7" t="n">
-        <v>0.326987</v>
+        <v>0.327489</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299334</v>
+        <v>0.29972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.28787</v>
+        <v>0.288023</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333098</v>
+        <v>0.333412</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305968</v>
+        <v>0.306075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293074</v>
+        <v>0.293307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315068</v>
+        <v>0.316362</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.288098</v>
+        <v>0.287017</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278848</v>
+        <v>0.278521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315186</v>
+        <v>0.315323</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.287363</v>
+        <v>0.287389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.279971</v>
+        <v>0.281918</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316117</v>
+        <v>0.316921</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.289457</v>
+        <v>0.28721</v>
       </c>
       <c r="C12" t="n">
-        <v>0.283694</v>
+        <v>0.281429</v>
       </c>
       <c r="D12" t="n">
-        <v>0.318654</v>
+        <v>0.317454</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288155</v>
+        <v>0.287355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281014</v>
+        <v>0.281443</v>
       </c>
       <c r="D13" t="n">
-        <v>0.316005</v>
+        <v>0.317304</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.288243</v>
+        <v>0.289095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.281094</v>
+        <v>0.280901</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316918</v>
+        <v>0.317077</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.289637</v>
+        <v>0.288789</v>
       </c>
       <c r="C15" t="n">
-        <v>0.281257</v>
+        <v>0.280512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317384</v>
+        <v>0.316749</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29082</v>
+        <v>0.289708</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282276</v>
+        <v>0.283254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.318008</v>
+        <v>0.318533</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.290978</v>
+        <v>0.289676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.282223</v>
+        <v>0.284074</v>
       </c>
       <c r="D17" t="n">
-        <v>0.318329</v>
+        <v>0.318502</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.292123</v>
+        <v>0.291401</v>
       </c>
       <c r="C18" t="n">
-        <v>0.283958</v>
+        <v>0.283512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.320373</v>
+        <v>0.319815</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293807</v>
+        <v>0.294561</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284755</v>
+        <v>0.286929</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321849</v>
+        <v>0.32409</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.297171</v>
+        <v>0.297728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.286705</v>
+        <v>0.289302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.323819</v>
+        <v>0.326084</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299841</v>
+        <v>0.299497</v>
       </c>
       <c r="C21" t="n">
-        <v>0.288953</v>
+        <v>0.289282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327503</v>
+        <v>0.32895</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.305453</v>
+        <v>0.303828</v>
       </c>
       <c r="C22" t="n">
-        <v>0.292738</v>
+        <v>0.292281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.334032</v>
+        <v>0.344633</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.311808</v>
+        <v>0.310179</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296786</v>
+        <v>0.296185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.322198</v>
+        <v>0.323831</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296879</v>
+        <v>0.296785</v>
       </c>
       <c r="C24" t="n">
-        <v>0.291556</v>
+        <v>0.292482</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321919</v>
+        <v>0.323562</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.296751</v>
+        <v>0.296061</v>
       </c>
       <c r="C25" t="n">
-        <v>0.291278</v>
+        <v>0.293864</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323065</v>
+        <v>0.323777</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297778</v>
+        <v>0.296201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292592</v>
+        <v>0.292558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323619</v>
+        <v>0.323639</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.298382</v>
+        <v>0.296712</v>
       </c>
       <c r="C27" t="n">
-        <v>0.293637</v>
+        <v>0.294623</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324427</v>
+        <v>0.342218</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.299766</v>
+        <v>0.297266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.29471</v>
+        <v>0.295132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323831</v>
+        <v>0.325519</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.300008</v>
+        <v>0.297046</v>
       </c>
       <c r="C29" t="n">
-        <v>0.296806</v>
+        <v>0.2941</v>
       </c>
       <c r="D29" t="n">
-        <v>0.326214</v>
+        <v>0.324197</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301436</v>
+        <v>0.298108</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295142</v>
+        <v>0.295615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.325894</v>
+        <v>0.32468</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.302411</v>
+        <v>0.29972</v>
       </c>
       <c r="C31" t="n">
-        <v>0.297937</v>
+        <v>0.297113</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327489</v>
+        <v>0.327277</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.303767</v>
+        <v>0.301068</v>
       </c>
       <c r="C32" t="n">
-        <v>0.298871</v>
+        <v>0.296921</v>
       </c>
       <c r="D32" t="n">
-        <v>0.329745</v>
+        <v>0.328681</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.305608</v>
+        <v>0.303171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301469</v>
+        <v>0.300125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.33217</v>
+        <v>0.330069</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307533</v>
+        <v>0.305083</v>
       </c>
       <c r="C34" t="n">
-        <v>0.301164</v>
+        <v>0.301046</v>
       </c>
       <c r="D34" t="n">
-        <v>0.334536</v>
+        <v>0.333518</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310118</v>
+        <v>0.319779</v>
       </c>
       <c r="C35" t="n">
-        <v>0.304067</v>
+        <v>0.319691</v>
       </c>
       <c r="D35" t="n">
-        <v>0.33814</v>
+        <v>0.336056</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315416</v>
+        <v>0.313134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.306757</v>
+        <v>0.307588</v>
       </c>
       <c r="D36" t="n">
-        <v>0.342267</v>
+        <v>0.343342</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322438</v>
+        <v>0.319873</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311553</v>
+        <v>0.31234</v>
       </c>
       <c r="D37" t="n">
-        <v>0.344797</v>
+        <v>0.35115</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.316858</v>
+        <v>0.319389</v>
       </c>
       <c r="C38" t="n">
-        <v>0.32069</v>
+        <v>0.319385</v>
       </c>
       <c r="D38" t="n">
-        <v>0.352661</v>
+        <v>0.351265</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318021</v>
+        <v>0.319615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320201</v>
+        <v>0.322986</v>
       </c>
       <c r="D39" t="n">
-        <v>0.352906</v>
+        <v>0.351379</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320003</v>
+        <v>0.318748</v>
       </c>
       <c r="C40" t="n">
-        <v>0.315817</v>
+        <v>0.322512</v>
       </c>
       <c r="D40" t="n">
-        <v>0.352358</v>
+        <v>0.350137</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.319803</v>
+        <v>0.320357</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321543</v>
+        <v>0.321548</v>
       </c>
       <c r="D41" t="n">
-        <v>0.354145</v>
+        <v>0.350631</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.318959</v>
+        <v>0.31907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.323011</v>
+        <v>0.321922</v>
       </c>
       <c r="D42" t="n">
-        <v>0.354521</v>
+        <v>0.351203</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319921</v>
+        <v>0.319867</v>
       </c>
       <c r="C43" t="n">
-        <v>0.322788</v>
+        <v>0.322845</v>
       </c>
       <c r="D43" t="n">
-        <v>0.354273</v>
+        <v>0.351506</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.322722</v>
+        <v>0.323286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.323432</v>
+        <v>0.322586</v>
       </c>
       <c r="D44" t="n">
-        <v>0.356765</v>
+        <v>0.352004</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.323427</v>
+        <v>0.323084</v>
       </c>
       <c r="C45" t="n">
-        <v>0.320636</v>
+        <v>0.324883</v>
       </c>
       <c r="D45" t="n">
-        <v>0.357239</v>
+        <v>0.35367</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.324732</v>
+        <v>0.323025</v>
       </c>
       <c r="C46" t="n">
-        <v>0.321528</v>
+        <v>0.323978</v>
       </c>
       <c r="D46" t="n">
-        <v>0.358208</v>
+        <v>0.354733</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.323059</v>
+        <v>0.326751</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325945</v>
+        <v>0.325285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.357953</v>
+        <v>0.356787</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.328705</v>
+        <v>0.328655</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325767</v>
+        <v>0.326811</v>
       </c>
       <c r="D48" t="n">
-        <v>0.360975</v>
+        <v>0.357699</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.33221</v>
+        <v>0.330024</v>
       </c>
       <c r="C49" t="n">
-        <v>0.329424</v>
+        <v>0.330775</v>
       </c>
       <c r="D49" t="n">
-        <v>0.363684</v>
+        <v>0.36255</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335863</v>
+        <v>0.337188</v>
       </c>
       <c r="C50" t="n">
-        <v>0.331316</v>
+        <v>0.33304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.36986</v>
+        <v>0.367759</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.341437</v>
+        <v>0.342841</v>
       </c>
       <c r="C51" t="n">
-        <v>0.33833</v>
+        <v>0.337266</v>
       </c>
       <c r="D51" t="n">
-        <v>0.377305</v>
+        <v>0.38811</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.355114</v>
+        <v>0.35217</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347183</v>
+        <v>0.34602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.375058</v>
+        <v>0.387434</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344858</v>
+        <v>0.345465</v>
       </c>
       <c r="C53" t="n">
-        <v>0.344848</v>
+        <v>0.348642</v>
       </c>
       <c r="D53" t="n">
-        <v>0.388108</v>
+        <v>0.386868</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340216</v>
+        <v>0.344157</v>
       </c>
       <c r="C54" t="n">
-        <v>0.344903</v>
+        <v>0.347909</v>
       </c>
       <c r="D54" t="n">
-        <v>0.381498</v>
+        <v>0.38819</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.345914</v>
+        <v>0.34615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.339136</v>
+        <v>0.347549</v>
       </c>
       <c r="D55" t="n">
-        <v>0.378511</v>
+        <v>0.388512</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.340964</v>
+        <v>0.346739</v>
       </c>
       <c r="C56" t="n">
-        <v>0.346763</v>
+        <v>0.34794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.387358</v>
+        <v>0.385919</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.348485</v>
+        <v>0.347806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346669</v>
+        <v>0.34822</v>
       </c>
       <c r="D57" t="n">
-        <v>0.38925</v>
+        <v>0.388934</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347933</v>
+        <v>0.349469</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347798</v>
+        <v>0.34997</v>
       </c>
       <c r="D58" t="n">
-        <v>0.38967</v>
+        <v>0.389815</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.343943</v>
+        <v>0.348811</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348058</v>
+        <v>0.34897</v>
       </c>
       <c r="D59" t="n">
-        <v>0.383998</v>
+        <v>0.387465</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.351257</v>
+        <v>0.3513</v>
       </c>
       <c r="C60" t="n">
-        <v>0.342186</v>
+        <v>0.350206</v>
       </c>
       <c r="D60" t="n">
-        <v>0.383174</v>
+        <v>0.388843</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.352994</v>
+        <v>0.349932</v>
       </c>
       <c r="C61" t="n">
-        <v>0.345404</v>
+        <v>0.352264</v>
       </c>
       <c r="D61" t="n">
-        <v>0.382246</v>
+        <v>0.391875</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.348237</v>
+        <v>0.353063</v>
       </c>
       <c r="C62" t="n">
-        <v>0.352614</v>
+        <v>0.353024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.395219</v>
+        <v>0.392942</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.350973</v>
+        <v>0.354433</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354834</v>
+        <v>0.354206</v>
       </c>
       <c r="D63" t="n">
-        <v>0.398892</v>
+        <v>0.394784</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361149</v>
+        <v>0.361086</v>
       </c>
       <c r="C64" t="n">
-        <v>0.357286</v>
+        <v>0.35632</v>
       </c>
       <c r="D64" t="n">
-        <v>0.403037</v>
+        <v>0.399438</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.361319</v>
+        <v>0.364539</v>
       </c>
       <c r="C65" t="n">
-        <v>0.361853</v>
+        <v>0.360701</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408082</v>
+        <v>0.408738</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.375578</v>
+        <v>0.37513</v>
       </c>
       <c r="C66" t="n">
-        <v>0.368046</v>
+        <v>0.368642</v>
       </c>
       <c r="D66" t="n">
-        <v>0.411154</v>
+        <v>0.410965</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.360829</v>
+        <v>0.361363</v>
       </c>
       <c r="C67" t="n">
-        <v>0.355231</v>
+        <v>0.359971</v>
       </c>
       <c r="D67" t="n">
-        <v>0.411162</v>
+        <v>0.417419</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.361483</v>
+        <v>0.361263</v>
       </c>
       <c r="C68" t="n">
-        <v>0.357397</v>
+        <v>0.365237</v>
       </c>
       <c r="D68" t="n">
-        <v>0.413133</v>
+        <v>0.417361</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.362152</v>
+        <v>0.365155</v>
       </c>
       <c r="C69" t="n">
-        <v>0.356512</v>
+        <v>0.365598</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41431</v>
+        <v>0.418793</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.362533</v>
+        <v>0.365285</v>
       </c>
       <c r="C70" t="n">
-        <v>0.357671</v>
+        <v>0.366022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.412282</v>
+        <v>0.417969</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.362995</v>
+        <v>0.365788</v>
       </c>
       <c r="C71" t="n">
-        <v>0.358558</v>
+        <v>0.366531</v>
       </c>
       <c r="D71" t="n">
-        <v>0.413323</v>
+        <v>0.418841</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.362989</v>
+        <v>0.366559</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358786</v>
+        <v>0.367668</v>
       </c>
       <c r="D72" t="n">
-        <v>0.413933</v>
+        <v>0.420042</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.364441</v>
+        <v>0.367447</v>
       </c>
       <c r="C73" t="n">
-        <v>0.359961</v>
+        <v>0.367842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.414249</v>
+        <v>0.42001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.364997</v>
+        <v>0.369016</v>
       </c>
       <c r="C74" t="n">
-        <v>0.361069</v>
+        <v>0.36847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.415552</v>
+        <v>0.421623</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.367528</v>
+        <v>0.370888</v>
       </c>
       <c r="C75" t="n">
-        <v>0.363302</v>
+        <v>0.369657</v>
       </c>
       <c r="D75" t="n">
-        <v>0.41739</v>
+        <v>0.423081</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.369241</v>
+        <v>0.37251</v>
       </c>
       <c r="C76" t="n">
-        <v>0.363748</v>
+        <v>0.370828</v>
       </c>
       <c r="D76" t="n">
-        <v>0.418977</v>
+        <v>0.424428</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.372511</v>
+        <v>0.375076</v>
       </c>
       <c r="C77" t="n">
-        <v>0.366377</v>
+        <v>0.373177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.423692</v>
+        <v>0.428087</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.376296</v>
+        <v>0.379311</v>
       </c>
       <c r="C78" t="n">
-        <v>0.369915</v>
+        <v>0.375722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.428932</v>
+        <v>0.431613</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.381802</v>
+        <v>0.38537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.373745</v>
+        <v>0.380155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.433082</v>
+        <v>0.439096</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390413</v>
+        <v>0.392821</v>
       </c>
       <c r="C80" t="n">
-        <v>0.380749</v>
+        <v>0.385567</v>
       </c>
       <c r="D80" t="n">
-        <v>0.449383</v>
+        <v>0.453031</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387916</v>
+        <v>0.39177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.382546</v>
+        <v>0.386895</v>
       </c>
       <c r="D81" t="n">
-        <v>0.438954</v>
+        <v>0.454189</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.391096</v>
+        <v>0.387088</v>
       </c>
       <c r="C82" t="n">
-        <v>0.384048</v>
+        <v>0.388457</v>
       </c>
       <c r="D82" t="n">
-        <v>0.437</v>
+        <v>0.441059</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.390668</v>
+        <v>0.390017</v>
       </c>
       <c r="C83" t="n">
-        <v>0.378729</v>
+        <v>0.382993</v>
       </c>
       <c r="D83" t="n">
-        <v>0.43847</v>
+        <v>0.450063</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.386703</v>
+        <v>0.395275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.384791</v>
+        <v>0.394805</v>
       </c>
       <c r="D84" t="n">
-        <v>0.452408</v>
+        <v>0.441296</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.391264</v>
+        <v>0.392345</v>
       </c>
       <c r="C85" t="n">
-        <v>0.385667</v>
+        <v>0.383905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.450398</v>
+        <v>0.45598</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38979</v>
+        <v>0.399466</v>
       </c>
       <c r="C86" t="n">
-        <v>0.388014</v>
+        <v>0.394846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.454078</v>
+        <v>0.45566</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.38984</v>
+        <v>0.392931</v>
       </c>
       <c r="C87" t="n">
-        <v>0.377057</v>
+        <v>0.393983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453469</v>
+        <v>0.452904</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.393236</v>
+        <v>0.400743</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389008</v>
+        <v>0.392986</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452558</v>
+        <v>0.455578</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.395624</v>
+        <v>0.395383</v>
       </c>
       <c r="C89" t="n">
-        <v>0.391034</v>
+        <v>0.391953</v>
       </c>
       <c r="D89" t="n">
-        <v>0.44201</v>
+        <v>0.45401</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.39601</v>
+        <v>0.40196</v>
       </c>
       <c r="C90" t="n">
-        <v>0.380788</v>
+        <v>0.396991</v>
       </c>
       <c r="D90" t="n">
-        <v>0.456349</v>
+        <v>0.457339</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.398426</v>
+        <v>0.397663</v>
       </c>
       <c r="C91" t="n">
-        <v>0.384332</v>
+        <v>0.395501</v>
       </c>
       <c r="D91" t="n">
-        <v>0.449989</v>
+        <v>0.4581</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.401552</v>
+        <v>0.40677</v>
       </c>
       <c r="C92" t="n">
-        <v>0.397404</v>
+        <v>0.397595</v>
       </c>
       <c r="D92" t="n">
-        <v>0.466015</v>
+        <v>0.453584</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.41604</v>
+        <v>0.407104</v>
       </c>
       <c r="C93" t="n">
-        <v>0.402937</v>
+        <v>0.403003</v>
       </c>
       <c r="D93" t="n">
-        <v>0.468169</v>
+        <v>0.468456</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41374</v>
+        <v>0.416283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.406386</v>
+        <v>0.409502</v>
       </c>
       <c r="D94" t="n">
-        <v>0.668534</v>
+        <v>0.647767</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.617038</v>
+        <v>0.596097</v>
       </c>
       <c r="C95" t="n">
-        <v>0.607684</v>
+        <v>0.582566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.608853</v>
+        <v>0.584502</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.615301</v>
+        <v>0.596002</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6097050000000001</v>
+        <v>0.546271</v>
       </c>
       <c r="D96" t="n">
-        <v>0.68026</v>
+        <v>0.587746</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.622534</v>
+        <v>0.588417</v>
       </c>
       <c r="C97" t="n">
-        <v>0.611878</v>
+        <v>0.582622</v>
       </c>
       <c r="D97" t="n">
-        <v>0.664725</v>
+        <v>0.654869</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.629822</v>
+        <v>0.595101</v>
       </c>
       <c r="C98" t="n">
-        <v>0.601942</v>
+        <v>0.57924</v>
       </c>
       <c r="D98" t="n">
-        <v>0.668569</v>
+        <v>0.660189</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6165119999999999</v>
+        <v>0.591648</v>
       </c>
       <c r="C99" t="n">
-        <v>0.598961</v>
+        <v>0.536644</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6632169999999999</v>
+        <v>0.642191</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.612662</v>
+        <v>0.598535</v>
       </c>
       <c r="C100" t="n">
-        <v>0.548567</v>
+        <v>0.581785</v>
       </c>
       <c r="D100" t="n">
-        <v>0.598817</v>
+        <v>0.580248</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.62273</v>
+        <v>0.603441</v>
       </c>
       <c r="C101" t="n">
-        <v>0.599963</v>
+        <v>0.546323</v>
       </c>
       <c r="D101" t="n">
-        <v>0.662998</v>
+        <v>0.656967</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.622758</v>
+        <v>0.599508</v>
       </c>
       <c r="C102" t="n">
-        <v>0.568105</v>
+        <v>0.587344</v>
       </c>
       <c r="D102" t="n">
-        <v>0.672187</v>
+        <v>0.651139</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.623105</v>
+        <v>0.6063</v>
       </c>
       <c r="C103" t="n">
-        <v>0.614139</v>
+        <v>0.540068</v>
       </c>
       <c r="D103" t="n">
-        <v>0.61321</v>
+        <v>0.652529</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.621905</v>
+        <v>0.590897</v>
       </c>
       <c r="C104" t="n">
-        <v>0.611087</v>
+        <v>0.543961</v>
       </c>
       <c r="D104" t="n">
-        <v>0.674109</v>
+        <v>0.649653</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.62741</v>
+        <v>0.606488</v>
       </c>
       <c r="C105" t="n">
-        <v>0.605665</v>
+        <v>0.543737</v>
       </c>
       <c r="D105" t="n">
-        <v>0.664866</v>
+        <v>0.585876</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.629093</v>
+        <v>0.602256</v>
       </c>
       <c r="C106" t="n">
-        <v>0.564713</v>
+        <v>0.587385</v>
       </c>
       <c r="D106" t="n">
-        <v>0.662614</v>
+        <v>0.6538389999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.62313</v>
+        <v>0.608542</v>
       </c>
       <c r="C107" t="n">
-        <v>0.601189</v>
+        <v>0.58492</v>
       </c>
       <c r="D107" t="n">
-        <v>0.666867</v>
+        <v>0.658868</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.631008</v>
+        <v>0.6065970000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6017670000000001</v>
+        <v>0.589625</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25729</v>
+        <v>1.18708</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6420129999999999</v>
+        <v>0.620835</v>
       </c>
       <c r="C109" t="n">
-        <v>0.616981</v>
+        <v>0.559007</v>
       </c>
       <c r="D109" t="n">
-        <v>1.26314</v>
+        <v>1.13693</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.13642</v>
+        <v>1.05744</v>
       </c>
       <c r="C110" t="n">
-        <v>1.10937</v>
+        <v>1.04255</v>
       </c>
       <c r="D110" t="n">
-        <v>1.24863</v>
+        <v>1.18942</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.13236</v>
+        <v>1.05923</v>
       </c>
       <c r="C111" t="n">
-        <v>1.11274</v>
+        <v>1.04248</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24969</v>
+        <v>1.19002</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.13384</v>
+        <v>1.0569</v>
       </c>
       <c r="C112" t="n">
-        <v>1.11071</v>
+        <v>1.03955</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25688</v>
+        <v>1.18462</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.1368</v>
+        <v>1.05725</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08199</v>
+        <v>1.01425</v>
       </c>
       <c r="D113" t="n">
-        <v>1.20569</v>
+        <v>1.18463</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13586</v>
+        <v>1.0587</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11201</v>
+        <v>1.04178</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26064</v>
+        <v>1.17781</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13871</v>
+        <v>1.0574</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11017</v>
+        <v>1.03807</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25407</v>
+        <v>1.17434</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13588</v>
+        <v>1.05992</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11365</v>
+        <v>1.03954</v>
       </c>
       <c r="D116" t="n">
-        <v>1.24823</v>
+        <v>1.18038</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.13775</v>
+        <v>1.05905</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1116</v>
+        <v>1.04149</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17805</v>
+        <v>1.1805</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13516</v>
+        <v>1.05969</v>
       </c>
       <c r="C118" t="n">
-        <v>1.11027</v>
+        <v>1.04074</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25436</v>
+        <v>1.17763</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13545</v>
+        <v>1.05985</v>
       </c>
       <c r="C119" t="n">
-        <v>1.11248</v>
+        <v>1.01742</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25273</v>
+        <v>1.18513</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.13981</v>
+        <v>1.06441</v>
       </c>
       <c r="C120" t="n">
-        <v>1.11495</v>
+        <v>1.01899</v>
       </c>
       <c r="D120" t="n">
-        <v>1.19963</v>
+        <v>1.19013</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1401</v>
+        <v>1.06798</v>
       </c>
       <c r="C121" t="n">
-        <v>1.11545</v>
+        <v>1.04674</v>
       </c>
       <c r="D121" t="n">
-        <v>1.24493</v>
+        <v>1.18854</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15082</v>
+        <v>1.06992</v>
       </c>
       <c r="C122" t="n">
-        <v>1.0899</v>
+        <v>1.05043</v>
       </c>
       <c r="D122" t="n">
-        <v>1.19562</v>
+        <v>1.1904</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.147</v>
+        <v>1.0753</v>
       </c>
       <c r="C123" t="n">
-        <v>1.09159</v>
+        <v>1.05396</v>
       </c>
       <c r="D123" t="n">
-        <v>1.74242</v>
+        <v>1.61682</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.45432</v>
+        <v>1.31835</v>
       </c>
       <c r="C124" t="n">
-        <v>1.42942</v>
+        <v>1.32112</v>
       </c>
       <c r="D124" t="n">
-        <v>1.7757</v>
+        <v>1.64075</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42625</v>
+        <v>1.31439</v>
       </c>
       <c r="C125" t="n">
-        <v>1.43706</v>
+        <v>1.3183</v>
       </c>
       <c r="D125" t="n">
-        <v>1.77953</v>
+        <v>1.63953</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.43067</v>
+        <v>1.31638</v>
       </c>
       <c r="C126" t="n">
-        <v>1.44369</v>
+        <v>1.3284</v>
       </c>
       <c r="D126" t="n">
-        <v>1.77552</v>
+        <v>1.63931</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.43038</v>
+        <v>1.31508</v>
       </c>
       <c r="C127" t="n">
-        <v>1.45214</v>
+        <v>1.32932</v>
       </c>
       <c r="D127" t="n">
-        <v>1.77953</v>
+        <v>1.64695</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.43765</v>
+        <v>1.32773</v>
       </c>
       <c r="C128" t="n">
-        <v>1.44467</v>
+        <v>1.3221</v>
       </c>
       <c r="D128" t="n">
-        <v>1.77421</v>
+        <v>1.62125</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.4217</v>
+        <v>1.31573</v>
       </c>
       <c r="C129" t="n">
-        <v>1.43059</v>
+        <v>1.31333</v>
       </c>
       <c r="D129" t="n">
-        <v>1.78537</v>
+        <v>1.64581</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.43684</v>
+        <v>1.32071</v>
       </c>
       <c r="C130" t="n">
-        <v>1.44057</v>
+        <v>1.31492</v>
       </c>
       <c r="D130" t="n">
-        <v>1.73452</v>
+        <v>1.64791</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.43206</v>
+        <v>1.32812</v>
       </c>
       <c r="C131" t="n">
-        <v>1.4509</v>
+        <v>1.33406</v>
       </c>
       <c r="D131" t="n">
-        <v>1.78337</v>
+        <v>1.6484</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42931</v>
+        <v>1.33167</v>
       </c>
       <c r="C132" t="n">
-        <v>1.44496</v>
+        <v>1.32792</v>
       </c>
       <c r="D132" t="n">
-        <v>1.78534</v>
+        <v>1.63262</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.43671</v>
+        <v>1.33129</v>
       </c>
       <c r="C133" t="n">
-        <v>1.44006</v>
+        <v>1.33594</v>
       </c>
       <c r="D133" t="n">
-        <v>1.78834</v>
+        <v>1.65377</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.44385</v>
+        <v>1.32854</v>
       </c>
       <c r="C134" t="n">
-        <v>1.40397</v>
+        <v>1.33468</v>
       </c>
       <c r="D134" t="n">
-        <v>1.79032</v>
+        <v>1.65517</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.44748</v>
+        <v>1.32977</v>
       </c>
       <c r="C135" t="n">
-        <v>1.46225</v>
+        <v>1.33691</v>
       </c>
       <c r="D135" t="n">
-        <v>1.79077</v>
+        <v>1.6685</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.43752</v>
+        <v>1.34861</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45348</v>
+        <v>1.33282</v>
       </c>
       <c r="D136" t="n">
-        <v>1.76036</v>
+        <v>1.66192</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.46244</v>
+        <v>1.36448</v>
       </c>
       <c r="C137" t="n">
-        <v>1.48025</v>
+        <v>1.35162</v>
       </c>
       <c r="D137" t="n">
-        <v>2.29798</v>
+        <v>2.09654</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.59276</v>
+        <v>1.44979</v>
       </c>
       <c r="C138" t="n">
-        <v>1.58135</v>
+        <v>1.45163</v>
       </c>
       <c r="D138" t="n">
-        <v>2.28907</v>
+        <v>2.06544</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58977</v>
+        <v>1.45439</v>
       </c>
       <c r="C139" t="n">
-        <v>1.57509</v>
+        <v>1.45368</v>
       </c>
       <c r="D139" t="n">
-        <v>2.28994</v>
+        <v>2.09937</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.58208</v>
+        <v>1.45528</v>
       </c>
       <c r="C140" t="n">
-        <v>1.60347</v>
+        <v>1.44662</v>
       </c>
       <c r="D140" t="n">
-        <v>2.26784</v>
+        <v>2.09674</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.56201</v>
+        <v>1.45502</v>
       </c>
       <c r="C141" t="n">
-        <v>1.54717</v>
+        <v>1.44393</v>
       </c>
       <c r="D141" t="n">
-        <v>2.26871</v>
+        <v>2.09461</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.56848</v>
+        <v>1.459</v>
       </c>
       <c r="C142" t="n">
-        <v>1.56533</v>
+        <v>1.4565</v>
       </c>
       <c r="D142" t="n">
-        <v>2.26869</v>
+        <v>2.09426</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.56928</v>
+        <v>1.45489</v>
       </c>
       <c r="C143" t="n">
-        <v>1.56832</v>
+        <v>1.45449</v>
       </c>
       <c r="D143" t="n">
-        <v>2.26541</v>
+        <v>2.06375</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285485</v>
+        <v>0.285363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278549</v>
+        <v>0.278464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.317066</v>
+        <v>0.31694</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286219</v>
+        <v>0.286232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.279058</v>
+        <v>0.279003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317685</v>
+        <v>0.317696</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287453</v>
+        <v>0.287832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280326</v>
+        <v>0.28019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319376</v>
+        <v>0.319016</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289481</v>
+        <v>0.289801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281731</v>
+        <v>0.281631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321638</v>
+        <v>0.321213</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291323</v>
+        <v>0.291549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282644</v>
+        <v>0.282649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32357</v>
+        <v>0.323514</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294574</v>
+        <v>0.29462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284854</v>
+        <v>0.284838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.327489</v>
+        <v>0.327488</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.29972</v>
+        <v>0.299204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288023</v>
+        <v>0.288072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333412</v>
+        <v>0.333438</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306075</v>
+        <v>0.305972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293307</v>
+        <v>0.293178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.316362</v>
+        <v>0.31529</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.287017</v>
+        <v>0.287671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278521</v>
+        <v>0.280279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.315323</v>
+        <v>0.316504</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.287389</v>
+        <v>0.288836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.281918</v>
+        <v>0.282049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.316921</v>
+        <v>0.318357</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.28721</v>
+        <v>0.288312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.281429</v>
+        <v>0.28185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.317454</v>
+        <v>0.318044</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287355</v>
+        <v>0.288436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281443</v>
+        <v>0.280008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.317304</v>
+        <v>0.315785</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.289095</v>
+        <v>0.287578</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280901</v>
+        <v>0.279972</v>
       </c>
       <c r="D14" t="n">
-        <v>0.317077</v>
+        <v>0.316181</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.288789</v>
+        <v>0.289415</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280512</v>
+        <v>0.282422</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316749</v>
+        <v>0.318217</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.289708</v>
+        <v>0.291891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283254</v>
+        <v>0.284213</v>
       </c>
       <c r="D16" t="n">
-        <v>0.318533</v>
+        <v>0.319599</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289676</v>
+        <v>0.291119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.284074</v>
+        <v>0.283121</v>
       </c>
       <c r="D17" t="n">
-        <v>0.318502</v>
+        <v>0.319544</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291401</v>
+        <v>0.291272</v>
       </c>
       <c r="C18" t="n">
-        <v>0.283512</v>
+        <v>0.285036</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319815</v>
+        <v>0.321336</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294561</v>
+        <v>0.293153</v>
       </c>
       <c r="C19" t="n">
-        <v>0.286929</v>
+        <v>0.284449</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32409</v>
+        <v>0.322022</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.297728</v>
+        <v>0.295911</v>
       </c>
       <c r="C20" t="n">
-        <v>0.289302</v>
+        <v>0.286505</v>
       </c>
       <c r="D20" t="n">
-        <v>0.326084</v>
+        <v>0.324495</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299497</v>
+        <v>0.301365</v>
       </c>
       <c r="C21" t="n">
-        <v>0.289282</v>
+        <v>0.289722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.32895</v>
+        <v>0.328164</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303828</v>
+        <v>0.305142</v>
       </c>
       <c r="C22" t="n">
-        <v>0.292281</v>
+        <v>0.291406</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344633</v>
+        <v>0.33337</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.310179</v>
+        <v>0.311214</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296185</v>
+        <v>0.298811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.323831</v>
+        <v>0.323044</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296785</v>
+        <v>0.300014</v>
       </c>
       <c r="C24" t="n">
-        <v>0.292482</v>
+        <v>0.297016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323562</v>
+        <v>0.325075</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.296061</v>
+        <v>0.300747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.293864</v>
+        <v>0.297082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323777</v>
+        <v>0.325404</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296201</v>
+        <v>0.301007</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292558</v>
+        <v>0.297136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323639</v>
+        <v>0.324666</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296712</v>
+        <v>0.301376</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294623</v>
+        <v>0.297226</v>
       </c>
       <c r="D27" t="n">
-        <v>0.342218</v>
+        <v>0.327022</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297266</v>
+        <v>0.302311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295132</v>
+        <v>0.298939</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325519</v>
+        <v>0.327126</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.297046</v>
+        <v>0.302286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2941</v>
+        <v>0.298526</v>
       </c>
       <c r="D29" t="n">
-        <v>0.324197</v>
+        <v>0.327777</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298108</v>
+        <v>0.302904</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295615</v>
+        <v>0.299296</v>
       </c>
       <c r="D30" t="n">
-        <v>0.32468</v>
+        <v>0.328871</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29972</v>
+        <v>0.304085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.297113</v>
+        <v>0.300301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.327277</v>
+        <v>0.329255</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.301068</v>
+        <v>0.313888</v>
       </c>
       <c r="C32" t="n">
-        <v>0.296921</v>
+        <v>0.316772</v>
       </c>
       <c r="D32" t="n">
-        <v>0.328681</v>
+        <v>0.347502</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.303171</v>
+        <v>0.325545</v>
       </c>
       <c r="C33" t="n">
-        <v>0.300125</v>
+        <v>0.318605</v>
       </c>
       <c r="D33" t="n">
-        <v>0.330069</v>
+        <v>0.349251</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.305083</v>
+        <v>0.328488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.301046</v>
+        <v>0.319769</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333518</v>
+        <v>0.351917</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.319779</v>
+        <v>0.311641</v>
       </c>
       <c r="C35" t="n">
-        <v>0.319691</v>
+        <v>0.306058</v>
       </c>
       <c r="D35" t="n">
-        <v>0.336056</v>
+        <v>0.340239</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.313134</v>
+        <v>0.316513</v>
       </c>
       <c r="C36" t="n">
-        <v>0.307588</v>
+        <v>0.309248</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343342</v>
+        <v>0.344381</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.319873</v>
+        <v>0.322903</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31234</v>
+        <v>0.314132</v>
       </c>
       <c r="D37" t="n">
-        <v>0.35115</v>
+        <v>0.3515</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319389</v>
+        <v>0.320069</v>
       </c>
       <c r="C38" t="n">
-        <v>0.319385</v>
+        <v>0.324486</v>
       </c>
       <c r="D38" t="n">
-        <v>0.351265</v>
+        <v>0.353208</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.319615</v>
+        <v>0.32418</v>
       </c>
       <c r="C39" t="n">
-        <v>0.322986</v>
+        <v>0.325059</v>
       </c>
       <c r="D39" t="n">
-        <v>0.351379</v>
+        <v>0.354534</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.318748</v>
+        <v>0.320552</v>
       </c>
       <c r="C40" t="n">
-        <v>0.322512</v>
+        <v>0.324492</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350137</v>
+        <v>0.354574</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.320357</v>
+        <v>0.322161</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321548</v>
+        <v>0.323522</v>
       </c>
       <c r="D41" t="n">
-        <v>0.350631</v>
+        <v>0.354007</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.31907</v>
+        <v>0.322801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321922</v>
+        <v>0.324751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.351203</v>
+        <v>0.353969</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319867</v>
+        <v>0.321345</v>
       </c>
       <c r="C43" t="n">
-        <v>0.322845</v>
+        <v>0.325004</v>
       </c>
       <c r="D43" t="n">
-        <v>0.351506</v>
+        <v>0.355469</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.323286</v>
+        <v>0.324155</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322586</v>
+        <v>0.325644</v>
       </c>
       <c r="D44" t="n">
-        <v>0.352004</v>
+        <v>0.356441</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.323084</v>
+        <v>0.324145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324883</v>
+        <v>0.325214</v>
       </c>
       <c r="D45" t="n">
-        <v>0.35367</v>
+        <v>0.355499</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.323025</v>
+        <v>0.326731</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323978</v>
+        <v>0.325409</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354733</v>
+        <v>0.3561</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.326751</v>
+        <v>0.329495</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325285</v>
+        <v>0.327645</v>
       </c>
       <c r="D47" t="n">
-        <v>0.356787</v>
+        <v>0.35859</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.328655</v>
+        <v>0.330248</v>
       </c>
       <c r="C48" t="n">
-        <v>0.326811</v>
+        <v>0.329234</v>
       </c>
       <c r="D48" t="n">
-        <v>0.357699</v>
+        <v>0.3601</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.330024</v>
+        <v>0.335898</v>
       </c>
       <c r="C49" t="n">
-        <v>0.330775</v>
+        <v>0.331872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.36255</v>
+        <v>0.363767</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.337188</v>
+        <v>0.336984</v>
       </c>
       <c r="C50" t="n">
-        <v>0.33304</v>
+        <v>0.334155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.367759</v>
+        <v>0.369266</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.342841</v>
+        <v>0.34351</v>
       </c>
       <c r="C51" t="n">
-        <v>0.337266</v>
+        <v>0.338984</v>
       </c>
       <c r="D51" t="n">
-        <v>0.38811</v>
+        <v>0.387287</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.35217</v>
+        <v>0.351859</v>
       </c>
       <c r="C52" t="n">
-        <v>0.34602</v>
+        <v>0.345825</v>
       </c>
       <c r="D52" t="n">
-        <v>0.387434</v>
+        <v>0.388052</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345465</v>
+        <v>0.34714</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348642</v>
+        <v>0.349448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.386868</v>
+        <v>0.389438</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.344157</v>
+        <v>0.347704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.347909</v>
+        <v>0.349596</v>
       </c>
       <c r="D54" t="n">
-        <v>0.38819</v>
+        <v>0.390825</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34615</v>
+        <v>0.346209</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347549</v>
+        <v>0.349758</v>
       </c>
       <c r="D55" t="n">
-        <v>0.388512</v>
+        <v>0.390104</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.346739</v>
+        <v>0.347559</v>
       </c>
       <c r="C56" t="n">
-        <v>0.34794</v>
+        <v>0.350619</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385919</v>
+        <v>0.390389</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347806</v>
+        <v>0.347538</v>
       </c>
       <c r="C57" t="n">
-        <v>0.34822</v>
+        <v>0.35011</v>
       </c>
       <c r="D57" t="n">
-        <v>0.388934</v>
+        <v>0.390168</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.349469</v>
+        <v>0.347831</v>
       </c>
       <c r="C58" t="n">
-        <v>0.34997</v>
+        <v>0.350381</v>
       </c>
       <c r="D58" t="n">
-        <v>0.389815</v>
+        <v>0.391394</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.348811</v>
+        <v>0.348053</v>
       </c>
       <c r="C59" t="n">
-        <v>0.34897</v>
+        <v>0.351257</v>
       </c>
       <c r="D59" t="n">
-        <v>0.387465</v>
+        <v>0.390937</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3513</v>
+        <v>0.349657</v>
       </c>
       <c r="C60" t="n">
-        <v>0.350206</v>
+        <v>0.351236</v>
       </c>
       <c r="D60" t="n">
-        <v>0.388843</v>
+        <v>0.392784</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.349932</v>
+        <v>0.350535</v>
       </c>
       <c r="C61" t="n">
-        <v>0.352264</v>
+        <v>0.352406</v>
       </c>
       <c r="D61" t="n">
-        <v>0.391875</v>
+        <v>0.392474</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.353063</v>
+        <v>0.353889</v>
       </c>
       <c r="C62" t="n">
-        <v>0.353024</v>
+        <v>0.35371</v>
       </c>
       <c r="D62" t="n">
-        <v>0.392942</v>
+        <v>0.394677</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.354433</v>
+        <v>0.357554</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354206</v>
+        <v>0.355178</v>
       </c>
       <c r="D63" t="n">
-        <v>0.394784</v>
+        <v>0.396806</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361086</v>
+        <v>0.362518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35632</v>
+        <v>0.35766</v>
       </c>
       <c r="D64" t="n">
-        <v>0.399438</v>
+        <v>0.402556</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.364539</v>
+        <v>0.367982</v>
       </c>
       <c r="C65" t="n">
-        <v>0.360701</v>
+        <v>0.362472</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408738</v>
+        <v>0.409602</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.37513</v>
+        <v>0.375585</v>
       </c>
       <c r="C66" t="n">
-        <v>0.368642</v>
+        <v>0.368952</v>
       </c>
       <c r="D66" t="n">
-        <v>0.410965</v>
+        <v>0.417078</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.361363</v>
+        <v>0.364316</v>
       </c>
       <c r="C67" t="n">
-        <v>0.359971</v>
+        <v>0.365176</v>
       </c>
       <c r="D67" t="n">
-        <v>0.417419</v>
+        <v>0.417135</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.361263</v>
+        <v>0.365326</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365237</v>
+        <v>0.365865</v>
       </c>
       <c r="D68" t="n">
-        <v>0.417361</v>
+        <v>0.418092</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365155</v>
+        <v>0.365689</v>
       </c>
       <c r="C69" t="n">
-        <v>0.365598</v>
+        <v>0.366007</v>
       </c>
       <c r="D69" t="n">
-        <v>0.418793</v>
+        <v>0.418088</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365285</v>
+        <v>0.365295</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366022</v>
+        <v>0.366593</v>
       </c>
       <c r="D70" t="n">
-        <v>0.417969</v>
+        <v>0.419082</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365788</v>
+        <v>0.366413</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366531</v>
+        <v>0.36688</v>
       </c>
       <c r="D71" t="n">
-        <v>0.418841</v>
+        <v>0.419203</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366559</v>
+        <v>0.367083</v>
       </c>
       <c r="C72" t="n">
-        <v>0.367668</v>
+        <v>0.36721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.420042</v>
+        <v>0.42094</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.367447</v>
+        <v>0.368358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.367842</v>
+        <v>0.368043</v>
       </c>
       <c r="D73" t="n">
-        <v>0.42001</v>
+        <v>0.420948</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369016</v>
+        <v>0.369384</v>
       </c>
       <c r="C74" t="n">
-        <v>0.36847</v>
+        <v>0.368422</v>
       </c>
       <c r="D74" t="n">
-        <v>0.421623</v>
+        <v>0.42098</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370888</v>
+        <v>0.370308</v>
       </c>
       <c r="C75" t="n">
-        <v>0.369657</v>
+        <v>0.369747</v>
       </c>
       <c r="D75" t="n">
-        <v>0.423081</v>
+        <v>0.42366</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37251</v>
+        <v>0.372414</v>
       </c>
       <c r="C76" t="n">
-        <v>0.370828</v>
+        <v>0.371362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.424428</v>
+        <v>0.424649</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.375076</v>
+        <v>0.374986</v>
       </c>
       <c r="C77" t="n">
-        <v>0.373177</v>
+        <v>0.373126</v>
       </c>
       <c r="D77" t="n">
-        <v>0.428087</v>
+        <v>0.427459</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.379311</v>
+        <v>0.379249</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375722</v>
+        <v>0.375636</v>
       </c>
       <c r="D78" t="n">
-        <v>0.431613</v>
+        <v>0.431692</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.38537</v>
+        <v>0.384441</v>
       </c>
       <c r="C79" t="n">
-        <v>0.380155</v>
+        <v>0.379939</v>
       </c>
       <c r="D79" t="n">
-        <v>0.439096</v>
+        <v>0.437858</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392821</v>
+        <v>0.392973</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385567</v>
+        <v>0.385703</v>
       </c>
       <c r="D80" t="n">
-        <v>0.453031</v>
+        <v>0.449432</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.39177</v>
+        <v>0.392077</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386895</v>
+        <v>0.38825</v>
       </c>
       <c r="D81" t="n">
-        <v>0.454189</v>
+        <v>0.449533</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387088</v>
+        <v>0.391206</v>
       </c>
       <c r="C82" t="n">
-        <v>0.388457</v>
+        <v>0.39407</v>
       </c>
       <c r="D82" t="n">
-        <v>0.441059</v>
+        <v>0.451007</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.390017</v>
+        <v>0.392375</v>
       </c>
       <c r="C83" t="n">
-        <v>0.382993</v>
+        <v>0.378037</v>
       </c>
       <c r="D83" t="n">
-        <v>0.450063</v>
+        <v>0.45215</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.395275</v>
+        <v>0.387693</v>
       </c>
       <c r="C84" t="n">
-        <v>0.394805</v>
+        <v>0.388867</v>
       </c>
       <c r="D84" t="n">
-        <v>0.441296</v>
+        <v>0.437898</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.392345</v>
+        <v>0.392913</v>
       </c>
       <c r="C85" t="n">
-        <v>0.383905</v>
+        <v>0.388734</v>
       </c>
       <c r="D85" t="n">
-        <v>0.45598</v>
+        <v>0.4547</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.399466</v>
+        <v>0.391382</v>
       </c>
       <c r="C86" t="n">
-        <v>0.394846</v>
+        <v>0.392718</v>
       </c>
       <c r="D86" t="n">
-        <v>0.45566</v>
+        <v>0.438797</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.392931</v>
+        <v>0.395402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.393983</v>
+        <v>0.379985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452904</v>
+        <v>0.452959</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.400743</v>
+        <v>0.391075</v>
       </c>
       <c r="C88" t="n">
-        <v>0.392986</v>
+        <v>0.391085</v>
       </c>
       <c r="D88" t="n">
-        <v>0.455578</v>
+        <v>0.456748</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.395383</v>
+        <v>0.392909</v>
       </c>
       <c r="C89" t="n">
-        <v>0.391953</v>
+        <v>0.391833</v>
       </c>
       <c r="D89" t="n">
-        <v>0.45401</v>
+        <v>0.450199</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.40196</v>
+        <v>0.398649</v>
       </c>
       <c r="C90" t="n">
-        <v>0.396991</v>
+        <v>0.39516</v>
       </c>
       <c r="D90" t="n">
-        <v>0.457339</v>
+        <v>0.450333</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397663</v>
+        <v>0.397751</v>
       </c>
       <c r="C91" t="n">
-        <v>0.395501</v>
+        <v>0.384396</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4581</v>
+        <v>0.459713</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.40677</v>
+        <v>0.406839</v>
       </c>
       <c r="C92" t="n">
-        <v>0.397595</v>
+        <v>0.401838</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453584</v>
+        <v>0.46243</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407104</v>
+        <v>0.411256</v>
       </c>
       <c r="C93" t="n">
-        <v>0.403003</v>
+        <v>0.399902</v>
       </c>
       <c r="D93" t="n">
-        <v>0.468456</v>
+        <v>0.468313</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416283</v>
+        <v>0.413749</v>
       </c>
       <c r="C94" t="n">
-        <v>0.409502</v>
+        <v>0.407427</v>
       </c>
       <c r="D94" t="n">
-        <v>0.647767</v>
+        <v>0.665266</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.596097</v>
+        <v>0.593342</v>
       </c>
       <c r="C95" t="n">
-        <v>0.582566</v>
+        <v>0.592965</v>
       </c>
       <c r="D95" t="n">
-        <v>0.584502</v>
+        <v>0.6461710000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.596002</v>
+        <v>0.609693</v>
       </c>
       <c r="C96" t="n">
-        <v>0.546271</v>
+        <v>0.584919</v>
       </c>
       <c r="D96" t="n">
-        <v>0.587746</v>
+        <v>0.653616</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.588417</v>
+        <v>0.597377</v>
       </c>
       <c r="C97" t="n">
-        <v>0.582622</v>
+        <v>0.586107</v>
       </c>
       <c r="D97" t="n">
-        <v>0.654869</v>
+        <v>0.6487039999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.595101</v>
+        <v>0.597759</v>
       </c>
       <c r="C98" t="n">
-        <v>0.57924</v>
+        <v>0.542871</v>
       </c>
       <c r="D98" t="n">
-        <v>0.660189</v>
+        <v>0.580407</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.591648</v>
+        <v>0.588889</v>
       </c>
       <c r="C99" t="n">
-        <v>0.536644</v>
+        <v>0.541767</v>
       </c>
       <c r="D99" t="n">
-        <v>0.642191</v>
+        <v>0.643751</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.598535</v>
+        <v>0.59672</v>
       </c>
       <c r="C100" t="n">
-        <v>0.581785</v>
+        <v>0.574231</v>
       </c>
       <c r="D100" t="n">
-        <v>0.580248</v>
+        <v>0.65418</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.603441</v>
+        <v>0.597894</v>
       </c>
       <c r="C101" t="n">
-        <v>0.546323</v>
+        <v>0.54558</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656967</v>
+        <v>0.587543</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.599508</v>
+        <v>0.594921</v>
       </c>
       <c r="C102" t="n">
-        <v>0.587344</v>
+        <v>0.591074</v>
       </c>
       <c r="D102" t="n">
-        <v>0.651139</v>
+        <v>0.653497</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6063</v>
+        <v>0.616404</v>
       </c>
       <c r="C103" t="n">
-        <v>0.540068</v>
+        <v>0.592595</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652529</v>
+        <v>0.666278</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.590897</v>
+        <v>0.609613</v>
       </c>
       <c r="C104" t="n">
-        <v>0.543961</v>
+        <v>0.553696</v>
       </c>
       <c r="D104" t="n">
-        <v>0.649653</v>
+        <v>0.594625</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.606488</v>
+        <v>0.601294</v>
       </c>
       <c r="C105" t="n">
-        <v>0.543737</v>
+        <v>0.553269</v>
       </c>
       <c r="D105" t="n">
-        <v>0.585876</v>
+        <v>0.656721</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.602256</v>
+        <v>0.612259</v>
       </c>
       <c r="C106" t="n">
-        <v>0.587385</v>
+        <v>0.5924</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6538389999999999</v>
+        <v>0.671242</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.608542</v>
+        <v>0.6123459999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.58492</v>
+        <v>0.601463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.658868</v>
+        <v>0.678557</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6065970000000001</v>
+        <v>0.611364</v>
       </c>
       <c r="C108" t="n">
-        <v>0.589625</v>
+        <v>0.562354</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18708</v>
+        <v>1.19295</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.620835</v>
+        <v>0.624289</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559007</v>
+        <v>0.597661</v>
       </c>
       <c r="D109" t="n">
-        <v>1.13693</v>
+        <v>1.14479</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05744</v>
+        <v>1.05795</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04255</v>
+        <v>1.04162</v>
       </c>
       <c r="D110" t="n">
-        <v>1.18942</v>
+        <v>1.1905</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05923</v>
+        <v>1.05833</v>
       </c>
       <c r="C111" t="n">
-        <v>1.04248</v>
+        <v>1.04072</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19002</v>
+        <v>1.14473</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0569</v>
+        <v>1.0582</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03955</v>
+        <v>1.04101</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18462</v>
+        <v>1.18046</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05725</v>
+        <v>1.05723</v>
       </c>
       <c r="C113" t="n">
-        <v>1.01425</v>
+        <v>1.0396</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18463</v>
+        <v>1.13369</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0587</v>
+        <v>1.05849</v>
       </c>
       <c r="C114" t="n">
-        <v>1.04178</v>
+        <v>1.04015</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17781</v>
+        <v>1.18328</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.0574</v>
+        <v>1.05907</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03807</v>
+        <v>1.04141</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17434</v>
+        <v>1.14035</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05992</v>
+        <v>1.06023</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03954</v>
+        <v>1.04008</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18038</v>
+        <v>1.14198</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05905</v>
+        <v>1.05964</v>
       </c>
       <c r="C117" t="n">
-        <v>1.04149</v>
+        <v>1.01461</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1805</v>
+        <v>1.19066</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05969</v>
+        <v>1.05985</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04074</v>
+        <v>1.04138</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17763</v>
+        <v>1.18433</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05985</v>
+        <v>1.06203</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01742</v>
+        <v>1.04406</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18513</v>
+        <v>1.18594</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06441</v>
+        <v>1.06218</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01899</v>
+        <v>1.04383</v>
       </c>
       <c r="D120" t="n">
-        <v>1.19013</v>
+        <v>1.14428</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06798</v>
+        <v>1.06559</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04674</v>
+        <v>1.04656</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18854</v>
+        <v>1.18748</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06992</v>
+        <v>1.07022</v>
       </c>
       <c r="C122" t="n">
-        <v>1.05043</v>
+        <v>1.04862</v>
       </c>
       <c r="D122" t="n">
-        <v>1.1904</v>
+        <v>1.18986</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0753</v>
+        <v>1.07665</v>
       </c>
       <c r="C123" t="n">
-        <v>1.05396</v>
+        <v>1.0287</v>
       </c>
       <c r="D123" t="n">
-        <v>1.61682</v>
+        <v>1.64356</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31835</v>
+        <v>1.32754</v>
       </c>
       <c r="C124" t="n">
-        <v>1.32112</v>
+        <v>1.31174</v>
       </c>
       <c r="D124" t="n">
-        <v>1.64075</v>
+        <v>1.64418</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31439</v>
+        <v>1.31236</v>
       </c>
       <c r="C125" t="n">
-        <v>1.3183</v>
+        <v>1.30133</v>
       </c>
       <c r="D125" t="n">
-        <v>1.63953</v>
+        <v>1.62251</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31638</v>
+        <v>1.32146</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3284</v>
+        <v>1.33637</v>
       </c>
       <c r="D126" t="n">
-        <v>1.63931</v>
+        <v>1.64489</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.31508</v>
+        <v>1.32258</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32932</v>
+        <v>1.33418</v>
       </c>
       <c r="D127" t="n">
-        <v>1.64695</v>
+        <v>1.64558</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32773</v>
+        <v>1.31954</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3221</v>
+        <v>1.31478</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62125</v>
+        <v>1.6425</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31573</v>
+        <v>1.31337</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31333</v>
+        <v>1.31552</v>
       </c>
       <c r="D129" t="n">
-        <v>1.64581</v>
+        <v>1.63974</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32071</v>
+        <v>1.3309</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31492</v>
+        <v>1.32077</v>
       </c>
       <c r="D130" t="n">
-        <v>1.64791</v>
+        <v>1.64669</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32812</v>
+        <v>1.31497</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33406</v>
+        <v>1.33506</v>
       </c>
       <c r="D131" t="n">
-        <v>1.6484</v>
+        <v>1.64855</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33167</v>
+        <v>1.316</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32792</v>
+        <v>1.33259</v>
       </c>
       <c r="D132" t="n">
-        <v>1.63262</v>
+        <v>1.65354</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33129</v>
+        <v>1.31926</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33594</v>
+        <v>1.33856</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65377</v>
+        <v>1.64841</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.32854</v>
+        <v>1.33702</v>
       </c>
       <c r="C134" t="n">
-        <v>1.33468</v>
+        <v>1.34041</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65517</v>
+        <v>1.66214</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32977</v>
+        <v>1.33763</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33691</v>
+        <v>1.34302</v>
       </c>
       <c r="D135" t="n">
-        <v>1.6685</v>
+        <v>1.68506</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34861</v>
+        <v>1.34919</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33282</v>
+        <v>1.33704</v>
       </c>
       <c r="D136" t="n">
-        <v>1.66192</v>
+        <v>1.68072</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36448</v>
+        <v>1.35341</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35162</v>
+        <v>1.36336</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09654</v>
+        <v>2.09301</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44979</v>
+        <v>1.45087</v>
       </c>
       <c r="C138" t="n">
-        <v>1.45163</v>
+        <v>1.4541</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06544</v>
+        <v>2.09338</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.45439</v>
+        <v>1.4513</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45368</v>
+        <v>1.45428</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09937</v>
+        <v>2.09153</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.45528</v>
+        <v>1.46015</v>
       </c>
       <c r="C140" t="n">
-        <v>1.44662</v>
+        <v>1.45983</v>
       </c>
       <c r="D140" t="n">
-        <v>2.09674</v>
+        <v>2.0932</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.45502</v>
+        <v>1.45483</v>
       </c>
       <c r="C141" t="n">
-        <v>1.44393</v>
+        <v>1.44119</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09461</v>
+        <v>2.09494</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.459</v>
+        <v>1.46035</v>
       </c>
       <c r="C142" t="n">
-        <v>1.4565</v>
+        <v>1.46293</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09426</v>
+        <v>2.09183</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45489</v>
+        <v>1.45168</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45449</v>
+        <v>1.46199</v>
       </c>
       <c r="D143" t="n">
-        <v>2.06375</v>
+        <v>2.09674</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285363</v>
+        <v>0.28516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278464</v>
+        <v>0.278659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31694</v>
+        <v>0.316608</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286232</v>
+        <v>0.286077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.279003</v>
+        <v>0.278598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317696</v>
+        <v>0.317053</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287832</v>
+        <v>0.287441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.28019</v>
+        <v>0.280004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319016</v>
+        <v>0.318705</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289801</v>
+        <v>0.289564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281631</v>
+        <v>0.281272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321213</v>
+        <v>0.320894</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291549</v>
+        <v>0.291334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282649</v>
+        <v>0.28242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323514</v>
+        <v>0.323006</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.29462</v>
+        <v>0.294609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284838</v>
+        <v>0.284389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.327488</v>
+        <v>0.326821</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299204</v>
+        <v>0.299129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288072</v>
+        <v>0.28763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.333438</v>
+        <v>0.332876</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305972</v>
+        <v>0.305718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293178</v>
+        <v>0.292854</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31529</v>
+        <v>0.315023</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.287671</v>
+        <v>0.287083</v>
       </c>
       <c r="C10" t="n">
-        <v>0.280279</v>
+        <v>0.278335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316504</v>
+        <v>0.314836</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.288836</v>
+        <v>0.286362</v>
       </c>
       <c r="C11" t="n">
-        <v>0.282049</v>
+        <v>0.27915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318357</v>
+        <v>0.314828</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.288312</v>
+        <v>0.286685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.28185</v>
+        <v>0.279032</v>
       </c>
       <c r="D12" t="n">
-        <v>0.318044</v>
+        <v>0.315429</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.288436</v>
+        <v>0.286913</v>
       </c>
       <c r="C13" t="n">
-        <v>0.280008</v>
+        <v>0.27892</v>
       </c>
       <c r="D13" t="n">
-        <v>0.315785</v>
+        <v>0.315168</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.287578</v>
+        <v>0.28819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279972</v>
+        <v>0.279653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316181</v>
+        <v>0.315891</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.289415</v>
+        <v>0.288386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282422</v>
+        <v>0.28021</v>
       </c>
       <c r="D15" t="n">
-        <v>0.318217</v>
+        <v>0.316215</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.291891</v>
+        <v>0.290899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284213</v>
+        <v>0.283163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319599</v>
+        <v>0.318624</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.291119</v>
+        <v>0.29041</v>
       </c>
       <c r="C17" t="n">
-        <v>0.283121</v>
+        <v>0.28274</v>
       </c>
       <c r="D17" t="n">
-        <v>0.319544</v>
+        <v>0.31828</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291272</v>
+        <v>0.291419</v>
       </c>
       <c r="C18" t="n">
-        <v>0.285036</v>
+        <v>0.282499</v>
       </c>
       <c r="D18" t="n">
-        <v>0.321336</v>
+        <v>0.319156</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293153</v>
+        <v>0.293592</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284449</v>
+        <v>0.284199</v>
       </c>
       <c r="D19" t="n">
-        <v>0.322022</v>
+        <v>0.321423</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.295911</v>
+        <v>0.296492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.286505</v>
+        <v>0.286334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.324495</v>
+        <v>0.32411</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.301365</v>
+        <v>0.299564</v>
       </c>
       <c r="C21" t="n">
-        <v>0.289722</v>
+        <v>0.287719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328164</v>
+        <v>0.327147</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.305142</v>
+        <v>0.304712</v>
       </c>
       <c r="C22" t="n">
-        <v>0.291406</v>
+        <v>0.29171</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33337</v>
+        <v>0.33365</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.311214</v>
+        <v>0.310284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.298811</v>
+        <v>0.296645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.323044</v>
+        <v>0.322875</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.300014</v>
+        <v>0.297506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.297016</v>
+        <v>0.291435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.325075</v>
+        <v>0.321561</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.300747</v>
+        <v>0.297148</v>
       </c>
       <c r="C25" t="n">
-        <v>0.297082</v>
+        <v>0.29249</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325404</v>
+        <v>0.324429</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301007</v>
+        <v>0.297229</v>
       </c>
       <c r="C26" t="n">
-        <v>0.297136</v>
+        <v>0.292933</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324666</v>
+        <v>0.323114</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.301376</v>
+        <v>0.296511</v>
       </c>
       <c r="C27" t="n">
-        <v>0.297226</v>
+        <v>0.292232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.327022</v>
+        <v>0.324794</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.302311</v>
+        <v>0.297353</v>
       </c>
       <c r="C28" t="n">
-        <v>0.298939</v>
+        <v>0.293614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.327126</v>
+        <v>0.323222</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.302286</v>
+        <v>0.298127</v>
       </c>
       <c r="C29" t="n">
-        <v>0.298526</v>
+        <v>0.294607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.327777</v>
+        <v>0.326816</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.302904</v>
+        <v>0.298967</v>
       </c>
       <c r="C30" t="n">
-        <v>0.299296</v>
+        <v>0.294281</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328871</v>
+        <v>0.325516</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.304085</v>
+        <v>0.300301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.300301</v>
+        <v>0.295456</v>
       </c>
       <c r="D31" t="n">
-        <v>0.329255</v>
+        <v>0.326879</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.313888</v>
+        <v>0.301301</v>
       </c>
       <c r="C32" t="n">
-        <v>0.316772</v>
+        <v>0.295777</v>
       </c>
       <c r="D32" t="n">
-        <v>0.347502</v>
+        <v>0.326361</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.325545</v>
+        <v>0.303626</v>
       </c>
       <c r="C33" t="n">
-        <v>0.318605</v>
+        <v>0.298475</v>
       </c>
       <c r="D33" t="n">
-        <v>0.349251</v>
+        <v>0.329683</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.328488</v>
+        <v>0.306661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.319769</v>
+        <v>0.300412</v>
       </c>
       <c r="D34" t="n">
-        <v>0.351917</v>
+        <v>0.331848</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311641</v>
+        <v>0.310373</v>
       </c>
       <c r="C35" t="n">
-        <v>0.306058</v>
+        <v>0.302821</v>
       </c>
       <c r="D35" t="n">
-        <v>0.340239</v>
+        <v>0.336035</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.316513</v>
+        <v>0.314873</v>
       </c>
       <c r="C36" t="n">
-        <v>0.309248</v>
+        <v>0.304985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.344381</v>
+        <v>0.341311</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322903</v>
+        <v>0.322323</v>
       </c>
       <c r="C37" t="n">
-        <v>0.314132</v>
+        <v>0.311557</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3515</v>
+        <v>0.346127</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320069</v>
+        <v>0.320952</v>
       </c>
       <c r="C38" t="n">
-        <v>0.324486</v>
+        <v>0.321287</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353208</v>
+        <v>0.353347</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32418</v>
+        <v>0.319933</v>
       </c>
       <c r="C39" t="n">
-        <v>0.325059</v>
+        <v>0.320551</v>
       </c>
       <c r="D39" t="n">
-        <v>0.354534</v>
+        <v>0.354651</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320552</v>
+        <v>0.32243</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324492</v>
+        <v>0.321044</v>
       </c>
       <c r="D40" t="n">
-        <v>0.354574</v>
+        <v>0.35242</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.322161</v>
+        <v>0.318467</v>
       </c>
       <c r="C41" t="n">
-        <v>0.323522</v>
+        <v>0.322274</v>
       </c>
       <c r="D41" t="n">
-        <v>0.354007</v>
+        <v>0.353638</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322801</v>
+        <v>0.319777</v>
       </c>
       <c r="C42" t="n">
-        <v>0.324751</v>
+        <v>0.320941</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353969</v>
+        <v>0.353071</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321345</v>
+        <v>0.319957</v>
       </c>
       <c r="C43" t="n">
-        <v>0.325004</v>
+        <v>0.321598</v>
       </c>
       <c r="D43" t="n">
-        <v>0.355469</v>
+        <v>0.35393</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.324155</v>
+        <v>0.323346</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325644</v>
+        <v>0.322663</v>
       </c>
       <c r="D44" t="n">
-        <v>0.356441</v>
+        <v>0.354341</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324145</v>
+        <v>0.322054</v>
       </c>
       <c r="C45" t="n">
-        <v>0.325214</v>
+        <v>0.322047</v>
       </c>
       <c r="D45" t="n">
-        <v>0.355499</v>
+        <v>0.354663</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.326731</v>
+        <v>0.327845</v>
       </c>
       <c r="C46" t="n">
-        <v>0.325409</v>
+        <v>0.324336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3561</v>
+        <v>0.355991</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.329495</v>
+        <v>0.324379</v>
       </c>
       <c r="C47" t="n">
-        <v>0.327645</v>
+        <v>0.326543</v>
       </c>
       <c r="D47" t="n">
-        <v>0.35859</v>
+        <v>0.359243</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.330248</v>
+        <v>0.327124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329234</v>
+        <v>0.329265</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3601</v>
+        <v>0.362389</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335898</v>
+        <v>0.331316</v>
       </c>
       <c r="C49" t="n">
-        <v>0.331872</v>
+        <v>0.333482</v>
       </c>
       <c r="D49" t="n">
-        <v>0.363767</v>
+        <v>0.368278</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.336984</v>
+        <v>0.333284</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334155</v>
+        <v>0.333938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.369266</v>
+        <v>0.37209</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.34351</v>
+        <v>0.341105</v>
       </c>
       <c r="C51" t="n">
-        <v>0.338984</v>
+        <v>0.34019</v>
       </c>
       <c r="D51" t="n">
-        <v>0.387287</v>
+        <v>0.37738</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.351859</v>
+        <v>0.351768</v>
       </c>
       <c r="C52" t="n">
-        <v>0.345825</v>
+        <v>0.34858</v>
       </c>
       <c r="D52" t="n">
-        <v>0.388052</v>
+        <v>0.379092</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34714</v>
+        <v>0.341636</v>
       </c>
       <c r="C53" t="n">
-        <v>0.349448</v>
+        <v>0.345215</v>
       </c>
       <c r="D53" t="n">
-        <v>0.389438</v>
+        <v>0.377918</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347704</v>
+        <v>0.345986</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349596</v>
+        <v>0.345601</v>
       </c>
       <c r="D54" t="n">
-        <v>0.390825</v>
+        <v>0.388426</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.346209</v>
+        <v>0.341982</v>
       </c>
       <c r="C55" t="n">
-        <v>0.349758</v>
+        <v>0.340252</v>
       </c>
       <c r="D55" t="n">
-        <v>0.390104</v>
+        <v>0.388458</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.347559</v>
+        <v>0.34742</v>
       </c>
       <c r="C56" t="n">
-        <v>0.350619</v>
+        <v>0.347666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.390389</v>
+        <v>0.389937</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347538</v>
+        <v>0.342983</v>
       </c>
       <c r="C57" t="n">
-        <v>0.35011</v>
+        <v>0.340981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.390168</v>
+        <v>0.379261</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347831</v>
+        <v>0.344935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.350381</v>
+        <v>0.340713</v>
       </c>
       <c r="D58" t="n">
-        <v>0.391394</v>
+        <v>0.380418</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.348053</v>
+        <v>0.349314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.351257</v>
+        <v>0.348667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.390937</v>
+        <v>0.380237</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.349657</v>
+        <v>0.34868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.351236</v>
+        <v>0.349275</v>
       </c>
       <c r="D60" t="n">
-        <v>0.392784</v>
+        <v>0.391319</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.350535</v>
+        <v>0.347853</v>
       </c>
       <c r="C61" t="n">
-        <v>0.352406</v>
+        <v>0.350925</v>
       </c>
       <c r="D61" t="n">
-        <v>0.392474</v>
+        <v>0.38286</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.353889</v>
+        <v>0.354261</v>
       </c>
       <c r="C62" t="n">
-        <v>0.35371</v>
+        <v>0.352166</v>
       </c>
       <c r="D62" t="n">
-        <v>0.394677</v>
+        <v>0.39544</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.357554</v>
+        <v>0.351366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.355178</v>
+        <v>0.354497</v>
       </c>
       <c r="D63" t="n">
-        <v>0.396806</v>
+        <v>0.398312</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.362518</v>
+        <v>0.356078</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35766</v>
+        <v>0.357218</v>
       </c>
       <c r="D64" t="n">
-        <v>0.402556</v>
+        <v>0.395569</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.367982</v>
+        <v>0.367297</v>
       </c>
       <c r="C65" t="n">
-        <v>0.362472</v>
+        <v>0.355031</v>
       </c>
       <c r="D65" t="n">
-        <v>0.409602</v>
+        <v>0.400423</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.375585</v>
+        <v>0.376915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.368952</v>
+        <v>0.362958</v>
       </c>
       <c r="D66" t="n">
-        <v>0.417078</v>
+        <v>0.413211</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364316</v>
+        <v>0.362931</v>
       </c>
       <c r="C67" t="n">
-        <v>0.365176</v>
+        <v>0.355792</v>
       </c>
       <c r="D67" t="n">
-        <v>0.417135</v>
+        <v>0.412421</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365326</v>
+        <v>0.362593</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365865</v>
+        <v>0.358418</v>
       </c>
       <c r="D68" t="n">
-        <v>0.418092</v>
+        <v>0.412668</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365689</v>
+        <v>0.365201</v>
       </c>
       <c r="C69" t="n">
-        <v>0.366007</v>
+        <v>0.359652</v>
       </c>
       <c r="D69" t="n">
-        <v>0.418088</v>
+        <v>0.415634</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365295</v>
+        <v>0.365175</v>
       </c>
       <c r="C70" t="n">
-        <v>0.366593</v>
+        <v>0.364227</v>
       </c>
       <c r="D70" t="n">
-        <v>0.419082</v>
+        <v>0.416321</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366413</v>
+        <v>0.364179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.36688</v>
+        <v>0.360375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.419203</v>
+        <v>0.416223</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.367083</v>
+        <v>0.364862</v>
       </c>
       <c r="C72" t="n">
-        <v>0.36721</v>
+        <v>0.361885</v>
       </c>
       <c r="D72" t="n">
-        <v>0.42094</v>
+        <v>0.417798</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.368358</v>
+        <v>0.367019</v>
       </c>
       <c r="C73" t="n">
-        <v>0.368043</v>
+        <v>0.365397</v>
       </c>
       <c r="D73" t="n">
-        <v>0.420948</v>
+        <v>0.418701</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369384</v>
+        <v>0.366955</v>
       </c>
       <c r="C74" t="n">
-        <v>0.368422</v>
+        <v>0.364949</v>
       </c>
       <c r="D74" t="n">
-        <v>0.42098</v>
+        <v>0.419438</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370308</v>
+        <v>0.368732</v>
       </c>
       <c r="C75" t="n">
-        <v>0.369747</v>
+        <v>0.367218</v>
       </c>
       <c r="D75" t="n">
-        <v>0.42366</v>
+        <v>0.424309</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.372414</v>
+        <v>0.37107</v>
       </c>
       <c r="C76" t="n">
-        <v>0.371362</v>
+        <v>0.369724</v>
       </c>
       <c r="D76" t="n">
-        <v>0.424649</v>
+        <v>0.42343</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.374986</v>
+        <v>0.372742</v>
       </c>
       <c r="C77" t="n">
-        <v>0.373126</v>
+        <v>0.370953</v>
       </c>
       <c r="D77" t="n">
-        <v>0.427459</v>
+        <v>0.426631</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.379249</v>
+        <v>0.38016</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375636</v>
+        <v>0.373786</v>
       </c>
       <c r="D78" t="n">
-        <v>0.431692</v>
+        <v>0.429997</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.384441</v>
+        <v>0.38537</v>
       </c>
       <c r="C79" t="n">
-        <v>0.379939</v>
+        <v>0.378084</v>
       </c>
       <c r="D79" t="n">
-        <v>0.437858</v>
+        <v>0.437763</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392973</v>
+        <v>0.390856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385703</v>
+        <v>0.382044</v>
       </c>
       <c r="D80" t="n">
-        <v>0.449432</v>
+        <v>0.449547</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.392077</v>
+        <v>0.387824</v>
       </c>
       <c r="C81" t="n">
-        <v>0.38825</v>
+        <v>0.384018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.449533</v>
+        <v>0.448383</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.391206</v>
+        <v>0.386532</v>
       </c>
       <c r="C82" t="n">
-        <v>0.39407</v>
+        <v>0.382361</v>
       </c>
       <c r="D82" t="n">
-        <v>0.451007</v>
+        <v>0.448767</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.392375</v>
+        <v>0.386999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.378037</v>
+        <v>0.386337</v>
       </c>
       <c r="D83" t="n">
-        <v>0.45215</v>
+        <v>0.449199</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.387693</v>
+        <v>0.389278</v>
       </c>
       <c r="C84" t="n">
-        <v>0.388867</v>
+        <v>0.386414</v>
       </c>
       <c r="D84" t="n">
-        <v>0.437898</v>
+        <v>0.450373</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.392913</v>
+        <v>0.393304</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388734</v>
+        <v>0.388537</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4547</v>
+        <v>0.450105</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.391382</v>
+        <v>0.392757</v>
       </c>
       <c r="C86" t="n">
-        <v>0.392718</v>
+        <v>0.387692</v>
       </c>
       <c r="D86" t="n">
-        <v>0.438797</v>
+        <v>0.45195</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.395402</v>
+        <v>0.391152</v>
       </c>
       <c r="C87" t="n">
-        <v>0.379985</v>
+        <v>0.388546</v>
       </c>
       <c r="D87" t="n">
-        <v>0.452959</v>
+        <v>0.45188</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391075</v>
+        <v>0.394151</v>
       </c>
       <c r="C88" t="n">
-        <v>0.391085</v>
+        <v>0.388983</v>
       </c>
       <c r="D88" t="n">
-        <v>0.456748</v>
+        <v>0.45538</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.392909</v>
+        <v>0.396443</v>
       </c>
       <c r="C89" t="n">
-        <v>0.391833</v>
+        <v>0.391583</v>
       </c>
       <c r="D89" t="n">
-        <v>0.450199</v>
+        <v>0.454648</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398649</v>
+        <v>0.394622</v>
       </c>
       <c r="C90" t="n">
-        <v>0.39516</v>
+        <v>0.392054</v>
       </c>
       <c r="D90" t="n">
-        <v>0.450333</v>
+        <v>0.455196</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397751</v>
+        <v>0.39671</v>
       </c>
       <c r="C91" t="n">
-        <v>0.384396</v>
+        <v>0.393418</v>
       </c>
       <c r="D91" t="n">
-        <v>0.459713</v>
+        <v>0.457889</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.406839</v>
+        <v>0.403667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.401838</v>
+        <v>0.396241</v>
       </c>
       <c r="D92" t="n">
-        <v>0.46243</v>
+        <v>0.462262</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.411256</v>
+        <v>0.408835</v>
       </c>
       <c r="C93" t="n">
-        <v>0.399902</v>
+        <v>0.400033</v>
       </c>
       <c r="D93" t="n">
-        <v>0.468313</v>
+        <v>0.470245</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413749</v>
+        <v>0.415644</v>
       </c>
       <c r="C94" t="n">
-        <v>0.407427</v>
+        <v>0.411519</v>
       </c>
       <c r="D94" t="n">
-        <v>0.665266</v>
+        <v>0.674165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.593342</v>
+        <v>0.617652</v>
       </c>
       <c r="C95" t="n">
-        <v>0.592965</v>
+        <v>0.60772</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6461710000000001</v>
+        <v>0.678599</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.609693</v>
+        <v>0.61733</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584919</v>
+        <v>0.612337</v>
       </c>
       <c r="D96" t="n">
-        <v>0.653616</v>
+        <v>0.662315</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.597377</v>
+        <v>0.626842</v>
       </c>
       <c r="C97" t="n">
-        <v>0.586107</v>
+        <v>0.6086819999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6487039999999999</v>
+        <v>0.677695</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.597759</v>
+        <v>0.61573</v>
       </c>
       <c r="C98" t="n">
-        <v>0.542871</v>
+        <v>0.6134810000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.580407</v>
+        <v>0.681685</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.588889</v>
+        <v>0.627242</v>
       </c>
       <c r="C99" t="n">
-        <v>0.541767</v>
+        <v>0.609749</v>
       </c>
       <c r="D99" t="n">
-        <v>0.643751</v>
+        <v>0.668861</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.59672</v>
+        <v>0.621499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.574231</v>
+        <v>0.6003500000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.65418</v>
+        <v>0.6691319999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.597894</v>
+        <v>0.625517</v>
       </c>
       <c r="C101" t="n">
-        <v>0.54558</v>
+        <v>0.605541</v>
       </c>
       <c r="D101" t="n">
-        <v>0.587543</v>
+        <v>0.675031</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.594921</v>
+        <v>0.61589</v>
       </c>
       <c r="C102" t="n">
-        <v>0.591074</v>
+        <v>0.613781</v>
       </c>
       <c r="D102" t="n">
-        <v>0.653497</v>
+        <v>0.670417</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.616404</v>
+        <v>0.6256969999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.592595</v>
+        <v>0.606577</v>
       </c>
       <c r="D103" t="n">
-        <v>0.666278</v>
+        <v>0.677809</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.609613</v>
+        <v>0.623614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.553696</v>
+        <v>0.59534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.594625</v>
+        <v>0.686156</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.601294</v>
+        <v>0.621797</v>
       </c>
       <c r="C105" t="n">
-        <v>0.553269</v>
+        <v>0.6158169999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.656721</v>
+        <v>0.676274</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.612259</v>
+        <v>0.629439</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5924</v>
+        <v>0.607842</v>
       </c>
       <c r="D106" t="n">
-        <v>0.671242</v>
+        <v>0.676036</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6123459999999999</v>
+        <v>0.6411520000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.601463</v>
+        <v>0.612572</v>
       </c>
       <c r="D107" t="n">
-        <v>0.678557</v>
+        <v>0.685729</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.611364</v>
+        <v>0.646304</v>
       </c>
       <c r="C108" t="n">
-        <v>0.562354</v>
+        <v>0.619683</v>
       </c>
       <c r="D108" t="n">
-        <v>1.19295</v>
+        <v>1.27409</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.624289</v>
+        <v>0.642838</v>
       </c>
       <c r="C109" t="n">
-        <v>0.597661</v>
+        <v>0.6164770000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>1.14479</v>
+        <v>1.27442</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05795</v>
+        <v>1.1511</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04162</v>
+        <v>1.1277</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1905</v>
+        <v>1.27206</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05833</v>
+        <v>1.14915</v>
       </c>
       <c r="C111" t="n">
-        <v>1.04072</v>
+        <v>1.12749</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14473</v>
+        <v>1.27027</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0582</v>
+        <v>1.15073</v>
       </c>
       <c r="C112" t="n">
-        <v>1.04101</v>
+        <v>1.12416</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18046</v>
+        <v>1.27057</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05723</v>
+        <v>1.14805</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0396</v>
+        <v>1.12567</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13369</v>
+        <v>1.26876</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05849</v>
+        <v>1.14947</v>
       </c>
       <c r="C114" t="n">
-        <v>1.04015</v>
+        <v>1.12681</v>
       </c>
       <c r="D114" t="n">
-        <v>1.18328</v>
+        <v>1.27155</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05907</v>
+        <v>1.15082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.04141</v>
+        <v>1.12624</v>
       </c>
       <c r="D115" t="n">
-        <v>1.14035</v>
+        <v>1.26887</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.06023</v>
+        <v>1.15128</v>
       </c>
       <c r="C116" t="n">
-        <v>1.04008</v>
+        <v>1.12754</v>
       </c>
       <c r="D116" t="n">
-        <v>1.14198</v>
+        <v>1.26851</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05964</v>
+        <v>1.15033</v>
       </c>
       <c r="C117" t="n">
-        <v>1.01461</v>
+        <v>1.12703</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19066</v>
+        <v>1.26863</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05985</v>
+        <v>1.15118</v>
       </c>
       <c r="C118" t="n">
-        <v>1.04138</v>
+        <v>1.12861</v>
       </c>
       <c r="D118" t="n">
-        <v>1.18433</v>
+        <v>1.27105</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.06203</v>
+        <v>1.15058</v>
       </c>
       <c r="C119" t="n">
-        <v>1.04406</v>
+        <v>1.12794</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18594</v>
+        <v>1.26761</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06218</v>
+        <v>1.15375</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04383</v>
+        <v>1.12973</v>
       </c>
       <c r="D120" t="n">
-        <v>1.14428</v>
+        <v>1.2731</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06559</v>
+        <v>1.15578</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04656</v>
+        <v>1.13155</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18748</v>
+        <v>1.27655</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.07022</v>
+        <v>1.15916</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04862</v>
+        <v>1.1343</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18986</v>
+        <v>1.27418</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07665</v>
+        <v>1.16565</v>
       </c>
       <c r="C123" t="n">
-        <v>1.0287</v>
+        <v>1.13999</v>
       </c>
       <c r="D123" t="n">
-        <v>1.64356</v>
+        <v>1.78715</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32754</v>
+        <v>1.42097</v>
       </c>
       <c r="C124" t="n">
-        <v>1.31174</v>
+        <v>1.41147</v>
       </c>
       <c r="D124" t="n">
-        <v>1.64418</v>
+        <v>1.7907</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31236</v>
+        <v>1.42076</v>
       </c>
       <c r="C125" t="n">
-        <v>1.30133</v>
+        <v>1.41222</v>
       </c>
       <c r="D125" t="n">
-        <v>1.62251</v>
+        <v>1.78469</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32146</v>
+        <v>1.4213</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33637</v>
+        <v>1.41186</v>
       </c>
       <c r="D126" t="n">
-        <v>1.64489</v>
+        <v>1.79328</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32258</v>
+        <v>1.42209</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33418</v>
+        <v>1.41263</v>
       </c>
       <c r="D127" t="n">
-        <v>1.64558</v>
+        <v>1.79204</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31954</v>
+        <v>1.4241</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31478</v>
+        <v>1.41624</v>
       </c>
       <c r="D128" t="n">
-        <v>1.6425</v>
+        <v>1.78798</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31337</v>
+        <v>1.42248</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31552</v>
+        <v>1.41186</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63974</v>
+        <v>1.78182</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3309</v>
+        <v>1.42191</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32077</v>
+        <v>1.41208</v>
       </c>
       <c r="D130" t="n">
-        <v>1.64669</v>
+        <v>1.7934</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.31497</v>
+        <v>1.42222</v>
       </c>
       <c r="C131" t="n">
-        <v>1.33506</v>
+        <v>1.41869</v>
       </c>
       <c r="D131" t="n">
-        <v>1.64855</v>
+        <v>1.79235</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.316</v>
+        <v>1.42613</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33259</v>
+        <v>1.41672</v>
       </c>
       <c r="D132" t="n">
-        <v>1.65354</v>
+        <v>1.79042</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.31926</v>
+        <v>1.42607</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33856</v>
+        <v>1.41904</v>
       </c>
       <c r="D133" t="n">
-        <v>1.64841</v>
+        <v>1.79046</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.33702</v>
+        <v>1.42904</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34041</v>
+        <v>1.42435</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66214</v>
+        <v>1.79378</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33763</v>
+        <v>1.43595</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34302</v>
+        <v>1.42723</v>
       </c>
       <c r="D135" t="n">
-        <v>1.68506</v>
+        <v>1.79788</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34919</v>
+        <v>1.43973</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33704</v>
+        <v>1.43373</v>
       </c>
       <c r="D136" t="n">
-        <v>1.68072</v>
+        <v>1.808</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35341</v>
+        <v>1.45765</v>
       </c>
       <c r="C137" t="n">
-        <v>1.36336</v>
+        <v>1.45416</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09301</v>
+        <v>2.29966</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.45087</v>
+        <v>1.57759</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4541</v>
+        <v>1.57272</v>
       </c>
       <c r="D138" t="n">
-        <v>2.09338</v>
+        <v>2.29639</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.4513</v>
+        <v>1.57666</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45428</v>
+        <v>1.57276</v>
       </c>
       <c r="D139" t="n">
-        <v>2.09153</v>
+        <v>2.29778</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.46015</v>
+        <v>1.57791</v>
       </c>
       <c r="C140" t="n">
-        <v>1.45983</v>
+        <v>1.57266</v>
       </c>
       <c r="D140" t="n">
-        <v>2.0932</v>
+        <v>2.29475</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.45483</v>
+        <v>1.57744</v>
       </c>
       <c r="C141" t="n">
-        <v>1.44119</v>
+        <v>1.57331</v>
       </c>
       <c r="D141" t="n">
-        <v>2.09494</v>
+        <v>2.29596</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.46035</v>
+        <v>1.57829</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46293</v>
+        <v>1.57446</v>
       </c>
       <c r="D142" t="n">
-        <v>2.09183</v>
+        <v>2.29808</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.45168</v>
+        <v>1.57907</v>
       </c>
       <c r="C143" t="n">
-        <v>1.46199</v>
+        <v>1.57542</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09674</v>
+        <v>2.29975</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.28516</v>
+        <v>0.285279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278659</v>
+        <v>0.276629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.316608</v>
+        <v>0.314205</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286077</v>
+        <v>0.285994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.278598</v>
+        <v>0.277058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317053</v>
+        <v>0.314802</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287441</v>
+        <v>0.287528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.280004</v>
+        <v>0.278423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.318705</v>
+        <v>0.316582</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289564</v>
+        <v>0.289552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281272</v>
+        <v>0.279859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.320894</v>
+        <v>0.318796</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291334</v>
+        <v>0.291354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.28242</v>
+        <v>0.280825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.323006</v>
+        <v>0.320965</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294609</v>
+        <v>0.294714</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284389</v>
+        <v>0.282893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.326821</v>
+        <v>0.32528</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299129</v>
+        <v>0.299382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.28763</v>
+        <v>0.286448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.332876</v>
+        <v>0.330919</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305718</v>
+        <v>0.306045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292854</v>
+        <v>0.291824</v>
       </c>
       <c r="D9" t="n">
-        <v>0.315023</v>
+        <v>0.312838</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.287083</v>
+        <v>0.286688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278335</v>
+        <v>0.279128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314836</v>
+        <v>0.314621</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.286362</v>
+        <v>0.287705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.27915</v>
+        <v>0.279067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314828</v>
+        <v>0.314691</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286685</v>
+        <v>0.286792</v>
       </c>
       <c r="C12" t="n">
-        <v>0.279032</v>
+        <v>0.277306</v>
       </c>
       <c r="D12" t="n">
-        <v>0.315429</v>
+        <v>0.313552</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286913</v>
+        <v>0.287814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27892</v>
+        <v>0.279543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.315168</v>
+        <v>0.315312</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.28819</v>
+        <v>0.287174</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279653</v>
+        <v>0.279345</v>
       </c>
       <c r="D14" t="n">
-        <v>0.315891</v>
+        <v>0.314758</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.288386</v>
+        <v>0.289486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.28021</v>
+        <v>0.282178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316215</v>
+        <v>0.317141</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.290899</v>
+        <v>0.288951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283163</v>
+        <v>0.280703</v>
       </c>
       <c r="D16" t="n">
-        <v>0.318624</v>
+        <v>0.316538</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.29041</v>
+        <v>0.289864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.28274</v>
+        <v>0.280532</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31828</v>
+        <v>0.31638</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291419</v>
+        <v>0.291697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282499</v>
+        <v>0.281635</v>
       </c>
       <c r="D18" t="n">
-        <v>0.319156</v>
+        <v>0.317889</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293592</v>
+        <v>0.293624</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284199</v>
+        <v>0.283234</v>
       </c>
       <c r="D19" t="n">
-        <v>0.321423</v>
+        <v>0.320266</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.296492</v>
+        <v>0.296486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.286334</v>
+        <v>0.284654</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32411</v>
+        <v>0.322894</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299564</v>
+        <v>0.301093</v>
       </c>
       <c r="C21" t="n">
-        <v>0.287719</v>
+        <v>0.289741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327147</v>
+        <v>0.328598</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.304712</v>
+        <v>0.303588</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29171</v>
+        <v>0.28933</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33365</v>
+        <v>0.33196</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.310284</v>
+        <v>0.309811</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296645</v>
+        <v>0.295019</v>
       </c>
       <c r="D23" t="n">
-        <v>0.322875</v>
+        <v>0.324338</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.297506</v>
+        <v>0.298717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.291435</v>
+        <v>0.293486</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321561</v>
+        <v>0.323368</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297148</v>
+        <v>0.297831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.29249</v>
+        <v>0.295227</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324429</v>
+        <v>0.339356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.297229</v>
+        <v>0.29878</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292933</v>
+        <v>0.293707</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323114</v>
+        <v>0.324295</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.296511</v>
+        <v>0.299472</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292232</v>
+        <v>0.294977</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324794</v>
+        <v>0.324231</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.297353</v>
+        <v>0.300791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.293614</v>
+        <v>0.295674</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323222</v>
+        <v>0.325162</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298127</v>
+        <v>0.300297</v>
       </c>
       <c r="C29" t="n">
-        <v>0.294607</v>
+        <v>0.295066</v>
       </c>
       <c r="D29" t="n">
-        <v>0.326816</v>
+        <v>0.325105</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.298967</v>
+        <v>0.301463</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294281</v>
+        <v>0.313901</v>
       </c>
       <c r="D30" t="n">
-        <v>0.325516</v>
+        <v>0.344057</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.300301</v>
+        <v>0.322001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295456</v>
+        <v>0.314851</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326879</v>
+        <v>0.342434</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.301301</v>
+        <v>0.324179</v>
       </c>
       <c r="C32" t="n">
-        <v>0.295777</v>
+        <v>0.316137</v>
       </c>
       <c r="D32" t="n">
-        <v>0.326361</v>
+        <v>0.34469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.303626</v>
+        <v>0.326058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.298475</v>
+        <v>0.318345</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329683</v>
+        <v>0.347814</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.306661</v>
+        <v>0.328188</v>
       </c>
       <c r="C34" t="n">
-        <v>0.300412</v>
+        <v>0.319752</v>
       </c>
       <c r="D34" t="n">
-        <v>0.331848</v>
+        <v>0.350096</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310373</v>
+        <v>0.312108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302821</v>
+        <v>0.304133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.336035</v>
+        <v>0.338226</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314873</v>
+        <v>0.315985</v>
       </c>
       <c r="C36" t="n">
-        <v>0.304985</v>
+        <v>0.307147</v>
       </c>
       <c r="D36" t="n">
-        <v>0.341311</v>
+        <v>0.343068</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322323</v>
+        <v>0.322557</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311557</v>
+        <v>0.312759</v>
       </c>
       <c r="D37" t="n">
-        <v>0.346127</v>
+        <v>0.365474</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.320952</v>
+        <v>0.319577</v>
       </c>
       <c r="C38" t="n">
-        <v>0.321287</v>
+        <v>0.322008</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353347</v>
+        <v>0.350506</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.319933</v>
+        <v>0.322541</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320551</v>
+        <v>0.320815</v>
       </c>
       <c r="D39" t="n">
-        <v>0.354651</v>
+        <v>0.350642</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.32243</v>
+        <v>0.320767</v>
       </c>
       <c r="C40" t="n">
-        <v>0.321044</v>
+        <v>0.320552</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35242</v>
+        <v>0.350611</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.318467</v>
+        <v>0.321892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.322274</v>
+        <v>0.321003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353638</v>
+        <v>0.35055</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.319777</v>
+        <v>0.322867</v>
       </c>
       <c r="C42" t="n">
-        <v>0.320941</v>
+        <v>0.321268</v>
       </c>
       <c r="D42" t="n">
-        <v>0.353071</v>
+        <v>0.351769</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319957</v>
+        <v>0.323981</v>
       </c>
       <c r="C43" t="n">
-        <v>0.321598</v>
+        <v>0.321299</v>
       </c>
       <c r="D43" t="n">
-        <v>0.35393</v>
+        <v>0.35258</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.323346</v>
+        <v>0.322288</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322663</v>
+        <v>0.321435</v>
       </c>
       <c r="D44" t="n">
-        <v>0.354341</v>
+        <v>0.353128</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.322054</v>
+        <v>0.324582</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322047</v>
+        <v>0.321841</v>
       </c>
       <c r="D45" t="n">
-        <v>0.354663</v>
+        <v>0.361368</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.327845</v>
+        <v>0.323759</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324336</v>
+        <v>0.322763</v>
       </c>
       <c r="D46" t="n">
-        <v>0.355991</v>
+        <v>0.354763</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.324379</v>
+        <v>0.327006</v>
       </c>
       <c r="C47" t="n">
-        <v>0.326543</v>
+        <v>0.325168</v>
       </c>
       <c r="D47" t="n">
-        <v>0.359243</v>
+        <v>0.356117</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.327124</v>
+        <v>0.329582</v>
       </c>
       <c r="C48" t="n">
-        <v>0.329265</v>
+        <v>0.325935</v>
       </c>
       <c r="D48" t="n">
-        <v>0.362389</v>
+        <v>0.358292</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.331316</v>
+        <v>0.332546</v>
       </c>
       <c r="C49" t="n">
-        <v>0.333482</v>
+        <v>0.327188</v>
       </c>
       <c r="D49" t="n">
-        <v>0.368278</v>
+        <v>0.362151</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.333284</v>
+        <v>0.335986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.333938</v>
+        <v>0.331925</v>
       </c>
       <c r="D50" t="n">
-        <v>0.37209</v>
+        <v>0.369346</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.341105</v>
+        <v>0.345032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.34019</v>
+        <v>0.336367</v>
       </c>
       <c r="D51" t="n">
-        <v>0.37738</v>
+        <v>0.385239</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.351768</v>
+        <v>0.354135</v>
       </c>
       <c r="C52" t="n">
-        <v>0.34858</v>
+        <v>0.344127</v>
       </c>
       <c r="D52" t="n">
-        <v>0.379092</v>
+        <v>0.384024</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.341636</v>
+        <v>0.346993</v>
       </c>
       <c r="C53" t="n">
-        <v>0.345215</v>
+        <v>0.345852</v>
       </c>
       <c r="D53" t="n">
-        <v>0.377918</v>
+        <v>0.387024</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.345986</v>
+        <v>0.346595</v>
       </c>
       <c r="C54" t="n">
-        <v>0.345601</v>
+        <v>0.346076</v>
       </c>
       <c r="D54" t="n">
-        <v>0.388426</v>
+        <v>0.387458</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341982</v>
+        <v>0.347147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.340252</v>
+        <v>0.346278</v>
       </c>
       <c r="D55" t="n">
-        <v>0.388458</v>
+        <v>0.387039</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.34742</v>
+        <v>0.346668</v>
       </c>
       <c r="C56" t="n">
-        <v>0.347666</v>
+        <v>0.347241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.389937</v>
+        <v>0.388228</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.342983</v>
+        <v>0.347146</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340981</v>
+        <v>0.34735</v>
       </c>
       <c r="D57" t="n">
-        <v>0.379261</v>
+        <v>0.389855</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.344935</v>
+        <v>0.348138</v>
       </c>
       <c r="C58" t="n">
-        <v>0.340713</v>
+        <v>0.347739</v>
       </c>
       <c r="D58" t="n">
-        <v>0.380418</v>
+        <v>0.38921</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.349314</v>
+        <v>0.349871</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348667</v>
+        <v>0.348023</v>
       </c>
       <c r="D59" t="n">
-        <v>0.380237</v>
+        <v>0.389242</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.34868</v>
+        <v>0.350225</v>
       </c>
       <c r="C60" t="n">
-        <v>0.349275</v>
+        <v>0.347975</v>
       </c>
       <c r="D60" t="n">
-        <v>0.391319</v>
+        <v>0.390402</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.347853</v>
+        <v>0.352533</v>
       </c>
       <c r="C61" t="n">
-        <v>0.350925</v>
+        <v>0.350018</v>
       </c>
       <c r="D61" t="n">
-        <v>0.38286</v>
+        <v>0.391293</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.354261</v>
+        <v>0.355206</v>
       </c>
       <c r="C62" t="n">
-        <v>0.352166</v>
+        <v>0.351488</v>
       </c>
       <c r="D62" t="n">
-        <v>0.39544</v>
+        <v>0.394728</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.351366</v>
+        <v>0.355192</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354497</v>
+        <v>0.352556</v>
       </c>
       <c r="D63" t="n">
-        <v>0.398312</v>
+        <v>0.394682</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.356078</v>
+        <v>0.360829</v>
       </c>
       <c r="C64" t="n">
-        <v>0.357218</v>
+        <v>0.35586</v>
       </c>
       <c r="D64" t="n">
-        <v>0.395569</v>
+        <v>0.40048</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.367297</v>
+        <v>0.366852</v>
       </c>
       <c r="C65" t="n">
-        <v>0.355031</v>
+        <v>0.360903</v>
       </c>
       <c r="D65" t="n">
-        <v>0.400423</v>
+        <v>0.409074</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.376915</v>
+        <v>0.374995</v>
       </c>
       <c r="C66" t="n">
-        <v>0.362958</v>
+        <v>0.366608</v>
       </c>
       <c r="D66" t="n">
-        <v>0.413211</v>
+        <v>0.412672</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.362931</v>
+        <v>0.363893</v>
       </c>
       <c r="C67" t="n">
-        <v>0.355792</v>
+        <v>0.362798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.412421</v>
+        <v>0.414389</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.362593</v>
+        <v>0.365465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.358418</v>
+        <v>0.363183</v>
       </c>
       <c r="D68" t="n">
-        <v>0.412668</v>
+        <v>0.414409</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365201</v>
+        <v>0.365948</v>
       </c>
       <c r="C69" t="n">
-        <v>0.359652</v>
+        <v>0.363579</v>
       </c>
       <c r="D69" t="n">
-        <v>0.415634</v>
+        <v>0.414511</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365175</v>
+        <v>0.36554</v>
       </c>
       <c r="C70" t="n">
-        <v>0.364227</v>
+        <v>0.36417</v>
       </c>
       <c r="D70" t="n">
-        <v>0.416321</v>
+        <v>0.41472</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.364179</v>
+        <v>0.365281</v>
       </c>
       <c r="C71" t="n">
-        <v>0.360375</v>
+        <v>0.364094</v>
       </c>
       <c r="D71" t="n">
-        <v>0.416223</v>
+        <v>0.415468</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.364862</v>
+        <v>0.366843</v>
       </c>
       <c r="C72" t="n">
-        <v>0.361885</v>
+        <v>0.365393</v>
       </c>
       <c r="D72" t="n">
-        <v>0.417798</v>
+        <v>0.416809</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.367019</v>
+        <v>0.366769</v>
       </c>
       <c r="C73" t="n">
-        <v>0.365397</v>
+        <v>0.365617</v>
       </c>
       <c r="D73" t="n">
-        <v>0.418701</v>
+        <v>0.417289</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.366955</v>
+        <v>0.36874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.364949</v>
+        <v>0.365847</v>
       </c>
       <c r="D74" t="n">
-        <v>0.419438</v>
+        <v>0.418358</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.368732</v>
+        <v>0.370363</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367218</v>
+        <v>0.367174</v>
       </c>
       <c r="D75" t="n">
-        <v>0.424309</v>
+        <v>0.420154</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37107</v>
+        <v>0.370747</v>
       </c>
       <c r="C76" t="n">
-        <v>0.369724</v>
+        <v>0.36875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42343</v>
+        <v>0.421592</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.372742</v>
+        <v>0.375526</v>
       </c>
       <c r="C77" t="n">
-        <v>0.370953</v>
+        <v>0.370916</v>
       </c>
       <c r="D77" t="n">
-        <v>0.426631</v>
+        <v>0.424645</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.38016</v>
+        <v>0.380025</v>
       </c>
       <c r="C78" t="n">
-        <v>0.373786</v>
+        <v>0.373899</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429997</v>
+        <v>0.429472</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.38537</v>
+        <v>0.384601</v>
       </c>
       <c r="C79" t="n">
-        <v>0.378084</v>
+        <v>0.377824</v>
       </c>
       <c r="D79" t="n">
-        <v>0.437763</v>
+        <v>0.434878</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390856</v>
+        <v>0.392959</v>
       </c>
       <c r="C80" t="n">
-        <v>0.382044</v>
+        <v>0.383953</v>
       </c>
       <c r="D80" t="n">
-        <v>0.449547</v>
+        <v>0.444477</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387824</v>
+        <v>0.386664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.384018</v>
+        <v>0.386485</v>
       </c>
       <c r="D81" t="n">
-        <v>0.448383</v>
+        <v>0.443729</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.386532</v>
+        <v>0.391545</v>
       </c>
       <c r="C82" t="n">
-        <v>0.382361</v>
+        <v>0.387779</v>
       </c>
       <c r="D82" t="n">
-        <v>0.448767</v>
+        <v>0.448151</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386999</v>
+        <v>0.389456</v>
       </c>
       <c r="C83" t="n">
-        <v>0.386337</v>
+        <v>0.388918</v>
       </c>
       <c r="D83" t="n">
-        <v>0.449199</v>
+        <v>0.445792</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389278</v>
+        <v>0.390898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.386414</v>
+        <v>0.386187</v>
       </c>
       <c r="D84" t="n">
-        <v>0.450373</v>
+        <v>0.44574</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.393304</v>
+        <v>0.390471</v>
       </c>
       <c r="C85" t="n">
-        <v>0.388537</v>
+        <v>0.386534</v>
       </c>
       <c r="D85" t="n">
-        <v>0.450105</v>
+        <v>0.446199</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.392757</v>
+        <v>0.388791</v>
       </c>
       <c r="C86" t="n">
-        <v>0.387692</v>
+        <v>0.386923</v>
       </c>
       <c r="D86" t="n">
-        <v>0.45195</v>
+        <v>0.447318</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.391152</v>
+        <v>0.393782</v>
       </c>
       <c r="C87" t="n">
-        <v>0.388546</v>
+        <v>0.386916</v>
       </c>
       <c r="D87" t="n">
-        <v>0.45188</v>
+        <v>0.448698</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.394151</v>
+        <v>0.393253</v>
       </c>
       <c r="C88" t="n">
-        <v>0.388983</v>
+        <v>0.388382</v>
       </c>
       <c r="D88" t="n">
-        <v>0.45538</v>
+        <v>0.449029</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.396443</v>
+        <v>0.393498</v>
       </c>
       <c r="C89" t="n">
-        <v>0.391583</v>
+        <v>0.388497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.454648</v>
+        <v>0.449059</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.394622</v>
+        <v>0.395104</v>
       </c>
       <c r="C90" t="n">
-        <v>0.392054</v>
+        <v>0.389564</v>
       </c>
       <c r="D90" t="n">
-        <v>0.455196</v>
+        <v>0.452015</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.39671</v>
+        <v>0.396726</v>
       </c>
       <c r="C91" t="n">
-        <v>0.393418</v>
+        <v>0.391987</v>
       </c>
       <c r="D91" t="n">
-        <v>0.457889</v>
+        <v>0.453891</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.403667</v>
+        <v>0.401819</v>
       </c>
       <c r="C92" t="n">
-        <v>0.396241</v>
+        <v>0.394674</v>
       </c>
       <c r="D92" t="n">
-        <v>0.462262</v>
+        <v>0.458578</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.408835</v>
+        <v>0.407936</v>
       </c>
       <c r="C93" t="n">
-        <v>0.400033</v>
+        <v>0.398158</v>
       </c>
       <c r="D93" t="n">
-        <v>0.470245</v>
+        <v>0.463108</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.415644</v>
+        <v>0.4138</v>
       </c>
       <c r="C94" t="n">
-        <v>0.411519</v>
+        <v>0.404207</v>
       </c>
       <c r="D94" t="n">
-        <v>0.674165</v>
+        <v>0.647775</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.617652</v>
+        <v>0.600234</v>
       </c>
       <c r="C95" t="n">
-        <v>0.60772</v>
+        <v>0.58488</v>
       </c>
       <c r="D95" t="n">
-        <v>0.678599</v>
+        <v>0.6482329999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.61733</v>
+        <v>0.600262</v>
       </c>
       <c r="C96" t="n">
-        <v>0.612337</v>
+        <v>0.582516</v>
       </c>
       <c r="D96" t="n">
-        <v>0.662315</v>
+        <v>0.651492</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.626842</v>
+        <v>0.60063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6086819999999999</v>
+        <v>0.583955</v>
       </c>
       <c r="D97" t="n">
-        <v>0.677695</v>
+        <v>0.64659</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.61573</v>
+        <v>0.592766</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6134810000000001</v>
+        <v>0.584238</v>
       </c>
       <c r="D98" t="n">
-        <v>0.681685</v>
+        <v>0.648675</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.627242</v>
+        <v>0.597658</v>
       </c>
       <c r="C99" t="n">
-        <v>0.609749</v>
+        <v>0.580256</v>
       </c>
       <c r="D99" t="n">
-        <v>0.668861</v>
+        <v>0.64393</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.621499</v>
+        <v>0.591653</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6003500000000001</v>
+        <v>0.577526</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6691319999999999</v>
+        <v>0.6383450000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.625517</v>
+        <v>0.594992</v>
       </c>
       <c r="C101" t="n">
-        <v>0.605541</v>
+        <v>0.5804859999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.675031</v>
+        <v>0.643388</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.61589</v>
+        <v>0.601047</v>
       </c>
       <c r="C102" t="n">
-        <v>0.613781</v>
+        <v>0.581809</v>
       </c>
       <c r="D102" t="n">
-        <v>0.670417</v>
+        <v>0.655646</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6256969999999999</v>
+        <v>0.594064</v>
       </c>
       <c r="C103" t="n">
-        <v>0.606577</v>
+        <v>0.580639</v>
       </c>
       <c r="D103" t="n">
-        <v>0.677809</v>
+        <v>0.6509509999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.623614</v>
+        <v>0.596098</v>
       </c>
       <c r="C104" t="n">
-        <v>0.59534</v>
+        <v>0.581367</v>
       </c>
       <c r="D104" t="n">
-        <v>0.686156</v>
+        <v>0.64213</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.621797</v>
+        <v>0.6031029999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6158169999999999</v>
+        <v>0.577423</v>
       </c>
       <c r="D105" t="n">
-        <v>0.676274</v>
+        <v>0.649653</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.629439</v>
+        <v>0.609638</v>
       </c>
       <c r="C106" t="n">
-        <v>0.607842</v>
+        <v>0.58456</v>
       </c>
       <c r="D106" t="n">
-        <v>0.676036</v>
+        <v>0.645567</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6411520000000001</v>
+        <v>0.618707</v>
       </c>
       <c r="C107" t="n">
-        <v>0.612572</v>
+        <v>0.588178</v>
       </c>
       <c r="D107" t="n">
-        <v>0.685729</v>
+        <v>0.655591</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.646304</v>
+        <v>0.618687</v>
       </c>
       <c r="C108" t="n">
-        <v>0.619683</v>
+        <v>0.5861189999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>1.27409</v>
+        <v>1.18117</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.642838</v>
+        <v>0.620827</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6164770000000001</v>
+        <v>0.599988</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27442</v>
+        <v>1.17929</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.1511</v>
+        <v>1.05588</v>
       </c>
       <c r="C110" t="n">
-        <v>1.1277</v>
+        <v>1.03517</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27206</v>
+        <v>1.17767</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.14915</v>
+        <v>1.05477</v>
       </c>
       <c r="C111" t="n">
-        <v>1.12749</v>
+        <v>1.03594</v>
       </c>
       <c r="D111" t="n">
-        <v>1.27027</v>
+        <v>1.18217</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15073</v>
+        <v>1.05372</v>
       </c>
       <c r="C112" t="n">
-        <v>1.12416</v>
+        <v>1.03608</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27057</v>
+        <v>1.17941</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.14805</v>
+        <v>1.05583</v>
       </c>
       <c r="C113" t="n">
-        <v>1.12567</v>
+        <v>1.0371</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26876</v>
+        <v>1.1814</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14947</v>
+        <v>1.05878</v>
       </c>
       <c r="C114" t="n">
-        <v>1.12681</v>
+        <v>1.03407</v>
       </c>
       <c r="D114" t="n">
-        <v>1.27155</v>
+        <v>1.1777</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15082</v>
+        <v>1.05609</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12624</v>
+        <v>1.03455</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26887</v>
+        <v>1.17768</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.15128</v>
+        <v>1.05421</v>
       </c>
       <c r="C116" t="n">
-        <v>1.12754</v>
+        <v>1.03454</v>
       </c>
       <c r="D116" t="n">
-        <v>1.26851</v>
+        <v>1.17941</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15033</v>
+        <v>1.05624</v>
       </c>
       <c r="C117" t="n">
-        <v>1.12703</v>
+        <v>1.03486</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26863</v>
+        <v>1.17783</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.15118</v>
+        <v>1.05854</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12861</v>
+        <v>1.03836</v>
       </c>
       <c r="D118" t="n">
-        <v>1.27105</v>
+        <v>1.17481</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.15058</v>
+        <v>1.05926</v>
       </c>
       <c r="C119" t="n">
-        <v>1.12794</v>
+        <v>1.03731</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26761</v>
+        <v>1.17774</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15375</v>
+        <v>1.06041</v>
       </c>
       <c r="C120" t="n">
-        <v>1.12973</v>
+        <v>1.03938</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2731</v>
+        <v>1.18017</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.15578</v>
+        <v>1.06325</v>
       </c>
       <c r="C121" t="n">
-        <v>1.13155</v>
+        <v>1.04171</v>
       </c>
       <c r="D121" t="n">
-        <v>1.27655</v>
+        <v>1.18018</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15916</v>
+        <v>1.06906</v>
       </c>
       <c r="C122" t="n">
-        <v>1.1343</v>
+        <v>1.04468</v>
       </c>
       <c r="D122" t="n">
-        <v>1.27418</v>
+        <v>1.18205</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.16565</v>
+        <v>1.07116</v>
       </c>
       <c r="C123" t="n">
-        <v>1.13999</v>
+        <v>1.05017</v>
       </c>
       <c r="D123" t="n">
-        <v>1.78715</v>
+        <v>1.63712</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.42097</v>
+        <v>1.33648</v>
       </c>
       <c r="C124" t="n">
-        <v>1.41147</v>
+        <v>1.33747</v>
       </c>
       <c r="D124" t="n">
-        <v>1.7907</v>
+        <v>1.66122</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.42076</v>
+        <v>1.33175</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41222</v>
+        <v>1.33214</v>
       </c>
       <c r="D125" t="n">
-        <v>1.78469</v>
+        <v>1.6586</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.4213</v>
+        <v>1.33129</v>
       </c>
       <c r="C126" t="n">
-        <v>1.41186</v>
+        <v>1.32013</v>
       </c>
       <c r="D126" t="n">
-        <v>1.79328</v>
+        <v>1.64468</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.42209</v>
+        <v>1.33863</v>
       </c>
       <c r="C127" t="n">
-        <v>1.41263</v>
+        <v>1.33037</v>
       </c>
       <c r="D127" t="n">
-        <v>1.79204</v>
+        <v>1.66888</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.4241</v>
+        <v>1.33352</v>
       </c>
       <c r="C128" t="n">
-        <v>1.41624</v>
+        <v>1.32479</v>
       </c>
       <c r="D128" t="n">
-        <v>1.78798</v>
+        <v>1.6613</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.42248</v>
+        <v>1.33813</v>
       </c>
       <c r="C129" t="n">
-        <v>1.41186</v>
+        <v>1.32798</v>
       </c>
       <c r="D129" t="n">
-        <v>1.78182</v>
+        <v>1.66297</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.42191</v>
+        <v>1.33832</v>
       </c>
       <c r="C130" t="n">
-        <v>1.41208</v>
+        <v>1.3256</v>
       </c>
       <c r="D130" t="n">
-        <v>1.7934</v>
+        <v>1.65122</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.42222</v>
+        <v>1.32832</v>
       </c>
       <c r="C131" t="n">
-        <v>1.41869</v>
+        <v>1.32786</v>
       </c>
       <c r="D131" t="n">
-        <v>1.79235</v>
+        <v>1.64719</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42613</v>
+        <v>1.3354</v>
       </c>
       <c r="C132" t="n">
-        <v>1.41672</v>
+        <v>1.33044</v>
       </c>
       <c r="D132" t="n">
-        <v>1.79042</v>
+        <v>1.64016</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.42607</v>
+        <v>1.34042</v>
       </c>
       <c r="C133" t="n">
-        <v>1.41904</v>
+        <v>1.33267</v>
       </c>
       <c r="D133" t="n">
-        <v>1.79046</v>
+        <v>1.65202</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.42904</v>
+        <v>1.35103</v>
       </c>
       <c r="C134" t="n">
-        <v>1.42435</v>
+        <v>1.33069</v>
       </c>
       <c r="D134" t="n">
-        <v>1.79378</v>
+        <v>1.68146</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.43595</v>
+        <v>1.33702</v>
       </c>
       <c r="C135" t="n">
-        <v>1.42723</v>
+        <v>1.33989</v>
       </c>
       <c r="D135" t="n">
-        <v>1.79788</v>
+        <v>1.67075</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.43973</v>
+        <v>1.33891</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43373</v>
+        <v>1.34023</v>
       </c>
       <c r="D136" t="n">
-        <v>1.808</v>
+        <v>1.66161</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.45765</v>
+        <v>1.36526</v>
       </c>
       <c r="C137" t="n">
-        <v>1.45416</v>
+        <v>1.35568</v>
       </c>
       <c r="D137" t="n">
-        <v>2.29966</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.57759</v>
+        <v>1.44052</v>
       </c>
       <c r="C138" t="n">
-        <v>1.57272</v>
+        <v>1.43888</v>
       </c>
       <c r="D138" t="n">
-        <v>2.29639</v>
+        <v>2.07593</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.57666</v>
+        <v>1.43962</v>
       </c>
       <c r="C139" t="n">
-        <v>1.57276</v>
+        <v>1.44461</v>
       </c>
       <c r="D139" t="n">
-        <v>2.29778</v>
+        <v>2.06923</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.57791</v>
+        <v>1.43945</v>
       </c>
       <c r="C140" t="n">
-        <v>1.57266</v>
+        <v>1.43548</v>
       </c>
       <c r="D140" t="n">
-        <v>2.29475</v>
+        <v>2.06831</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.57744</v>
+        <v>1.43985</v>
       </c>
       <c r="C141" t="n">
-        <v>1.57331</v>
+        <v>1.43395</v>
       </c>
       <c r="D141" t="n">
-        <v>2.29596</v>
+        <v>2.07085</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.57829</v>
+        <v>1.43875</v>
       </c>
       <c r="C142" t="n">
-        <v>1.57446</v>
+        <v>1.4343</v>
       </c>
       <c r="D142" t="n">
-        <v>2.29808</v>
+        <v>2.07622</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.57907</v>
+        <v>1.44109</v>
       </c>
       <c r="C143" t="n">
-        <v>1.57542</v>
+        <v>1.43884</v>
       </c>
       <c r="D143" t="n">
-        <v>2.29975</v>
+        <v>2.07574</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285279</v>
+        <v>0.285305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276629</v>
+        <v>0.276679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314205</v>
+        <v>0.313125</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.285994</v>
+        <v>0.28628</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277058</v>
+        <v>0.277075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314802</v>
+        <v>0.313734</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287528</v>
+        <v>0.287798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278423</v>
+        <v>0.278256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316582</v>
+        <v>0.315315</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289552</v>
+        <v>0.289855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279859</v>
+        <v>0.279708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.318796</v>
+        <v>0.317769</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291354</v>
+        <v>0.291338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280825</v>
+        <v>0.280863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.320965</v>
+        <v>0.319937</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294714</v>
+        <v>0.294724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282893</v>
+        <v>0.282956</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32528</v>
+        <v>0.323887</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299382</v>
+        <v>0.299418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286448</v>
+        <v>0.286467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.330919</v>
+        <v>0.329593</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306045</v>
+        <v>0.30614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.291824</v>
+        <v>0.292044</v>
       </c>
       <c r="D9" t="n">
-        <v>0.312838</v>
+        <v>0.312664</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.286688</v>
+        <v>0.286379</v>
       </c>
       <c r="C10" t="n">
-        <v>0.279128</v>
+        <v>0.276715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314621</v>
+        <v>0.31266</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.287705</v>
+        <v>0.285892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.279067</v>
+        <v>0.278783</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314691</v>
+        <v>0.313335</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286792</v>
+        <v>0.286999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.277306</v>
+        <v>0.278928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313552</v>
+        <v>0.314419</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287814</v>
+        <v>0.287961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.279543</v>
+        <v>0.283183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.315312</v>
+        <v>0.332142</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.287174</v>
+        <v>0.309438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279345</v>
+        <v>0.297868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314758</v>
+        <v>0.330594</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.289486</v>
+        <v>0.310378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282178</v>
+        <v>0.298617</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317141</v>
+        <v>0.331313</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288951</v>
+        <v>0.288837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280703</v>
+        <v>0.282272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316538</v>
+        <v>0.315334</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289864</v>
+        <v>0.290683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.280532</v>
+        <v>0.281942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31638</v>
+        <v>0.316232</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291697</v>
+        <v>0.291244</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281635</v>
+        <v>0.281567</v>
       </c>
       <c r="D18" t="n">
-        <v>0.317889</v>
+        <v>0.318062</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293624</v>
+        <v>0.293945</v>
       </c>
       <c r="C19" t="n">
-        <v>0.283234</v>
+        <v>0.284652</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320266</v>
+        <v>0.319786</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.296486</v>
+        <v>0.296636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.284654</v>
+        <v>0.285566</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322894</v>
+        <v>0.322046</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.301093</v>
+        <v>0.299219</v>
       </c>
       <c r="C21" t="n">
-        <v>0.289741</v>
+        <v>0.286847</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328598</v>
+        <v>0.326517</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303588</v>
+        <v>0.304432</v>
       </c>
       <c r="C22" t="n">
-        <v>0.28933</v>
+        <v>0.289399</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33196</v>
+        <v>0.330593</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309811</v>
+        <v>0.309942</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295019</v>
+        <v>0.296017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.324338</v>
+        <v>0.324895</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298717</v>
+        <v>0.297821</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293486</v>
+        <v>0.294455</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323368</v>
+        <v>0.32379</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297831</v>
+        <v>0.29812</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295227</v>
+        <v>0.295923</v>
       </c>
       <c r="D25" t="n">
-        <v>0.339356</v>
+        <v>0.324557</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.29878</v>
+        <v>0.298526</v>
       </c>
       <c r="C26" t="n">
-        <v>0.293707</v>
+        <v>0.295122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.324295</v>
+        <v>0.325541</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299472</v>
+        <v>0.299561</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294977</v>
+        <v>0.296199</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324231</v>
+        <v>0.32507</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.300791</v>
+        <v>0.29995</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295674</v>
+        <v>0.296919</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325162</v>
+        <v>0.327414</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.300297</v>
+        <v>0.319709</v>
       </c>
       <c r="C29" t="n">
-        <v>0.295066</v>
+        <v>0.314623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.325105</v>
+        <v>0.342765</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301463</v>
+        <v>0.301078</v>
       </c>
       <c r="C30" t="n">
-        <v>0.313901</v>
+        <v>0.298611</v>
       </c>
       <c r="D30" t="n">
-        <v>0.344057</v>
+        <v>0.326479</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.322001</v>
+        <v>0.301018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.314851</v>
+        <v>0.298286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.342434</v>
+        <v>0.329375</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.324179</v>
+        <v>0.316011</v>
       </c>
       <c r="C32" t="n">
-        <v>0.316137</v>
+        <v>0.299867</v>
       </c>
       <c r="D32" t="n">
-        <v>0.34469</v>
+        <v>0.332469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.326058</v>
+        <v>0.304404</v>
       </c>
       <c r="C33" t="n">
-        <v>0.318345</v>
+        <v>0.301196</v>
       </c>
       <c r="D33" t="n">
-        <v>0.347814</v>
+        <v>0.3304</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.328188</v>
+        <v>0.307028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.319752</v>
+        <v>0.302135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.350096</v>
+        <v>0.336226</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.312108</v>
+        <v>0.310385</v>
       </c>
       <c r="C35" t="n">
-        <v>0.304133</v>
+        <v>0.305359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.338226</v>
+        <v>0.339202</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315985</v>
+        <v>0.314588</v>
       </c>
       <c r="C36" t="n">
-        <v>0.307147</v>
+        <v>0.309649</v>
       </c>
       <c r="D36" t="n">
-        <v>0.343068</v>
+        <v>0.344764</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322557</v>
+        <v>0.320675</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312759</v>
+        <v>0.311585</v>
       </c>
       <c r="D37" t="n">
-        <v>0.365474</v>
+        <v>0.350238</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319577</v>
+        <v>0.319858</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322008</v>
+        <v>0.320683</v>
       </c>
       <c r="D38" t="n">
-        <v>0.350506</v>
+        <v>0.350264</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.322541</v>
+        <v>0.320621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320815</v>
+        <v>0.320458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.350642</v>
+        <v>0.349785</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320767</v>
+        <v>0.321283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.320552</v>
+        <v>0.319678</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350611</v>
+        <v>0.349032</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.321892</v>
+        <v>0.320317</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321003</v>
+        <v>0.32029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35055</v>
+        <v>0.350372</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322867</v>
+        <v>0.323284</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321268</v>
+        <v>0.321192</v>
       </c>
       <c r="D42" t="n">
-        <v>0.351769</v>
+        <v>0.352293</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.323981</v>
+        <v>0.324644</v>
       </c>
       <c r="C43" t="n">
-        <v>0.321299</v>
+        <v>0.320666</v>
       </c>
       <c r="D43" t="n">
-        <v>0.35258</v>
+        <v>0.352404</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.322288</v>
+        <v>0.324363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321435</v>
+        <v>0.322032</v>
       </c>
       <c r="D44" t="n">
-        <v>0.353128</v>
+        <v>0.365622</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.324582</v>
+        <v>0.325208</v>
       </c>
       <c r="C45" t="n">
-        <v>0.321841</v>
+        <v>0.323266</v>
       </c>
       <c r="D45" t="n">
-        <v>0.361368</v>
+        <v>0.352482</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.323759</v>
+        <v>0.325326</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322763</v>
+        <v>0.324089</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354763</v>
+        <v>0.354434</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.327006</v>
+        <v>0.328201</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325168</v>
+        <v>0.324116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.356117</v>
+        <v>0.356387</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.329582</v>
+        <v>0.334594</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325935</v>
+        <v>0.325604</v>
       </c>
       <c r="D48" t="n">
-        <v>0.358292</v>
+        <v>0.358105</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.332546</v>
+        <v>0.335523</v>
       </c>
       <c r="C49" t="n">
-        <v>0.327188</v>
+        <v>0.327192</v>
       </c>
       <c r="D49" t="n">
-        <v>0.362151</v>
+        <v>0.360797</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335986</v>
+        <v>0.335553</v>
       </c>
       <c r="C50" t="n">
-        <v>0.331925</v>
+        <v>0.33086</v>
       </c>
       <c r="D50" t="n">
-        <v>0.369346</v>
+        <v>0.366165</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345032</v>
+        <v>0.343392</v>
       </c>
       <c r="C51" t="n">
-        <v>0.336367</v>
+        <v>0.336363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.385239</v>
+        <v>0.376903</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.354135</v>
+        <v>0.352552</v>
       </c>
       <c r="C52" t="n">
-        <v>0.344127</v>
+        <v>0.345499</v>
       </c>
       <c r="D52" t="n">
-        <v>0.384024</v>
+        <v>0.386691</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346993</v>
+        <v>0.347148</v>
       </c>
       <c r="C53" t="n">
-        <v>0.345852</v>
+        <v>0.345634</v>
       </c>
       <c r="D53" t="n">
-        <v>0.387024</v>
+        <v>0.387026</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.346595</v>
+        <v>0.347298</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346076</v>
+        <v>0.346239</v>
       </c>
       <c r="D54" t="n">
-        <v>0.387458</v>
+        <v>0.386363</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347147</v>
+        <v>0.34587</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346278</v>
+        <v>0.347446</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387039</v>
+        <v>0.387142</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.346668</v>
+        <v>0.349544</v>
       </c>
       <c r="C56" t="n">
-        <v>0.347241</v>
+        <v>0.349057</v>
       </c>
       <c r="D56" t="n">
-        <v>0.388228</v>
+        <v>0.38803</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.347146</v>
+        <v>0.34922</v>
       </c>
       <c r="C57" t="n">
-        <v>0.34735</v>
+        <v>0.348221</v>
       </c>
       <c r="D57" t="n">
-        <v>0.389855</v>
+        <v>0.388086</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348138</v>
+        <v>0.349914</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347739</v>
+        <v>0.348128</v>
       </c>
       <c r="D58" t="n">
-        <v>0.38921</v>
+        <v>0.388435</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.349871</v>
+        <v>0.350639</v>
       </c>
       <c r="C59" t="n">
-        <v>0.348023</v>
+        <v>0.34817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.389242</v>
+        <v>0.387897</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.350225</v>
+        <v>0.352401</v>
       </c>
       <c r="C60" t="n">
-        <v>0.347975</v>
+        <v>0.349762</v>
       </c>
       <c r="D60" t="n">
-        <v>0.390402</v>
+        <v>0.390095</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.352533</v>
+        <v>0.352296</v>
       </c>
       <c r="C61" t="n">
-        <v>0.350018</v>
+        <v>0.351434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.391293</v>
+        <v>0.391341</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.355206</v>
+        <v>0.355875</v>
       </c>
       <c r="C62" t="n">
-        <v>0.351488</v>
+        <v>0.351116</v>
       </c>
       <c r="D62" t="n">
-        <v>0.394728</v>
+        <v>0.393497</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.355192</v>
+        <v>0.357652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.352556</v>
+        <v>0.352534</v>
       </c>
       <c r="D63" t="n">
-        <v>0.394682</v>
+        <v>0.395253</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360829</v>
+        <v>0.360643</v>
       </c>
       <c r="C64" t="n">
-        <v>0.35586</v>
+        <v>0.356542</v>
       </c>
       <c r="D64" t="n">
-        <v>0.40048</v>
+        <v>0.401345</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.366852</v>
+        <v>0.36654</v>
       </c>
       <c r="C65" t="n">
-        <v>0.360903</v>
+        <v>0.36153</v>
       </c>
       <c r="D65" t="n">
-        <v>0.409074</v>
+        <v>0.407807</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.374995</v>
+        <v>0.376095</v>
       </c>
       <c r="C66" t="n">
-        <v>0.366608</v>
+        <v>0.36708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.412672</v>
+        <v>0.412824</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.363893</v>
+        <v>0.364963</v>
       </c>
       <c r="C67" t="n">
-        <v>0.362798</v>
+        <v>0.363771</v>
       </c>
       <c r="D67" t="n">
-        <v>0.414389</v>
+        <v>0.414472</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365465</v>
+        <v>0.365025</v>
       </c>
       <c r="C68" t="n">
-        <v>0.363183</v>
+        <v>0.361617</v>
       </c>
       <c r="D68" t="n">
-        <v>0.414409</v>
+        <v>0.414016</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365948</v>
+        <v>0.36587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.363579</v>
+        <v>0.363248</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414511</v>
+        <v>0.414469</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.36554</v>
+        <v>0.365051</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36417</v>
+        <v>0.364072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.41472</v>
+        <v>0.415281</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.365281</v>
+        <v>0.366095</v>
       </c>
       <c r="C71" t="n">
-        <v>0.364094</v>
+        <v>0.364694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.415468</v>
+        <v>0.416051</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366843</v>
+        <v>0.366454</v>
       </c>
       <c r="C72" t="n">
-        <v>0.365393</v>
+        <v>0.36461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.416809</v>
+        <v>0.416839</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.366769</v>
+        <v>0.36831</v>
       </c>
       <c r="C73" t="n">
-        <v>0.365617</v>
+        <v>0.366109</v>
       </c>
       <c r="D73" t="n">
-        <v>0.417289</v>
+        <v>0.417045</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.36874</v>
+        <v>0.368689</v>
       </c>
       <c r="C74" t="n">
-        <v>0.365847</v>
+        <v>0.367469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.418358</v>
+        <v>0.418047</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370363</v>
+        <v>0.370997</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367174</v>
+        <v>0.368402</v>
       </c>
       <c r="D75" t="n">
-        <v>0.420154</v>
+        <v>0.419183</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.370747</v>
+        <v>0.37254</v>
       </c>
       <c r="C76" t="n">
-        <v>0.36875</v>
+        <v>0.369307</v>
       </c>
       <c r="D76" t="n">
-        <v>0.421592</v>
+        <v>0.420698</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.375526</v>
+        <v>0.375249</v>
       </c>
       <c r="C77" t="n">
-        <v>0.370916</v>
+        <v>0.37161</v>
       </c>
       <c r="D77" t="n">
-        <v>0.424645</v>
+        <v>0.424798</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.380025</v>
+        <v>0.379261</v>
       </c>
       <c r="C78" t="n">
-        <v>0.373899</v>
+        <v>0.375148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429472</v>
+        <v>0.429306</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.384601</v>
+        <v>0.386268</v>
       </c>
       <c r="C79" t="n">
-        <v>0.377824</v>
+        <v>0.378521</v>
       </c>
       <c r="D79" t="n">
-        <v>0.434878</v>
+        <v>0.434659</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392959</v>
+        <v>0.393615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.383953</v>
+        <v>0.384523</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444477</v>
+        <v>0.444747</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.386664</v>
+        <v>0.390441</v>
       </c>
       <c r="C81" t="n">
-        <v>0.386485</v>
+        <v>0.385742</v>
       </c>
       <c r="D81" t="n">
-        <v>0.443729</v>
+        <v>0.447115</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.391545</v>
+        <v>0.387084</v>
       </c>
       <c r="C82" t="n">
-        <v>0.387779</v>
+        <v>0.387926</v>
       </c>
       <c r="D82" t="n">
-        <v>0.448151</v>
+        <v>0.445107</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.389456</v>
+        <v>0.390476</v>
       </c>
       <c r="C83" t="n">
-        <v>0.388918</v>
+        <v>0.385463</v>
       </c>
       <c r="D83" t="n">
-        <v>0.445792</v>
+        <v>0.446748</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.390898</v>
+        <v>0.388652</v>
       </c>
       <c r="C84" t="n">
-        <v>0.386187</v>
+        <v>0.389334</v>
       </c>
       <c r="D84" t="n">
-        <v>0.44574</v>
+        <v>0.444455</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.390471</v>
+        <v>0.389387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.386534</v>
+        <v>0.386887</v>
       </c>
       <c r="D85" t="n">
-        <v>0.446199</v>
+        <v>0.445394</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.388791</v>
+        <v>0.388675</v>
       </c>
       <c r="C86" t="n">
-        <v>0.386923</v>
+        <v>0.390447</v>
       </c>
       <c r="D86" t="n">
-        <v>0.447318</v>
+        <v>0.447019</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.393782</v>
+        <v>0.390107</v>
       </c>
       <c r="C87" t="n">
-        <v>0.386916</v>
+        <v>0.388501</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448698</v>
+        <v>0.446302</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.393253</v>
+        <v>0.394701</v>
       </c>
       <c r="C88" t="n">
-        <v>0.388382</v>
+        <v>0.389696</v>
       </c>
       <c r="D88" t="n">
-        <v>0.449029</v>
+        <v>0.447946</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.393498</v>
+        <v>0.392831</v>
       </c>
       <c r="C89" t="n">
-        <v>0.388497</v>
+        <v>0.393355</v>
       </c>
       <c r="D89" t="n">
-        <v>0.449059</v>
+        <v>0.448756</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395104</v>
+        <v>0.394501</v>
       </c>
       <c r="C90" t="n">
-        <v>0.389564</v>
+        <v>0.392792</v>
       </c>
       <c r="D90" t="n">
-        <v>0.452015</v>
+        <v>0.450407</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396726</v>
+        <v>0.397775</v>
       </c>
       <c r="C91" t="n">
-        <v>0.391987</v>
+        <v>0.39358</v>
       </c>
       <c r="D91" t="n">
-        <v>0.453891</v>
+        <v>0.455898</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.401819</v>
+        <v>0.401392</v>
       </c>
       <c r="C92" t="n">
-        <v>0.394674</v>
+        <v>0.3942</v>
       </c>
       <c r="D92" t="n">
-        <v>0.458578</v>
+        <v>0.459617</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407936</v>
+        <v>0.40833</v>
       </c>
       <c r="C93" t="n">
-        <v>0.398158</v>
+        <v>0.399992</v>
       </c>
       <c r="D93" t="n">
-        <v>0.463108</v>
+        <v>0.464655</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4138</v>
+        <v>0.416363</v>
       </c>
       <c r="C94" t="n">
-        <v>0.404207</v>
+        <v>0.406107</v>
       </c>
       <c r="D94" t="n">
-        <v>0.647775</v>
+        <v>0.648744</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.600234</v>
+        <v>0.596398</v>
       </c>
       <c r="C95" t="n">
-        <v>0.58488</v>
+        <v>0.582364</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6482329999999999</v>
+        <v>0.648656</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.600262</v>
+        <v>0.593183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.582516</v>
+        <v>0.584734</v>
       </c>
       <c r="D96" t="n">
-        <v>0.651492</v>
+        <v>0.643223</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.60063</v>
+        <v>0.603329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.583955</v>
+        <v>0.591149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.64659</v>
+        <v>0.652602</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.592766</v>
+        <v>0.607652</v>
       </c>
       <c r="C98" t="n">
-        <v>0.584238</v>
+        <v>0.588775</v>
       </c>
       <c r="D98" t="n">
-        <v>0.648675</v>
+        <v>0.653984</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.597658</v>
+        <v>0.604816</v>
       </c>
       <c r="C99" t="n">
-        <v>0.580256</v>
+        <v>0.584353</v>
       </c>
       <c r="D99" t="n">
-        <v>0.64393</v>
+        <v>0.655834</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.591653</v>
+        <v>0.596905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.577526</v>
+        <v>0.591076</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6383450000000001</v>
+        <v>0.638786</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.594992</v>
+        <v>0.6026899999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5804859999999999</v>
+        <v>0.581741</v>
       </c>
       <c r="D101" t="n">
-        <v>0.643388</v>
+        <v>0.650784</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.601047</v>
+        <v>0.595602</v>
       </c>
       <c r="C102" t="n">
-        <v>0.581809</v>
+        <v>0.585252</v>
       </c>
       <c r="D102" t="n">
-        <v>0.655646</v>
+        <v>0.655219</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.594064</v>
+        <v>0.600063</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580639</v>
+        <v>0.589334</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6509509999999999</v>
+        <v>0.642503</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.596098</v>
+        <v>0.6074040000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.581367</v>
+        <v>0.5831730000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.64213</v>
+        <v>0.655583</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6031029999999999</v>
+        <v>0.599729</v>
       </c>
       <c r="C105" t="n">
-        <v>0.577423</v>
+        <v>0.593991</v>
       </c>
       <c r="D105" t="n">
-        <v>0.649653</v>
+        <v>0.651888</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.609638</v>
+        <v>0.604456</v>
       </c>
       <c r="C106" t="n">
-        <v>0.58456</v>
+        <v>0.584506</v>
       </c>
       <c r="D106" t="n">
-        <v>0.645567</v>
+        <v>0.657058</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.618707</v>
+        <v>0.610806</v>
       </c>
       <c r="C107" t="n">
-        <v>0.588178</v>
+        <v>0.589242</v>
       </c>
       <c r="D107" t="n">
-        <v>0.655591</v>
+        <v>0.662279</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.618687</v>
+        <v>0.608283</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5861189999999999</v>
+        <v>0.602742</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18117</v>
+        <v>1.17824</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.620827</v>
+        <v>0.628247</v>
       </c>
       <c r="C109" t="n">
-        <v>0.599988</v>
+        <v>0.59797</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17929</v>
+        <v>1.18246</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05588</v>
+        <v>1.05596</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03517</v>
+        <v>1.03694</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17767</v>
+        <v>1.17843</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05477</v>
+        <v>1.05277</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03594</v>
+        <v>1.03811</v>
       </c>
       <c r="D111" t="n">
-        <v>1.18217</v>
+        <v>1.17576</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05372</v>
+        <v>1.05574</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03608</v>
+        <v>1.03453</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17941</v>
+        <v>1.17746</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05583</v>
+        <v>1.0545</v>
       </c>
       <c r="C113" t="n">
-        <v>1.0371</v>
+        <v>1.03273</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1814</v>
+        <v>1.17589</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.05878</v>
+        <v>1.0547</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03407</v>
+        <v>1.03272</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1777</v>
+        <v>1.17483</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05609</v>
+        <v>1.05486</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03455</v>
+        <v>1.03696</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17768</v>
+        <v>1.17751</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05421</v>
+        <v>1.05639</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03454</v>
+        <v>1.03717</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17941</v>
+        <v>1.17469</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05624</v>
+        <v>1.05547</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03486</v>
+        <v>1.03831</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17783</v>
+        <v>1.17456</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05854</v>
+        <v>1.05707</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03836</v>
+        <v>1.03745</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17481</v>
+        <v>1.17813</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05926</v>
+        <v>1.05687</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03731</v>
+        <v>1.03873</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17774</v>
+        <v>1.17672</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06041</v>
+        <v>1.06187</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03938</v>
+        <v>1.04073</v>
       </c>
       <c r="D120" t="n">
-        <v>1.18017</v>
+        <v>1.17965</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06325</v>
+        <v>1.06244</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04171</v>
+        <v>1.04115</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18018</v>
+        <v>1.18089</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06906</v>
+        <v>1.06556</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04468</v>
+        <v>1.04748</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18205</v>
+        <v>1.18135</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07116</v>
+        <v>1.07653</v>
       </c>
       <c r="C123" t="n">
-        <v>1.05017</v>
+        <v>1.04842</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63712</v>
+        <v>1.6307</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.33648</v>
+        <v>1.32422</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33747</v>
+        <v>1.33586</v>
       </c>
       <c r="D124" t="n">
-        <v>1.66122</v>
+        <v>1.62378</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33175</v>
+        <v>1.31758</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33214</v>
+        <v>1.33012</v>
       </c>
       <c r="D125" t="n">
-        <v>1.6586</v>
+        <v>1.62668</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33129</v>
+        <v>1.33088</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32013</v>
+        <v>1.31906</v>
       </c>
       <c r="D126" t="n">
-        <v>1.64468</v>
+        <v>1.62481</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33863</v>
+        <v>1.33831</v>
       </c>
       <c r="C127" t="n">
-        <v>1.33037</v>
+        <v>1.32925</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66888</v>
+        <v>1.62076</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33352</v>
+        <v>1.31474</v>
       </c>
       <c r="C128" t="n">
-        <v>1.32479</v>
+        <v>1.32109</v>
       </c>
       <c r="D128" t="n">
-        <v>1.6613</v>
+        <v>1.61839</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33813</v>
+        <v>1.33028</v>
       </c>
       <c r="C129" t="n">
-        <v>1.32798</v>
+        <v>1.3181</v>
       </c>
       <c r="D129" t="n">
-        <v>1.66297</v>
+        <v>1.62311</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33832</v>
+        <v>1.31414</v>
       </c>
       <c r="C130" t="n">
-        <v>1.3256</v>
+        <v>1.32671</v>
       </c>
       <c r="D130" t="n">
-        <v>1.65122</v>
+        <v>1.62641</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32832</v>
+        <v>1.3304</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32786</v>
+        <v>1.32631</v>
       </c>
       <c r="D131" t="n">
-        <v>1.64719</v>
+        <v>1.62819</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3354</v>
+        <v>1.32304</v>
       </c>
       <c r="C132" t="n">
-        <v>1.33044</v>
+        <v>1.32423</v>
       </c>
       <c r="D132" t="n">
-        <v>1.64016</v>
+        <v>1.62884</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.34042</v>
+        <v>1.32815</v>
       </c>
       <c r="C133" t="n">
-        <v>1.33267</v>
+        <v>1.3258</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65202</v>
+        <v>1.63281</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.35103</v>
+        <v>1.34086</v>
       </c>
       <c r="C134" t="n">
-        <v>1.33069</v>
+        <v>1.33957</v>
       </c>
       <c r="D134" t="n">
-        <v>1.68146</v>
+        <v>1.65521</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.33702</v>
+        <v>1.34534</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33989</v>
+        <v>1.33409</v>
       </c>
       <c r="D135" t="n">
-        <v>1.67075</v>
+        <v>1.65106</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33891</v>
+        <v>1.34361</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34023</v>
+        <v>1.342</v>
       </c>
       <c r="D136" t="n">
-        <v>1.66161</v>
+        <v>1.65581</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36526</v>
+        <v>1.35686</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35568</v>
+        <v>1.35719</v>
       </c>
       <c r="D137" t="n">
-        <v>2.075</v>
+        <v>2.07269</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.44052</v>
+        <v>1.43994</v>
       </c>
       <c r="C138" t="n">
-        <v>1.43888</v>
+        <v>1.44157</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07593</v>
+        <v>2.07431</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.43962</v>
+        <v>1.443</v>
       </c>
       <c r="C139" t="n">
-        <v>1.44461</v>
+        <v>1.44424</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06923</v>
+        <v>2.0719</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.43945</v>
+        <v>1.44093</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43548</v>
+        <v>1.4426</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06831</v>
+        <v>2.07148</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.43985</v>
+        <v>1.43906</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43395</v>
+        <v>1.43647</v>
       </c>
       <c r="D141" t="n">
-        <v>2.07085</v>
+        <v>2.07275</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.43875</v>
+        <v>1.4424</v>
       </c>
       <c r="C142" t="n">
-        <v>1.4343</v>
+        <v>1.4433</v>
       </c>
       <c r="D142" t="n">
-        <v>2.07622</v>
+        <v>2.07433</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44109</v>
+        <v>1.4434</v>
       </c>
       <c r="C143" t="n">
-        <v>1.43884</v>
+        <v>1.44113</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07574</v>
+        <v>2.07352</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285305</v>
+        <v>0.285187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276679</v>
+        <v>0.276534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.313125</v>
+        <v>0.314377</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28628</v>
+        <v>0.28662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277075</v>
+        <v>0.277078</v>
       </c>
       <c r="D3" t="n">
-        <v>0.313734</v>
+        <v>0.314836</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287798</v>
+        <v>0.287433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278256</v>
+        <v>0.278399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.315315</v>
+        <v>0.316582</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289855</v>
+        <v>0.289495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279708</v>
+        <v>0.279951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.317769</v>
+        <v>0.318704</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291338</v>
+        <v>0.291166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280863</v>
+        <v>0.280806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.319937</v>
+        <v>0.320912</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294724</v>
+        <v>0.294595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.282956</v>
+        <v>0.283029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.323887</v>
+        <v>0.325084</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299418</v>
+        <v>0.299163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286467</v>
+        <v>0.286498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.329593</v>
+        <v>0.330749</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30614</v>
+        <v>0.305893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292044</v>
+        <v>0.291876</v>
       </c>
       <c r="D9" t="n">
-        <v>0.312664</v>
+        <v>0.312862</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.286379</v>
+        <v>0.285447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276715</v>
+        <v>0.276622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31266</v>
+        <v>0.31301</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285892</v>
+        <v>0.285748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.278783</v>
+        <v>0.277697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.313335</v>
+        <v>0.31356</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286999</v>
+        <v>0.286393</v>
       </c>
       <c r="C12" t="n">
-        <v>0.278928</v>
+        <v>0.277393</v>
       </c>
       <c r="D12" t="n">
-        <v>0.314419</v>
+        <v>0.313473</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287961</v>
+        <v>0.286699</v>
       </c>
       <c r="C13" t="n">
-        <v>0.283183</v>
+        <v>0.27737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.332142</v>
+        <v>0.313507</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.309438</v>
+        <v>0.287057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.297868</v>
+        <v>0.278822</v>
       </c>
       <c r="D14" t="n">
-        <v>0.330594</v>
+        <v>0.314775</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310378</v>
+        <v>0.287989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.298617</v>
+        <v>0.280366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331313</v>
+        <v>0.314598</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288837</v>
+        <v>0.288702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282272</v>
+        <v>0.279993</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315334</v>
+        <v>0.315581</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.290683</v>
+        <v>0.290234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281942</v>
+        <v>0.280047</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316232</v>
+        <v>0.316482</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291244</v>
+        <v>0.291521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281567</v>
+        <v>0.298064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318062</v>
+        <v>0.31892</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293945</v>
+        <v>0.293609</v>
       </c>
       <c r="C19" t="n">
-        <v>0.284652</v>
+        <v>0.283266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.319786</v>
+        <v>0.320411</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.296636</v>
+        <v>0.295643</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285566</v>
+        <v>0.283927</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322046</v>
+        <v>0.322321</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299219</v>
+        <v>0.299016</v>
       </c>
       <c r="C21" t="n">
-        <v>0.286847</v>
+        <v>0.286219</v>
       </c>
       <c r="D21" t="n">
-        <v>0.326517</v>
+        <v>0.325933</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.304432</v>
+        <v>0.303903</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289399</v>
+        <v>0.289868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.330593</v>
+        <v>0.33255</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309942</v>
+        <v>0.309759</v>
       </c>
       <c r="C23" t="n">
-        <v>0.296017</v>
+        <v>0.294356</v>
       </c>
       <c r="D23" t="n">
-        <v>0.324895</v>
+        <v>0.320779</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.297821</v>
+        <v>0.296655</v>
       </c>
       <c r="C24" t="n">
-        <v>0.294455</v>
+        <v>0.293181</v>
       </c>
       <c r="D24" t="n">
-        <v>0.32379</v>
+        <v>0.323192</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.29812</v>
+        <v>0.296597</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295923</v>
+        <v>0.292216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324557</v>
+        <v>0.321943</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298526</v>
+        <v>0.2967</v>
       </c>
       <c r="C26" t="n">
-        <v>0.295122</v>
+        <v>0.292342</v>
       </c>
       <c r="D26" t="n">
-        <v>0.325541</v>
+        <v>0.32254</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.299561</v>
+        <v>0.297973</v>
       </c>
       <c r="C27" t="n">
-        <v>0.296199</v>
+        <v>0.310423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.32507</v>
+        <v>0.326718</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29995</v>
+        <v>0.298636</v>
       </c>
       <c r="C28" t="n">
-        <v>0.296919</v>
+        <v>0.297858</v>
       </c>
       <c r="D28" t="n">
-        <v>0.327414</v>
+        <v>0.324084</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.319709</v>
+        <v>0.298874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.314623</v>
+        <v>0.295075</v>
       </c>
       <c r="D29" t="n">
-        <v>0.342765</v>
+        <v>0.324246</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301078</v>
+        <v>0.301042</v>
       </c>
       <c r="C30" t="n">
-        <v>0.298611</v>
+        <v>0.29581</v>
       </c>
       <c r="D30" t="n">
-        <v>0.326479</v>
+        <v>0.32551</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.301018</v>
+        <v>0.30239</v>
       </c>
       <c r="C31" t="n">
-        <v>0.298286</v>
+        <v>0.296704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.329375</v>
+        <v>0.328588</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.316011</v>
+        <v>0.304391</v>
       </c>
       <c r="C32" t="n">
-        <v>0.299867</v>
+        <v>0.298133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332469</v>
+        <v>0.331884</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.304404</v>
+        <v>0.30624</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301196</v>
+        <v>0.300797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3304</v>
+        <v>0.331414</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307028</v>
+        <v>0.307718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.302135</v>
+        <v>0.302271</v>
       </c>
       <c r="D34" t="n">
-        <v>0.336226</v>
+        <v>0.333746</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310385</v>
+        <v>0.310552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.305359</v>
+        <v>0.303085</v>
       </c>
       <c r="D35" t="n">
-        <v>0.339202</v>
+        <v>0.337576</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314588</v>
+        <v>0.315879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.309649</v>
+        <v>0.306442</v>
       </c>
       <c r="D36" t="n">
-        <v>0.344764</v>
+        <v>0.342323</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.320675</v>
+        <v>0.322337</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311585</v>
+        <v>0.311248</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350238</v>
+        <v>0.352086</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.319858</v>
+        <v>0.322494</v>
       </c>
       <c r="C38" t="n">
-        <v>0.320683</v>
+        <v>0.318924</v>
       </c>
       <c r="D38" t="n">
-        <v>0.350264</v>
+        <v>0.348823</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320621</v>
+        <v>0.320763</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320458</v>
+        <v>0.319499</v>
       </c>
       <c r="D39" t="n">
-        <v>0.349785</v>
+        <v>0.349561</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321283</v>
+        <v>0.322215</v>
       </c>
       <c r="C40" t="n">
-        <v>0.319678</v>
+        <v>0.32079</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349032</v>
+        <v>0.350226</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.320317</v>
+        <v>0.323582</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32029</v>
+        <v>0.320977</v>
       </c>
       <c r="D41" t="n">
-        <v>0.350372</v>
+        <v>0.350377</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323284</v>
+        <v>0.321565</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321192</v>
+        <v>0.319363</v>
       </c>
       <c r="D42" t="n">
-        <v>0.352293</v>
+        <v>0.350124</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324644</v>
+        <v>0.321248</v>
       </c>
       <c r="C43" t="n">
-        <v>0.320666</v>
+        <v>0.320826</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352404</v>
+        <v>0.351836</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.324363</v>
+        <v>0.324882</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322032</v>
+        <v>0.320093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.365622</v>
+        <v>0.351113</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.325208</v>
+        <v>0.323446</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323266</v>
+        <v>0.322257</v>
       </c>
       <c r="D45" t="n">
-        <v>0.352482</v>
+        <v>0.352231</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.325326</v>
+        <v>0.324637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.324089</v>
+        <v>0.323934</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354434</v>
+        <v>0.354057</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.328201</v>
+        <v>0.327767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324116</v>
+        <v>0.324178</v>
       </c>
       <c r="D47" t="n">
-        <v>0.356387</v>
+        <v>0.355312</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.334594</v>
+        <v>0.329716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325604</v>
+        <v>0.326817</v>
       </c>
       <c r="D48" t="n">
-        <v>0.358105</v>
+        <v>0.359149</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335523</v>
+        <v>0.331568</v>
       </c>
       <c r="C49" t="n">
-        <v>0.327192</v>
+        <v>0.328176</v>
       </c>
       <c r="D49" t="n">
-        <v>0.360797</v>
+        <v>0.362747</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335553</v>
+        <v>0.336775</v>
       </c>
       <c r="C50" t="n">
-        <v>0.33086</v>
+        <v>0.333367</v>
       </c>
       <c r="D50" t="n">
-        <v>0.366165</v>
+        <v>0.369027</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.343392</v>
+        <v>0.341472</v>
       </c>
       <c r="C51" t="n">
-        <v>0.336363</v>
+        <v>0.335298</v>
       </c>
       <c r="D51" t="n">
-        <v>0.376903</v>
+        <v>0.380411</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.352552</v>
+        <v>0.351382</v>
       </c>
       <c r="C52" t="n">
-        <v>0.345499</v>
+        <v>0.341724</v>
       </c>
       <c r="D52" t="n">
-        <v>0.386691</v>
+        <v>0.386432</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347148</v>
+        <v>0.346422</v>
       </c>
       <c r="C53" t="n">
-        <v>0.345634</v>
+        <v>0.345222</v>
       </c>
       <c r="D53" t="n">
-        <v>0.387026</v>
+        <v>0.385727</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347298</v>
+        <v>0.347725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346239</v>
+        <v>0.34595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.386363</v>
+        <v>0.384596</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.34587</v>
+        <v>0.347609</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347446</v>
+        <v>0.347149</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387142</v>
+        <v>0.387974</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.349544</v>
+        <v>0.34788</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349057</v>
+        <v>0.347113</v>
       </c>
       <c r="D56" t="n">
-        <v>0.38803</v>
+        <v>0.387086</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.34922</v>
+        <v>0.348021</v>
       </c>
       <c r="C57" t="n">
-        <v>0.348221</v>
+        <v>0.346361</v>
       </c>
       <c r="D57" t="n">
-        <v>0.388086</v>
+        <v>0.386482</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.349914</v>
+        <v>0.347697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.348128</v>
+        <v>0.346583</v>
       </c>
       <c r="D58" t="n">
-        <v>0.388435</v>
+        <v>0.38805</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.350639</v>
+        <v>0.349244</v>
       </c>
       <c r="C59" t="n">
-        <v>0.34817</v>
+        <v>0.347878</v>
       </c>
       <c r="D59" t="n">
-        <v>0.387897</v>
+        <v>0.389235</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.352401</v>
+        <v>0.349739</v>
       </c>
       <c r="C60" t="n">
-        <v>0.349762</v>
+        <v>0.349331</v>
       </c>
       <c r="D60" t="n">
-        <v>0.390095</v>
+        <v>0.390413</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.352296</v>
+        <v>0.352274</v>
       </c>
       <c r="C61" t="n">
-        <v>0.351434</v>
+        <v>0.350083</v>
       </c>
       <c r="D61" t="n">
-        <v>0.391341</v>
+        <v>0.391462</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.355875</v>
+        <v>0.35442</v>
       </c>
       <c r="C62" t="n">
-        <v>0.351116</v>
+        <v>0.351624</v>
       </c>
       <c r="D62" t="n">
-        <v>0.393497</v>
+        <v>0.395336</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.357652</v>
+        <v>0.359244</v>
       </c>
       <c r="C63" t="n">
-        <v>0.352534</v>
+        <v>0.354139</v>
       </c>
       <c r="D63" t="n">
-        <v>0.395253</v>
+        <v>0.39745</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360643</v>
+        <v>0.361846</v>
       </c>
       <c r="C64" t="n">
-        <v>0.356542</v>
+        <v>0.356207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.401345</v>
+        <v>0.39983</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.36654</v>
+        <v>0.36764</v>
       </c>
       <c r="C65" t="n">
-        <v>0.36153</v>
+        <v>0.360235</v>
       </c>
       <c r="D65" t="n">
-        <v>0.407807</v>
+        <v>0.408036</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.376095</v>
+        <v>0.37648</v>
       </c>
       <c r="C66" t="n">
-        <v>0.36708</v>
+        <v>0.367316</v>
       </c>
       <c r="D66" t="n">
-        <v>0.412824</v>
+        <v>0.413803</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364963</v>
+        <v>0.364417</v>
       </c>
       <c r="C67" t="n">
-        <v>0.363771</v>
+        <v>0.362783</v>
       </c>
       <c r="D67" t="n">
-        <v>0.414472</v>
+        <v>0.413955</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365025</v>
+        <v>0.364601</v>
       </c>
       <c r="C68" t="n">
-        <v>0.361617</v>
+        <v>0.363558</v>
       </c>
       <c r="D68" t="n">
-        <v>0.414016</v>
+        <v>0.415058</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.36587</v>
+        <v>0.365362</v>
       </c>
       <c r="C69" t="n">
-        <v>0.363248</v>
+        <v>0.36389</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414469</v>
+        <v>0.414681</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365051</v>
+        <v>0.365705</v>
       </c>
       <c r="C70" t="n">
-        <v>0.364072</v>
+        <v>0.36379</v>
       </c>
       <c r="D70" t="n">
-        <v>0.415281</v>
+        <v>0.415506</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366095</v>
+        <v>0.366927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.364694</v>
+        <v>0.364318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.416051</v>
+        <v>0.415871</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366454</v>
+        <v>0.366577</v>
       </c>
       <c r="C72" t="n">
-        <v>0.36461</v>
+        <v>0.365276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.416839</v>
+        <v>0.416779</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.36831</v>
+        <v>0.368174</v>
       </c>
       <c r="C73" t="n">
-        <v>0.366109</v>
+        <v>0.366153</v>
       </c>
       <c r="D73" t="n">
-        <v>0.417045</v>
+        <v>0.417876</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.368689</v>
+        <v>0.369169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.367469</v>
+        <v>0.366238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.418047</v>
+        <v>0.418431</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370997</v>
+        <v>0.370642</v>
       </c>
       <c r="C75" t="n">
-        <v>0.368402</v>
+        <v>0.367276</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419183</v>
+        <v>0.419574</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.37254</v>
+        <v>0.373211</v>
       </c>
       <c r="C76" t="n">
-        <v>0.369307</v>
+        <v>0.368591</v>
       </c>
       <c r="D76" t="n">
-        <v>0.420698</v>
+        <v>0.42204</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.375249</v>
+        <v>0.376316</v>
       </c>
       <c r="C77" t="n">
-        <v>0.37161</v>
+        <v>0.370653</v>
       </c>
       <c r="D77" t="n">
-        <v>0.424798</v>
+        <v>0.424459</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.379261</v>
+        <v>0.379107</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375148</v>
+        <v>0.373599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429306</v>
+        <v>0.429282</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.386268</v>
+        <v>0.38491</v>
       </c>
       <c r="C79" t="n">
-        <v>0.378521</v>
+        <v>0.377764</v>
       </c>
       <c r="D79" t="n">
-        <v>0.434659</v>
+        <v>0.435109</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.393615</v>
+        <v>0.393738</v>
       </c>
       <c r="C80" t="n">
-        <v>0.384523</v>
+        <v>0.383516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444747</v>
+        <v>0.446163</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.390441</v>
+        <v>0.388681</v>
       </c>
       <c r="C81" t="n">
-        <v>0.385742</v>
+        <v>0.387642</v>
       </c>
       <c r="D81" t="n">
-        <v>0.447115</v>
+        <v>0.448251</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387084</v>
+        <v>0.390245</v>
       </c>
       <c r="C82" t="n">
-        <v>0.387926</v>
+        <v>0.391955</v>
       </c>
       <c r="D82" t="n">
-        <v>0.445107</v>
+        <v>0.451824</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.390476</v>
+        <v>0.390637</v>
       </c>
       <c r="C83" t="n">
-        <v>0.385463</v>
+        <v>0.39176</v>
       </c>
       <c r="D83" t="n">
-        <v>0.446748</v>
+        <v>0.445597</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.388652</v>
+        <v>0.394982</v>
       </c>
       <c r="C84" t="n">
-        <v>0.389334</v>
+        <v>0.389292</v>
       </c>
       <c r="D84" t="n">
-        <v>0.444455</v>
+        <v>0.447387</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.389387</v>
+        <v>0.395253</v>
       </c>
       <c r="C85" t="n">
-        <v>0.386887</v>
+        <v>0.392563</v>
       </c>
       <c r="D85" t="n">
-        <v>0.445394</v>
+        <v>0.449006</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.388675</v>
+        <v>0.397566</v>
       </c>
       <c r="C86" t="n">
-        <v>0.390447</v>
+        <v>0.392005</v>
       </c>
       <c r="D86" t="n">
-        <v>0.447019</v>
+        <v>0.450507</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.390107</v>
+        <v>0.393488</v>
       </c>
       <c r="C87" t="n">
-        <v>0.388501</v>
+        <v>0.389555</v>
       </c>
       <c r="D87" t="n">
-        <v>0.446302</v>
+        <v>0.448398</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.394701</v>
+        <v>0.392941</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389696</v>
+        <v>0.389523</v>
       </c>
       <c r="D88" t="n">
-        <v>0.447946</v>
+        <v>0.452136</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.392831</v>
+        <v>0.393995</v>
       </c>
       <c r="C89" t="n">
-        <v>0.393355</v>
+        <v>0.388754</v>
       </c>
       <c r="D89" t="n">
-        <v>0.448756</v>
+        <v>0.44902</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.394501</v>
+        <v>0.396797</v>
       </c>
       <c r="C90" t="n">
-        <v>0.392792</v>
+        <v>0.390868</v>
       </c>
       <c r="D90" t="n">
-        <v>0.450407</v>
+        <v>0.45112</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397775</v>
+        <v>0.400845</v>
       </c>
       <c r="C91" t="n">
-        <v>0.39358</v>
+        <v>0.393431</v>
       </c>
       <c r="D91" t="n">
-        <v>0.455898</v>
+        <v>0.453808</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.401392</v>
+        <v>0.405094</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3942</v>
+        <v>0.39699</v>
       </c>
       <c r="D92" t="n">
-        <v>0.459617</v>
+        <v>0.459782</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.40833</v>
+        <v>0.407824</v>
       </c>
       <c r="C93" t="n">
-        <v>0.399992</v>
+        <v>0.403202</v>
       </c>
       <c r="D93" t="n">
-        <v>0.464655</v>
+        <v>0.465331</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.416363</v>
+        <v>0.417506</v>
       </c>
       <c r="C94" t="n">
-        <v>0.406107</v>
+        <v>0.407201</v>
       </c>
       <c r="D94" t="n">
-        <v>0.648744</v>
+        <v>0.65106</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.596398</v>
+        <v>0.592916</v>
       </c>
       <c r="C95" t="n">
-        <v>0.582364</v>
+        <v>0.586754</v>
       </c>
       <c r="D95" t="n">
-        <v>0.648656</v>
+        <v>0.653031</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.593183</v>
+        <v>0.594878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.584734</v>
+        <v>0.579774</v>
       </c>
       <c r="D96" t="n">
-        <v>0.643223</v>
+        <v>0.640244</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.603329</v>
+        <v>0.6011339999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.591149</v>
+        <v>0.580297</v>
       </c>
       <c r="D97" t="n">
-        <v>0.652602</v>
+        <v>0.652277</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.607652</v>
+        <v>0.595231</v>
       </c>
       <c r="C98" t="n">
-        <v>0.588775</v>
+        <v>0.578641</v>
       </c>
       <c r="D98" t="n">
-        <v>0.653984</v>
+        <v>0.642155</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.604816</v>
+        <v>0.595517</v>
       </c>
       <c r="C99" t="n">
-        <v>0.584353</v>
+        <v>0.575786</v>
       </c>
       <c r="D99" t="n">
-        <v>0.655834</v>
+        <v>0.6390709999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.596905</v>
+        <v>0.602509</v>
       </c>
       <c r="C100" t="n">
-        <v>0.591076</v>
+        <v>0.583933</v>
       </c>
       <c r="D100" t="n">
-        <v>0.638786</v>
+        <v>0.644674</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6026899999999999</v>
+        <v>0.593852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.581741</v>
+        <v>0.573605</v>
       </c>
       <c r="D101" t="n">
-        <v>0.650784</v>
+        <v>0.6485379999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.595602</v>
+        <v>0.59959</v>
       </c>
       <c r="C102" t="n">
-        <v>0.585252</v>
+        <v>0.587212</v>
       </c>
       <c r="D102" t="n">
-        <v>0.655219</v>
+        <v>0.647828</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.600063</v>
+        <v>0.594842</v>
       </c>
       <c r="C103" t="n">
-        <v>0.589334</v>
+        <v>0.584117</v>
       </c>
       <c r="D103" t="n">
-        <v>0.642503</v>
+        <v>0.645323</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6074040000000001</v>
+        <v>0.601414</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5831730000000001</v>
+        <v>0.574484</v>
       </c>
       <c r="D104" t="n">
-        <v>0.655583</v>
+        <v>0.6491749999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.599729</v>
+        <v>0.605402</v>
       </c>
       <c r="C105" t="n">
-        <v>0.593991</v>
+        <v>0.576855</v>
       </c>
       <c r="D105" t="n">
-        <v>0.651888</v>
+        <v>0.654292</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.604456</v>
+        <v>0.596553</v>
       </c>
       <c r="C106" t="n">
-        <v>0.584506</v>
+        <v>0.585687</v>
       </c>
       <c r="D106" t="n">
-        <v>0.657058</v>
+        <v>0.64951</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.610806</v>
+        <v>0.613456</v>
       </c>
       <c r="C107" t="n">
-        <v>0.589242</v>
+        <v>0.58645</v>
       </c>
       <c r="D107" t="n">
-        <v>0.662279</v>
+        <v>0.658284</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.608283</v>
+        <v>0.622455</v>
       </c>
       <c r="C108" t="n">
-        <v>0.602742</v>
+        <v>0.595873</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17824</v>
+        <v>1.17642</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.628247</v>
+        <v>0.6123189999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.59797</v>
+        <v>0.587421</v>
       </c>
       <c r="D109" t="n">
-        <v>1.18246</v>
+        <v>1.1777</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05596</v>
+        <v>1.05248</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03694</v>
+        <v>1.03601</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17843</v>
+        <v>1.1768</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.05277</v>
+        <v>1.04965</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03811</v>
+        <v>1.03475</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17576</v>
+        <v>1.17785</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05574</v>
+        <v>1.0523</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03453</v>
+        <v>1.03291</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17746</v>
+        <v>1.17347</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0545</v>
+        <v>1.05093</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03273</v>
+        <v>1.02934</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17589</v>
+        <v>1.17312</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0547</v>
+        <v>1.04918</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03272</v>
+        <v>1.03017</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17483</v>
+        <v>1.17232</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05486</v>
+        <v>1.05181</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03696</v>
+        <v>1.03191</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17751</v>
+        <v>1.17385</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05639</v>
+        <v>1.05193</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03717</v>
+        <v>1.03165</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17469</v>
+        <v>1.17368</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05547</v>
+        <v>1.05062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03831</v>
+        <v>1.03233</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17456</v>
+        <v>1.17412</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05707</v>
+        <v>1.05321</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03745</v>
+        <v>1.03413</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17813</v>
+        <v>1.17486</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05687</v>
+        <v>1.05615</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03873</v>
+        <v>1.0338</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17672</v>
+        <v>1.17346</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06187</v>
+        <v>1.05447</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04073</v>
+        <v>1.0373</v>
       </c>
       <c r="D120" t="n">
-        <v>1.17965</v>
+        <v>1.17288</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06244</v>
+        <v>1.06059</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04115</v>
+        <v>1.0394</v>
       </c>
       <c r="D121" t="n">
-        <v>1.18089</v>
+        <v>1.17766</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06556</v>
+        <v>1.06354</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04748</v>
+        <v>1.04177</v>
       </c>
       <c r="D122" t="n">
-        <v>1.18135</v>
+        <v>1.17904</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07653</v>
+        <v>1.06991</v>
       </c>
       <c r="C123" t="n">
-        <v>1.04842</v>
+        <v>1.04762</v>
       </c>
       <c r="D123" t="n">
-        <v>1.6307</v>
+        <v>1.63483</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32422</v>
+        <v>1.32388</v>
       </c>
       <c r="C124" t="n">
-        <v>1.33586</v>
+        <v>1.32785</v>
       </c>
       <c r="D124" t="n">
-        <v>1.62378</v>
+        <v>1.63458</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31758</v>
+        <v>1.31966</v>
       </c>
       <c r="C125" t="n">
-        <v>1.33012</v>
+        <v>1.32076</v>
       </c>
       <c r="D125" t="n">
-        <v>1.62668</v>
+        <v>1.61681</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33088</v>
+        <v>1.28993</v>
       </c>
       <c r="C126" t="n">
-        <v>1.31906</v>
+        <v>1.32366</v>
       </c>
       <c r="D126" t="n">
-        <v>1.62481</v>
+        <v>1.61699</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33831</v>
+        <v>1.32712</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32925</v>
+        <v>1.3099</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62076</v>
+        <v>1.67235</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.31474</v>
+        <v>1.29999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.32109</v>
+        <v>1.31677</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61839</v>
+        <v>1.62633</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33028</v>
+        <v>1.31233</v>
       </c>
       <c r="C129" t="n">
-        <v>1.3181</v>
+        <v>1.32304</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62311</v>
+        <v>1.62935</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.31414</v>
+        <v>1.32804</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32671</v>
+        <v>1.31741</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62641</v>
+        <v>1.62483</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3304</v>
+        <v>1.32802</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32631</v>
+        <v>1.31459</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62819</v>
+        <v>1.64585</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.32304</v>
+        <v>1.31069</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32423</v>
+        <v>1.32254</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62884</v>
+        <v>1.65348</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32815</v>
+        <v>1.32178</v>
       </c>
       <c r="C133" t="n">
-        <v>1.3258</v>
+        <v>1.32169</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63281</v>
+        <v>1.65898</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.34086</v>
+        <v>1.31755</v>
       </c>
       <c r="C134" t="n">
-        <v>1.33957</v>
+        <v>1.32993</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65521</v>
+        <v>1.64225</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34534</v>
+        <v>1.32033</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33409</v>
+        <v>1.33953</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65106</v>
+        <v>1.66042</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.34361</v>
+        <v>1.33236</v>
       </c>
       <c r="C136" t="n">
-        <v>1.342</v>
+        <v>1.33771</v>
       </c>
       <c r="D136" t="n">
-        <v>1.65581</v>
+        <v>1.68182</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.35686</v>
+        <v>1.33602</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35719</v>
+        <v>1.3559</v>
       </c>
       <c r="D137" t="n">
-        <v>2.07269</v>
+        <v>2.06391</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.43994</v>
+        <v>1.42997</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44157</v>
+        <v>1.4275</v>
       </c>
       <c r="D138" t="n">
-        <v>2.07431</v>
+        <v>2.06448</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.443</v>
+        <v>1.4314</v>
       </c>
       <c r="C139" t="n">
-        <v>1.44424</v>
+        <v>1.43381</v>
       </c>
       <c r="D139" t="n">
-        <v>2.0719</v>
+        <v>2.06407</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.44093</v>
+        <v>1.43073</v>
       </c>
       <c r="C140" t="n">
-        <v>1.4426</v>
+        <v>1.42966</v>
       </c>
       <c r="D140" t="n">
-        <v>2.07148</v>
+        <v>2.06215</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.43906</v>
+        <v>1.43116</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43647</v>
+        <v>1.43426</v>
       </c>
       <c r="D141" t="n">
-        <v>2.07275</v>
+        <v>2.06389</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.4424</v>
+        <v>1.4321</v>
       </c>
       <c r="C142" t="n">
-        <v>1.4433</v>
+        <v>1.43587</v>
       </c>
       <c r="D142" t="n">
-        <v>2.07433</v>
+        <v>2.06458</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.4434</v>
+        <v>1.43309</v>
       </c>
       <c r="C143" t="n">
-        <v>1.44113</v>
+        <v>1.42969</v>
       </c>
       <c r="D143" t="n">
-        <v>2.07352</v>
+        <v>2.06626</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285187</v>
+        <v>0.285645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276534</v>
+        <v>0.276459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314377</v>
+        <v>0.314423</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28662</v>
+        <v>0.285841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.277078</v>
+        <v>0.276963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314836</v>
+        <v>0.314796</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287433</v>
+        <v>0.287434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278399</v>
+        <v>0.278289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316582</v>
+        <v>0.316443</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289495</v>
+        <v>0.28933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279951</v>
+        <v>0.279649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.318704</v>
+        <v>0.318873</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291166</v>
+        <v>0.291372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280806</v>
+        <v>0.280794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.320912</v>
+        <v>0.320695</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294595</v>
+        <v>0.294364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.283029</v>
+        <v>0.283013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325084</v>
+        <v>0.325018</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.299163</v>
+        <v>0.298711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286498</v>
+        <v>0.286422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.330749</v>
+        <v>0.331005</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305893</v>
+        <v>0.30554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.291876</v>
+        <v>0.291639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.312862</v>
+        <v>0.31279</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.285447</v>
+        <v>0.285459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276622</v>
+        <v>0.276577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31301</v>
+        <v>0.312916</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285748</v>
+        <v>0.286459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.277697</v>
+        <v>0.279311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31356</v>
+        <v>0.314272</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286393</v>
+        <v>0.286209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.277393</v>
+        <v>0.277342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313473</v>
+        <v>0.313502</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286699</v>
+        <v>0.286409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.27737</v>
+        <v>0.277401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.313507</v>
+        <v>0.313471</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.287057</v>
+        <v>0.287024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.278822</v>
+        <v>0.277873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314775</v>
+        <v>0.313896</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.287989</v>
+        <v>0.289092</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280366</v>
+        <v>0.280768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314598</v>
+        <v>0.315866</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288702</v>
+        <v>0.288665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279993</v>
+        <v>0.279099</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315581</v>
+        <v>0.315386</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.290234</v>
+        <v>0.289691</v>
       </c>
       <c r="C17" t="n">
-        <v>0.280047</v>
+        <v>0.279871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316482</v>
+        <v>0.316302</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291521</v>
+        <v>0.290818</v>
       </c>
       <c r="C18" t="n">
-        <v>0.298064</v>
+        <v>0.281047</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31892</v>
+        <v>0.318041</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293609</v>
+        <v>0.293494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.283266</v>
+        <v>0.282578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320411</v>
+        <v>0.32039</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.295643</v>
+        <v>0.295321</v>
       </c>
       <c r="C20" t="n">
-        <v>0.283927</v>
+        <v>0.285202</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322321</v>
+        <v>0.32256</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.299016</v>
+        <v>0.298891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.286219</v>
+        <v>0.286267</v>
       </c>
       <c r="D21" t="n">
-        <v>0.325933</v>
+        <v>0.325984</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303903</v>
+        <v>0.303204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289868</v>
+        <v>0.289431</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33255</v>
+        <v>0.33167</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309759</v>
+        <v>0.309828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294356</v>
+        <v>0.295081</v>
       </c>
       <c r="D23" t="n">
-        <v>0.320779</v>
+        <v>0.32216</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296655</v>
+        <v>0.296156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293181</v>
+        <v>0.291221</v>
       </c>
       <c r="D24" t="n">
-        <v>0.323192</v>
+        <v>0.322446</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.296597</v>
+        <v>0.297154</v>
       </c>
       <c r="C25" t="n">
-        <v>0.292216</v>
+        <v>0.291294</v>
       </c>
       <c r="D25" t="n">
-        <v>0.321943</v>
+        <v>0.322274</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2967</v>
+        <v>0.296948</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292342</v>
+        <v>0.291499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.32254</v>
+        <v>0.322324</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.297973</v>
+        <v>0.29684</v>
       </c>
       <c r="C27" t="n">
-        <v>0.310423</v>
+        <v>0.292296</v>
       </c>
       <c r="D27" t="n">
-        <v>0.326718</v>
+        <v>0.322692</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.298636</v>
+        <v>0.298536</v>
       </c>
       <c r="C28" t="n">
-        <v>0.297858</v>
+        <v>0.292991</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324084</v>
+        <v>0.323149</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298874</v>
+        <v>0.299062</v>
       </c>
       <c r="C29" t="n">
-        <v>0.295075</v>
+        <v>0.29446</v>
       </c>
       <c r="D29" t="n">
-        <v>0.324246</v>
+        <v>0.323618</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301042</v>
+        <v>0.299501</v>
       </c>
       <c r="C30" t="n">
-        <v>0.29581</v>
+        <v>0.294599</v>
       </c>
       <c r="D30" t="n">
-        <v>0.32551</v>
+        <v>0.323174</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.30239</v>
+        <v>0.30052</v>
       </c>
       <c r="C31" t="n">
-        <v>0.296704</v>
+        <v>0.295525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.328588</v>
+        <v>0.325871</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.304391</v>
+        <v>0.302254</v>
       </c>
       <c r="C32" t="n">
-        <v>0.298133</v>
+        <v>0.296359</v>
       </c>
       <c r="D32" t="n">
-        <v>0.331884</v>
+        <v>0.328207</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.30624</v>
+        <v>0.303414</v>
       </c>
       <c r="C33" t="n">
-        <v>0.300797</v>
+        <v>0.298391</v>
       </c>
       <c r="D33" t="n">
-        <v>0.331414</v>
+        <v>0.329911</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.307718</v>
+        <v>0.306265</v>
       </c>
       <c r="C34" t="n">
-        <v>0.302271</v>
+        <v>0.299331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333746</v>
+        <v>0.333206</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310552</v>
+        <v>0.310159</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303085</v>
+        <v>0.303492</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337576</v>
+        <v>0.337109</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.315879</v>
+        <v>0.314387</v>
       </c>
       <c r="C36" t="n">
-        <v>0.306442</v>
+        <v>0.305134</v>
       </c>
       <c r="D36" t="n">
-        <v>0.342323</v>
+        <v>0.340688</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322337</v>
+        <v>0.321354</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311248</v>
+        <v>0.310896</v>
       </c>
       <c r="D37" t="n">
-        <v>0.352086</v>
+        <v>0.350283</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.322494</v>
+        <v>0.321142</v>
       </c>
       <c r="C38" t="n">
-        <v>0.318924</v>
+        <v>0.322169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.348823</v>
+        <v>0.352354</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320763</v>
+        <v>0.320963</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319499</v>
+        <v>0.320445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.349561</v>
+        <v>0.351181</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.322215</v>
+        <v>0.321086</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32079</v>
+        <v>0.31923</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350226</v>
+        <v>0.350159</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.323582</v>
+        <v>0.320759</v>
       </c>
       <c r="C41" t="n">
-        <v>0.320977</v>
+        <v>0.321003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.350377</v>
+        <v>0.350444</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.321565</v>
+        <v>0.32292</v>
       </c>
       <c r="C42" t="n">
-        <v>0.319363</v>
+        <v>0.321031</v>
       </c>
       <c r="D42" t="n">
-        <v>0.350124</v>
+        <v>0.3507</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.321248</v>
+        <v>0.322393</v>
       </c>
       <c r="C43" t="n">
-        <v>0.320826</v>
+        <v>0.321125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.351836</v>
+        <v>0.352036</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.324882</v>
+        <v>0.322898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.320093</v>
+        <v>0.321858</v>
       </c>
       <c r="D44" t="n">
-        <v>0.351113</v>
+        <v>0.355619</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.323446</v>
+        <v>0.323954</v>
       </c>
       <c r="C45" t="n">
-        <v>0.322257</v>
+        <v>0.32183</v>
       </c>
       <c r="D45" t="n">
-        <v>0.352231</v>
+        <v>0.353373</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.324637</v>
+        <v>0.325738</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323934</v>
+        <v>0.322549</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354057</v>
+        <v>0.354107</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.327767</v>
+        <v>0.326653</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324178</v>
+        <v>0.324285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.355312</v>
+        <v>0.355593</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.329716</v>
+        <v>0.327798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.326817</v>
+        <v>0.325185</v>
       </c>
       <c r="D48" t="n">
-        <v>0.359149</v>
+        <v>0.358287</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.331568</v>
+        <v>0.333949</v>
       </c>
       <c r="C49" t="n">
-        <v>0.328176</v>
+        <v>0.328946</v>
       </c>
       <c r="D49" t="n">
-        <v>0.362747</v>
+        <v>0.363185</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.336775</v>
+        <v>0.335277</v>
       </c>
       <c r="C50" t="n">
-        <v>0.333367</v>
+        <v>0.331131</v>
       </c>
       <c r="D50" t="n">
-        <v>0.369027</v>
+        <v>0.368109</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.341472</v>
+        <v>0.34369</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335298</v>
+        <v>0.335944</v>
       </c>
       <c r="D51" t="n">
-        <v>0.380411</v>
+        <v>0.385969</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.351382</v>
+        <v>0.35357</v>
       </c>
       <c r="C52" t="n">
-        <v>0.341724</v>
+        <v>0.35237</v>
       </c>
       <c r="D52" t="n">
-        <v>0.386432</v>
+        <v>0.383414</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346422</v>
+        <v>0.346809</v>
       </c>
       <c r="C53" t="n">
-        <v>0.345222</v>
+        <v>0.344621</v>
       </c>
       <c r="D53" t="n">
-        <v>0.385727</v>
+        <v>0.384801</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347725</v>
+        <v>0.347092</v>
       </c>
       <c r="C54" t="n">
-        <v>0.34595</v>
+        <v>0.34475</v>
       </c>
       <c r="D54" t="n">
-        <v>0.384596</v>
+        <v>0.384865</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347609</v>
+        <v>0.347517</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347149</v>
+        <v>0.343934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387974</v>
+        <v>0.385361</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.34788</v>
+        <v>0.346943</v>
       </c>
       <c r="C56" t="n">
-        <v>0.347113</v>
+        <v>0.345622</v>
       </c>
       <c r="D56" t="n">
-        <v>0.387086</v>
+        <v>0.385108</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.348021</v>
+        <v>0.344955</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346361</v>
+        <v>0.346252</v>
       </c>
       <c r="D57" t="n">
-        <v>0.386482</v>
+        <v>0.386733</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.347697</v>
+        <v>0.348284</v>
       </c>
       <c r="C58" t="n">
-        <v>0.346583</v>
+        <v>0.346474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.38805</v>
+        <v>0.386711</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.349244</v>
+        <v>0.348663</v>
       </c>
       <c r="C59" t="n">
-        <v>0.347878</v>
+        <v>0.347885</v>
       </c>
       <c r="D59" t="n">
-        <v>0.389235</v>
+        <v>0.388604</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.349739</v>
+        <v>0.350248</v>
       </c>
       <c r="C60" t="n">
-        <v>0.349331</v>
+        <v>0.348192</v>
       </c>
       <c r="D60" t="n">
-        <v>0.390413</v>
+        <v>0.388008</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.352274</v>
+        <v>0.351853</v>
       </c>
       <c r="C61" t="n">
-        <v>0.350083</v>
+        <v>0.349344</v>
       </c>
       <c r="D61" t="n">
-        <v>0.391462</v>
+        <v>0.390999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.35442</v>
+        <v>0.353694</v>
       </c>
       <c r="C62" t="n">
-        <v>0.351624</v>
+        <v>0.349642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.395336</v>
+        <v>0.392245</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.359244</v>
+        <v>0.356944</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354139</v>
+        <v>0.352187</v>
       </c>
       <c r="D63" t="n">
-        <v>0.39745</v>
+        <v>0.396558</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361846</v>
+        <v>0.361578</v>
       </c>
       <c r="C64" t="n">
-        <v>0.356207</v>
+        <v>0.355132</v>
       </c>
       <c r="D64" t="n">
-        <v>0.39983</v>
+        <v>0.399443</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.36764</v>
+        <v>0.367485</v>
       </c>
       <c r="C65" t="n">
-        <v>0.360235</v>
+        <v>0.359404</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408036</v>
+        <v>0.408301</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.37648</v>
+        <v>0.374329</v>
       </c>
       <c r="C66" t="n">
-        <v>0.367316</v>
+        <v>0.366236</v>
       </c>
       <c r="D66" t="n">
-        <v>0.413803</v>
+        <v>0.414302</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364417</v>
+        <v>0.364798</v>
       </c>
       <c r="C67" t="n">
-        <v>0.362783</v>
+        <v>0.362617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.413955</v>
+        <v>0.414121</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.364601</v>
+        <v>0.365371</v>
       </c>
       <c r="C68" t="n">
-        <v>0.363558</v>
+        <v>0.363455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.415058</v>
+        <v>0.415117</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365362</v>
+        <v>0.365514</v>
       </c>
       <c r="C69" t="n">
-        <v>0.36389</v>
+        <v>0.363961</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414681</v>
+        <v>0.415723</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365705</v>
+        <v>0.365342</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36379</v>
+        <v>0.36396</v>
       </c>
       <c r="D70" t="n">
-        <v>0.415506</v>
+        <v>0.415676</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366927</v>
+        <v>0.366361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.364318</v>
+        <v>0.364044</v>
       </c>
       <c r="D71" t="n">
-        <v>0.415871</v>
+        <v>0.416064</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366577</v>
+        <v>0.366699</v>
       </c>
       <c r="C72" t="n">
-        <v>0.365276</v>
+        <v>0.364798</v>
       </c>
       <c r="D72" t="n">
-        <v>0.416779</v>
+        <v>0.416461</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.368174</v>
+        <v>0.367134</v>
       </c>
       <c r="C73" t="n">
-        <v>0.366153</v>
+        <v>0.365627</v>
       </c>
       <c r="D73" t="n">
-        <v>0.417876</v>
+        <v>0.417959</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.369169</v>
+        <v>0.368588</v>
       </c>
       <c r="C74" t="n">
-        <v>0.366238</v>
+        <v>0.366154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.418431</v>
+        <v>0.418358</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370642</v>
+        <v>0.370347</v>
       </c>
       <c r="C75" t="n">
-        <v>0.367276</v>
+        <v>0.366474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419574</v>
+        <v>0.419212</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.373211</v>
+        <v>0.373184</v>
       </c>
       <c r="C76" t="n">
-        <v>0.368591</v>
+        <v>0.368994</v>
       </c>
       <c r="D76" t="n">
-        <v>0.42204</v>
+        <v>0.422307</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.376316</v>
+        <v>0.374671</v>
       </c>
       <c r="C77" t="n">
-        <v>0.370653</v>
+        <v>0.370328</v>
       </c>
       <c r="D77" t="n">
-        <v>0.424459</v>
+        <v>0.425185</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.379107</v>
+        <v>0.38013</v>
       </c>
       <c r="C78" t="n">
-        <v>0.373599</v>
+        <v>0.37362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429282</v>
+        <v>0.429741</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.38491</v>
+        <v>0.385109</v>
       </c>
       <c r="C79" t="n">
-        <v>0.377764</v>
+        <v>0.377541</v>
       </c>
       <c r="D79" t="n">
-        <v>0.435109</v>
+        <v>0.434813</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.393738</v>
+        <v>0.392961</v>
       </c>
       <c r="C80" t="n">
-        <v>0.383516</v>
+        <v>0.383715</v>
       </c>
       <c r="D80" t="n">
-        <v>0.446163</v>
+        <v>0.444374</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.388681</v>
+        <v>0.391095</v>
       </c>
       <c r="C81" t="n">
-        <v>0.387642</v>
+        <v>0.38595</v>
       </c>
       <c r="D81" t="n">
-        <v>0.448251</v>
+        <v>0.444185</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.390245</v>
+        <v>0.38662</v>
       </c>
       <c r="C82" t="n">
-        <v>0.391955</v>
+        <v>0.390076</v>
       </c>
       <c r="D82" t="n">
-        <v>0.451824</v>
+        <v>0.447769</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.390637</v>
+        <v>0.389352</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39176</v>
+        <v>0.385646</v>
       </c>
       <c r="D83" t="n">
-        <v>0.445597</v>
+        <v>0.445265</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.394982</v>
+        <v>0.387545</v>
       </c>
       <c r="C84" t="n">
-        <v>0.389292</v>
+        <v>0.386296</v>
       </c>
       <c r="D84" t="n">
-        <v>0.447387</v>
+        <v>0.445805</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.395253</v>
+        <v>0.390619</v>
       </c>
       <c r="C85" t="n">
-        <v>0.392563</v>
+        <v>0.389276</v>
       </c>
       <c r="D85" t="n">
-        <v>0.449006</v>
+        <v>0.448539</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.397566</v>
+        <v>0.38778</v>
       </c>
       <c r="C86" t="n">
-        <v>0.392005</v>
+        <v>0.391528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.450507</v>
+        <v>0.447598</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.393488</v>
+        <v>0.392438</v>
       </c>
       <c r="C87" t="n">
-        <v>0.389555</v>
+        <v>0.388977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448398</v>
+        <v>0.448297</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.392941</v>
+        <v>0.393521</v>
       </c>
       <c r="C88" t="n">
-        <v>0.389523</v>
+        <v>0.39121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.452136</v>
+        <v>0.447574</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.393995</v>
+        <v>0.393381</v>
       </c>
       <c r="C89" t="n">
-        <v>0.388754</v>
+        <v>0.391047</v>
       </c>
       <c r="D89" t="n">
-        <v>0.44902</v>
+        <v>0.451198</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.396797</v>
+        <v>0.398545</v>
       </c>
       <c r="C90" t="n">
-        <v>0.390868</v>
+        <v>0.390352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.45112</v>
+        <v>0.45141</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.400845</v>
+        <v>0.396572</v>
       </c>
       <c r="C91" t="n">
-        <v>0.393431</v>
+        <v>0.391645</v>
       </c>
       <c r="D91" t="n">
-        <v>0.453808</v>
+        <v>0.45383</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.405094</v>
+        <v>0.400503</v>
       </c>
       <c r="C92" t="n">
-        <v>0.39699</v>
+        <v>0.393992</v>
       </c>
       <c r="D92" t="n">
-        <v>0.459782</v>
+        <v>0.459447</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407824</v>
+        <v>0.407205</v>
       </c>
       <c r="C93" t="n">
-        <v>0.403202</v>
+        <v>0.398389</v>
       </c>
       <c r="D93" t="n">
-        <v>0.465331</v>
+        <v>0.463733</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.417506</v>
+        <v>0.413901</v>
       </c>
       <c r="C94" t="n">
-        <v>0.407201</v>
+        <v>0.404152</v>
       </c>
       <c r="D94" t="n">
-        <v>0.65106</v>
+        <v>0.640277</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.592916</v>
+        <v>0.583402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.586754</v>
+        <v>0.581821</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653031</v>
+        <v>0.640236</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.594878</v>
+        <v>0.588098</v>
       </c>
       <c r="C96" t="n">
-        <v>0.579774</v>
+        <v>0.571031</v>
       </c>
       <c r="D96" t="n">
-        <v>0.640244</v>
+        <v>0.643614</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6011339999999999</v>
+        <v>0.590232</v>
       </c>
       <c r="C97" t="n">
-        <v>0.580297</v>
+        <v>0.584336</v>
       </c>
       <c r="D97" t="n">
-        <v>0.652277</v>
+        <v>0.6480359999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.595231</v>
+        <v>0.597226</v>
       </c>
       <c r="C98" t="n">
-        <v>0.578641</v>
+        <v>0.574855</v>
       </c>
       <c r="D98" t="n">
-        <v>0.642155</v>
+        <v>0.645224</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.595517</v>
+        <v>0.592525</v>
       </c>
       <c r="C99" t="n">
-        <v>0.575786</v>
+        <v>0.582954</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6390709999999999</v>
+        <v>0.636011</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.602509</v>
+        <v>0.603956</v>
       </c>
       <c r="C100" t="n">
-        <v>0.583933</v>
+        <v>0.578255</v>
       </c>
       <c r="D100" t="n">
-        <v>0.644674</v>
+        <v>0.656624</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.593852</v>
+        <v>0.593738</v>
       </c>
       <c r="C101" t="n">
-        <v>0.573605</v>
+        <v>0.584519</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6485379999999999</v>
+        <v>0.649617</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.59959</v>
+        <v>0.596789</v>
       </c>
       <c r="C102" t="n">
-        <v>0.587212</v>
+        <v>0.582434</v>
       </c>
       <c r="D102" t="n">
-        <v>0.647828</v>
+        <v>0.653356</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.594842</v>
+        <v>0.605028</v>
       </c>
       <c r="C103" t="n">
-        <v>0.584117</v>
+        <v>0.581132</v>
       </c>
       <c r="D103" t="n">
-        <v>0.645323</v>
+        <v>0.650091</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.601414</v>
+        <v>0.605795</v>
       </c>
       <c r="C104" t="n">
-        <v>0.574484</v>
+        <v>0.576465</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6491749999999999</v>
+        <v>0.65257</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.605402</v>
+        <v>0.601514</v>
       </c>
       <c r="C105" t="n">
-        <v>0.576855</v>
+        <v>0.5817290000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.654292</v>
+        <v>0.648018</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.596553</v>
+        <v>0.606295</v>
       </c>
       <c r="C106" t="n">
-        <v>0.585687</v>
+        <v>0.577809</v>
       </c>
       <c r="D106" t="n">
-        <v>0.64951</v>
+        <v>0.650927</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.613456</v>
+        <v>0.599005</v>
       </c>
       <c r="C107" t="n">
-        <v>0.58645</v>
+        <v>0.5800959999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.658284</v>
+        <v>0.64411</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.622455</v>
+        <v>0.611652</v>
       </c>
       <c r="C108" t="n">
-        <v>0.595873</v>
+        <v>0.586707</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17642</v>
+        <v>1.17939</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6123189999999999</v>
+        <v>0.620015</v>
       </c>
       <c r="C109" t="n">
-        <v>0.587421</v>
+        <v>0.597448</v>
       </c>
       <c r="D109" t="n">
-        <v>1.1777</v>
+        <v>1.17555</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05248</v>
+        <v>1.05132</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03601</v>
+        <v>1.03166</v>
       </c>
       <c r="D110" t="n">
-        <v>1.1768</v>
+        <v>1.17668</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04965</v>
+        <v>1.0538</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03475</v>
+        <v>1.03164</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17785</v>
+        <v>1.17618</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0523</v>
+        <v>1.05016</v>
       </c>
       <c r="C112" t="n">
-        <v>1.03291</v>
+        <v>1.02944</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17347</v>
+        <v>1.17636</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05093</v>
+        <v>1.05167</v>
       </c>
       <c r="C113" t="n">
-        <v>1.02934</v>
+        <v>1.03139</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17312</v>
+        <v>1.17497</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04918</v>
+        <v>1.04966</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03017</v>
+        <v>1.03007</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17232</v>
+        <v>1.17338</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05181</v>
+        <v>1.05041</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03191</v>
+        <v>1.03114</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17385</v>
+        <v>1.17267</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05193</v>
+        <v>1.05037</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03165</v>
+        <v>1.03397</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17368</v>
+        <v>1.1737</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05062</v>
+        <v>1.05188</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03233</v>
+        <v>1.03311</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17412</v>
+        <v>1.17262</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05321</v>
+        <v>1.05399</v>
       </c>
       <c r="C118" t="n">
-        <v>1.03413</v>
+        <v>1.0326</v>
       </c>
       <c r="D118" t="n">
-        <v>1.17486</v>
+        <v>1.1761</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05615</v>
+        <v>1.0557</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0338</v>
+        <v>1.0355</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17346</v>
+        <v>1.17286</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05447</v>
+        <v>1.05716</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0373</v>
+        <v>1.03726</v>
       </c>
       <c r="D120" t="n">
-        <v>1.17288</v>
+        <v>1.17579</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06059</v>
+        <v>1.06051</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0394</v>
+        <v>1.0402</v>
       </c>
       <c r="D121" t="n">
-        <v>1.17766</v>
+        <v>1.17588</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06354</v>
+        <v>1.06165</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04177</v>
+        <v>1.04016</v>
       </c>
       <c r="D122" t="n">
-        <v>1.17904</v>
+        <v>1.17782</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06991</v>
+        <v>1.06981</v>
       </c>
       <c r="C123" t="n">
-        <v>1.04762</v>
+        <v>1.04665</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63483</v>
+        <v>1.63181</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.32388</v>
+        <v>1.3306</v>
       </c>
       <c r="C124" t="n">
-        <v>1.32785</v>
+        <v>1.32851</v>
       </c>
       <c r="D124" t="n">
-        <v>1.63458</v>
+        <v>1.61581</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31966</v>
+        <v>1.33263</v>
       </c>
       <c r="C125" t="n">
-        <v>1.32076</v>
+        <v>1.31482</v>
       </c>
       <c r="D125" t="n">
-        <v>1.61681</v>
+        <v>1.63708</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.28993</v>
+        <v>1.33119</v>
       </c>
       <c r="C126" t="n">
-        <v>1.32366</v>
+        <v>1.33161</v>
       </c>
       <c r="D126" t="n">
-        <v>1.61699</v>
+        <v>1.61644</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.32712</v>
+        <v>1.33509</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3099</v>
+        <v>1.32096</v>
       </c>
       <c r="D127" t="n">
-        <v>1.67235</v>
+        <v>1.61383</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.29999</v>
+        <v>1.33377</v>
       </c>
       <c r="C128" t="n">
-        <v>1.31677</v>
+        <v>1.3207</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62633</v>
+        <v>1.62116</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31233</v>
+        <v>1.33326</v>
       </c>
       <c r="C129" t="n">
-        <v>1.32304</v>
+        <v>1.31321</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62935</v>
+        <v>1.61537</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.32804</v>
+        <v>1.33115</v>
       </c>
       <c r="C130" t="n">
-        <v>1.31741</v>
+        <v>1.32707</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62483</v>
+        <v>1.6294</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.32802</v>
+        <v>1.3331</v>
       </c>
       <c r="C131" t="n">
-        <v>1.31459</v>
+        <v>1.32139</v>
       </c>
       <c r="D131" t="n">
-        <v>1.64585</v>
+        <v>1.61901</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.31069</v>
+        <v>1.33644</v>
       </c>
       <c r="C132" t="n">
-        <v>1.32254</v>
+        <v>1.31506</v>
       </c>
       <c r="D132" t="n">
-        <v>1.65348</v>
+        <v>1.62674</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.32178</v>
+        <v>1.33556</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32169</v>
+        <v>1.32733</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65898</v>
+        <v>1.63941</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.31755</v>
+        <v>1.34191</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32993</v>
+        <v>1.325</v>
       </c>
       <c r="D134" t="n">
-        <v>1.64225</v>
+        <v>1.64379</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.32033</v>
+        <v>1.34916</v>
       </c>
       <c r="C135" t="n">
-        <v>1.33953</v>
+        <v>1.3305</v>
       </c>
       <c r="D135" t="n">
-        <v>1.66042</v>
+        <v>1.65338</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.33236</v>
+        <v>1.3522</v>
       </c>
       <c r="C136" t="n">
-        <v>1.33771</v>
+        <v>1.34215</v>
       </c>
       <c r="D136" t="n">
-        <v>1.68182</v>
+        <v>1.65115</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.33602</v>
+        <v>1.36394</v>
       </c>
       <c r="C137" t="n">
-        <v>1.3559</v>
+        <v>1.35309</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06391</v>
+        <v>2.06344</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.42997</v>
+        <v>1.46257</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4275</v>
+        <v>1.42923</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06448</v>
+        <v>2.06072</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.4314</v>
+        <v>1.44121</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43381</v>
+        <v>1.42715</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06407</v>
+        <v>2.06372</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.43073</v>
+        <v>1.4503</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42966</v>
+        <v>1.42825</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06215</v>
+        <v>2.06294</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.43116</v>
+        <v>1.44013</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43426</v>
+        <v>1.43016</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06389</v>
+        <v>2.06841</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.4321</v>
+        <v>1.44879</v>
       </c>
       <c r="C142" t="n">
-        <v>1.43587</v>
+        <v>1.43586</v>
       </c>
       <c r="D142" t="n">
-        <v>2.06458</v>
+        <v>2.05842</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.43309</v>
+        <v>1.44778</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42969</v>
+        <v>1.43997</v>
       </c>
       <c r="D143" t="n">
-        <v>2.06626</v>
+        <v>2.06401</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.285645</v>
+        <v>0.211737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.276459</v>
+        <v>0.217964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314423</v>
+        <v>0.246256</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.285841</v>
+        <v>0.21201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276963</v>
+        <v>0.218055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314796</v>
+        <v>0.246406</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287434</v>
+        <v>0.213185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.278289</v>
+        <v>0.218784</v>
       </c>
       <c r="D4" t="n">
-        <v>0.316443</v>
+        <v>0.247609</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28933</v>
+        <v>0.214427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279649</v>
+        <v>0.219774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.318873</v>
+        <v>0.24913</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.291372</v>
+        <v>0.215254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280794</v>
+        <v>0.220083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.320695</v>
+        <v>0.250222</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294364</v>
+        <v>0.217543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.283013</v>
+        <v>0.221085</v>
       </c>
       <c r="D7" t="n">
-        <v>0.325018</v>
+        <v>0.252559</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.298711</v>
+        <v>0.220822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286422</v>
+        <v>0.222934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.331005</v>
+        <v>0.256716</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30554</v>
+        <v>0.226904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.291639</v>
+        <v>0.226621</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31279</v>
+        <v>0.245841</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.285459</v>
+        <v>0.226072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276577</v>
+        <v>0.234556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.312916</v>
+        <v>0.257456</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.286459</v>
+        <v>0.225307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.279311</v>
+        <v>0.233157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314272</v>
+        <v>0.257166</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.286209</v>
+        <v>0.213109</v>
       </c>
       <c r="C12" t="n">
-        <v>0.277342</v>
+        <v>0.219664</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313502</v>
+        <v>0.246409</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.286409</v>
+        <v>0.220671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.277401</v>
+        <v>0.233133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.313471</v>
+        <v>0.257371</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.287024</v>
+        <v>0.227584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.277873</v>
+        <v>0.234</v>
       </c>
       <c r="D14" t="n">
-        <v>0.313896</v>
+        <v>0.257844</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.289092</v>
+        <v>0.221229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280768</v>
+        <v>0.234424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.315866</v>
+        <v>0.258449</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.288665</v>
+        <v>0.226765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279099</v>
+        <v>0.234746</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315386</v>
+        <v>0.259097</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.289691</v>
+        <v>0.216733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279871</v>
+        <v>0.221785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316302</v>
+        <v>0.24882</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.290818</v>
+        <v>0.217993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281047</v>
+        <v>0.235977</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318041</v>
+        <v>0.260913</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.293494</v>
+        <v>0.231768</v>
       </c>
       <c r="C19" t="n">
-        <v>0.282578</v>
+        <v>0.23715</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32039</v>
+        <v>0.262447</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.295321</v>
+        <v>0.233792</v>
       </c>
       <c r="C20" t="n">
-        <v>0.285202</v>
+        <v>0.238006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32256</v>
+        <v>0.263989</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.298891</v>
+        <v>0.236979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.286267</v>
+        <v>0.239552</v>
       </c>
       <c r="D21" t="n">
-        <v>0.325984</v>
+        <v>0.266881</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.303204</v>
+        <v>0.243028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289431</v>
+        <v>0.242026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.33167</v>
+        <v>0.271937</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.309828</v>
+        <v>0.250966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295081</v>
+        <v>0.246637</v>
       </c>
       <c r="D23" t="n">
-        <v>0.32216</v>
+        <v>0.266321</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296156</v>
+        <v>0.241847</v>
       </c>
       <c r="C24" t="n">
-        <v>0.291221</v>
+        <v>0.251763</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322446</v>
+        <v>0.267471</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.297154</v>
+        <v>0.230358</v>
       </c>
       <c r="C25" t="n">
-        <v>0.291294</v>
+        <v>0.236464</v>
       </c>
       <c r="D25" t="n">
-        <v>0.322274</v>
+        <v>0.257169</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.296948</v>
+        <v>0.23089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.291499</v>
+        <v>0.236529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322324</v>
+        <v>0.257024</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.29684</v>
+        <v>0.230288</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292296</v>
+        <v>0.23733</v>
       </c>
       <c r="D27" t="n">
-        <v>0.322692</v>
+        <v>0.256844</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.298536</v>
+        <v>0.231021</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292991</v>
+        <v>0.236391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.323149</v>
+        <v>0.258669</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.299062</v>
+        <v>0.23122</v>
       </c>
       <c r="C29" t="n">
-        <v>0.29446</v>
+        <v>0.237492</v>
       </c>
       <c r="D29" t="n">
-        <v>0.323618</v>
+        <v>0.259142</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.299501</v>
+        <v>0.231994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294599</v>
+        <v>0.238603</v>
       </c>
       <c r="D30" t="n">
-        <v>0.323174</v>
+        <v>0.259905</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.30052</v>
+        <v>0.232323</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295525</v>
+        <v>0.238137</v>
       </c>
       <c r="D31" t="n">
-        <v>0.325871</v>
+        <v>0.260043</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.302254</v>
+        <v>0.233496</v>
       </c>
       <c r="C32" t="n">
-        <v>0.296359</v>
+        <v>0.239463</v>
       </c>
       <c r="D32" t="n">
-        <v>0.328207</v>
+        <v>0.261807</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.303414</v>
+        <v>0.234387</v>
       </c>
       <c r="C33" t="n">
-        <v>0.298391</v>
+        <v>0.239562</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329911</v>
+        <v>0.261771</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.306265</v>
+        <v>0.237368</v>
       </c>
       <c r="C34" t="n">
-        <v>0.299331</v>
+        <v>0.241924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333206</v>
+        <v>0.265444</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.310159</v>
+        <v>0.240897</v>
       </c>
       <c r="C35" t="n">
-        <v>0.303492</v>
+        <v>0.243862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.337109</v>
+        <v>0.26777</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.314387</v>
+        <v>0.245571</v>
       </c>
       <c r="C36" t="n">
-        <v>0.305134</v>
+        <v>0.245987</v>
       </c>
       <c r="D36" t="n">
-        <v>0.340688</v>
+        <v>0.273898</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.321354</v>
+        <v>0.25797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.310896</v>
+        <v>0.267178</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350283</v>
+        <v>0.281903</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.321142</v>
+        <v>0.255558</v>
       </c>
       <c r="C38" t="n">
-        <v>0.322169</v>
+        <v>0.262175</v>
       </c>
       <c r="D38" t="n">
-        <v>0.352354</v>
+        <v>0.280327</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.320963</v>
+        <v>0.257619</v>
       </c>
       <c r="C39" t="n">
-        <v>0.320445</v>
+        <v>0.263905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.351181</v>
+        <v>0.281084</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321086</v>
+        <v>0.2579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.31923</v>
+        <v>0.269648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350159</v>
+        <v>0.282274</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.320759</v>
+        <v>0.25885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321003</v>
+        <v>0.2685</v>
       </c>
       <c r="D41" t="n">
-        <v>0.350444</v>
+        <v>0.282798</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32292</v>
+        <v>0.258545</v>
       </c>
       <c r="C42" t="n">
-        <v>0.321031</v>
+        <v>0.263964</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3507</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.322393</v>
+        <v>0.258273</v>
       </c>
       <c r="C43" t="n">
-        <v>0.321125</v>
+        <v>0.27067</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352036</v>
+        <v>0.288534</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.322898</v>
+        <v>0.258746</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321858</v>
+        <v>0.267026</v>
       </c>
       <c r="D44" t="n">
-        <v>0.355619</v>
+        <v>0.283483</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.323954</v>
+        <v>0.259796</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32183</v>
+        <v>0.264955</v>
       </c>
       <c r="D45" t="n">
-        <v>0.353373</v>
+        <v>0.283698</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.325738</v>
+        <v>0.26149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322549</v>
+        <v>0.27625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.354107</v>
+        <v>0.290345</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.326653</v>
+        <v>0.263544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324285</v>
+        <v>0.268529</v>
       </c>
       <c r="D47" t="n">
-        <v>0.355593</v>
+        <v>0.286374</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.327798</v>
+        <v>0.264464</v>
       </c>
       <c r="C48" t="n">
-        <v>0.325185</v>
+        <v>0.267777</v>
       </c>
       <c r="D48" t="n">
-        <v>0.358287</v>
+        <v>0.287942</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.333949</v>
+        <v>0.269942</v>
       </c>
       <c r="C49" t="n">
-        <v>0.328946</v>
+        <v>0.278045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.363185</v>
+        <v>0.291079</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.335277</v>
+        <v>0.27961</v>
       </c>
       <c r="C50" t="n">
-        <v>0.331131</v>
+        <v>0.281397</v>
       </c>
       <c r="D50" t="n">
-        <v>0.368109</v>
+        <v>0.296294</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.34369</v>
+        <v>0.280904</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335944</v>
+        <v>0.277679</v>
       </c>
       <c r="D51" t="n">
-        <v>0.385969</v>
+        <v>0.304158</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.35357</v>
+        <v>0.287304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.35237</v>
+        <v>0.291168</v>
       </c>
       <c r="D52" t="n">
-        <v>0.383414</v>
+        <v>0.313805</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346809</v>
+        <v>0.281775</v>
       </c>
       <c r="C53" t="n">
-        <v>0.344621</v>
+        <v>0.289484</v>
       </c>
       <c r="D53" t="n">
-        <v>0.384801</v>
+        <v>0.316569</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347092</v>
+        <v>0.2813</v>
       </c>
       <c r="C54" t="n">
-        <v>0.34475</v>
+        <v>0.288699</v>
       </c>
       <c r="D54" t="n">
-        <v>0.384865</v>
+        <v>0.310663</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.347517</v>
+        <v>0.283766</v>
       </c>
       <c r="C55" t="n">
-        <v>0.343934</v>
+        <v>0.290178</v>
       </c>
       <c r="D55" t="n">
-        <v>0.385361</v>
+        <v>0.316219</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.346943</v>
+        <v>0.291069</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345622</v>
+        <v>0.290421</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385108</v>
+        <v>0.314697</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.344955</v>
+        <v>0.285068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346252</v>
+        <v>0.294441</v>
       </c>
       <c r="D57" t="n">
-        <v>0.386733</v>
+        <v>0.317086</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.348284</v>
+        <v>0.284713</v>
       </c>
       <c r="C58" t="n">
-        <v>0.346474</v>
+        <v>0.306109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.386711</v>
+        <v>0.31022</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.348663</v>
+        <v>0.286827</v>
       </c>
       <c r="C59" t="n">
-        <v>0.347885</v>
+        <v>0.306374</v>
       </c>
       <c r="D59" t="n">
-        <v>0.388604</v>
+        <v>0.309921</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.350248</v>
+        <v>0.287733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.348192</v>
+        <v>0.293675</v>
       </c>
       <c r="D60" t="n">
-        <v>0.388008</v>
+        <v>0.318579</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.351853</v>
+        <v>0.288531</v>
       </c>
       <c r="C61" t="n">
-        <v>0.349344</v>
+        <v>0.292258</v>
       </c>
       <c r="D61" t="n">
-        <v>0.390999</v>
+        <v>0.312558</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.353694</v>
+        <v>0.302624</v>
       </c>
       <c r="C62" t="n">
-        <v>0.349642</v>
+        <v>0.300701</v>
       </c>
       <c r="D62" t="n">
-        <v>0.392245</v>
+        <v>0.315152</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.356944</v>
+        <v>0.294172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.352187</v>
+        <v>0.307898</v>
       </c>
       <c r="D63" t="n">
-        <v>0.396558</v>
+        <v>0.320964</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361578</v>
+        <v>0.299648</v>
       </c>
       <c r="C64" t="n">
-        <v>0.355132</v>
+        <v>0.297841</v>
       </c>
       <c r="D64" t="n">
-        <v>0.399443</v>
+        <v>0.321713</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.367485</v>
+        <v>0.316996</v>
       </c>
       <c r="C65" t="n">
-        <v>0.359404</v>
+        <v>0.302894</v>
       </c>
       <c r="D65" t="n">
-        <v>0.408301</v>
+        <v>0.32764</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.374329</v>
+        <v>0.312649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.366236</v>
+        <v>0.315709</v>
       </c>
       <c r="D66" t="n">
-        <v>0.414302</v>
+        <v>0.325464</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.364798</v>
+        <v>0.301707</v>
       </c>
       <c r="C67" t="n">
-        <v>0.362617</v>
+        <v>0.3076</v>
       </c>
       <c r="D67" t="n">
-        <v>0.414121</v>
+        <v>0.328345</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.365371</v>
+        <v>0.309066</v>
       </c>
       <c r="C68" t="n">
-        <v>0.363455</v>
+        <v>0.306965</v>
       </c>
       <c r="D68" t="n">
-        <v>0.415117</v>
+        <v>0.335761</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.365514</v>
+        <v>0.302362</v>
       </c>
       <c r="C69" t="n">
-        <v>0.363961</v>
+        <v>0.307008</v>
       </c>
       <c r="D69" t="n">
-        <v>0.415723</v>
+        <v>0.326438</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.365342</v>
+        <v>0.302966</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36396</v>
+        <v>0.30773</v>
       </c>
       <c r="D70" t="n">
-        <v>0.415676</v>
+        <v>0.332544</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.366361</v>
+        <v>0.307588</v>
       </c>
       <c r="C71" t="n">
-        <v>0.364044</v>
+        <v>0.307779</v>
       </c>
       <c r="D71" t="n">
-        <v>0.416064</v>
+        <v>0.326628</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.366699</v>
+        <v>0.304778</v>
       </c>
       <c r="C72" t="n">
-        <v>0.364798</v>
+        <v>0.316782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.416461</v>
+        <v>0.326681</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.367134</v>
+        <v>0.305142</v>
       </c>
       <c r="C73" t="n">
-        <v>0.365627</v>
+        <v>0.308753</v>
       </c>
       <c r="D73" t="n">
-        <v>0.417959</v>
+        <v>0.327579</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.368588</v>
+        <v>0.310214</v>
       </c>
       <c r="C74" t="n">
-        <v>0.366154</v>
+        <v>0.309145</v>
       </c>
       <c r="D74" t="n">
-        <v>0.418358</v>
+        <v>0.328883</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.370347</v>
+        <v>0.308606</v>
       </c>
       <c r="C75" t="n">
-        <v>0.366474</v>
+        <v>0.310311</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419212</v>
+        <v>0.329717</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.373184</v>
+        <v>0.308705</v>
       </c>
       <c r="C76" t="n">
-        <v>0.368994</v>
+        <v>0.312034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.422307</v>
+        <v>0.331698</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.374671</v>
+        <v>0.312514</v>
       </c>
       <c r="C77" t="n">
-        <v>0.370328</v>
+        <v>0.323183</v>
       </c>
       <c r="D77" t="n">
-        <v>0.425185</v>
+        <v>0.3344</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.38013</v>
+        <v>0.315578</v>
       </c>
       <c r="C78" t="n">
-        <v>0.37362</v>
+        <v>0.319781</v>
       </c>
       <c r="D78" t="n">
-        <v>0.429741</v>
+        <v>0.339056</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.385109</v>
+        <v>0.328142</v>
       </c>
       <c r="C79" t="n">
-        <v>0.377541</v>
+        <v>0.319416</v>
       </c>
       <c r="D79" t="n">
-        <v>0.434813</v>
+        <v>0.345089</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392961</v>
+        <v>0.330564</v>
       </c>
       <c r="C80" t="n">
-        <v>0.383715</v>
+        <v>0.341917</v>
       </c>
       <c r="D80" t="n">
-        <v>0.444374</v>
+        <v>0.350416</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.391095</v>
+        <v>0.331756</v>
       </c>
       <c r="C81" t="n">
-        <v>0.38595</v>
+        <v>0.344794</v>
       </c>
       <c r="D81" t="n">
-        <v>0.444185</v>
+        <v>0.356351</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38662</v>
+        <v>0.334807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.390076</v>
+        <v>0.331131</v>
       </c>
       <c r="D82" t="n">
-        <v>0.447769</v>
+        <v>0.349917</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.389352</v>
+        <v>0.327264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.385646</v>
+        <v>0.34418</v>
       </c>
       <c r="D83" t="n">
-        <v>0.445265</v>
+        <v>0.346893</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.387545</v>
+        <v>0.327472</v>
       </c>
       <c r="C84" t="n">
-        <v>0.386296</v>
+        <v>0.333986</v>
       </c>
       <c r="D84" t="n">
-        <v>0.445805</v>
+        <v>0.350302</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.390619</v>
+        <v>0.33641</v>
       </c>
       <c r="C85" t="n">
-        <v>0.389276</v>
+        <v>0.334705</v>
       </c>
       <c r="D85" t="n">
-        <v>0.448539</v>
+        <v>0.344773</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38778</v>
+        <v>0.327677</v>
       </c>
       <c r="C86" t="n">
-        <v>0.391528</v>
+        <v>0.330477</v>
       </c>
       <c r="D86" t="n">
-        <v>0.447598</v>
+        <v>0.345439</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.392438</v>
+        <v>0.328438</v>
       </c>
       <c r="C87" t="n">
-        <v>0.388977</v>
+        <v>0.330883</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448297</v>
+        <v>0.344825</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.393521</v>
+        <v>0.332468</v>
       </c>
       <c r="C88" t="n">
-        <v>0.39121</v>
+        <v>0.339541</v>
       </c>
       <c r="D88" t="n">
-        <v>0.447574</v>
+        <v>0.346984</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.393381</v>
+        <v>0.340597</v>
       </c>
       <c r="C89" t="n">
-        <v>0.391047</v>
+        <v>0.342583</v>
       </c>
       <c r="D89" t="n">
-        <v>0.451198</v>
+        <v>0.352224</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398545</v>
+        <v>0.334222</v>
       </c>
       <c r="C90" t="n">
-        <v>0.390352</v>
+        <v>0.347152</v>
       </c>
       <c r="D90" t="n">
-        <v>0.45141</v>
+        <v>0.3524</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396572</v>
+        <v>0.341763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.391645</v>
+        <v>0.333894</v>
       </c>
       <c r="D91" t="n">
-        <v>0.45383</v>
+        <v>0.35908</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.400503</v>
+        <v>0.346298</v>
       </c>
       <c r="C92" t="n">
-        <v>0.393992</v>
+        <v>0.337036</v>
       </c>
       <c r="D92" t="n">
-        <v>0.459447</v>
+        <v>0.356348</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.407205</v>
+        <v>0.345238</v>
       </c>
       <c r="C93" t="n">
-        <v>0.398389</v>
+        <v>0.349932</v>
       </c>
       <c r="D93" t="n">
-        <v>0.463733</v>
+        <v>0.361394</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.413901</v>
+        <v>0.363815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.404152</v>
+        <v>0.362026</v>
       </c>
       <c r="D94" t="n">
-        <v>0.640277</v>
+        <v>0.508435</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.583402</v>
+        <v>0.507001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.581821</v>
+        <v>0.496237</v>
       </c>
       <c r="D95" t="n">
-        <v>0.640236</v>
+        <v>0.5024149999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.588098</v>
+        <v>0.502856</v>
       </c>
       <c r="C96" t="n">
-        <v>0.571031</v>
+        <v>0.499324</v>
       </c>
       <c r="D96" t="n">
-        <v>0.643614</v>
+        <v>0.493596</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.590232</v>
+        <v>0.506431</v>
       </c>
       <c r="C97" t="n">
-        <v>0.584336</v>
+        <v>0.4992</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6480359999999999</v>
+        <v>0.494362</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.597226</v>
+        <v>0.50798</v>
       </c>
       <c r="C98" t="n">
-        <v>0.574855</v>
+        <v>0.498581</v>
       </c>
       <c r="D98" t="n">
-        <v>0.645224</v>
+        <v>0.496892</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.592525</v>
+        <v>0.514904</v>
       </c>
       <c r="C99" t="n">
-        <v>0.582954</v>
+        <v>0.499336</v>
       </c>
       <c r="D99" t="n">
-        <v>0.636011</v>
+        <v>0.520605</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.603956</v>
+        <v>0.512062</v>
       </c>
       <c r="C100" t="n">
-        <v>0.578255</v>
+        <v>0.499425</v>
       </c>
       <c r="D100" t="n">
-        <v>0.656624</v>
+        <v>0.494049</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.593738</v>
+        <v>0.5102950000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.584519</v>
+        <v>0.508231</v>
       </c>
       <c r="D101" t="n">
-        <v>0.649617</v>
+        <v>0.50676</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.596789</v>
+        <v>0.508728</v>
       </c>
       <c r="C102" t="n">
-        <v>0.582434</v>
+        <v>0.509361</v>
       </c>
       <c r="D102" t="n">
-        <v>0.653356</v>
+        <v>0.496761</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.605028</v>
+        <v>0.5228429999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.581132</v>
+        <v>0.500649</v>
       </c>
       <c r="D103" t="n">
-        <v>0.650091</v>
+        <v>0.502501</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.605795</v>
+        <v>0.513269</v>
       </c>
       <c r="C104" t="n">
-        <v>0.576465</v>
+        <v>0.507257</v>
       </c>
       <c r="D104" t="n">
-        <v>0.65257</v>
+        <v>0.500006</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.601514</v>
+        <v>0.5252869999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5817290000000001</v>
+        <v>0.513915</v>
       </c>
       <c r="D105" t="n">
-        <v>0.648018</v>
+        <v>0.504584</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.606295</v>
+        <v>0.520436</v>
       </c>
       <c r="C106" t="n">
-        <v>0.577809</v>
+        <v>0.518626</v>
       </c>
       <c r="D106" t="n">
-        <v>0.650927</v>
+        <v>0.496832</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.599005</v>
+        <v>0.528054</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5800959999999999</v>
+        <v>0.501308</v>
       </c>
       <c r="D107" t="n">
-        <v>0.64411</v>
+        <v>0.501503</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.611652</v>
+        <v>0.523563</v>
       </c>
       <c r="C108" t="n">
-        <v>0.586707</v>
+        <v>0.504331</v>
       </c>
       <c r="D108" t="n">
-        <v>1.17939</v>
+        <v>0.834064</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.620015</v>
+        <v>0.546112</v>
       </c>
       <c r="C109" t="n">
-        <v>0.597448</v>
+        <v>0.50958</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17555</v>
+        <v>0.83261</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05132</v>
+        <v>0.789624</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03166</v>
+        <v>0.788463</v>
       </c>
       <c r="D110" t="n">
-        <v>1.17668</v>
+        <v>0.832929</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0538</v>
+        <v>0.802119</v>
       </c>
       <c r="C111" t="n">
-        <v>1.03164</v>
+        <v>0.799801</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17618</v>
+        <v>0.83458</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05016</v>
+        <v>0.792319</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02944</v>
+        <v>0.786757</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17636</v>
+        <v>0.835128</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05167</v>
+        <v>0.793573</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03139</v>
+        <v>0.7893790000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>1.17497</v>
+        <v>0.834093</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.04966</v>
+        <v>0.789427</v>
       </c>
       <c r="C114" t="n">
-        <v>1.03007</v>
+        <v>0.786646</v>
       </c>
       <c r="D114" t="n">
-        <v>1.17338</v>
+        <v>0.832067</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.05041</v>
+        <v>0.790689</v>
       </c>
       <c r="C115" t="n">
-        <v>1.03114</v>
+        <v>0.788319</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17267</v>
+        <v>0.83489</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.05037</v>
+        <v>0.795149</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03397</v>
+        <v>0.788919</v>
       </c>
       <c r="D116" t="n">
-        <v>1.1737</v>
+        <v>0.835722</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.05188</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03311</v>
+        <v>0.789191</v>
       </c>
       <c r="D117" t="n">
-        <v>1.17262</v>
+        <v>0.833079</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05399</v>
+        <v>0.799559</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0326</v>
+        <v>0.789888</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1761</v>
+        <v>0.834515</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0557</v>
+        <v>0.799665</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0355</v>
+        <v>0.792144</v>
       </c>
       <c r="D119" t="n">
-        <v>1.17286</v>
+        <v>0.834365</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05716</v>
+        <v>0.8013749999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>1.03726</v>
+        <v>0.811303</v>
       </c>
       <c r="D120" t="n">
-        <v>1.17579</v>
+        <v>0.8363660000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.06051</v>
+        <v>0.804289</v>
       </c>
       <c r="C121" t="n">
-        <v>1.0402</v>
+        <v>0.7954020000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>1.17588</v>
+        <v>0.8383620000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06165</v>
+        <v>0.811296</v>
       </c>
       <c r="C122" t="n">
-        <v>1.04016</v>
+        <v>0.7991780000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>1.17782</v>
+        <v>0.848428</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.06981</v>
+        <v>0.821424</v>
       </c>
       <c r="C123" t="n">
-        <v>1.04665</v>
+        <v>0.808909</v>
       </c>
       <c r="D123" t="n">
-        <v>1.63181</v>
+        <v>1.11023</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3306</v>
+        <v>1.03524</v>
       </c>
       <c r="C124" t="n">
-        <v>1.32851</v>
+        <v>1.03742</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61581</v>
+        <v>1.10473</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.33263</v>
+        <v>1.03931</v>
       </c>
       <c r="C125" t="n">
-        <v>1.31482</v>
+        <v>1.03828</v>
       </c>
       <c r="D125" t="n">
-        <v>1.63708</v>
+        <v>1.10765</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.33119</v>
+        <v>1.03751</v>
       </c>
       <c r="C126" t="n">
-        <v>1.33161</v>
+        <v>1.03897</v>
       </c>
       <c r="D126" t="n">
-        <v>1.61644</v>
+        <v>1.10921</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33509</v>
+        <v>1.03525</v>
       </c>
       <c r="C127" t="n">
-        <v>1.32096</v>
+        <v>1.03926</v>
       </c>
       <c r="D127" t="n">
-        <v>1.61383</v>
+        <v>1.11024</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33377</v>
+        <v>1.03757</v>
       </c>
       <c r="C128" t="n">
-        <v>1.3207</v>
+        <v>1.04031</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62116</v>
+        <v>1.10935</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33326</v>
+        <v>1.04123</v>
       </c>
       <c r="C129" t="n">
-        <v>1.31321</v>
+        <v>1.04053</v>
       </c>
       <c r="D129" t="n">
-        <v>1.61537</v>
+        <v>1.10783</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33115</v>
+        <v>1.04189</v>
       </c>
       <c r="C130" t="n">
-        <v>1.32707</v>
+        <v>1.03984</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6294</v>
+        <v>1.10838</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.3331</v>
+        <v>1.03972</v>
       </c>
       <c r="C131" t="n">
-        <v>1.32139</v>
+        <v>1.04368</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61901</v>
+        <v>1.11689</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.33644</v>
+        <v>1.04775</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31506</v>
+        <v>1.04665</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62674</v>
+        <v>1.11447</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.33556</v>
+        <v>1.04967</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32733</v>
+        <v>1.04747</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63941</v>
+        <v>1.11311</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.34191</v>
+        <v>1.0523</v>
       </c>
       <c r="C134" t="n">
-        <v>1.325</v>
+        <v>1.05061</v>
       </c>
       <c r="D134" t="n">
-        <v>1.64379</v>
+        <v>1.11573</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.34916</v>
+        <v>1.05655</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3305</v>
+        <v>1.05226</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65338</v>
+        <v>1.12042</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.3522</v>
+        <v>1.06234</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34215</v>
+        <v>1.05818</v>
       </c>
       <c r="D136" t="n">
-        <v>1.65115</v>
+        <v>1.12761</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.36394</v>
+        <v>1.07488</v>
       </c>
       <c r="C137" t="n">
-        <v>1.35309</v>
+        <v>1.07783</v>
       </c>
       <c r="D137" t="n">
-        <v>2.06344</v>
+        <v>1.3235</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.46257</v>
+        <v>1.25625</v>
       </c>
       <c r="C138" t="n">
-        <v>1.42923</v>
+        <v>1.25853</v>
       </c>
       <c r="D138" t="n">
-        <v>2.06072</v>
+        <v>1.32403</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.44121</v>
+        <v>1.25679</v>
       </c>
       <c r="C139" t="n">
-        <v>1.42715</v>
+        <v>1.25851</v>
       </c>
       <c r="D139" t="n">
-        <v>2.06372</v>
+        <v>1.32372</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.4503</v>
+        <v>1.25864</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42825</v>
+        <v>1.25945</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06294</v>
+        <v>1.32457</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.44013</v>
+        <v>1.25819</v>
       </c>
       <c r="C141" t="n">
-        <v>1.43016</v>
+        <v>1.25906</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06841</v>
+        <v>1.32486</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.44879</v>
+        <v>1.2587</v>
       </c>
       <c r="C142" t="n">
-        <v>1.43586</v>
+        <v>1.25897</v>
       </c>
       <c r="D142" t="n">
-        <v>2.05842</v>
+        <v>1.32597</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.44778</v>
+        <v>1.25939</v>
       </c>
       <c r="C143" t="n">
-        <v>1.43997</v>
+        <v>1.26178</v>
       </c>
       <c r="D143" t="n">
-        <v>2.06401</v>
+        <v>1.32674</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.211737</v>
+        <v>0.225309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217964</v>
+        <v>0.231716</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246256</v>
+        <v>0.257705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.21201</v>
+        <v>0.225498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.218055</v>
+        <v>0.231802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246406</v>
+        <v>0.258091</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.213185</v>
+        <v>0.226689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218784</v>
+        <v>0.232652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.247609</v>
+        <v>0.259358</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.214427</v>
+        <v>0.22797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219774</v>
+        <v>0.233517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.24913</v>
+        <v>0.260826</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.215254</v>
+        <v>0.228753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220083</v>
+        <v>0.233968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.250222</v>
+        <v>0.262156</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.217543</v>
+        <v>0.231078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221085</v>
+        <v>0.235214</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252559</v>
+        <v>0.264756</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220822</v>
+        <v>0.234544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222934</v>
+        <v>0.237119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256716</v>
+        <v>0.269176</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226904</v>
+        <v>0.2408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226621</v>
+        <v>0.241116</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245841</v>
+        <v>0.245521</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.226072</v>
+        <v>0.217352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234556</v>
+        <v>0.221463</v>
       </c>
       <c r="D10" t="n">
-        <v>0.257456</v>
+        <v>0.247353</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.225307</v>
+        <v>0.214161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.233157</v>
+        <v>0.219255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.257166</v>
+        <v>0.246485</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.213109</v>
+        <v>0.215404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219664</v>
+        <v>0.221191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246409</v>
+        <v>0.247121</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220671</v>
+        <v>0.213047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.233133</v>
+        <v>0.220454</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257371</v>
+        <v>0.246633</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.227584</v>
+        <v>0.215214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234</v>
+        <v>0.220863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257844</v>
+        <v>0.247151</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.221229</v>
+        <v>0.21494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234424</v>
+        <v>0.220517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.258449</v>
+        <v>0.247185</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.226765</v>
+        <v>0.218128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.234746</v>
+        <v>0.222752</v>
       </c>
       <c r="D16" t="n">
-        <v>0.259097</v>
+        <v>0.248605</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.216733</v>
+        <v>0.215864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.221785</v>
+        <v>0.222094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24882</v>
+        <v>0.248348</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.217993</v>
+        <v>0.218528</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235977</v>
+        <v>0.224782</v>
       </c>
       <c r="D18" t="n">
-        <v>0.260913</v>
+        <v>0.250428</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.231768</v>
+        <v>0.219343</v>
       </c>
       <c r="C19" t="n">
-        <v>0.23715</v>
+        <v>0.224166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.262447</v>
+        <v>0.25131</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.233792</v>
+        <v>0.222983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238006</v>
+        <v>0.224455</v>
       </c>
       <c r="D20" t="n">
-        <v>0.263989</v>
+        <v>0.252671</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.236979</v>
+        <v>0.228103</v>
       </c>
       <c r="C21" t="n">
-        <v>0.239552</v>
+        <v>0.230079</v>
       </c>
       <c r="D21" t="n">
-        <v>0.266881</v>
+        <v>0.257241</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243028</v>
+        <v>0.228212</v>
       </c>
       <c r="C22" t="n">
-        <v>0.242026</v>
+        <v>0.227809</v>
       </c>
       <c r="D22" t="n">
-        <v>0.271937</v>
+        <v>0.259382</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.250966</v>
+        <v>0.249532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.246637</v>
+        <v>0.231818</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266321</v>
+        <v>0.256213</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241847</v>
+        <v>0.230313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.251763</v>
+        <v>0.23796</v>
       </c>
       <c r="D24" t="n">
-        <v>0.267471</v>
+        <v>0.259442</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.230358</v>
+        <v>0.228243</v>
       </c>
       <c r="C25" t="n">
-        <v>0.236464</v>
+        <v>0.235887</v>
       </c>
       <c r="D25" t="n">
-        <v>0.257169</v>
+        <v>0.256333</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23089</v>
+        <v>0.227704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.236529</v>
+        <v>0.243667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257024</v>
+        <v>0.259131</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.230288</v>
+        <v>0.227733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23733</v>
+        <v>0.235544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.256844</v>
+        <v>0.256007</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.231021</v>
+        <v>0.228546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.236391</v>
+        <v>0.239349</v>
       </c>
       <c r="D28" t="n">
-        <v>0.258669</v>
+        <v>0.259014</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.23122</v>
+        <v>0.228578</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237492</v>
+        <v>0.235621</v>
       </c>
       <c r="D29" t="n">
-        <v>0.259142</v>
+        <v>0.256935</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.231994</v>
+        <v>0.229886</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238603</v>
+        <v>0.23658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.259905</v>
+        <v>0.257686</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.232323</v>
+        <v>0.230821</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238137</v>
+        <v>0.236529</v>
       </c>
       <c r="D31" t="n">
-        <v>0.260043</v>
+        <v>0.258363</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.233496</v>
+        <v>0.232339</v>
       </c>
       <c r="C32" t="n">
-        <v>0.239463</v>
+        <v>0.238404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.261807</v>
+        <v>0.260562</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.234387</v>
+        <v>0.233707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239562</v>
+        <v>0.238384</v>
       </c>
       <c r="D33" t="n">
-        <v>0.261771</v>
+        <v>0.263351</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.237368</v>
+        <v>0.236132</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241924</v>
+        <v>0.240014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.265444</v>
+        <v>0.263687</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.240897</v>
+        <v>0.239901</v>
       </c>
       <c r="C35" t="n">
-        <v>0.243862</v>
+        <v>0.241493</v>
       </c>
       <c r="D35" t="n">
-        <v>0.26777</v>
+        <v>0.265743</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245571</v>
+        <v>0.245944</v>
       </c>
       <c r="C36" t="n">
-        <v>0.245987</v>
+        <v>0.243769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.273898</v>
+        <v>0.272391</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25797</v>
+        <v>0.253889</v>
       </c>
       <c r="C37" t="n">
-        <v>0.267178</v>
+        <v>0.251339</v>
       </c>
       <c r="D37" t="n">
-        <v>0.281903</v>
+        <v>0.280781</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.255558</v>
+        <v>0.257288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262175</v>
+        <v>0.265614</v>
       </c>
       <c r="D38" t="n">
-        <v>0.280327</v>
+        <v>0.279434</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.257619</v>
+        <v>0.258589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.263905</v>
+        <v>0.264071</v>
       </c>
       <c r="D39" t="n">
-        <v>0.281084</v>
+        <v>0.282612</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2579</v>
+        <v>0.256583</v>
       </c>
       <c r="C40" t="n">
-        <v>0.269648</v>
+        <v>0.263337</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282274</v>
+        <v>0.281539</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.25885</v>
+        <v>0.256834</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2685</v>
+        <v>0.263446</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282798</v>
+        <v>0.281986</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.258545</v>
+        <v>0.260215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263964</v>
+        <v>0.264572</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2816</v>
+        <v>0.282721</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.258273</v>
+        <v>0.258311</v>
       </c>
       <c r="C43" t="n">
-        <v>0.27067</v>
+        <v>0.263558</v>
       </c>
       <c r="D43" t="n">
-        <v>0.288534</v>
+        <v>0.282398</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.258746</v>
+        <v>0.259316</v>
       </c>
       <c r="C44" t="n">
-        <v>0.267026</v>
+        <v>0.265031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.283483</v>
+        <v>0.282962</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.259796</v>
+        <v>0.260827</v>
       </c>
       <c r="C45" t="n">
-        <v>0.264955</v>
+        <v>0.264803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283698</v>
+        <v>0.283232</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.26149</v>
+        <v>0.261149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.27625</v>
+        <v>0.266203</v>
       </c>
       <c r="D46" t="n">
-        <v>0.290345</v>
+        <v>0.284453</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263544</v>
+        <v>0.263861</v>
       </c>
       <c r="C47" t="n">
-        <v>0.268529</v>
+        <v>0.267004</v>
       </c>
       <c r="D47" t="n">
-        <v>0.286374</v>
+        <v>0.285442</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.264464</v>
+        <v>0.265113</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267777</v>
+        <v>0.267276</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287942</v>
+        <v>0.287075</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.269942</v>
+        <v>0.267898</v>
       </c>
       <c r="C49" t="n">
-        <v>0.278045</v>
+        <v>0.270172</v>
       </c>
       <c r="D49" t="n">
-        <v>0.291079</v>
+        <v>0.290544</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.27961</v>
+        <v>0.27393</v>
       </c>
       <c r="C50" t="n">
-        <v>0.281397</v>
+        <v>0.27253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.296294</v>
+        <v>0.295064</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.280904</v>
+        <v>0.279308</v>
       </c>
       <c r="C51" t="n">
-        <v>0.277679</v>
+        <v>0.278841</v>
       </c>
       <c r="D51" t="n">
-        <v>0.304158</v>
+        <v>0.307754</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.287304</v>
+        <v>0.288131</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291168</v>
+        <v>0.284834</v>
       </c>
       <c r="D52" t="n">
-        <v>0.313805</v>
+        <v>0.315659</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.281775</v>
+        <v>0.28319</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289484</v>
+        <v>0.289964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.316569</v>
+        <v>0.308686</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2813</v>
+        <v>0.282525</v>
       </c>
       <c r="C54" t="n">
-        <v>0.288699</v>
+        <v>0.29039</v>
       </c>
       <c r="D54" t="n">
-        <v>0.310663</v>
+        <v>0.309083</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283766</v>
+        <v>0.283787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.290178</v>
+        <v>0.29761</v>
       </c>
       <c r="D55" t="n">
-        <v>0.316219</v>
+        <v>0.307942</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.291069</v>
+        <v>0.282147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.290421</v>
+        <v>0.28918</v>
       </c>
       <c r="D56" t="n">
-        <v>0.314697</v>
+        <v>0.308748</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.285068</v>
+        <v>0.284915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.294441</v>
+        <v>0.293867</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317086</v>
+        <v>0.31319</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.284713</v>
+        <v>0.284444</v>
       </c>
       <c r="C58" t="n">
-        <v>0.306109</v>
+        <v>0.291783</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31022</v>
+        <v>0.31046</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286827</v>
+        <v>0.286689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.306374</v>
+        <v>0.291149</v>
       </c>
       <c r="D59" t="n">
-        <v>0.309921</v>
+        <v>0.315407</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.287733</v>
+        <v>0.28881</v>
       </c>
       <c r="C60" t="n">
-        <v>0.293675</v>
+        <v>0.298652</v>
       </c>
       <c r="D60" t="n">
-        <v>0.318579</v>
+        <v>0.310107</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.288531</v>
+        <v>0.28893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292258</v>
+        <v>0.292345</v>
       </c>
       <c r="D61" t="n">
-        <v>0.312558</v>
+        <v>0.311675</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.302624</v>
+        <v>0.290392</v>
       </c>
       <c r="C62" t="n">
-        <v>0.300701</v>
+        <v>0.295116</v>
       </c>
       <c r="D62" t="n">
-        <v>0.315152</v>
+        <v>0.313896</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.294172</v>
+        <v>0.29396</v>
       </c>
       <c r="C63" t="n">
-        <v>0.307898</v>
+        <v>0.29656</v>
       </c>
       <c r="D63" t="n">
-        <v>0.320964</v>
+        <v>0.317224</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.299648</v>
+        <v>0.297892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.297841</v>
+        <v>0.315082</v>
       </c>
       <c r="D64" t="n">
-        <v>0.321713</v>
+        <v>0.321897</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.316996</v>
+        <v>0.304234</v>
       </c>
       <c r="C65" t="n">
-        <v>0.302894</v>
+        <v>0.302335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.32764</v>
+        <v>0.327255</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312649</v>
+        <v>0.310438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.315709</v>
+        <v>0.31323</v>
       </c>
       <c r="D66" t="n">
-        <v>0.325464</v>
+        <v>0.326037</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.301707</v>
+        <v>0.3071</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3076</v>
+        <v>0.306478</v>
       </c>
       <c r="D67" t="n">
-        <v>0.328345</v>
+        <v>0.324751</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.309066</v>
+        <v>0.301467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.306965</v>
+        <v>0.306531</v>
       </c>
       <c r="D68" t="n">
-        <v>0.335761</v>
+        <v>0.325225</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302362</v>
+        <v>0.302361</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307008</v>
+        <v>0.307407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.326438</v>
+        <v>0.325438</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.302966</v>
+        <v>0.302857</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30773</v>
+        <v>0.307089</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332544</v>
+        <v>0.326899</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.307588</v>
+        <v>0.302387</v>
       </c>
       <c r="C71" t="n">
-        <v>0.307779</v>
+        <v>0.307974</v>
       </c>
       <c r="D71" t="n">
-        <v>0.326628</v>
+        <v>0.326045</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.304778</v>
+        <v>0.303394</v>
       </c>
       <c r="C72" t="n">
-        <v>0.316782</v>
+        <v>0.323196</v>
       </c>
       <c r="D72" t="n">
-        <v>0.326681</v>
+        <v>0.326314</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305142</v>
+        <v>0.304876</v>
       </c>
       <c r="C73" t="n">
-        <v>0.308753</v>
+        <v>0.309092</v>
       </c>
       <c r="D73" t="n">
-        <v>0.327579</v>
+        <v>0.327835</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.310214</v>
+        <v>0.30564</v>
       </c>
       <c r="C74" t="n">
-        <v>0.309145</v>
+        <v>0.30919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.328883</v>
+        <v>0.328267</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.308606</v>
+        <v>0.307795</v>
       </c>
       <c r="C75" t="n">
-        <v>0.310311</v>
+        <v>0.314984</v>
       </c>
       <c r="D75" t="n">
-        <v>0.329717</v>
+        <v>0.329372</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.308705</v>
+        <v>0.308549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.312034</v>
+        <v>0.311781</v>
       </c>
       <c r="D76" t="n">
-        <v>0.331698</v>
+        <v>0.331015</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312514</v>
+        <v>0.312911</v>
       </c>
       <c r="C77" t="n">
-        <v>0.323183</v>
+        <v>0.313957</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3344</v>
+        <v>0.334155</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.315578</v>
+        <v>0.31627</v>
       </c>
       <c r="C78" t="n">
-        <v>0.319781</v>
+        <v>0.315738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.339056</v>
+        <v>0.337762</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.328142</v>
+        <v>0.322359</v>
       </c>
       <c r="C79" t="n">
-        <v>0.319416</v>
+        <v>0.325506</v>
       </c>
       <c r="D79" t="n">
-        <v>0.345089</v>
+        <v>0.343751</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.330564</v>
+        <v>0.330539</v>
       </c>
       <c r="C80" t="n">
-        <v>0.341917</v>
+        <v>0.324966</v>
       </c>
       <c r="D80" t="n">
-        <v>0.350416</v>
+        <v>0.341738</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.331756</v>
+        <v>0.323714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.344794</v>
+        <v>0.326773</v>
       </c>
       <c r="D81" t="n">
-        <v>0.356351</v>
+        <v>0.342553</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.334807</v>
+        <v>0.322259</v>
       </c>
       <c r="C82" t="n">
-        <v>0.331131</v>
+        <v>0.328456</v>
       </c>
       <c r="D82" t="n">
-        <v>0.349917</v>
+        <v>0.342263</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.327264</v>
+        <v>0.323106</v>
       </c>
       <c r="C83" t="n">
-        <v>0.34418</v>
+        <v>0.327907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346893</v>
+        <v>0.343161</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.327472</v>
+        <v>0.326019</v>
       </c>
       <c r="C84" t="n">
-        <v>0.333986</v>
+        <v>0.329765</v>
       </c>
       <c r="D84" t="n">
-        <v>0.350302</v>
+        <v>0.344949</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.33641</v>
+        <v>0.326036</v>
       </c>
       <c r="C85" t="n">
-        <v>0.334705</v>
+        <v>0.328657</v>
       </c>
       <c r="D85" t="n">
-        <v>0.344773</v>
+        <v>0.351381</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.327677</v>
+        <v>0.326154</v>
       </c>
       <c r="C86" t="n">
-        <v>0.330477</v>
+        <v>0.33679</v>
       </c>
       <c r="D86" t="n">
-        <v>0.345439</v>
+        <v>0.348704</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.328438</v>
+        <v>0.325659</v>
       </c>
       <c r="C87" t="n">
-        <v>0.330883</v>
+        <v>0.335718</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344825</v>
+        <v>0.344577</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.332468</v>
+        <v>0.32818</v>
       </c>
       <c r="C88" t="n">
-        <v>0.339541</v>
+        <v>0.340652</v>
       </c>
       <c r="D88" t="n">
-        <v>0.346984</v>
+        <v>0.353602</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.340597</v>
+        <v>0.328322</v>
       </c>
       <c r="C89" t="n">
-        <v>0.342583</v>
+        <v>0.333339</v>
       </c>
       <c r="D89" t="n">
-        <v>0.352224</v>
+        <v>0.358599</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.334222</v>
+        <v>0.334993</v>
       </c>
       <c r="C90" t="n">
-        <v>0.347152</v>
+        <v>0.349304</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3524</v>
+        <v>0.34902</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.341763</v>
+        <v>0.33929</v>
       </c>
       <c r="C91" t="n">
-        <v>0.333894</v>
+        <v>0.333943</v>
       </c>
       <c r="D91" t="n">
-        <v>0.35908</v>
+        <v>0.351971</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.346298</v>
+        <v>0.337456</v>
       </c>
       <c r="C92" t="n">
-        <v>0.337036</v>
+        <v>0.336039</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356348</v>
+        <v>0.356113</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.345238</v>
+        <v>0.342349</v>
       </c>
       <c r="C93" t="n">
-        <v>0.349932</v>
+        <v>0.355019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.361394</v>
+        <v>0.36023</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363815</v>
+        <v>0.349137</v>
       </c>
       <c r="C94" t="n">
-        <v>0.362026</v>
+        <v>0.353544</v>
       </c>
       <c r="D94" t="n">
-        <v>0.508435</v>
+        <v>0.489658</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.507001</v>
+        <v>0.499595</v>
       </c>
       <c r="C95" t="n">
-        <v>0.496237</v>
+        <v>0.496862</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5024149999999999</v>
+        <v>0.507289</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502856</v>
+        <v>0.498093</v>
       </c>
       <c r="C96" t="n">
-        <v>0.499324</v>
+        <v>0.498497</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493596</v>
+        <v>0.490805</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.506431</v>
+        <v>0.501844</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4992</v>
+        <v>0.500838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.494362</v>
+        <v>0.501647</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50798</v>
+        <v>0.495847</v>
       </c>
       <c r="C98" t="n">
-        <v>0.498581</v>
+        <v>0.49926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.496892</v>
+        <v>0.489665</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.514904</v>
+        <v>0.509709</v>
       </c>
       <c r="C99" t="n">
-        <v>0.499336</v>
+        <v>0.495547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.520605</v>
+        <v>0.492871</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.512062</v>
+        <v>0.500355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.499425</v>
+        <v>0.512304</v>
       </c>
       <c r="D100" t="n">
-        <v>0.494049</v>
+        <v>0.511459</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5102950000000001</v>
+        <v>0.5068780000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.508231</v>
+        <v>0.493826</v>
       </c>
       <c r="D101" t="n">
-        <v>0.50676</v>
+        <v>0.505202</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508728</v>
+        <v>0.504625</v>
       </c>
       <c r="C102" t="n">
-        <v>0.509361</v>
+        <v>0.494427</v>
       </c>
       <c r="D102" t="n">
-        <v>0.496761</v>
+        <v>0.490509</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5228429999999999</v>
+        <v>0.500682</v>
       </c>
       <c r="C103" t="n">
-        <v>0.500649</v>
+        <v>0.495871</v>
       </c>
       <c r="D103" t="n">
-        <v>0.502501</v>
+        <v>0.489659</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.513269</v>
+        <v>0.510402</v>
       </c>
       <c r="C104" t="n">
-        <v>0.507257</v>
+        <v>0.494807</v>
       </c>
       <c r="D104" t="n">
-        <v>0.500006</v>
+        <v>0.490053</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5252869999999999</v>
+        <v>0.512207</v>
       </c>
       <c r="C105" t="n">
-        <v>0.513915</v>
+        <v>0.506131</v>
       </c>
       <c r="D105" t="n">
-        <v>0.504584</v>
+        <v>0.491989</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.520436</v>
+        <v>0.514485</v>
       </c>
       <c r="C106" t="n">
-        <v>0.518626</v>
+        <v>0.498424</v>
       </c>
       <c r="D106" t="n">
-        <v>0.496832</v>
+        <v>0.499074</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.528054</v>
+        <v>0.520608</v>
       </c>
       <c r="C107" t="n">
-        <v>0.501308</v>
+        <v>0.501269</v>
       </c>
       <c r="D107" t="n">
-        <v>0.501503</v>
+        <v>0.499437</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523563</v>
+        <v>0.516308</v>
       </c>
       <c r="C108" t="n">
-        <v>0.504331</v>
+        <v>0.5039940000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.834064</v>
+        <v>0.8368409999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.546112</v>
+        <v>0.537975</v>
       </c>
       <c r="C109" t="n">
-        <v>0.50958</v>
+        <v>0.507217</v>
       </c>
       <c r="D109" t="n">
-        <v>0.83261</v>
+        <v>0.8360300000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.789624</v>
+        <v>0.791891</v>
       </c>
       <c r="C110" t="n">
-        <v>0.788463</v>
+        <v>0.788423</v>
       </c>
       <c r="D110" t="n">
-        <v>0.832929</v>
+        <v>0.834519</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.802119</v>
+        <v>0.792264</v>
       </c>
       <c r="C111" t="n">
-        <v>0.799801</v>
+        <v>0.788579</v>
       </c>
       <c r="D111" t="n">
-        <v>0.83458</v>
+        <v>0.835327</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.792319</v>
+        <v>0.791754</v>
       </c>
       <c r="C112" t="n">
-        <v>0.786757</v>
+        <v>0.791426</v>
       </c>
       <c r="D112" t="n">
-        <v>0.835128</v>
+        <v>0.843078</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.793573</v>
+        <v>0.792374</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7893790000000001</v>
+        <v>0.801266</v>
       </c>
       <c r="D113" t="n">
-        <v>0.834093</v>
+        <v>0.836542</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.789427</v>
+        <v>0.795131</v>
       </c>
       <c r="C114" t="n">
-        <v>0.786646</v>
+        <v>0.787197</v>
       </c>
       <c r="D114" t="n">
-        <v>0.832067</v>
+        <v>0.835626</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.790689</v>
+        <v>0.795916</v>
       </c>
       <c r="C115" t="n">
-        <v>0.788319</v>
+        <v>0.803855</v>
       </c>
       <c r="D115" t="n">
-        <v>0.83489</v>
+        <v>0.836802</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.795149</v>
+        <v>0.791868</v>
       </c>
       <c r="C116" t="n">
-        <v>0.788919</v>
+        <v>0.789878</v>
       </c>
       <c r="D116" t="n">
-        <v>0.835722</v>
+        <v>0.834368</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7947070000000001</v>
+        <v>0.797523</v>
       </c>
       <c r="C117" t="n">
-        <v>0.789191</v>
+        <v>0.791579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.833079</v>
+        <v>0.834022</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.799559</v>
+        <v>0.798565</v>
       </c>
       <c r="C118" t="n">
-        <v>0.789888</v>
+        <v>0.793409</v>
       </c>
       <c r="D118" t="n">
-        <v>0.834515</v>
+        <v>0.834985</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.799665</v>
+        <v>0.800666</v>
       </c>
       <c r="C119" t="n">
-        <v>0.792144</v>
+        <v>0.793376</v>
       </c>
       <c r="D119" t="n">
-        <v>0.834365</v>
+        <v>0.835134</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8013749999999999</v>
+        <v>0.805283</v>
       </c>
       <c r="C120" t="n">
-        <v>0.811303</v>
+        <v>0.7999000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8363660000000001</v>
+        <v>0.836257</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.804289</v>
+        <v>0.809003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7954020000000001</v>
+        <v>0.79826</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8383620000000001</v>
+        <v>0.840185</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.811296</v>
+        <v>0.8149729999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7991780000000001</v>
+        <v>0.804553</v>
       </c>
       <c r="D122" t="n">
-        <v>0.848428</v>
+        <v>0.845145</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.821424</v>
+        <v>0.822096</v>
       </c>
       <c r="C123" t="n">
-        <v>0.808909</v>
+        <v>0.818146</v>
       </c>
       <c r="D123" t="n">
-        <v>1.11023</v>
+        <v>1.11102</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03524</v>
+        <v>1.0377</v>
       </c>
       <c r="C124" t="n">
-        <v>1.03742</v>
+        <v>1.04387</v>
       </c>
       <c r="D124" t="n">
-        <v>1.10473</v>
+        <v>1.11184</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03931</v>
+        <v>1.04073</v>
       </c>
       <c r="C125" t="n">
-        <v>1.03828</v>
+        <v>1.04147</v>
       </c>
       <c r="D125" t="n">
-        <v>1.10765</v>
+        <v>1.10981</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03751</v>
+        <v>1.03824</v>
       </c>
       <c r="C126" t="n">
-        <v>1.03897</v>
+        <v>1.04187</v>
       </c>
       <c r="D126" t="n">
-        <v>1.10921</v>
+        <v>1.11078</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03525</v>
+        <v>1.04056</v>
       </c>
       <c r="C127" t="n">
-        <v>1.03926</v>
+        <v>1.04282</v>
       </c>
       <c r="D127" t="n">
-        <v>1.11024</v>
+        <v>1.11171</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03757</v>
+        <v>1.04004</v>
       </c>
       <c r="C128" t="n">
-        <v>1.04031</v>
+        <v>1.0438</v>
       </c>
       <c r="D128" t="n">
-        <v>1.10935</v>
+        <v>1.10995</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04123</v>
+        <v>1.04186</v>
       </c>
       <c r="C129" t="n">
-        <v>1.04053</v>
+        <v>1.04421</v>
       </c>
       <c r="D129" t="n">
-        <v>1.10783</v>
+        <v>1.11342</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04189</v>
+        <v>1.0444</v>
       </c>
       <c r="C130" t="n">
-        <v>1.03984</v>
+        <v>1.046</v>
       </c>
       <c r="D130" t="n">
-        <v>1.10838</v>
+        <v>1.1129</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03972</v>
+        <v>1.04633</v>
       </c>
       <c r="C131" t="n">
-        <v>1.04368</v>
+        <v>1.04758</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11689</v>
+        <v>1.11545</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04775</v>
+        <v>1.04929</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04665</v>
+        <v>1.0464</v>
       </c>
       <c r="D132" t="n">
-        <v>1.11447</v>
+        <v>1.11558</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04967</v>
+        <v>1.05154</v>
       </c>
       <c r="C133" t="n">
-        <v>1.04747</v>
+        <v>1.04955</v>
       </c>
       <c r="D133" t="n">
-        <v>1.11311</v>
+        <v>1.11672</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0523</v>
+        <v>1.05704</v>
       </c>
       <c r="C134" t="n">
-        <v>1.05061</v>
+        <v>1.04985</v>
       </c>
       <c r="D134" t="n">
-        <v>1.11573</v>
+        <v>1.11533</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05655</v>
+        <v>1.05616</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05226</v>
+        <v>1.05215</v>
       </c>
       <c r="D135" t="n">
-        <v>1.12042</v>
+        <v>1.1167</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06234</v>
+        <v>1.06109</v>
       </c>
       <c r="C136" t="n">
-        <v>1.05818</v>
+        <v>1.05805</v>
       </c>
       <c r="D136" t="n">
-        <v>1.12761</v>
+        <v>1.12224</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07488</v>
+        <v>1.07072</v>
       </c>
       <c r="C137" t="n">
-        <v>1.07783</v>
+        <v>1.06411</v>
       </c>
       <c r="D137" t="n">
-        <v>1.3235</v>
+        <v>1.32393</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25625</v>
+        <v>1.25641</v>
       </c>
       <c r="C138" t="n">
-        <v>1.25853</v>
+        <v>1.25774</v>
       </c>
       <c r="D138" t="n">
-        <v>1.32403</v>
+        <v>1.32494</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25679</v>
+        <v>1.25709</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25851</v>
+        <v>1.25825</v>
       </c>
       <c r="D139" t="n">
-        <v>1.32372</v>
+        <v>1.32401</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25864</v>
+        <v>1.2577</v>
       </c>
       <c r="C140" t="n">
-        <v>1.25945</v>
+        <v>1.25793</v>
       </c>
       <c r="D140" t="n">
-        <v>1.32457</v>
+        <v>1.32557</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25819</v>
+        <v>1.25729</v>
       </c>
       <c r="C141" t="n">
-        <v>1.25906</v>
+        <v>1.25909</v>
       </c>
       <c r="D141" t="n">
-        <v>1.32486</v>
+        <v>1.32409</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2587</v>
+        <v>1.25929</v>
       </c>
       <c r="C142" t="n">
-        <v>1.25897</v>
+        <v>1.2594</v>
       </c>
       <c r="D142" t="n">
-        <v>1.32597</v>
+        <v>1.32471</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25939</v>
+        <v>1.25926</v>
       </c>
       <c r="C143" t="n">
-        <v>1.26178</v>
+        <v>1.26019</v>
       </c>
       <c r="D143" t="n">
-        <v>1.32674</v>
+        <v>1.32524</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.225309</v>
+        <v>0.110885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.231716</v>
+        <v>0.09983069999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.257705</v>
+        <v>0.145618</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.225498</v>
+        <v>0.111414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.231802</v>
+        <v>0.100021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.258091</v>
+        <v>0.146082</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.226689</v>
+        <v>0.1118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232652</v>
+        <v>0.09999710000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.259358</v>
+        <v>0.146658</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.22797</v>
+        <v>0.112276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233517</v>
+        <v>0.100336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260826</v>
+        <v>0.147278</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.228753</v>
+        <v>0.113084</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233968</v>
+        <v>0.100414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262156</v>
+        <v>0.148016</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231078</v>
+        <v>0.113598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.235214</v>
+        <v>0.101282</v>
       </c>
       <c r="D7" t="n">
-        <v>0.264756</v>
+        <v>0.149476</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234544</v>
+        <v>0.11527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.237119</v>
+        <v>0.102611</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269176</v>
+        <v>0.152181</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2408</v>
+        <v>0.119096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241116</v>
+        <v>0.105204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.245521</v>
+        <v>0.146923</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.217352</v>
+        <v>0.114236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221463</v>
+        <v>0.103646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.247353</v>
+        <v>0.146559</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.214161</v>
+        <v>0.115681</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219255</v>
+        <v>0.10533</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246485</v>
+        <v>0.147627</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.215404</v>
+        <v>0.117433</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221191</v>
+        <v>0.106325</v>
       </c>
       <c r="D12" t="n">
-        <v>0.247121</v>
+        <v>0.147543</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213047</v>
+        <v>0.116907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.220454</v>
+        <v>0.105463</v>
       </c>
       <c r="D13" t="n">
-        <v>0.246633</v>
+        <v>0.147383</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.215214</v>
+        <v>0.116729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220863</v>
+        <v>0.105453</v>
       </c>
       <c r="D14" t="n">
-        <v>0.247151</v>
+        <v>0.148051</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21494</v>
+        <v>0.115757</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220517</v>
+        <v>0.10505</v>
       </c>
       <c r="D15" t="n">
-        <v>0.247185</v>
+        <v>0.147885</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.218128</v>
+        <v>0.116369</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222752</v>
+        <v>0.105371</v>
       </c>
       <c r="D16" t="n">
-        <v>0.248605</v>
+        <v>0.148591</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.215864</v>
+        <v>0.118172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222094</v>
+        <v>0.106798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.248348</v>
+        <v>0.149583</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.218528</v>
+        <v>0.118742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.224782</v>
+        <v>0.107096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250428</v>
+        <v>0.150146</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.219343</v>
+        <v>0.118082</v>
       </c>
       <c r="C19" t="n">
-        <v>0.224166</v>
+        <v>0.106246</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25131</v>
+        <v>0.150829</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.222983</v>
+        <v>0.120888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.224455</v>
+        <v>0.10932</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252671</v>
+        <v>0.153284</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.228103</v>
+        <v>0.121478</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230079</v>
+        <v>0.10982</v>
       </c>
       <c r="D21" t="n">
-        <v>0.257241</v>
+        <v>0.154956</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.228212</v>
+        <v>0.125078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.227809</v>
+        <v>0.113209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.259382</v>
+        <v>0.160268</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.249532</v>
+        <v>0.134164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231818</v>
+        <v>0.120133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.256213</v>
+        <v>0.154404</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.230313</v>
+        <v>0.12839</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23796</v>
+        <v>0.116621</v>
       </c>
       <c r="D24" t="n">
-        <v>0.259442</v>
+        <v>0.154301</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228243</v>
+        <v>0.128112</v>
       </c>
       <c r="C25" t="n">
-        <v>0.235887</v>
+        <v>0.116094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.256333</v>
+        <v>0.154778</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.227704</v>
+        <v>0.12811</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243667</v>
+        <v>0.116502</v>
       </c>
       <c r="D26" t="n">
-        <v>0.259131</v>
+        <v>0.154266</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227733</v>
+        <v>0.127088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235544</v>
+        <v>0.116317</v>
       </c>
       <c r="D27" t="n">
-        <v>0.256007</v>
+        <v>0.154755</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.228546</v>
+        <v>0.127389</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239349</v>
+        <v>0.116851</v>
       </c>
       <c r="D28" t="n">
-        <v>0.259014</v>
+        <v>0.154718</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.228578</v>
+        <v>0.127293</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235621</v>
+        <v>0.116801</v>
       </c>
       <c r="D29" t="n">
-        <v>0.256935</v>
+        <v>0.155304</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.229886</v>
+        <v>0.127874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23658</v>
+        <v>0.116631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.257686</v>
+        <v>0.155221</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.230821</v>
+        <v>0.128433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.236529</v>
+        <v>0.116493</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258363</v>
+        <v>0.156826</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.232339</v>
+        <v>0.12899</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238404</v>
+        <v>0.117002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.260562</v>
+        <v>0.157008</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.233707</v>
+        <v>0.129661</v>
       </c>
       <c r="C33" t="n">
-        <v>0.238384</v>
+        <v>0.118544</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263351</v>
+        <v>0.158044</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.236132</v>
+        <v>0.132386</v>
       </c>
       <c r="C34" t="n">
-        <v>0.240014</v>
+        <v>0.11975</v>
       </c>
       <c r="D34" t="n">
-        <v>0.263687</v>
+        <v>0.160253</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.239901</v>
+        <v>0.135235</v>
       </c>
       <c r="C35" t="n">
-        <v>0.241493</v>
+        <v>0.122523</v>
       </c>
       <c r="D35" t="n">
-        <v>0.265743</v>
+        <v>0.16322</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245944</v>
+        <v>0.141151</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243769</v>
+        <v>0.127035</v>
       </c>
       <c r="D36" t="n">
-        <v>0.272391</v>
+        <v>0.169779</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.253889</v>
+        <v>0.149134</v>
       </c>
       <c r="C37" t="n">
-        <v>0.251339</v>
+        <v>0.132704</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280781</v>
+        <v>0.171628</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.257288</v>
+        <v>0.144684</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265614</v>
+        <v>0.129291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279434</v>
+        <v>0.173553</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.258589</v>
+        <v>0.141409</v>
       </c>
       <c r="C39" t="n">
-        <v>0.264071</v>
+        <v>0.129261</v>
       </c>
       <c r="D39" t="n">
-        <v>0.282612</v>
+        <v>0.170983</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.256583</v>
+        <v>0.143933</v>
       </c>
       <c r="C40" t="n">
-        <v>0.263337</v>
+        <v>0.130866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281539</v>
+        <v>0.172128</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.256834</v>
+        <v>0.142225</v>
       </c>
       <c r="C41" t="n">
-        <v>0.263446</v>
+        <v>0.130476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281986</v>
+        <v>0.171156</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.260215</v>
+        <v>0.144209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.264572</v>
+        <v>0.130292</v>
       </c>
       <c r="D42" t="n">
-        <v>0.282721</v>
+        <v>0.172666</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.258311</v>
+        <v>0.147668</v>
       </c>
       <c r="C43" t="n">
-        <v>0.263558</v>
+        <v>0.131017</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282398</v>
+        <v>0.172599</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.259316</v>
+        <v>0.144981</v>
       </c>
       <c r="C44" t="n">
-        <v>0.265031</v>
+        <v>0.132564</v>
       </c>
       <c r="D44" t="n">
-        <v>0.282962</v>
+        <v>0.172202</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.260827</v>
+        <v>0.147999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.264803</v>
+        <v>0.132385</v>
       </c>
       <c r="D45" t="n">
-        <v>0.283232</v>
+        <v>0.174697</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.261149</v>
+        <v>0.147671</v>
       </c>
       <c r="C46" t="n">
-        <v>0.266203</v>
+        <v>0.134182</v>
       </c>
       <c r="D46" t="n">
-        <v>0.284453</v>
+        <v>0.177152</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263861</v>
+        <v>0.14767</v>
       </c>
       <c r="C47" t="n">
-        <v>0.267004</v>
+        <v>0.142273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.285442</v>
+        <v>0.179545</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.265113</v>
+        <v>0.152071</v>
       </c>
       <c r="C48" t="n">
-        <v>0.267276</v>
+        <v>0.137074</v>
       </c>
       <c r="D48" t="n">
-        <v>0.287075</v>
+        <v>0.17789</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.267898</v>
+        <v>0.153876</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270172</v>
+        <v>0.141426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.290544</v>
+        <v>0.183283</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.27393</v>
+        <v>0.160538</v>
       </c>
       <c r="C50" t="n">
-        <v>0.27253</v>
+        <v>0.143685</v>
       </c>
       <c r="D50" t="n">
-        <v>0.295064</v>
+        <v>0.186665</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.279308</v>
+        <v>0.16443</v>
       </c>
       <c r="C51" t="n">
-        <v>0.278841</v>
+        <v>0.147487</v>
       </c>
       <c r="D51" t="n">
-        <v>0.307754</v>
+        <v>0.190616</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.288131</v>
+        <v>0.173557</v>
       </c>
       <c r="C52" t="n">
-        <v>0.284834</v>
+        <v>0.154871</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315659</v>
+        <v>0.192758</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.28319</v>
+        <v>0.159632</v>
       </c>
       <c r="C53" t="n">
-        <v>0.289964</v>
+        <v>0.146211</v>
       </c>
       <c r="D53" t="n">
-        <v>0.308686</v>
+        <v>0.194604</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.282525</v>
+        <v>0.158971</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29039</v>
+        <v>0.146579</v>
       </c>
       <c r="D54" t="n">
-        <v>0.309083</v>
+        <v>0.195192</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.283787</v>
+        <v>0.160785</v>
       </c>
       <c r="C55" t="n">
-        <v>0.29761</v>
+        <v>0.147108</v>
       </c>
       <c r="D55" t="n">
-        <v>0.307942</v>
+        <v>0.193005</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.282147</v>
+        <v>0.159417</v>
       </c>
       <c r="C56" t="n">
-        <v>0.28918</v>
+        <v>0.147449</v>
       </c>
       <c r="D56" t="n">
-        <v>0.308748</v>
+        <v>0.194828</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.284915</v>
+        <v>0.160978</v>
       </c>
       <c r="C57" t="n">
-        <v>0.293867</v>
+        <v>0.147858</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31319</v>
+        <v>0.194861</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.284444</v>
+        <v>0.160601</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291783</v>
+        <v>0.148593</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31046</v>
+        <v>0.196922</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.286689</v>
+        <v>0.162392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.291149</v>
+        <v>0.149186</v>
       </c>
       <c r="D59" t="n">
-        <v>0.315407</v>
+        <v>0.195689</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28881</v>
+        <v>0.163261</v>
       </c>
       <c r="C60" t="n">
-        <v>0.298652</v>
+        <v>0.150047</v>
       </c>
       <c r="D60" t="n">
-        <v>0.310107</v>
+        <v>0.195577</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28893</v>
+        <v>0.166441</v>
       </c>
       <c r="C61" t="n">
-        <v>0.292345</v>
+        <v>0.150956</v>
       </c>
       <c r="D61" t="n">
-        <v>0.311675</v>
+        <v>0.196846</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.290392</v>
+        <v>0.169305</v>
       </c>
       <c r="C62" t="n">
-        <v>0.295116</v>
+        <v>0.152388</v>
       </c>
       <c r="D62" t="n">
-        <v>0.313896</v>
+        <v>0.199315</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.29396</v>
+        <v>0.171743</v>
       </c>
       <c r="C63" t="n">
-        <v>0.29656</v>
+        <v>0.155203</v>
       </c>
       <c r="D63" t="n">
-        <v>0.317224</v>
+        <v>0.203532</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.297892</v>
+        <v>0.174892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.315082</v>
+        <v>0.157985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.321897</v>
+        <v>0.206144</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.304234</v>
+        <v>0.181821</v>
       </c>
       <c r="C65" t="n">
-        <v>0.302335</v>
+        <v>0.161474</v>
       </c>
       <c r="D65" t="n">
-        <v>0.327255</v>
+        <v>0.212877</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310438</v>
+        <v>0.189448</v>
       </c>
       <c r="C66" t="n">
-        <v>0.31323</v>
+        <v>0.167444</v>
       </c>
       <c r="D66" t="n">
-        <v>0.326037</v>
+        <v>0.203986</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3071</v>
+        <v>0.169847</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306478</v>
+        <v>0.153741</v>
       </c>
       <c r="D67" t="n">
-        <v>0.324751</v>
+        <v>0.203672</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.301467</v>
+        <v>0.169691</v>
       </c>
       <c r="C68" t="n">
-        <v>0.306531</v>
+        <v>0.155268</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325225</v>
+        <v>0.204294</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.302361</v>
+        <v>0.170069</v>
       </c>
       <c r="C69" t="n">
-        <v>0.307407</v>
+        <v>0.155567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.325438</v>
+        <v>0.204399</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.302857</v>
+        <v>0.171003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.307089</v>
+        <v>0.155581</v>
       </c>
       <c r="D70" t="n">
-        <v>0.326899</v>
+        <v>0.205524</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.302387</v>
+        <v>0.170635</v>
       </c>
       <c r="C71" t="n">
-        <v>0.307974</v>
+        <v>0.156039</v>
       </c>
       <c r="D71" t="n">
-        <v>0.326045</v>
+        <v>0.205319</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.303394</v>
+        <v>0.171429</v>
       </c>
       <c r="C72" t="n">
-        <v>0.323196</v>
+        <v>0.158561</v>
       </c>
       <c r="D72" t="n">
-        <v>0.326314</v>
+        <v>0.205432</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304876</v>
+        <v>0.172713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.309092</v>
+        <v>0.157453</v>
       </c>
       <c r="D73" t="n">
-        <v>0.327835</v>
+        <v>0.206192</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30564</v>
+        <v>0.173855</v>
       </c>
       <c r="C74" t="n">
-        <v>0.30919</v>
+        <v>0.158352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.328267</v>
+        <v>0.207498</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.307795</v>
+        <v>0.17523</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314984</v>
+        <v>0.159598</v>
       </c>
       <c r="D75" t="n">
-        <v>0.329372</v>
+        <v>0.208652</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.308549</v>
+        <v>0.177694</v>
       </c>
       <c r="C76" t="n">
-        <v>0.311781</v>
+        <v>0.161365</v>
       </c>
       <c r="D76" t="n">
-        <v>0.331015</v>
+        <v>0.210977</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312911</v>
+        <v>0.180239</v>
       </c>
       <c r="C77" t="n">
-        <v>0.313957</v>
+        <v>0.163379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.334155</v>
+        <v>0.213618</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31627</v>
+        <v>0.184191</v>
       </c>
       <c r="C78" t="n">
-        <v>0.315738</v>
+        <v>0.165647</v>
       </c>
       <c r="D78" t="n">
-        <v>0.337762</v>
+        <v>0.217517</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.322359</v>
+        <v>0.189442</v>
       </c>
       <c r="C79" t="n">
-        <v>0.325506</v>
+        <v>0.169622</v>
       </c>
       <c r="D79" t="n">
-        <v>0.343751</v>
+        <v>0.22295</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.330539</v>
+        <v>0.19704</v>
       </c>
       <c r="C80" t="n">
-        <v>0.324966</v>
+        <v>0.17456</v>
       </c>
       <c r="D80" t="n">
-        <v>0.341738</v>
+        <v>0.221102</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.323714</v>
+        <v>0.191107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.326773</v>
+        <v>0.17514</v>
       </c>
       <c r="D81" t="n">
-        <v>0.342553</v>
+        <v>0.226709</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.322259</v>
+        <v>0.191973</v>
       </c>
       <c r="C82" t="n">
-        <v>0.328456</v>
+        <v>0.175925</v>
       </c>
       <c r="D82" t="n">
-        <v>0.342263</v>
+        <v>0.225942</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.323106</v>
+        <v>0.189997</v>
       </c>
       <c r="C83" t="n">
-        <v>0.327907</v>
+        <v>0.175512</v>
       </c>
       <c r="D83" t="n">
-        <v>0.343161</v>
+        <v>0.223919</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.326019</v>
+        <v>0.190258</v>
       </c>
       <c r="C84" t="n">
-        <v>0.329765</v>
+        <v>0.173918</v>
       </c>
       <c r="D84" t="n">
-        <v>0.344949</v>
+        <v>0.224092</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326036</v>
+        <v>0.192201</v>
       </c>
       <c r="C85" t="n">
-        <v>0.328657</v>
+        <v>0.17448</v>
       </c>
       <c r="D85" t="n">
-        <v>0.351381</v>
+        <v>0.22257</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.326154</v>
+        <v>0.195552</v>
       </c>
       <c r="C86" t="n">
-        <v>0.33679</v>
+        <v>0.176278</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348704</v>
+        <v>0.22403</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.325659</v>
+        <v>0.193829</v>
       </c>
       <c r="C87" t="n">
-        <v>0.335718</v>
+        <v>0.175727</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344577</v>
+        <v>0.224979</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.32818</v>
+        <v>0.198407</v>
       </c>
       <c r="C88" t="n">
-        <v>0.340652</v>
+        <v>0.179314</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353602</v>
+        <v>0.228746</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.328322</v>
+        <v>0.199173</v>
       </c>
       <c r="C89" t="n">
-        <v>0.333339</v>
+        <v>0.177864</v>
       </c>
       <c r="D89" t="n">
-        <v>0.358599</v>
+        <v>0.226818</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.334993</v>
+        <v>0.200757</v>
       </c>
       <c r="C90" t="n">
-        <v>0.349304</v>
+        <v>0.179778</v>
       </c>
       <c r="D90" t="n">
-        <v>0.34902</v>
+        <v>0.228982</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.33929</v>
+        <v>0.204783</v>
       </c>
       <c r="C91" t="n">
-        <v>0.333943</v>
+        <v>0.181841</v>
       </c>
       <c r="D91" t="n">
-        <v>0.351971</v>
+        <v>0.232844</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.337456</v>
+        <v>0.204286</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336039</v>
+        <v>0.183517</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356113</v>
+        <v>0.237014</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.342349</v>
+        <v>0.211726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.355019</v>
+        <v>0.190238</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36023</v>
+        <v>0.245332</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.349137</v>
+        <v>0.215502</v>
       </c>
       <c r="C94" t="n">
-        <v>0.353544</v>
+        <v>0.195482</v>
       </c>
       <c r="D94" t="n">
-        <v>0.489658</v>
+        <v>0.399893</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.499595</v>
+        <v>0.359349</v>
       </c>
       <c r="C95" t="n">
-        <v>0.496862</v>
+        <v>0.336474</v>
       </c>
       <c r="D95" t="n">
-        <v>0.507289</v>
+        <v>0.402738</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.498093</v>
+        <v>0.361378</v>
       </c>
       <c r="C96" t="n">
-        <v>0.498497</v>
+        <v>0.334459</v>
       </c>
       <c r="D96" t="n">
-        <v>0.490805</v>
+        <v>0.401609</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501844</v>
+        <v>0.361159</v>
       </c>
       <c r="C97" t="n">
-        <v>0.500838</v>
+        <v>0.337231</v>
       </c>
       <c r="D97" t="n">
-        <v>0.501647</v>
+        <v>0.401953</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.495847</v>
+        <v>0.363135</v>
       </c>
       <c r="C98" t="n">
-        <v>0.49926</v>
+        <v>0.336578</v>
       </c>
       <c r="D98" t="n">
-        <v>0.489665</v>
+        <v>0.405612</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.509709</v>
+        <v>0.363925</v>
       </c>
       <c r="C99" t="n">
-        <v>0.495547</v>
+        <v>0.333873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.492871</v>
+        <v>0.407114</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.500355</v>
+        <v>0.362051</v>
       </c>
       <c r="C100" t="n">
-        <v>0.512304</v>
+        <v>0.337929</v>
       </c>
       <c r="D100" t="n">
-        <v>0.511459</v>
+        <v>0.40368</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5068780000000001</v>
+        <v>0.364054</v>
       </c>
       <c r="C101" t="n">
-        <v>0.493826</v>
+        <v>0.335659</v>
       </c>
       <c r="D101" t="n">
-        <v>0.505202</v>
+        <v>0.402779</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504625</v>
+        <v>0.364896</v>
       </c>
       <c r="C102" t="n">
-        <v>0.494427</v>
+        <v>0.335649</v>
       </c>
       <c r="D102" t="n">
-        <v>0.490509</v>
+        <v>0.402303</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.500682</v>
+        <v>0.363091</v>
       </c>
       <c r="C103" t="n">
-        <v>0.495871</v>
+        <v>0.339007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.489659</v>
+        <v>0.402518</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.510402</v>
+        <v>0.365446</v>
       </c>
       <c r="C104" t="n">
-        <v>0.494807</v>
+        <v>0.338115</v>
       </c>
       <c r="D104" t="n">
-        <v>0.490053</v>
+        <v>0.404358</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.512207</v>
+        <v>0.367254</v>
       </c>
       <c r="C105" t="n">
-        <v>0.506131</v>
+        <v>0.33647</v>
       </c>
       <c r="D105" t="n">
-        <v>0.491989</v>
+        <v>0.406784</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514485</v>
+        <v>0.368685</v>
       </c>
       <c r="C106" t="n">
-        <v>0.498424</v>
+        <v>0.340854</v>
       </c>
       <c r="D106" t="n">
-        <v>0.499074</v>
+        <v>0.406686</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.520608</v>
+        <v>0.373842</v>
       </c>
       <c r="C107" t="n">
-        <v>0.501269</v>
+        <v>0.341441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.499437</v>
+        <v>0.41466</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.516308</v>
+        <v>0.379729</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5039940000000001</v>
+        <v>0.346317</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8368409999999999</v>
+        <v>0.678407</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537975</v>
+        <v>0.389968</v>
       </c>
       <c r="C109" t="n">
-        <v>0.507217</v>
+        <v>0.35627</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8360300000000001</v>
+        <v>0.68055</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.791891</v>
+        <v>0.527163</v>
       </c>
       <c r="C110" t="n">
-        <v>0.788423</v>
+        <v>0.507487</v>
       </c>
       <c r="D110" t="n">
-        <v>0.834519</v>
+        <v>0.681813</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.792264</v>
+        <v>0.526388</v>
       </c>
       <c r="C111" t="n">
-        <v>0.788579</v>
+        <v>0.508906</v>
       </c>
       <c r="D111" t="n">
-        <v>0.835327</v>
+        <v>0.6777609999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.791754</v>
+        <v>0.526083</v>
       </c>
       <c r="C112" t="n">
-        <v>0.791426</v>
+        <v>0.508153</v>
       </c>
       <c r="D112" t="n">
-        <v>0.843078</v>
+        <v>0.678786</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.792374</v>
+        <v>0.525668</v>
       </c>
       <c r="C113" t="n">
-        <v>0.801266</v>
+        <v>0.510261</v>
       </c>
       <c r="D113" t="n">
-        <v>0.836542</v>
+        <v>0.67944</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.795131</v>
+        <v>0.527824</v>
       </c>
       <c r="C114" t="n">
-        <v>0.787197</v>
+        <v>0.508136</v>
       </c>
       <c r="D114" t="n">
-        <v>0.835626</v>
+        <v>0.679529</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.795916</v>
+        <v>0.529429</v>
       </c>
       <c r="C115" t="n">
-        <v>0.803855</v>
+        <v>0.510637</v>
       </c>
       <c r="D115" t="n">
-        <v>0.836802</v>
+        <v>0.680157</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.791868</v>
+        <v>0.53179</v>
       </c>
       <c r="C116" t="n">
-        <v>0.789878</v>
+        <v>0.508863</v>
       </c>
       <c r="D116" t="n">
-        <v>0.834368</v>
+        <v>0.677915</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.797523</v>
+        <v>0.532969</v>
       </c>
       <c r="C117" t="n">
-        <v>0.791579</v>
+        <v>0.5127660000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.834022</v>
+        <v>0.681546</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.798565</v>
+        <v>0.534156</v>
       </c>
       <c r="C118" t="n">
-        <v>0.793409</v>
+        <v>0.511918</v>
       </c>
       <c r="D118" t="n">
-        <v>0.834985</v>
+        <v>0.6817260000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.800666</v>
+        <v>0.5359969999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.793376</v>
+        <v>0.514164</v>
       </c>
       <c r="D119" t="n">
-        <v>0.835134</v>
+        <v>0.681142</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.805283</v>
+        <v>0.540416</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7999000000000001</v>
+        <v>0.519366</v>
       </c>
       <c r="D120" t="n">
-        <v>0.836257</v>
+        <v>0.684261</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.809003</v>
+        <v>0.546498</v>
       </c>
       <c r="C121" t="n">
-        <v>0.79826</v>
+        <v>0.521899</v>
       </c>
       <c r="D121" t="n">
-        <v>0.840185</v>
+        <v>0.687401</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8149729999999999</v>
+        <v>0.553348</v>
       </c>
       <c r="C122" t="n">
-        <v>0.804553</v>
+        <v>0.5264990000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.845145</v>
+        <v>0.6904670000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.822096</v>
+        <v>0.561867</v>
       </c>
       <c r="C123" t="n">
-        <v>0.818146</v>
+        <v>0.533848</v>
       </c>
       <c r="D123" t="n">
-        <v>1.11102</v>
+        <v>0.930139</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0377</v>
+        <v>0.690369</v>
       </c>
       <c r="C124" t="n">
-        <v>1.04387</v>
+        <v>0.671664</v>
       </c>
       <c r="D124" t="n">
-        <v>1.11184</v>
+        <v>0.929714</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04073</v>
+        <v>0.691046</v>
       </c>
       <c r="C125" t="n">
-        <v>1.04147</v>
+        <v>0.672519</v>
       </c>
       <c r="D125" t="n">
-        <v>1.10981</v>
+        <v>0.9311</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03824</v>
+        <v>0.691815</v>
       </c>
       <c r="C126" t="n">
-        <v>1.04187</v>
+        <v>0.674238</v>
       </c>
       <c r="D126" t="n">
-        <v>1.11078</v>
+        <v>0.931434</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04056</v>
+        <v>0.69354</v>
       </c>
       <c r="C127" t="n">
-        <v>1.04282</v>
+        <v>0.674581</v>
       </c>
       <c r="D127" t="n">
-        <v>1.11171</v>
+        <v>0.9290389999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04004</v>
+        <v>0.692389</v>
       </c>
       <c r="C128" t="n">
-        <v>1.0438</v>
+        <v>0.6732939999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>1.10995</v>
+        <v>0.930467</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04186</v>
+        <v>0.693684</v>
       </c>
       <c r="C129" t="n">
-        <v>1.04421</v>
+        <v>0.673937</v>
       </c>
       <c r="D129" t="n">
-        <v>1.11342</v>
+        <v>0.932436</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.0444</v>
+        <v>0.69421</v>
       </c>
       <c r="C130" t="n">
-        <v>1.046</v>
+        <v>0.677598</v>
       </c>
       <c r="D130" t="n">
-        <v>1.1129</v>
+        <v>0.931525</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04633</v>
+        <v>0.697118</v>
       </c>
       <c r="C131" t="n">
-        <v>1.04758</v>
+        <v>0.67783</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11545</v>
+        <v>0.931566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04929</v>
+        <v>0.699989</v>
       </c>
       <c r="C132" t="n">
-        <v>1.0464</v>
+        <v>0.6799500000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>1.11558</v>
+        <v>0.933573</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.05154</v>
+        <v>0.703224</v>
       </c>
       <c r="C133" t="n">
-        <v>1.04955</v>
+        <v>0.681369</v>
       </c>
       <c r="D133" t="n">
-        <v>1.11672</v>
+        <v>0.936712</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05704</v>
+        <v>0.7047369999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.04985</v>
+        <v>0.6868300000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>1.11533</v>
+        <v>0.941933</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05616</v>
+        <v>0.71268</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05215</v>
+        <v>0.6895559999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>1.1167</v>
+        <v>0.944566</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.06109</v>
+        <v>0.719434</v>
       </c>
       <c r="C136" t="n">
-        <v>1.05805</v>
+        <v>0.695846</v>
       </c>
       <c r="D136" t="n">
-        <v>1.12224</v>
+        <v>0.946284</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.07072</v>
+        <v>0.730243</v>
       </c>
       <c r="C137" t="n">
-        <v>1.06411</v>
+        <v>0.703714</v>
       </c>
       <c r="D137" t="n">
-        <v>1.32393</v>
+        <v>1.14279</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25641</v>
+        <v>0.82766</v>
       </c>
       <c r="C138" t="n">
-        <v>1.25774</v>
+        <v>0.802529</v>
       </c>
       <c r="D138" t="n">
-        <v>1.32494</v>
+        <v>1.14199</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25709</v>
+        <v>0.828488</v>
       </c>
       <c r="C139" t="n">
-        <v>1.25825</v>
+        <v>0.803607</v>
       </c>
       <c r="D139" t="n">
-        <v>1.32401</v>
+        <v>1.14262</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2577</v>
+        <v>0.828873</v>
       </c>
       <c r="C140" t="n">
-        <v>1.25793</v>
+        <v>0.803526</v>
       </c>
       <c r="D140" t="n">
-        <v>1.32557</v>
+        <v>1.14405</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25729</v>
+        <v>0.8309260000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.25909</v>
+        <v>0.804011</v>
       </c>
       <c r="D141" t="n">
-        <v>1.32409</v>
+        <v>1.14287</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25929</v>
+        <v>0.83036</v>
       </c>
       <c r="C142" t="n">
-        <v>1.2594</v>
+        <v>0.804077</v>
       </c>
       <c r="D142" t="n">
-        <v>1.32471</v>
+        <v>1.14376</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25926</v>
+        <v>0.831133</v>
       </c>
       <c r="C143" t="n">
-        <v>1.26019</v>
+        <v>0.80483</v>
       </c>
       <c r="D143" t="n">
-        <v>1.32524</v>
+        <v>1.14609</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110885</v>
+        <v>0.115315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09983069999999999</v>
+        <v>0.143511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.145618</v>
+        <v>0.155305</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111414</v>
+        <v>0.1162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100021</v>
+        <v>0.143809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.146082</v>
+        <v>0.155781</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1118</v>
+        <v>0.115819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09999710000000001</v>
+        <v>0.143727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146658</v>
+        <v>0.156197</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112276</v>
+        <v>0.116894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100336</v>
+        <v>0.144745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147278</v>
+        <v>0.15713</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113084</v>
+        <v>0.117136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100414</v>
+        <v>0.144771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.148016</v>
+        <v>0.157685</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113598</v>
+        <v>0.117025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101282</v>
+        <v>0.145742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.149476</v>
+        <v>0.159042</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11527</v>
+        <v>0.11948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102611</v>
+        <v>0.147498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.152181</v>
+        <v>0.16178</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119096</v>
+        <v>0.12303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105204</v>
+        <v>0.150448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.146923</v>
+        <v>0.15804</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.114236</v>
+        <v>0.122802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.103646</v>
+        <v>0.148843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146559</v>
+        <v>0.156743</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.115681</v>
+        <v>0.123122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10533</v>
+        <v>0.149761</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147627</v>
+        <v>0.157964</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.117433</v>
+        <v>0.122363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.106325</v>
+        <v>0.150073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.147543</v>
+        <v>0.158713</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.116907</v>
+        <v>0.122762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105463</v>
+        <v>0.15069</v>
       </c>
       <c r="D13" t="n">
-        <v>0.147383</v>
+        <v>0.158924</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116729</v>
+        <v>0.123558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105453</v>
+        <v>0.150801</v>
       </c>
       <c r="D14" t="n">
-        <v>0.148051</v>
+        <v>0.158872</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115757</v>
+        <v>0.123477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.10505</v>
+        <v>0.15208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.147885</v>
+        <v>0.159481</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.116369</v>
+        <v>0.125096</v>
       </c>
       <c r="C16" t="n">
-        <v>0.105371</v>
+        <v>0.152374</v>
       </c>
       <c r="D16" t="n">
-        <v>0.148591</v>
+        <v>0.16056</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.118172</v>
+        <v>0.124982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106798</v>
+        <v>0.153172</v>
       </c>
       <c r="D17" t="n">
-        <v>0.149583</v>
+        <v>0.161262</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118742</v>
+        <v>0.125799</v>
       </c>
       <c r="C18" t="n">
-        <v>0.107096</v>
+        <v>0.153289</v>
       </c>
       <c r="D18" t="n">
-        <v>0.150146</v>
+        <v>0.161925</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.118082</v>
+        <v>0.127732</v>
       </c>
       <c r="C19" t="n">
-        <v>0.106246</v>
+        <v>0.154541</v>
       </c>
       <c r="D19" t="n">
-        <v>0.150829</v>
+        <v>0.163285</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.120888</v>
+        <v>0.128085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10932</v>
+        <v>0.155471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.153284</v>
+        <v>0.164197</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.121478</v>
+        <v>0.129177</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10982</v>
+        <v>0.157441</v>
       </c>
       <c r="D21" t="n">
-        <v>0.154956</v>
+        <v>0.166837</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.125078</v>
+        <v>0.132418</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113209</v>
+        <v>0.160662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160268</v>
+        <v>0.173338</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.134164</v>
+        <v>0.140405</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120133</v>
+        <v>0.165321</v>
       </c>
       <c r="D23" t="n">
-        <v>0.154404</v>
+        <v>0.165516</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.12839</v>
+        <v>0.135225</v>
       </c>
       <c r="C24" t="n">
-        <v>0.116621</v>
+        <v>0.160545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.154301</v>
+        <v>0.167034</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.128112</v>
+        <v>0.133345</v>
       </c>
       <c r="C25" t="n">
-        <v>0.116094</v>
+        <v>0.161643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.154778</v>
+        <v>0.166991</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.12811</v>
+        <v>0.133975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.116502</v>
+        <v>0.161691</v>
       </c>
       <c r="D26" t="n">
-        <v>0.154266</v>
+        <v>0.166156</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127088</v>
+        <v>0.133189</v>
       </c>
       <c r="C27" t="n">
-        <v>0.116317</v>
+        <v>0.16274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.154755</v>
+        <v>0.168089</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.127389</v>
+        <v>0.134232</v>
       </c>
       <c r="C28" t="n">
-        <v>0.116851</v>
+        <v>0.164104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154718</v>
+        <v>0.167627</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.127293</v>
+        <v>0.134254</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116801</v>
+        <v>0.162694</v>
       </c>
       <c r="D29" t="n">
-        <v>0.155304</v>
+        <v>0.167732</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.127874</v>
+        <v>0.134835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.116631</v>
+        <v>0.163124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.155221</v>
+        <v>0.168035</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.128433</v>
+        <v>0.135845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116493</v>
+        <v>0.165319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.156826</v>
+        <v>0.168531</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12899</v>
+        <v>0.135621</v>
       </c>
       <c r="C32" t="n">
-        <v>0.117002</v>
+        <v>0.166313</v>
       </c>
       <c r="D32" t="n">
-        <v>0.157008</v>
+        <v>0.169147</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.129661</v>
+        <v>0.136716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.118544</v>
+        <v>0.167236</v>
       </c>
       <c r="D33" t="n">
-        <v>0.158044</v>
+        <v>0.171392</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.132386</v>
+        <v>0.138757</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11975</v>
+        <v>0.166484</v>
       </c>
       <c r="D34" t="n">
-        <v>0.160253</v>
+        <v>0.17311</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.135235</v>
+        <v>0.141941</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122523</v>
+        <v>0.16969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16322</v>
+        <v>0.177665</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141151</v>
+        <v>0.147756</v>
       </c>
       <c r="C36" t="n">
-        <v>0.127035</v>
+        <v>0.172426</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169779</v>
+        <v>0.182654</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149134</v>
+        <v>0.155188</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132704</v>
+        <v>0.179358</v>
       </c>
       <c r="D37" t="n">
-        <v>0.171628</v>
+        <v>0.178188</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144684</v>
+        <v>0.145011</v>
       </c>
       <c r="C38" t="n">
-        <v>0.129291</v>
+        <v>0.173245</v>
       </c>
       <c r="D38" t="n">
-        <v>0.173553</v>
+        <v>0.178515</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.141409</v>
+        <v>0.147156</v>
       </c>
       <c r="C39" t="n">
-        <v>0.129261</v>
+        <v>0.173396</v>
       </c>
       <c r="D39" t="n">
-        <v>0.170983</v>
+        <v>0.179162</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143933</v>
+        <v>0.146726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.130866</v>
+        <v>0.174279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.172128</v>
+        <v>0.179609</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142225</v>
+        <v>0.148882</v>
       </c>
       <c r="C41" t="n">
-        <v>0.130476</v>
+        <v>0.174027</v>
       </c>
       <c r="D41" t="n">
-        <v>0.171156</v>
+        <v>0.178587</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.144209</v>
+        <v>0.145531</v>
       </c>
       <c r="C42" t="n">
-        <v>0.130292</v>
+        <v>0.174625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.172666</v>
+        <v>0.179792</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147668</v>
+        <v>0.149374</v>
       </c>
       <c r="C43" t="n">
-        <v>0.131017</v>
+        <v>0.175309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.172599</v>
+        <v>0.179539</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.144981</v>
+        <v>0.14665</v>
       </c>
       <c r="C44" t="n">
-        <v>0.132564</v>
+        <v>0.176234</v>
       </c>
       <c r="D44" t="n">
-        <v>0.172202</v>
+        <v>0.180499</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147999</v>
+        <v>0.149294</v>
       </c>
       <c r="C45" t="n">
-        <v>0.132385</v>
+        <v>0.177605</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174697</v>
+        <v>0.182498</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147671</v>
+        <v>0.149348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.134182</v>
+        <v>0.178816</v>
       </c>
       <c r="D46" t="n">
-        <v>0.177152</v>
+        <v>0.182002</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.14767</v>
+        <v>0.150667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142273</v>
+        <v>0.179857</v>
       </c>
       <c r="D47" t="n">
-        <v>0.179545</v>
+        <v>0.183815</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152071</v>
+        <v>0.153063</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137074</v>
+        <v>0.180592</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17789</v>
+        <v>0.186585</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.153876</v>
+        <v>0.154167</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141426</v>
+        <v>0.184036</v>
       </c>
       <c r="D49" t="n">
-        <v>0.183283</v>
+        <v>0.189087</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160538</v>
+        <v>0.160318</v>
       </c>
       <c r="C50" t="n">
-        <v>0.143685</v>
+        <v>0.187782</v>
       </c>
       <c r="D50" t="n">
-        <v>0.186665</v>
+        <v>0.195124</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16443</v>
+        <v>0.166984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147487</v>
+        <v>0.193219</v>
       </c>
       <c r="D51" t="n">
-        <v>0.190616</v>
+        <v>0.195465</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173557</v>
+        <v>0.174519</v>
       </c>
       <c r="C52" t="n">
-        <v>0.154871</v>
+        <v>0.200346</v>
       </c>
       <c r="D52" t="n">
-        <v>0.192758</v>
+        <v>0.195904</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159632</v>
+        <v>0.1589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.146211</v>
+        <v>0.186048</v>
       </c>
       <c r="D53" t="n">
-        <v>0.194604</v>
+        <v>0.195972</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158971</v>
+        <v>0.159426</v>
       </c>
       <c r="C54" t="n">
-        <v>0.146579</v>
+        <v>0.185987</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195192</v>
+        <v>0.195299</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160785</v>
+        <v>0.160251</v>
       </c>
       <c r="C55" t="n">
-        <v>0.147108</v>
+        <v>0.186258</v>
       </c>
       <c r="D55" t="n">
-        <v>0.193005</v>
+        <v>0.196106</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159417</v>
+        <v>0.159896</v>
       </c>
       <c r="C56" t="n">
-        <v>0.147449</v>
+        <v>0.186856</v>
       </c>
       <c r="D56" t="n">
-        <v>0.194828</v>
+        <v>0.196961</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160978</v>
+        <v>0.160568</v>
       </c>
       <c r="C57" t="n">
-        <v>0.147858</v>
+        <v>0.187608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.194861</v>
+        <v>0.196183</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160601</v>
+        <v>0.160658</v>
       </c>
       <c r="C58" t="n">
-        <v>0.148593</v>
+        <v>0.188234</v>
       </c>
       <c r="D58" t="n">
-        <v>0.196922</v>
+        <v>0.197756</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162392</v>
+        <v>0.161011</v>
       </c>
       <c r="C59" t="n">
-        <v>0.149186</v>
+        <v>0.19028</v>
       </c>
       <c r="D59" t="n">
-        <v>0.195689</v>
+        <v>0.198395</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163261</v>
+        <v>0.162895</v>
       </c>
       <c r="C60" t="n">
-        <v>0.150047</v>
+        <v>0.191174</v>
       </c>
       <c r="D60" t="n">
-        <v>0.195577</v>
+        <v>0.199503</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166441</v>
+        <v>0.163991</v>
       </c>
       <c r="C61" t="n">
-        <v>0.150956</v>
+        <v>0.192485</v>
       </c>
       <c r="D61" t="n">
-        <v>0.196846</v>
+        <v>0.200468</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169305</v>
+        <v>0.166253</v>
       </c>
       <c r="C62" t="n">
-        <v>0.152388</v>
+        <v>0.194246</v>
       </c>
       <c r="D62" t="n">
-        <v>0.199315</v>
+        <v>0.202871</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171743</v>
+        <v>0.168681</v>
       </c>
       <c r="C63" t="n">
-        <v>0.155203</v>
+        <v>0.196795</v>
       </c>
       <c r="D63" t="n">
-        <v>0.203532</v>
+        <v>0.206265</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174892</v>
+        <v>0.173224</v>
       </c>
       <c r="C64" t="n">
-        <v>0.157985</v>
+        <v>0.199619</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206144</v>
+        <v>0.210374</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181821</v>
+        <v>0.1807</v>
       </c>
       <c r="C65" t="n">
-        <v>0.161474</v>
+        <v>0.204301</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212877</v>
+        <v>0.217073</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189448</v>
+        <v>0.186232</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167444</v>
+        <v>0.210979</v>
       </c>
       <c r="D66" t="n">
-        <v>0.203986</v>
+        <v>0.210698</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.169847</v>
+        <v>0.179093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.153741</v>
+        <v>0.203234</v>
       </c>
       <c r="D67" t="n">
-        <v>0.203672</v>
+        <v>0.209362</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.169691</v>
+        <v>0.179431</v>
       </c>
       <c r="C68" t="n">
-        <v>0.155268</v>
+        <v>0.208417</v>
       </c>
       <c r="D68" t="n">
-        <v>0.204294</v>
+        <v>0.212805</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.170069</v>
+        <v>0.18382</v>
       </c>
       <c r="C69" t="n">
-        <v>0.155567</v>
+        <v>0.205741</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204399</v>
+        <v>0.211057</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.171003</v>
+        <v>0.183324</v>
       </c>
       <c r="C70" t="n">
-        <v>0.155581</v>
+        <v>0.205924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.205524</v>
+        <v>0.21148</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.170635</v>
+        <v>0.185073</v>
       </c>
       <c r="C71" t="n">
-        <v>0.156039</v>
+        <v>0.207677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.205319</v>
+        <v>0.21117</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.171429</v>
+        <v>0.180302</v>
       </c>
       <c r="C72" t="n">
-        <v>0.158561</v>
+        <v>0.206595</v>
       </c>
       <c r="D72" t="n">
-        <v>0.205432</v>
+        <v>0.211304</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.172713</v>
+        <v>0.187669</v>
       </c>
       <c r="C73" t="n">
-        <v>0.157453</v>
+        <v>0.208958</v>
       </c>
       <c r="D73" t="n">
-        <v>0.206192</v>
+        <v>0.213731</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.173855</v>
+        <v>0.186885</v>
       </c>
       <c r="C74" t="n">
-        <v>0.158352</v>
+        <v>0.210267</v>
       </c>
       <c r="D74" t="n">
-        <v>0.207498</v>
+        <v>0.214795</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.17523</v>
+        <v>0.186183</v>
       </c>
       <c r="C75" t="n">
-        <v>0.159598</v>
+        <v>0.210733</v>
       </c>
       <c r="D75" t="n">
-        <v>0.208652</v>
+        <v>0.215544</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.177694</v>
+        <v>0.18937</v>
       </c>
       <c r="C76" t="n">
-        <v>0.161365</v>
+        <v>0.213419</v>
       </c>
       <c r="D76" t="n">
-        <v>0.210977</v>
+        <v>0.217981</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180239</v>
+        <v>0.196586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.163379</v>
+        <v>0.215133</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213618</v>
+        <v>0.220572</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.184191</v>
+        <v>0.193186</v>
       </c>
       <c r="C78" t="n">
-        <v>0.165647</v>
+        <v>0.217212</v>
       </c>
       <c r="D78" t="n">
-        <v>0.217517</v>
+        <v>0.223936</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.189442</v>
+        <v>0.197995</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169622</v>
+        <v>0.221241</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22295</v>
+        <v>0.230646</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.19704</v>
+        <v>0.205636</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17456</v>
+        <v>0.227817</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221102</v>
+        <v>0.307642</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.191107</v>
+        <v>0.343765</v>
       </c>
       <c r="C81" t="n">
-        <v>0.17514</v>
+        <v>0.347446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.226709</v>
+        <v>0.306724</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.191973</v>
+        <v>0.342529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.175925</v>
+        <v>0.351015</v>
       </c>
       <c r="D82" t="n">
-        <v>0.225942</v>
+        <v>0.308686</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.189997</v>
+        <v>0.343726</v>
       </c>
       <c r="C83" t="n">
-        <v>0.175512</v>
+        <v>0.345196</v>
       </c>
       <c r="D83" t="n">
-        <v>0.223919</v>
+        <v>0.309537</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.190258</v>
+        <v>0.344253</v>
       </c>
       <c r="C84" t="n">
-        <v>0.173918</v>
+        <v>0.343204</v>
       </c>
       <c r="D84" t="n">
-        <v>0.224092</v>
+        <v>0.312094</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.192201</v>
+        <v>0.341558</v>
       </c>
       <c r="C85" t="n">
-        <v>0.17448</v>
+        <v>0.348015</v>
       </c>
       <c r="D85" t="n">
-        <v>0.22257</v>
+        <v>0.307428</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.195552</v>
+        <v>0.350678</v>
       </c>
       <c r="C86" t="n">
-        <v>0.176278</v>
+        <v>0.34242</v>
       </c>
       <c r="D86" t="n">
-        <v>0.22403</v>
+        <v>0.309197</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.193829</v>
+        <v>0.347913</v>
       </c>
       <c r="C87" t="n">
-        <v>0.175727</v>
+        <v>0.345025</v>
       </c>
       <c r="D87" t="n">
-        <v>0.224979</v>
+        <v>0.30811</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.198407</v>
+        <v>0.348833</v>
       </c>
       <c r="C88" t="n">
-        <v>0.179314</v>
+        <v>0.345879</v>
       </c>
       <c r="D88" t="n">
-        <v>0.228746</v>
+        <v>0.305748</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.199173</v>
+        <v>0.350522</v>
       </c>
       <c r="C89" t="n">
-        <v>0.177864</v>
+        <v>0.342408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226818</v>
+        <v>0.305199</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.200757</v>
+        <v>0.349538</v>
       </c>
       <c r="C90" t="n">
-        <v>0.179778</v>
+        <v>0.343744</v>
       </c>
       <c r="D90" t="n">
-        <v>0.228982</v>
+        <v>0.308357</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.204783</v>
+        <v>0.349489</v>
       </c>
       <c r="C91" t="n">
-        <v>0.181841</v>
+        <v>0.336677</v>
       </c>
       <c r="D91" t="n">
-        <v>0.232844</v>
+        <v>0.301269</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.204286</v>
+        <v>0.353775</v>
       </c>
       <c r="C92" t="n">
-        <v>0.183517</v>
+        <v>0.338754</v>
       </c>
       <c r="D92" t="n">
-        <v>0.237014</v>
+        <v>0.304474</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.211726</v>
+        <v>0.35708</v>
       </c>
       <c r="C93" t="n">
-        <v>0.190238</v>
+        <v>0.340467</v>
       </c>
       <c r="D93" t="n">
-        <v>0.245332</v>
+        <v>0.307283</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.215502</v>
+        <v>0.362867</v>
       </c>
       <c r="C94" t="n">
-        <v>0.195482</v>
+        <v>0.345887</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399893</v>
+        <v>0.520446</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359349</v>
+        <v>0.49668</v>
       </c>
       <c r="C95" t="n">
-        <v>0.336474</v>
+        <v>0.5653589999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.402738</v>
+        <v>0.5206460000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.361378</v>
+        <v>0.496572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.334459</v>
+        <v>0.563694</v>
       </c>
       <c r="D96" t="n">
-        <v>0.401609</v>
+        <v>0.519823</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.361159</v>
+        <v>0.497675</v>
       </c>
       <c r="C97" t="n">
-        <v>0.337231</v>
+        <v>0.561743</v>
       </c>
       <c r="D97" t="n">
-        <v>0.401953</v>
+        <v>0.518306</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.363135</v>
+        <v>0.498349</v>
       </c>
       <c r="C98" t="n">
-        <v>0.336578</v>
+        <v>0.561304</v>
       </c>
       <c r="D98" t="n">
-        <v>0.405612</v>
+        <v>0.516549</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.363925</v>
+        <v>0.49818</v>
       </c>
       <c r="C99" t="n">
-        <v>0.333873</v>
+        <v>0.562551</v>
       </c>
       <c r="D99" t="n">
-        <v>0.407114</v>
+        <v>0.516464</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.362051</v>
+        <v>0.498683</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337929</v>
+        <v>0.55997</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40368</v>
+        <v>0.515203</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.364054</v>
+        <v>0.499291</v>
       </c>
       <c r="C101" t="n">
-        <v>0.335659</v>
+        <v>0.559078</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402779</v>
+        <v>0.514243</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.364896</v>
+        <v>0.500182</v>
       </c>
       <c r="C102" t="n">
-        <v>0.335649</v>
+        <v>0.559236</v>
       </c>
       <c r="D102" t="n">
-        <v>0.402303</v>
+        <v>0.514465</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.363091</v>
+        <v>0.501434</v>
       </c>
       <c r="C103" t="n">
-        <v>0.339007</v>
+        <v>0.5610270000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.402518</v>
+        <v>0.514621</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.365446</v>
+        <v>0.5029670000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.338115</v>
+        <v>0.559135</v>
       </c>
       <c r="D104" t="n">
-        <v>0.404358</v>
+        <v>0.515796</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.367254</v>
+        <v>0.505568</v>
       </c>
       <c r="C105" t="n">
-        <v>0.33647</v>
+        <v>0.560893</v>
       </c>
       <c r="D105" t="n">
-        <v>0.406784</v>
+        <v>0.518478</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.368685</v>
+        <v>0.509416</v>
       </c>
       <c r="C106" t="n">
-        <v>0.340854</v>
+        <v>0.564246</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406686</v>
+        <v>0.521188</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.373842</v>
+        <v>0.51389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.341441</v>
+        <v>0.564362</v>
       </c>
       <c r="D107" t="n">
-        <v>0.41466</v>
+        <v>0.522926</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.379729</v>
+        <v>0.522016</v>
       </c>
       <c r="C108" t="n">
-        <v>0.346317</v>
+        <v>0.571949</v>
       </c>
       <c r="D108" t="n">
-        <v>0.678407</v>
+        <v>0.728023</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.389968</v>
+        <v>0.533433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.35627</v>
+        <v>0.579526</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68055</v>
+        <v>0.730024</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.527163</v>
+        <v>0.579626</v>
       </c>
       <c r="C110" t="n">
-        <v>0.507487</v>
+        <v>0.691318</v>
       </c>
       <c r="D110" t="n">
-        <v>0.681813</v>
+        <v>0.731233</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.526388</v>
+        <v>0.578306</v>
       </c>
       <c r="C111" t="n">
-        <v>0.508906</v>
+        <v>0.690937</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6777609999999999</v>
+        <v>0.728542</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.526083</v>
+        <v>0.581164</v>
       </c>
       <c r="C112" t="n">
-        <v>0.508153</v>
+        <v>0.691361</v>
       </c>
       <c r="D112" t="n">
-        <v>0.678786</v>
+        <v>0.729912</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.525668</v>
+        <v>0.58164</v>
       </c>
       <c r="C113" t="n">
-        <v>0.510261</v>
+        <v>0.691376</v>
       </c>
       <c r="D113" t="n">
-        <v>0.67944</v>
+        <v>0.729809</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.527824</v>
+        <v>0.582575</v>
       </c>
       <c r="C114" t="n">
-        <v>0.508136</v>
+        <v>0.691999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.679529</v>
+        <v>0.733811</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.529429</v>
+        <v>0.58344</v>
       </c>
       <c r="C115" t="n">
-        <v>0.510637</v>
+        <v>0.693215</v>
       </c>
       <c r="D115" t="n">
-        <v>0.680157</v>
+        <v>0.731542</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.53179</v>
+        <v>0.585468</v>
       </c>
       <c r="C116" t="n">
-        <v>0.508863</v>
+        <v>0.694358</v>
       </c>
       <c r="D116" t="n">
-        <v>0.677915</v>
+        <v>0.732102</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.532969</v>
+        <v>0.585865</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5127660000000001</v>
+        <v>0.695348</v>
       </c>
       <c r="D117" t="n">
-        <v>0.681546</v>
+        <v>0.733733</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.534156</v>
+        <v>0.5903040000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.511918</v>
+        <v>0.6981889999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6817260000000001</v>
+        <v>0.7349909999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5359969999999999</v>
+        <v>0.592477</v>
       </c>
       <c r="C119" t="n">
-        <v>0.514164</v>
+        <v>0.69989</v>
       </c>
       <c r="D119" t="n">
-        <v>0.681142</v>
+        <v>0.738384</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.540416</v>
+        <v>0.597033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.519366</v>
+        <v>0.704004</v>
       </c>
       <c r="D120" t="n">
-        <v>0.684261</v>
+        <v>0.741266</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.546498</v>
+        <v>0.602602</v>
       </c>
       <c r="C121" t="n">
-        <v>0.521899</v>
+        <v>0.706817</v>
       </c>
       <c r="D121" t="n">
-        <v>0.687401</v>
+        <v>0.745093</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.553348</v>
+        <v>0.610475</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5264990000000001</v>
+        <v>0.714948</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6904670000000001</v>
+        <v>0.750528</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.561867</v>
+        <v>0.6244</v>
       </c>
       <c r="C123" t="n">
-        <v>0.533848</v>
+        <v>0.721395</v>
       </c>
       <c r="D123" t="n">
-        <v>0.930139</v>
+        <v>0.960652</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.690369</v>
+        <v>0.7233270000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.671664</v>
+        <v>0.801143</v>
       </c>
       <c r="D124" t="n">
-        <v>0.929714</v>
+        <v>0.959163</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.691046</v>
+        <v>0.723478</v>
       </c>
       <c r="C125" t="n">
-        <v>0.672519</v>
+        <v>0.8023979999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9311</v>
+        <v>0.9608950000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.691815</v>
+        <v>0.723368</v>
       </c>
       <c r="C126" t="n">
-        <v>0.674238</v>
+        <v>0.803677</v>
       </c>
       <c r="D126" t="n">
-        <v>0.931434</v>
+        <v>0.960307</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.69354</v>
+        <v>0.724015</v>
       </c>
       <c r="C127" t="n">
-        <v>0.674581</v>
+        <v>0.804346</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9290389999999999</v>
+        <v>0.9606980000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.692389</v>
+        <v>0.7242459999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6732939999999999</v>
+        <v>0.806017</v>
       </c>
       <c r="D128" t="n">
-        <v>0.930467</v>
+        <v>0.961507</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.693684</v>
+        <v>0.723896</v>
       </c>
       <c r="C129" t="n">
-        <v>0.673937</v>
+        <v>0.806575</v>
       </c>
       <c r="D129" t="n">
-        <v>0.932436</v>
+        <v>0.9631189999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.69421</v>
+        <v>0.727038</v>
       </c>
       <c r="C130" t="n">
-        <v>0.677598</v>
+        <v>0.810011</v>
       </c>
       <c r="D130" t="n">
-        <v>0.931525</v>
+        <v>0.963809</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.697118</v>
+        <v>0.7288289999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.67783</v>
+        <v>0.812257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.931566</v>
+        <v>0.966255</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.699989</v>
+        <v>0.73126</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6799500000000001</v>
+        <v>0.81542</v>
       </c>
       <c r="D132" t="n">
-        <v>0.933573</v>
+        <v>0.97019</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.703224</v>
+        <v>0.734559</v>
       </c>
       <c r="C133" t="n">
-        <v>0.681369</v>
+        <v>0.818327</v>
       </c>
       <c r="D133" t="n">
-        <v>0.936712</v>
+        <v>0.971012</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7047369999999999</v>
+        <v>0.740171</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6868300000000001</v>
+        <v>0.823447</v>
       </c>
       <c r="D134" t="n">
-        <v>0.941933</v>
+        <v>0.97395</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.71268</v>
+        <v>0.748065</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6895559999999999</v>
+        <v>0.82951</v>
       </c>
       <c r="D135" t="n">
-        <v>0.944566</v>
+        <v>0.980268</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.719434</v>
+        <v>0.756093</v>
       </c>
       <c r="C136" t="n">
-        <v>0.695846</v>
+        <v>0.836141</v>
       </c>
       <c r="D136" t="n">
-        <v>0.946284</v>
+        <v>0.9814929999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.730243</v>
+        <v>0.766092</v>
       </c>
       <c r="C137" t="n">
-        <v>0.703714</v>
+        <v>0.844683</v>
       </c>
       <c r="D137" t="n">
-        <v>1.14279</v>
+        <v>1.15958</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.82766</v>
+        <v>0.849952</v>
       </c>
       <c r="C138" t="n">
-        <v>0.802529</v>
+        <v>0.8910439999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>1.14199</v>
+        <v>1.15932</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.828488</v>
+        <v>0.850206</v>
       </c>
       <c r="C139" t="n">
-        <v>0.803607</v>
+        <v>0.891493</v>
       </c>
       <c r="D139" t="n">
-        <v>1.14262</v>
+        <v>1.15913</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.828873</v>
+        <v>0.851587</v>
       </c>
       <c r="C140" t="n">
-        <v>0.803526</v>
+        <v>0.891906</v>
       </c>
       <c r="D140" t="n">
-        <v>1.14405</v>
+        <v>1.16058</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8309260000000001</v>
+        <v>0.850346</v>
       </c>
       <c r="C141" t="n">
-        <v>0.804011</v>
+        <v>0.893625</v>
       </c>
       <c r="D141" t="n">
-        <v>1.14287</v>
+        <v>1.16133</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.83036</v>
+        <v>0.852532</v>
       </c>
       <c r="C142" t="n">
-        <v>0.804077</v>
+        <v>0.896137</v>
       </c>
       <c r="D142" t="n">
-        <v>1.14376</v>
+        <v>1.16239</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.831133</v>
+        <v>0.852391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.80483</v>
+        <v>0.896964</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14609</v>
+        <v>1.16269</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115315</v>
+        <v>0.11534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143511</v>
+        <v>0.143826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155305</v>
+        <v>0.155479</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1162</v>
+        <v>0.116568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143809</v>
+        <v>0.143865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155781</v>
+        <v>0.155752</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115819</v>
+        <v>0.116537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.143727</v>
+        <v>0.144157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156197</v>
+        <v>0.156379</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116894</v>
+        <v>0.116442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144745</v>
+        <v>0.144598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15713</v>
+        <v>0.156832</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117136</v>
+        <v>0.118626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144771</v>
+        <v>0.145948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157685</v>
+        <v>0.15798</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117025</v>
+        <v>0.119329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.145742</v>
+        <v>0.14659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159042</v>
+        <v>0.159742</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11948</v>
+        <v>0.121587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147498</v>
+        <v>0.148129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16178</v>
+        <v>0.161768</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12303</v>
+        <v>0.123439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150448</v>
+        <v>0.151021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.15804</v>
+        <v>0.156964</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122802</v>
+        <v>0.122493</v>
       </c>
       <c r="C10" t="n">
-        <v>0.148843</v>
+        <v>0.150763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.156743</v>
+        <v>0.156517</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123122</v>
+        <v>0.12137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.149761</v>
+        <v>0.151028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157964</v>
+        <v>0.157735</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122363</v>
+        <v>0.122483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150073</v>
+        <v>0.15195</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158713</v>
+        <v>0.157801</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122762</v>
+        <v>0.121571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.15069</v>
+        <v>0.150488</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158924</v>
+        <v>0.157948</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123558</v>
+        <v>0.122979</v>
       </c>
       <c r="C14" t="n">
-        <v>0.150801</v>
+        <v>0.150548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158872</v>
+        <v>0.158224</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123477</v>
+        <v>0.122274</v>
       </c>
       <c r="C15" t="n">
-        <v>0.15208</v>
+        <v>0.15145</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159481</v>
+        <v>0.159337</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125096</v>
+        <v>0.123425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.152374</v>
+        <v>0.151135</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16056</v>
+        <v>0.159231</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124982</v>
+        <v>0.123183</v>
       </c>
       <c r="C17" t="n">
-        <v>0.153172</v>
+        <v>0.151851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.161262</v>
+        <v>0.159793</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125799</v>
+        <v>0.124947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.153289</v>
+        <v>0.153636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161925</v>
+        <v>0.160364</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127732</v>
+        <v>0.124927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.154541</v>
+        <v>0.154502</v>
       </c>
       <c r="D19" t="n">
-        <v>0.163285</v>
+        <v>0.16154</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128085</v>
+        <v>0.125556</v>
       </c>
       <c r="C20" t="n">
-        <v>0.155471</v>
+        <v>0.156184</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164197</v>
+        <v>0.162748</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129177</v>
+        <v>0.127972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.157441</v>
+        <v>0.156578</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166837</v>
+        <v>0.165688</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132418</v>
+        <v>0.131421</v>
       </c>
       <c r="C22" t="n">
-        <v>0.160662</v>
+        <v>0.158417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.173338</v>
+        <v>0.17075</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140405</v>
+        <v>0.139453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165321</v>
+        <v>0.164327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.165516</v>
+        <v>0.167022</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135225</v>
+        <v>0.134032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.160545</v>
+        <v>0.160968</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167034</v>
+        <v>0.165526</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133345</v>
+        <v>0.132855</v>
       </c>
       <c r="C25" t="n">
-        <v>0.161643</v>
+        <v>0.163325</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166991</v>
+        <v>0.165662</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133975</v>
+        <v>0.134262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.161691</v>
+        <v>0.162331</v>
       </c>
       <c r="D26" t="n">
-        <v>0.166156</v>
+        <v>0.167283</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133189</v>
+        <v>0.133501</v>
       </c>
       <c r="C27" t="n">
-        <v>0.16274</v>
+        <v>0.162501</v>
       </c>
       <c r="D27" t="n">
-        <v>0.168089</v>
+        <v>0.16654</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134232</v>
+        <v>0.133489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.164104</v>
+        <v>0.162577</v>
       </c>
       <c r="D28" t="n">
-        <v>0.167627</v>
+        <v>0.166712</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134254</v>
+        <v>0.133971</v>
       </c>
       <c r="C29" t="n">
-        <v>0.162694</v>
+        <v>0.163834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.167732</v>
+        <v>0.166834</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134835</v>
+        <v>0.134339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.163124</v>
+        <v>0.164696</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168035</v>
+        <v>0.167607</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135845</v>
+        <v>0.135541</v>
       </c>
       <c r="C31" t="n">
-        <v>0.165319</v>
+        <v>0.164588</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168531</v>
+        <v>0.167994</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135621</v>
+        <v>0.135354</v>
       </c>
       <c r="C32" t="n">
-        <v>0.166313</v>
+        <v>0.164554</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169147</v>
+        <v>0.168423</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136716</v>
+        <v>0.136986</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167236</v>
+        <v>0.165782</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171392</v>
+        <v>0.170097</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138757</v>
+        <v>0.138328</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166484</v>
+        <v>0.166851</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17311</v>
+        <v>0.171632</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.141941</v>
+        <v>0.142442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16969</v>
+        <v>0.169357</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177665</v>
+        <v>0.175796</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147756</v>
+        <v>0.147345</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172426</v>
+        <v>0.172992</v>
       </c>
       <c r="D36" t="n">
-        <v>0.182654</v>
+        <v>0.18209</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155188</v>
+        <v>0.155778</v>
       </c>
       <c r="C37" t="n">
-        <v>0.179358</v>
+        <v>0.178975</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178188</v>
+        <v>0.176547</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145011</v>
+        <v>0.148305</v>
       </c>
       <c r="C38" t="n">
-        <v>0.173245</v>
+        <v>0.174984</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178515</v>
+        <v>0.180028</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147156</v>
+        <v>0.14472</v>
       </c>
       <c r="C39" t="n">
-        <v>0.173396</v>
+        <v>0.175803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179162</v>
+        <v>0.180961</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146726</v>
+        <v>0.147078</v>
       </c>
       <c r="C40" t="n">
-        <v>0.174279</v>
+        <v>0.176761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.179609</v>
+        <v>0.182852</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148882</v>
+        <v>0.146804</v>
       </c>
       <c r="C41" t="n">
-        <v>0.174027</v>
+        <v>0.176981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178587</v>
+        <v>0.182348</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145531</v>
+        <v>0.149455</v>
       </c>
       <c r="C42" t="n">
-        <v>0.174625</v>
+        <v>0.175975</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179792</v>
+        <v>0.182548</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149374</v>
+        <v>0.146187</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175309</v>
+        <v>0.178424</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179539</v>
+        <v>0.183424</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.14665</v>
+        <v>0.147385</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176234</v>
+        <v>0.177705</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180499</v>
+        <v>0.182486</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.149294</v>
+        <v>0.146465</v>
       </c>
       <c r="C45" t="n">
-        <v>0.177605</v>
+        <v>0.178894</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182498</v>
+        <v>0.184048</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149348</v>
+        <v>0.149738</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178816</v>
+        <v>0.180873</v>
       </c>
       <c r="D46" t="n">
-        <v>0.182002</v>
+        <v>0.184916</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150667</v>
+        <v>0.15054</v>
       </c>
       <c r="C47" t="n">
-        <v>0.179857</v>
+        <v>0.181573</v>
       </c>
       <c r="D47" t="n">
-        <v>0.183815</v>
+        <v>0.18545</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153063</v>
+        <v>0.154213</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180592</v>
+        <v>0.183158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186585</v>
+        <v>0.187644</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154167</v>
+        <v>0.158514</v>
       </c>
       <c r="C49" t="n">
-        <v>0.184036</v>
+        <v>0.18309</v>
       </c>
       <c r="D49" t="n">
-        <v>0.189087</v>
+        <v>0.19046</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160318</v>
+        <v>0.161865</v>
       </c>
       <c r="C50" t="n">
-        <v>0.187782</v>
+        <v>0.188401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195124</v>
+        <v>0.195405</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166984</v>
+        <v>0.167616</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193219</v>
+        <v>0.19269</v>
       </c>
       <c r="D51" t="n">
-        <v>0.195465</v>
+        <v>0.194229</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174519</v>
+        <v>0.174862</v>
       </c>
       <c r="C52" t="n">
-        <v>0.200346</v>
+        <v>0.198908</v>
       </c>
       <c r="D52" t="n">
-        <v>0.195904</v>
+        <v>0.195589</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1589</v>
+        <v>0.159212</v>
       </c>
       <c r="C53" t="n">
-        <v>0.186048</v>
+        <v>0.185344</v>
       </c>
       <c r="D53" t="n">
-        <v>0.195972</v>
+        <v>0.195617</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159426</v>
+        <v>0.159123</v>
       </c>
       <c r="C54" t="n">
-        <v>0.185987</v>
+        <v>0.186298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195299</v>
+        <v>0.194721</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160251</v>
+        <v>0.158226</v>
       </c>
       <c r="C55" t="n">
-        <v>0.186258</v>
+        <v>0.186431</v>
       </c>
       <c r="D55" t="n">
-        <v>0.196106</v>
+        <v>0.195395</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159896</v>
+        <v>0.160604</v>
       </c>
       <c r="C56" t="n">
-        <v>0.186856</v>
+        <v>0.186818</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196961</v>
+        <v>0.196254</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160568</v>
+        <v>0.160587</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187608</v>
+        <v>0.188398</v>
       </c>
       <c r="D57" t="n">
-        <v>0.196183</v>
+        <v>0.196865</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160658</v>
+        <v>0.161112</v>
       </c>
       <c r="C58" t="n">
-        <v>0.188234</v>
+        <v>0.188856</v>
       </c>
       <c r="D58" t="n">
-        <v>0.197756</v>
+        <v>0.1971</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161011</v>
+        <v>0.161643</v>
       </c>
       <c r="C59" t="n">
-        <v>0.19028</v>
+        <v>0.190624</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198395</v>
+        <v>0.198105</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162895</v>
+        <v>0.162902</v>
       </c>
       <c r="C60" t="n">
-        <v>0.191174</v>
+        <v>0.19145</v>
       </c>
       <c r="D60" t="n">
-        <v>0.199503</v>
+        <v>0.199988</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163991</v>
+        <v>0.164389</v>
       </c>
       <c r="C61" t="n">
-        <v>0.192485</v>
+        <v>0.192583</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200468</v>
+        <v>0.200572</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166253</v>
+        <v>0.16766</v>
       </c>
       <c r="C62" t="n">
-        <v>0.194246</v>
+        <v>0.193923</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202871</v>
+        <v>0.202747</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168681</v>
+        <v>0.170578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196795</v>
+        <v>0.197035</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206265</v>
+        <v>0.206267</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173224</v>
+        <v>0.173577</v>
       </c>
       <c r="C64" t="n">
-        <v>0.199619</v>
+        <v>0.200121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210374</v>
+        <v>0.210676</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1807</v>
+        <v>0.180717</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204301</v>
+        <v>0.204007</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217073</v>
+        <v>0.21676</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186232</v>
+        <v>0.1869</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210979</v>
+        <v>0.211326</v>
       </c>
       <c r="D66" t="n">
-        <v>0.210698</v>
+        <v>0.209165</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179093</v>
+        <v>0.176484</v>
       </c>
       <c r="C67" t="n">
-        <v>0.203234</v>
+        <v>0.200953</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209362</v>
+        <v>0.210723</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179431</v>
+        <v>0.17833</v>
       </c>
       <c r="C68" t="n">
-        <v>0.208417</v>
+        <v>0.205304</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212805</v>
+        <v>0.209667</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.18382</v>
+        <v>0.180195</v>
       </c>
       <c r="C69" t="n">
-        <v>0.205741</v>
+        <v>0.204337</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211057</v>
+        <v>0.210759</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183324</v>
+        <v>0.179004</v>
       </c>
       <c r="C70" t="n">
-        <v>0.205924</v>
+        <v>0.204366</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21148</v>
+        <v>0.211071</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185073</v>
+        <v>0.179502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.207677</v>
+        <v>0.205943</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21117</v>
+        <v>0.212033</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180302</v>
+        <v>0.183525</v>
       </c>
       <c r="C72" t="n">
-        <v>0.206595</v>
+        <v>0.206868</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211304</v>
+        <v>0.212452</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.187669</v>
+        <v>0.180215</v>
       </c>
       <c r="C73" t="n">
-        <v>0.208958</v>
+        <v>0.207325</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213731</v>
+        <v>0.213036</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186885</v>
+        <v>0.186161</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210267</v>
+        <v>0.211109</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214795</v>
+        <v>0.215076</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.186183</v>
+        <v>0.186536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.210733</v>
+        <v>0.213189</v>
       </c>
       <c r="D75" t="n">
-        <v>0.215544</v>
+        <v>0.215899</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18937</v>
+        <v>0.193366</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213419</v>
+        <v>0.211237</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217981</v>
+        <v>0.216574</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196586</v>
+        <v>0.191914</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215133</v>
+        <v>0.214385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220572</v>
+        <v>0.220184</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193186</v>
+        <v>0.194375</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217212</v>
+        <v>0.215876</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223936</v>
+        <v>0.223561</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197995</v>
+        <v>0.195755</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221241</v>
+        <v>0.221093</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230646</v>
+        <v>0.230224</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205636</v>
+        <v>0.207179</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227817</v>
+        <v>0.225979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.307642</v>
+        <v>0.311931</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.343765</v>
+        <v>0.338987</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347446</v>
+        <v>0.353836</v>
       </c>
       <c r="D81" t="n">
-        <v>0.306724</v>
+        <v>0.305783</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342529</v>
+        <v>0.340926</v>
       </c>
       <c r="C82" t="n">
-        <v>0.351015</v>
+        <v>0.345741</v>
       </c>
       <c r="D82" t="n">
-        <v>0.308686</v>
+        <v>0.305782</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343726</v>
+        <v>0.340625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.345196</v>
+        <v>0.347803</v>
       </c>
       <c r="D83" t="n">
-        <v>0.309537</v>
+        <v>0.307165</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.344253</v>
+        <v>0.343984</v>
       </c>
       <c r="C84" t="n">
-        <v>0.343204</v>
+        <v>0.347031</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312094</v>
+        <v>0.3092</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.341558</v>
+        <v>0.346049</v>
       </c>
       <c r="C85" t="n">
-        <v>0.348015</v>
+        <v>0.346781</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307428</v>
+        <v>0.309152</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.350678</v>
+        <v>0.345868</v>
       </c>
       <c r="C86" t="n">
-        <v>0.34242</v>
+        <v>0.341653</v>
       </c>
       <c r="D86" t="n">
-        <v>0.309197</v>
+        <v>0.306515</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347913</v>
+        <v>0.348498</v>
       </c>
       <c r="C87" t="n">
-        <v>0.345025</v>
+        <v>0.342552</v>
       </c>
       <c r="D87" t="n">
-        <v>0.30811</v>
+        <v>0.303261</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348833</v>
+        <v>0.350316</v>
       </c>
       <c r="C88" t="n">
-        <v>0.345879</v>
+        <v>0.337631</v>
       </c>
       <c r="D88" t="n">
-        <v>0.305748</v>
+        <v>0.306168</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350522</v>
+        <v>0.348908</v>
       </c>
       <c r="C89" t="n">
-        <v>0.342408</v>
+        <v>0.34076</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305199</v>
+        <v>0.305325</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.349538</v>
+        <v>0.349357</v>
       </c>
       <c r="C90" t="n">
-        <v>0.343744</v>
+        <v>0.340545</v>
       </c>
       <c r="D90" t="n">
-        <v>0.308357</v>
+        <v>0.302674</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.349489</v>
+        <v>0.35283</v>
       </c>
       <c r="C91" t="n">
-        <v>0.336677</v>
+        <v>0.338149</v>
       </c>
       <c r="D91" t="n">
-        <v>0.301269</v>
+        <v>0.302909</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353775</v>
+        <v>0.353301</v>
       </c>
       <c r="C92" t="n">
-        <v>0.338754</v>
+        <v>0.340889</v>
       </c>
       <c r="D92" t="n">
-        <v>0.304474</v>
+        <v>0.303194</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35708</v>
+        <v>0.361513</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340467</v>
+        <v>0.34459</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307283</v>
+        <v>0.307086</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362867</v>
+        <v>0.36377</v>
       </c>
       <c r="C94" t="n">
-        <v>0.345887</v>
+        <v>0.344329</v>
       </c>
       <c r="D94" t="n">
-        <v>0.520446</v>
+        <v>0.523096</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.49668</v>
+        <v>0.496939</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5653589999999999</v>
+        <v>0.564817</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5206460000000001</v>
+        <v>0.52021</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496572</v>
+        <v>0.497585</v>
       </c>
       <c r="C96" t="n">
-        <v>0.563694</v>
+        <v>0.563679</v>
       </c>
       <c r="D96" t="n">
-        <v>0.519823</v>
+        <v>0.517741</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497675</v>
+        <v>0.49687</v>
       </c>
       <c r="C97" t="n">
-        <v>0.561743</v>
+        <v>0.562452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.518306</v>
+        <v>0.517524</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.498349</v>
+        <v>0.497948</v>
       </c>
       <c r="C98" t="n">
-        <v>0.561304</v>
+        <v>0.561981</v>
       </c>
       <c r="D98" t="n">
-        <v>0.516549</v>
+        <v>0.515817</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.49818</v>
+        <v>0.49784</v>
       </c>
       <c r="C99" t="n">
-        <v>0.562551</v>
+        <v>0.56109</v>
       </c>
       <c r="D99" t="n">
-        <v>0.516464</v>
+        <v>0.518196</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498683</v>
+        <v>0.498926</v>
       </c>
       <c r="C100" t="n">
-        <v>0.55997</v>
+        <v>0.560178</v>
       </c>
       <c r="D100" t="n">
-        <v>0.515203</v>
+        <v>0.514731</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.499291</v>
+        <v>0.498547</v>
       </c>
       <c r="C101" t="n">
-        <v>0.559078</v>
+        <v>0.559741</v>
       </c>
       <c r="D101" t="n">
-        <v>0.514243</v>
+        <v>0.514545</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.500182</v>
+        <v>0.499634</v>
       </c>
       <c r="C102" t="n">
-        <v>0.559236</v>
+        <v>0.5609420000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.514465</v>
+        <v>0.515489</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.501434</v>
+        <v>0.501574</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5610270000000001</v>
+        <v>0.559972</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514621</v>
+        <v>0.515033</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5029670000000001</v>
+        <v>0.5027239999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.559135</v>
+        <v>0.562194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.515796</v>
+        <v>0.517239</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.505568</v>
+        <v>0.505339</v>
       </c>
       <c r="C105" t="n">
-        <v>0.560893</v>
+        <v>0.5608</v>
       </c>
       <c r="D105" t="n">
-        <v>0.518478</v>
+        <v>0.517385</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.509416</v>
+        <v>0.509175</v>
       </c>
       <c r="C106" t="n">
-        <v>0.564246</v>
+        <v>0.5626949999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.521188</v>
+        <v>0.520925</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51389</v>
+        <v>0.513837</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564362</v>
+        <v>0.56577</v>
       </c>
       <c r="D107" t="n">
-        <v>0.522926</v>
+        <v>0.524656</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.522016</v>
+        <v>0.5213719999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.571949</v>
+        <v>0.569926</v>
       </c>
       <c r="D108" t="n">
-        <v>0.728023</v>
+        <v>0.7292920000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.533433</v>
+        <v>0.531348</v>
       </c>
       <c r="C109" t="n">
-        <v>0.579526</v>
+        <v>0.577522</v>
       </c>
       <c r="D109" t="n">
-        <v>0.730024</v>
+        <v>0.7281029999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.579626</v>
+        <v>0.57938</v>
       </c>
       <c r="C110" t="n">
-        <v>0.691318</v>
+        <v>0.692099</v>
       </c>
       <c r="D110" t="n">
-        <v>0.731233</v>
+        <v>0.730519</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.578306</v>
+        <v>0.580322</v>
       </c>
       <c r="C111" t="n">
-        <v>0.690937</v>
+        <v>0.690591</v>
       </c>
       <c r="D111" t="n">
-        <v>0.728542</v>
+        <v>0.729621</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581164</v>
+        <v>0.579735</v>
       </c>
       <c r="C112" t="n">
-        <v>0.691361</v>
+        <v>0.691022</v>
       </c>
       <c r="D112" t="n">
-        <v>0.729912</v>
+        <v>0.731445</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.58164</v>
+        <v>0.579503</v>
       </c>
       <c r="C113" t="n">
-        <v>0.691376</v>
+        <v>0.691195</v>
       </c>
       <c r="D113" t="n">
-        <v>0.729809</v>
+        <v>0.730889</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582575</v>
+        <v>0.581184</v>
       </c>
       <c r="C114" t="n">
-        <v>0.691999</v>
+        <v>0.6913859999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.733811</v>
+        <v>0.729422</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.58344</v>
+        <v>0.583477</v>
       </c>
       <c r="C115" t="n">
-        <v>0.693215</v>
+        <v>0.692875</v>
       </c>
       <c r="D115" t="n">
-        <v>0.731542</v>
+        <v>0.731626</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585468</v>
+        <v>0.583535</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694358</v>
+        <v>0.693987</v>
       </c>
       <c r="D116" t="n">
-        <v>0.732102</v>
+        <v>0.731959</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.585865</v>
+        <v>0.585321</v>
       </c>
       <c r="C117" t="n">
-        <v>0.695348</v>
+        <v>0.696379</v>
       </c>
       <c r="D117" t="n">
-        <v>0.733733</v>
+        <v>0.732923</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5903040000000001</v>
+        <v>0.587361</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6981889999999999</v>
+        <v>0.697915</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7349909999999999</v>
+        <v>0.734856</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.592477</v>
+        <v>0.592011</v>
       </c>
       <c r="C119" t="n">
-        <v>0.69989</v>
+        <v>0.699356</v>
       </c>
       <c r="D119" t="n">
-        <v>0.738384</v>
+        <v>0.735646</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597033</v>
+        <v>0.596705</v>
       </c>
       <c r="C120" t="n">
-        <v>0.704004</v>
+        <v>0.701712</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741266</v>
+        <v>0.741356</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.602602</v>
+        <v>0.605262</v>
       </c>
       <c r="C121" t="n">
-        <v>0.706817</v>
+        <v>0.708133</v>
       </c>
       <c r="D121" t="n">
-        <v>0.745093</v>
+        <v>0.745766</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.610475</v>
+        <v>0.611592</v>
       </c>
       <c r="C122" t="n">
-        <v>0.714948</v>
+        <v>0.712355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.750528</v>
+        <v>0.752733</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6244</v>
+        <v>0.62282</v>
       </c>
       <c r="C123" t="n">
-        <v>0.721395</v>
+        <v>0.721254</v>
       </c>
       <c r="D123" t="n">
-        <v>0.960652</v>
+        <v>0.9605320000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7233270000000001</v>
+        <v>0.724257</v>
       </c>
       <c r="C124" t="n">
-        <v>0.801143</v>
+        <v>0.800475</v>
       </c>
       <c r="D124" t="n">
-        <v>0.959163</v>
+        <v>0.961016</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.723478</v>
+        <v>0.721787</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8023979999999999</v>
+        <v>0.80191</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9608950000000001</v>
+        <v>0.9595129999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.723368</v>
+        <v>0.724491</v>
       </c>
       <c r="C126" t="n">
-        <v>0.803677</v>
+        <v>0.802654</v>
       </c>
       <c r="D126" t="n">
-        <v>0.960307</v>
+        <v>0.961413</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.724015</v>
+        <v>0.722622</v>
       </c>
       <c r="C127" t="n">
-        <v>0.804346</v>
+        <v>0.805334</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9606980000000001</v>
+        <v>0.95923</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7242459999999999</v>
+        <v>0.724745</v>
       </c>
       <c r="C128" t="n">
-        <v>0.806017</v>
+        <v>0.807123</v>
       </c>
       <c r="D128" t="n">
-        <v>0.961507</v>
+        <v>0.961768</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.723896</v>
+        <v>0.723867</v>
       </c>
       <c r="C129" t="n">
-        <v>0.806575</v>
+        <v>0.807122</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9631189999999999</v>
+        <v>0.963597</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.727038</v>
+        <v>0.72825</v>
       </c>
       <c r="C130" t="n">
-        <v>0.810011</v>
+        <v>0.810352</v>
       </c>
       <c r="D130" t="n">
-        <v>0.963809</v>
+        <v>0.966485</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7288289999999999</v>
+        <v>0.729621</v>
       </c>
       <c r="C131" t="n">
-        <v>0.812257</v>
+        <v>0.812959</v>
       </c>
       <c r="D131" t="n">
-        <v>0.966255</v>
+        <v>0.969438</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.73126</v>
+        <v>0.731887</v>
       </c>
       <c r="C132" t="n">
-        <v>0.81542</v>
+        <v>0.815723</v>
       </c>
       <c r="D132" t="n">
-        <v>0.97019</v>
+        <v>0.972641</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734559</v>
+        <v>0.738642</v>
       </c>
       <c r="C133" t="n">
-        <v>0.818327</v>
+        <v>0.818831</v>
       </c>
       <c r="D133" t="n">
-        <v>0.971012</v>
+        <v>0.9733039999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.740171</v>
+        <v>0.740537</v>
       </c>
       <c r="C134" t="n">
-        <v>0.823447</v>
+        <v>0.8221889999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.97395</v>
+        <v>0.975115</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.748065</v>
+        <v>0.747843</v>
       </c>
       <c r="C135" t="n">
-        <v>0.82951</v>
+        <v>0.82858</v>
       </c>
       <c r="D135" t="n">
-        <v>0.980268</v>
+        <v>0.980145</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.756093</v>
+        <v>0.755141</v>
       </c>
       <c r="C136" t="n">
-        <v>0.836141</v>
+        <v>0.837266</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9814929999999999</v>
+        <v>0.984677</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.766092</v>
+        <v>0.765701</v>
       </c>
       <c r="C137" t="n">
-        <v>0.844683</v>
+        <v>0.846617</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15958</v>
+        <v>1.16053</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.849952</v>
+        <v>0.849124</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8910439999999999</v>
+        <v>0.8898239999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>1.15932</v>
+        <v>1.15903</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.850206</v>
+        <v>0.849491</v>
       </c>
       <c r="C139" t="n">
-        <v>0.891493</v>
+        <v>0.8908779999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>1.15913</v>
+        <v>1.16128</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.851587</v>
+        <v>0.85134</v>
       </c>
       <c r="C140" t="n">
-        <v>0.891906</v>
+        <v>0.892415</v>
       </c>
       <c r="D140" t="n">
-        <v>1.16058</v>
+        <v>1.16002</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.850346</v>
+        <v>0.851347</v>
       </c>
       <c r="C141" t="n">
-        <v>0.893625</v>
+        <v>0.894631</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16133</v>
+        <v>1.16182</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.852532</v>
+        <v>0.8519370000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.896137</v>
+        <v>0.895983</v>
       </c>
       <c r="D142" t="n">
-        <v>1.16239</v>
+        <v>1.16328</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.852391</v>
+        <v>0.853112</v>
       </c>
       <c r="C143" t="n">
-        <v>0.896964</v>
+        <v>0.896378</v>
       </c>
       <c r="D143" t="n">
-        <v>1.16269</v>
+        <v>1.16345</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11534</v>
+        <v>0.117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143826</v>
+        <v>0.144266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155479</v>
+        <v>0.155746</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116568</v>
+        <v>0.116388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143865</v>
+        <v>0.144913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155752</v>
+        <v>0.156336</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116537</v>
+        <v>0.117583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.144157</v>
+        <v>0.145812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156379</v>
+        <v>0.157223</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116442</v>
+        <v>0.116247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144598</v>
+        <v>0.145225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156832</v>
+        <v>0.156863</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118626</v>
+        <v>0.11877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.145948</v>
+        <v>0.146661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15798</v>
+        <v>0.158383</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119329</v>
+        <v>0.119922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.14659</v>
+        <v>0.147585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159742</v>
+        <v>0.160118</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.121587</v>
+        <v>0.122495</v>
       </c>
       <c r="C8" t="n">
-        <v>0.148129</v>
+        <v>0.149117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161768</v>
+        <v>0.162749</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123439</v>
+        <v>0.124829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151021</v>
+        <v>0.151532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156964</v>
+        <v>0.157513</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122493</v>
+        <v>0.122969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.150763</v>
+        <v>0.148798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.156517</v>
+        <v>0.157752</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12137</v>
+        <v>0.122217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.151028</v>
+        <v>0.149246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157735</v>
+        <v>0.158292</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122483</v>
+        <v>0.12357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15195</v>
+        <v>0.150081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157801</v>
+        <v>0.157908</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121571</v>
+        <v>0.123128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.150488</v>
+        <v>0.150795</v>
       </c>
       <c r="D13" t="n">
-        <v>0.157948</v>
+        <v>0.158687</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122979</v>
+        <v>0.12484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.150548</v>
+        <v>0.15088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158224</v>
+        <v>0.159031</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122274</v>
+        <v>0.124358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.15145</v>
+        <v>0.151904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159337</v>
+        <v>0.159896</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123425</v>
+        <v>0.12469</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151135</v>
+        <v>0.152543</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159231</v>
+        <v>0.160085</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123183</v>
+        <v>0.12524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.151851</v>
+        <v>0.152393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.159793</v>
+        <v>0.160856</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124947</v>
+        <v>0.127041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.153636</v>
+        <v>0.153332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.160364</v>
+        <v>0.161502</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124927</v>
+        <v>0.127884</v>
       </c>
       <c r="C19" t="n">
-        <v>0.154502</v>
+        <v>0.154366</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16154</v>
+        <v>0.162592</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125556</v>
+        <v>0.12858</v>
       </c>
       <c r="C20" t="n">
-        <v>0.156184</v>
+        <v>0.157562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162748</v>
+        <v>0.164181</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127972</v>
+        <v>0.12999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.156578</v>
+        <v>0.157336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165688</v>
+        <v>0.166656</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131421</v>
+        <v>0.133786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.158417</v>
+        <v>0.160546</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17075</v>
+        <v>0.172979</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139453</v>
+        <v>0.141202</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164327</v>
+        <v>0.164685</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167022</v>
+        <v>0.164752</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134032</v>
+        <v>0.132639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.160968</v>
+        <v>0.160482</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165526</v>
+        <v>0.165021</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132855</v>
+        <v>0.13375</v>
       </c>
       <c r="C25" t="n">
-        <v>0.163325</v>
+        <v>0.160947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165662</v>
+        <v>0.165563</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134262</v>
+        <v>0.133871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.162331</v>
+        <v>0.16152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167283</v>
+        <v>0.16575</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133501</v>
+        <v>0.133636</v>
       </c>
       <c r="C27" t="n">
-        <v>0.162501</v>
+        <v>0.161785</v>
       </c>
       <c r="D27" t="n">
-        <v>0.16654</v>
+        <v>0.166424</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133489</v>
+        <v>0.133452</v>
       </c>
       <c r="C28" t="n">
-        <v>0.162577</v>
+        <v>0.162055</v>
       </c>
       <c r="D28" t="n">
-        <v>0.166712</v>
+        <v>0.166643</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133971</v>
+        <v>0.134521</v>
       </c>
       <c r="C29" t="n">
-        <v>0.163834</v>
+        <v>0.162473</v>
       </c>
       <c r="D29" t="n">
-        <v>0.166834</v>
+        <v>0.166423</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134339</v>
+        <v>0.134186</v>
       </c>
       <c r="C30" t="n">
-        <v>0.164696</v>
+        <v>0.162464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.167607</v>
+        <v>0.166833</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135541</v>
+        <v>0.135306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.164588</v>
+        <v>0.163138</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167994</v>
+        <v>0.167515</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135354</v>
+        <v>0.135674</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164554</v>
+        <v>0.164173</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168423</v>
+        <v>0.168591</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136986</v>
+        <v>0.137487</v>
       </c>
       <c r="C33" t="n">
-        <v>0.165782</v>
+        <v>0.165341</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170097</v>
+        <v>0.169556</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138328</v>
+        <v>0.138214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166851</v>
+        <v>0.168159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171632</v>
+        <v>0.171971</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142442</v>
+        <v>0.142428</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169357</v>
+        <v>0.168315</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175796</v>
+        <v>0.175578</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147345</v>
+        <v>0.147745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172992</v>
+        <v>0.172911</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18209</v>
+        <v>0.183436</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155778</v>
+        <v>0.15442</v>
       </c>
       <c r="C37" t="n">
-        <v>0.178975</v>
+        <v>0.177361</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176547</v>
+        <v>0.178468</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148305</v>
+        <v>0.14591</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174984</v>
+        <v>0.17296</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180028</v>
+        <v>0.179705</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14472</v>
+        <v>0.146145</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175803</v>
+        <v>0.17386</v>
       </c>
       <c r="D39" t="n">
-        <v>0.180961</v>
+        <v>0.179066</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147078</v>
+        <v>0.145647</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176761</v>
+        <v>0.174928</v>
       </c>
       <c r="D40" t="n">
-        <v>0.182852</v>
+        <v>0.181564</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146804</v>
+        <v>0.146218</v>
       </c>
       <c r="C41" t="n">
-        <v>0.176981</v>
+        <v>0.175199</v>
       </c>
       <c r="D41" t="n">
-        <v>0.182348</v>
+        <v>0.180057</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149455</v>
+        <v>0.147196</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175975</v>
+        <v>0.175201</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182548</v>
+        <v>0.181314</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146187</v>
+        <v>0.148726</v>
       </c>
       <c r="C43" t="n">
-        <v>0.178424</v>
+        <v>0.175372</v>
       </c>
       <c r="D43" t="n">
-        <v>0.183424</v>
+        <v>0.179338</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147385</v>
+        <v>0.146895</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177705</v>
+        <v>0.176525</v>
       </c>
       <c r="D44" t="n">
-        <v>0.182486</v>
+        <v>0.182217</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.146465</v>
+        <v>0.150444</v>
       </c>
       <c r="C45" t="n">
-        <v>0.178894</v>
+        <v>0.176956</v>
       </c>
       <c r="D45" t="n">
-        <v>0.184048</v>
+        <v>0.180765</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149738</v>
+        <v>0.148804</v>
       </c>
       <c r="C46" t="n">
-        <v>0.180873</v>
+        <v>0.177671</v>
       </c>
       <c r="D46" t="n">
-        <v>0.184916</v>
+        <v>0.182258</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15054</v>
+        <v>0.151354</v>
       </c>
       <c r="C47" t="n">
-        <v>0.181573</v>
+        <v>0.178503</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18545</v>
+        <v>0.183872</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154213</v>
+        <v>0.154318</v>
       </c>
       <c r="C48" t="n">
-        <v>0.183158</v>
+        <v>0.180453</v>
       </c>
       <c r="D48" t="n">
-        <v>0.187644</v>
+        <v>0.186366</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.158514</v>
+        <v>0.156181</v>
       </c>
       <c r="C49" t="n">
-        <v>0.18309</v>
+        <v>0.18241</v>
       </c>
       <c r="D49" t="n">
-        <v>0.19046</v>
+        <v>0.189241</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161865</v>
+        <v>0.158194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188401</v>
+        <v>0.185134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195405</v>
+        <v>0.193666</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167616</v>
+        <v>0.167534</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19269</v>
+        <v>0.190961</v>
       </c>
       <c r="D51" t="n">
-        <v>0.194229</v>
+        <v>0.193546</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174862</v>
+        <v>0.176178</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198908</v>
+        <v>0.197591</v>
       </c>
       <c r="D52" t="n">
-        <v>0.195589</v>
+        <v>0.194173</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159212</v>
+        <v>0.160288</v>
       </c>
       <c r="C53" t="n">
-        <v>0.185344</v>
+        <v>0.184625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.195617</v>
+        <v>0.193987</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159123</v>
+        <v>0.159256</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186298</v>
+        <v>0.184414</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194721</v>
+        <v>0.194999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.158226</v>
+        <v>0.160864</v>
       </c>
       <c r="C55" t="n">
-        <v>0.186431</v>
+        <v>0.185806</v>
       </c>
       <c r="D55" t="n">
-        <v>0.195395</v>
+        <v>0.195168</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160604</v>
+        <v>0.160873</v>
       </c>
       <c r="C56" t="n">
-        <v>0.186818</v>
+        <v>0.186945</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196254</v>
+        <v>0.196113</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160587</v>
+        <v>0.160734</v>
       </c>
       <c r="C57" t="n">
-        <v>0.188398</v>
+        <v>0.187727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.196865</v>
+        <v>0.196913</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161112</v>
+        <v>0.162583</v>
       </c>
       <c r="C58" t="n">
-        <v>0.188856</v>
+        <v>0.188243</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1971</v>
+        <v>0.197915</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161643</v>
+        <v>0.161917</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190624</v>
+        <v>0.188843</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198105</v>
+        <v>0.198081</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162902</v>
+        <v>0.163946</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19145</v>
+        <v>0.189919</v>
       </c>
       <c r="D60" t="n">
-        <v>0.199988</v>
+        <v>0.198865</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164389</v>
+        <v>0.163513</v>
       </c>
       <c r="C61" t="n">
-        <v>0.192583</v>
+        <v>0.191828</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200572</v>
+        <v>0.20055</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16766</v>
+        <v>0.165915</v>
       </c>
       <c r="C62" t="n">
-        <v>0.193923</v>
+        <v>0.193608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202747</v>
+        <v>0.203457</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170578</v>
+        <v>0.169231</v>
       </c>
       <c r="C63" t="n">
-        <v>0.197035</v>
+        <v>0.195683</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206267</v>
+        <v>0.205909</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173577</v>
+        <v>0.174918</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200121</v>
+        <v>0.198889</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210676</v>
+        <v>0.210652</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180717</v>
+        <v>0.182077</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204007</v>
+        <v>0.203329</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21676</v>
+        <v>0.217771</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1869</v>
+        <v>0.188956</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211326</v>
+        <v>0.20936</v>
       </c>
       <c r="D66" t="n">
-        <v>0.209165</v>
+        <v>0.210463</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.176484</v>
+        <v>0.18282</v>
       </c>
       <c r="C67" t="n">
-        <v>0.200953</v>
+        <v>0.205418</v>
       </c>
       <c r="D67" t="n">
-        <v>0.210723</v>
+        <v>0.209458</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.17833</v>
+        <v>0.183187</v>
       </c>
       <c r="C68" t="n">
-        <v>0.205304</v>
+        <v>0.204174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.209667</v>
+        <v>0.210753</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180195</v>
+        <v>0.185161</v>
       </c>
       <c r="C69" t="n">
-        <v>0.204337</v>
+        <v>0.206351</v>
       </c>
       <c r="D69" t="n">
-        <v>0.210759</v>
+        <v>0.211984</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179004</v>
+        <v>0.186369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204366</v>
+        <v>0.209632</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211071</v>
+        <v>0.214634</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.179502</v>
+        <v>0.183633</v>
       </c>
       <c r="C71" t="n">
-        <v>0.205943</v>
+        <v>0.203546</v>
       </c>
       <c r="D71" t="n">
-        <v>0.212033</v>
+        <v>0.211244</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183525</v>
+        <v>0.179922</v>
       </c>
       <c r="C72" t="n">
-        <v>0.206868</v>
+        <v>0.20698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212452</v>
+        <v>0.211176</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180215</v>
+        <v>0.180139</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207325</v>
+        <v>0.207393</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213036</v>
+        <v>0.213466</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186161</v>
+        <v>0.183567</v>
       </c>
       <c r="C74" t="n">
-        <v>0.211109</v>
+        <v>0.209079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215076</v>
+        <v>0.214021</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.186536</v>
+        <v>0.187007</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213189</v>
+        <v>0.211664</v>
       </c>
       <c r="D75" t="n">
-        <v>0.215899</v>
+        <v>0.216471</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193366</v>
+        <v>0.187849</v>
       </c>
       <c r="C76" t="n">
-        <v>0.211237</v>
+        <v>0.212144</v>
       </c>
       <c r="D76" t="n">
-        <v>0.216574</v>
+        <v>0.217491</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191914</v>
+        <v>0.194327</v>
       </c>
       <c r="C77" t="n">
-        <v>0.214385</v>
+        <v>0.214465</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220184</v>
+        <v>0.220584</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194375</v>
+        <v>0.194772</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215876</v>
+        <v>0.216875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223561</v>
+        <v>0.224283</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.195755</v>
+        <v>0.199092</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221093</v>
+        <v>0.218118</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230224</v>
+        <v>0.230343</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.207179</v>
+        <v>0.205141</v>
       </c>
       <c r="C80" t="n">
-        <v>0.225979</v>
+        <v>0.223641</v>
       </c>
       <c r="D80" t="n">
-        <v>0.311931</v>
+        <v>0.30446</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338987</v>
+        <v>0.338621</v>
       </c>
       <c r="C81" t="n">
-        <v>0.353836</v>
+        <v>0.346588</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305783</v>
+        <v>0.305177</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340926</v>
+        <v>0.339548</v>
       </c>
       <c r="C82" t="n">
-        <v>0.345741</v>
+        <v>0.347513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.305782</v>
+        <v>0.304811</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340625</v>
+        <v>0.340407</v>
       </c>
       <c r="C83" t="n">
-        <v>0.347803</v>
+        <v>0.344069</v>
       </c>
       <c r="D83" t="n">
-        <v>0.307165</v>
+        <v>0.305126</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343984</v>
+        <v>0.342858</v>
       </c>
       <c r="C84" t="n">
-        <v>0.347031</v>
+        <v>0.342859</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3092</v>
+        <v>0.304557</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346049</v>
+        <v>0.343751</v>
       </c>
       <c r="C85" t="n">
-        <v>0.346781</v>
+        <v>0.340547</v>
       </c>
       <c r="D85" t="n">
-        <v>0.309152</v>
+        <v>0.304634</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345868</v>
+        <v>0.343784</v>
       </c>
       <c r="C86" t="n">
-        <v>0.341653</v>
+        <v>0.341569</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306515</v>
+        <v>0.303428</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348498</v>
+        <v>0.345238</v>
       </c>
       <c r="C87" t="n">
-        <v>0.342552</v>
+        <v>0.339972</v>
       </c>
       <c r="D87" t="n">
-        <v>0.303261</v>
+        <v>0.305202</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.350316</v>
+        <v>0.343221</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337631</v>
+        <v>0.338293</v>
       </c>
       <c r="D88" t="n">
-        <v>0.306168</v>
+        <v>0.301354</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348908</v>
+        <v>0.347894</v>
       </c>
       <c r="C89" t="n">
-        <v>0.34076</v>
+        <v>0.334111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305325</v>
+        <v>0.304407</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.349357</v>
+        <v>0.351281</v>
       </c>
       <c r="C90" t="n">
-        <v>0.340545</v>
+        <v>0.337072</v>
       </c>
       <c r="D90" t="n">
-        <v>0.302674</v>
+        <v>0.299775</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.35283</v>
+        <v>0.351768</v>
       </c>
       <c r="C91" t="n">
-        <v>0.338149</v>
+        <v>0.340485</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302909</v>
+        <v>0.298812</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353301</v>
+        <v>0.356837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.340889</v>
+        <v>0.33293</v>
       </c>
       <c r="D92" t="n">
-        <v>0.303194</v>
+        <v>0.302813</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.361513</v>
+        <v>0.355215</v>
       </c>
       <c r="C93" t="n">
-        <v>0.34459</v>
+        <v>0.338562</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307086</v>
+        <v>0.307076</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.36377</v>
+        <v>0.361182</v>
       </c>
       <c r="C94" t="n">
-        <v>0.344329</v>
+        <v>0.341065</v>
       </c>
       <c r="D94" t="n">
-        <v>0.523096</v>
+        <v>0.520103</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.496939</v>
+        <v>0.496478</v>
       </c>
       <c r="C95" t="n">
-        <v>0.564817</v>
+        <v>0.564665</v>
       </c>
       <c r="D95" t="n">
-        <v>0.52021</v>
+        <v>0.519776</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.497585</v>
+        <v>0.496274</v>
       </c>
       <c r="C96" t="n">
-        <v>0.563679</v>
+        <v>0.564487</v>
       </c>
       <c r="D96" t="n">
-        <v>0.517741</v>
+        <v>0.518631</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.49687</v>
+        <v>0.497049</v>
       </c>
       <c r="C97" t="n">
-        <v>0.562452</v>
+        <v>0.562617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517524</v>
+        <v>0.516818</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.497948</v>
+        <v>0.497101</v>
       </c>
       <c r="C98" t="n">
-        <v>0.561981</v>
+        <v>0.561403</v>
       </c>
       <c r="D98" t="n">
-        <v>0.515817</v>
+        <v>0.51659</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.49784</v>
+        <v>0.497579</v>
       </c>
       <c r="C99" t="n">
-        <v>0.56109</v>
+        <v>0.56021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.518196</v>
+        <v>0.514931</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498926</v>
+        <v>0.498334</v>
       </c>
       <c r="C100" t="n">
-        <v>0.560178</v>
+        <v>0.560575</v>
       </c>
       <c r="D100" t="n">
-        <v>0.514731</v>
+        <v>0.5133219999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498547</v>
+        <v>0.498441</v>
       </c>
       <c r="C101" t="n">
-        <v>0.559741</v>
+        <v>0.559109</v>
       </c>
       <c r="D101" t="n">
-        <v>0.514545</v>
+        <v>0.513595</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499634</v>
+        <v>0.499962</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5609420000000001</v>
+        <v>0.558758</v>
       </c>
       <c r="D102" t="n">
-        <v>0.515489</v>
+        <v>0.514312</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.501574</v>
+        <v>0.501228</v>
       </c>
       <c r="C103" t="n">
-        <v>0.559972</v>
+        <v>0.559327</v>
       </c>
       <c r="D103" t="n">
-        <v>0.515033</v>
+        <v>0.513618</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5027239999999999</v>
+        <v>0.503024</v>
       </c>
       <c r="C104" t="n">
-        <v>0.562194</v>
+        <v>0.559299</v>
       </c>
       <c r="D104" t="n">
-        <v>0.517239</v>
+        <v>0.513441</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.505339</v>
+        <v>0.506013</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5608</v>
+        <v>0.5606950000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.517385</v>
+        <v>0.514301</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.509175</v>
+        <v>0.509139</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5626949999999999</v>
+        <v>0.562082</v>
       </c>
       <c r="D106" t="n">
-        <v>0.520925</v>
+        <v>0.517692</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.513837</v>
+        <v>0.515048</v>
       </c>
       <c r="C107" t="n">
-        <v>0.56577</v>
+        <v>0.565418</v>
       </c>
       <c r="D107" t="n">
-        <v>0.524656</v>
+        <v>0.522025</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5213719999999999</v>
+        <v>0.522653</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569926</v>
+        <v>0.569266</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7292920000000001</v>
+        <v>0.7314619999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.531348</v>
+        <v>0.5315839999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.577522</v>
+        <v>0.577271</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7281029999999999</v>
+        <v>0.729942</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.57938</v>
+        <v>0.580071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.692099</v>
+        <v>0.691086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.730519</v>
+        <v>0.728622</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.580322</v>
+        <v>0.579168</v>
       </c>
       <c r="C111" t="n">
-        <v>0.690591</v>
+        <v>0.690206</v>
       </c>
       <c r="D111" t="n">
-        <v>0.729621</v>
+        <v>0.730116</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.579735</v>
+        <v>0.579848</v>
       </c>
       <c r="C112" t="n">
-        <v>0.691022</v>
+        <v>0.6912430000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.731445</v>
+        <v>0.729802</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.579503</v>
+        <v>0.580617</v>
       </c>
       <c r="C113" t="n">
-        <v>0.691195</v>
+        <v>0.691007</v>
       </c>
       <c r="D113" t="n">
-        <v>0.730889</v>
+        <v>0.72924</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.581184</v>
+        <v>0.581574</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6913859999999999</v>
+        <v>0.693387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729422</v>
+        <v>0.729694</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583477</v>
+        <v>0.584292</v>
       </c>
       <c r="C115" t="n">
-        <v>0.692875</v>
+        <v>0.692466</v>
       </c>
       <c r="D115" t="n">
-        <v>0.731626</v>
+        <v>0.730594</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.583535</v>
+        <v>0.582657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.693987</v>
+        <v>0.693528</v>
       </c>
       <c r="D116" t="n">
-        <v>0.731959</v>
+        <v>0.732719</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.585321</v>
+        <v>0.585291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.696379</v>
+        <v>0.695372</v>
       </c>
       <c r="D117" t="n">
-        <v>0.732923</v>
+        <v>0.732936</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.587361</v>
+        <v>0.588067</v>
       </c>
       <c r="C118" t="n">
-        <v>0.697915</v>
+        <v>0.697654</v>
       </c>
       <c r="D118" t="n">
-        <v>0.734856</v>
+        <v>0.734339</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.592011</v>
+        <v>0.589665</v>
       </c>
       <c r="C119" t="n">
-        <v>0.699356</v>
+        <v>0.699323</v>
       </c>
       <c r="D119" t="n">
-        <v>0.735646</v>
+        <v>0.7374849999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.596705</v>
+        <v>0.5937789999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.701712</v>
+        <v>0.702677</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741356</v>
+        <v>0.741527</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605262</v>
+        <v>0.604168</v>
       </c>
       <c r="C121" t="n">
-        <v>0.708133</v>
+        <v>0.706497</v>
       </c>
       <c r="D121" t="n">
-        <v>0.745766</v>
+        <v>0.745619</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.611592</v>
+        <v>0.613413</v>
       </c>
       <c r="C122" t="n">
-        <v>0.712355</v>
+        <v>0.713096</v>
       </c>
       <c r="D122" t="n">
-        <v>0.752733</v>
+        <v>0.751911</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.62282</v>
+        <v>0.621079</v>
       </c>
       <c r="C123" t="n">
-        <v>0.721254</v>
+        <v>0.72084</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9605320000000001</v>
+        <v>0.957131</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.724257</v>
+        <v>0.719709</v>
       </c>
       <c r="C124" t="n">
-        <v>0.800475</v>
+        <v>0.799554</v>
       </c>
       <c r="D124" t="n">
-        <v>0.961016</v>
+        <v>0.957664</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.721787</v>
+        <v>0.723874</v>
       </c>
       <c r="C125" t="n">
-        <v>0.80191</v>
+        <v>0.800642</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9595129999999999</v>
+        <v>0.959105</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.724491</v>
+        <v>0.723184</v>
       </c>
       <c r="C126" t="n">
-        <v>0.802654</v>
+        <v>0.8019230000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.961413</v>
+        <v>0.961255</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.722622</v>
+        <v>0.722913</v>
       </c>
       <c r="C127" t="n">
-        <v>0.805334</v>
+        <v>0.804327</v>
       </c>
       <c r="D127" t="n">
-        <v>0.95923</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.724745</v>
+        <v>0.723476</v>
       </c>
       <c r="C128" t="n">
-        <v>0.807123</v>
+        <v>0.805729</v>
       </c>
       <c r="D128" t="n">
-        <v>0.961768</v>
+        <v>0.962943</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.723867</v>
+        <v>0.724415</v>
       </c>
       <c r="C129" t="n">
-        <v>0.807122</v>
+        <v>0.807298</v>
       </c>
       <c r="D129" t="n">
-        <v>0.963597</v>
+        <v>0.9617059999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.72825</v>
+        <v>0.726255</v>
       </c>
       <c r="C130" t="n">
-        <v>0.810352</v>
+        <v>0.808499</v>
       </c>
       <c r="D130" t="n">
-        <v>0.966485</v>
+        <v>0.964915</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.729621</v>
+        <v>0.728094</v>
       </c>
       <c r="C131" t="n">
-        <v>0.812959</v>
+        <v>0.811947</v>
       </c>
       <c r="D131" t="n">
-        <v>0.969438</v>
+        <v>0.965769</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.731887</v>
+        <v>0.732479</v>
       </c>
       <c r="C132" t="n">
-        <v>0.815723</v>
+        <v>0.815151</v>
       </c>
       <c r="D132" t="n">
-        <v>0.972641</v>
+        <v>0.967473</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.738642</v>
+        <v>0.734649</v>
       </c>
       <c r="C133" t="n">
-        <v>0.818831</v>
+        <v>0.818033</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9733039999999999</v>
+        <v>0.971407</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.740537</v>
+        <v>0.738252</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8221889999999999</v>
+        <v>0.822227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.975115</v>
+        <v>0.974139</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.747843</v>
+        <v>0.746963</v>
       </c>
       <c r="C135" t="n">
-        <v>0.82858</v>
+        <v>0.827255</v>
       </c>
       <c r="D135" t="n">
-        <v>0.980145</v>
+        <v>0.980204</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.755141</v>
+        <v>0.753982</v>
       </c>
       <c r="C136" t="n">
-        <v>0.837266</v>
+        <v>0.833686</v>
       </c>
       <c r="D136" t="n">
-        <v>0.984677</v>
+        <v>0.982159</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.765701</v>
+        <v>0.766249</v>
       </c>
       <c r="C137" t="n">
-        <v>0.846617</v>
+        <v>0.845029</v>
       </c>
       <c r="D137" t="n">
-        <v>1.16053</v>
+        <v>1.15872</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.849124</v>
+        <v>0.848213</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8898239999999999</v>
+        <v>0.8901210000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>1.15903</v>
+        <v>1.15922</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.849491</v>
+        <v>0.847743</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8908779999999999</v>
+        <v>0.890909</v>
       </c>
       <c r="D139" t="n">
-        <v>1.16128</v>
+        <v>1.15888</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.85134</v>
+        <v>0.849699</v>
       </c>
       <c r="C140" t="n">
-        <v>0.892415</v>
+        <v>0.89288</v>
       </c>
       <c r="D140" t="n">
-        <v>1.16002</v>
+        <v>1.15936</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.851347</v>
+        <v>0.849038</v>
       </c>
       <c r="C141" t="n">
-        <v>0.894631</v>
+        <v>0.894998</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16182</v>
+        <v>1.16071</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8519370000000001</v>
+        <v>0.8499640000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.895983</v>
+        <v>0.8948120000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>1.16328</v>
+        <v>1.16174</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.853112</v>
+        <v>0.851531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.896378</v>
+        <v>0.896945</v>
       </c>
       <c r="D143" t="n">
-        <v>1.16345</v>
+        <v>1.1637</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117</v>
+        <v>0.115078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.144266</v>
+        <v>0.142546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155746</v>
+        <v>0.155055</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116388</v>
+        <v>0.115915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.144913</v>
+        <v>0.143239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156336</v>
+        <v>0.155581</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117583</v>
+        <v>0.116001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145812</v>
+        <v>0.143738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.157223</v>
+        <v>0.156311</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116247</v>
+        <v>0.116969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.145225</v>
+        <v>0.144501</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156863</v>
+        <v>0.157098</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11877</v>
+        <v>0.116586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.146661</v>
+        <v>0.144319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.158383</v>
+        <v>0.157764</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.119922</v>
+        <v>0.11798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.147585</v>
+        <v>0.145004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160118</v>
+        <v>0.159113</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122495</v>
+        <v>0.120624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149117</v>
+        <v>0.146897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162749</v>
+        <v>0.161674</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124829</v>
+        <v>0.123909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151532</v>
+        <v>0.150141</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157513</v>
+        <v>0.156436</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122969</v>
+        <v>0.121938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.148798</v>
+        <v>0.149031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157752</v>
+        <v>0.156839</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122217</v>
+        <v>0.121466</v>
       </c>
       <c r="C11" t="n">
-        <v>0.149246</v>
+        <v>0.14892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.158292</v>
+        <v>0.157263</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12357</v>
+        <v>0.12158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150081</v>
+        <v>0.151412</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157908</v>
+        <v>0.157366</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123128</v>
+        <v>0.122365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.150795</v>
+        <v>0.152096</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158687</v>
+        <v>0.158014</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12484</v>
+        <v>0.123687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15088</v>
+        <v>0.150127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159031</v>
+        <v>0.157939</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124358</v>
+        <v>0.122825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.151904</v>
+        <v>0.150691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159896</v>
+        <v>0.159439</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12469</v>
+        <v>0.123484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.152543</v>
+        <v>0.151625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.160085</v>
+        <v>0.159933</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12524</v>
+        <v>0.125062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.152393</v>
+        <v>0.154564</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160856</v>
+        <v>0.15986</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127041</v>
+        <v>0.124827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.153332</v>
+        <v>0.152203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161502</v>
+        <v>0.160798</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127884</v>
+        <v>0.12566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.154366</v>
+        <v>0.153068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162592</v>
+        <v>0.16161</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.12858</v>
+        <v>0.127203</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157562</v>
+        <v>0.154129</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164181</v>
+        <v>0.163321</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.12999</v>
+        <v>0.128351</v>
       </c>
       <c r="C21" t="n">
-        <v>0.157336</v>
+        <v>0.155006</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166656</v>
+        <v>0.166173</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133786</v>
+        <v>0.132359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.160546</v>
+        <v>0.158008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172979</v>
+        <v>0.171579</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141202</v>
+        <v>0.140626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164685</v>
+        <v>0.162614</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164752</v>
+        <v>0.166001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132639</v>
+        <v>0.133865</v>
       </c>
       <c r="C24" t="n">
-        <v>0.160482</v>
+        <v>0.16173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165021</v>
+        <v>0.165672</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13375</v>
+        <v>0.133477</v>
       </c>
       <c r="C25" t="n">
-        <v>0.160947</v>
+        <v>0.161413</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165563</v>
+        <v>0.167317</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133871</v>
+        <v>0.134225</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16152</v>
+        <v>0.16314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.16575</v>
+        <v>0.166699</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133636</v>
+        <v>0.134051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.161785</v>
+        <v>0.162559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.166424</v>
+        <v>0.166616</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133452</v>
+        <v>0.135045</v>
       </c>
       <c r="C28" t="n">
-        <v>0.162055</v>
+        <v>0.162953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.166643</v>
+        <v>0.166741</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134521</v>
+        <v>0.134552</v>
       </c>
       <c r="C29" t="n">
-        <v>0.162473</v>
+        <v>0.162988</v>
       </c>
       <c r="D29" t="n">
-        <v>0.166423</v>
+        <v>0.167253</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134186</v>
+        <v>0.134548</v>
       </c>
       <c r="C30" t="n">
-        <v>0.162464</v>
+        <v>0.164196</v>
       </c>
       <c r="D30" t="n">
-        <v>0.166833</v>
+        <v>0.168909</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135306</v>
+        <v>0.136409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163138</v>
+        <v>0.165738</v>
       </c>
       <c r="D31" t="n">
-        <v>0.167515</v>
+        <v>0.168866</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135674</v>
+        <v>0.135454</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164173</v>
+        <v>0.165805</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168591</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137487</v>
+        <v>0.136894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.165341</v>
+        <v>0.166225</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169556</v>
+        <v>0.170489</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138214</v>
+        <v>0.138561</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168159</v>
+        <v>0.166762</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171971</v>
+        <v>0.172094</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142428</v>
+        <v>0.142923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168315</v>
+        <v>0.168808</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175578</v>
+        <v>0.176231</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147745</v>
+        <v>0.148733</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172911</v>
+        <v>0.172227</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183436</v>
+        <v>0.182867</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15442</v>
+        <v>0.155475</v>
       </c>
       <c r="C37" t="n">
-        <v>0.177361</v>
+        <v>0.178632</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178468</v>
+        <v>0.17533</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14591</v>
+        <v>0.147486</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17296</v>
+        <v>0.175258</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179705</v>
+        <v>0.179934</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146145</v>
+        <v>0.147004</v>
       </c>
       <c r="C39" t="n">
-        <v>0.17386</v>
+        <v>0.174761</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179066</v>
+        <v>0.179242</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145647</v>
+        <v>0.143892</v>
       </c>
       <c r="C40" t="n">
-        <v>0.174928</v>
+        <v>0.173966</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181564</v>
+        <v>0.179143</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146218</v>
+        <v>0.148749</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175199</v>
+        <v>0.175003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180057</v>
+        <v>0.180232</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147196</v>
+        <v>0.145774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175201</v>
+        <v>0.175921</v>
       </c>
       <c r="D42" t="n">
-        <v>0.181314</v>
+        <v>0.180661</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148726</v>
+        <v>0.148247</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175372</v>
+        <v>0.176337</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179338</v>
+        <v>0.18102</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146895</v>
+        <v>0.149367</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176525</v>
+        <v>0.177181</v>
       </c>
       <c r="D44" t="n">
-        <v>0.182217</v>
+        <v>0.181857</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150444</v>
+        <v>0.149777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.176956</v>
+        <v>0.177796</v>
       </c>
       <c r="D45" t="n">
-        <v>0.180765</v>
+        <v>0.182679</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148804</v>
+        <v>0.150108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.177671</v>
+        <v>0.179085</v>
       </c>
       <c r="D46" t="n">
-        <v>0.182258</v>
+        <v>0.182887</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151354</v>
+        <v>0.149045</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178503</v>
+        <v>0.180903</v>
       </c>
       <c r="D47" t="n">
-        <v>0.183872</v>
+        <v>0.185724</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154318</v>
+        <v>0.15302</v>
       </c>
       <c r="C48" t="n">
-        <v>0.180453</v>
+        <v>0.182166</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186366</v>
+        <v>0.186856</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156181</v>
+        <v>0.157795</v>
       </c>
       <c r="C49" t="n">
-        <v>0.18241</v>
+        <v>0.184637</v>
       </c>
       <c r="D49" t="n">
-        <v>0.189241</v>
+        <v>0.189878</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.158194</v>
+        <v>0.161765</v>
       </c>
       <c r="C50" t="n">
-        <v>0.185134</v>
+        <v>0.188059</v>
       </c>
       <c r="D50" t="n">
-        <v>0.193666</v>
+        <v>0.195998</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167534</v>
+        <v>0.168037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.190961</v>
+        <v>0.193506</v>
       </c>
       <c r="D51" t="n">
-        <v>0.193546</v>
+        <v>0.194856</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176178</v>
+        <v>0.175971</v>
       </c>
       <c r="C52" t="n">
-        <v>0.197591</v>
+        <v>0.200274</v>
       </c>
       <c r="D52" t="n">
-        <v>0.194173</v>
+        <v>0.196287</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160288</v>
+        <v>0.159693</v>
       </c>
       <c r="C53" t="n">
-        <v>0.184625</v>
+        <v>0.185496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.193987</v>
+        <v>0.195871</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159256</v>
+        <v>0.159403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.184414</v>
+        <v>0.186842</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194999</v>
+        <v>0.195122</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160864</v>
+        <v>0.159446</v>
       </c>
       <c r="C55" t="n">
-        <v>0.185806</v>
+        <v>0.187912</v>
       </c>
       <c r="D55" t="n">
-        <v>0.195168</v>
+        <v>0.196293</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160873</v>
+        <v>0.160131</v>
       </c>
       <c r="C56" t="n">
-        <v>0.186945</v>
+        <v>0.188292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196113</v>
+        <v>0.197082</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160734</v>
+        <v>0.161416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.187727</v>
+        <v>0.188221</v>
       </c>
       <c r="D57" t="n">
-        <v>0.196913</v>
+        <v>0.196496</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162583</v>
+        <v>0.161645</v>
       </c>
       <c r="C58" t="n">
-        <v>0.188243</v>
+        <v>0.189203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.197915</v>
+        <v>0.195686</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161917</v>
+        <v>0.163051</v>
       </c>
       <c r="C59" t="n">
-        <v>0.188843</v>
+        <v>0.189941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198081</v>
+        <v>0.198759</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163946</v>
+        <v>0.163008</v>
       </c>
       <c r="C60" t="n">
-        <v>0.189919</v>
+        <v>0.192131</v>
       </c>
       <c r="D60" t="n">
-        <v>0.198865</v>
+        <v>0.20013</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.163513</v>
+        <v>0.165931</v>
       </c>
       <c r="C61" t="n">
-        <v>0.191828</v>
+        <v>0.193878</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20055</v>
+        <v>0.20196</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165915</v>
+        <v>0.16734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.193608</v>
+        <v>0.19685</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203457</v>
+        <v>0.203234</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169231</v>
+        <v>0.1695</v>
       </c>
       <c r="C63" t="n">
-        <v>0.195683</v>
+        <v>0.198096</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205909</v>
+        <v>0.207432</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174918</v>
+        <v>0.172436</v>
       </c>
       <c r="C64" t="n">
-        <v>0.198889</v>
+        <v>0.198877</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210652</v>
+        <v>0.211434</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.182077</v>
+        <v>0.179547</v>
       </c>
       <c r="C65" t="n">
-        <v>0.203329</v>
+        <v>0.204637</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217771</v>
+        <v>0.218997</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188956</v>
+        <v>0.185618</v>
       </c>
       <c r="C66" t="n">
-        <v>0.20936</v>
+        <v>0.210791</v>
       </c>
       <c r="D66" t="n">
-        <v>0.210463</v>
+        <v>0.208967</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18282</v>
+        <v>0.178733</v>
       </c>
       <c r="C67" t="n">
-        <v>0.205418</v>
+        <v>0.203136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209458</v>
+        <v>0.210245</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183187</v>
+        <v>0.179652</v>
       </c>
       <c r="C68" t="n">
-        <v>0.204174</v>
+        <v>0.202584</v>
       </c>
       <c r="D68" t="n">
-        <v>0.210753</v>
+        <v>0.210545</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185161</v>
+        <v>0.17731</v>
       </c>
       <c r="C69" t="n">
-        <v>0.206351</v>
+        <v>0.204925</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211984</v>
+        <v>0.210469</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186369</v>
+        <v>0.177807</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209632</v>
+        <v>0.20886</v>
       </c>
       <c r="D70" t="n">
-        <v>0.214634</v>
+        <v>0.211091</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.183633</v>
+        <v>0.181507</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203546</v>
+        <v>0.20986</v>
       </c>
       <c r="D71" t="n">
-        <v>0.211244</v>
+        <v>0.212614</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.179922</v>
+        <v>0.1821</v>
       </c>
       <c r="C72" t="n">
-        <v>0.20698</v>
+        <v>0.209782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211176</v>
+        <v>0.211915</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180139</v>
+        <v>0.182102</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207393</v>
+        <v>0.207724</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213466</v>
+        <v>0.214494</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183567</v>
+        <v>0.186793</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209079</v>
+        <v>0.209981</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214021</v>
+        <v>0.214364</v>
       </c>
     </row>
     <row r="75">
@@ -4270,10 +4270,10 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187007</v>
+        <v>0.18749</v>
       </c>
       <c r="C75" t="n">
-        <v>0.211664</v>
+        <v>0.213177</v>
       </c>
       <c r="D75" t="n">
         <v>0.216471</v>
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187849</v>
+        <v>0.184531</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212144</v>
+        <v>0.213098</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217491</v>
+        <v>0.217362</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194327</v>
+        <v>0.190834</v>
       </c>
       <c r="C77" t="n">
-        <v>0.214465</v>
+        <v>0.21357</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220584</v>
+        <v>0.220657</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194772</v>
+        <v>0.194141</v>
       </c>
       <c r="C78" t="n">
-        <v>0.216875</v>
+        <v>0.215911</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224283</v>
+        <v>0.223947</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199092</v>
+        <v>0.198392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.218118</v>
+        <v>0.219902</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230343</v>
+        <v>0.230291</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205141</v>
+        <v>0.202881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.223641</v>
+        <v>0.224592</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30446</v>
+        <v>0.305309</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.338621</v>
+        <v>0.337582</v>
       </c>
       <c r="C81" t="n">
-        <v>0.346588</v>
+        <v>0.348165</v>
       </c>
       <c r="D81" t="n">
-        <v>0.305177</v>
+        <v>0.306467</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.339548</v>
+        <v>0.342999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.347513</v>
+        <v>0.34811</v>
       </c>
       <c r="D82" t="n">
-        <v>0.304811</v>
+        <v>0.309454</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340407</v>
+        <v>0.343837</v>
       </c>
       <c r="C83" t="n">
-        <v>0.344069</v>
+        <v>0.343762</v>
       </c>
       <c r="D83" t="n">
-        <v>0.305126</v>
+        <v>0.308276</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342858</v>
+        <v>0.338824</v>
       </c>
       <c r="C84" t="n">
-        <v>0.342859</v>
+        <v>0.346604</v>
       </c>
       <c r="D84" t="n">
-        <v>0.304557</v>
+        <v>0.308105</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343751</v>
+        <v>0.344984</v>
       </c>
       <c r="C85" t="n">
-        <v>0.340547</v>
+        <v>0.339571</v>
       </c>
       <c r="D85" t="n">
-        <v>0.304634</v>
+        <v>0.306258</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.343784</v>
+        <v>0.344341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.341569</v>
+        <v>0.343692</v>
       </c>
       <c r="D86" t="n">
-        <v>0.303428</v>
+        <v>0.305499</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.345238</v>
+        <v>0.346775</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339972</v>
+        <v>0.341162</v>
       </c>
       <c r="D87" t="n">
-        <v>0.305202</v>
+        <v>0.305164</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.343221</v>
+        <v>0.346396</v>
       </c>
       <c r="C88" t="n">
-        <v>0.338293</v>
+        <v>0.342881</v>
       </c>
       <c r="D88" t="n">
-        <v>0.301354</v>
+        <v>0.302771</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.347894</v>
+        <v>0.353175</v>
       </c>
       <c r="C89" t="n">
-        <v>0.334111</v>
+        <v>0.338868</v>
       </c>
       <c r="D89" t="n">
-        <v>0.304407</v>
+        <v>0.305934</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.351281</v>
+        <v>0.348237</v>
       </c>
       <c r="C90" t="n">
-        <v>0.337072</v>
+        <v>0.340625</v>
       </c>
       <c r="D90" t="n">
-        <v>0.299775</v>
+        <v>0.29942</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.351768</v>
+        <v>0.353654</v>
       </c>
       <c r="C91" t="n">
-        <v>0.340485</v>
+        <v>0.338228</v>
       </c>
       <c r="D91" t="n">
-        <v>0.298812</v>
+        <v>0.304343</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356837</v>
+        <v>0.353209</v>
       </c>
       <c r="C92" t="n">
-        <v>0.33293</v>
+        <v>0.338746</v>
       </c>
       <c r="D92" t="n">
-        <v>0.302813</v>
+        <v>0.303393</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355215</v>
+        <v>0.361087</v>
       </c>
       <c r="C93" t="n">
-        <v>0.338562</v>
+        <v>0.342725</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307076</v>
+        <v>0.307301</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361182</v>
+        <v>0.362541</v>
       </c>
       <c r="C94" t="n">
-        <v>0.341065</v>
+        <v>0.342994</v>
       </c>
       <c r="D94" t="n">
-        <v>0.520103</v>
+        <v>0.518644</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.496478</v>
+        <v>0.496928</v>
       </c>
       <c r="C95" t="n">
-        <v>0.564665</v>
+        <v>0.567809</v>
       </c>
       <c r="D95" t="n">
-        <v>0.519776</v>
+        <v>0.517143</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496274</v>
+        <v>0.497023</v>
       </c>
       <c r="C96" t="n">
-        <v>0.564487</v>
+        <v>0.563642</v>
       </c>
       <c r="D96" t="n">
-        <v>0.518631</v>
+        <v>0.518597</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497049</v>
+        <v>0.496707</v>
       </c>
       <c r="C97" t="n">
-        <v>0.562617</v>
+        <v>0.561569</v>
       </c>
       <c r="D97" t="n">
-        <v>0.516818</v>
+        <v>0.518272</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.497101</v>
+        <v>0.497333</v>
       </c>
       <c r="C98" t="n">
-        <v>0.561403</v>
+        <v>0.560855</v>
       </c>
       <c r="D98" t="n">
-        <v>0.51659</v>
+        <v>0.516738</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497579</v>
+        <v>0.497567</v>
       </c>
       <c r="C99" t="n">
-        <v>0.56021</v>
+        <v>0.560046</v>
       </c>
       <c r="D99" t="n">
-        <v>0.514931</v>
+        <v>0.516466</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498334</v>
+        <v>0.497969</v>
       </c>
       <c r="C100" t="n">
-        <v>0.560575</v>
+        <v>0.560125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5133219999999999</v>
+        <v>0.512701</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498441</v>
+        <v>0.498865</v>
       </c>
       <c r="C101" t="n">
-        <v>0.559109</v>
+        <v>0.560445</v>
       </c>
       <c r="D101" t="n">
-        <v>0.513595</v>
+        <v>0.514733</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499962</v>
+        <v>0.50009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.558758</v>
+        <v>0.560369</v>
       </c>
       <c r="D102" t="n">
-        <v>0.514312</v>
+        <v>0.515284</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.501228</v>
+        <v>0.501966</v>
       </c>
       <c r="C103" t="n">
-        <v>0.559327</v>
+        <v>0.559852</v>
       </c>
       <c r="D103" t="n">
-        <v>0.513618</v>
+        <v>0.515002</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.503024</v>
+        <v>0.502906</v>
       </c>
       <c r="C104" t="n">
-        <v>0.559299</v>
+        <v>0.559395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.513441</v>
+        <v>0.515691</v>
       </c>
     </row>
     <row r="105">
@@ -4693,10 +4693,10 @@
         <v>0.506013</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5606950000000001</v>
+        <v>0.56101</v>
       </c>
       <c r="D105" t="n">
-        <v>0.514301</v>
+        <v>0.516048</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.509139</v>
+        <v>0.5089669999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.562082</v>
+        <v>0.562323</v>
       </c>
       <c r="D106" t="n">
-        <v>0.517692</v>
+        <v>0.518163</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.515048</v>
+        <v>0.513852</v>
       </c>
       <c r="C107" t="n">
-        <v>0.565418</v>
+        <v>0.565558</v>
       </c>
       <c r="D107" t="n">
-        <v>0.522025</v>
+        <v>0.521985</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.522653</v>
+        <v>0.5210630000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569266</v>
+        <v>0.569242</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7314619999999999</v>
+        <v>0.7272420000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5315839999999999</v>
+        <v>0.532146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.577271</v>
+        <v>0.5770690000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.729942</v>
+        <v>0.728193</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.580071</v>
+        <v>0.578476</v>
       </c>
       <c r="C110" t="n">
-        <v>0.691086</v>
+        <v>0.690207</v>
       </c>
       <c r="D110" t="n">
-        <v>0.728622</v>
+        <v>0.7269679999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.579168</v>
+        <v>0.579617</v>
       </c>
       <c r="C111" t="n">
-        <v>0.690206</v>
+        <v>0.689761</v>
       </c>
       <c r="D111" t="n">
-        <v>0.730116</v>
+        <v>0.7255509999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.579848</v>
+        <v>0.579914</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6912430000000001</v>
+        <v>0.690577</v>
       </c>
       <c r="D112" t="n">
-        <v>0.729802</v>
+        <v>0.7282419999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.580617</v>
+        <v>0.579992</v>
       </c>
       <c r="C113" t="n">
-        <v>0.691007</v>
+        <v>0.690811</v>
       </c>
       <c r="D113" t="n">
-        <v>0.72924</v>
+        <v>0.729509</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.581574</v>
+        <v>0.582689</v>
       </c>
       <c r="C114" t="n">
-        <v>0.693387</v>
+        <v>0.69149</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729694</v>
+        <v>0.729721</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584292</v>
+        <v>0.582304</v>
       </c>
       <c r="C115" t="n">
-        <v>0.692466</v>
+        <v>0.691847</v>
       </c>
       <c r="D115" t="n">
-        <v>0.730594</v>
+        <v>0.730143</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.582657</v>
+        <v>0.581366</v>
       </c>
       <c r="C116" t="n">
-        <v>0.693528</v>
+        <v>0.693588</v>
       </c>
       <c r="D116" t="n">
-        <v>0.732719</v>
+        <v>0.731445</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.585291</v>
+        <v>0.586107</v>
       </c>
       <c r="C117" t="n">
-        <v>0.695372</v>
+        <v>0.695749</v>
       </c>
       <c r="D117" t="n">
-        <v>0.732936</v>
+        <v>0.731637</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.588067</v>
+        <v>0.588564</v>
       </c>
       <c r="C118" t="n">
-        <v>0.697654</v>
+        <v>0.699174</v>
       </c>
       <c r="D118" t="n">
-        <v>0.734339</v>
+        <v>0.735521</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.589665</v>
+        <v>0.592288</v>
       </c>
       <c r="C119" t="n">
-        <v>0.699323</v>
+        <v>0.698927</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7374849999999999</v>
+        <v>0.738016</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5937789999999999</v>
+        <v>0.597279</v>
       </c>
       <c r="C120" t="n">
-        <v>0.702677</v>
+        <v>0.704647</v>
       </c>
       <c r="D120" t="n">
-        <v>0.741527</v>
+        <v>0.739764</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.604168</v>
+        <v>0.60345</v>
       </c>
       <c r="C121" t="n">
-        <v>0.706497</v>
+        <v>0.707298</v>
       </c>
       <c r="D121" t="n">
-        <v>0.745619</v>
+        <v>0.744785</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613413</v>
+        <v>0.611195</v>
       </c>
       <c r="C122" t="n">
-        <v>0.713096</v>
+        <v>0.712078</v>
       </c>
       <c r="D122" t="n">
-        <v>0.751911</v>
+        <v>0.750133</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.621079</v>
+        <v>0.622572</v>
       </c>
       <c r="C123" t="n">
-        <v>0.72084</v>
+        <v>0.72005</v>
       </c>
       <c r="D123" t="n">
-        <v>0.957131</v>
+        <v>0.956467</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.719709</v>
+        <v>0.72139</v>
       </c>
       <c r="C124" t="n">
-        <v>0.799554</v>
+        <v>0.799682</v>
       </c>
       <c r="D124" t="n">
-        <v>0.957664</v>
+        <v>0.960999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.723874</v>
+        <v>0.721879</v>
       </c>
       <c r="C125" t="n">
-        <v>0.800642</v>
+        <v>0.801351</v>
       </c>
       <c r="D125" t="n">
-        <v>0.959105</v>
+        <v>0.957636</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.723184</v>
+        <v>0.722776</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8019230000000001</v>
+        <v>0.803279</v>
       </c>
       <c r="D126" t="n">
-        <v>0.961255</v>
+        <v>0.96067</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.722913</v>
+        <v>0.7211649999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.804327</v>
+        <v>0.804024</v>
       </c>
       <c r="D127" t="n">
-        <v>0.965</v>
+        <v>0.9616479999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.723476</v>
+        <v>0.723486</v>
       </c>
       <c r="C128" t="n">
-        <v>0.805729</v>
+        <v>0.8044480000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962943</v>
+        <v>0.961692</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.724415</v>
+        <v>0.7246050000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.807298</v>
+        <v>0.806847</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9617059999999999</v>
+        <v>0.96488</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.726255</v>
+        <v>0.725678</v>
       </c>
       <c r="C130" t="n">
-        <v>0.808499</v>
+        <v>0.808492</v>
       </c>
       <c r="D130" t="n">
-        <v>0.964915</v>
+        <v>0.964504</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.728094</v>
+        <v>0.7275779999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.811947</v>
+        <v>0.8113899999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.965769</v>
+        <v>0.965523</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.732479</v>
+        <v>0.729909</v>
       </c>
       <c r="C132" t="n">
-        <v>0.815151</v>
+        <v>0.814621</v>
       </c>
       <c r="D132" t="n">
-        <v>0.967473</v>
+        <v>0.966909</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734649</v>
+        <v>0.734831</v>
       </c>
       <c r="C133" t="n">
-        <v>0.818033</v>
+        <v>0.818669</v>
       </c>
       <c r="D133" t="n">
-        <v>0.971407</v>
+        <v>0.972339</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.738252</v>
+        <v>0.741085</v>
       </c>
       <c r="C134" t="n">
-        <v>0.822227</v>
+        <v>0.823864</v>
       </c>
       <c r="D134" t="n">
-        <v>0.974139</v>
+        <v>0.974984</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.746963</v>
+        <v>0.747201</v>
       </c>
       <c r="C135" t="n">
-        <v>0.827255</v>
+        <v>0.828415</v>
       </c>
       <c r="D135" t="n">
-        <v>0.980204</v>
+        <v>0.975592</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.753982</v>
+        <v>0.75319</v>
       </c>
       <c r="C136" t="n">
-        <v>0.833686</v>
+        <v>0.835245</v>
       </c>
       <c r="D136" t="n">
-        <v>0.982159</v>
+        <v>0.984392</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.766249</v>
+        <v>0.766669</v>
       </c>
       <c r="C137" t="n">
-        <v>0.845029</v>
+        <v>0.843678</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15872</v>
+        <v>1.15834</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.848213</v>
+        <v>0.849114</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8901210000000001</v>
+        <v>0.891243</v>
       </c>
       <c r="D138" t="n">
-        <v>1.15922</v>
+        <v>1.1584</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.847743</v>
+        <v>0.848538</v>
       </c>
       <c r="C139" t="n">
-        <v>0.890909</v>
+        <v>0.892516</v>
       </c>
       <c r="D139" t="n">
-        <v>1.15888</v>
+        <v>1.16009</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.849699</v>
+        <v>0.849255</v>
       </c>
       <c r="C140" t="n">
-        <v>0.89288</v>
+        <v>0.892574</v>
       </c>
       <c r="D140" t="n">
-        <v>1.15936</v>
+        <v>1.15993</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.849038</v>
+        <v>0.85038</v>
       </c>
       <c r="C141" t="n">
-        <v>0.894998</v>
+        <v>0.894059</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16071</v>
+        <v>1.16141</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8499640000000001</v>
+        <v>0.850506</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8948120000000001</v>
+        <v>0.896439</v>
       </c>
       <c r="D142" t="n">
-        <v>1.16174</v>
+        <v>1.1614</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.851531</v>
+        <v>0.851237</v>
       </c>
       <c r="C143" t="n">
-        <v>0.896945</v>
+        <v>0.8973</v>
       </c>
       <c r="D143" t="n">
-        <v>1.1637</v>
+        <v>1.16212</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115078</v>
+        <v>0.11481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142546</v>
+        <v>0.14457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155055</v>
+        <v>0.155223</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115915</v>
+        <v>0.116419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.143239</v>
+        <v>0.145379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155581</v>
+        <v>0.155778</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116001</v>
+        <v>0.115419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.143738</v>
+        <v>0.145731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156311</v>
+        <v>0.156289</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116969</v>
+        <v>0.114539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144501</v>
+        <v>0.145343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.157098</v>
+        <v>0.156565</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.116586</v>
+        <v>0.115818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144319</v>
+        <v>0.146059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157764</v>
+        <v>0.157925</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.11798</v>
+        <v>0.117719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.145004</v>
+        <v>0.14764</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159113</v>
+        <v>0.15907</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120624</v>
+        <v>0.120504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146897</v>
+        <v>0.149441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161674</v>
+        <v>0.161898</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123909</v>
+        <v>0.12402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.150141</v>
+        <v>0.152191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156436</v>
+        <v>0.157469</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121938</v>
+        <v>0.122488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.149031</v>
+        <v>0.149207</v>
       </c>
       <c r="D10" t="n">
-        <v>0.156839</v>
+        <v>0.157101</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121466</v>
+        <v>0.122527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.14892</v>
+        <v>0.151742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157263</v>
+        <v>0.158219</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12158</v>
+        <v>0.12288</v>
       </c>
       <c r="C12" t="n">
-        <v>0.151412</v>
+        <v>0.153255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157366</v>
+        <v>0.158462</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122365</v>
+        <v>0.123813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.152096</v>
+        <v>0.151355</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158014</v>
+        <v>0.15874</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123687</v>
+        <v>0.123706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.150127</v>
+        <v>0.151289</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157939</v>
+        <v>0.159005</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122825</v>
+        <v>0.124251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.150691</v>
+        <v>0.153071</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159439</v>
+        <v>0.159766</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123484</v>
+        <v>0.124915</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151625</v>
+        <v>0.15547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159933</v>
+        <v>0.160794</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125062</v>
+        <v>0.125367</v>
       </c>
       <c r="C17" t="n">
-        <v>0.154564</v>
+        <v>0.154711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15986</v>
+        <v>0.160892</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124827</v>
+        <v>0.126054</v>
       </c>
       <c r="C18" t="n">
-        <v>0.152203</v>
+        <v>0.155104</v>
       </c>
       <c r="D18" t="n">
-        <v>0.160798</v>
+        <v>0.162036</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.12566</v>
+        <v>0.126833</v>
       </c>
       <c r="C19" t="n">
-        <v>0.153068</v>
+        <v>0.154779</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16161</v>
+        <v>0.162332</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127203</v>
+        <v>0.127508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154129</v>
+        <v>0.15604</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163321</v>
+        <v>0.164096</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128351</v>
+        <v>0.129816</v>
       </c>
       <c r="C21" t="n">
-        <v>0.155006</v>
+        <v>0.157678</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166173</v>
+        <v>0.166667</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132359</v>
+        <v>0.133056</v>
       </c>
       <c r="C22" t="n">
-        <v>0.158008</v>
+        <v>0.162018</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171579</v>
+        <v>0.172453</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140626</v>
+        <v>0.140695</v>
       </c>
       <c r="C23" t="n">
-        <v>0.162614</v>
+        <v>0.166669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166001</v>
+        <v>0.165261</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133865</v>
+        <v>0.133443</v>
       </c>
       <c r="C24" t="n">
-        <v>0.16173</v>
+        <v>0.160032</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165672</v>
+        <v>0.164817</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133477</v>
+        <v>0.134207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.161413</v>
+        <v>0.160333</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167317</v>
+        <v>0.165479</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134225</v>
+        <v>0.134366</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16314</v>
+        <v>0.160672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.166699</v>
+        <v>0.16536</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134051</v>
+        <v>0.133209</v>
       </c>
       <c r="C27" t="n">
-        <v>0.162559</v>
+        <v>0.16153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.166616</v>
+        <v>0.165956</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135045</v>
+        <v>0.133703</v>
       </c>
       <c r="C28" t="n">
-        <v>0.162953</v>
+        <v>0.161378</v>
       </c>
       <c r="D28" t="n">
-        <v>0.166741</v>
+        <v>0.168007</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134552</v>
+        <v>0.134381</v>
       </c>
       <c r="C29" t="n">
-        <v>0.162988</v>
+        <v>0.162444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.167253</v>
+        <v>0.166609</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134548</v>
+        <v>0.134444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.164196</v>
+        <v>0.162671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168909</v>
+        <v>0.167029</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136409</v>
+        <v>0.135596</v>
       </c>
       <c r="C31" t="n">
-        <v>0.165738</v>
+        <v>0.162809</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168866</v>
+        <v>0.168346</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135454</v>
+        <v>0.135584</v>
       </c>
       <c r="C32" t="n">
-        <v>0.165805</v>
+        <v>0.16385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1691</v>
+        <v>0.168327</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136894</v>
+        <v>0.137628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.166225</v>
+        <v>0.164882</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170489</v>
+        <v>0.169725</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138561</v>
+        <v>0.139036</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166762</v>
+        <v>0.16626</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172094</v>
+        <v>0.171752</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142923</v>
+        <v>0.142292</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168808</v>
+        <v>0.168311</v>
       </c>
       <c r="D35" t="n">
-        <v>0.176231</v>
+        <v>0.175538</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148733</v>
+        <v>0.148507</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172227</v>
+        <v>0.172258</v>
       </c>
       <c r="D36" t="n">
-        <v>0.182867</v>
+        <v>0.182184</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155475</v>
+        <v>0.1553</v>
       </c>
       <c r="C37" t="n">
-        <v>0.178632</v>
+        <v>0.177527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17533</v>
+        <v>0.179915</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147486</v>
+        <v>0.14576</v>
       </c>
       <c r="C38" t="n">
-        <v>0.175258</v>
+        <v>0.173131</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179934</v>
+        <v>0.178495</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147004</v>
+        <v>0.146083</v>
       </c>
       <c r="C39" t="n">
-        <v>0.174761</v>
+        <v>0.174105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179242</v>
+        <v>0.179177</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.143892</v>
+        <v>0.146393</v>
       </c>
       <c r="C40" t="n">
-        <v>0.173966</v>
+        <v>0.173821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.179143</v>
+        <v>0.179396</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148749</v>
+        <v>0.146595</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175003</v>
+        <v>0.173699</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180232</v>
+        <v>0.180072</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145774</v>
+        <v>0.144764</v>
       </c>
       <c r="C42" t="n">
-        <v>0.175921</v>
+        <v>0.17453</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180661</v>
+        <v>0.180977</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148247</v>
+        <v>0.14745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176337</v>
+        <v>0.175331</v>
       </c>
       <c r="D43" t="n">
-        <v>0.18102</v>
+        <v>0.180199</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149367</v>
+        <v>0.145904</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177181</v>
+        <v>0.175728</v>
       </c>
       <c r="D44" t="n">
-        <v>0.181857</v>
+        <v>0.181687</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.149777</v>
+        <v>0.146667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.177796</v>
+        <v>0.176961</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182679</v>
+        <v>0.181124</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.150108</v>
+        <v>0.151139</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179085</v>
+        <v>0.178282</v>
       </c>
       <c r="D46" t="n">
-        <v>0.182887</v>
+        <v>0.18175</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149045</v>
+        <v>0.150421</v>
       </c>
       <c r="C47" t="n">
-        <v>0.180903</v>
+        <v>0.178739</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185724</v>
+        <v>0.184227</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15302</v>
+        <v>0.150948</v>
       </c>
       <c r="C48" t="n">
-        <v>0.182166</v>
+        <v>0.1811</v>
       </c>
       <c r="D48" t="n">
-        <v>0.186856</v>
+        <v>0.187331</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157795</v>
+        <v>0.155602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.184637</v>
+        <v>0.182937</v>
       </c>
       <c r="D49" t="n">
-        <v>0.189878</v>
+        <v>0.188976</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161765</v>
+        <v>0.162055</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188059</v>
+        <v>0.186984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.195998</v>
+        <v>0.194269</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168037</v>
+        <v>0.168301</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193506</v>
+        <v>0.19068</v>
       </c>
       <c r="D51" t="n">
-        <v>0.194856</v>
+        <v>0.193478</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175971</v>
+        <v>0.17896</v>
       </c>
       <c r="C52" t="n">
-        <v>0.200274</v>
+        <v>0.197763</v>
       </c>
       <c r="D52" t="n">
-        <v>0.196287</v>
+        <v>0.197933</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159693</v>
+        <v>0.168993</v>
       </c>
       <c r="C53" t="n">
-        <v>0.185496</v>
+        <v>0.18599</v>
       </c>
       <c r="D53" t="n">
-        <v>0.195871</v>
+        <v>0.194684</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159403</v>
+        <v>0.164633</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186842</v>
+        <v>0.186416</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195122</v>
+        <v>0.194315</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159446</v>
+        <v>0.160599</v>
       </c>
       <c r="C55" t="n">
-        <v>0.187912</v>
+        <v>0.191384</v>
       </c>
       <c r="D55" t="n">
-        <v>0.196293</v>
+        <v>0.196609</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160131</v>
+        <v>0.160134</v>
       </c>
       <c r="C56" t="n">
-        <v>0.188292</v>
+        <v>0.188885</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197082</v>
+        <v>0.197178</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161416</v>
+        <v>0.169591</v>
       </c>
       <c r="C57" t="n">
-        <v>0.188221</v>
+        <v>0.190782</v>
       </c>
       <c r="D57" t="n">
-        <v>0.196496</v>
+        <v>0.199093</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161645</v>
+        <v>0.168584</v>
       </c>
       <c r="C58" t="n">
-        <v>0.189203</v>
+        <v>0.192824</v>
       </c>
       <c r="D58" t="n">
-        <v>0.195686</v>
+        <v>0.198021</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163051</v>
+        <v>0.164979</v>
       </c>
       <c r="C59" t="n">
-        <v>0.189941</v>
+        <v>0.194742</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198759</v>
+        <v>0.198241</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163008</v>
+        <v>0.171041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.192131</v>
+        <v>0.194255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.20013</v>
+        <v>0.198651</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165931</v>
+        <v>0.177538</v>
       </c>
       <c r="C61" t="n">
-        <v>0.193878</v>
+        <v>0.200226</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20196</v>
+        <v>0.200739</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16734</v>
+        <v>0.165998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.19685</v>
+        <v>0.203675</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203234</v>
+        <v>0.203625</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1695</v>
+        <v>0.177977</v>
       </c>
       <c r="C63" t="n">
-        <v>0.198096</v>
+        <v>0.200429</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207432</v>
+        <v>0.206773</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.172436</v>
+        <v>0.182179</v>
       </c>
       <c r="C64" t="n">
-        <v>0.198877</v>
+        <v>0.207589</v>
       </c>
       <c r="D64" t="n">
-        <v>0.211434</v>
+        <v>0.213308</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179547</v>
+        <v>0.189578</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204637</v>
+        <v>0.216086</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218997</v>
+        <v>0.220677</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185618</v>
+        <v>0.197599</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210791</v>
+        <v>0.217682</v>
       </c>
       <c r="D66" t="n">
-        <v>0.208967</v>
+        <v>0.214322</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178733</v>
+        <v>0.1806</v>
       </c>
       <c r="C67" t="n">
-        <v>0.203136</v>
+        <v>0.20856</v>
       </c>
       <c r="D67" t="n">
-        <v>0.210245</v>
+        <v>0.211919</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179652</v>
+        <v>0.192855</v>
       </c>
       <c r="C68" t="n">
-        <v>0.202584</v>
+        <v>0.21161</v>
       </c>
       <c r="D68" t="n">
-        <v>0.210545</v>
+        <v>0.211584</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.17731</v>
+        <v>0.190753</v>
       </c>
       <c r="C69" t="n">
-        <v>0.204925</v>
+        <v>0.207634</v>
       </c>
       <c r="D69" t="n">
-        <v>0.210469</v>
+        <v>0.212035</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.177807</v>
+        <v>0.196546</v>
       </c>
       <c r="C70" t="n">
-        <v>0.20886</v>
+        <v>0.21264</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211091</v>
+        <v>0.215357</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181507</v>
+        <v>0.18921</v>
       </c>
       <c r="C71" t="n">
-        <v>0.20986</v>
+        <v>0.211602</v>
       </c>
       <c r="D71" t="n">
-        <v>0.212614</v>
+        <v>0.213704</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1821</v>
+        <v>0.188079</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209782</v>
+        <v>0.211141</v>
       </c>
       <c r="D72" t="n">
-        <v>0.211915</v>
+        <v>0.215653</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182102</v>
+        <v>0.201251</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207724</v>
+        <v>0.215253</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214494</v>
+        <v>0.215876</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186793</v>
+        <v>0.199958</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209981</v>
+        <v>0.218695</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214364</v>
+        <v>0.222201</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18749</v>
+        <v>0.213498</v>
       </c>
       <c r="C75" t="n">
-        <v>0.213177</v>
+        <v>0.230149</v>
       </c>
       <c r="D75" t="n">
-        <v>0.216471</v>
+        <v>0.222583</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184531</v>
+        <v>0.218415</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213098</v>
+        <v>0.229095</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217362</v>
+        <v>0.223995</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190834</v>
+        <v>0.216887</v>
       </c>
       <c r="C77" t="n">
-        <v>0.21357</v>
+        <v>0.229491</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220657</v>
+        <v>0.225393</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194141</v>
+        <v>0.222181</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215911</v>
+        <v>0.237214</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223947</v>
+        <v>0.231163</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198392</v>
+        <v>0.229048</v>
       </c>
       <c r="C79" t="n">
-        <v>0.219902</v>
+        <v>0.230123</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230291</v>
+        <v>0.237063</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.202881</v>
+        <v>0.223781</v>
       </c>
       <c r="C80" t="n">
-        <v>0.224592</v>
+        <v>0.238128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305309</v>
+        <v>0.30813</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.337582</v>
+        <v>0.345718</v>
       </c>
       <c r="C81" t="n">
-        <v>0.348165</v>
+        <v>0.348932</v>
       </c>
       <c r="D81" t="n">
-        <v>0.306467</v>
+        <v>0.282292</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.342999</v>
+        <v>0.341209</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34811</v>
+        <v>0.34891</v>
       </c>
       <c r="D82" t="n">
-        <v>0.309454</v>
+        <v>0.281817</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343837</v>
+        <v>0.345402</v>
       </c>
       <c r="C83" t="n">
-        <v>0.343762</v>
+        <v>0.344912</v>
       </c>
       <c r="D83" t="n">
-        <v>0.308276</v>
+        <v>0.308422</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338824</v>
+        <v>0.351153</v>
       </c>
       <c r="C84" t="n">
-        <v>0.346604</v>
+        <v>0.344034</v>
       </c>
       <c r="D84" t="n">
-        <v>0.308105</v>
+        <v>0.310464</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.344984</v>
+        <v>0.346694</v>
       </c>
       <c r="C85" t="n">
-        <v>0.339571</v>
+        <v>0.33913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306258</v>
+        <v>0.306201</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.344341</v>
+        <v>0.346071</v>
       </c>
       <c r="C86" t="n">
-        <v>0.343692</v>
+        <v>0.342362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.305499</v>
+        <v>0.304648</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.346775</v>
+        <v>0.347531</v>
       </c>
       <c r="C87" t="n">
-        <v>0.341162</v>
+        <v>0.34224</v>
       </c>
       <c r="D87" t="n">
-        <v>0.305164</v>
+        <v>0.303898</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346396</v>
+        <v>0.347388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.342881</v>
+        <v>0.337848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.302771</v>
+        <v>0.304921</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.353175</v>
+        <v>0.350406</v>
       </c>
       <c r="C89" t="n">
-        <v>0.338868</v>
+        <v>0.339102</v>
       </c>
       <c r="D89" t="n">
-        <v>0.305934</v>
+        <v>0.303378</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348237</v>
+        <v>0.3494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.340625</v>
+        <v>0.339865</v>
       </c>
       <c r="D90" t="n">
-        <v>0.29942</v>
+        <v>0.302889</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353654</v>
+        <v>0.353664</v>
       </c>
       <c r="C91" t="n">
-        <v>0.338228</v>
+        <v>0.342118</v>
       </c>
       <c r="D91" t="n">
-        <v>0.304343</v>
+        <v>0.27169</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353209</v>
+        <v>0.354321</v>
       </c>
       <c r="C92" t="n">
-        <v>0.338746</v>
+        <v>0.321992</v>
       </c>
       <c r="D92" t="n">
-        <v>0.303393</v>
+        <v>0.274943</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.361087</v>
+        <v>0.361042</v>
       </c>
       <c r="C93" t="n">
-        <v>0.342725</v>
+        <v>0.336289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307301</v>
+        <v>0.307789</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362541</v>
+        <v>0.368241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.342994</v>
+        <v>0.339336</v>
       </c>
       <c r="D94" t="n">
-        <v>0.518644</v>
+        <v>0.52823</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.496928</v>
+        <v>0.503316</v>
       </c>
       <c r="C95" t="n">
-        <v>0.567809</v>
+        <v>0.572836</v>
       </c>
       <c r="D95" t="n">
-        <v>0.517143</v>
+        <v>0.525786</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.497023</v>
+        <v>0.503902</v>
       </c>
       <c r="C96" t="n">
-        <v>0.563642</v>
+        <v>0.571507</v>
       </c>
       <c r="D96" t="n">
-        <v>0.518597</v>
+        <v>0.505087</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.496707</v>
+        <v>0.50454</v>
       </c>
       <c r="C97" t="n">
-        <v>0.561569</v>
+        <v>0.570838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.518272</v>
+        <v>0.52274</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.497333</v>
+        <v>0.504354</v>
       </c>
       <c r="C98" t="n">
-        <v>0.560855</v>
+        <v>0.568558</v>
       </c>
       <c r="D98" t="n">
-        <v>0.516738</v>
+        <v>0.525976</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497567</v>
+        <v>0.505058</v>
       </c>
       <c r="C99" t="n">
-        <v>0.560046</v>
+        <v>0.568585</v>
       </c>
       <c r="D99" t="n">
-        <v>0.516466</v>
+        <v>0.525854</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.497969</v>
+        <v>0.505792</v>
       </c>
       <c r="C100" t="n">
-        <v>0.560125</v>
+        <v>0.56812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.512701</v>
+        <v>0.5039670000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498865</v>
+        <v>0.504664</v>
       </c>
       <c r="C101" t="n">
-        <v>0.560445</v>
+        <v>0.56909</v>
       </c>
       <c r="D101" t="n">
-        <v>0.514733</v>
+        <v>0.524457</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.50009</v>
+        <v>0.506258</v>
       </c>
       <c r="C102" t="n">
-        <v>0.560369</v>
+        <v>0.5661620000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.515284</v>
+        <v>0.523037</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.501966</v>
+        <v>0.508471</v>
       </c>
       <c r="C103" t="n">
-        <v>0.559852</v>
+        <v>0.566114</v>
       </c>
       <c r="D103" t="n">
-        <v>0.515002</v>
+        <v>0.522599</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.502906</v>
+        <v>0.509616</v>
       </c>
       <c r="C104" t="n">
-        <v>0.559395</v>
+        <v>0.550368</v>
       </c>
       <c r="D104" t="n">
-        <v>0.515691</v>
+        <v>0.52633</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.506013</v>
+        <v>0.514043</v>
       </c>
       <c r="C105" t="n">
-        <v>0.56101</v>
+        <v>0.569198</v>
       </c>
       <c r="D105" t="n">
-        <v>0.516048</v>
+        <v>0.503956</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5089669999999999</v>
+        <v>0.515642</v>
       </c>
       <c r="C106" t="n">
-        <v>0.562323</v>
+        <v>0.570914</v>
       </c>
       <c r="D106" t="n">
-        <v>0.518163</v>
+        <v>0.524197</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.513852</v>
+        <v>0.520004</v>
       </c>
       <c r="C107" t="n">
-        <v>0.565558</v>
+        <v>0.572616</v>
       </c>
       <c r="D107" t="n">
-        <v>0.521985</v>
+        <v>0.5304</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5210630000000001</v>
+        <v>0.529261</v>
       </c>
       <c r="C108" t="n">
-        <v>0.569242</v>
+        <v>0.577161</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7272420000000001</v>
+        <v>0.723611</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.532146</v>
+        <v>0.538022</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5770690000000001</v>
+        <v>0.58349</v>
       </c>
       <c r="D109" t="n">
-        <v>0.728193</v>
+        <v>0.7356009999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.578476</v>
+        <v>0.589276</v>
       </c>
       <c r="C110" t="n">
-        <v>0.690207</v>
+        <v>0.700664</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7269679999999999</v>
+        <v>0.735073</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.579617</v>
+        <v>0.591155</v>
       </c>
       <c r="C111" t="n">
-        <v>0.689761</v>
+        <v>0.699416</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7255509999999999</v>
+        <v>0.737746</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.579914</v>
+        <v>0.590282</v>
       </c>
       <c r="C112" t="n">
-        <v>0.690577</v>
+        <v>0.703178</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7282419999999999</v>
+        <v>0.736666</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.579992</v>
+        <v>0.589184</v>
       </c>
       <c r="C113" t="n">
-        <v>0.690811</v>
+        <v>0.7012930000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.729509</v>
+        <v>0.724504</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582689</v>
+        <v>0.588427</v>
       </c>
       <c r="C114" t="n">
-        <v>0.69149</v>
+        <v>0.70336</v>
       </c>
       <c r="D114" t="n">
-        <v>0.729721</v>
+        <v>0.735633</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.582304</v>
+        <v>0.591831</v>
       </c>
       <c r="C115" t="n">
-        <v>0.691847</v>
+        <v>0.694976</v>
       </c>
       <c r="D115" t="n">
-        <v>0.730143</v>
+        <v>0.741228</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.581366</v>
+        <v>0.5958830000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.693588</v>
+        <v>0.706279</v>
       </c>
       <c r="D116" t="n">
-        <v>0.731445</v>
+        <v>0.7403459999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.586107</v>
+        <v>0.596467</v>
       </c>
       <c r="C117" t="n">
-        <v>0.695749</v>
+        <v>0.706318</v>
       </c>
       <c r="D117" t="n">
-        <v>0.731637</v>
+        <v>0.726032</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.588564</v>
+        <v>0.599661</v>
       </c>
       <c r="C118" t="n">
-        <v>0.699174</v>
+        <v>0.709314</v>
       </c>
       <c r="D118" t="n">
-        <v>0.735521</v>
+        <v>0.7423920000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.592288</v>
+        <v>0.602449</v>
       </c>
       <c r="C119" t="n">
-        <v>0.698927</v>
+        <v>0.712194</v>
       </c>
       <c r="D119" t="n">
-        <v>0.738016</v>
+        <v>0.746718</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.597279</v>
+        <v>0.607932</v>
       </c>
       <c r="C120" t="n">
-        <v>0.704647</v>
+        <v>0.714626</v>
       </c>
       <c r="D120" t="n">
-        <v>0.739764</v>
+        <v>0.747593</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.60345</v>
+        <v>0.611532</v>
       </c>
       <c r="C121" t="n">
-        <v>0.707298</v>
+        <v>0.718708</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744785</v>
+        <v>0.737855</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.611195</v>
+        <v>0.62207</v>
       </c>
       <c r="C122" t="n">
-        <v>0.712078</v>
+        <v>0.72244</v>
       </c>
       <c r="D122" t="n">
-        <v>0.750133</v>
+        <v>0.7584959999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.622572</v>
+        <v>0.636781</v>
       </c>
       <c r="C123" t="n">
-        <v>0.72005</v>
+        <v>0.723595</v>
       </c>
       <c r="D123" t="n">
-        <v>0.956467</v>
+        <v>0.9724699999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.72139</v>
+        <v>0.737497</v>
       </c>
       <c r="C124" t="n">
-        <v>0.799682</v>
+        <v>0.818593</v>
       </c>
       <c r="D124" t="n">
-        <v>0.960999</v>
+        <v>0.979867</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.721879</v>
+        <v>0.74076</v>
       </c>
       <c r="C125" t="n">
-        <v>0.801351</v>
+        <v>0.818801</v>
       </c>
       <c r="D125" t="n">
-        <v>0.957636</v>
+        <v>0.983725</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.722776</v>
+        <v>0.74326</v>
       </c>
       <c r="C126" t="n">
-        <v>0.803279</v>
+        <v>0.821715</v>
       </c>
       <c r="D126" t="n">
-        <v>0.96067</v>
+        <v>0.977419</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7211649999999999</v>
+        <v>0.741692</v>
       </c>
       <c r="C127" t="n">
-        <v>0.804024</v>
+        <v>0.821775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9616479999999999</v>
+        <v>0.980714</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.723486</v>
+        <v>0.739553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8044480000000001</v>
+        <v>0.81798</v>
       </c>
       <c r="D128" t="n">
-        <v>0.961692</v>
+        <v>0.9861529999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7246050000000001</v>
+        <v>0.740317</v>
       </c>
       <c r="C129" t="n">
-        <v>0.806847</v>
+        <v>0.826083</v>
       </c>
       <c r="D129" t="n">
-        <v>0.96488</v>
+        <v>0.983024</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.725678</v>
+        <v>0.743368</v>
       </c>
       <c r="C130" t="n">
-        <v>0.808492</v>
+        <v>0.829368</v>
       </c>
       <c r="D130" t="n">
-        <v>0.964504</v>
+        <v>0.981883</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7275779999999999</v>
+        <v>0.748031</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8113899999999999</v>
+        <v>0.824709</v>
       </c>
       <c r="D131" t="n">
-        <v>0.965523</v>
+        <v>0.98999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.729909</v>
+        <v>0.749631</v>
       </c>
       <c r="C132" t="n">
-        <v>0.814621</v>
+        <v>0.834125</v>
       </c>
       <c r="D132" t="n">
-        <v>0.966909</v>
+        <v>0.99003</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.734831</v>
+        <v>0.752458</v>
       </c>
       <c r="C133" t="n">
-        <v>0.818669</v>
+        <v>0.830938</v>
       </c>
       <c r="D133" t="n">
-        <v>0.972339</v>
+        <v>0.988718</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.741085</v>
+        <v>0.760294</v>
       </c>
       <c r="C134" t="n">
-        <v>0.823864</v>
+        <v>0.842747</v>
       </c>
       <c r="D134" t="n">
-        <v>0.974984</v>
+        <v>0.99427</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.747201</v>
+        <v>0.767462</v>
       </c>
       <c r="C135" t="n">
-        <v>0.828415</v>
+        <v>0.841217</v>
       </c>
       <c r="D135" t="n">
-        <v>0.975592</v>
+        <v>0.993279</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.75319</v>
+        <v>0.771627</v>
       </c>
       <c r="C136" t="n">
-        <v>0.835245</v>
+        <v>0.847548</v>
       </c>
       <c r="D136" t="n">
-        <v>0.984392</v>
+        <v>1.00414</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.766669</v>
+        <v>0.781702</v>
       </c>
       <c r="C137" t="n">
-        <v>0.843678</v>
+        <v>0.862451</v>
       </c>
       <c r="D137" t="n">
-        <v>1.15834</v>
+        <v>1.17794</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.849114</v>
+        <v>0.86494</v>
       </c>
       <c r="C138" t="n">
-        <v>0.891243</v>
+        <v>0.907493</v>
       </c>
       <c r="D138" t="n">
-        <v>1.1584</v>
+        <v>1.17816</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.848538</v>
+        <v>0.869066</v>
       </c>
       <c r="C139" t="n">
-        <v>0.892516</v>
+        <v>0.910501</v>
       </c>
       <c r="D139" t="n">
-        <v>1.16009</v>
+        <v>1.1836</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.849255</v>
+        <v>0.866505</v>
       </c>
       <c r="C140" t="n">
-        <v>0.892574</v>
+        <v>0.912941</v>
       </c>
       <c r="D140" t="n">
-        <v>1.15993</v>
+        <v>1.18387</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.85038</v>
+        <v>0.870977</v>
       </c>
       <c r="C141" t="n">
-        <v>0.894059</v>
+        <v>0.913223</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16141</v>
+        <v>1.18497</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.850506</v>
+        <v>0.870551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.896439</v>
+        <v>0.916068</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1614</v>
+        <v>1.18728</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.851237</v>
+        <v>0.8705039999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8973</v>
+        <v>0.918301</v>
       </c>
       <c r="D143" t="n">
-        <v>1.16212</v>
+        <v>1.18637</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11481</v>
+        <v>0.115755</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14457</v>
+        <v>0.14387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155223</v>
+        <v>0.155494</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116419</v>
+        <v>0.116595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.145379</v>
+        <v>0.144432</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155778</v>
+        <v>0.156138</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115419</v>
+        <v>0.117511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145731</v>
+        <v>0.144842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156289</v>
+        <v>0.156694</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.114539</v>
+        <v>0.117776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.145343</v>
+        <v>0.144701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156565</v>
+        <v>0.15698</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.115818</v>
+        <v>0.117813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.146059</v>
+        <v>0.145906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157925</v>
+        <v>0.158053</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117719</v>
+        <v>0.118949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.14764</v>
+        <v>0.14628</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15907</v>
+        <v>0.159232</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120504</v>
+        <v>0.120036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.149441</v>
+        <v>0.147479</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161898</v>
+        <v>0.161699</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12402</v>
+        <v>0.123279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152191</v>
+        <v>0.151477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157469</v>
+        <v>0.156623</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122488</v>
+        <v>0.123458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.149207</v>
+        <v>0.14936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157101</v>
+        <v>0.15733</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122527</v>
+        <v>0.122411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.151742</v>
+        <v>0.149416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.158219</v>
+        <v>0.157401</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12288</v>
+        <v>0.123212</v>
       </c>
       <c r="C12" t="n">
-        <v>0.153255</v>
+        <v>0.149655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.158462</v>
+        <v>0.157655</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123813</v>
+        <v>0.12326</v>
       </c>
       <c r="C13" t="n">
-        <v>0.151355</v>
+        <v>0.149927</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15874</v>
+        <v>0.157782</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123706</v>
+        <v>0.122694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.151289</v>
+        <v>0.150249</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159005</v>
+        <v>0.158372</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124251</v>
+        <v>0.122886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153071</v>
+        <v>0.150594</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159766</v>
+        <v>0.158535</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124915</v>
+        <v>0.12423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.15547</v>
+        <v>0.150774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.160794</v>
+        <v>0.159192</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125367</v>
+        <v>0.125384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.154711</v>
+        <v>0.151129</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160892</v>
+        <v>0.159956</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126054</v>
+        <v>0.126123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.155104</v>
+        <v>0.152193</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162036</v>
+        <v>0.161317</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126833</v>
+        <v>0.126428</v>
       </c>
       <c r="C19" t="n">
-        <v>0.154779</v>
+        <v>0.153153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162332</v>
+        <v>0.161921</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127508</v>
+        <v>0.127019</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15604</v>
+        <v>0.154391</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164096</v>
+        <v>0.163389</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129816</v>
+        <v>0.128473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.157678</v>
+        <v>0.155588</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166667</v>
+        <v>0.165857</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133056</v>
+        <v>0.132564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.162018</v>
+        <v>0.160309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172453</v>
+        <v>0.171786</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140695</v>
+        <v>0.14127</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166669</v>
+        <v>0.163145</v>
       </c>
       <c r="D23" t="n">
-        <v>0.165261</v>
+        <v>0.166642</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133443</v>
+        <v>0.133312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.160032</v>
+        <v>0.159799</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164817</v>
+        <v>0.165936</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134207</v>
+        <v>0.132873</v>
       </c>
       <c r="C25" t="n">
-        <v>0.160333</v>
+        <v>0.161776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165479</v>
+        <v>0.166591</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134366</v>
+        <v>0.133765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.160672</v>
+        <v>0.16254</v>
       </c>
       <c r="D26" t="n">
-        <v>0.16536</v>
+        <v>0.166618</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133209</v>
+        <v>0.133948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.16153</v>
+        <v>0.163068</v>
       </c>
       <c r="D27" t="n">
-        <v>0.165956</v>
+        <v>0.167367</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133703</v>
+        <v>0.135038</v>
       </c>
       <c r="C28" t="n">
-        <v>0.161378</v>
+        <v>0.163157</v>
       </c>
       <c r="D28" t="n">
-        <v>0.168007</v>
+        <v>0.167705</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134381</v>
+        <v>0.135346</v>
       </c>
       <c r="C29" t="n">
-        <v>0.162444</v>
+        <v>0.163444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.166609</v>
+        <v>0.167749</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134444</v>
+        <v>0.135425</v>
       </c>
       <c r="C30" t="n">
-        <v>0.162671</v>
+        <v>0.164307</v>
       </c>
       <c r="D30" t="n">
-        <v>0.167029</v>
+        <v>0.168424</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135596</v>
+        <v>0.134895</v>
       </c>
       <c r="C31" t="n">
-        <v>0.162809</v>
+        <v>0.164722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168346</v>
+        <v>0.169099</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135584</v>
+        <v>0.136133</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16385</v>
+        <v>0.164638</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168327</v>
+        <v>0.168925</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137628</v>
+        <v>0.138374</v>
       </c>
       <c r="C33" t="n">
-        <v>0.164882</v>
+        <v>0.165787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169725</v>
+        <v>0.170657</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139036</v>
+        <v>0.139501</v>
       </c>
       <c r="C34" t="n">
-        <v>0.16626</v>
+        <v>0.167154</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171752</v>
+        <v>0.172301</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142292</v>
+        <v>0.142086</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168311</v>
+        <v>0.168748</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175538</v>
+        <v>0.175733</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148507</v>
+        <v>0.148817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172258</v>
+        <v>0.173594</v>
       </c>
       <c r="D36" t="n">
-        <v>0.182184</v>
+        <v>0.184506</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1553</v>
+        <v>0.155754</v>
       </c>
       <c r="C37" t="n">
-        <v>0.177527</v>
+        <v>0.178452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.179915</v>
+        <v>0.178058</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14576</v>
+        <v>0.144576</v>
       </c>
       <c r="C38" t="n">
-        <v>0.173131</v>
+        <v>0.173965</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178495</v>
+        <v>0.178926</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146083</v>
+        <v>0.146468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.174105</v>
+        <v>0.174481</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179177</v>
+        <v>0.179973</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146393</v>
+        <v>0.145254</v>
       </c>
       <c r="C40" t="n">
-        <v>0.173821</v>
+        <v>0.175776</v>
       </c>
       <c r="D40" t="n">
-        <v>0.179396</v>
+        <v>0.181878</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146595</v>
+        <v>0.149674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.173699</v>
+        <v>0.177622</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180072</v>
+        <v>0.183403</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.144764</v>
+        <v>0.148776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.17453</v>
+        <v>0.177018</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180977</v>
+        <v>0.182396</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14745</v>
+        <v>0.148506</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175331</v>
+        <v>0.177376</v>
       </c>
       <c r="D43" t="n">
-        <v>0.180199</v>
+        <v>0.181915</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.145904</v>
+        <v>0.148057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175728</v>
+        <v>0.177676</v>
       </c>
       <c r="D44" t="n">
-        <v>0.181687</v>
+        <v>0.18103</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.146667</v>
+        <v>0.151667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.176961</v>
+        <v>0.178416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181124</v>
+        <v>0.183041</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151139</v>
+        <v>0.152118</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178282</v>
+        <v>0.180007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.18175</v>
+        <v>0.185862</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150421</v>
+        <v>0.152224</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178739</v>
+        <v>0.180718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.184227</v>
+        <v>0.18682</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150948</v>
+        <v>0.155761</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1811</v>
+        <v>0.182291</v>
       </c>
       <c r="D48" t="n">
-        <v>0.187331</v>
+        <v>0.187431</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155602</v>
+        <v>0.159149</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182937</v>
+        <v>0.183989</v>
       </c>
       <c r="D49" t="n">
-        <v>0.188976</v>
+        <v>0.190202</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.162055</v>
+        <v>0.161764</v>
       </c>
       <c r="C50" t="n">
-        <v>0.186984</v>
+        <v>0.188049</v>
       </c>
       <c r="D50" t="n">
-        <v>0.194269</v>
+        <v>0.197244</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168301</v>
+        <v>0.170177</v>
       </c>
       <c r="C51" t="n">
-        <v>0.19068</v>
+        <v>0.192839</v>
       </c>
       <c r="D51" t="n">
-        <v>0.193478</v>
+        <v>0.194782</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.17896</v>
+        <v>0.175394</v>
       </c>
       <c r="C52" t="n">
-        <v>0.197763</v>
+        <v>0.20043</v>
       </c>
       <c r="D52" t="n">
-        <v>0.197933</v>
+        <v>0.194931</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.168993</v>
+        <v>0.160325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18599</v>
+        <v>0.186291</v>
       </c>
       <c r="D53" t="n">
-        <v>0.194684</v>
+        <v>0.195579</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.164633</v>
+        <v>0.16023</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186416</v>
+        <v>0.187024</v>
       </c>
       <c r="D54" t="n">
-        <v>0.194315</v>
+        <v>0.196135</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160599</v>
+        <v>0.15958</v>
       </c>
       <c r="C55" t="n">
-        <v>0.191384</v>
+        <v>0.187767</v>
       </c>
       <c r="D55" t="n">
-        <v>0.196609</v>
+        <v>0.197348</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160134</v>
+        <v>0.161052</v>
       </c>
       <c r="C56" t="n">
-        <v>0.188885</v>
+        <v>0.187665</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197178</v>
+        <v>0.19571</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.169591</v>
+        <v>0.161193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.190782</v>
+        <v>0.188915</v>
       </c>
       <c r="D57" t="n">
-        <v>0.199093</v>
+        <v>0.197667</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.168584</v>
+        <v>0.161629</v>
       </c>
       <c r="C58" t="n">
-        <v>0.192824</v>
+        <v>0.189242</v>
       </c>
       <c r="D58" t="n">
-        <v>0.198021</v>
+        <v>0.198294</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.164979</v>
+        <v>0.161817</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194742</v>
+        <v>0.190811</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198241</v>
+        <v>0.198628</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.171041</v>
+        <v>0.163077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.194255</v>
+        <v>0.191373</v>
       </c>
       <c r="D60" t="n">
-        <v>0.198651</v>
+        <v>0.199737</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.177538</v>
+        <v>0.16422</v>
       </c>
       <c r="C61" t="n">
-        <v>0.200226</v>
+        <v>0.192403</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200739</v>
+        <v>0.200721</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165998</v>
+        <v>0.16727</v>
       </c>
       <c r="C62" t="n">
-        <v>0.203675</v>
+        <v>0.193892</v>
       </c>
       <c r="D62" t="n">
-        <v>0.203625</v>
+        <v>0.202956</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177977</v>
+        <v>0.169449</v>
       </c>
       <c r="C63" t="n">
-        <v>0.200429</v>
+        <v>0.196</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206773</v>
+        <v>0.205674</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182179</v>
+        <v>0.173521</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207589</v>
+        <v>0.199607</v>
       </c>
       <c r="D64" t="n">
-        <v>0.213308</v>
+        <v>0.210675</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189578</v>
+        <v>0.178379</v>
       </c>
       <c r="C65" t="n">
-        <v>0.216086</v>
+        <v>0.203185</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220677</v>
+        <v>0.216669</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197599</v>
+        <v>0.186559</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217682</v>
+        <v>0.210782</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214322</v>
+        <v>0.210567</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1806</v>
+        <v>0.179861</v>
       </c>
       <c r="C67" t="n">
-        <v>0.20856</v>
+        <v>0.20319</v>
       </c>
       <c r="D67" t="n">
-        <v>0.211919</v>
+        <v>0.209654</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.192855</v>
+        <v>0.18419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21161</v>
+        <v>0.206006</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211584</v>
+        <v>0.210597</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.190753</v>
+        <v>0.179607</v>
       </c>
       <c r="C69" t="n">
-        <v>0.207634</v>
+        <v>0.202738</v>
       </c>
       <c r="D69" t="n">
-        <v>0.212035</v>
+        <v>0.210966</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.196546</v>
+        <v>0.177374</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21264</v>
+        <v>0.204126</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215357</v>
+        <v>0.211559</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18921</v>
+        <v>0.183124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.211602</v>
+        <v>0.206086</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213704</v>
+        <v>0.211309</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188079</v>
+        <v>0.184016</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211141</v>
+        <v>0.207802</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215653</v>
+        <v>0.213044</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.201251</v>
+        <v>0.185061</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215253</v>
+        <v>0.209252</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215876</v>
+        <v>0.214255</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199958</v>
+        <v>0.182813</v>
       </c>
       <c r="C74" t="n">
-        <v>0.218695</v>
+        <v>0.209461</v>
       </c>
       <c r="D74" t="n">
-        <v>0.222201</v>
+        <v>0.215951</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.213498</v>
+        <v>0.191184</v>
       </c>
       <c r="C75" t="n">
-        <v>0.230149</v>
+        <v>0.211193</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222583</v>
+        <v>0.216381</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.218415</v>
+        <v>0.187812</v>
       </c>
       <c r="C76" t="n">
-        <v>0.229095</v>
+        <v>0.211691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.223995</v>
+        <v>0.218078</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.216887</v>
+        <v>0.191741</v>
       </c>
       <c r="C77" t="n">
-        <v>0.229491</v>
+        <v>0.213387</v>
       </c>
       <c r="D77" t="n">
-        <v>0.225393</v>
+        <v>0.220284</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.222181</v>
+        <v>0.192488</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237214</v>
+        <v>0.215412</v>
       </c>
       <c r="D78" t="n">
-        <v>0.231163</v>
+        <v>0.22453</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.229048</v>
+        <v>0.198543</v>
       </c>
       <c r="C79" t="n">
-        <v>0.230123</v>
+        <v>0.220143</v>
       </c>
       <c r="D79" t="n">
-        <v>0.237063</v>
+        <v>0.230366</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.223781</v>
+        <v>0.208516</v>
       </c>
       <c r="C80" t="n">
-        <v>0.238128</v>
+        <v>0.2264</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30813</v>
+        <v>0.308548</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.345718</v>
+        <v>0.340614</v>
       </c>
       <c r="C81" t="n">
-        <v>0.348932</v>
+        <v>0.347891</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282292</v>
+        <v>0.308971</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341209</v>
+        <v>0.340699</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34891</v>
+        <v>0.349484</v>
       </c>
       <c r="D82" t="n">
-        <v>0.281817</v>
+        <v>0.310595</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345402</v>
+        <v>0.343059</v>
       </c>
       <c r="C83" t="n">
-        <v>0.344912</v>
+        <v>0.346157</v>
       </c>
       <c r="D83" t="n">
-        <v>0.308422</v>
+        <v>0.307908</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.351153</v>
+        <v>0.343064</v>
       </c>
       <c r="C84" t="n">
-        <v>0.344034</v>
+        <v>0.344872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.310464</v>
+        <v>0.307491</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346694</v>
+        <v>0.343969</v>
       </c>
       <c r="C85" t="n">
-        <v>0.33913</v>
+        <v>0.347425</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306201</v>
+        <v>0.306896</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346071</v>
+        <v>0.349152</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342362</v>
+        <v>0.336099</v>
       </c>
       <c r="D86" t="n">
-        <v>0.304648</v>
+        <v>0.305351</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347531</v>
+        <v>0.345377</v>
       </c>
       <c r="C87" t="n">
-        <v>0.34224</v>
+        <v>0.339547</v>
       </c>
       <c r="D87" t="n">
-        <v>0.303898</v>
+        <v>0.305975</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347388</v>
+        <v>0.345362</v>
       </c>
       <c r="C88" t="n">
-        <v>0.337848</v>
+        <v>0.339691</v>
       </c>
       <c r="D88" t="n">
-        <v>0.304921</v>
+        <v>0.301962</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350406</v>
+        <v>0.346112</v>
       </c>
       <c r="C89" t="n">
-        <v>0.339102</v>
+        <v>0.333755</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303378</v>
+        <v>0.300183</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3494</v>
+        <v>0.348885</v>
       </c>
       <c r="C90" t="n">
-        <v>0.339865</v>
+        <v>0.336618</v>
       </c>
       <c r="D90" t="n">
-        <v>0.302889</v>
+        <v>0.301791</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353664</v>
+        <v>0.352569</v>
       </c>
       <c r="C91" t="n">
-        <v>0.342118</v>
+        <v>0.336669</v>
       </c>
       <c r="D91" t="n">
-        <v>0.27169</v>
+        <v>0.300736</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.354321</v>
+        <v>0.355576</v>
       </c>
       <c r="C92" t="n">
-        <v>0.321992</v>
+        <v>0.336692</v>
       </c>
       <c r="D92" t="n">
-        <v>0.274943</v>
+        <v>0.30324</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.361042</v>
+        <v>0.360528</v>
       </c>
       <c r="C93" t="n">
-        <v>0.336289</v>
+        <v>0.341239</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307789</v>
+        <v>0.307975</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.368241</v>
+        <v>0.361574</v>
       </c>
       <c r="C94" t="n">
-        <v>0.339336</v>
+        <v>0.346465</v>
       </c>
       <c r="D94" t="n">
-        <v>0.52823</v>
+        <v>0.523546</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.503316</v>
+        <v>0.502115</v>
       </c>
       <c r="C95" t="n">
-        <v>0.572836</v>
+        <v>0.5572820000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.525786</v>
+        <v>0.521347</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.503902</v>
+        <v>0.502371</v>
       </c>
       <c r="C96" t="n">
-        <v>0.571507</v>
+        <v>0.556248</v>
       </c>
       <c r="D96" t="n">
-        <v>0.505087</v>
+        <v>0.5209240000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.50454</v>
+        <v>0.502296</v>
       </c>
       <c r="C97" t="n">
-        <v>0.570838</v>
+        <v>0.5678569999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52274</v>
+        <v>0.504273</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.504354</v>
+        <v>0.50226</v>
       </c>
       <c r="C98" t="n">
-        <v>0.568558</v>
+        <v>0.554003</v>
       </c>
       <c r="D98" t="n">
-        <v>0.525976</v>
+        <v>0.518618</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505058</v>
+        <v>0.5031060000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.568585</v>
+        <v>0.552636</v>
       </c>
       <c r="D99" t="n">
-        <v>0.525854</v>
+        <v>0.51758</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505792</v>
+        <v>0.504251</v>
       </c>
       <c r="C100" t="n">
-        <v>0.56812</v>
+        <v>0.552265</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5039670000000001</v>
+        <v>0.517169</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504664</v>
+        <v>0.5033879999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.56909</v>
+        <v>0.565459</v>
       </c>
       <c r="D101" t="n">
-        <v>0.524457</v>
+        <v>0.501231</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.506258</v>
+        <v>0.505101</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5661620000000001</v>
+        <v>0.563923</v>
       </c>
       <c r="D102" t="n">
-        <v>0.523037</v>
+        <v>0.501924</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508471</v>
+        <v>0.506278</v>
       </c>
       <c r="C103" t="n">
-        <v>0.566114</v>
+        <v>0.564675</v>
       </c>
       <c r="D103" t="n">
-        <v>0.522599</v>
+        <v>0.503063</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.509616</v>
+        <v>0.50843</v>
       </c>
       <c r="C104" t="n">
-        <v>0.550368</v>
+        <v>0.567078</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52633</v>
+        <v>0.502185</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514043</v>
+        <v>0.510737</v>
       </c>
       <c r="C105" t="n">
-        <v>0.569198</v>
+        <v>0.566698</v>
       </c>
       <c r="D105" t="n">
-        <v>0.503956</v>
+        <v>0.519053</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.515642</v>
+        <v>0.5142</v>
       </c>
       <c r="C106" t="n">
-        <v>0.570914</v>
+        <v>0.568727</v>
       </c>
       <c r="D106" t="n">
-        <v>0.524197</v>
+        <v>0.522326</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.520004</v>
+        <v>0.519081</v>
       </c>
       <c r="C107" t="n">
-        <v>0.572616</v>
+        <v>0.570526</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5304</v>
+        <v>0.526262</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529261</v>
+        <v>0.526922</v>
       </c>
       <c r="C108" t="n">
-        <v>0.577161</v>
+        <v>0.575968</v>
       </c>
       <c r="D108" t="n">
-        <v>0.723611</v>
+        <v>0.734534</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.538022</v>
+        <v>0.537867</v>
       </c>
       <c r="C109" t="n">
-        <v>0.58349</v>
+        <v>0.582319</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7356009999999999</v>
+        <v>0.738194</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.589276</v>
+        <v>0.585618</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700664</v>
+        <v>0.692033</v>
       </c>
       <c r="D110" t="n">
-        <v>0.735073</v>
+        <v>0.736125</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591155</v>
+        <v>0.586978</v>
       </c>
       <c r="C111" t="n">
-        <v>0.699416</v>
+        <v>0.699914</v>
       </c>
       <c r="D111" t="n">
-        <v>0.737746</v>
+        <v>0.727187</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.590282</v>
+        <v>0.586777</v>
       </c>
       <c r="C112" t="n">
-        <v>0.703178</v>
+        <v>0.700313</v>
       </c>
       <c r="D112" t="n">
-        <v>0.736666</v>
+        <v>0.736302</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589184</v>
+        <v>0.589567</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7012930000000001</v>
+        <v>0.700387</v>
       </c>
       <c r="D113" t="n">
-        <v>0.724504</v>
+        <v>0.738672</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.588427</v>
+        <v>0.589662</v>
       </c>
       <c r="C114" t="n">
-        <v>0.70336</v>
+        <v>0.701939</v>
       </c>
       <c r="D114" t="n">
-        <v>0.735633</v>
+        <v>0.737911</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591831</v>
+        <v>0.589218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.694976</v>
+        <v>0.703335</v>
       </c>
       <c r="D115" t="n">
-        <v>0.741228</v>
+        <v>0.738329</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5958830000000001</v>
+        <v>0.591017</v>
       </c>
       <c r="C116" t="n">
-        <v>0.706279</v>
+        <v>0.704458</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7403459999999999</v>
+        <v>0.731675</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596467</v>
+        <v>0.592894</v>
       </c>
       <c r="C117" t="n">
-        <v>0.706318</v>
+        <v>0.7055399999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.726032</v>
+        <v>0.739812</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.599661</v>
+        <v>0.597096</v>
       </c>
       <c r="C118" t="n">
-        <v>0.709314</v>
+        <v>0.705856</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7423920000000001</v>
+        <v>0.733912</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.602449</v>
+        <v>0.598146</v>
       </c>
       <c r="C119" t="n">
-        <v>0.712194</v>
+        <v>0.700967</v>
       </c>
       <c r="D119" t="n">
-        <v>0.746718</v>
+        <v>0.746932</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.607932</v>
+        <v>0.604407</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714626</v>
+        <v>0.704116</v>
       </c>
       <c r="D120" t="n">
-        <v>0.747593</v>
+        <v>0.740188</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.611532</v>
+        <v>0.609642</v>
       </c>
       <c r="C121" t="n">
-        <v>0.718708</v>
+        <v>0.715927</v>
       </c>
       <c r="D121" t="n">
-        <v>0.737855</v>
+        <v>0.752119</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.62207</v>
+        <v>0.620985</v>
       </c>
       <c r="C122" t="n">
-        <v>0.72244</v>
+        <v>0.721874</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7584959999999999</v>
+        <v>0.757795</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.636781</v>
+        <v>0.631868</v>
       </c>
       <c r="C123" t="n">
-        <v>0.723595</v>
+        <v>0.729942</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9724699999999999</v>
+        <v>0.968012</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.737497</v>
+        <v>0.731043</v>
       </c>
       <c r="C124" t="n">
-        <v>0.818593</v>
+        <v>0.810723</v>
       </c>
       <c r="D124" t="n">
-        <v>0.979867</v>
+        <v>0.963418</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.74076</v>
+        <v>0.730469</v>
       </c>
       <c r="C125" t="n">
-        <v>0.818801</v>
+        <v>0.807229</v>
       </c>
       <c r="D125" t="n">
-        <v>0.983725</v>
+        <v>0.967016</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.74326</v>
+        <v>0.734353</v>
       </c>
       <c r="C126" t="n">
-        <v>0.821715</v>
+        <v>0.813859</v>
       </c>
       <c r="D126" t="n">
-        <v>0.977419</v>
+        <v>0.969302</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741692</v>
+        <v>0.733789</v>
       </c>
       <c r="C127" t="n">
-        <v>0.821775</v>
+        <v>0.815146</v>
       </c>
       <c r="D127" t="n">
-        <v>0.980714</v>
+        <v>0.972581</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.739553</v>
+        <v>0.733399</v>
       </c>
       <c r="C128" t="n">
-        <v>0.81798</v>
+        <v>0.815657</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9861529999999999</v>
+        <v>0.973252</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.740317</v>
+        <v>0.735019</v>
       </c>
       <c r="C129" t="n">
-        <v>0.826083</v>
+        <v>0.817447</v>
       </c>
       <c r="D129" t="n">
-        <v>0.983024</v>
+        <v>0.967378</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.743368</v>
+        <v>0.737098</v>
       </c>
       <c r="C130" t="n">
-        <v>0.829368</v>
+        <v>0.815643</v>
       </c>
       <c r="D130" t="n">
-        <v>0.981883</v>
+        <v>0.972395</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748031</v>
+        <v>0.740119</v>
       </c>
       <c r="C131" t="n">
-        <v>0.824709</v>
+        <v>0.819304</v>
       </c>
       <c r="D131" t="n">
-        <v>0.98999</v>
+        <v>0.970293</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.749631</v>
+        <v>0.74136</v>
       </c>
       <c r="C132" t="n">
-        <v>0.834125</v>
+        <v>0.821014</v>
       </c>
       <c r="D132" t="n">
-        <v>0.99003</v>
+        <v>0.9754969999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.752458</v>
+        <v>0.74501</v>
       </c>
       <c r="C133" t="n">
-        <v>0.830938</v>
+        <v>0.827942</v>
       </c>
       <c r="D133" t="n">
-        <v>0.988718</v>
+        <v>0.982528</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.760294</v>
+        <v>0.7496930000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.842747</v>
+        <v>0.833878</v>
       </c>
       <c r="D134" t="n">
-        <v>0.99427</v>
+        <v>0.983185</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.767462</v>
+        <v>0.7550559999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.841217</v>
+        <v>0.840056</v>
       </c>
       <c r="D135" t="n">
-        <v>0.993279</v>
+        <v>0.9887860000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.771627</v>
+        <v>0.765348</v>
       </c>
       <c r="C136" t="n">
-        <v>0.847548</v>
+        <v>0.845684</v>
       </c>
       <c r="D136" t="n">
-        <v>1.00414</v>
+        <v>0.9963689999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.781702</v>
+        <v>0.777411</v>
       </c>
       <c r="C137" t="n">
-        <v>0.862451</v>
+        <v>0.855388</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17794</v>
+        <v>1.17238</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.86494</v>
+        <v>0.8581260000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.907493</v>
+        <v>0.901501</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17816</v>
+        <v>1.17289</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.869066</v>
+        <v>0.858762</v>
       </c>
       <c r="C139" t="n">
-        <v>0.910501</v>
+        <v>0.902694</v>
       </c>
       <c r="D139" t="n">
-        <v>1.1836</v>
+        <v>1.17387</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.866505</v>
+        <v>0.858747</v>
       </c>
       <c r="C140" t="n">
-        <v>0.912941</v>
+        <v>0.901027</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18387</v>
+        <v>1.17442</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.870977</v>
+        <v>0.861282</v>
       </c>
       <c r="C141" t="n">
-        <v>0.913223</v>
+        <v>0.903212</v>
       </c>
       <c r="D141" t="n">
-        <v>1.18497</v>
+        <v>1.17221</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870551</v>
+        <v>0.862065</v>
       </c>
       <c r="C142" t="n">
-        <v>0.916068</v>
+        <v>0.90644</v>
       </c>
       <c r="D142" t="n">
-        <v>1.18728</v>
+        <v>1.17464</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8705039999999999</v>
+        <v>0.86303</v>
       </c>
       <c r="C143" t="n">
-        <v>0.918301</v>
+        <v>0.9090819999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>1.18637</v>
+        <v>1.17594</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115755</v>
+        <v>0.114095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14387</v>
+        <v>0.142697</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155494</v>
+        <v>0.155048</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116595</v>
+        <v>0.111852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.144432</v>
+        <v>0.141837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156138</v>
+        <v>0.154815</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117511</v>
+        <v>0.11429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.144842</v>
+        <v>0.143512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156694</v>
+        <v>0.155828</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117776</v>
+        <v>0.114328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144701</v>
+        <v>0.143067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15698</v>
+        <v>0.156187</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117813</v>
+        <v>0.114096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.145906</v>
+        <v>0.143165</v>
       </c>
       <c r="D6" t="n">
-        <v>0.158053</v>
+        <v>0.156799</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118949</v>
+        <v>0.115262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.14628</v>
+        <v>0.144035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159232</v>
+        <v>0.158519</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120036</v>
+        <v>0.117752</v>
       </c>
       <c r="C8" t="n">
-        <v>0.147479</v>
+        <v>0.145627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161699</v>
+        <v>0.161359</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123279</v>
+        <v>0.120769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151477</v>
+        <v>0.148937</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156623</v>
+        <v>0.156065</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123458</v>
+        <v>0.122278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14936</v>
+        <v>0.149693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.15733</v>
+        <v>0.156237</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122411</v>
+        <v>0.122401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.149416</v>
+        <v>0.149325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157401</v>
+        <v>0.157176</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123212</v>
+        <v>0.122797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.149655</v>
+        <v>0.150136</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157655</v>
+        <v>0.157474</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.12326</v>
+        <v>0.123142</v>
       </c>
       <c r="C13" t="n">
-        <v>0.149927</v>
+        <v>0.151786</v>
       </c>
       <c r="D13" t="n">
-        <v>0.157782</v>
+        <v>0.15958</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122694</v>
+        <v>0.122712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.150249</v>
+        <v>0.152234</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158372</v>
+        <v>0.158184</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122886</v>
+        <v>0.122695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.150594</v>
+        <v>0.152863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158535</v>
+        <v>0.158784</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12423</v>
+        <v>0.123383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.150774</v>
+        <v>0.153647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159192</v>
+        <v>0.159044</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125384</v>
+        <v>0.123949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.151129</v>
+        <v>0.151796</v>
       </c>
       <c r="D17" t="n">
-        <v>0.159956</v>
+        <v>0.160159</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126123</v>
+        <v>0.125045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.152193</v>
+        <v>0.152303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161317</v>
+        <v>0.160547</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126428</v>
+        <v>0.125562</v>
       </c>
       <c r="C19" t="n">
-        <v>0.153153</v>
+        <v>0.15546</v>
       </c>
       <c r="D19" t="n">
-        <v>0.161921</v>
+        <v>0.162856</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127019</v>
+        <v>0.126355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154391</v>
+        <v>0.154222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163389</v>
+        <v>0.163729</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128473</v>
+        <v>0.128378</v>
       </c>
       <c r="C21" t="n">
-        <v>0.155588</v>
+        <v>0.156993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165857</v>
+        <v>0.166435</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132564</v>
+        <v>0.13265</v>
       </c>
       <c r="C22" t="n">
-        <v>0.160309</v>
+        <v>0.160476</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171786</v>
+        <v>0.171397</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14127</v>
+        <v>0.139834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.163145</v>
+        <v>0.166431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166642</v>
+        <v>0.167671</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133312</v>
+        <v>0.134949</v>
       </c>
       <c r="C24" t="n">
-        <v>0.159799</v>
+        <v>0.163443</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165936</v>
+        <v>0.170981</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132873</v>
+        <v>0.133277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.161776</v>
+        <v>0.163594</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166591</v>
+        <v>0.169441</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133765</v>
+        <v>0.133843</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16254</v>
+        <v>0.164399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.166618</v>
+        <v>0.170189</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133948</v>
+        <v>0.133675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.163068</v>
+        <v>0.163443</v>
       </c>
       <c r="D27" t="n">
-        <v>0.167367</v>
+        <v>0.170939</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135038</v>
+        <v>0.134167</v>
       </c>
       <c r="C28" t="n">
-        <v>0.163157</v>
+        <v>0.164323</v>
       </c>
       <c r="D28" t="n">
-        <v>0.167705</v>
+        <v>0.17041</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135346</v>
+        <v>0.134346</v>
       </c>
       <c r="C29" t="n">
-        <v>0.163444</v>
+        <v>0.16568</v>
       </c>
       <c r="D29" t="n">
-        <v>0.167749</v>
+        <v>0.172061</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135425</v>
+        <v>0.134649</v>
       </c>
       <c r="C30" t="n">
-        <v>0.164307</v>
+        <v>0.166117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168424</v>
+        <v>0.170238</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134895</v>
+        <v>0.136554</v>
       </c>
       <c r="C31" t="n">
-        <v>0.164722</v>
+        <v>0.166421</v>
       </c>
       <c r="D31" t="n">
-        <v>0.169099</v>
+        <v>0.173487</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136133</v>
+        <v>0.136453</v>
       </c>
       <c r="C32" t="n">
-        <v>0.164638</v>
+        <v>0.167259</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168925</v>
+        <v>0.17249</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138374</v>
+        <v>0.13674</v>
       </c>
       <c r="C33" t="n">
-        <v>0.165787</v>
+        <v>0.167537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170657</v>
+        <v>0.173272</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139501</v>
+        <v>0.139272</v>
       </c>
       <c r="C34" t="n">
-        <v>0.167154</v>
+        <v>0.168579</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172301</v>
+        <v>0.176317</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142086</v>
+        <v>0.143705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168748</v>
+        <v>0.17094</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175733</v>
+        <v>0.178882</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148817</v>
+        <v>0.147939</v>
       </c>
       <c r="C36" t="n">
-        <v>0.173594</v>
+        <v>0.175527</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184506</v>
+        <v>0.187158</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155754</v>
+        <v>0.156317</v>
       </c>
       <c r="C37" t="n">
-        <v>0.178452</v>
+        <v>0.179813</v>
       </c>
       <c r="D37" t="n">
-        <v>0.178058</v>
+        <v>0.179332</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144576</v>
+        <v>0.144166</v>
       </c>
       <c r="C38" t="n">
-        <v>0.173965</v>
+        <v>0.17553</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178926</v>
+        <v>0.182211</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146468</v>
+        <v>0.148109</v>
       </c>
       <c r="C39" t="n">
-        <v>0.174481</v>
+        <v>0.176059</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179973</v>
+        <v>0.182278</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145254</v>
+        <v>0.147963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.175776</v>
+        <v>0.176319</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181878</v>
+        <v>0.181233</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149674</v>
+        <v>0.150282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177622</v>
+        <v>0.176037</v>
       </c>
       <c r="D41" t="n">
-        <v>0.183403</v>
+        <v>0.180942</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148776</v>
+        <v>0.149374</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177018</v>
+        <v>0.176461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.182396</v>
+        <v>0.181715</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148506</v>
+        <v>0.148332</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177376</v>
+        <v>0.178302</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181915</v>
+        <v>0.184307</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148057</v>
+        <v>0.148739</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177676</v>
+        <v>0.179408</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18103</v>
+        <v>0.184997</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151667</v>
+        <v>0.149182</v>
       </c>
       <c r="C45" t="n">
-        <v>0.178416</v>
+        <v>0.179198</v>
       </c>
       <c r="D45" t="n">
-        <v>0.183041</v>
+        <v>0.18486</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.152118</v>
+        <v>0.151637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.180007</v>
+        <v>0.181462</v>
       </c>
       <c r="D46" t="n">
-        <v>0.185862</v>
+        <v>0.187448</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152224</v>
+        <v>0.154588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.180718</v>
+        <v>0.182009</v>
       </c>
       <c r="D47" t="n">
-        <v>0.18682</v>
+        <v>0.188045</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.155761</v>
+        <v>0.155774</v>
       </c>
       <c r="C48" t="n">
-        <v>0.182291</v>
+        <v>0.183508</v>
       </c>
       <c r="D48" t="n">
-        <v>0.187431</v>
+        <v>0.188913</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159149</v>
+        <v>0.157576</v>
       </c>
       <c r="C49" t="n">
-        <v>0.183989</v>
+        <v>0.185533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.190202</v>
+        <v>0.191801</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161764</v>
+        <v>0.163684</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188049</v>
+        <v>0.188456</v>
       </c>
       <c r="D50" t="n">
-        <v>0.197244</v>
+        <v>0.197641</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.170177</v>
+        <v>0.172565</v>
       </c>
       <c r="C51" t="n">
-        <v>0.192839</v>
+        <v>0.193248</v>
       </c>
       <c r="D51" t="n">
-        <v>0.194782</v>
+        <v>0.196619</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175394</v>
+        <v>0.173766</v>
       </c>
       <c r="C52" t="n">
-        <v>0.20043</v>
+        <v>0.198834</v>
       </c>
       <c r="D52" t="n">
-        <v>0.194931</v>
+        <v>0.197218</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160325</v>
+        <v>0.160768</v>
       </c>
       <c r="C53" t="n">
-        <v>0.186291</v>
+        <v>0.187846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.195579</v>
+        <v>0.19727</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.16023</v>
+        <v>0.160866</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187024</v>
+        <v>0.188483</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196135</v>
+        <v>0.196985</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.15958</v>
+        <v>0.160034</v>
       </c>
       <c r="C55" t="n">
-        <v>0.187767</v>
+        <v>0.188353</v>
       </c>
       <c r="D55" t="n">
-        <v>0.197348</v>
+        <v>0.19653</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161052</v>
+        <v>0.160061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.187665</v>
+        <v>0.189428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19571</v>
+        <v>0.197638</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161193</v>
+        <v>0.161577</v>
       </c>
       <c r="C57" t="n">
-        <v>0.188915</v>
+        <v>0.190237</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197667</v>
+        <v>0.197971</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161629</v>
+        <v>0.161323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.189242</v>
+        <v>0.190703</v>
       </c>
       <c r="D58" t="n">
-        <v>0.198294</v>
+        <v>0.199397</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161817</v>
+        <v>0.163063</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190811</v>
+        <v>0.191473</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198628</v>
+        <v>0.199353</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163077</v>
+        <v>0.163948</v>
       </c>
       <c r="C60" t="n">
-        <v>0.191373</v>
+        <v>0.191296</v>
       </c>
       <c r="D60" t="n">
-        <v>0.199737</v>
+        <v>0.199879</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.16422</v>
+        <v>0.165271</v>
       </c>
       <c r="C61" t="n">
-        <v>0.192403</v>
+        <v>0.192877</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200721</v>
+        <v>0.200816</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16727</v>
+        <v>0.165805</v>
       </c>
       <c r="C62" t="n">
-        <v>0.193892</v>
+        <v>0.1938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202956</v>
+        <v>0.202154</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169449</v>
+        <v>0.169206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196</v>
+        <v>0.196361</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205674</v>
+        <v>0.204924</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173521</v>
+        <v>0.174119</v>
       </c>
       <c r="C64" t="n">
-        <v>0.199607</v>
+        <v>0.200004</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210675</v>
+        <v>0.21023</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178379</v>
+        <v>0.180484</v>
       </c>
       <c r="C65" t="n">
-        <v>0.203185</v>
+        <v>0.204064</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216669</v>
+        <v>0.218004</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.186559</v>
+        <v>0.187632</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210782</v>
+        <v>0.210806</v>
       </c>
       <c r="D66" t="n">
-        <v>0.210567</v>
+        <v>0.209773</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179861</v>
+        <v>0.177978</v>
       </c>
       <c r="C67" t="n">
-        <v>0.20319</v>
+        <v>0.201079</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209654</v>
+        <v>0.209464</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18419</v>
+        <v>0.177515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.206006</v>
+        <v>0.201456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.210597</v>
+        <v>0.209426</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179607</v>
+        <v>0.178852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.202738</v>
+        <v>0.202989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.210966</v>
+        <v>0.210602</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.177374</v>
+        <v>0.18189</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204126</v>
+        <v>0.205504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211559</v>
+        <v>0.210848</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.183124</v>
+        <v>0.179056</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206086</v>
+        <v>0.206977</v>
       </c>
       <c r="D71" t="n">
-        <v>0.211309</v>
+        <v>0.211535</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.184016</v>
+        <v>0.180695</v>
       </c>
       <c r="C72" t="n">
-        <v>0.207802</v>
+        <v>0.206671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213044</v>
+        <v>0.212673</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185061</v>
+        <v>0.184693</v>
       </c>
       <c r="C73" t="n">
-        <v>0.209252</v>
+        <v>0.206217</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214255</v>
+        <v>0.212731</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.182813</v>
+        <v>0.182045</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209461</v>
+        <v>0.208758</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215951</v>
+        <v>0.215587</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191184</v>
+        <v>0.188908</v>
       </c>
       <c r="C75" t="n">
-        <v>0.211193</v>
+        <v>0.21078</v>
       </c>
       <c r="D75" t="n">
-        <v>0.216381</v>
+        <v>0.214776</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187812</v>
+        <v>0.188268</v>
       </c>
       <c r="C76" t="n">
-        <v>0.211691</v>
+        <v>0.211147</v>
       </c>
       <c r="D76" t="n">
-        <v>0.218078</v>
+        <v>0.216964</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191741</v>
+        <v>0.187359</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213387</v>
+        <v>0.213106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.220284</v>
+        <v>0.22011</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.192488</v>
+        <v>0.19271</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215412</v>
+        <v>0.215429</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22453</v>
+        <v>0.223663</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198543</v>
+        <v>0.200008</v>
       </c>
       <c r="C79" t="n">
-        <v>0.220143</v>
+        <v>0.219182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230366</v>
+        <v>0.229902</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.208516</v>
+        <v>0.206461</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2264</v>
+        <v>0.226659</v>
       </c>
       <c r="D80" t="n">
-        <v>0.308548</v>
+        <v>0.305787</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340614</v>
+        <v>0.344181</v>
       </c>
       <c r="C81" t="n">
-        <v>0.347891</v>
+        <v>0.349045</v>
       </c>
       <c r="D81" t="n">
-        <v>0.308971</v>
+        <v>0.310679</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340699</v>
+        <v>0.340839</v>
       </c>
       <c r="C82" t="n">
-        <v>0.349484</v>
+        <v>0.348264</v>
       </c>
       <c r="D82" t="n">
-        <v>0.310595</v>
+        <v>0.307568</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343059</v>
+        <v>0.341972</v>
       </c>
       <c r="C83" t="n">
-        <v>0.346157</v>
+        <v>0.34508</v>
       </c>
       <c r="D83" t="n">
-        <v>0.307908</v>
+        <v>0.306223</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343064</v>
+        <v>0.345133</v>
       </c>
       <c r="C84" t="n">
-        <v>0.344872</v>
+        <v>0.344755</v>
       </c>
       <c r="D84" t="n">
-        <v>0.307491</v>
+        <v>0.312316</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343969</v>
+        <v>0.341021</v>
       </c>
       <c r="C85" t="n">
-        <v>0.347425</v>
+        <v>0.344683</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306896</v>
+        <v>0.305377</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.349152</v>
+        <v>0.346761</v>
       </c>
       <c r="C86" t="n">
-        <v>0.336099</v>
+        <v>0.341445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.305351</v>
+        <v>0.306552</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.345377</v>
+        <v>0.347829</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339547</v>
+        <v>0.339858</v>
       </c>
       <c r="D87" t="n">
-        <v>0.305975</v>
+        <v>0.306118</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.345362</v>
+        <v>0.345072</v>
       </c>
       <c r="C88" t="n">
-        <v>0.339691</v>
+        <v>0.339578</v>
       </c>
       <c r="D88" t="n">
-        <v>0.301962</v>
+        <v>0.302715</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.346112</v>
+        <v>0.348476</v>
       </c>
       <c r="C89" t="n">
-        <v>0.333755</v>
+        <v>0.336443</v>
       </c>
       <c r="D89" t="n">
-        <v>0.300183</v>
+        <v>0.303367</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348885</v>
+        <v>0.348061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.336618</v>
+        <v>0.334624</v>
       </c>
       <c r="D90" t="n">
-        <v>0.301791</v>
+        <v>0.300825</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352569</v>
+        <v>0.349002</v>
       </c>
       <c r="C91" t="n">
-        <v>0.336669</v>
+        <v>0.334576</v>
       </c>
       <c r="D91" t="n">
-        <v>0.300736</v>
+        <v>0.30215</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355576</v>
+        <v>0.353048</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336692</v>
+        <v>0.336165</v>
       </c>
       <c r="D92" t="n">
-        <v>0.30324</v>
+        <v>0.299345</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360528</v>
+        <v>0.355659</v>
       </c>
       <c r="C93" t="n">
-        <v>0.341239</v>
+        <v>0.340332</v>
       </c>
       <c r="D93" t="n">
-        <v>0.307975</v>
+        <v>0.304719</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361574</v>
+        <v>0.361856</v>
       </c>
       <c r="C94" t="n">
-        <v>0.346465</v>
+        <v>0.340815</v>
       </c>
       <c r="D94" t="n">
-        <v>0.523546</v>
+        <v>0.521899</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502115</v>
+        <v>0.501961</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5572820000000001</v>
+        <v>0.57058</v>
       </c>
       <c r="D95" t="n">
-        <v>0.521347</v>
+        <v>0.5232059999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502371</v>
+        <v>0.502239</v>
       </c>
       <c r="C96" t="n">
-        <v>0.556248</v>
+        <v>0.568898</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5209240000000001</v>
+        <v>0.522295</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.502296</v>
+        <v>0.502277</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5678569999999999</v>
+        <v>0.569084</v>
       </c>
       <c r="D97" t="n">
-        <v>0.504273</v>
+        <v>0.520391</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50226</v>
+        <v>0.501871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.554003</v>
+        <v>0.568067</v>
       </c>
       <c r="D98" t="n">
-        <v>0.518618</v>
+        <v>0.518172</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5031060000000001</v>
+        <v>0.5028010000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.552636</v>
+        <v>0.566249</v>
       </c>
       <c r="D99" t="n">
-        <v>0.51758</v>
+        <v>0.502196</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.504251</v>
+        <v>0.503996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.552265</v>
+        <v>0.566789</v>
       </c>
       <c r="D100" t="n">
-        <v>0.517169</v>
+        <v>0.517177</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5033879999999999</v>
+        <v>0.504304</v>
       </c>
       <c r="C101" t="n">
-        <v>0.565459</v>
+        <v>0.5643280000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.501231</v>
+        <v>0.515644</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505101</v>
+        <v>0.505084</v>
       </c>
       <c r="C102" t="n">
-        <v>0.563923</v>
+        <v>0.564713</v>
       </c>
       <c r="D102" t="n">
-        <v>0.501924</v>
+        <v>0.517159</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506278</v>
+        <v>0.506944</v>
       </c>
       <c r="C103" t="n">
-        <v>0.564675</v>
+        <v>0.552026</v>
       </c>
       <c r="D103" t="n">
-        <v>0.503063</v>
+        <v>0.503506</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50843</v>
+        <v>0.50897</v>
       </c>
       <c r="C104" t="n">
-        <v>0.567078</v>
+        <v>0.56516</v>
       </c>
       <c r="D104" t="n">
-        <v>0.502185</v>
+        <v>0.516895</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510737</v>
+        <v>0.511134</v>
       </c>
       <c r="C105" t="n">
-        <v>0.566698</v>
+        <v>0.553891</v>
       </c>
       <c r="D105" t="n">
-        <v>0.519053</v>
+        <v>0.518773</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5142</v>
+        <v>0.514275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.568727</v>
+        <v>0.567298</v>
       </c>
       <c r="D106" t="n">
-        <v>0.522326</v>
+        <v>0.521474</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519081</v>
+        <v>0.518864</v>
       </c>
       <c r="C107" t="n">
-        <v>0.570526</v>
+        <v>0.570921</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526262</v>
+        <v>0.526904</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526922</v>
+        <v>0.526406</v>
       </c>
       <c r="C108" t="n">
-        <v>0.575968</v>
+        <v>0.574396</v>
       </c>
       <c r="D108" t="n">
-        <v>0.734534</v>
+        <v>0.735029</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537867</v>
+        <v>0.53786</v>
       </c>
       <c r="C109" t="n">
-        <v>0.582319</v>
+        <v>0.58349</v>
       </c>
       <c r="D109" t="n">
-        <v>0.738194</v>
+        <v>0.734731</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585618</v>
+        <v>0.587077</v>
       </c>
       <c r="C110" t="n">
-        <v>0.692033</v>
+        <v>0.69958</v>
       </c>
       <c r="D110" t="n">
-        <v>0.736125</v>
+        <v>0.734196</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.586978</v>
+        <v>0.587975</v>
       </c>
       <c r="C111" t="n">
-        <v>0.699914</v>
+        <v>0.692091</v>
       </c>
       <c r="D111" t="n">
-        <v>0.727187</v>
+        <v>0.735558</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.586777</v>
+        <v>0.590497</v>
       </c>
       <c r="C112" t="n">
-        <v>0.700313</v>
+        <v>0.700605</v>
       </c>
       <c r="D112" t="n">
-        <v>0.736302</v>
+        <v>0.735022</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589567</v>
+        <v>0.591359</v>
       </c>
       <c r="C113" t="n">
-        <v>0.700387</v>
+        <v>0.701955</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738672</v>
+        <v>0.73558</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.589662</v>
+        <v>0.591626</v>
       </c>
       <c r="C114" t="n">
-        <v>0.701939</v>
+        <v>0.702527</v>
       </c>
       <c r="D114" t="n">
-        <v>0.737911</v>
+        <v>0.738085</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.589218</v>
+        <v>0.590745</v>
       </c>
       <c r="C115" t="n">
-        <v>0.703335</v>
+        <v>0.703071</v>
       </c>
       <c r="D115" t="n">
-        <v>0.738329</v>
+        <v>0.741382</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.591017</v>
+        <v>0.591292</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704458</v>
+        <v>0.704562</v>
       </c>
       <c r="D116" t="n">
-        <v>0.731675</v>
+        <v>0.741072</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.592894</v>
+        <v>0.596475</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7055399999999999</v>
+        <v>0.705646</v>
       </c>
       <c r="D117" t="n">
-        <v>0.739812</v>
+        <v>0.742301</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.597096</v>
+        <v>0.597205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.705856</v>
+        <v>0.7083429999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.733912</v>
+        <v>0.743762</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.598146</v>
+        <v>0.599862</v>
       </c>
       <c r="C119" t="n">
-        <v>0.700967</v>
+        <v>0.709063</v>
       </c>
       <c r="D119" t="n">
-        <v>0.746932</v>
+        <v>0.745982</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.604407</v>
+        <v>0.604342</v>
       </c>
       <c r="C120" t="n">
-        <v>0.704116</v>
+        <v>0.712511</v>
       </c>
       <c r="D120" t="n">
-        <v>0.740188</v>
+        <v>0.739349</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.609642</v>
+        <v>0.612405</v>
       </c>
       <c r="C121" t="n">
-        <v>0.715927</v>
+        <v>0.709314</v>
       </c>
       <c r="D121" t="n">
-        <v>0.752119</v>
+        <v>0.7505540000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.620985</v>
+        <v>0.618215</v>
       </c>
       <c r="C122" t="n">
-        <v>0.721874</v>
+        <v>0.713873</v>
       </c>
       <c r="D122" t="n">
-        <v>0.757795</v>
+        <v>0.759983</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.631868</v>
+        <v>0.630328</v>
       </c>
       <c r="C123" t="n">
-        <v>0.729942</v>
+        <v>0.724626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.968012</v>
+        <v>0.966536</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.731043</v>
+        <v>0.734345</v>
       </c>
       <c r="C124" t="n">
-        <v>0.810723</v>
+        <v>0.814261</v>
       </c>
       <c r="D124" t="n">
-        <v>0.963418</v>
+        <v>0.972423</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.730469</v>
+        <v>0.7321299999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.807229</v>
+        <v>0.81538</v>
       </c>
       <c r="D125" t="n">
-        <v>0.967016</v>
+        <v>0.9703889999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.734353</v>
+        <v>0.734229</v>
       </c>
       <c r="C126" t="n">
-        <v>0.813859</v>
+        <v>0.8102780000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.969302</v>
+        <v>0.968157</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.733789</v>
+        <v>0.736738</v>
       </c>
       <c r="C127" t="n">
-        <v>0.815146</v>
+        <v>0.811937</v>
       </c>
       <c r="D127" t="n">
-        <v>0.972581</v>
+        <v>0.968274</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.733399</v>
+        <v>0.736215</v>
       </c>
       <c r="C128" t="n">
-        <v>0.815657</v>
+        <v>0.81394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.973252</v>
+        <v>0.974335</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.735019</v>
+        <v>0.735527</v>
       </c>
       <c r="C129" t="n">
-        <v>0.817447</v>
+        <v>0.81971</v>
       </c>
       <c r="D129" t="n">
-        <v>0.967378</v>
+        <v>0.974729</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737098</v>
+        <v>0.737627</v>
       </c>
       <c r="C130" t="n">
-        <v>0.815643</v>
+        <v>0.822796</v>
       </c>
       <c r="D130" t="n">
-        <v>0.972395</v>
+        <v>0.970906</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.740119</v>
+        <v>0.741657</v>
       </c>
       <c r="C131" t="n">
-        <v>0.819304</v>
+        <v>0.82557</v>
       </c>
       <c r="D131" t="n">
-        <v>0.970293</v>
+        <v>0.980432</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.74136</v>
+        <v>0.743357</v>
       </c>
       <c r="C132" t="n">
-        <v>0.821014</v>
+        <v>0.826631</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9754969999999999</v>
+        <v>0.976706</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.74501</v>
+        <v>0.7447009999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.827942</v>
+        <v>0.831221</v>
       </c>
       <c r="D133" t="n">
-        <v>0.982528</v>
+        <v>0.981177</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7496930000000001</v>
+        <v>0.751184</v>
       </c>
       <c r="C134" t="n">
-        <v>0.833878</v>
+        <v>0.834186</v>
       </c>
       <c r="D134" t="n">
-        <v>0.983185</v>
+        <v>0.986758</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7550559999999999</v>
+        <v>0.758588</v>
       </c>
       <c r="C135" t="n">
-        <v>0.840056</v>
+        <v>0.840203</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9887860000000001</v>
+        <v>0.990196</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.765348</v>
+        <v>0.766168</v>
       </c>
       <c r="C136" t="n">
-        <v>0.845684</v>
+        <v>0.846045</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9963689999999999</v>
+        <v>0.997095</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.777411</v>
+        <v>0.779756</v>
       </c>
       <c r="C137" t="n">
-        <v>0.855388</v>
+        <v>0.857387</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17238</v>
+        <v>1.17106</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8581260000000001</v>
+        <v>0.860008</v>
       </c>
       <c r="C138" t="n">
-        <v>0.901501</v>
+        <v>0.902651</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17289</v>
+        <v>1.17327</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.858762</v>
+        <v>0.860659</v>
       </c>
       <c r="C139" t="n">
-        <v>0.902694</v>
+        <v>0.905273</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17387</v>
+        <v>1.17592</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.858747</v>
+        <v>0.86164</v>
       </c>
       <c r="C140" t="n">
-        <v>0.901027</v>
+        <v>0.906569</v>
       </c>
       <c r="D140" t="n">
-        <v>1.17442</v>
+        <v>1.17566</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.861282</v>
+        <v>0.861675</v>
       </c>
       <c r="C141" t="n">
-        <v>0.903212</v>
+        <v>0.906965</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17221</v>
+        <v>1.17447</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.862065</v>
+        <v>0.861989</v>
       </c>
       <c r="C142" t="n">
-        <v>0.90644</v>
+        <v>0.908191</v>
       </c>
       <c r="D142" t="n">
-        <v>1.17464</v>
+        <v>1.17852</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.86303</v>
+        <v>0.864067</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9090819999999999</v>
+        <v>0.910236</v>
       </c>
       <c r="D143" t="n">
-        <v>1.17594</v>
+        <v>1.18025</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.114095</v>
+        <v>0.115056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142697</v>
+        <v>0.14299</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155048</v>
+        <v>0.154817</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111852</v>
+        <v>0.112812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.141837</v>
+        <v>0.142493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.154815</v>
+        <v>0.155041</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11429</v>
+        <v>0.112812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.143512</v>
+        <v>0.143126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.155828</v>
+        <v>0.155422</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.114328</v>
+        <v>0.113647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.143067</v>
+        <v>0.143526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156187</v>
+        <v>0.156354</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114096</v>
+        <v>0.11519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.143165</v>
+        <v>0.144843</v>
       </c>
       <c r="D6" t="n">
-        <v>0.156799</v>
+        <v>0.157207</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115262</v>
+        <v>0.113181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.144035</v>
+        <v>0.143728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158519</v>
+        <v>0.158198</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117752</v>
+        <v>0.116697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.145627</v>
+        <v>0.146143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161359</v>
+        <v>0.161408</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120769</v>
+        <v>0.120633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148937</v>
+        <v>0.149286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.156065</v>
+        <v>0.158637</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122278</v>
+        <v>0.123867</v>
       </c>
       <c r="C10" t="n">
-        <v>0.149693</v>
+        <v>0.153089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.156237</v>
+        <v>0.157763</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122401</v>
+        <v>0.123688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.149325</v>
+        <v>0.151152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.157176</v>
+        <v>0.158593</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122797</v>
+        <v>0.124443</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150136</v>
+        <v>0.151473</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157474</v>
+        <v>0.157734</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123142</v>
+        <v>0.124812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.151786</v>
+        <v>0.152201</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15958</v>
+        <v>0.158904</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122712</v>
+        <v>0.124409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.152234</v>
+        <v>0.152834</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158184</v>
+        <v>0.158721</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122695</v>
+        <v>0.125321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.152863</v>
+        <v>0.153456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158784</v>
+        <v>0.159818</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123383</v>
+        <v>0.124734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.153647</v>
+        <v>0.153684</v>
       </c>
       <c r="D16" t="n">
-        <v>0.159044</v>
+        <v>0.16077</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123949</v>
+        <v>0.125511</v>
       </c>
       <c r="C17" t="n">
-        <v>0.151796</v>
+        <v>0.154178</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160159</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125045</v>
+        <v>0.126709</v>
       </c>
       <c r="C18" t="n">
-        <v>0.152303</v>
+        <v>0.154151</v>
       </c>
       <c r="D18" t="n">
-        <v>0.160547</v>
+        <v>0.161287</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125562</v>
+        <v>0.127327</v>
       </c>
       <c r="C19" t="n">
-        <v>0.15546</v>
+        <v>0.155565</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162856</v>
+        <v>0.162886</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126355</v>
+        <v>0.128777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154222</v>
+        <v>0.156329</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163729</v>
+        <v>0.164175</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128378</v>
+        <v>0.129991</v>
       </c>
       <c r="C21" t="n">
-        <v>0.156993</v>
+        <v>0.157823</v>
       </c>
       <c r="D21" t="n">
-        <v>0.166435</v>
+        <v>0.167224</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.13265</v>
+        <v>0.133383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.160476</v>
+        <v>0.161137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.171397</v>
+        <v>0.17292</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139834</v>
+        <v>0.140472</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166431</v>
+        <v>0.165295</v>
       </c>
       <c r="D23" t="n">
-        <v>0.167671</v>
+        <v>0.16637</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134949</v>
+        <v>0.133116</v>
       </c>
       <c r="C24" t="n">
-        <v>0.163443</v>
+        <v>0.159523</v>
       </c>
       <c r="D24" t="n">
-        <v>0.170981</v>
+        <v>0.165689</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133277</v>
+        <v>0.133375</v>
       </c>
       <c r="C25" t="n">
-        <v>0.163594</v>
+        <v>0.161623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.169441</v>
+        <v>0.166503</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133843</v>
+        <v>0.134356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.164399</v>
+        <v>0.161823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.170189</v>
+        <v>0.167257</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133675</v>
+        <v>0.135074</v>
       </c>
       <c r="C27" t="n">
-        <v>0.163443</v>
+        <v>0.162332</v>
       </c>
       <c r="D27" t="n">
-        <v>0.170939</v>
+        <v>0.167713</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134167</v>
+        <v>0.134556</v>
       </c>
       <c r="C28" t="n">
-        <v>0.164323</v>
+        <v>0.162437</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17041</v>
+        <v>0.167613</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134346</v>
+        <v>0.135539</v>
       </c>
       <c r="C29" t="n">
-        <v>0.16568</v>
+        <v>0.162524</v>
       </c>
       <c r="D29" t="n">
-        <v>0.172061</v>
+        <v>0.167479</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134649</v>
+        <v>0.136239</v>
       </c>
       <c r="C30" t="n">
-        <v>0.166117</v>
+        <v>0.164144</v>
       </c>
       <c r="D30" t="n">
-        <v>0.170238</v>
+        <v>0.168023</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136554</v>
+        <v>0.136041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.166421</v>
+        <v>0.16377</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173487</v>
+        <v>0.168601</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136453</v>
+        <v>0.13674</v>
       </c>
       <c r="C32" t="n">
-        <v>0.167259</v>
+        <v>0.16455</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17249</v>
+        <v>0.169652</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13674</v>
+        <v>0.137428</v>
       </c>
       <c r="C33" t="n">
-        <v>0.167537</v>
+        <v>0.164959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173272</v>
+        <v>0.17213</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139272</v>
+        <v>0.139251</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168579</v>
+        <v>0.166501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176317</v>
+        <v>0.172962</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143705</v>
+        <v>0.143011</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17094</v>
+        <v>0.16878</v>
       </c>
       <c r="D35" t="n">
-        <v>0.178882</v>
+        <v>0.176487</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147939</v>
+        <v>0.14843</v>
       </c>
       <c r="C36" t="n">
-        <v>0.175527</v>
+        <v>0.172778</v>
       </c>
       <c r="D36" t="n">
-        <v>0.187158</v>
+        <v>0.184821</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.156317</v>
+        <v>0.156627</v>
       </c>
       <c r="C37" t="n">
-        <v>0.179813</v>
+        <v>0.17848</v>
       </c>
       <c r="D37" t="n">
-        <v>0.179332</v>
+        <v>0.176004</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144166</v>
+        <v>0.14544</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17553</v>
+        <v>0.173423</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182211</v>
+        <v>0.179637</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148109</v>
+        <v>0.146345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.176059</v>
+        <v>0.174231</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182278</v>
+        <v>0.176094</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147963</v>
+        <v>0.146619</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176319</v>
+        <v>0.175266</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181233</v>
+        <v>0.181672</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150282</v>
+        <v>0.148293</v>
       </c>
       <c r="C41" t="n">
-        <v>0.176037</v>
+        <v>0.175337</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180942</v>
+        <v>0.179749</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149374</v>
+        <v>0.144681</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176461</v>
+        <v>0.174967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.181715</v>
+        <v>0.180647</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148332</v>
+        <v>0.147554</v>
       </c>
       <c r="C43" t="n">
-        <v>0.178302</v>
+        <v>0.176683</v>
       </c>
       <c r="D43" t="n">
-        <v>0.184307</v>
+        <v>0.181781</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148739</v>
+        <v>0.14808</v>
       </c>
       <c r="C44" t="n">
-        <v>0.179408</v>
+        <v>0.177863</v>
       </c>
       <c r="D44" t="n">
-        <v>0.184997</v>
+        <v>0.18216</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.149182</v>
+        <v>0.147828</v>
       </c>
       <c r="C45" t="n">
-        <v>0.179198</v>
+        <v>0.178236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.18486</v>
+        <v>0.183201</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151637</v>
+        <v>0.153041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.181462</v>
+        <v>0.178126</v>
       </c>
       <c r="D46" t="n">
-        <v>0.187448</v>
+        <v>0.185177</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.154588</v>
+        <v>0.153297</v>
       </c>
       <c r="C47" t="n">
-        <v>0.182009</v>
+        <v>0.180425</v>
       </c>
       <c r="D47" t="n">
-        <v>0.188045</v>
+        <v>0.186288</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.155774</v>
+        <v>0.154089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.183508</v>
+        <v>0.182341</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188913</v>
+        <v>0.1882</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157576</v>
+        <v>0.159083</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185533</v>
+        <v>0.185139</v>
       </c>
       <c r="D49" t="n">
-        <v>0.191801</v>
+        <v>0.192163</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163684</v>
+        <v>0.16163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188456</v>
+        <v>0.188579</v>
       </c>
       <c r="D50" t="n">
-        <v>0.197641</v>
+        <v>0.198414</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172565</v>
+        <v>0.168821</v>
       </c>
       <c r="C51" t="n">
-        <v>0.193248</v>
+        <v>0.192513</v>
       </c>
       <c r="D51" t="n">
-        <v>0.196619</v>
+        <v>0.195662</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173766</v>
+        <v>0.175584</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198834</v>
+        <v>0.198734</v>
       </c>
       <c r="D52" t="n">
-        <v>0.197218</v>
+        <v>0.194722</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160768</v>
+        <v>0.161195</v>
       </c>
       <c r="C53" t="n">
-        <v>0.187846</v>
+        <v>0.185495</v>
       </c>
       <c r="D53" t="n">
-        <v>0.19727</v>
+        <v>0.196332</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160866</v>
+        <v>0.159031</v>
       </c>
       <c r="C54" t="n">
-        <v>0.188483</v>
+        <v>0.186236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196985</v>
+        <v>0.195607</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160034</v>
+        <v>0.161177</v>
       </c>
       <c r="C55" t="n">
-        <v>0.188353</v>
+        <v>0.186607</v>
       </c>
       <c r="D55" t="n">
-        <v>0.19653</v>
+        <v>0.196729</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160061</v>
+        <v>0.161233</v>
       </c>
       <c r="C56" t="n">
-        <v>0.189428</v>
+        <v>0.186182</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197638</v>
+        <v>0.196775</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161577</v>
+        <v>0.160875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.190237</v>
+        <v>0.18784</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197971</v>
+        <v>0.197446</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161323</v>
+        <v>0.161442</v>
       </c>
       <c r="C58" t="n">
-        <v>0.190703</v>
+        <v>0.188724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.199397</v>
+        <v>0.197857</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163063</v>
+        <v>0.163361</v>
       </c>
       <c r="C59" t="n">
-        <v>0.191473</v>
+        <v>0.189559</v>
       </c>
       <c r="D59" t="n">
-        <v>0.199353</v>
+        <v>0.198283</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163948</v>
+        <v>0.163605</v>
       </c>
       <c r="C60" t="n">
-        <v>0.191296</v>
+        <v>0.190822</v>
       </c>
       <c r="D60" t="n">
-        <v>0.199879</v>
+        <v>0.198365</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165271</v>
+        <v>0.165731</v>
       </c>
       <c r="C61" t="n">
-        <v>0.192877</v>
+        <v>0.192078</v>
       </c>
       <c r="D61" t="n">
-        <v>0.200816</v>
+        <v>0.201207</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165805</v>
+        <v>0.166504</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1938</v>
+        <v>0.193304</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202154</v>
+        <v>0.202247</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169206</v>
+        <v>0.171691</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196361</v>
+        <v>0.196048</v>
       </c>
       <c r="D63" t="n">
-        <v>0.204924</v>
+        <v>0.206196</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174119</v>
+        <v>0.173713</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200004</v>
+        <v>0.198843</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21023</v>
+        <v>0.210258</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180484</v>
+        <v>0.181698</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204064</v>
+        <v>0.203839</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218004</v>
+        <v>0.217895</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187632</v>
+        <v>0.18701</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210806</v>
+        <v>0.210316</v>
       </c>
       <c r="D66" t="n">
-        <v>0.209773</v>
+        <v>0.211622</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.177978</v>
+        <v>0.178937</v>
       </c>
       <c r="C67" t="n">
-        <v>0.201079</v>
+        <v>0.205505</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209464</v>
+        <v>0.209811</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177515</v>
+        <v>0.183516</v>
       </c>
       <c r="C68" t="n">
-        <v>0.201456</v>
+        <v>0.205773</v>
       </c>
       <c r="D68" t="n">
-        <v>0.209426</v>
+        <v>0.211354</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.178852</v>
+        <v>0.181604</v>
       </c>
       <c r="C69" t="n">
-        <v>0.202989</v>
+        <v>0.203156</v>
       </c>
       <c r="D69" t="n">
-        <v>0.210602</v>
+        <v>0.21038</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.18189</v>
+        <v>0.182644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.205504</v>
+        <v>0.208085</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210848</v>
+        <v>0.211378</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.179056</v>
+        <v>0.185343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206977</v>
+        <v>0.206694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.211535</v>
+        <v>0.212214</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180695</v>
+        <v>0.180676</v>
       </c>
       <c r="C72" t="n">
-        <v>0.206671</v>
+        <v>0.209069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212673</v>
+        <v>0.212051</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184693</v>
+        <v>0.185173</v>
       </c>
       <c r="C73" t="n">
-        <v>0.206217</v>
+        <v>0.207281</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212731</v>
+        <v>0.213845</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.182045</v>
+        <v>0.18369</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208758</v>
+        <v>0.207296</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215587</v>
+        <v>0.214345</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188908</v>
+        <v>0.188045</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21078</v>
+        <v>0.212607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214776</v>
+        <v>0.216388</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188268</v>
+        <v>0.189771</v>
       </c>
       <c r="C76" t="n">
-        <v>0.211147</v>
+        <v>0.213756</v>
       </c>
       <c r="D76" t="n">
-        <v>0.216964</v>
+        <v>0.21782</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187359</v>
+        <v>0.193096</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213106</v>
+        <v>0.215973</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22011</v>
+        <v>0.22149</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19271</v>
+        <v>0.198843</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215429</v>
+        <v>0.218405</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223663</v>
+        <v>0.224353</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.200008</v>
+        <v>0.198489</v>
       </c>
       <c r="C79" t="n">
-        <v>0.219182</v>
+        <v>0.22099</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229902</v>
+        <v>0.230706</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206461</v>
+        <v>0.210158</v>
       </c>
       <c r="C80" t="n">
-        <v>0.226659</v>
+        <v>0.225398</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305787</v>
+        <v>0.305053</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.344181</v>
+        <v>0.341885</v>
       </c>
       <c r="C81" t="n">
-        <v>0.349045</v>
+        <v>0.348088</v>
       </c>
       <c r="D81" t="n">
-        <v>0.310679</v>
+        <v>0.30723</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340839</v>
+        <v>0.339431</v>
       </c>
       <c r="C82" t="n">
-        <v>0.348264</v>
+        <v>0.34913</v>
       </c>
       <c r="D82" t="n">
-        <v>0.307568</v>
+        <v>0.308784</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.341972</v>
+        <v>0.340013</v>
       </c>
       <c r="C83" t="n">
-        <v>0.34508</v>
+        <v>0.345771</v>
       </c>
       <c r="D83" t="n">
-        <v>0.306223</v>
+        <v>0.30767</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345133</v>
+        <v>0.341574</v>
       </c>
       <c r="C84" t="n">
-        <v>0.344755</v>
+        <v>0.342159</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312316</v>
+        <v>0.305242</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.341021</v>
+        <v>0.346541</v>
       </c>
       <c r="C85" t="n">
-        <v>0.344683</v>
+        <v>0.341623</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305377</v>
+        <v>0.308145</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346761</v>
+        <v>0.342345</v>
       </c>
       <c r="C86" t="n">
-        <v>0.341445</v>
+        <v>0.340258</v>
       </c>
       <c r="D86" t="n">
-        <v>0.306552</v>
+        <v>0.305449</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347829</v>
+        <v>0.344678</v>
       </c>
       <c r="C87" t="n">
-        <v>0.339858</v>
+        <v>0.340117</v>
       </c>
       <c r="D87" t="n">
-        <v>0.306118</v>
+        <v>0.30574</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.345072</v>
+        <v>0.343978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.339578</v>
+        <v>0.33887</v>
       </c>
       <c r="D88" t="n">
-        <v>0.302715</v>
+        <v>0.302183</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348476</v>
+        <v>0.346098</v>
       </c>
       <c r="C89" t="n">
-        <v>0.336443</v>
+        <v>0.337761</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303367</v>
+        <v>0.303153</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348061</v>
+        <v>0.349966</v>
       </c>
       <c r="C90" t="n">
-        <v>0.334624</v>
+        <v>0.34236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.300825</v>
+        <v>0.300026</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.349002</v>
+        <v>0.352353</v>
       </c>
       <c r="C91" t="n">
-        <v>0.334576</v>
+        <v>0.331527</v>
       </c>
       <c r="D91" t="n">
-        <v>0.30215</v>
+        <v>0.302301</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353048</v>
+        <v>0.352525</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336165</v>
+        <v>0.339895</v>
       </c>
       <c r="D92" t="n">
-        <v>0.299345</v>
+        <v>0.300537</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355659</v>
+        <v>0.355738</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340332</v>
+        <v>0.337111</v>
       </c>
       <c r="D93" t="n">
-        <v>0.304719</v>
+        <v>0.306476</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361856</v>
+        <v>0.3634</v>
       </c>
       <c r="C94" t="n">
-        <v>0.340815</v>
+        <v>0.339357</v>
       </c>
       <c r="D94" t="n">
-        <v>0.521899</v>
+        <v>0.509236</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.501961</v>
+        <v>0.502406</v>
       </c>
       <c r="C95" t="n">
-        <v>0.57058</v>
+        <v>0.570623</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5232059999999999</v>
+        <v>0.526823</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502239</v>
+        <v>0.502946</v>
       </c>
       <c r="C96" t="n">
-        <v>0.568898</v>
+        <v>0.558024</v>
       </c>
       <c r="D96" t="n">
-        <v>0.522295</v>
+        <v>0.526847</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.502277</v>
+        <v>0.504162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.569084</v>
+        <v>0.5558920000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520391</v>
+        <v>0.52258</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.501871</v>
+        <v>0.50261</v>
       </c>
       <c r="C98" t="n">
-        <v>0.568067</v>
+        <v>0.569088</v>
       </c>
       <c r="D98" t="n">
-        <v>0.518172</v>
+        <v>0.521988</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5028010000000001</v>
+        <v>0.503007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.566249</v>
+        <v>0.566712</v>
       </c>
       <c r="D99" t="n">
-        <v>0.502196</v>
+        <v>0.503498</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503996</v>
+        <v>0.5040210000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.566789</v>
+        <v>0.565199</v>
       </c>
       <c r="D100" t="n">
-        <v>0.517177</v>
+        <v>0.520547</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504304</v>
+        <v>0.504344</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5643280000000001</v>
+        <v>0.565964</v>
       </c>
       <c r="D101" t="n">
-        <v>0.515644</v>
+        <v>0.518734</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505084</v>
+        <v>0.505737</v>
       </c>
       <c r="C102" t="n">
-        <v>0.564713</v>
+        <v>0.565205</v>
       </c>
       <c r="D102" t="n">
-        <v>0.517159</v>
+        <v>0.518745</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506944</v>
+        <v>0.506162</v>
       </c>
       <c r="C103" t="n">
-        <v>0.552026</v>
+        <v>0.566393</v>
       </c>
       <c r="D103" t="n">
-        <v>0.503506</v>
+        <v>0.5053299999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50897</v>
+        <v>0.509174</v>
       </c>
       <c r="C104" t="n">
-        <v>0.56516</v>
+        <v>0.56546</v>
       </c>
       <c r="D104" t="n">
-        <v>0.516895</v>
+        <v>0.504084</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511134</v>
+        <v>0.511354</v>
       </c>
       <c r="C105" t="n">
-        <v>0.553891</v>
+        <v>0.568639</v>
       </c>
       <c r="D105" t="n">
-        <v>0.518773</v>
+        <v>0.521402</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514275</v>
+        <v>0.5146539999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.567298</v>
+        <v>0.555826</v>
       </c>
       <c r="D106" t="n">
-        <v>0.521474</v>
+        <v>0.5063800000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.518864</v>
+        <v>0.519587</v>
       </c>
       <c r="C107" t="n">
-        <v>0.570921</v>
+        <v>0.57141</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526904</v>
+        <v>0.527813</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526406</v>
+        <v>0.52735</v>
       </c>
       <c r="C108" t="n">
-        <v>0.574396</v>
+        <v>0.576689</v>
       </c>
       <c r="D108" t="n">
-        <v>0.735029</v>
+        <v>0.74036</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.53786</v>
+        <v>0.537205</v>
       </c>
       <c r="C109" t="n">
-        <v>0.58349</v>
+        <v>0.582613</v>
       </c>
       <c r="D109" t="n">
-        <v>0.734731</v>
+        <v>0.736677</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.587077</v>
+        <v>0.58926</v>
       </c>
       <c r="C110" t="n">
-        <v>0.69958</v>
+        <v>0.691268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.734196</v>
+        <v>0.73547</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.587975</v>
+        <v>0.589293</v>
       </c>
       <c r="C111" t="n">
-        <v>0.692091</v>
+        <v>0.699739</v>
       </c>
       <c r="D111" t="n">
-        <v>0.735558</v>
+        <v>0.7272110000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.590497</v>
+        <v>0.587047</v>
       </c>
       <c r="C112" t="n">
-        <v>0.700605</v>
+        <v>0.700456</v>
       </c>
       <c r="D112" t="n">
-        <v>0.735022</v>
+        <v>0.736579</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.591359</v>
+        <v>0.586236</v>
       </c>
       <c r="C113" t="n">
-        <v>0.701955</v>
+        <v>0.694209</v>
       </c>
       <c r="D113" t="n">
-        <v>0.73558</v>
+        <v>0.7375159999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.591626</v>
+        <v>0.589363</v>
       </c>
       <c r="C114" t="n">
-        <v>0.702527</v>
+        <v>0.7029029999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.738085</v>
+        <v>0.738012</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.590745</v>
+        <v>0.591259</v>
       </c>
       <c r="C115" t="n">
-        <v>0.703071</v>
+        <v>0.695732</v>
       </c>
       <c r="D115" t="n">
-        <v>0.741382</v>
+        <v>0.738057</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.591292</v>
+        <v>0.590167</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704562</v>
+        <v>0.703775</v>
       </c>
       <c r="D116" t="n">
-        <v>0.741072</v>
+        <v>0.740008</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.596475</v>
+        <v>0.593062</v>
       </c>
       <c r="C117" t="n">
-        <v>0.705646</v>
+        <v>0.705054</v>
       </c>
       <c r="D117" t="n">
-        <v>0.742301</v>
+        <v>0.741716</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.597205</v>
+        <v>0.596974</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7083429999999999</v>
+        <v>0.707735</v>
       </c>
       <c r="D118" t="n">
-        <v>0.743762</v>
+        <v>0.732317</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599862</v>
+        <v>0.5987170000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.709063</v>
+        <v>0.70863</v>
       </c>
       <c r="D119" t="n">
-        <v>0.745982</v>
+        <v>0.747239</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.604342</v>
+        <v>0.60427</v>
       </c>
       <c r="C120" t="n">
-        <v>0.712511</v>
+        <v>0.713237</v>
       </c>
       <c r="D120" t="n">
-        <v>0.739349</v>
+        <v>0.747844</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.612405</v>
+        <v>0.609868</v>
       </c>
       <c r="C121" t="n">
-        <v>0.709314</v>
+        <v>0.70905</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7505540000000001</v>
+        <v>0.75138</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618215</v>
+        <v>0.617341</v>
       </c>
       <c r="C122" t="n">
-        <v>0.713873</v>
+        <v>0.723469</v>
       </c>
       <c r="D122" t="n">
-        <v>0.759983</v>
+        <v>0.7501100000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.630328</v>
+        <v>0.629686</v>
       </c>
       <c r="C123" t="n">
-        <v>0.724626</v>
+        <v>0.730338</v>
       </c>
       <c r="D123" t="n">
-        <v>0.966536</v>
+        <v>0.970024</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.734345</v>
+        <v>0.732532</v>
       </c>
       <c r="C124" t="n">
-        <v>0.814261</v>
+        <v>0.8124710000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.972423</v>
+        <v>0.965854</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7321299999999999</v>
+        <v>0.735787</v>
       </c>
       <c r="C125" t="n">
-        <v>0.81538</v>
+        <v>0.80897</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9703889999999999</v>
+        <v>0.968117</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.734229</v>
+        <v>0.7348980000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8102780000000001</v>
+        <v>0.815927</v>
       </c>
       <c r="D126" t="n">
-        <v>0.968157</v>
+        <v>0.964201</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.736738</v>
+        <v>0.73389</v>
       </c>
       <c r="C127" t="n">
-        <v>0.811937</v>
+        <v>0.8148840000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.968274</v>
+        <v>0.97406</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.736215</v>
+        <v>0.735348</v>
       </c>
       <c r="C128" t="n">
-        <v>0.81394</v>
+        <v>0.820208</v>
       </c>
       <c r="D128" t="n">
-        <v>0.974335</v>
+        <v>0.978305</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.735527</v>
+        <v>0.739238</v>
       </c>
       <c r="C129" t="n">
-        <v>0.81971</v>
+        <v>0.816245</v>
       </c>
       <c r="D129" t="n">
-        <v>0.974729</v>
+        <v>0.97809</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737627</v>
+        <v>0.742089</v>
       </c>
       <c r="C130" t="n">
-        <v>0.822796</v>
+        <v>0.822311</v>
       </c>
       <c r="D130" t="n">
-        <v>0.970906</v>
+        <v>0.973434</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.741657</v>
+        <v>0.7406740000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.82557</v>
+        <v>0.8256599999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>0.980432</v>
+        <v>0.9780759999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.743357</v>
+        <v>0.744159</v>
       </c>
       <c r="C132" t="n">
-        <v>0.826631</v>
+        <v>0.82811</v>
       </c>
       <c r="D132" t="n">
-        <v>0.976706</v>
+        <v>0.980363</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7447009999999999</v>
+        <v>0.747048</v>
       </c>
       <c r="C133" t="n">
-        <v>0.831221</v>
+        <v>0.8318449999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.981177</v>
+        <v>0.981229</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.751184</v>
+        <v>0.753055</v>
       </c>
       <c r="C134" t="n">
-        <v>0.834186</v>
+        <v>0.835856</v>
       </c>
       <c r="D134" t="n">
-        <v>0.986758</v>
+        <v>0.982412</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758588</v>
+        <v>0.759645</v>
       </c>
       <c r="C135" t="n">
-        <v>0.840203</v>
+        <v>0.841629</v>
       </c>
       <c r="D135" t="n">
-        <v>0.990196</v>
+        <v>0.986778</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.766168</v>
+        <v>0.768926</v>
       </c>
       <c r="C136" t="n">
-        <v>0.846045</v>
+        <v>0.848483</v>
       </c>
       <c r="D136" t="n">
-        <v>0.997095</v>
+        <v>0.991317</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.779756</v>
+        <v>0.7786149999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.857387</v>
+        <v>0.85304</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17106</v>
+        <v>1.17337</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860008</v>
+        <v>0.860213</v>
       </c>
       <c r="C138" t="n">
-        <v>0.902651</v>
+        <v>0.899357</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17327</v>
+        <v>1.17223</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860659</v>
+        <v>0.859769</v>
       </c>
       <c r="C139" t="n">
-        <v>0.905273</v>
+        <v>0.904318</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17592</v>
+        <v>1.17629</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.86164</v>
+        <v>0.861641</v>
       </c>
       <c r="C140" t="n">
-        <v>0.906569</v>
+        <v>0.906595</v>
       </c>
       <c r="D140" t="n">
-        <v>1.17566</v>
+        <v>1.17445</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.861675</v>
+        <v>0.862154</v>
       </c>
       <c r="C141" t="n">
-        <v>0.906965</v>
+        <v>0.906991</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17447</v>
+        <v>1.1757</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.861989</v>
+        <v>0.8636</v>
       </c>
       <c r="C142" t="n">
-        <v>0.908191</v>
+        <v>0.90577</v>
       </c>
       <c r="D142" t="n">
-        <v>1.17852</v>
+        <v>1.17888</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.864067</v>
+        <v>0.864179</v>
       </c>
       <c r="C143" t="n">
-        <v>0.910236</v>
+        <v>0.906841</v>
       </c>
       <c r="D143" t="n">
-        <v>1.18025</v>
+        <v>1.17762</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115056</v>
+        <v>0.110195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14299</v>
+        <v>0.100175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154817</v>
+        <v>0.108694</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.112812</v>
+        <v>0.110383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142493</v>
+        <v>0.100005</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155041</v>
+        <v>0.10905</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112812</v>
+        <v>0.111237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.143126</v>
+        <v>0.100371</v>
       </c>
       <c r="D4" t="n">
-        <v>0.155422</v>
+        <v>0.110195</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113647</v>
+        <v>0.112352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.143526</v>
+        <v>0.100588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.156354</v>
+        <v>0.111267</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11519</v>
+        <v>0.114165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.144843</v>
+        <v>0.101352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157207</v>
+        <v>0.112297</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113181</v>
+        <v>0.113628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.143728</v>
+        <v>0.101661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158198</v>
+        <v>0.114149</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.116697</v>
+        <v>0.1155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.146143</v>
+        <v>0.102348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161408</v>
+        <v>0.116575</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120633</v>
+        <v>0.119848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.149286</v>
+        <v>0.105019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158637</v>
+        <v>0.114568</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123867</v>
+        <v>0.122221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.153089</v>
+        <v>0.111118</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157763</v>
+        <v>0.115157</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123688</v>
+        <v>0.122298</v>
       </c>
       <c r="C11" t="n">
-        <v>0.151152</v>
+        <v>0.110826</v>
       </c>
       <c r="D11" t="n">
-        <v>0.158593</v>
+        <v>0.11512</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124443</v>
+        <v>0.122848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.151473</v>
+        <v>0.113994</v>
       </c>
       <c r="D12" t="n">
-        <v>0.157734</v>
+        <v>0.115552</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124812</v>
+        <v>0.123346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.152201</v>
+        <v>0.114495</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158904</v>
+        <v>0.115793</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124409</v>
+        <v>0.123412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.152834</v>
+        <v>0.111027</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158721</v>
+        <v>0.116596</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125321</v>
+        <v>0.123662</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153456</v>
+        <v>0.111523</v>
       </c>
       <c r="D15" t="n">
-        <v>0.159818</v>
+        <v>0.116595</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124734</v>
+        <v>0.123949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.153684</v>
+        <v>0.114263</v>
       </c>
       <c r="D16" t="n">
-        <v>0.16077</v>
+        <v>0.117141</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125511</v>
+        <v>0.124621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.154178</v>
+        <v>0.11208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1608</v>
+        <v>0.118086</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126709</v>
+        <v>0.125331</v>
       </c>
       <c r="C18" t="n">
-        <v>0.154151</v>
+        <v>0.114514</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161287</v>
+        <v>0.119085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127327</v>
+        <v>0.126324</v>
       </c>
       <c r="C19" t="n">
-        <v>0.155565</v>
+        <v>0.113208</v>
       </c>
       <c r="D19" t="n">
-        <v>0.162886</v>
+        <v>0.119946</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128777</v>
+        <v>0.127274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.156329</v>
+        <v>0.116627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164175</v>
+        <v>0.121326</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129991</v>
+        <v>0.129035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.157823</v>
+        <v>0.120804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167224</v>
+        <v>0.124475</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133383</v>
+        <v>0.132889</v>
       </c>
       <c r="C22" t="n">
-        <v>0.161137</v>
+        <v>0.120612</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17292</v>
+        <v>0.128794</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140472</v>
+        <v>0.140877</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165295</v>
+        <v>0.12701</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16637</v>
+        <v>0.123706</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133116</v>
+        <v>0.133706</v>
       </c>
       <c r="C24" t="n">
-        <v>0.159523</v>
+        <v>0.122608</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165689</v>
+        <v>0.124371</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133375</v>
+        <v>0.133698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.161623</v>
+        <v>0.122022</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166503</v>
+        <v>0.124977</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134356</v>
+        <v>0.13352</v>
       </c>
       <c r="C26" t="n">
-        <v>0.161823</v>
+        <v>0.122916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167257</v>
+        <v>0.12504</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135074</v>
+        <v>0.135212</v>
       </c>
       <c r="C27" t="n">
-        <v>0.162332</v>
+        <v>0.123587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.167713</v>
+        <v>0.125327</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134556</v>
+        <v>0.133972</v>
       </c>
       <c r="C28" t="n">
-        <v>0.162437</v>
+        <v>0.123414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.167613</v>
+        <v>0.125807</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135539</v>
+        <v>0.1344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.162524</v>
+        <v>0.122513</v>
       </c>
       <c r="D29" t="n">
-        <v>0.167479</v>
+        <v>0.125881</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136239</v>
+        <v>0.135994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.164144</v>
+        <v>0.123389</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168023</v>
+        <v>0.126849</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136041</v>
+        <v>0.135229</v>
       </c>
       <c r="C31" t="n">
-        <v>0.16377</v>
+        <v>0.123876</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168601</v>
+        <v>0.127042</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13674</v>
+        <v>0.135875</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16455</v>
+        <v>0.124564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169652</v>
+        <v>0.127866</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137428</v>
+        <v>0.136701</v>
       </c>
       <c r="C33" t="n">
-        <v>0.164959</v>
+        <v>0.125403</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17213</v>
+        <v>0.12914</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139251</v>
+        <v>0.139854</v>
       </c>
       <c r="C34" t="n">
-        <v>0.166501</v>
+        <v>0.127256</v>
       </c>
       <c r="D34" t="n">
-        <v>0.172962</v>
+        <v>0.131116</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143011</v>
+        <v>0.142337</v>
       </c>
       <c r="C35" t="n">
-        <v>0.16878</v>
+        <v>0.130499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.176487</v>
+        <v>0.134317</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.14843</v>
+        <v>0.147508</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172778</v>
+        <v>0.135135</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184821</v>
+        <v>0.139697</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.156627</v>
+        <v>0.154329</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17848</v>
+        <v>0.140821</v>
       </c>
       <c r="D37" t="n">
-        <v>0.176004</v>
+        <v>0.135792</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14544</v>
+        <v>0.14403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.173423</v>
+        <v>0.135295</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179637</v>
+        <v>0.139034</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146345</v>
+        <v>0.146468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.174231</v>
+        <v>0.13594</v>
       </c>
       <c r="D39" t="n">
-        <v>0.176094</v>
+        <v>0.136866</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146619</v>
+        <v>0.146362</v>
       </c>
       <c r="C40" t="n">
-        <v>0.175266</v>
+        <v>0.135997</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181672</v>
+        <v>0.140021</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148293</v>
+        <v>0.14598</v>
       </c>
       <c r="C41" t="n">
-        <v>0.175337</v>
+        <v>0.134943</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179749</v>
+        <v>0.138536</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.144681</v>
+        <v>0.146969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.174967</v>
+        <v>0.135166</v>
       </c>
       <c r="D42" t="n">
-        <v>0.180647</v>
+        <v>0.138375</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147554</v>
+        <v>0.144421</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176683</v>
+        <v>0.135131</v>
       </c>
       <c r="D43" t="n">
-        <v>0.181781</v>
+        <v>0.138444</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.14808</v>
+        <v>0.147156</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177863</v>
+        <v>0.135987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18216</v>
+        <v>0.138779</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147828</v>
+        <v>0.146212</v>
       </c>
       <c r="C45" t="n">
-        <v>0.178236</v>
+        <v>0.137007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.183201</v>
+        <v>0.138082</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.153041</v>
+        <v>0.147851</v>
       </c>
       <c r="C46" t="n">
-        <v>0.178126</v>
+        <v>0.137874</v>
       </c>
       <c r="D46" t="n">
-        <v>0.185177</v>
+        <v>0.141421</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.153297</v>
+        <v>0.150332</v>
       </c>
       <c r="C47" t="n">
-        <v>0.180425</v>
+        <v>0.13933</v>
       </c>
       <c r="D47" t="n">
-        <v>0.186288</v>
+        <v>0.142039</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154089</v>
+        <v>0.151499</v>
       </c>
       <c r="C48" t="n">
-        <v>0.182341</v>
+        <v>0.141988</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1882</v>
+        <v>0.14394</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159083</v>
+        <v>0.155503</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185139</v>
+        <v>0.14482</v>
       </c>
       <c r="D49" t="n">
-        <v>0.192163</v>
+        <v>0.146824</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.16163</v>
+        <v>0.15991</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188579</v>
+        <v>0.148191</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198414</v>
+        <v>0.152116</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168821</v>
+        <v>0.16664</v>
       </c>
       <c r="C51" t="n">
-        <v>0.192513</v>
+        <v>0.152297</v>
       </c>
       <c r="D51" t="n">
-        <v>0.195662</v>
+        <v>0.149748</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175584</v>
+        <v>0.177075</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198734</v>
+        <v>0.159657</v>
       </c>
       <c r="D52" t="n">
-        <v>0.194722</v>
+        <v>0.150122</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161195</v>
+        <v>0.162197</v>
       </c>
       <c r="C53" t="n">
-        <v>0.185495</v>
+        <v>0.14497</v>
       </c>
       <c r="D53" t="n">
-        <v>0.196332</v>
+        <v>0.151284</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159031</v>
+        <v>0.161159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186236</v>
+        <v>0.145829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.195607</v>
+        <v>0.150622</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161177</v>
+        <v>0.161242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.186607</v>
+        <v>0.14592</v>
       </c>
       <c r="D55" t="n">
-        <v>0.196729</v>
+        <v>0.150621</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161233</v>
+        <v>0.161639</v>
       </c>
       <c r="C56" t="n">
-        <v>0.186182</v>
+        <v>0.144921</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196775</v>
+        <v>0.151336</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160875</v>
+        <v>0.162165</v>
       </c>
       <c r="C57" t="n">
-        <v>0.18784</v>
+        <v>0.146973</v>
       </c>
       <c r="D57" t="n">
-        <v>0.197446</v>
+        <v>0.150672</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161442</v>
+        <v>0.162622</v>
       </c>
       <c r="C58" t="n">
-        <v>0.188724</v>
+        <v>0.146753</v>
       </c>
       <c r="D58" t="n">
-        <v>0.197857</v>
+        <v>0.151438</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163361</v>
+        <v>0.163647</v>
       </c>
       <c r="C59" t="n">
-        <v>0.189559</v>
+        <v>0.147514</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198283</v>
+        <v>0.15389</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163605</v>
+        <v>0.16347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.190822</v>
+        <v>0.149881</v>
       </c>
       <c r="D60" t="n">
-        <v>0.198365</v>
+        <v>0.153983</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165731</v>
+        <v>0.165644</v>
       </c>
       <c r="C61" t="n">
-        <v>0.192078</v>
+        <v>0.151428</v>
       </c>
       <c r="D61" t="n">
-        <v>0.201207</v>
+        <v>0.154882</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166504</v>
+        <v>0.167796</v>
       </c>
       <c r="C62" t="n">
-        <v>0.193304</v>
+        <v>0.153786</v>
       </c>
       <c r="D62" t="n">
-        <v>0.202247</v>
+        <v>0.156997</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171691</v>
+        <v>0.171663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.196048</v>
+        <v>0.154538</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206196</v>
+        <v>0.159883</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173713</v>
+        <v>0.174555</v>
       </c>
       <c r="C64" t="n">
-        <v>0.198843</v>
+        <v>0.158816</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210258</v>
+        <v>0.164641</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181698</v>
+        <v>0.181143</v>
       </c>
       <c r="C65" t="n">
-        <v>0.203839</v>
+        <v>0.162377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217895</v>
+        <v>0.170336</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18701</v>
+        <v>0.188698</v>
       </c>
       <c r="C66" t="n">
-        <v>0.210316</v>
+        <v>0.168145</v>
       </c>
       <c r="D66" t="n">
-        <v>0.211622</v>
+        <v>0.16273</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178937</v>
+        <v>0.179653</v>
       </c>
       <c r="C67" t="n">
-        <v>0.205505</v>
+        <v>0.163077</v>
       </c>
       <c r="D67" t="n">
-        <v>0.209811</v>
+        <v>0.161747</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183516</v>
+        <v>0.179442</v>
       </c>
       <c r="C68" t="n">
-        <v>0.205773</v>
+        <v>0.164475</v>
       </c>
       <c r="D68" t="n">
-        <v>0.211354</v>
+        <v>0.161216</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181604</v>
+        <v>0.179514</v>
       </c>
       <c r="C69" t="n">
-        <v>0.203156</v>
+        <v>0.16548</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21038</v>
+        <v>0.162113</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182644</v>
+        <v>0.179984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.208085</v>
+        <v>0.1619</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211378</v>
+        <v>0.16338</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185343</v>
+        <v>0.178333</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206694</v>
+        <v>0.165953</v>
       </c>
       <c r="D71" t="n">
-        <v>0.212214</v>
+        <v>0.164014</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180676</v>
+        <v>0.183881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.209069</v>
+        <v>0.166322</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212051</v>
+        <v>0.162893</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185173</v>
+        <v>0.180976</v>
       </c>
       <c r="C73" t="n">
-        <v>0.207281</v>
+        <v>0.166334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213845</v>
+        <v>0.166053</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18369</v>
+        <v>0.1886</v>
       </c>
       <c r="C74" t="n">
-        <v>0.207296</v>
+        <v>0.167817</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214345</v>
+        <v>0.166567</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188045</v>
+        <v>0.188204</v>
       </c>
       <c r="C75" t="n">
-        <v>0.212607</v>
+        <v>0.170481</v>
       </c>
       <c r="D75" t="n">
-        <v>0.216388</v>
+        <v>0.168483</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189771</v>
+        <v>0.188057</v>
       </c>
       <c r="C76" t="n">
-        <v>0.213756</v>
+        <v>0.17067</v>
       </c>
       <c r="D76" t="n">
-        <v>0.21782</v>
+        <v>0.169078</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193096</v>
+        <v>0.192262</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215973</v>
+        <v>0.171779</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22149</v>
+        <v>0.172098</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198843</v>
+        <v>0.194369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218405</v>
+        <v>0.174732</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224353</v>
+        <v>0.175865</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198489</v>
+        <v>0.203217</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22099</v>
+        <v>0.17746</v>
       </c>
       <c r="D79" t="n">
-        <v>0.230706</v>
+        <v>0.181265</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210158</v>
+        <v>0.206031</v>
       </c>
       <c r="C80" t="n">
-        <v>0.225398</v>
+        <v>0.18165</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305053</v>
+        <v>0.25055</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.341885</v>
+        <v>0.364481</v>
       </c>
       <c r="C81" t="n">
-        <v>0.348088</v>
+        <v>0.308498</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30723</v>
+        <v>0.251991</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.339431</v>
+        <v>0.364347</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34913</v>
+        <v>0.309401</v>
       </c>
       <c r="D82" t="n">
-        <v>0.308784</v>
+        <v>0.249423</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340013</v>
+        <v>0.36725</v>
       </c>
       <c r="C83" t="n">
-        <v>0.345771</v>
+        <v>0.310041</v>
       </c>
       <c r="D83" t="n">
-        <v>0.30767</v>
+        <v>0.248745</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.341574</v>
+        <v>0.371017</v>
       </c>
       <c r="C84" t="n">
-        <v>0.342159</v>
+        <v>0.308302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305242</v>
+        <v>0.252108</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346541</v>
+        <v>0.370102</v>
       </c>
       <c r="C85" t="n">
-        <v>0.341623</v>
+        <v>0.305792</v>
       </c>
       <c r="D85" t="n">
-        <v>0.308145</v>
+        <v>0.250269</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.342345</v>
+        <v>0.367208</v>
       </c>
       <c r="C86" t="n">
-        <v>0.340258</v>
+        <v>0.300698</v>
       </c>
       <c r="D86" t="n">
-        <v>0.305449</v>
+        <v>0.249669</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344678</v>
+        <v>0.367684</v>
       </c>
       <c r="C87" t="n">
-        <v>0.340117</v>
+        <v>0.301322</v>
       </c>
       <c r="D87" t="n">
-        <v>0.30574</v>
+        <v>0.24531</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.343978</v>
+        <v>0.372713</v>
       </c>
       <c r="C88" t="n">
-        <v>0.33887</v>
+        <v>0.297039</v>
       </c>
       <c r="D88" t="n">
-        <v>0.302183</v>
+        <v>0.247631</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.346098</v>
+        <v>0.369929</v>
       </c>
       <c r="C89" t="n">
-        <v>0.337761</v>
+        <v>0.30016</v>
       </c>
       <c r="D89" t="n">
-        <v>0.303153</v>
+        <v>0.246149</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.349966</v>
+        <v>0.374599</v>
       </c>
       <c r="C90" t="n">
-        <v>0.34236</v>
+        <v>0.296884</v>
       </c>
       <c r="D90" t="n">
-        <v>0.300026</v>
+        <v>0.245383</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352353</v>
+        <v>0.374766</v>
       </c>
       <c r="C91" t="n">
-        <v>0.331527</v>
+        <v>0.298683</v>
       </c>
       <c r="D91" t="n">
-        <v>0.302301</v>
+        <v>0.246596</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.352525</v>
+        <v>0.382664</v>
       </c>
       <c r="C92" t="n">
-        <v>0.339895</v>
+        <v>0.300425</v>
       </c>
       <c r="D92" t="n">
-        <v>0.300537</v>
+        <v>0.249912</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355738</v>
+        <v>0.381352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.337111</v>
+        <v>0.308766</v>
       </c>
       <c r="D93" t="n">
-        <v>0.306476</v>
+        <v>0.25084</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3634</v>
+        <v>0.392365</v>
       </c>
       <c r="C94" t="n">
-        <v>0.339357</v>
+        <v>0.306299</v>
       </c>
       <c r="D94" t="n">
-        <v>0.509236</v>
+        <v>0.42974</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502406</v>
+        <v>0.541924</v>
       </c>
       <c r="C95" t="n">
-        <v>0.570623</v>
+        <v>0.492236</v>
       </c>
       <c r="D95" t="n">
-        <v>0.526823</v>
+        <v>0.428963</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502946</v>
+        <v>0.5416</v>
       </c>
       <c r="C96" t="n">
-        <v>0.558024</v>
+        <v>0.491394</v>
       </c>
       <c r="D96" t="n">
-        <v>0.526847</v>
+        <v>0.42846</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.504162</v>
+        <v>0.54228</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5558920000000001</v>
+        <v>0.490359</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52258</v>
+        <v>0.428704</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50261</v>
+        <v>0.542763</v>
       </c>
       <c r="C98" t="n">
-        <v>0.569088</v>
+        <v>0.490255</v>
       </c>
       <c r="D98" t="n">
-        <v>0.521988</v>
+        <v>0.426821</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.503007</v>
+        <v>0.541836</v>
       </c>
       <c r="C99" t="n">
-        <v>0.566712</v>
+        <v>0.4892</v>
       </c>
       <c r="D99" t="n">
-        <v>0.503498</v>
+        <v>0.426153</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5040210000000001</v>
+        <v>0.542023</v>
       </c>
       <c r="C100" t="n">
-        <v>0.565199</v>
+        <v>0.488818</v>
       </c>
       <c r="D100" t="n">
-        <v>0.520547</v>
+        <v>0.426409</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504344</v>
+        <v>0.543305</v>
       </c>
       <c r="C101" t="n">
-        <v>0.565964</v>
+        <v>0.487751</v>
       </c>
       <c r="D101" t="n">
-        <v>0.518734</v>
+        <v>0.42728</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505737</v>
+        <v>0.545071</v>
       </c>
       <c r="C102" t="n">
-        <v>0.565205</v>
+        <v>0.489575</v>
       </c>
       <c r="D102" t="n">
-        <v>0.518745</v>
+        <v>0.427875</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506162</v>
+        <v>0.546414</v>
       </c>
       <c r="C103" t="n">
-        <v>0.566393</v>
+        <v>0.48897</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5053299999999999</v>
+        <v>0.427457</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.509174</v>
+        <v>0.5487300000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.56546</v>
+        <v>0.490087</v>
       </c>
       <c r="D104" t="n">
-        <v>0.504084</v>
+        <v>0.428158</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511354</v>
+        <v>0.551173</v>
       </c>
       <c r="C105" t="n">
-        <v>0.568639</v>
+        <v>0.491636</v>
       </c>
       <c r="D105" t="n">
-        <v>0.521402</v>
+        <v>0.42979</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5146539999999999</v>
+        <v>0.5541239999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.555826</v>
+        <v>0.494713</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5063800000000001</v>
+        <v>0.431463</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519587</v>
+        <v>0.558993</v>
       </c>
       <c r="C107" t="n">
-        <v>0.57141</v>
+        <v>0.498494</v>
       </c>
       <c r="D107" t="n">
-        <v>0.527813</v>
+        <v>0.435641</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52735</v>
+        <v>0.566693</v>
       </c>
       <c r="C108" t="n">
-        <v>0.576689</v>
+        <v>0.502864</v>
       </c>
       <c r="D108" t="n">
-        <v>0.74036</v>
+        <v>0.578853</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537205</v>
+        <v>0.579143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.582613</v>
+        <v>0.5115420000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.736677</v>
+        <v>0.576926</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58926</v>
+        <v>0.6309979999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.691268</v>
+        <v>0.610171</v>
       </c>
       <c r="D110" t="n">
-        <v>0.73547</v>
+        <v>0.578279</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.589293</v>
+        <v>0.631792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.699739</v>
+        <v>0.6103690000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7272110000000001</v>
+        <v>0.578167</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.587047</v>
+        <v>0.633004</v>
       </c>
       <c r="C112" t="n">
-        <v>0.700456</v>
+        <v>0.609453</v>
       </c>
       <c r="D112" t="n">
-        <v>0.736579</v>
+        <v>0.575794</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.586236</v>
+        <v>0.631125</v>
       </c>
       <c r="C113" t="n">
-        <v>0.694209</v>
+        <v>0.606642</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7375159999999999</v>
+        <v>0.576779</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.589363</v>
+        <v>0.634137</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7029029999999999</v>
+        <v>0.612737</v>
       </c>
       <c r="D114" t="n">
-        <v>0.738012</v>
+        <v>0.581614</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.591259</v>
+        <v>0.6359629999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.695732</v>
+        <v>0.612102</v>
       </c>
       <c r="D115" t="n">
-        <v>0.738057</v>
+        <v>0.57743</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590167</v>
+        <v>0.635581</v>
       </c>
       <c r="C116" t="n">
-        <v>0.703775</v>
+        <v>0.6122840000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.740008</v>
+        <v>0.5825129999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.593062</v>
+        <v>0.641785</v>
       </c>
       <c r="C117" t="n">
-        <v>0.705054</v>
+        <v>0.615366</v>
       </c>
       <c r="D117" t="n">
-        <v>0.741716</v>
+        <v>0.585544</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.596974</v>
+        <v>0.6400670000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.707735</v>
+        <v>0.616116</v>
       </c>
       <c r="D118" t="n">
-        <v>0.732317</v>
+        <v>0.586668</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5987170000000001</v>
+        <v>0.645516</v>
       </c>
       <c r="C119" t="n">
-        <v>0.70863</v>
+        <v>0.620138</v>
       </c>
       <c r="D119" t="n">
-        <v>0.747239</v>
+        <v>0.58539</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.60427</v>
+        <v>0.650425</v>
       </c>
       <c r="C120" t="n">
-        <v>0.713237</v>
+        <v>0.622648</v>
       </c>
       <c r="D120" t="n">
-        <v>0.747844</v>
+        <v>0.593215</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.609868</v>
+        <v>0.655239</v>
       </c>
       <c r="C121" t="n">
-        <v>0.70905</v>
+        <v>0.626674</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75138</v>
+        <v>0.595947</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.617341</v>
+        <v>0.664203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.723469</v>
+        <v>0.63381</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7501100000000001</v>
+        <v>0.6031840000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.629686</v>
+        <v>0.677475</v>
       </c>
       <c r="C123" t="n">
-        <v>0.730338</v>
+        <v>0.642586</v>
       </c>
       <c r="D123" t="n">
-        <v>0.970024</v>
+        <v>0.75998</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.732532</v>
+        <v>0.7950700000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8124710000000001</v>
+        <v>0.750788</v>
       </c>
       <c r="D124" t="n">
-        <v>0.965854</v>
+        <v>0.759834</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.735787</v>
+        <v>0.792195</v>
       </c>
       <c r="C125" t="n">
-        <v>0.80897</v>
+        <v>0.753039</v>
       </c>
       <c r="D125" t="n">
-        <v>0.968117</v>
+        <v>0.759147</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7348980000000001</v>
+        <v>0.795179</v>
       </c>
       <c r="C126" t="n">
-        <v>0.815927</v>
+        <v>0.753345</v>
       </c>
       <c r="D126" t="n">
-        <v>0.964201</v>
+        <v>0.759297</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73389</v>
+        <v>0.794418</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8148840000000001</v>
+        <v>0.754771</v>
       </c>
       <c r="D127" t="n">
-        <v>0.97406</v>
+        <v>0.761676</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.735348</v>
+        <v>0.795822</v>
       </c>
       <c r="C128" t="n">
-        <v>0.820208</v>
+        <v>0.755694</v>
       </c>
       <c r="D128" t="n">
-        <v>0.978305</v>
+        <v>0.762991</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.739238</v>
+        <v>0.797658</v>
       </c>
       <c r="C129" t="n">
-        <v>0.816245</v>
+        <v>0.757701</v>
       </c>
       <c r="D129" t="n">
-        <v>0.97809</v>
+        <v>0.764934</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.742089</v>
+        <v>0.799171</v>
       </c>
       <c r="C130" t="n">
-        <v>0.822311</v>
+        <v>0.760165</v>
       </c>
       <c r="D130" t="n">
-        <v>0.973434</v>
+        <v>0.763757</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7406740000000001</v>
+        <v>0.801963</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8256599999999999</v>
+        <v>0.761107</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9780759999999999</v>
+        <v>0.768209</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.744159</v>
+        <v>0.803715</v>
       </c>
       <c r="C132" t="n">
-        <v>0.82811</v>
+        <v>0.766564</v>
       </c>
       <c r="D132" t="n">
-        <v>0.980363</v>
+        <v>0.766486</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.747048</v>
+        <v>0.808083</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8318449999999999</v>
+        <v>0.770182</v>
       </c>
       <c r="D133" t="n">
-        <v>0.981229</v>
+        <v>0.769443</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.753055</v>
+        <v>0.817475</v>
       </c>
       <c r="C134" t="n">
-        <v>0.835856</v>
+        <v>0.774512</v>
       </c>
       <c r="D134" t="n">
-        <v>0.982412</v>
+        <v>0.7765300000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.759645</v>
+        <v>0.820213</v>
       </c>
       <c r="C135" t="n">
-        <v>0.841629</v>
+        <v>0.781058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.986778</v>
+        <v>0.780515</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.768926</v>
+        <v>0.828807</v>
       </c>
       <c r="C136" t="n">
-        <v>0.848483</v>
+        <v>0.784016</v>
       </c>
       <c r="D136" t="n">
-        <v>0.991317</v>
+        <v>0.787755</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7786149999999999</v>
+        <v>0.842534</v>
       </c>
       <c r="C137" t="n">
-        <v>0.85304</v>
+        <v>0.795733</v>
       </c>
       <c r="D137" t="n">
-        <v>1.17337</v>
+        <v>0.905976</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860213</v>
+        <v>0.933826</v>
       </c>
       <c r="C138" t="n">
-        <v>0.899357</v>
+        <v>0.887087</v>
       </c>
       <c r="D138" t="n">
-        <v>1.17223</v>
+        <v>0.905448</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.859769</v>
+        <v>0.935682</v>
       </c>
       <c r="C139" t="n">
-        <v>0.904318</v>
+        <v>0.887478</v>
       </c>
       <c r="D139" t="n">
-        <v>1.17629</v>
+        <v>0.907064</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.861641</v>
+        <v>0.935482</v>
       </c>
       <c r="C140" t="n">
-        <v>0.906595</v>
+        <v>0.889185</v>
       </c>
       <c r="D140" t="n">
-        <v>1.17445</v>
+        <v>0.908617</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.862154</v>
+        <v>0.936852</v>
       </c>
       <c r="C141" t="n">
-        <v>0.906991</v>
+        <v>0.8918779999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>1.1757</v>
+        <v>0.907484</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8636</v>
+        <v>0.936856</v>
       </c>
       <c r="C142" t="n">
-        <v>0.90577</v>
+        <v>0.891413</v>
       </c>
       <c r="D142" t="n">
-        <v>1.17888</v>
+        <v>0.908882</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.864179</v>
+        <v>0.939045</v>
       </c>
       <c r="C143" t="n">
-        <v>0.906841</v>
+        <v>0.893852</v>
       </c>
       <c r="D143" t="n">
-        <v>1.17762</v>
+        <v>0.909577</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110195</v>
+        <v>0.109225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100175</v>
+        <v>0.100164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108694</v>
+        <v>0.108698</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110383</v>
+        <v>0.110855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100005</v>
+        <v>0.1006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10905</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111237</v>
+        <v>0.11086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100371</v>
+        <v>0.100767</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110195</v>
+        <v>0.110087</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112352</v>
+        <v>0.111324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100588</v>
+        <v>0.100845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111267</v>
+        <v>0.110852</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114165</v>
+        <v>0.112201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101352</v>
+        <v>0.101234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112297</v>
+        <v>0.112371</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113628</v>
+        <v>0.112817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101661</v>
+        <v>0.101324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114149</v>
+        <v>0.113883</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1155</v>
+        <v>0.115572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102348</v>
+        <v>0.102441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116575</v>
+        <v>0.116873</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119848</v>
+        <v>0.119756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105019</v>
+        <v>0.104554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.114568</v>
+        <v>0.116403</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122221</v>
+        <v>0.12696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111118</v>
+        <v>0.113685</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115157</v>
+        <v>0.117962</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122298</v>
+        <v>0.127155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110826</v>
+        <v>0.113027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11512</v>
+        <v>0.117575</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122848</v>
+        <v>0.125547</v>
       </c>
       <c r="C12" t="n">
-        <v>0.113994</v>
+        <v>0.113193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115552</v>
+        <v>0.117316</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123346</v>
+        <v>0.125872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.114495</v>
+        <v>0.115488</v>
       </c>
       <c r="D13" t="n">
-        <v>0.115793</v>
+        <v>0.117184</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123412</v>
+        <v>0.127019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111027</v>
+        <v>0.113355</v>
       </c>
       <c r="D14" t="n">
-        <v>0.116596</v>
+        <v>0.11806</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123662</v>
+        <v>0.126579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111523</v>
+        <v>0.115878</v>
       </c>
       <c r="D15" t="n">
-        <v>0.116595</v>
+        <v>0.118449</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123949</v>
+        <v>0.127252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114263</v>
+        <v>0.116375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117141</v>
+        <v>0.118931</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124621</v>
+        <v>0.127664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11208</v>
+        <v>0.113645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118086</v>
+        <v>0.118898</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125331</v>
+        <v>0.127578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114514</v>
+        <v>0.114565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.119085</v>
+        <v>0.120794</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126324</v>
+        <v>0.12835</v>
       </c>
       <c r="C19" t="n">
-        <v>0.113208</v>
+        <v>0.11681</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119946</v>
+        <v>0.120149</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127274</v>
+        <v>0.128785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.116627</v>
+        <v>0.117436</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121326</v>
+        <v>0.122163</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129035</v>
+        <v>0.130749</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120804</v>
+        <v>0.118404</v>
       </c>
       <c r="D21" t="n">
-        <v>0.124475</v>
+        <v>0.12516</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132889</v>
+        <v>0.135667</v>
       </c>
       <c r="C22" t="n">
-        <v>0.120612</v>
+        <v>0.118294</v>
       </c>
       <c r="D22" t="n">
-        <v>0.128794</v>
+        <v>0.129182</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140877</v>
+        <v>0.141683</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12701</v>
+        <v>0.123865</v>
       </c>
       <c r="D23" t="n">
-        <v>0.123706</v>
+        <v>0.125709</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133706</v>
+        <v>0.135393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122608</v>
+        <v>0.120699</v>
       </c>
       <c r="D24" t="n">
-        <v>0.124371</v>
+        <v>0.124834</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133698</v>
+        <v>0.134008</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122022</v>
+        <v>0.120853</v>
       </c>
       <c r="D25" t="n">
-        <v>0.124977</v>
+        <v>0.125459</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13352</v>
+        <v>0.134043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122916</v>
+        <v>0.121143</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12504</v>
+        <v>0.125454</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135212</v>
+        <v>0.134977</v>
       </c>
       <c r="C27" t="n">
-        <v>0.123587</v>
+        <v>0.121251</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125327</v>
+        <v>0.126048</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133972</v>
+        <v>0.135137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123414</v>
+        <v>0.121725</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125807</v>
+        <v>0.126476</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1344</v>
+        <v>0.136087</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122513</v>
+        <v>0.121901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125881</v>
+        <v>0.126231</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135994</v>
+        <v>0.135856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123389</v>
+        <v>0.123552</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126849</v>
+        <v>0.126738</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135229</v>
+        <v>0.13685</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123876</v>
+        <v>0.124082</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127042</v>
+        <v>0.127461</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135875</v>
+        <v>0.137634</v>
       </c>
       <c r="C32" t="n">
-        <v>0.124564</v>
+        <v>0.123736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127866</v>
+        <v>0.128022</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136701</v>
+        <v>0.13868</v>
       </c>
       <c r="C33" t="n">
-        <v>0.125403</v>
+        <v>0.123842</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12914</v>
+        <v>0.129756</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139854</v>
+        <v>0.139489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127256</v>
+        <v>0.124923</v>
       </c>
       <c r="D34" t="n">
-        <v>0.131116</v>
+        <v>0.130926</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142337</v>
+        <v>0.143219</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130499</v>
+        <v>0.128266</v>
       </c>
       <c r="D35" t="n">
-        <v>0.134317</v>
+        <v>0.13406</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147508</v>
+        <v>0.148676</v>
       </c>
       <c r="C36" t="n">
-        <v>0.135135</v>
+        <v>0.131315</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139697</v>
+        <v>0.13965</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154329</v>
+        <v>0.155969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.140821</v>
+        <v>0.136202</v>
       </c>
       <c r="D37" t="n">
-        <v>0.135792</v>
+        <v>0.139052</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14403</v>
+        <v>0.147238</v>
       </c>
       <c r="C38" t="n">
-        <v>0.135295</v>
+        <v>0.13172</v>
       </c>
       <c r="D38" t="n">
-        <v>0.139034</v>
+        <v>0.138947</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146468</v>
+        <v>0.148831</v>
       </c>
       <c r="C39" t="n">
-        <v>0.13594</v>
+        <v>0.131851</v>
       </c>
       <c r="D39" t="n">
-        <v>0.136866</v>
+        <v>0.13874</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.146362</v>
+        <v>0.148246</v>
       </c>
       <c r="C40" t="n">
-        <v>0.135997</v>
+        <v>0.132719</v>
       </c>
       <c r="D40" t="n">
-        <v>0.140021</v>
+        <v>0.139283</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14598</v>
+        <v>0.147207</v>
       </c>
       <c r="C41" t="n">
-        <v>0.134943</v>
+        <v>0.133197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.138536</v>
+        <v>0.138624</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146969</v>
+        <v>0.150388</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135166</v>
+        <v>0.133706</v>
       </c>
       <c r="D42" t="n">
-        <v>0.138375</v>
+        <v>0.14023</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.144421</v>
+        <v>0.150389</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135131</v>
+        <v>0.134067</v>
       </c>
       <c r="D43" t="n">
-        <v>0.138444</v>
+        <v>0.139579</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147156</v>
+        <v>0.151494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135987</v>
+        <v>0.133014</v>
       </c>
       <c r="D44" t="n">
-        <v>0.138779</v>
+        <v>0.138218</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.146212</v>
+        <v>0.150349</v>
       </c>
       <c r="C45" t="n">
-        <v>0.137007</v>
+        <v>0.135633</v>
       </c>
       <c r="D45" t="n">
-        <v>0.138082</v>
+        <v>0.141207</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.147851</v>
+        <v>0.151814</v>
       </c>
       <c r="C46" t="n">
-        <v>0.137874</v>
+        <v>0.137412</v>
       </c>
       <c r="D46" t="n">
-        <v>0.141421</v>
+        <v>0.142399</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150332</v>
+        <v>0.149953</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13933</v>
+        <v>0.138869</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142039</v>
+        <v>0.143377</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151499</v>
+        <v>0.154089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141988</v>
+        <v>0.138858</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14394</v>
+        <v>0.146421</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155503</v>
+        <v>0.157164</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14482</v>
+        <v>0.141725</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146824</v>
+        <v>0.148461</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.15991</v>
+        <v>0.161833</v>
       </c>
       <c r="C50" t="n">
-        <v>0.148191</v>
+        <v>0.144603</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152116</v>
+        <v>0.152702</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.16664</v>
+        <v>0.164507</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152297</v>
+        <v>0.148657</v>
       </c>
       <c r="D51" t="n">
-        <v>0.149748</v>
+        <v>0.151982</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177075</v>
+        <v>0.175429</v>
       </c>
       <c r="C52" t="n">
-        <v>0.159657</v>
+        <v>0.155903</v>
       </c>
       <c r="D52" t="n">
-        <v>0.150122</v>
+        <v>0.151286</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.162197</v>
+        <v>0.159077</v>
       </c>
       <c r="C53" t="n">
-        <v>0.14497</v>
+        <v>0.142364</v>
       </c>
       <c r="D53" t="n">
-        <v>0.151284</v>
+        <v>0.151728</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161159</v>
+        <v>0.160786</v>
       </c>
       <c r="C54" t="n">
-        <v>0.145829</v>
+        <v>0.142901</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150622</v>
+        <v>0.152273</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161242</v>
+        <v>0.159835</v>
       </c>
       <c r="C55" t="n">
-        <v>0.14592</v>
+        <v>0.143546</v>
       </c>
       <c r="D55" t="n">
-        <v>0.150621</v>
+        <v>0.152608</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161639</v>
+        <v>0.16136</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144921</v>
+        <v>0.144073</v>
       </c>
       <c r="D56" t="n">
-        <v>0.151336</v>
+        <v>0.152529</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162165</v>
+        <v>0.160848</v>
       </c>
       <c r="C57" t="n">
-        <v>0.146973</v>
+        <v>0.144404</v>
       </c>
       <c r="D57" t="n">
-        <v>0.150672</v>
+        <v>0.152933</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162622</v>
+        <v>0.159549</v>
       </c>
       <c r="C58" t="n">
-        <v>0.146753</v>
+        <v>0.145444</v>
       </c>
       <c r="D58" t="n">
-        <v>0.151438</v>
+        <v>0.153209</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.163647</v>
+        <v>0.16035</v>
       </c>
       <c r="C59" t="n">
-        <v>0.147514</v>
+        <v>0.145941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.15389</v>
+        <v>0.154241</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16347</v>
+        <v>0.163315</v>
       </c>
       <c r="C60" t="n">
-        <v>0.149881</v>
+        <v>0.14669</v>
       </c>
       <c r="D60" t="n">
-        <v>0.153983</v>
+        <v>0.154615</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165644</v>
+        <v>0.166229</v>
       </c>
       <c r="C61" t="n">
-        <v>0.151428</v>
+        <v>0.148128</v>
       </c>
       <c r="D61" t="n">
-        <v>0.154882</v>
+        <v>0.155271</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167796</v>
+        <v>0.168701</v>
       </c>
       <c r="C62" t="n">
-        <v>0.153786</v>
+        <v>0.149788</v>
       </c>
       <c r="D62" t="n">
-        <v>0.156997</v>
+        <v>0.15838</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171663</v>
+        <v>0.170573</v>
       </c>
       <c r="C63" t="n">
-        <v>0.154538</v>
+        <v>0.15258</v>
       </c>
       <c r="D63" t="n">
-        <v>0.159883</v>
+        <v>0.160279</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174555</v>
+        <v>0.174014</v>
       </c>
       <c r="C64" t="n">
-        <v>0.158816</v>
+        <v>0.155049</v>
       </c>
       <c r="D64" t="n">
-        <v>0.164641</v>
+        <v>0.165134</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181143</v>
+        <v>0.180464</v>
       </c>
       <c r="C65" t="n">
-        <v>0.162377</v>
+        <v>0.159149</v>
       </c>
       <c r="D65" t="n">
-        <v>0.170336</v>
+        <v>0.170388</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188698</v>
+        <v>0.189278</v>
       </c>
       <c r="C66" t="n">
-        <v>0.168145</v>
+        <v>0.163452</v>
       </c>
       <c r="D66" t="n">
-        <v>0.16273</v>
+        <v>0.162503</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179653</v>
+        <v>0.183219</v>
       </c>
       <c r="C67" t="n">
-        <v>0.163077</v>
+        <v>0.160271</v>
       </c>
       <c r="D67" t="n">
-        <v>0.161747</v>
+        <v>0.162837</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179442</v>
+        <v>0.181515</v>
       </c>
       <c r="C68" t="n">
-        <v>0.164475</v>
+        <v>0.159412</v>
       </c>
       <c r="D68" t="n">
-        <v>0.161216</v>
+        <v>0.162635</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179514</v>
+        <v>0.182821</v>
       </c>
       <c r="C69" t="n">
-        <v>0.16548</v>
+        <v>0.163106</v>
       </c>
       <c r="D69" t="n">
-        <v>0.162113</v>
+        <v>0.163968</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179984</v>
+        <v>0.184375</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1619</v>
+        <v>0.161358</v>
       </c>
       <c r="D70" t="n">
-        <v>0.16338</v>
+        <v>0.164216</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.178333</v>
+        <v>0.180704</v>
       </c>
       <c r="C71" t="n">
-        <v>0.165953</v>
+        <v>0.162479</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164014</v>
+        <v>0.164416</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183881</v>
+        <v>0.18184</v>
       </c>
       <c r="C72" t="n">
-        <v>0.166322</v>
+        <v>0.162415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.162893</v>
+        <v>0.165063</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180976</v>
+        <v>0.182145</v>
       </c>
       <c r="C73" t="n">
-        <v>0.166334</v>
+        <v>0.162609</v>
       </c>
       <c r="D73" t="n">
-        <v>0.166053</v>
+        <v>0.16574</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1886</v>
+        <v>0.185367</v>
       </c>
       <c r="C74" t="n">
-        <v>0.167817</v>
+        <v>0.162591</v>
       </c>
       <c r="D74" t="n">
-        <v>0.166567</v>
+        <v>0.166588</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188204</v>
+        <v>0.188184</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170481</v>
+        <v>0.166303</v>
       </c>
       <c r="D75" t="n">
-        <v>0.168483</v>
+        <v>0.168331</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188057</v>
+        <v>0.185526</v>
       </c>
       <c r="C76" t="n">
-        <v>0.17067</v>
+        <v>0.165102</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169078</v>
+        <v>0.169052</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192262</v>
+        <v>0.190658</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171779</v>
+        <v>0.170425</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172098</v>
+        <v>0.172051</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194369</v>
+        <v>0.19282</v>
       </c>
       <c r="C78" t="n">
-        <v>0.174732</v>
+        <v>0.171955</v>
       </c>
       <c r="D78" t="n">
-        <v>0.175865</v>
+        <v>0.176119</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203217</v>
+        <v>0.199456</v>
       </c>
       <c r="C79" t="n">
-        <v>0.17746</v>
+        <v>0.173104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.181265</v>
+        <v>0.180695</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206031</v>
+        <v>0.210785</v>
       </c>
       <c r="C80" t="n">
-        <v>0.18165</v>
+        <v>0.180532</v>
       </c>
       <c r="D80" t="n">
-        <v>0.25055</v>
+        <v>0.239699</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.364481</v>
+        <v>0.340557</v>
       </c>
       <c r="C81" t="n">
-        <v>0.308498</v>
+        <v>0.286842</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251991</v>
+        <v>0.242368</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364347</v>
+        <v>0.341347</v>
       </c>
       <c r="C82" t="n">
-        <v>0.309401</v>
+        <v>0.288787</v>
       </c>
       <c r="D82" t="n">
-        <v>0.249423</v>
+        <v>0.241093</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.36725</v>
+        <v>0.344034</v>
       </c>
       <c r="C83" t="n">
-        <v>0.310041</v>
+        <v>0.286108</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248745</v>
+        <v>0.241807</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371017</v>
+        <v>0.342328</v>
       </c>
       <c r="C84" t="n">
-        <v>0.308302</v>
+        <v>0.283186</v>
       </c>
       <c r="D84" t="n">
-        <v>0.252108</v>
+        <v>0.241181</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370102</v>
+        <v>0.342941</v>
       </c>
       <c r="C85" t="n">
-        <v>0.305792</v>
+        <v>0.283131</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250269</v>
+        <v>0.240073</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367208</v>
+        <v>0.34735</v>
       </c>
       <c r="C86" t="n">
-        <v>0.300698</v>
+        <v>0.281434</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249669</v>
+        <v>0.242722</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367684</v>
+        <v>0.347459</v>
       </c>
       <c r="C87" t="n">
-        <v>0.301322</v>
+        <v>0.28461</v>
       </c>
       <c r="D87" t="n">
-        <v>0.24531</v>
+        <v>0.23998</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.372713</v>
+        <v>0.346059</v>
       </c>
       <c r="C88" t="n">
-        <v>0.297039</v>
+        <v>0.281631</v>
       </c>
       <c r="D88" t="n">
-        <v>0.247631</v>
+        <v>0.238453</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.369929</v>
+        <v>0.350822</v>
       </c>
       <c r="C89" t="n">
-        <v>0.30016</v>
+        <v>0.282781</v>
       </c>
       <c r="D89" t="n">
-        <v>0.246149</v>
+        <v>0.239045</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.374599</v>
+        <v>0.348094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.296884</v>
+        <v>0.280093</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245383</v>
+        <v>0.236725</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374766</v>
+        <v>0.349838</v>
       </c>
       <c r="C91" t="n">
-        <v>0.298683</v>
+        <v>0.278285</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246596</v>
+        <v>0.241004</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382664</v>
+        <v>0.356789</v>
       </c>
       <c r="C92" t="n">
-        <v>0.300425</v>
+        <v>0.280781</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249912</v>
+        <v>0.239322</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381352</v>
+        <v>0.356849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308766</v>
+        <v>0.283692</v>
       </c>
       <c r="D93" t="n">
-        <v>0.25084</v>
+        <v>0.242817</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392365</v>
+        <v>0.365809</v>
       </c>
       <c r="C94" t="n">
-        <v>0.306299</v>
+        <v>0.283758</v>
       </c>
       <c r="D94" t="n">
-        <v>0.42974</v>
+        <v>0.398088</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.541924</v>
+        <v>0.495828</v>
       </c>
       <c r="C95" t="n">
-        <v>0.492236</v>
+        <v>0.449171</v>
       </c>
       <c r="D95" t="n">
-        <v>0.428963</v>
+        <v>0.396906</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5416</v>
+        <v>0.496321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.491394</v>
+        <v>0.449284</v>
       </c>
       <c r="D96" t="n">
-        <v>0.42846</v>
+        <v>0.397676</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.54228</v>
+        <v>0.497294</v>
       </c>
       <c r="C97" t="n">
-        <v>0.490359</v>
+        <v>0.448652</v>
       </c>
       <c r="D97" t="n">
-        <v>0.428704</v>
+        <v>0.396574</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.542763</v>
+        <v>0.496913</v>
       </c>
       <c r="C98" t="n">
-        <v>0.490255</v>
+        <v>0.447917</v>
       </c>
       <c r="D98" t="n">
-        <v>0.426821</v>
+        <v>0.396579</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.541836</v>
+        <v>0.497165</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4892</v>
+        <v>0.447546</v>
       </c>
       <c r="D99" t="n">
-        <v>0.426153</v>
+        <v>0.396739</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.542023</v>
+        <v>0.498109</v>
       </c>
       <c r="C100" t="n">
-        <v>0.488818</v>
+        <v>0.447495</v>
       </c>
       <c r="D100" t="n">
-        <v>0.426409</v>
+        <v>0.394861</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.543305</v>
+        <v>0.498479</v>
       </c>
       <c r="C101" t="n">
-        <v>0.487751</v>
+        <v>0.447519</v>
       </c>
       <c r="D101" t="n">
-        <v>0.42728</v>
+        <v>0.396213</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.545071</v>
+        <v>0.499958</v>
       </c>
       <c r="C102" t="n">
-        <v>0.489575</v>
+        <v>0.447521</v>
       </c>
       <c r="D102" t="n">
-        <v>0.427875</v>
+        <v>0.39538</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.546414</v>
+        <v>0.500566</v>
       </c>
       <c r="C103" t="n">
-        <v>0.48897</v>
+        <v>0.447635</v>
       </c>
       <c r="D103" t="n">
-        <v>0.427457</v>
+        <v>0.396763</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5487300000000001</v>
+        <v>0.502622</v>
       </c>
       <c r="C104" t="n">
-        <v>0.490087</v>
+        <v>0.448495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428158</v>
+        <v>0.397363</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.551173</v>
+        <v>0.504851</v>
       </c>
       <c r="C105" t="n">
-        <v>0.491636</v>
+        <v>0.449294</v>
       </c>
       <c r="D105" t="n">
-        <v>0.42979</v>
+        <v>0.399211</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5541239999999999</v>
+        <v>0.508301</v>
       </c>
       <c r="C106" t="n">
-        <v>0.494713</v>
+        <v>0.451939</v>
       </c>
       <c r="D106" t="n">
-        <v>0.431463</v>
+        <v>0.402539</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558993</v>
+        <v>0.513644</v>
       </c>
       <c r="C107" t="n">
-        <v>0.498494</v>
+        <v>0.454748</v>
       </c>
       <c r="D107" t="n">
-        <v>0.435641</v>
+        <v>0.407887</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.566693</v>
+        <v>0.521054</v>
       </c>
       <c r="C108" t="n">
-        <v>0.502864</v>
+        <v>0.460188</v>
       </c>
       <c r="D108" t="n">
-        <v>0.578853</v>
+        <v>0.530551</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.579143</v>
+        <v>0.530784</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5115420000000001</v>
+        <v>0.467031</v>
       </c>
       <c r="D109" t="n">
-        <v>0.576926</v>
+        <v>0.531088</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6309979999999999</v>
+        <v>0.583982</v>
       </c>
       <c r="C110" t="n">
-        <v>0.610171</v>
+        <v>0.560521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.578279</v>
+        <v>0.534996</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.631792</v>
+        <v>0.583859</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6103690000000001</v>
+        <v>0.559051</v>
       </c>
       <c r="D111" t="n">
-        <v>0.578167</v>
+        <v>0.532092</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.633004</v>
+        <v>0.5854</v>
       </c>
       <c r="C112" t="n">
-        <v>0.609453</v>
+        <v>0.558357</v>
       </c>
       <c r="D112" t="n">
-        <v>0.575794</v>
+        <v>0.533554</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.631125</v>
+        <v>0.582613</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606642</v>
+        <v>0.556761</v>
       </c>
       <c r="D113" t="n">
-        <v>0.576779</v>
+        <v>0.534096</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.634137</v>
+        <v>0.583487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.612737</v>
+        <v>0.561408</v>
       </c>
       <c r="D114" t="n">
-        <v>0.581614</v>
+        <v>0.538899</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6359629999999999</v>
+        <v>0.5870610000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.612102</v>
+        <v>0.559778</v>
       </c>
       <c r="D115" t="n">
-        <v>0.57743</v>
+        <v>0.535357</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.635581</v>
+        <v>0.588928</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6122840000000001</v>
+        <v>0.561767</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5825129999999999</v>
+        <v>0.539444</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.641785</v>
+        <v>0.58919</v>
       </c>
       <c r="C117" t="n">
-        <v>0.615366</v>
+        <v>0.564119</v>
       </c>
       <c r="D117" t="n">
-        <v>0.585544</v>
+        <v>0.5410239999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6400670000000001</v>
+        <v>0.592168</v>
       </c>
       <c r="C118" t="n">
-        <v>0.616116</v>
+        <v>0.56547</v>
       </c>
       <c r="D118" t="n">
-        <v>0.586668</v>
+        <v>0.544405</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.645516</v>
+        <v>0.5972769999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.620138</v>
+        <v>0.569043</v>
       </c>
       <c r="D119" t="n">
-        <v>0.58539</v>
+        <v>0.545204</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.650425</v>
+        <v>0.60092</v>
       </c>
       <c r="C120" t="n">
-        <v>0.622648</v>
+        <v>0.571235</v>
       </c>
       <c r="D120" t="n">
-        <v>0.593215</v>
+        <v>0.549314</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.655239</v>
+        <v>0.605925</v>
       </c>
       <c r="C121" t="n">
-        <v>0.626674</v>
+        <v>0.577021</v>
       </c>
       <c r="D121" t="n">
-        <v>0.595947</v>
+        <v>0.553778</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.664203</v>
+        <v>0.614363</v>
       </c>
       <c r="C122" t="n">
-        <v>0.63381</v>
+        <v>0.5814</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6031840000000001</v>
+        <v>0.560943</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.677475</v>
+        <v>0.624702</v>
       </c>
       <c r="C123" t="n">
-        <v>0.642586</v>
+        <v>0.588705</v>
       </c>
       <c r="D123" t="n">
-        <v>0.75998</v>
+        <v>0.696471</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7950700000000001</v>
+        <v>0.730277</v>
       </c>
       <c r="C124" t="n">
-        <v>0.750788</v>
+        <v>0.684683</v>
       </c>
       <c r="D124" t="n">
-        <v>0.759834</v>
+        <v>0.696875</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.792195</v>
+        <v>0.728878</v>
       </c>
       <c r="C125" t="n">
-        <v>0.753039</v>
+        <v>0.688473</v>
       </c>
       <c r="D125" t="n">
-        <v>0.759147</v>
+        <v>0.6969070000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.795179</v>
+        <v>0.727658</v>
       </c>
       <c r="C126" t="n">
-        <v>0.753345</v>
+        <v>0.68913</v>
       </c>
       <c r="D126" t="n">
-        <v>0.759297</v>
+        <v>0.697781</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.794418</v>
+        <v>0.726087</v>
       </c>
       <c r="C127" t="n">
-        <v>0.754771</v>
+        <v>0.687173</v>
       </c>
       <c r="D127" t="n">
-        <v>0.761676</v>
+        <v>0.69592</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.795822</v>
+        <v>0.73169</v>
       </c>
       <c r="C128" t="n">
-        <v>0.755694</v>
+        <v>0.69298</v>
       </c>
       <c r="D128" t="n">
-        <v>0.762991</v>
+        <v>0.700858</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.797658</v>
+        <v>0.730357</v>
       </c>
       <c r="C129" t="n">
-        <v>0.757701</v>
+        <v>0.694171</v>
       </c>
       <c r="D129" t="n">
-        <v>0.764934</v>
+        <v>0.69994</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.799171</v>
+        <v>0.732405</v>
       </c>
       <c r="C130" t="n">
-        <v>0.760165</v>
+        <v>0.695875</v>
       </c>
       <c r="D130" t="n">
-        <v>0.763757</v>
+        <v>0.7032040000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.801963</v>
+        <v>0.737222</v>
       </c>
       <c r="C131" t="n">
-        <v>0.761107</v>
+        <v>0.700375</v>
       </c>
       <c r="D131" t="n">
-        <v>0.768209</v>
+        <v>0.705095</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.803715</v>
+        <v>0.740963</v>
       </c>
       <c r="C132" t="n">
-        <v>0.766564</v>
+        <v>0.7021230000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.766486</v>
+        <v>0.707184</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.808083</v>
+        <v>0.742316</v>
       </c>
       <c r="C133" t="n">
-        <v>0.770182</v>
+        <v>0.704662</v>
       </c>
       <c r="D133" t="n">
-        <v>0.769443</v>
+        <v>0.711655</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.817475</v>
+        <v>0.74804</v>
       </c>
       <c r="C134" t="n">
-        <v>0.774512</v>
+        <v>0.705324</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7765300000000001</v>
+        <v>0.71234</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.820213</v>
+        <v>0.754962</v>
       </c>
       <c r="C135" t="n">
-        <v>0.781058</v>
+        <v>0.715103</v>
       </c>
       <c r="D135" t="n">
-        <v>0.780515</v>
+        <v>0.721515</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.828807</v>
+        <v>0.762375</v>
       </c>
       <c r="C136" t="n">
-        <v>0.784016</v>
+        <v>0.717146</v>
       </c>
       <c r="D136" t="n">
-        <v>0.787755</v>
+        <v>0.724256</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.842534</v>
+        <v>0.775865</v>
       </c>
       <c r="C137" t="n">
-        <v>0.795733</v>
+        <v>0.725969</v>
       </c>
       <c r="D137" t="n">
-        <v>0.905976</v>
+        <v>0.8346749999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.933826</v>
+        <v>0.85999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.887087</v>
+        <v>0.814836</v>
       </c>
       <c r="D138" t="n">
-        <v>0.905448</v>
+        <v>0.837848</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.935682</v>
+        <v>0.862487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.887478</v>
+        <v>0.818878</v>
       </c>
       <c r="D139" t="n">
-        <v>0.907064</v>
+        <v>0.838053</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.935482</v>
+        <v>0.863916</v>
       </c>
       <c r="C140" t="n">
-        <v>0.889185</v>
+        <v>0.819878</v>
       </c>
       <c r="D140" t="n">
-        <v>0.908617</v>
+        <v>0.837987</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.936852</v>
+        <v>0.863575</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8918779999999999</v>
+        <v>0.818871</v>
       </c>
       <c r="D141" t="n">
-        <v>0.907484</v>
+        <v>0.839077</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.936856</v>
+        <v>0.865547</v>
       </c>
       <c r="C142" t="n">
-        <v>0.891413</v>
+        <v>0.822122</v>
       </c>
       <c r="D142" t="n">
-        <v>0.908882</v>
+        <v>0.841548</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.939045</v>
+        <v>0.86488</v>
       </c>
       <c r="C143" t="n">
-        <v>0.893852</v>
+        <v>0.824103</v>
       </c>
       <c r="D143" t="n">
-        <v>0.909577</v>
+        <v>0.842004</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109225</v>
+        <v>0.110198</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100164</v>
+        <v>0.219091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108698</v>
+        <v>0.11295</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110855</v>
+        <v>0.110817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1006</v>
+        <v>0.233489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109375</v>
+        <v>0.113668</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11086</v>
+        <v>0.112506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100767</v>
+        <v>0.250263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110087</v>
+        <v>0.113982</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111324</v>
+        <v>0.112972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100845</v>
+        <v>0.266516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110852</v>
+        <v>0.114106</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112201</v>
+        <v>0.113237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101234</v>
+        <v>0.277063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112371</v>
+        <v>0.114595</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112817</v>
+        <v>0.113492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101324</v>
+        <v>0.285838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113883</v>
+        <v>0.114906</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115572</v>
+        <v>0.11615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102441</v>
+        <v>0.174579</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116873</v>
+        <v>0.116731</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119756</v>
+        <v>0.118746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104554</v>
+        <v>0.178777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.116403</v>
+        <v>0.124539</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12696</v>
+        <v>0.130113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113685</v>
+        <v>0.184393</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117962</v>
+        <v>0.125113</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127155</v>
+        <v>0.133622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.113027</v>
+        <v>0.191467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117575</v>
+        <v>0.124708</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125547</v>
+        <v>0.128785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.113193</v>
+        <v>0.197715</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117316</v>
+        <v>0.12479</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125872</v>
+        <v>0.128549</v>
       </c>
       <c r="C13" t="n">
-        <v>0.115488</v>
+        <v>0.208487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.117184</v>
+        <v>0.124573</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127019</v>
+        <v>0.128181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113355</v>
+        <v>0.21635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11806</v>
+        <v>0.124382</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126579</v>
+        <v>0.126783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115878</v>
+        <v>0.226621</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118449</v>
+        <v>0.124946</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127252</v>
+        <v>0.127721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.116375</v>
+        <v>0.240686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.118931</v>
+        <v>0.124125</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127664</v>
+        <v>0.128416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113645</v>
+        <v>0.255729</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118898</v>
+        <v>0.124769</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127578</v>
+        <v>0.128714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114565</v>
+        <v>0.270831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120794</v>
+        <v>0.124711</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.12835</v>
+        <v>0.129146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11681</v>
+        <v>0.28831</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120149</v>
+        <v>0.12559</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128785</v>
+        <v>0.13025</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117436</v>
+        <v>0.29588</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122163</v>
+        <v>0.12514</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130749</v>
+        <v>0.132711</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118404</v>
+        <v>0.302647</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12516</v>
+        <v>0.12636</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135667</v>
+        <v>0.135611</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118294</v>
+        <v>0.193242</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129182</v>
+        <v>0.131301</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141683</v>
+        <v>0.143395</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123865</v>
+        <v>0.198367</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125709</v>
+        <v>0.133907</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135393</v>
+        <v>0.143476</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120699</v>
+        <v>0.204914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.124834</v>
+        <v>0.131952</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134008</v>
+        <v>0.139187</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120853</v>
+        <v>0.212168</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125459</v>
+        <v>0.131525</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134043</v>
+        <v>0.139461</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121143</v>
+        <v>0.219172</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125454</v>
+        <v>0.131906</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134977</v>
+        <v>0.135729</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121251</v>
+        <v>0.226327</v>
       </c>
       <c r="D27" t="n">
-        <v>0.126048</v>
+        <v>0.130991</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135137</v>
+        <v>0.134613</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121725</v>
+        <v>0.23641</v>
       </c>
       <c r="D28" t="n">
-        <v>0.126476</v>
+        <v>0.130496</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136087</v>
+        <v>0.135013</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121901</v>
+        <v>0.244831</v>
       </c>
       <c r="D29" t="n">
-        <v>0.126231</v>
+        <v>0.130947</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135856</v>
+        <v>0.136383</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123552</v>
+        <v>0.25565</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126738</v>
+        <v>0.131703</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13685</v>
+        <v>0.137219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124082</v>
+        <v>0.270805</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127461</v>
+        <v>0.131222</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137634</v>
+        <v>0.137061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123736</v>
+        <v>0.282208</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128022</v>
+        <v>0.132161</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13868</v>
+        <v>0.138654</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123842</v>
+        <v>0.294761</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129756</v>
+        <v>0.132907</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139489</v>
+        <v>0.142044</v>
       </c>
       <c r="C34" t="n">
-        <v>0.124923</v>
+        <v>0.307017</v>
       </c>
       <c r="D34" t="n">
-        <v>0.130926</v>
+        <v>0.135314</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143219</v>
+        <v>0.146042</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128266</v>
+        <v>0.317377</v>
       </c>
       <c r="D35" t="n">
-        <v>0.13406</v>
+        <v>0.138429</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148676</v>
+        <v>0.150802</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131315</v>
+        <v>0.327224</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13965</v>
+        <v>0.143025</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155969</v>
+        <v>0.15537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136202</v>
+        <v>0.206404</v>
       </c>
       <c r="D37" t="n">
-        <v>0.139052</v>
+        <v>0.145368</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147238</v>
+        <v>0.14676</v>
       </c>
       <c r="C38" t="n">
-        <v>0.13172</v>
+        <v>0.210939</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138947</v>
+        <v>0.143719</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148831</v>
+        <v>0.148188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.131851</v>
+        <v>0.216844</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13874</v>
+        <v>0.143708</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148246</v>
+        <v>0.150043</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132719</v>
+        <v>0.224378</v>
       </c>
       <c r="D40" t="n">
-        <v>0.139283</v>
+        <v>0.144532</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147207</v>
+        <v>0.150741</v>
       </c>
       <c r="C41" t="n">
-        <v>0.133197</v>
+        <v>0.23192</v>
       </c>
       <c r="D41" t="n">
-        <v>0.138624</v>
+        <v>0.146115</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150388</v>
+        <v>0.148465</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133706</v>
+        <v>0.240944</v>
       </c>
       <c r="D42" t="n">
-        <v>0.14023</v>
+        <v>0.144271</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150389</v>
+        <v>0.148934</v>
       </c>
       <c r="C43" t="n">
-        <v>0.134067</v>
+        <v>0.250976</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139579</v>
+        <v>0.147499</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151494</v>
+        <v>0.148108</v>
       </c>
       <c r="C44" t="n">
-        <v>0.133014</v>
+        <v>0.262585</v>
       </c>
       <c r="D44" t="n">
-        <v>0.138218</v>
+        <v>0.146308</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150349</v>
+        <v>0.148067</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135633</v>
+        <v>0.276112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.141207</v>
+        <v>0.146158</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151814</v>
+        <v>0.149678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.137412</v>
+        <v>0.290144</v>
       </c>
       <c r="D46" t="n">
-        <v>0.142399</v>
+        <v>0.147192</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149953</v>
+        <v>0.150912</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138869</v>
+        <v>0.304974</v>
       </c>
       <c r="D47" t="n">
-        <v>0.143377</v>
+        <v>0.146796</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154089</v>
+        <v>0.152601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138858</v>
+        <v>0.317673</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146421</v>
+        <v>0.150218</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157164</v>
+        <v>0.156448</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141725</v>
+        <v>0.329881</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148461</v>
+        <v>0.15374</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161833</v>
+        <v>0.162096</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144603</v>
+        <v>0.342401</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152702</v>
+        <v>0.158695</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.164507</v>
+        <v>0.167875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.148657</v>
+        <v>0.209847</v>
       </c>
       <c r="D51" t="n">
-        <v>0.151982</v>
+        <v>0.155997</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175429</v>
+        <v>0.174938</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155903</v>
+        <v>0.215564</v>
       </c>
       <c r="D52" t="n">
-        <v>0.151286</v>
+        <v>0.155926</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159077</v>
+        <v>0.161391</v>
       </c>
       <c r="C53" t="n">
-        <v>0.142364</v>
+        <v>0.221062</v>
       </c>
       <c r="D53" t="n">
-        <v>0.151728</v>
+        <v>0.155986</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160786</v>
+        <v>0.159439</v>
       </c>
       <c r="C54" t="n">
-        <v>0.142901</v>
+        <v>0.227154</v>
       </c>
       <c r="D54" t="n">
-        <v>0.152273</v>
+        <v>0.15667</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159835</v>
+        <v>0.160874</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143546</v>
+        <v>0.23542</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152608</v>
+        <v>0.156342</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16136</v>
+        <v>0.159623</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144073</v>
+        <v>0.243535</v>
       </c>
       <c r="D56" t="n">
-        <v>0.152529</v>
+        <v>0.157817</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160848</v>
+        <v>0.163709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144404</v>
+        <v>0.254225</v>
       </c>
       <c r="D57" t="n">
-        <v>0.152933</v>
+        <v>0.157277</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.159549</v>
+        <v>0.160931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145444</v>
+        <v>0.265736</v>
       </c>
       <c r="D58" t="n">
-        <v>0.153209</v>
+        <v>0.158233</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16035</v>
+        <v>0.161758</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145941</v>
+        <v>0.27941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.154241</v>
+        <v>0.157968</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163315</v>
+        <v>0.16154</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14669</v>
+        <v>0.293587</v>
       </c>
       <c r="D60" t="n">
-        <v>0.154615</v>
+        <v>0.159026</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166229</v>
+        <v>0.164665</v>
       </c>
       <c r="C61" t="n">
-        <v>0.148128</v>
+        <v>0.310641</v>
       </c>
       <c r="D61" t="n">
-        <v>0.155271</v>
+        <v>0.158416</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168701</v>
+        <v>0.168895</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149788</v>
+        <v>0.324613</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15838</v>
+        <v>0.161896</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170573</v>
+        <v>0.174054</v>
       </c>
       <c r="C63" t="n">
-        <v>0.15258</v>
+        <v>0.337556</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160279</v>
+        <v>0.166333</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174014</v>
+        <v>0.184704</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155049</v>
+        <v>0.352132</v>
       </c>
       <c r="D64" t="n">
-        <v>0.165134</v>
+        <v>0.170188</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180464</v>
+        <v>0.186212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159149</v>
+        <v>0.220947</v>
       </c>
       <c r="D65" t="n">
-        <v>0.170388</v>
+        <v>0.176092</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189278</v>
+        <v>0.190114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163452</v>
+        <v>0.221694</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162503</v>
+        <v>0.170107</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183219</v>
+        <v>0.182923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.160271</v>
+        <v>0.22357</v>
       </c>
       <c r="D67" t="n">
-        <v>0.162837</v>
+        <v>0.168874</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181515</v>
+        <v>0.177979</v>
       </c>
       <c r="C68" t="n">
-        <v>0.159412</v>
+        <v>0.229969</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162635</v>
+        <v>0.168739</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182821</v>
+        <v>0.190077</v>
       </c>
       <c r="C69" t="n">
-        <v>0.163106</v>
+        <v>0.238102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.163968</v>
+        <v>0.170272</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.184375</v>
+        <v>0.183214</v>
       </c>
       <c r="C70" t="n">
-        <v>0.161358</v>
+        <v>0.247755</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164216</v>
+        <v>0.168825</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180704</v>
+        <v>0.183377</v>
       </c>
       <c r="C71" t="n">
-        <v>0.162479</v>
+        <v>0.256959</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164416</v>
+        <v>0.169355</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18184</v>
+        <v>0.189043</v>
       </c>
       <c r="C72" t="n">
-        <v>0.162415</v>
+        <v>0.268855</v>
       </c>
       <c r="D72" t="n">
-        <v>0.165063</v>
+        <v>0.173059</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182145</v>
+        <v>0.195028</v>
       </c>
       <c r="C73" t="n">
-        <v>0.162609</v>
+        <v>0.28212</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16574</v>
+        <v>0.174222</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.185367</v>
+        <v>0.197744</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162591</v>
+        <v>0.297114</v>
       </c>
       <c r="D74" t="n">
-        <v>0.166588</v>
+        <v>0.175172</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188184</v>
+        <v>0.200633</v>
       </c>
       <c r="C75" t="n">
-        <v>0.166303</v>
+        <v>0.31178</v>
       </c>
       <c r="D75" t="n">
-        <v>0.168331</v>
+        <v>0.176736</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185526</v>
+        <v>0.199504</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165102</v>
+        <v>0.326122</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169052</v>
+        <v>0.177591</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190658</v>
+        <v>0.204864</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170425</v>
+        <v>0.341351</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172051</v>
+        <v>0.178718</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19282</v>
+        <v>0.197155</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171955</v>
+        <v>0.356036</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176119</v>
+        <v>0.180543</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199456</v>
+        <v>0.197519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173104</v>
+        <v>0.247667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.180695</v>
+        <v>0.185479</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210785</v>
+        <v>0.202753</v>
       </c>
       <c r="C80" t="n">
-        <v>0.180532</v>
+        <v>0.249355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239699</v>
+        <v>0.247883</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340557</v>
+        <v>0.346487</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286842</v>
+        <v>0.257893</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242368</v>
+        <v>0.246423</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341347</v>
+        <v>0.347888</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288787</v>
+        <v>0.265794</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241093</v>
+        <v>0.24689</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344034</v>
+        <v>0.344428</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286108</v>
+        <v>0.272423</v>
       </c>
       <c r="D83" t="n">
-        <v>0.241807</v>
+        <v>0.245868</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342328</v>
+        <v>0.346901</v>
       </c>
       <c r="C84" t="n">
-        <v>0.283186</v>
+        <v>0.279443</v>
       </c>
       <c r="D84" t="n">
-        <v>0.241181</v>
+        <v>0.245328</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.342941</v>
+        <v>0.348034</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283131</v>
+        <v>0.292182</v>
       </c>
       <c r="D85" t="n">
-        <v>0.240073</v>
+        <v>0.247228</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34735</v>
+        <v>0.345521</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281434</v>
+        <v>0.306913</v>
       </c>
       <c r="D86" t="n">
-        <v>0.242722</v>
+        <v>0.245063</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347459</v>
+        <v>0.347581</v>
       </c>
       <c r="C87" t="n">
-        <v>0.28461</v>
+        <v>0.319639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23998</v>
+        <v>0.244813</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346059</v>
+        <v>0.348672</v>
       </c>
       <c r="C88" t="n">
-        <v>0.281631</v>
+        <v>0.334251</v>
       </c>
       <c r="D88" t="n">
-        <v>0.238453</v>
+        <v>0.242292</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350822</v>
+        <v>0.350171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282781</v>
+        <v>0.348769</v>
       </c>
       <c r="D89" t="n">
-        <v>0.239045</v>
+        <v>0.244511</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348094</v>
+        <v>0.353686</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280093</v>
+        <v>0.35918</v>
       </c>
       <c r="D90" t="n">
-        <v>0.236725</v>
+        <v>0.243247</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.349838</v>
+        <v>0.356998</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278285</v>
+        <v>0.374144</v>
       </c>
       <c r="D91" t="n">
-        <v>0.241004</v>
+        <v>0.242394</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356789</v>
+        <v>0.357251</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280781</v>
+        <v>0.383878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.239322</v>
+        <v>0.228677</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356849</v>
+        <v>0.360131</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283692</v>
+        <v>0.399081</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242817</v>
+        <v>0.22935</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365809</v>
+        <v>0.365627</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283758</v>
+        <v>0.442681</v>
       </c>
       <c r="D94" t="n">
-        <v>0.398088</v>
+        <v>0.407941</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.495828</v>
+        <v>0.504386</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449171</v>
+        <v>0.449823</v>
       </c>
       <c r="D95" t="n">
-        <v>0.396906</v>
+        <v>0.408694</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496321</v>
+        <v>0.504037</v>
       </c>
       <c r="C96" t="n">
-        <v>0.449284</v>
+        <v>0.457491</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397676</v>
+        <v>0.407584</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497294</v>
+        <v>0.5047469999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448652</v>
+        <v>0.468308</v>
       </c>
       <c r="D97" t="n">
-        <v>0.396574</v>
+        <v>0.407436</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.496913</v>
+        <v>0.50509</v>
       </c>
       <c r="C98" t="n">
-        <v>0.447917</v>
+        <v>0.475036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396579</v>
+        <v>0.393774</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497165</v>
+        <v>0.504981</v>
       </c>
       <c r="C99" t="n">
-        <v>0.447546</v>
+        <v>0.492945</v>
       </c>
       <c r="D99" t="n">
-        <v>0.396739</v>
+        <v>0.405159</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498109</v>
+        <v>0.505428</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447495</v>
+        <v>0.503707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.394861</v>
+        <v>0.404612</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498479</v>
+        <v>0.505358</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447519</v>
+        <v>0.517285</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396213</v>
+        <v>0.392083</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499958</v>
+        <v>0.50745</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447521</v>
+        <v>0.533438</v>
       </c>
       <c r="D102" t="n">
-        <v>0.39538</v>
+        <v>0.393591</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.500566</v>
+        <v>0.508345</v>
       </c>
       <c r="C103" t="n">
-        <v>0.447635</v>
+        <v>0.548266</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396763</v>
+        <v>0.40598</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.502622</v>
+        <v>0.50978</v>
       </c>
       <c r="C104" t="n">
-        <v>0.448495</v>
+        <v>0.551885</v>
       </c>
       <c r="D104" t="n">
-        <v>0.397363</v>
+        <v>0.407188</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.504851</v>
+        <v>0.513196</v>
       </c>
       <c r="C105" t="n">
-        <v>0.449294</v>
+        <v>0.566657</v>
       </c>
       <c r="D105" t="n">
-        <v>0.399211</v>
+        <v>0.39697</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.508301</v>
+        <v>0.51761</v>
       </c>
       <c r="C106" t="n">
-        <v>0.451939</v>
+        <v>0.568065</v>
       </c>
       <c r="D106" t="n">
-        <v>0.402539</v>
+        <v>0.398944</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.513644</v>
+        <v>0.52134</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454748</v>
+        <v>0.564409</v>
       </c>
       <c r="D107" t="n">
-        <v>0.407887</v>
+        <v>0.404581</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.521054</v>
+        <v>0.52851</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460188</v>
+        <v>0.6281330000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.530551</v>
+        <v>0.536187</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.530784</v>
+        <v>0.537971</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467031</v>
+        <v>0.634369</v>
       </c>
       <c r="D109" t="n">
-        <v>0.531088</v>
+        <v>0.535902</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.583982</v>
+        <v>0.5898949999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.560521</v>
+        <v>0.641343</v>
       </c>
       <c r="D110" t="n">
-        <v>0.534996</v>
+        <v>0.54797</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.583859</v>
+        <v>0.589802</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559051</v>
+        <v>0.6489780000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532092</v>
+        <v>0.545812</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5854</v>
+        <v>0.5914</v>
       </c>
       <c r="C112" t="n">
-        <v>0.558357</v>
+        <v>0.657946</v>
       </c>
       <c r="D112" t="n">
-        <v>0.533554</v>
+        <v>0.546591</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582613</v>
+        <v>0.592877</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556761</v>
+        <v>0.66721</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534096</v>
+        <v>0.54778</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.583487</v>
+        <v>0.591305</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561408</v>
+        <v>0.669542</v>
       </c>
       <c r="D114" t="n">
-        <v>0.538899</v>
+        <v>0.539864</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5870610000000001</v>
+        <v>0.592153</v>
       </c>
       <c r="C115" t="n">
-        <v>0.559778</v>
+        <v>0.6938530000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.535357</v>
+        <v>0.552932</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588928</v>
+        <v>0.595144</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561767</v>
+        <v>0.705538</v>
       </c>
       <c r="D116" t="n">
-        <v>0.539444</v>
+        <v>0.550964</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.58919</v>
+        <v>0.597343</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564119</v>
+        <v>0.720942</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5410239999999999</v>
+        <v>0.554329</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592168</v>
+        <v>0.598366</v>
       </c>
       <c r="C118" t="n">
-        <v>0.56547</v>
+        <v>0.725657</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544405</v>
+        <v>0.55357</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5972769999999999</v>
+        <v>0.60123</v>
       </c>
       <c r="C119" t="n">
-        <v>0.569043</v>
+        <v>0.737803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545204</v>
+        <v>0.559758</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.60092</v>
+        <v>0.607061</v>
       </c>
       <c r="C120" t="n">
-        <v>0.571235</v>
+        <v>0.759641</v>
       </c>
       <c r="D120" t="n">
-        <v>0.549314</v>
+        <v>0.563013</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605925</v>
+        <v>0.612922</v>
       </c>
       <c r="C121" t="n">
-        <v>0.577021</v>
+        <v>0.782342</v>
       </c>
       <c r="D121" t="n">
-        <v>0.553778</v>
+        <v>0.5661</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.614363</v>
+        <v>0.619635</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5814</v>
+        <v>0.70717</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560943</v>
+        <v>0.570956</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624702</v>
+        <v>0.632985</v>
       </c>
       <c r="C123" t="n">
-        <v>0.588705</v>
+        <v>0.713143</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696471</v>
+        <v>0.70811</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.730277</v>
+        <v>0.738166</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684683</v>
+        <v>0.719737</v>
       </c>
       <c r="D124" t="n">
-        <v>0.696875</v>
+        <v>0.709724</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.728878</v>
+        <v>0.735684</v>
       </c>
       <c r="C125" t="n">
-        <v>0.688473</v>
+        <v>0.726434</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6969070000000001</v>
+        <v>0.70917</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.727658</v>
+        <v>0.738487</v>
       </c>
       <c r="C126" t="n">
-        <v>0.68913</v>
+        <v>0.742747</v>
       </c>
       <c r="D126" t="n">
-        <v>0.697781</v>
+        <v>0.710597</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726087</v>
+        <v>0.739039</v>
       </c>
       <c r="C127" t="n">
-        <v>0.687173</v>
+        <v>0.752015</v>
       </c>
       <c r="D127" t="n">
-        <v>0.69592</v>
+        <v>0.711993</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.73169</v>
+        <v>0.739</v>
       </c>
       <c r="C128" t="n">
-        <v>0.69298</v>
+        <v>0.763366</v>
       </c>
       <c r="D128" t="n">
-        <v>0.700858</v>
+        <v>0.713592</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730357</v>
+        <v>0.741725</v>
       </c>
       <c r="C129" t="n">
-        <v>0.694171</v>
+        <v>0.766548</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69994</v>
+        <v>0.712982</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.732405</v>
+        <v>0.744293</v>
       </c>
       <c r="C130" t="n">
-        <v>0.695875</v>
+        <v>0.787405</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7032040000000001</v>
+        <v>0.712862</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.737222</v>
+        <v>0.745416</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700375</v>
+        <v>0.802957</v>
       </c>
       <c r="D131" t="n">
-        <v>0.705095</v>
+        <v>0.717992</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.740963</v>
+        <v>0.746485</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7021230000000001</v>
+        <v>0.818234</v>
       </c>
       <c r="D132" t="n">
-        <v>0.707184</v>
+        <v>0.717454</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.742316</v>
+        <v>0.754723</v>
       </c>
       <c r="C133" t="n">
-        <v>0.704662</v>
+        <v>0.834613</v>
       </c>
       <c r="D133" t="n">
-        <v>0.711655</v>
+        <v>0.72132</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.74804</v>
+        <v>0.759047</v>
       </c>
       <c r="C134" t="n">
-        <v>0.705324</v>
+        <v>0.845298</v>
       </c>
       <c r="D134" t="n">
-        <v>0.71234</v>
+        <v>0.722523</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.754962</v>
+        <v>0.763442</v>
       </c>
       <c r="C135" t="n">
-        <v>0.715103</v>
+        <v>0.880324</v>
       </c>
       <c r="D135" t="n">
-        <v>0.721515</v>
+        <v>0.72687</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.762375</v>
+        <v>0.773695</v>
       </c>
       <c r="C136" t="n">
-        <v>0.717146</v>
+        <v>0.763351</v>
       </c>
       <c r="D136" t="n">
-        <v>0.724256</v>
+        <v>0.7343</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.775865</v>
+        <v>0.783026</v>
       </c>
       <c r="C137" t="n">
-        <v>0.725969</v>
+        <v>0.768054</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8346749999999999</v>
+        <v>0.8426630000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85999</v>
+        <v>0.86285</v>
       </c>
       <c r="C138" t="n">
-        <v>0.814836</v>
+        <v>0.767974</v>
       </c>
       <c r="D138" t="n">
-        <v>0.837848</v>
+        <v>0.8395359999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.862487</v>
+        <v>0.859384</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818878</v>
+        <v>0.7803060000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.838053</v>
+        <v>0.8413310000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863916</v>
+        <v>0.864682</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819878</v>
+        <v>0.789042</v>
       </c>
       <c r="D140" t="n">
-        <v>0.837987</v>
+        <v>0.842441</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863575</v>
+        <v>0.866432</v>
       </c>
       <c r="C141" t="n">
-        <v>0.818871</v>
+        <v>0.7974059999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.839077</v>
+        <v>0.843924</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865547</v>
+        <v>0.866661</v>
       </c>
       <c r="C142" t="n">
-        <v>0.822122</v>
+        <v>0.801831</v>
       </c>
       <c r="D142" t="n">
-        <v>0.841548</v>
+        <v>0.844035</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.86488</v>
+        <v>0.866743</v>
       </c>
       <c r="C143" t="n">
-        <v>0.824103</v>
+        <v>0.813645</v>
       </c>
       <c r="D143" t="n">
-        <v>0.842004</v>
+        <v>0.84704</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109225</v>
+        <v>0.11565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100164</v>
+        <v>0.103266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108698</v>
+        <v>0.109668</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110855</v>
+        <v>0.114332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1006</v>
+        <v>0.107522</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109375</v>
+        <v>0.109667</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11086</v>
+        <v>0.117625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100767</v>
+        <v>0.108742</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110087</v>
+        <v>0.110983</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111324</v>
+        <v>0.116335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100845</v>
+        <v>0.107194</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110852</v>
+        <v>0.110279</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112201</v>
+        <v>0.117496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101234</v>
+        <v>0.103685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112371</v>
+        <v>0.110599</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112817</v>
+        <v>0.117795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101324</v>
+        <v>0.107382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113883</v>
+        <v>0.111712</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115572</v>
+        <v>0.120889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102441</v>
+        <v>0.109609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116873</v>
+        <v>0.114113</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119756</v>
+        <v>0.123867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104554</v>
+        <v>0.110999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.116403</v>
+        <v>0.116499</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12696</v>
+        <v>0.123084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113685</v>
+        <v>0.109472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117962</v>
+        <v>0.115436</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127155</v>
+        <v>0.122585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.113027</v>
+        <v>0.110518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117575</v>
+        <v>0.115864</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125547</v>
+        <v>0.122856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.113193</v>
+        <v>0.110504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117316</v>
+        <v>0.115728</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125872</v>
+        <v>0.123374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.115488</v>
+        <v>0.113745</v>
       </c>
       <c r="D13" t="n">
-        <v>0.117184</v>
+        <v>0.116359</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127019</v>
+        <v>0.12488</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113355</v>
+        <v>0.113824</v>
       </c>
       <c r="D14" t="n">
-        <v>0.11806</v>
+        <v>0.116282</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126579</v>
+        <v>0.124422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115878</v>
+        <v>0.112794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118449</v>
+        <v>0.116704</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127252</v>
+        <v>0.125093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.116375</v>
+        <v>0.111896</v>
       </c>
       <c r="D16" t="n">
-        <v>0.118931</v>
+        <v>0.116666</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127664</v>
+        <v>0.126706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113645</v>
+        <v>0.112572</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118898</v>
+        <v>0.117263</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127578</v>
+        <v>0.126466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114565</v>
+        <v>0.114834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120794</v>
+        <v>0.117539</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.12835</v>
+        <v>0.127181</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11681</v>
+        <v>0.113578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.120149</v>
+        <v>0.118596</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128785</v>
+        <v>0.128063</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117436</v>
+        <v>0.117562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122163</v>
+        <v>0.118897</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130749</v>
+        <v>0.129903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.118404</v>
+        <v>0.114985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12516</v>
+        <v>0.121323</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135667</v>
+        <v>0.135541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118294</v>
+        <v>0.118027</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129182</v>
+        <v>0.125743</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141683</v>
+        <v>0.141202</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123865</v>
+        <v>0.125348</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125709</v>
+        <v>0.125208</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135393</v>
+        <v>0.134748</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120699</v>
+        <v>0.119844</v>
       </c>
       <c r="D24" t="n">
-        <v>0.124834</v>
+        <v>0.125218</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134008</v>
+        <v>0.133725</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120853</v>
+        <v>0.12064</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125459</v>
+        <v>0.124975</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134043</v>
+        <v>0.134215</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121143</v>
+        <v>0.121719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125454</v>
+        <v>0.125093</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134977</v>
+        <v>0.133775</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121251</v>
+        <v>0.121</v>
       </c>
       <c r="D27" t="n">
-        <v>0.126048</v>
+        <v>0.125282</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135137</v>
+        <v>0.134085</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121725</v>
+        <v>0.121864</v>
       </c>
       <c r="D28" t="n">
-        <v>0.126476</v>
+        <v>0.125448</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136087</v>
+        <v>0.134698</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121901</v>
+        <v>0.121854</v>
       </c>
       <c r="D29" t="n">
-        <v>0.126231</v>
+        <v>0.12598</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135856</v>
+        <v>0.134971</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123552</v>
+        <v>0.122349</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126738</v>
+        <v>0.126332</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13685</v>
+        <v>0.135313</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124082</v>
+        <v>0.123679</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127461</v>
+        <v>0.126258</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137634</v>
+        <v>0.136031</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123736</v>
+        <v>0.122354</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128022</v>
+        <v>0.127228</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13868</v>
+        <v>0.137361</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123842</v>
+        <v>0.124778</v>
       </c>
       <c r="D33" t="n">
-        <v>0.129756</v>
+        <v>0.127682</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139489</v>
+        <v>0.13893</v>
       </c>
       <c r="C34" t="n">
-        <v>0.124923</v>
+        <v>0.125992</v>
       </c>
       <c r="D34" t="n">
-        <v>0.130926</v>
+        <v>0.129147</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143219</v>
+        <v>0.14316</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128266</v>
+        <v>0.126706</v>
       </c>
       <c r="D35" t="n">
-        <v>0.13406</v>
+        <v>0.132687</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148676</v>
+        <v>0.147344</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131315</v>
+        <v>0.130815</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13965</v>
+        <v>0.13949</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.155969</v>
+        <v>0.154482</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136202</v>
+        <v>0.138348</v>
       </c>
       <c r="D37" t="n">
-        <v>0.139052</v>
+        <v>0.136954</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147238</v>
+        <v>0.145062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.13172</v>
+        <v>0.131475</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138947</v>
+        <v>0.13684</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148831</v>
+        <v>0.148955</v>
       </c>
       <c r="C39" t="n">
-        <v>0.131851</v>
+        <v>0.131245</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13874</v>
+        <v>0.136784</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148246</v>
+        <v>0.147499</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132719</v>
+        <v>0.132116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.139283</v>
+        <v>0.137713</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147207</v>
+        <v>0.147403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.133197</v>
+        <v>0.13215</v>
       </c>
       <c r="D41" t="n">
-        <v>0.138624</v>
+        <v>0.138002</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150388</v>
+        <v>0.14858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133706</v>
+        <v>0.132959</v>
       </c>
       <c r="D42" t="n">
-        <v>0.14023</v>
+        <v>0.137508</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150389</v>
+        <v>0.149054</v>
       </c>
       <c r="C43" t="n">
-        <v>0.134067</v>
+        <v>0.133195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139579</v>
+        <v>0.138365</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151494</v>
+        <v>0.149569</v>
       </c>
       <c r="C44" t="n">
-        <v>0.133014</v>
+        <v>0.132625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.138218</v>
+        <v>0.138543</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150349</v>
+        <v>0.146861</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135633</v>
+        <v>0.133235</v>
       </c>
       <c r="D45" t="n">
-        <v>0.141207</v>
+        <v>0.139307</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151814</v>
+        <v>0.148324</v>
       </c>
       <c r="C46" t="n">
-        <v>0.137412</v>
+        <v>0.134844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.142399</v>
+        <v>0.140756</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149953</v>
+        <v>0.150395</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138869</v>
+        <v>0.136838</v>
       </c>
       <c r="D47" t="n">
-        <v>0.143377</v>
+        <v>0.141952</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154089</v>
+        <v>0.153363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138858</v>
+        <v>0.137896</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146421</v>
+        <v>0.143898</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157164</v>
+        <v>0.155926</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141725</v>
+        <v>0.140968</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148461</v>
+        <v>0.146426</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161833</v>
+        <v>0.162391</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144603</v>
+        <v>0.143035</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152702</v>
+        <v>0.152125</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.164507</v>
+        <v>0.166508</v>
       </c>
       <c r="C51" t="n">
-        <v>0.148657</v>
+        <v>0.148009</v>
       </c>
       <c r="D51" t="n">
-        <v>0.151982</v>
+        <v>0.152008</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175429</v>
+        <v>0.175833</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155903</v>
+        <v>0.155228</v>
       </c>
       <c r="D52" t="n">
-        <v>0.151286</v>
+        <v>0.151766</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159077</v>
+        <v>0.159422</v>
       </c>
       <c r="C53" t="n">
-        <v>0.142364</v>
+        <v>0.14294</v>
       </c>
       <c r="D53" t="n">
-        <v>0.151728</v>
+        <v>0.152349</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160786</v>
+        <v>0.160893</v>
       </c>
       <c r="C54" t="n">
-        <v>0.142901</v>
+        <v>0.143181</v>
       </c>
       <c r="D54" t="n">
-        <v>0.152273</v>
+        <v>0.152261</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159835</v>
+        <v>0.16179</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143546</v>
+        <v>0.143508</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152608</v>
+        <v>0.152138</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16136</v>
+        <v>0.161132</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144073</v>
+        <v>0.143342</v>
       </c>
       <c r="D56" t="n">
-        <v>0.152529</v>
+        <v>0.152103</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160848</v>
+        <v>0.16195</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144404</v>
+        <v>0.144255</v>
       </c>
       <c r="D57" t="n">
-        <v>0.152933</v>
+        <v>0.15219</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.159549</v>
+        <v>0.162166</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145444</v>
+        <v>0.145442</v>
       </c>
       <c r="D58" t="n">
-        <v>0.153209</v>
+        <v>0.153419</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16035</v>
+        <v>0.162336</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145941</v>
+        <v>0.146402</v>
       </c>
       <c r="D59" t="n">
-        <v>0.154241</v>
+        <v>0.15381</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163315</v>
+        <v>0.162765</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14669</v>
+        <v>0.147176</v>
       </c>
       <c r="D60" t="n">
-        <v>0.154615</v>
+        <v>0.154629</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.166229</v>
+        <v>0.165948</v>
       </c>
       <c r="C61" t="n">
-        <v>0.148128</v>
+        <v>0.148616</v>
       </c>
       <c r="D61" t="n">
-        <v>0.155271</v>
+        <v>0.156595</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168701</v>
+        <v>0.168937</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149788</v>
+        <v>0.150287</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15838</v>
+        <v>0.158343</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170573</v>
+        <v>0.170207</v>
       </c>
       <c r="C63" t="n">
-        <v>0.15258</v>
+        <v>0.152064</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160279</v>
+        <v>0.160927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174014</v>
+        <v>0.175544</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155049</v>
+        <v>0.154989</v>
       </c>
       <c r="D64" t="n">
-        <v>0.165134</v>
+        <v>0.164452</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180464</v>
+        <v>0.180493</v>
       </c>
       <c r="C65" t="n">
-        <v>0.159149</v>
+        <v>0.158686</v>
       </c>
       <c r="D65" t="n">
-        <v>0.170388</v>
+        <v>0.171003</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189278</v>
+        <v>0.189761</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163452</v>
+        <v>0.163898</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162503</v>
+        <v>0.163394</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.183219</v>
+        <v>0.181363</v>
       </c>
       <c r="C67" t="n">
-        <v>0.160271</v>
+        <v>0.163476</v>
       </c>
       <c r="D67" t="n">
-        <v>0.162837</v>
+        <v>0.164128</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181515</v>
+        <v>0.181373</v>
       </c>
       <c r="C68" t="n">
-        <v>0.159412</v>
+        <v>0.161075</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162635</v>
+        <v>0.162396</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182821</v>
+        <v>0.185368</v>
       </c>
       <c r="C69" t="n">
-        <v>0.163106</v>
+        <v>0.160314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.163968</v>
+        <v>0.164144</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.184375</v>
+        <v>0.179844</v>
       </c>
       <c r="C70" t="n">
-        <v>0.161358</v>
+        <v>0.161415</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164216</v>
+        <v>0.164432</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180704</v>
+        <v>0.182615</v>
       </c>
       <c r="C71" t="n">
-        <v>0.162479</v>
+        <v>0.160723</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164416</v>
+        <v>0.164998</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18184</v>
+        <v>0.180758</v>
       </c>
       <c r="C72" t="n">
-        <v>0.162415</v>
+        <v>0.165296</v>
       </c>
       <c r="D72" t="n">
-        <v>0.165063</v>
+        <v>0.16553</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182145</v>
+        <v>0.183509</v>
       </c>
       <c r="C73" t="n">
-        <v>0.162609</v>
+        <v>0.16391</v>
       </c>
       <c r="D73" t="n">
-        <v>0.16574</v>
+        <v>0.165657</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.185367</v>
+        <v>0.182079</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162591</v>
+        <v>0.165103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.166588</v>
+        <v>0.168618</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188184</v>
+        <v>0.185325</v>
       </c>
       <c r="C75" t="n">
-        <v>0.166303</v>
+        <v>0.164831</v>
       </c>
       <c r="D75" t="n">
-        <v>0.168331</v>
+        <v>0.167673</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185526</v>
+        <v>0.191008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165102</v>
+        <v>0.165503</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169052</v>
+        <v>0.169235</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190658</v>
+        <v>0.188829</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170425</v>
+        <v>0.167703</v>
       </c>
       <c r="D77" t="n">
-        <v>0.172051</v>
+        <v>0.171187</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.19282</v>
+        <v>0.192564</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171955</v>
+        <v>0.167906</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176119</v>
+        <v>0.174861</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199456</v>
+        <v>0.194963</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173104</v>
+        <v>0.172828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.180695</v>
+        <v>0.180387</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.210785</v>
+        <v>0.202467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.180532</v>
+        <v>0.176948</v>
       </c>
       <c r="D80" t="n">
-        <v>0.239699</v>
+        <v>0.245422</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.340557</v>
+        <v>0.343374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.286842</v>
+        <v>0.291265</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242368</v>
+        <v>0.242629</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341347</v>
+        <v>0.341628</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288787</v>
+        <v>0.288957</v>
       </c>
       <c r="D82" t="n">
-        <v>0.241093</v>
+        <v>0.24186</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344034</v>
+        <v>0.346151</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286108</v>
+        <v>0.285443</v>
       </c>
       <c r="D83" t="n">
-        <v>0.241807</v>
+        <v>0.243881</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342328</v>
+        <v>0.344505</v>
       </c>
       <c r="C84" t="n">
-        <v>0.283186</v>
+        <v>0.283961</v>
       </c>
       <c r="D84" t="n">
-        <v>0.241181</v>
+        <v>0.242063</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.342941</v>
+        <v>0.343399</v>
       </c>
       <c r="C85" t="n">
-        <v>0.283131</v>
+        <v>0.284148</v>
       </c>
       <c r="D85" t="n">
-        <v>0.240073</v>
+        <v>0.241805</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34735</v>
+        <v>0.34633</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281434</v>
+        <v>0.284486</v>
       </c>
       <c r="D86" t="n">
-        <v>0.242722</v>
+        <v>0.23902</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347459</v>
+        <v>0.343405</v>
       </c>
       <c r="C87" t="n">
-        <v>0.28461</v>
+        <v>0.282797</v>
       </c>
       <c r="D87" t="n">
-        <v>0.23998</v>
+        <v>0.240476</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346059</v>
+        <v>0.347207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.281631</v>
+        <v>0.279941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.238453</v>
+        <v>0.239653</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350822</v>
+        <v>0.349708</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282781</v>
+        <v>0.284047</v>
       </c>
       <c r="D89" t="n">
-        <v>0.239045</v>
+        <v>0.238469</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.348094</v>
+        <v>0.35183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280093</v>
+        <v>0.281349</v>
       </c>
       <c r="D90" t="n">
-        <v>0.236725</v>
+        <v>0.238749</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.349838</v>
+        <v>0.353258</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278285</v>
+        <v>0.280211</v>
       </c>
       <c r="D91" t="n">
-        <v>0.241004</v>
+        <v>0.238338</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356789</v>
+        <v>0.356543</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280781</v>
+        <v>0.284265</v>
       </c>
       <c r="D92" t="n">
-        <v>0.239322</v>
+        <v>0.240717</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356849</v>
+        <v>0.362419</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283692</v>
+        <v>0.285378</v>
       </c>
       <c r="D93" t="n">
-        <v>0.242817</v>
+        <v>0.244791</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365809</v>
+        <v>0.366414</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283758</v>
+        <v>0.287127</v>
       </c>
       <c r="D94" t="n">
-        <v>0.398088</v>
+        <v>0.401012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.495828</v>
+        <v>0.502</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449171</v>
+        <v>0.454788</v>
       </c>
       <c r="D95" t="n">
-        <v>0.396906</v>
+        <v>0.389762</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496321</v>
+        <v>0.501848</v>
       </c>
       <c r="C96" t="n">
-        <v>0.449284</v>
+        <v>0.452977</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397676</v>
+        <v>0.388092</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497294</v>
+        <v>0.5013649999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448652</v>
+        <v>0.452432</v>
       </c>
       <c r="D97" t="n">
-        <v>0.396574</v>
+        <v>0.398773</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.496913</v>
+        <v>0.502545</v>
       </c>
       <c r="C98" t="n">
-        <v>0.447917</v>
+        <v>0.452057</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396579</v>
+        <v>0.387761</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497165</v>
+        <v>0.50362</v>
       </c>
       <c r="C99" t="n">
-        <v>0.447546</v>
+        <v>0.453021</v>
       </c>
       <c r="D99" t="n">
-        <v>0.396739</v>
+        <v>0.398665</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498109</v>
+        <v>0.502997</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447495</v>
+        <v>0.439669</v>
       </c>
       <c r="D100" t="n">
-        <v>0.394861</v>
+        <v>0.399084</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.498479</v>
+        <v>0.503927</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447519</v>
+        <v>0.452269</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396213</v>
+        <v>0.387824</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499958</v>
+        <v>0.5062680000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447521</v>
+        <v>0.453085</v>
       </c>
       <c r="D102" t="n">
-        <v>0.39538</v>
+        <v>0.399312</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.500566</v>
+        <v>0.507765</v>
       </c>
       <c r="C103" t="n">
-        <v>0.447635</v>
+        <v>0.452572</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396763</v>
+        <v>0.387492</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.502622</v>
+        <v>0.507902</v>
       </c>
       <c r="C104" t="n">
-        <v>0.448495</v>
+        <v>0.454432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.397363</v>
+        <v>0.400248</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.504851</v>
+        <v>0.510767</v>
       </c>
       <c r="C105" t="n">
-        <v>0.449294</v>
+        <v>0.454945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.399211</v>
+        <v>0.40255</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.508301</v>
+        <v>0.513967</v>
       </c>
       <c r="C106" t="n">
-        <v>0.451939</v>
+        <v>0.44445</v>
       </c>
       <c r="D106" t="n">
-        <v>0.402539</v>
+        <v>0.404991</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.513644</v>
+        <v>0.518935</v>
       </c>
       <c r="C107" t="n">
-        <v>0.454748</v>
+        <v>0.460315</v>
       </c>
       <c r="D107" t="n">
-        <v>0.407887</v>
+        <v>0.397905</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.521054</v>
+        <v>0.526857</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460188</v>
+        <v>0.465181</v>
       </c>
       <c r="D108" t="n">
-        <v>0.530551</v>
+        <v>0.537735</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.530784</v>
+        <v>0.537475</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467031</v>
+        <v>0.472182</v>
       </c>
       <c r="D109" t="n">
-        <v>0.531088</v>
+        <v>0.539716</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.583982</v>
+        <v>0.585427</v>
       </c>
       <c r="C110" t="n">
-        <v>0.560521</v>
+        <v>0.561388</v>
       </c>
       <c r="D110" t="n">
-        <v>0.534996</v>
+        <v>0.5396</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.583859</v>
+        <v>0.585573</v>
       </c>
       <c r="C111" t="n">
-        <v>0.559051</v>
+        <v>0.563917</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532092</v>
+        <v>0.538289</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5854</v>
+        <v>0.5878100000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.558357</v>
+        <v>0.562177</v>
       </c>
       <c r="D112" t="n">
-        <v>0.533554</v>
+        <v>0.5352479999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582613</v>
+        <v>0.587668</v>
       </c>
       <c r="C113" t="n">
-        <v>0.556761</v>
+        <v>0.562283</v>
       </c>
       <c r="D113" t="n">
-        <v>0.534096</v>
+        <v>0.538439</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.583487</v>
+        <v>0.587404</v>
       </c>
       <c r="C114" t="n">
-        <v>0.561408</v>
+        <v>0.5620579999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.538899</v>
+        <v>0.54061</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5870610000000001</v>
+        <v>0.588221</v>
       </c>
       <c r="C115" t="n">
-        <v>0.559778</v>
+        <v>0.5588109999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.535357</v>
+        <v>0.540614</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588928</v>
+        <v>0.591514</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561767</v>
+        <v>0.565145</v>
       </c>
       <c r="D116" t="n">
-        <v>0.539444</v>
+        <v>0.541457</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.58919</v>
+        <v>0.592912</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564119</v>
+        <v>0.566574</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5410239999999999</v>
+        <v>0.542094</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.592168</v>
+        <v>0.594032</v>
       </c>
       <c r="C118" t="n">
-        <v>0.56547</v>
+        <v>0.568845</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544405</v>
+        <v>0.544135</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5972769999999999</v>
+        <v>0.598472</v>
       </c>
       <c r="C119" t="n">
-        <v>0.569043</v>
+        <v>0.570332</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545204</v>
+        <v>0.547539</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.60092</v>
+        <v>0.602772</v>
       </c>
       <c r="C120" t="n">
-        <v>0.571235</v>
+        <v>0.5742699999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.549314</v>
+        <v>0.551719</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605925</v>
+        <v>0.609753</v>
       </c>
       <c r="C121" t="n">
-        <v>0.577021</v>
+        <v>0.578864</v>
       </c>
       <c r="D121" t="n">
-        <v>0.553778</v>
+        <v>0.550754</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.614363</v>
+        <v>0.618542</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5814</v>
+        <v>0.577215</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560943</v>
+        <v>0.561505</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624702</v>
+        <v>0.628439</v>
       </c>
       <c r="C123" t="n">
-        <v>0.588705</v>
+        <v>0.592878</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696471</v>
+        <v>0.696184</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.730277</v>
+        <v>0.731949</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684683</v>
+        <v>0.685167</v>
       </c>
       <c r="D124" t="n">
-        <v>0.696875</v>
+        <v>0.6999610000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.728878</v>
+        <v>0.731135</v>
       </c>
       <c r="C125" t="n">
-        <v>0.688473</v>
+        <v>0.6905210000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6969070000000001</v>
+        <v>0.7000459999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.727658</v>
+        <v>0.731488</v>
       </c>
       <c r="C126" t="n">
-        <v>0.68913</v>
+        <v>0.690244</v>
       </c>
       <c r="D126" t="n">
-        <v>0.697781</v>
+        <v>0.699389</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.726087</v>
+        <v>0.732385</v>
       </c>
       <c r="C127" t="n">
-        <v>0.687173</v>
+        <v>0.693316</v>
       </c>
       <c r="D127" t="n">
-        <v>0.69592</v>
+        <v>0.700014</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.73169</v>
+        <v>0.734895</v>
       </c>
       <c r="C128" t="n">
-        <v>0.69298</v>
+        <v>0.69511</v>
       </c>
       <c r="D128" t="n">
-        <v>0.700858</v>
+        <v>0.7008219999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.730357</v>
+        <v>0.736601</v>
       </c>
       <c r="C129" t="n">
-        <v>0.694171</v>
+        <v>0.696588</v>
       </c>
       <c r="D129" t="n">
-        <v>0.69994</v>
+        <v>0.706718</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.732405</v>
+        <v>0.7394309999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.695875</v>
+        <v>0.69925</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7032040000000001</v>
+        <v>0.7028759999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.737222</v>
+        <v>0.739541</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700375</v>
+        <v>0.70125</v>
       </c>
       <c r="D131" t="n">
-        <v>0.705095</v>
+        <v>0.705565</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.740963</v>
+        <v>0.741274</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7021230000000001</v>
+        <v>0.7031230000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.707184</v>
+        <v>0.7074859999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.742316</v>
+        <v>0.746039</v>
       </c>
       <c r="C133" t="n">
-        <v>0.704662</v>
+        <v>0.70714</v>
       </c>
       <c r="D133" t="n">
-        <v>0.711655</v>
+        <v>0.714101</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.74804</v>
+        <v>0.749522</v>
       </c>
       <c r="C134" t="n">
-        <v>0.705324</v>
+        <v>0.70607</v>
       </c>
       <c r="D134" t="n">
-        <v>0.71234</v>
+        <v>0.715788</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.754962</v>
+        <v>0.756238</v>
       </c>
       <c r="C135" t="n">
-        <v>0.715103</v>
+        <v>0.717786</v>
       </c>
       <c r="D135" t="n">
-        <v>0.721515</v>
+        <v>0.719759</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.762375</v>
+        <v>0.768138</v>
       </c>
       <c r="C136" t="n">
-        <v>0.717146</v>
+        <v>0.723472</v>
       </c>
       <c r="D136" t="n">
-        <v>0.724256</v>
+        <v>0.724706</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.775865</v>
+        <v>0.776336</v>
       </c>
       <c r="C137" t="n">
-        <v>0.725969</v>
+        <v>0.72557</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8346749999999999</v>
+        <v>0.834881</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85999</v>
+        <v>0.860825</v>
       </c>
       <c r="C138" t="n">
-        <v>0.814836</v>
+        <v>0.813626</v>
       </c>
       <c r="D138" t="n">
-        <v>0.837848</v>
+        <v>0.835446</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.862487</v>
+        <v>0.860231</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818878</v>
+        <v>0.815178</v>
       </c>
       <c r="D139" t="n">
-        <v>0.838053</v>
+        <v>0.833932</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863916</v>
+        <v>0.860421</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819878</v>
+        <v>0.814713</v>
       </c>
       <c r="D140" t="n">
-        <v>0.837987</v>
+        <v>0.8362270000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863575</v>
+        <v>0.861354</v>
       </c>
       <c r="C141" t="n">
-        <v>0.818871</v>
+        <v>0.819069</v>
       </c>
       <c r="D141" t="n">
-        <v>0.839077</v>
+        <v>0.837448</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865547</v>
+        <v>0.864299</v>
       </c>
       <c r="C142" t="n">
-        <v>0.822122</v>
+        <v>0.820997</v>
       </c>
       <c r="D142" t="n">
-        <v>0.841548</v>
+        <v>0.83748</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.86488</v>
+        <v>0.863967</v>
       </c>
       <c r="C143" t="n">
-        <v>0.824103</v>
+        <v>0.823121</v>
       </c>
       <c r="D143" t="n">
-        <v>0.842004</v>
+        <v>0.839178</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11565</v>
+        <v>0.110988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103266</v>
+        <v>0.100625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.109668</v>
+        <v>0.104443</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.114332</v>
+        <v>0.110169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.107522</v>
+        <v>0.104116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109667</v>
+        <v>0.104881</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117625</v>
+        <v>0.110377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.108742</v>
+        <v>0.100855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.110983</v>
+        <v>0.104757</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116335</v>
+        <v>0.111145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.107194</v>
+        <v>0.106044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.110279</v>
+        <v>0.10528</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117496</v>
+        <v>0.111362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103685</v>
+        <v>0.101381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110599</v>
+        <v>0.105779</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117795</v>
+        <v>0.113967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.107382</v>
+        <v>0.102766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.111712</v>
+        <v>0.107033</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120889</v>
+        <v>0.115545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.109609</v>
+        <v>0.106544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114113</v>
+        <v>0.108331</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123867</v>
+        <v>0.118976</v>
       </c>
       <c r="C9" t="n">
-        <v>0.110999</v>
+        <v>0.106763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.116499</v>
+        <v>0.109847</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123084</v>
+        <v>0.122393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109472</v>
+        <v>0.110426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.115436</v>
+        <v>0.110459</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122585</v>
+        <v>0.121884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110518</v>
+        <v>0.112544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.115864</v>
+        <v>0.110215</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122856</v>
+        <v>0.121291</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110504</v>
+        <v>0.113117</v>
       </c>
       <c r="D12" t="n">
-        <v>0.115728</v>
+        <v>0.110617</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123374</v>
+        <v>0.122404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113745</v>
+        <v>0.113797</v>
       </c>
       <c r="D13" t="n">
-        <v>0.116359</v>
+        <v>0.110892</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12488</v>
+        <v>0.122077</v>
       </c>
       <c r="C14" t="n">
-        <v>0.113824</v>
+        <v>0.111284</v>
       </c>
       <c r="D14" t="n">
-        <v>0.116282</v>
+        <v>0.111019</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124422</v>
+        <v>0.122313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112794</v>
+        <v>0.113734</v>
       </c>
       <c r="D15" t="n">
-        <v>0.116704</v>
+        <v>0.111712</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125093</v>
+        <v>0.122805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111896</v>
+        <v>0.111236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116666</v>
+        <v>0.111877</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126706</v>
+        <v>0.123198</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112572</v>
+        <v>0.114412</v>
       </c>
       <c r="D17" t="n">
-        <v>0.117263</v>
+        <v>0.111983</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126466</v>
+        <v>0.123391</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114834</v>
+        <v>0.114264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.117539</v>
+        <v>0.112391</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.127181</v>
+        <v>0.124773</v>
       </c>
       <c r="C19" t="n">
-        <v>0.113578</v>
+        <v>0.114863</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118596</v>
+        <v>0.113123</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.128063</v>
+        <v>0.125492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117562</v>
+        <v>0.114632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118897</v>
+        <v>0.113746</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129903</v>
+        <v>0.127056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114985</v>
+        <v>0.115275</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121323</v>
+        <v>0.115278</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135541</v>
+        <v>0.132574</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118027</v>
+        <v>0.117859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125743</v>
+        <v>0.121221</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141202</v>
+        <v>0.138688</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125348</v>
+        <v>0.12283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125208</v>
+        <v>0.119737</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134748</v>
+        <v>0.135033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.119844</v>
+        <v>0.124378</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125218</v>
+        <v>0.119378</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133725</v>
+        <v>0.133616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12064</v>
+        <v>0.122637</v>
       </c>
       <c r="D25" t="n">
-        <v>0.124975</v>
+        <v>0.119713</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134215</v>
+        <v>0.133487</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121719</v>
+        <v>0.125101</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125093</v>
+        <v>0.119472</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133775</v>
+        <v>0.13372</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121</v>
+        <v>0.126327</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125282</v>
+        <v>0.120245</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134085</v>
+        <v>0.134858</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121864</v>
+        <v>0.125667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125448</v>
+        <v>0.120487</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134698</v>
+        <v>0.134746</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121854</v>
+        <v>0.124752</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12598</v>
+        <v>0.120573</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134971</v>
+        <v>0.134769</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122349</v>
+        <v>0.125551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126332</v>
+        <v>0.120926</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135313</v>
+        <v>0.13502</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123679</v>
+        <v>0.124203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126258</v>
+        <v>0.12121</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136031</v>
+        <v>0.135776</v>
       </c>
       <c r="C32" t="n">
-        <v>0.122354</v>
+        <v>0.125389</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127228</v>
+        <v>0.121922</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137361</v>
+        <v>0.137231</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124778</v>
+        <v>0.127073</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127682</v>
+        <v>0.122247</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13893</v>
+        <v>0.138545</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125992</v>
+        <v>0.127713</v>
       </c>
       <c r="D34" t="n">
-        <v>0.129147</v>
+        <v>0.124346</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14316</v>
+        <v>0.142113</v>
       </c>
       <c r="C35" t="n">
-        <v>0.126706</v>
+        <v>0.12856</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132687</v>
+        <v>0.127849</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147344</v>
+        <v>0.147204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130815</v>
+        <v>0.135204</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13949</v>
+        <v>0.133936</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154482</v>
+        <v>0.154216</v>
       </c>
       <c r="C37" t="n">
-        <v>0.138348</v>
+        <v>0.138073</v>
       </c>
       <c r="D37" t="n">
-        <v>0.136954</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145062</v>
+        <v>0.145599</v>
       </c>
       <c r="C38" t="n">
-        <v>0.131475</v>
+        <v>0.134723</v>
       </c>
       <c r="D38" t="n">
-        <v>0.13684</v>
+        <v>0.130787</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148955</v>
+        <v>0.1459</v>
       </c>
       <c r="C39" t="n">
-        <v>0.131245</v>
+        <v>0.134053</v>
       </c>
       <c r="D39" t="n">
-        <v>0.136784</v>
+        <v>0.13197</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147499</v>
+        <v>0.145307</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132116</v>
+        <v>0.134237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.137713</v>
+        <v>0.131707</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147403</v>
+        <v>0.144917</v>
       </c>
       <c r="C41" t="n">
-        <v>0.13215</v>
+        <v>0.135505</v>
       </c>
       <c r="D41" t="n">
-        <v>0.138002</v>
+        <v>0.131421</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14858</v>
+        <v>0.145035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.132959</v>
+        <v>0.135356</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137508</v>
+        <v>0.133104</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149054</v>
+        <v>0.145607</v>
       </c>
       <c r="C43" t="n">
-        <v>0.133195</v>
+        <v>0.135991</v>
       </c>
       <c r="D43" t="n">
-        <v>0.138365</v>
+        <v>0.132968</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149569</v>
+        <v>0.149802</v>
       </c>
       <c r="C44" t="n">
-        <v>0.132625</v>
+        <v>0.135941</v>
       </c>
       <c r="D44" t="n">
-        <v>0.138543</v>
+        <v>0.131333</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.146861</v>
+        <v>0.145867</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133235</v>
+        <v>0.135874</v>
       </c>
       <c r="D45" t="n">
-        <v>0.139307</v>
+        <v>0.132413</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148324</v>
+        <v>0.149293</v>
       </c>
       <c r="C46" t="n">
-        <v>0.134844</v>
+        <v>0.136486</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140756</v>
+        <v>0.132262</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150395</v>
+        <v>0.150994</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136838</v>
+        <v>0.137487</v>
       </c>
       <c r="D47" t="n">
-        <v>0.141952</v>
+        <v>0.134171</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153363</v>
+        <v>0.154652</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137896</v>
+        <v>0.138822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.143898</v>
+        <v>0.136266</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155926</v>
+        <v>0.156411</v>
       </c>
       <c r="C49" t="n">
-        <v>0.140968</v>
+        <v>0.14209</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146426</v>
+        <v>0.139834</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.162391</v>
+        <v>0.15888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.143035</v>
+        <v>0.144151</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152125</v>
+        <v>0.145186</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166508</v>
+        <v>0.166279</v>
       </c>
       <c r="C51" t="n">
-        <v>0.148009</v>
+        <v>0.147894</v>
       </c>
       <c r="D51" t="n">
-        <v>0.152008</v>
+        <v>0.143899</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175833</v>
+        <v>0.174752</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155228</v>
+        <v>0.153454</v>
       </c>
       <c r="D52" t="n">
-        <v>0.151766</v>
+        <v>0.144366</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159422</v>
+        <v>0.158385</v>
       </c>
       <c r="C53" t="n">
-        <v>0.14294</v>
+        <v>0.14611</v>
       </c>
       <c r="D53" t="n">
-        <v>0.152349</v>
+        <v>0.144107</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160893</v>
+        <v>0.160399</v>
       </c>
       <c r="C54" t="n">
-        <v>0.143181</v>
+        <v>0.145973</v>
       </c>
       <c r="D54" t="n">
-        <v>0.152261</v>
+        <v>0.144818</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.16179</v>
+        <v>0.159801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143508</v>
+        <v>0.145966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152138</v>
+        <v>0.145075</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161132</v>
+        <v>0.159847</v>
       </c>
       <c r="C56" t="n">
-        <v>0.143342</v>
+        <v>0.146524</v>
       </c>
       <c r="D56" t="n">
-        <v>0.152103</v>
+        <v>0.145277</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.16195</v>
+        <v>0.160108</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144255</v>
+        <v>0.146598</v>
       </c>
       <c r="D57" t="n">
-        <v>0.15219</v>
+        <v>0.144917</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162166</v>
+        <v>0.160696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145442</v>
+        <v>0.144816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.153419</v>
+        <v>0.145438</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162336</v>
+        <v>0.161407</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146402</v>
+        <v>0.148838</v>
       </c>
       <c r="D59" t="n">
-        <v>0.15381</v>
+        <v>0.146066</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162765</v>
+        <v>0.163068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147176</v>
+        <v>0.148313</v>
       </c>
       <c r="D60" t="n">
-        <v>0.154629</v>
+        <v>0.147367</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165948</v>
+        <v>0.165426</v>
       </c>
       <c r="C61" t="n">
-        <v>0.148616</v>
+        <v>0.149256</v>
       </c>
       <c r="D61" t="n">
-        <v>0.156595</v>
+        <v>0.14853</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168937</v>
+        <v>0.16743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150287</v>
+        <v>0.150934</v>
       </c>
       <c r="D62" t="n">
-        <v>0.158343</v>
+        <v>0.150988</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170207</v>
+        <v>0.170491</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152064</v>
+        <v>0.152597</v>
       </c>
       <c r="D63" t="n">
-        <v>0.160927</v>
+        <v>0.15353</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175544</v>
+        <v>0.17391</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154989</v>
+        <v>0.155341</v>
       </c>
       <c r="D64" t="n">
-        <v>0.164452</v>
+        <v>0.157149</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.180493</v>
+        <v>0.179353</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158686</v>
+        <v>0.158852</v>
       </c>
       <c r="D65" t="n">
-        <v>0.171003</v>
+        <v>0.16329</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189761</v>
+        <v>0.188114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163898</v>
+        <v>0.165164</v>
       </c>
       <c r="D66" t="n">
-        <v>0.163394</v>
+        <v>0.153616</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181363</v>
+        <v>0.17911</v>
       </c>
       <c r="C67" t="n">
-        <v>0.163476</v>
+        <v>0.163722</v>
       </c>
       <c r="D67" t="n">
-        <v>0.164128</v>
+        <v>0.154782</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.181373</v>
+        <v>0.178904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.161075</v>
+        <v>0.162957</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162396</v>
+        <v>0.154159</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185368</v>
+        <v>0.17695</v>
       </c>
       <c r="C69" t="n">
-        <v>0.160314</v>
+        <v>0.163448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.164144</v>
+        <v>0.155037</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.179844</v>
+        <v>0.181927</v>
       </c>
       <c r="C70" t="n">
-        <v>0.161415</v>
+        <v>0.162521</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164432</v>
+        <v>0.155321</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182615</v>
+        <v>0.181813</v>
       </c>
       <c r="C71" t="n">
-        <v>0.160723</v>
+        <v>0.163036</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164998</v>
+        <v>0.155843</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180758</v>
+        <v>0.181053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.165296</v>
+        <v>0.164051</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16553</v>
+        <v>0.155918</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.183509</v>
+        <v>0.180066</v>
       </c>
       <c r="C73" t="n">
-        <v>0.16391</v>
+        <v>0.162794</v>
       </c>
       <c r="D73" t="n">
-        <v>0.165657</v>
+        <v>0.156786</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.182079</v>
+        <v>0.180748</v>
       </c>
       <c r="C74" t="n">
-        <v>0.165103</v>
+        <v>0.16319</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168618</v>
+        <v>0.157428</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.185325</v>
+        <v>0.180636</v>
       </c>
       <c r="C75" t="n">
-        <v>0.164831</v>
+        <v>0.165728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.167673</v>
+        <v>0.158119</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.191008</v>
+        <v>0.186297</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165503</v>
+        <v>0.168226</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169235</v>
+        <v>0.161014</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188829</v>
+        <v>0.187892</v>
       </c>
       <c r="C77" t="n">
-        <v>0.167703</v>
+        <v>0.170099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171187</v>
+        <v>0.163466</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.192564</v>
+        <v>0.190489</v>
       </c>
       <c r="C78" t="n">
-        <v>0.167906</v>
+        <v>0.171306</v>
       </c>
       <c r="D78" t="n">
-        <v>0.174861</v>
+        <v>0.166934</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.194963</v>
+        <v>0.197356</v>
       </c>
       <c r="C79" t="n">
-        <v>0.172828</v>
+        <v>0.173054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.180387</v>
+        <v>0.172745</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.202467</v>
+        <v>0.203477</v>
       </c>
       <c r="C80" t="n">
-        <v>0.176948</v>
+        <v>0.179398</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245422</v>
+        <v>0.230659</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.343374</v>
+        <v>0.342138</v>
       </c>
       <c r="C81" t="n">
-        <v>0.291265</v>
+        <v>0.291624</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242629</v>
+        <v>0.228258</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341628</v>
+        <v>0.345035</v>
       </c>
       <c r="C82" t="n">
-        <v>0.288957</v>
+        <v>0.289507</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24186</v>
+        <v>0.235564</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346151</v>
+        <v>0.340442</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285443</v>
+        <v>0.289488</v>
       </c>
       <c r="D83" t="n">
-        <v>0.243881</v>
+        <v>0.234659</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.344505</v>
+        <v>0.345222</v>
       </c>
       <c r="C84" t="n">
-        <v>0.283961</v>
+        <v>0.28769</v>
       </c>
       <c r="D84" t="n">
-        <v>0.242063</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.343399</v>
+        <v>0.344657</v>
       </c>
       <c r="C85" t="n">
-        <v>0.284148</v>
+        <v>0.289466</v>
       </c>
       <c r="D85" t="n">
-        <v>0.241805</v>
+        <v>0.233797</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34633</v>
+        <v>0.344997</v>
       </c>
       <c r="C86" t="n">
-        <v>0.284486</v>
+        <v>0.285948</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23902</v>
+        <v>0.227937</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.343405</v>
+        <v>0.344896</v>
       </c>
       <c r="C87" t="n">
-        <v>0.282797</v>
+        <v>0.286951</v>
       </c>
       <c r="D87" t="n">
-        <v>0.240476</v>
+        <v>0.232242</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347207</v>
+        <v>0.348842</v>
       </c>
       <c r="C88" t="n">
-        <v>0.279941</v>
+        <v>0.283567</v>
       </c>
       <c r="D88" t="n">
-        <v>0.239653</v>
+        <v>0.230304</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.349708</v>
+        <v>0.347354</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284047</v>
+        <v>0.278696</v>
       </c>
       <c r="D89" t="n">
-        <v>0.238469</v>
+        <v>0.231176</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.35183</v>
+        <v>0.349697</v>
       </c>
       <c r="C90" t="n">
-        <v>0.281349</v>
+        <v>0.283059</v>
       </c>
       <c r="D90" t="n">
-        <v>0.238749</v>
+        <v>0.229125</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353258</v>
+        <v>0.35232</v>
       </c>
       <c r="C91" t="n">
-        <v>0.280211</v>
+        <v>0.282594</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238338</v>
+        <v>0.231256</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356543</v>
+        <v>0.353932</v>
       </c>
       <c r="C92" t="n">
-        <v>0.284265</v>
+        <v>0.280014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.240717</v>
+        <v>0.232497</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.362419</v>
+        <v>0.357413</v>
       </c>
       <c r="C93" t="n">
-        <v>0.285378</v>
+        <v>0.281307</v>
       </c>
       <c r="D93" t="n">
-        <v>0.244791</v>
+        <v>0.232387</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366414</v>
+        <v>0.362005</v>
       </c>
       <c r="C94" t="n">
-        <v>0.287127</v>
+        <v>0.286671</v>
       </c>
       <c r="D94" t="n">
-        <v>0.401012</v>
+        <v>0.394748</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502</v>
+        <v>0.503721</v>
       </c>
       <c r="C95" t="n">
-        <v>0.454788</v>
+        <v>0.45904</v>
       </c>
       <c r="D95" t="n">
-        <v>0.389762</v>
+        <v>0.393943</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.501848</v>
+        <v>0.504211</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452977</v>
+        <v>0.457208</v>
       </c>
       <c r="D96" t="n">
-        <v>0.388092</v>
+        <v>0.39385</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5013649999999999</v>
+        <v>0.50525</v>
       </c>
       <c r="C97" t="n">
-        <v>0.452432</v>
+        <v>0.457607</v>
       </c>
       <c r="D97" t="n">
-        <v>0.398773</v>
+        <v>0.392855</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502545</v>
+        <v>0.505128</v>
       </c>
       <c r="C98" t="n">
-        <v>0.452057</v>
+        <v>0.458276</v>
       </c>
       <c r="D98" t="n">
-        <v>0.387761</v>
+        <v>0.391934</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.50362</v>
+        <v>0.504319</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453021</v>
+        <v>0.456647</v>
       </c>
       <c r="D99" t="n">
-        <v>0.398665</v>
+        <v>0.393452</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.502997</v>
+        <v>0.50496</v>
       </c>
       <c r="C100" t="n">
-        <v>0.439669</v>
+        <v>0.442909</v>
       </c>
       <c r="D100" t="n">
-        <v>0.399084</v>
+        <v>0.380417</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.503927</v>
+        <v>0.505283</v>
       </c>
       <c r="C101" t="n">
-        <v>0.452269</v>
+        <v>0.455264</v>
       </c>
       <c r="D101" t="n">
-        <v>0.387824</v>
+        <v>0.381779</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5062680000000001</v>
+        <v>0.507162</v>
       </c>
       <c r="C102" t="n">
-        <v>0.453085</v>
+        <v>0.455192</v>
       </c>
       <c r="D102" t="n">
-        <v>0.399312</v>
+        <v>0.393428</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.507765</v>
+        <v>0.50906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452572</v>
+        <v>0.455347</v>
       </c>
       <c r="D103" t="n">
-        <v>0.387492</v>
+        <v>0.392948</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.507902</v>
+        <v>0.510095</v>
       </c>
       <c r="C104" t="n">
-        <v>0.454432</v>
+        <v>0.456994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400248</v>
+        <v>0.394617</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510767</v>
+        <v>0.512113</v>
       </c>
       <c r="C105" t="n">
-        <v>0.454945</v>
+        <v>0.457612</v>
       </c>
       <c r="D105" t="n">
-        <v>0.40255</v>
+        <v>0.396194</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513967</v>
+        <v>0.517221</v>
       </c>
       <c r="C106" t="n">
-        <v>0.44445</v>
+        <v>0.446972</v>
       </c>
       <c r="D106" t="n">
-        <v>0.404991</v>
+        <v>0.399276</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.518935</v>
+        <v>0.521961</v>
       </c>
       <c r="C107" t="n">
-        <v>0.460315</v>
+        <v>0.449222</v>
       </c>
       <c r="D107" t="n">
-        <v>0.397905</v>
+        <v>0.403437</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526857</v>
+        <v>0.528672</v>
       </c>
       <c r="C108" t="n">
-        <v>0.465181</v>
+        <v>0.466823</v>
       </c>
       <c r="D108" t="n">
-        <v>0.537735</v>
+        <v>0.529012</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537475</v>
+        <v>0.538803</v>
       </c>
       <c r="C109" t="n">
-        <v>0.472182</v>
+        <v>0.461268</v>
       </c>
       <c r="D109" t="n">
-        <v>0.539716</v>
+        <v>0.532119</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585427</v>
+        <v>0.589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.561388</v>
+        <v>0.567406</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5396</v>
+        <v>0.52198</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585573</v>
+        <v>0.591194</v>
       </c>
       <c r="C111" t="n">
-        <v>0.563917</v>
+        <v>0.568348</v>
       </c>
       <c r="D111" t="n">
-        <v>0.538289</v>
+        <v>0.531128</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5878100000000001</v>
+        <v>0.589459</v>
       </c>
       <c r="C112" t="n">
-        <v>0.562177</v>
+        <v>0.562964</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5352479999999999</v>
+        <v>0.532099</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.587668</v>
+        <v>0.593433</v>
       </c>
       <c r="C113" t="n">
-        <v>0.562283</v>
+        <v>0.569756</v>
       </c>
       <c r="D113" t="n">
-        <v>0.538439</v>
+        <v>0.535117</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.587404</v>
+        <v>0.590655</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5620579999999999</v>
+        <v>0.56899</v>
       </c>
       <c r="D114" t="n">
-        <v>0.54061</v>
+        <v>0.532355</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.588221</v>
+        <v>0.592509</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5588109999999999</v>
+        <v>0.56953</v>
       </c>
       <c r="D115" t="n">
-        <v>0.540614</v>
+        <v>0.5285</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.591514</v>
+        <v>0.594783</v>
       </c>
       <c r="C116" t="n">
-        <v>0.565145</v>
+        <v>0.565402</v>
       </c>
       <c r="D116" t="n">
-        <v>0.541457</v>
+        <v>0.535805</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.592912</v>
+        <v>0.59636</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566574</v>
+        <v>0.566621</v>
       </c>
       <c r="D117" t="n">
-        <v>0.542094</v>
+        <v>0.534229</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.594032</v>
+        <v>0.599684</v>
       </c>
       <c r="C118" t="n">
-        <v>0.568845</v>
+        <v>0.572426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544135</v>
+        <v>0.5398849999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.598472</v>
+        <v>0.604413</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570332</v>
+        <v>0.5747</v>
       </c>
       <c r="D119" t="n">
-        <v>0.547539</v>
+        <v>0.536407</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.602772</v>
+        <v>0.60673</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5742699999999999</v>
+        <v>0.573047</v>
       </c>
       <c r="D120" t="n">
-        <v>0.551719</v>
+        <v>0.544156</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.609753</v>
+        <v>0.6107</v>
       </c>
       <c r="C121" t="n">
-        <v>0.578864</v>
+        <v>0.581101</v>
       </c>
       <c r="D121" t="n">
-        <v>0.550754</v>
+        <v>0.545806</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618542</v>
+        <v>0.621127</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577215</v>
+        <v>0.586934</v>
       </c>
       <c r="D122" t="n">
-        <v>0.561505</v>
+        <v>0.558095</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628439</v>
+        <v>0.6326929999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.592878</v>
+        <v>0.59734</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696184</v>
+        <v>0.69245</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.731949</v>
+        <v>0.734779</v>
       </c>
       <c r="C124" t="n">
-        <v>0.685167</v>
+        <v>0.695334</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6999610000000001</v>
+        <v>0.6912430000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.731135</v>
+        <v>0.737959</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6905210000000001</v>
+        <v>0.692868</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7000459999999999</v>
+        <v>0.693001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.731488</v>
+        <v>0.7363960000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.690244</v>
+        <v>0.6972390000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.699389</v>
+        <v>0.695734</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.732385</v>
+        <v>0.735006</v>
       </c>
       <c r="C127" t="n">
-        <v>0.693316</v>
+        <v>0.693425</v>
       </c>
       <c r="D127" t="n">
-        <v>0.700014</v>
+        <v>0.691601</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734895</v>
+        <v>0.7360640000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.69511</v>
+        <v>0.699373</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7008219999999999</v>
+        <v>0.693779</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.736601</v>
+        <v>0.738001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696588</v>
+        <v>0.702232</v>
       </c>
       <c r="D129" t="n">
-        <v>0.706718</v>
+        <v>0.693877</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7394309999999999</v>
+        <v>0.73988</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69925</v>
+        <v>0.703237</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7028759999999999</v>
+        <v>0.693012</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.739541</v>
+        <v>0.7411219999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.70125</v>
+        <v>0.700009</v>
       </c>
       <c r="D131" t="n">
-        <v>0.705565</v>
+        <v>0.697608</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.741274</v>
+        <v>0.745417</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7031230000000001</v>
+        <v>0.703579</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7074859999999999</v>
+        <v>0.700796</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.746039</v>
+        <v>0.748753</v>
       </c>
       <c r="C133" t="n">
-        <v>0.70714</v>
+        <v>0.711279</v>
       </c>
       <c r="D133" t="n">
-        <v>0.714101</v>
+        <v>0.7039260000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749522</v>
+        <v>0.752758</v>
       </c>
       <c r="C134" t="n">
-        <v>0.70607</v>
+        <v>0.71102</v>
       </c>
       <c r="D134" t="n">
-        <v>0.715788</v>
+        <v>0.70897</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.756238</v>
+        <v>0.760639</v>
       </c>
       <c r="C135" t="n">
-        <v>0.717786</v>
+        <v>0.721577</v>
       </c>
       <c r="D135" t="n">
-        <v>0.719759</v>
+        <v>0.7117560000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.768138</v>
+        <v>0.769881</v>
       </c>
       <c r="C136" t="n">
-        <v>0.723472</v>
+        <v>0.721243</v>
       </c>
       <c r="D136" t="n">
-        <v>0.724706</v>
+        <v>0.718593</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.776336</v>
+        <v>0.7801</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72557</v>
+        <v>0.734954</v>
       </c>
       <c r="D137" t="n">
-        <v>0.834881</v>
+        <v>0.834776</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860825</v>
+        <v>0.86851</v>
       </c>
       <c r="C138" t="n">
-        <v>0.813626</v>
+        <v>0.821958</v>
       </c>
       <c r="D138" t="n">
-        <v>0.835446</v>
+        <v>0.833335</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860231</v>
+        <v>0.867801</v>
       </c>
       <c r="C139" t="n">
-        <v>0.815178</v>
+        <v>0.824522</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833932</v>
+        <v>0.829612</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.860421</v>
+        <v>0.868378</v>
       </c>
       <c r="C140" t="n">
-        <v>0.814713</v>
+        <v>0.821939</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8362270000000001</v>
+        <v>0.83153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.861354</v>
+        <v>0.868947</v>
       </c>
       <c r="C141" t="n">
-        <v>0.819069</v>
+        <v>0.821797</v>
       </c>
       <c r="D141" t="n">
-        <v>0.837448</v>
+        <v>0.832651</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864299</v>
+        <v>0.866364</v>
       </c>
       <c r="C142" t="n">
-        <v>0.820997</v>
+        <v>0.825341</v>
       </c>
       <c r="D142" t="n">
-        <v>0.83748</v>
+        <v>0.833155</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.863967</v>
+        <v>0.867561</v>
       </c>
       <c r="C143" t="n">
-        <v>0.823121</v>
+        <v>0.827284</v>
       </c>
       <c r="D143" t="n">
-        <v>0.839178</v>
+        <v>0.834824</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110988</v>
+        <v>0.11478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100625</v>
+        <v>0.103277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.104443</v>
+        <v>0.105749</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110169</v>
+        <v>0.115441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104116</v>
+        <v>0.104139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104881</v>
+        <v>0.106018</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110377</v>
+        <v>0.115666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100855</v>
+        <v>0.103922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.104757</v>
+        <v>0.105924</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111145</v>
+        <v>0.116396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106044</v>
+        <v>0.104304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10528</v>
+        <v>0.106821</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111362</v>
+        <v>0.117917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101381</v>
+        <v>0.104877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105779</v>
+        <v>0.10718</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113967</v>
+        <v>0.117872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102766</v>
+        <v>0.10499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.107033</v>
+        <v>0.108053</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115545</v>
+        <v>0.120412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106544</v>
+        <v>0.105425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108331</v>
+        <v>0.109741</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118976</v>
+        <v>0.123479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106763</v>
+        <v>0.10675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109847</v>
+        <v>0.109723</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122393</v>
+        <v>0.122716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110426</v>
+        <v>0.110168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110459</v>
+        <v>0.110768</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121884</v>
+        <v>0.121926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.112544</v>
+        <v>0.109711</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110215</v>
+        <v>0.110614</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121291</v>
+        <v>0.121439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.113117</v>
+        <v>0.109872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110617</v>
+        <v>0.111544</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122404</v>
+        <v>0.121696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113797</v>
+        <v>0.110109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.110892</v>
+        <v>0.111578</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122077</v>
+        <v>0.12201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111284</v>
+        <v>0.111957</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111019</v>
+        <v>0.111688</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122313</v>
+        <v>0.122655</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113734</v>
+        <v>0.113407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111712</v>
+        <v>0.11184</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122805</v>
+        <v>0.122656</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111236</v>
+        <v>0.113143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111877</v>
+        <v>0.111854</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123198</v>
+        <v>0.123513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114412</v>
+        <v>0.110831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111983</v>
+        <v>0.11221</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123391</v>
+        <v>0.12355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114264</v>
+        <v>0.111368</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112391</v>
+        <v>0.112741</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124773</v>
+        <v>0.124393</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114863</v>
+        <v>0.114662</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113123</v>
+        <v>0.113036</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125492</v>
+        <v>0.125438</v>
       </c>
       <c r="C20" t="n">
-        <v>0.114632</v>
+        <v>0.113922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.113746</v>
+        <v>0.113484</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127056</v>
+        <v>0.127117</v>
       </c>
       <c r="C21" t="n">
-        <v>0.115275</v>
+        <v>0.114893</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115278</v>
+        <v>0.115396</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132574</v>
+        <v>0.131865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117859</v>
+        <v>0.117916</v>
       </c>
       <c r="D22" t="n">
-        <v>0.121221</v>
+        <v>0.120157</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138688</v>
+        <v>0.138618</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12283</v>
+        <v>0.122655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119737</v>
+        <v>0.119302</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135033</v>
+        <v>0.133202</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124378</v>
+        <v>0.120237</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119378</v>
+        <v>0.119499</v>
       </c>
     </row>
     <row r="25">
@@ -3573,10 +3573,10 @@
         <v>0.133616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122637</v>
+        <v>0.121789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119713</v>
+        <v>0.119293</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133487</v>
+        <v>0.133749</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125101</v>
+        <v>0.120131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119472</v>
+        <v>0.119563</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13372</v>
+        <v>0.135897</v>
       </c>
       <c r="C27" t="n">
-        <v>0.126327</v>
+        <v>0.123456</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120245</v>
+        <v>0.119829</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134858</v>
+        <v>0.13489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.125667</v>
+        <v>0.123087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.120487</v>
+        <v>0.120162</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134746</v>
+        <v>0.135843</v>
       </c>
       <c r="C29" t="n">
-        <v>0.124752</v>
+        <v>0.121163</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120573</v>
+        <v>0.119922</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134769</v>
+        <v>0.135359</v>
       </c>
       <c r="C30" t="n">
-        <v>0.125551</v>
+        <v>0.121836</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120926</v>
+        <v>0.120651</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13502</v>
+        <v>0.136309</v>
       </c>
       <c r="C31" t="n">
-        <v>0.124203</v>
+        <v>0.121652</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12121</v>
+        <v>0.120802</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135776</v>
+        <v>0.135581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125389</v>
+        <v>0.122299</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121922</v>
+        <v>0.12119</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137231</v>
+        <v>0.137355</v>
       </c>
       <c r="C33" t="n">
-        <v>0.127073</v>
+        <v>0.123157</v>
       </c>
       <c r="D33" t="n">
-        <v>0.122247</v>
+        <v>0.121751</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138545</v>
+        <v>0.139097</v>
       </c>
       <c r="C34" t="n">
-        <v>0.127713</v>
+        <v>0.125929</v>
       </c>
       <c r="D34" t="n">
-        <v>0.124346</v>
+        <v>0.123828</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142113</v>
+        <v>0.142006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.12856</v>
+        <v>0.128808</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127849</v>
+        <v>0.127258</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147204</v>
+        <v>0.148931</v>
       </c>
       <c r="C36" t="n">
-        <v>0.135204</v>
+        <v>0.131078</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133936</v>
+        <v>0.133952</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154216</v>
+        <v>0.156043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.138073</v>
+        <v>0.136428</v>
       </c>
       <c r="D37" t="n">
-        <v>0.130326</v>
+        <v>0.128979</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145599</v>
+        <v>0.147778</v>
       </c>
       <c r="C38" t="n">
-        <v>0.134723</v>
+        <v>0.130678</v>
       </c>
       <c r="D38" t="n">
-        <v>0.130787</v>
+        <v>0.131555</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1459</v>
+        <v>0.147751</v>
       </c>
       <c r="C39" t="n">
-        <v>0.134053</v>
+        <v>0.130916</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13197</v>
+        <v>0.131238</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145307</v>
+        <v>0.14621</v>
       </c>
       <c r="C40" t="n">
-        <v>0.134237</v>
+        <v>0.132033</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131707</v>
+        <v>0.131357</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144917</v>
+        <v>0.149411</v>
       </c>
       <c r="C41" t="n">
-        <v>0.135505</v>
+        <v>0.132597</v>
       </c>
       <c r="D41" t="n">
-        <v>0.131421</v>
+        <v>0.132108</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145035</v>
+        <v>0.148221</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135356</v>
+        <v>0.133269</v>
       </c>
       <c r="D42" t="n">
-        <v>0.133104</v>
+        <v>0.132997</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.145607</v>
+        <v>0.150158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135991</v>
+        <v>0.133692</v>
       </c>
       <c r="D43" t="n">
-        <v>0.132968</v>
+        <v>0.132834</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149802</v>
+        <v>0.148974</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135941</v>
+        <v>0.133777</v>
       </c>
       <c r="D44" t="n">
-        <v>0.131333</v>
+        <v>0.133338</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.145867</v>
+        <v>0.150315</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135874</v>
+        <v>0.134193</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132413</v>
+        <v>0.134308</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149293</v>
+        <v>0.150678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136486</v>
+        <v>0.136028</v>
       </c>
       <c r="D46" t="n">
-        <v>0.132262</v>
+        <v>0.134803</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150994</v>
+        <v>0.151509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137487</v>
+        <v>0.136633</v>
       </c>
       <c r="D47" t="n">
-        <v>0.134171</v>
+        <v>0.135881</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154652</v>
+        <v>0.15312</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138822</v>
+        <v>0.139079</v>
       </c>
       <c r="D48" t="n">
-        <v>0.136266</v>
+        <v>0.138849</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156411</v>
+        <v>0.157171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.14209</v>
+        <v>0.141512</v>
       </c>
       <c r="D49" t="n">
-        <v>0.139834</v>
+        <v>0.141569</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.15888</v>
+        <v>0.158929</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144151</v>
+        <v>0.145304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145186</v>
+        <v>0.147917</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166279</v>
+        <v>0.167611</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147894</v>
+        <v>0.148699</v>
       </c>
       <c r="D51" t="n">
-        <v>0.143899</v>
+        <v>0.144611</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174752</v>
+        <v>0.174318</v>
       </c>
       <c r="C52" t="n">
-        <v>0.153454</v>
+        <v>0.154306</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144366</v>
+        <v>0.14441</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158385</v>
+        <v>0.161388</v>
       </c>
       <c r="C53" t="n">
-        <v>0.14611</v>
+        <v>0.141839</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144107</v>
+        <v>0.144536</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160399</v>
+        <v>0.159547</v>
       </c>
       <c r="C54" t="n">
-        <v>0.145973</v>
+        <v>0.142324</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144818</v>
+        <v>0.144744</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159801</v>
+        <v>0.161038</v>
       </c>
       <c r="C55" t="n">
-        <v>0.145966</v>
+        <v>0.143374</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145075</v>
+        <v>0.143428</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159847</v>
+        <v>0.160834</v>
       </c>
       <c r="C56" t="n">
-        <v>0.146524</v>
+        <v>0.143769</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145277</v>
+        <v>0.145292</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160108</v>
+        <v>0.162665</v>
       </c>
       <c r="C57" t="n">
-        <v>0.146598</v>
+        <v>0.14414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144917</v>
+        <v>0.146068</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160696</v>
+        <v>0.162485</v>
       </c>
       <c r="C58" t="n">
-        <v>0.144816</v>
+        <v>0.145535</v>
       </c>
       <c r="D58" t="n">
-        <v>0.145438</v>
+        <v>0.146591</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161407</v>
+        <v>0.161527</v>
       </c>
       <c r="C59" t="n">
-        <v>0.148838</v>
+        <v>0.145936</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146066</v>
+        <v>0.146989</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163068</v>
+        <v>0.163003</v>
       </c>
       <c r="C60" t="n">
-        <v>0.148313</v>
+        <v>0.147197</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147367</v>
+        <v>0.147773</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165426</v>
+        <v>0.165582</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149256</v>
+        <v>0.150254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.14853</v>
+        <v>0.149073</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16743</v>
+        <v>0.167839</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150934</v>
+        <v>0.149834</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150988</v>
+        <v>0.151864</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170491</v>
+        <v>0.16988</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152597</v>
+        <v>0.152435</v>
       </c>
       <c r="D63" t="n">
-        <v>0.15353</v>
+        <v>0.15421</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17391</v>
+        <v>0.173804</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155341</v>
+        <v>0.154758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157149</v>
+        <v>0.158774</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179353</v>
+        <v>0.181777</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158852</v>
+        <v>0.158747</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16329</v>
+        <v>0.164838</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188114</v>
+        <v>0.188738</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165164</v>
+        <v>0.163339</v>
       </c>
       <c r="D66" t="n">
-        <v>0.153616</v>
+        <v>0.155682</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.17911</v>
+        <v>0.178519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.163722</v>
+        <v>0.158712</v>
       </c>
       <c r="D67" t="n">
-        <v>0.154782</v>
+        <v>0.154574</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.178904</v>
+        <v>0.182147</v>
       </c>
       <c r="C68" t="n">
-        <v>0.162957</v>
+        <v>0.164049</v>
       </c>
       <c r="D68" t="n">
-        <v>0.154159</v>
+        <v>0.156297</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.17695</v>
+        <v>0.184583</v>
       </c>
       <c r="C69" t="n">
-        <v>0.163448</v>
+        <v>0.162358</v>
       </c>
       <c r="D69" t="n">
-        <v>0.155037</v>
+        <v>0.155657</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181927</v>
+        <v>0.184779</v>
       </c>
       <c r="C70" t="n">
-        <v>0.162521</v>
+        <v>0.161059</v>
       </c>
       <c r="D70" t="n">
-        <v>0.155321</v>
+        <v>0.156479</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181813</v>
+        <v>0.182398</v>
       </c>
       <c r="C71" t="n">
-        <v>0.163036</v>
+        <v>0.161277</v>
       </c>
       <c r="D71" t="n">
-        <v>0.155843</v>
+        <v>0.156345</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.181053</v>
+        <v>0.180751</v>
       </c>
       <c r="C72" t="n">
-        <v>0.164051</v>
+        <v>0.16298</v>
       </c>
       <c r="D72" t="n">
-        <v>0.155918</v>
+        <v>0.15724</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180066</v>
+        <v>0.186047</v>
       </c>
       <c r="C73" t="n">
-        <v>0.162794</v>
+        <v>0.164382</v>
       </c>
       <c r="D73" t="n">
-        <v>0.156786</v>
+        <v>0.157926</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.180748</v>
+        <v>0.184103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16319</v>
+        <v>0.163812</v>
       </c>
       <c r="D74" t="n">
-        <v>0.157428</v>
+        <v>0.159058</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.180636</v>
+        <v>0.184986</v>
       </c>
       <c r="C75" t="n">
-        <v>0.165728</v>
+        <v>0.1652</v>
       </c>
       <c r="D75" t="n">
-        <v>0.158119</v>
+        <v>0.160168</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186297</v>
+        <v>0.184886</v>
       </c>
       <c r="C76" t="n">
-        <v>0.168226</v>
+        <v>0.165575</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161014</v>
+        <v>0.161187</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187892</v>
+        <v>0.187971</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170099</v>
+        <v>0.166732</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163466</v>
+        <v>0.163831</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.190489</v>
+        <v>0.191842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171306</v>
+        <v>0.1698</v>
       </c>
       <c r="D78" t="n">
-        <v>0.166934</v>
+        <v>0.16702</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197356</v>
+        <v>0.201411</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173054</v>
+        <v>0.175574</v>
       </c>
       <c r="D79" t="n">
-        <v>0.172745</v>
+        <v>0.17368</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.203477</v>
+        <v>0.206899</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179398</v>
+        <v>0.179761</v>
       </c>
       <c r="D80" t="n">
-        <v>0.230659</v>
+        <v>0.234984</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342138</v>
+        <v>0.343067</v>
       </c>
       <c r="C81" t="n">
-        <v>0.291624</v>
+        <v>0.289263</v>
       </c>
       <c r="D81" t="n">
-        <v>0.228258</v>
+        <v>0.238129</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345035</v>
+        <v>0.344917</v>
       </c>
       <c r="C82" t="n">
-        <v>0.289507</v>
+        <v>0.29124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.235564</v>
+        <v>0.237402</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340442</v>
+        <v>0.345823</v>
       </c>
       <c r="C83" t="n">
-        <v>0.289488</v>
+        <v>0.289557</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234659</v>
+        <v>0.235575</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.345222</v>
+        <v>0.344805</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28769</v>
+        <v>0.288415</v>
       </c>
       <c r="D84" t="n">
-        <v>0.234375</v>
+        <v>0.233083</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.344657</v>
+        <v>0.348324</v>
       </c>
       <c r="C85" t="n">
-        <v>0.289466</v>
+        <v>0.287509</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233797</v>
+        <v>0.233282</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.344997</v>
+        <v>0.349739</v>
       </c>
       <c r="C86" t="n">
-        <v>0.285948</v>
+        <v>0.283843</v>
       </c>
       <c r="D86" t="n">
-        <v>0.227937</v>
+        <v>0.23435</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.344896</v>
+        <v>0.350207</v>
       </c>
       <c r="C87" t="n">
-        <v>0.286951</v>
+        <v>0.282254</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232242</v>
+        <v>0.232228</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348842</v>
+        <v>0.347719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283567</v>
+        <v>0.283166</v>
       </c>
       <c r="D88" t="n">
-        <v>0.230304</v>
+        <v>0.230574</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.347354</v>
+        <v>0.351185</v>
       </c>
       <c r="C89" t="n">
-        <v>0.278696</v>
+        <v>0.283969</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231176</v>
+        <v>0.231728</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.349697</v>
+        <v>0.351672</v>
       </c>
       <c r="C90" t="n">
-        <v>0.283059</v>
+        <v>0.279948</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229125</v>
+        <v>0.230555</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.35232</v>
+        <v>0.354299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.282594</v>
+        <v>0.28266</v>
       </c>
       <c r="D91" t="n">
-        <v>0.231256</v>
+        <v>0.232625</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.353932</v>
+        <v>0.355691</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280014</v>
+        <v>0.281795</v>
       </c>
       <c r="D92" t="n">
-        <v>0.232497</v>
+        <v>0.233717</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.357413</v>
+        <v>0.363062</v>
       </c>
       <c r="C93" t="n">
-        <v>0.281307</v>
+        <v>0.285526</v>
       </c>
       <c r="D93" t="n">
-        <v>0.232387</v>
+        <v>0.23803</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362005</v>
+        <v>0.366584</v>
       </c>
       <c r="C94" t="n">
-        <v>0.286671</v>
+        <v>0.286225</v>
       </c>
       <c r="D94" t="n">
-        <v>0.394748</v>
+        <v>0.393822</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.503721</v>
+        <v>0.502362</v>
       </c>
       <c r="C95" t="n">
-        <v>0.45904</v>
+        <v>0.444086</v>
       </c>
       <c r="D95" t="n">
-        <v>0.393943</v>
+        <v>0.394899</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504211</v>
+        <v>0.502183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457208</v>
+        <v>0.443395</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39385</v>
+        <v>0.394337</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.50525</v>
+        <v>0.502329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.457607</v>
+        <v>0.454467</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392855</v>
+        <v>0.392609</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505128</v>
+        <v>0.502703</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458276</v>
+        <v>0.45299</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391934</v>
+        <v>0.391332</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.504319</v>
+        <v>0.502712</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456647</v>
+        <v>0.453025</v>
       </c>
       <c r="D99" t="n">
-        <v>0.393452</v>
+        <v>0.391833</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50496</v>
+        <v>0.503647</v>
       </c>
       <c r="C100" t="n">
-        <v>0.442909</v>
+        <v>0.452516</v>
       </c>
       <c r="D100" t="n">
-        <v>0.380417</v>
+        <v>0.378461</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.505283</v>
+        <v>0.504499</v>
       </c>
       <c r="C101" t="n">
-        <v>0.455264</v>
+        <v>0.452848</v>
       </c>
       <c r="D101" t="n">
-        <v>0.381779</v>
+        <v>0.391565</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.507162</v>
+        <v>0.506186</v>
       </c>
       <c r="C102" t="n">
-        <v>0.455192</v>
+        <v>0.452859</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393428</v>
+        <v>0.381076</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.50906</v>
+        <v>0.506802</v>
       </c>
       <c r="C103" t="n">
-        <v>0.455347</v>
+        <v>0.452335</v>
       </c>
       <c r="D103" t="n">
-        <v>0.392948</v>
+        <v>0.382208</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.510095</v>
+        <v>0.50834</v>
       </c>
       <c r="C104" t="n">
-        <v>0.456994</v>
+        <v>0.45392</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394617</v>
+        <v>0.394395</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.512113</v>
+        <v>0.511342</v>
       </c>
       <c r="C105" t="n">
-        <v>0.457612</v>
+        <v>0.444954</v>
       </c>
       <c r="D105" t="n">
-        <v>0.396194</v>
+        <v>0.384444</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.517221</v>
+        <v>0.514669</v>
       </c>
       <c r="C106" t="n">
-        <v>0.446972</v>
+        <v>0.456811</v>
       </c>
       <c r="D106" t="n">
-        <v>0.399276</v>
+        <v>0.39882</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.521961</v>
+        <v>0.5188199999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.449222</v>
+        <v>0.446766</v>
       </c>
       <c r="D107" t="n">
-        <v>0.403437</v>
+        <v>0.402886</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.528672</v>
+        <v>0.526883</v>
       </c>
       <c r="C108" t="n">
-        <v>0.466823</v>
+        <v>0.464707</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529012</v>
+        <v>0.528934</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.538803</v>
+        <v>0.537856</v>
       </c>
       <c r="C109" t="n">
-        <v>0.461268</v>
+        <v>0.472407</v>
       </c>
       <c r="D109" t="n">
-        <v>0.532119</v>
+        <v>0.528772</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.589</v>
+        <v>0.589376</v>
       </c>
       <c r="C110" t="n">
-        <v>0.567406</v>
+        <v>0.564011</v>
       </c>
       <c r="D110" t="n">
-        <v>0.52198</v>
+        <v>0.531212</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.591194</v>
+        <v>0.588673</v>
       </c>
       <c r="C111" t="n">
-        <v>0.568348</v>
+        <v>0.563134</v>
       </c>
       <c r="D111" t="n">
-        <v>0.531128</v>
+        <v>0.530235</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.589459</v>
+        <v>0.587867</v>
       </c>
       <c r="C112" t="n">
-        <v>0.562964</v>
+        <v>0.563445</v>
       </c>
       <c r="D112" t="n">
-        <v>0.532099</v>
+        <v>0.525618</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.593433</v>
+        <v>0.587858</v>
       </c>
       <c r="C113" t="n">
-        <v>0.569756</v>
+        <v>0.563134</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535117</v>
+        <v>0.52573</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590655</v>
+        <v>0.586411</v>
       </c>
       <c r="C114" t="n">
-        <v>0.56899</v>
+        <v>0.5631350000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.532355</v>
+        <v>0.531708</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592509</v>
+        <v>0.589885</v>
       </c>
       <c r="C115" t="n">
-        <v>0.56953</v>
+        <v>0.557829</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5285</v>
+        <v>0.5254799999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.594783</v>
+        <v>0.5898060000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.565402</v>
+        <v>0.560588</v>
       </c>
       <c r="D116" t="n">
-        <v>0.535805</v>
+        <v>0.534031</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.59636</v>
+        <v>0.5912809999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566621</v>
+        <v>0.567298</v>
       </c>
       <c r="D117" t="n">
-        <v>0.534229</v>
+        <v>0.535313</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.599684</v>
+        <v>0.597036</v>
       </c>
       <c r="C118" t="n">
-        <v>0.572426</v>
+        <v>0.57128</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5398849999999999</v>
+        <v>0.539639</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.604413</v>
+        <v>0.599313</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5747</v>
+        <v>0.57235</v>
       </c>
       <c r="D119" t="n">
-        <v>0.536407</v>
+        <v>0.5393</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.60673</v>
+        <v>0.608097</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573047</v>
+        <v>0.575532</v>
       </c>
       <c r="D120" t="n">
-        <v>0.544156</v>
+        <v>0.537322</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6107</v>
+        <v>0.610533</v>
       </c>
       <c r="C121" t="n">
-        <v>0.581101</v>
+        <v>0.574213</v>
       </c>
       <c r="D121" t="n">
-        <v>0.545806</v>
+        <v>0.548496</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621127</v>
+        <v>0.618495</v>
       </c>
       <c r="C122" t="n">
-        <v>0.586934</v>
+        <v>0.578992</v>
       </c>
       <c r="D122" t="n">
-        <v>0.558095</v>
+        <v>0.55572</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6326929999999999</v>
+        <v>0.629291</v>
       </c>
       <c r="C123" t="n">
-        <v>0.59734</v>
+        <v>0.587789</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69245</v>
+        <v>0.68691</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.734779</v>
+        <v>0.7314659999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.695334</v>
+        <v>0.691511</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6912430000000001</v>
+        <v>0.689726</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.737959</v>
+        <v>0.731887</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692868</v>
+        <v>0.692003</v>
       </c>
       <c r="D125" t="n">
-        <v>0.693001</v>
+        <v>0.68938</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7363960000000001</v>
+        <v>0.733788</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6972390000000001</v>
+        <v>0.692459</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695734</v>
+        <v>0.688701</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.735006</v>
+        <v>0.732784</v>
       </c>
       <c r="C127" t="n">
-        <v>0.693425</v>
+        <v>0.694076</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691601</v>
+        <v>0.691483</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7360640000000001</v>
+        <v>0.732994</v>
       </c>
       <c r="C128" t="n">
-        <v>0.699373</v>
+        <v>0.695681</v>
       </c>
       <c r="D128" t="n">
-        <v>0.693779</v>
+        <v>0.692562</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.738001</v>
+        <v>0.735892</v>
       </c>
       <c r="C129" t="n">
-        <v>0.702232</v>
+        <v>0.696417</v>
       </c>
       <c r="D129" t="n">
-        <v>0.693877</v>
+        <v>0.694349</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.73988</v>
+        <v>0.737409</v>
       </c>
       <c r="C130" t="n">
-        <v>0.703237</v>
+        <v>0.699066</v>
       </c>
       <c r="D130" t="n">
-        <v>0.693012</v>
+        <v>0.69249</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7411219999999999</v>
+        <v>0.741008</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700009</v>
+        <v>0.700646</v>
       </c>
       <c r="D131" t="n">
-        <v>0.697608</v>
+        <v>0.694767</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.745417</v>
+        <v>0.742611</v>
       </c>
       <c r="C132" t="n">
-        <v>0.703579</v>
+        <v>0.705004</v>
       </c>
       <c r="D132" t="n">
-        <v>0.700796</v>
+        <v>0.694679</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.748753</v>
+        <v>0.747074</v>
       </c>
       <c r="C133" t="n">
-        <v>0.711279</v>
+        <v>0.703109</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7039260000000001</v>
+        <v>0.700217</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.752758</v>
+        <v>0.749835</v>
       </c>
       <c r="C134" t="n">
-        <v>0.71102</v>
+        <v>0.70446</v>
       </c>
       <c r="D134" t="n">
-        <v>0.70897</v>
+        <v>0.701364</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.760639</v>
+        <v>0.758929</v>
       </c>
       <c r="C135" t="n">
-        <v>0.721577</v>
+        <v>0.716076</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7117560000000001</v>
+        <v>0.71033</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.769881</v>
+        <v>0.767029</v>
       </c>
       <c r="C136" t="n">
-        <v>0.721243</v>
+        <v>0.71846</v>
       </c>
       <c r="D136" t="n">
-        <v>0.718593</v>
+        <v>0.715595</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7801</v>
+        <v>0.778435</v>
       </c>
       <c r="C137" t="n">
-        <v>0.734954</v>
+        <v>0.731168</v>
       </c>
       <c r="D137" t="n">
-        <v>0.834776</v>
+        <v>0.82825</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.86851</v>
+        <v>0.860537</v>
       </c>
       <c r="C138" t="n">
-        <v>0.821958</v>
+        <v>0.815181</v>
       </c>
       <c r="D138" t="n">
-        <v>0.833335</v>
+        <v>0.826623</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.867801</v>
+        <v>0.860522</v>
       </c>
       <c r="C139" t="n">
-        <v>0.824522</v>
+        <v>0.814229</v>
       </c>
       <c r="D139" t="n">
-        <v>0.829612</v>
+        <v>0.827416</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.868378</v>
+        <v>0.860551</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821939</v>
+        <v>0.8160770000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.83153</v>
+        <v>0.828058</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.868947</v>
+        <v>0.860782</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821797</v>
+        <v>0.818995</v>
       </c>
       <c r="D141" t="n">
-        <v>0.832651</v>
+        <v>0.829416</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.866364</v>
+        <v>0.862574</v>
       </c>
       <c r="C142" t="n">
-        <v>0.825341</v>
+        <v>0.8204129999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.833155</v>
+        <v>0.830881</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867561</v>
+        <v>0.862784</v>
       </c>
       <c r="C143" t="n">
-        <v>0.827284</v>
+        <v>0.821921</v>
       </c>
       <c r="D143" t="n">
-        <v>0.834824</v>
+        <v>0.829202</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11478</v>
+        <v>0.110034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103277</v>
+        <v>0.100296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105749</v>
+        <v>0.104358</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115441</v>
+        <v>0.110324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104139</v>
+        <v>0.10051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106018</v>
+        <v>0.104397</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115666</v>
+        <v>0.110617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103922</v>
+        <v>0.101337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105924</v>
+        <v>0.104707</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116396</v>
+        <v>0.11104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104304</v>
+        <v>0.10099</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106821</v>
+        <v>0.105345</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117917</v>
+        <v>0.111402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104877</v>
+        <v>0.101036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.10718</v>
+        <v>0.105764</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117872</v>
+        <v>0.112436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10499</v>
+        <v>0.101459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108053</v>
+        <v>0.106653</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120412</v>
+        <v>0.114407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105425</v>
+        <v>0.102139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109741</v>
+        <v>0.108017</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.123479</v>
+        <v>0.118423</v>
       </c>
       <c r="C9" t="n">
-        <v>0.10675</v>
+        <v>0.107409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.109723</v>
+        <v>0.10999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122716</v>
+        <v>0.120894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110168</v>
+        <v>0.110306</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110768</v>
+        <v>0.110833</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121926</v>
+        <v>0.120746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.109711</v>
+        <v>0.1124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110614</v>
+        <v>0.110597</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121439</v>
+        <v>0.120938</v>
       </c>
       <c r="C12" t="n">
-        <v>0.109872</v>
+        <v>0.110058</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111544</v>
+        <v>0.110308</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121696</v>
+        <v>0.121187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.110109</v>
+        <v>0.110411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111578</v>
+        <v>0.111105</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.12201</v>
+        <v>0.121171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111957</v>
+        <v>0.110534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.111688</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122655</v>
+        <v>0.122847</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113407</v>
+        <v>0.110724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11184</v>
+        <v>0.111737</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122656</v>
+        <v>0.122925</v>
       </c>
       <c r="C16" t="n">
-        <v>0.113143</v>
+        <v>0.110769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111854</v>
+        <v>0.111464</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123513</v>
+        <v>0.123986</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110831</v>
+        <v>0.111775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11221</v>
+        <v>0.112223</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12355</v>
+        <v>0.124617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.111368</v>
+        <v>0.111676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112741</v>
+        <v>0.112434</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124393</v>
+        <v>0.124538</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114662</v>
+        <v>0.112127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113036</v>
+        <v>0.113763</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125438</v>
+        <v>0.125685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113922</v>
+        <v>0.112663</v>
       </c>
       <c r="D20" t="n">
-        <v>0.113484</v>
+        <v>0.114197</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127117</v>
+        <v>0.127949</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114893</v>
+        <v>0.113215</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115396</v>
+        <v>0.115394</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131865</v>
+        <v>0.131357</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117916</v>
+        <v>0.116532</v>
       </c>
       <c r="D22" t="n">
-        <v>0.120157</v>
+        <v>0.119764</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138618</v>
+        <v>0.138772</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122655</v>
+        <v>0.121144</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119302</v>
+        <v>0.119241</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133202</v>
+        <v>0.132983</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120237</v>
+        <v>0.122726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119499</v>
+        <v>0.119132</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133616</v>
+        <v>0.133403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121789</v>
+        <v>0.122927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119293</v>
+        <v>0.119837</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133749</v>
+        <v>0.133899</v>
       </c>
       <c r="C26" t="n">
-        <v>0.120131</v>
+        <v>0.122672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119563</v>
+        <v>0.119797</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135897</v>
+        <v>0.134091</v>
       </c>
       <c r="C27" t="n">
-        <v>0.123456</v>
+        <v>0.12288</v>
       </c>
       <c r="D27" t="n">
-        <v>0.119829</v>
+        <v>0.120074</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.13489</v>
+        <v>0.134454</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123087</v>
+        <v>0.124595</v>
       </c>
       <c r="D28" t="n">
-        <v>0.120162</v>
+        <v>0.120172</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135843</v>
+        <v>0.135566</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121163</v>
+        <v>0.122985</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119922</v>
+        <v>0.120272</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135359</v>
+        <v>0.134688</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121836</v>
+        <v>0.124074</v>
       </c>
       <c r="D30" t="n">
-        <v>0.120651</v>
+        <v>0.12032</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136309</v>
+        <v>0.135085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.121652</v>
+        <v>0.123562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120802</v>
+        <v>0.120884</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135581</v>
+        <v>0.135651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.122299</v>
+        <v>0.1249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12119</v>
+        <v>0.121331</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137355</v>
+        <v>0.137566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123157</v>
+        <v>0.12702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121751</v>
+        <v>0.121838</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139097</v>
+        <v>0.13925</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125929</v>
+        <v>0.125364</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123828</v>
+        <v>0.126107</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142006</v>
+        <v>0.142862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128808</v>
+        <v>0.129448</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127258</v>
+        <v>0.127508</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148931</v>
+        <v>0.147841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131078</v>
+        <v>0.13377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133952</v>
+        <v>0.133969</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.156043</v>
+        <v>0.154875</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136428</v>
+        <v>0.13781</v>
       </c>
       <c r="D37" t="n">
-        <v>0.128979</v>
+        <v>0.131114</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147778</v>
+        <v>0.145103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.130678</v>
+        <v>0.133975</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131555</v>
+        <v>0.131619</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147751</v>
+        <v>0.144648</v>
       </c>
       <c r="C39" t="n">
-        <v>0.130916</v>
+        <v>0.134424</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131238</v>
+        <v>0.131614</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14621</v>
+        <v>0.145423</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132033</v>
+        <v>0.135912</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131357</v>
+        <v>0.131424</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149411</v>
+        <v>0.146076</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132597</v>
+        <v>0.134494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132108</v>
+        <v>0.13178</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148221</v>
+        <v>0.146023</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133269</v>
+        <v>0.135087</v>
       </c>
       <c r="D42" t="n">
-        <v>0.132997</v>
+        <v>0.132478</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150158</v>
+        <v>0.147918</v>
       </c>
       <c r="C43" t="n">
-        <v>0.133692</v>
+        <v>0.135097</v>
       </c>
       <c r="D43" t="n">
-        <v>0.132834</v>
+        <v>0.133738</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148974</v>
+        <v>0.146699</v>
       </c>
       <c r="C44" t="n">
-        <v>0.133777</v>
+        <v>0.135232</v>
       </c>
       <c r="D44" t="n">
-        <v>0.133338</v>
+        <v>0.132541</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.150315</v>
+        <v>0.147816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.134193</v>
+        <v>0.135118</v>
       </c>
       <c r="D45" t="n">
-        <v>0.134308</v>
+        <v>0.132348</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.150678</v>
+        <v>0.148624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136028</v>
+        <v>0.136587</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134803</v>
+        <v>0.134171</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151509</v>
+        <v>0.14981</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136633</v>
+        <v>0.138776</v>
       </c>
       <c r="D47" t="n">
-        <v>0.135881</v>
+        <v>0.136275</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15312</v>
+        <v>0.153648</v>
       </c>
       <c r="C48" t="n">
-        <v>0.139079</v>
+        <v>0.140855</v>
       </c>
       <c r="D48" t="n">
-        <v>0.138849</v>
+        <v>0.137696</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157171</v>
+        <v>0.155956</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141512</v>
+        <v>0.142119</v>
       </c>
       <c r="D49" t="n">
-        <v>0.141569</v>
+        <v>0.140656</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.158929</v>
+        <v>0.160125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.145304</v>
+        <v>0.143667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.147917</v>
+        <v>0.145125</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167611</v>
+        <v>0.168577</v>
       </c>
       <c r="C51" t="n">
-        <v>0.148699</v>
+        <v>0.148608</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144611</v>
+        <v>0.144907</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174318</v>
+        <v>0.173639</v>
       </c>
       <c r="C52" t="n">
-        <v>0.154306</v>
+        <v>0.156139</v>
       </c>
       <c r="D52" t="n">
-        <v>0.14441</v>
+        <v>0.144903</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161388</v>
+        <v>0.158898</v>
       </c>
       <c r="C53" t="n">
-        <v>0.141839</v>
+        <v>0.145896</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144536</v>
+        <v>0.144962</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159547</v>
+        <v>0.159828</v>
       </c>
       <c r="C54" t="n">
-        <v>0.142324</v>
+        <v>0.14638</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144744</v>
+        <v>0.1448</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161038</v>
+        <v>0.159842</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143374</v>
+        <v>0.147013</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143428</v>
+        <v>0.145057</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160834</v>
+        <v>0.160491</v>
       </c>
       <c r="C56" t="n">
-        <v>0.143769</v>
+        <v>0.14639</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145292</v>
+        <v>0.145414</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162665</v>
+        <v>0.160526</v>
       </c>
       <c r="C57" t="n">
-        <v>0.14414</v>
+        <v>0.147045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.146068</v>
+        <v>0.145772</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162485</v>
+        <v>0.161505</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145535</v>
+        <v>0.147058</v>
       </c>
       <c r="D58" t="n">
-        <v>0.146591</v>
+        <v>0.145729</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161527</v>
+        <v>0.162785</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145936</v>
+        <v>0.148398</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146989</v>
+        <v>0.146835</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163003</v>
+        <v>0.16311</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147197</v>
+        <v>0.150613</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147773</v>
+        <v>0.147463</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165582</v>
+        <v>0.164503</v>
       </c>
       <c r="C61" t="n">
-        <v>0.150254</v>
+        <v>0.151042</v>
       </c>
       <c r="D61" t="n">
-        <v>0.149073</v>
+        <v>0.148937</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167839</v>
+        <v>0.167041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149834</v>
+        <v>0.151129</v>
       </c>
       <c r="D62" t="n">
-        <v>0.151864</v>
+        <v>0.151272</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.16988</v>
+        <v>0.169973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152435</v>
+        <v>0.153793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.15421</v>
+        <v>0.153499</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173804</v>
+        <v>0.17469</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154758</v>
+        <v>0.157423</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158774</v>
+        <v>0.157418</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181777</v>
+        <v>0.178156</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158747</v>
+        <v>0.158444</v>
       </c>
       <c r="D65" t="n">
-        <v>0.164838</v>
+        <v>0.163419</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188738</v>
+        <v>0.188928</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163339</v>
+        <v>0.165253</v>
       </c>
       <c r="D66" t="n">
-        <v>0.155682</v>
+        <v>0.153816</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178519</v>
+        <v>0.181115</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158712</v>
+        <v>0.161923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.154574</v>
+        <v>0.155452</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182147</v>
+        <v>0.180785</v>
       </c>
       <c r="C68" t="n">
-        <v>0.164049</v>
+        <v>0.164695</v>
       </c>
       <c r="D68" t="n">
-        <v>0.156297</v>
+        <v>0.154905</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.184583</v>
+        <v>0.179844</v>
       </c>
       <c r="C69" t="n">
-        <v>0.162358</v>
+        <v>0.16199</v>
       </c>
       <c r="D69" t="n">
-        <v>0.155657</v>
+        <v>0.155666</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.184779</v>
+        <v>0.17819</v>
       </c>
       <c r="C70" t="n">
-        <v>0.161059</v>
+        <v>0.163082</v>
       </c>
       <c r="D70" t="n">
-        <v>0.156479</v>
+        <v>0.155756</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182398</v>
+        <v>0.180214</v>
       </c>
       <c r="C71" t="n">
-        <v>0.161277</v>
+        <v>0.165059</v>
       </c>
       <c r="D71" t="n">
-        <v>0.156345</v>
+        <v>0.155923</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180751</v>
+        <v>0.186437</v>
       </c>
       <c r="C72" t="n">
-        <v>0.16298</v>
+        <v>0.167013</v>
       </c>
       <c r="D72" t="n">
-        <v>0.15724</v>
+        <v>0.156933</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.186047</v>
+        <v>0.186562</v>
       </c>
       <c r="C73" t="n">
-        <v>0.164382</v>
+        <v>0.163026</v>
       </c>
       <c r="D73" t="n">
-        <v>0.157926</v>
+        <v>0.157105</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.184103</v>
+        <v>0.181168</v>
       </c>
       <c r="C74" t="n">
-        <v>0.163812</v>
+        <v>0.165974</v>
       </c>
       <c r="D74" t="n">
-        <v>0.159058</v>
+        <v>0.158499</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.184986</v>
+        <v>0.183873</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1652</v>
+        <v>0.166175</v>
       </c>
       <c r="D75" t="n">
-        <v>0.160168</v>
+        <v>0.159315</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184886</v>
+        <v>0.186769</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165575</v>
+        <v>0.167538</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161187</v>
+        <v>0.161682</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187971</v>
+        <v>0.19105</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166732</v>
+        <v>0.169151</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163831</v>
+        <v>0.163532</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191842</v>
+        <v>0.193708</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1698</v>
+        <v>0.169663</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16702</v>
+        <v>0.166971</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.201411</v>
+        <v>0.198158</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175574</v>
+        <v>0.175746</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17368</v>
+        <v>0.173064</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206899</v>
+        <v>0.206728</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179761</v>
+        <v>0.180988</v>
       </c>
       <c r="D80" t="n">
-        <v>0.234984</v>
+        <v>0.237242</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.343067</v>
+        <v>0.345153</v>
       </c>
       <c r="C81" t="n">
-        <v>0.289263</v>
+        <v>0.294775</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238129</v>
+        <v>0.236313</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344917</v>
+        <v>0.3477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.29124</v>
+        <v>0.295449</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237402</v>
+        <v>0.237435</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345823</v>
+        <v>0.346978</v>
       </c>
       <c r="C83" t="n">
-        <v>0.289557</v>
+        <v>0.293096</v>
       </c>
       <c r="D83" t="n">
-        <v>0.235575</v>
+        <v>0.23849</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.344805</v>
+        <v>0.3468</v>
       </c>
       <c r="C84" t="n">
-        <v>0.288415</v>
+        <v>0.293763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.233083</v>
+        <v>0.235993</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.348324</v>
+        <v>0.349042</v>
       </c>
       <c r="C85" t="n">
-        <v>0.287509</v>
+        <v>0.292414</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233282</v>
+        <v>0.236466</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.349739</v>
+        <v>0.348543</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283843</v>
+        <v>0.290747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23435</v>
+        <v>0.233106</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.350207</v>
+        <v>0.353342</v>
       </c>
       <c r="C87" t="n">
-        <v>0.282254</v>
+        <v>0.290373</v>
       </c>
       <c r="D87" t="n">
-        <v>0.232228</v>
+        <v>0.235652</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347719</v>
+        <v>0.354406</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283166</v>
+        <v>0.285554</v>
       </c>
       <c r="D88" t="n">
-        <v>0.230574</v>
+        <v>0.235599</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.351185</v>
+        <v>0.352913</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283969</v>
+        <v>0.287876</v>
       </c>
       <c r="D89" t="n">
-        <v>0.231728</v>
+        <v>0.232671</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.351672</v>
+        <v>0.353176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279948</v>
+        <v>0.284112</v>
       </c>
       <c r="D90" t="n">
-        <v>0.230555</v>
+        <v>0.230911</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.354299</v>
+        <v>0.353344</v>
       </c>
       <c r="C91" t="n">
-        <v>0.28266</v>
+        <v>0.285273</v>
       </c>
       <c r="D91" t="n">
-        <v>0.232625</v>
+        <v>0.233077</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355691</v>
+        <v>0.359234</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281795</v>
+        <v>0.285744</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233717</v>
+        <v>0.233086</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.363062</v>
+        <v>0.362377</v>
       </c>
       <c r="C93" t="n">
-        <v>0.285526</v>
+        <v>0.283462</v>
       </c>
       <c r="D93" t="n">
-        <v>0.23803</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366584</v>
+        <v>0.365805</v>
       </c>
       <c r="C94" t="n">
-        <v>0.286225</v>
+        <v>0.286252</v>
       </c>
       <c r="D94" t="n">
-        <v>0.393822</v>
+        <v>0.385466</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502362</v>
+        <v>0.502409</v>
       </c>
       <c r="C95" t="n">
-        <v>0.444086</v>
+        <v>0.457968</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394899</v>
+        <v>0.385484</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502183</v>
+        <v>0.5020790000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.443395</v>
+        <v>0.448186</v>
       </c>
       <c r="D96" t="n">
-        <v>0.394337</v>
+        <v>0.392363</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.502329</v>
+        <v>0.50261</v>
       </c>
       <c r="C97" t="n">
-        <v>0.454467</v>
+        <v>0.447556</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392609</v>
+        <v>0.394303</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502703</v>
+        <v>0.503723</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45299</v>
+        <v>0.455474</v>
       </c>
       <c r="D98" t="n">
-        <v>0.391332</v>
+        <v>0.380711</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.502712</v>
+        <v>0.503417</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453025</v>
+        <v>0.454935</v>
       </c>
       <c r="D99" t="n">
-        <v>0.391833</v>
+        <v>0.38369</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503647</v>
+        <v>0.50399</v>
       </c>
       <c r="C100" t="n">
-        <v>0.452516</v>
+        <v>0.454979</v>
       </c>
       <c r="D100" t="n">
-        <v>0.378461</v>
+        <v>0.385329</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504499</v>
+        <v>0.504399</v>
       </c>
       <c r="C101" t="n">
-        <v>0.452848</v>
+        <v>0.445729</v>
       </c>
       <c r="D101" t="n">
-        <v>0.391565</v>
+        <v>0.392414</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.506186</v>
+        <v>0.504956</v>
       </c>
       <c r="C102" t="n">
-        <v>0.452859</v>
+        <v>0.454255</v>
       </c>
       <c r="D102" t="n">
-        <v>0.381076</v>
+        <v>0.392734</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506802</v>
+        <v>0.507116</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452335</v>
+        <v>0.455068</v>
       </c>
       <c r="D103" t="n">
-        <v>0.382208</v>
+        <v>0.393809</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50834</v>
+        <v>0.509036</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45392</v>
+        <v>0.456153</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394395</v>
+        <v>0.385166</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511342</v>
+        <v>0.512348</v>
       </c>
       <c r="C105" t="n">
-        <v>0.444954</v>
+        <v>0.457253</v>
       </c>
       <c r="D105" t="n">
-        <v>0.384444</v>
+        <v>0.395205</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514669</v>
+        <v>0.515054</v>
       </c>
       <c r="C106" t="n">
-        <v>0.456811</v>
+        <v>0.45864</v>
       </c>
       <c r="D106" t="n">
-        <v>0.39882</v>
+        <v>0.397997</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5188199999999999</v>
+        <v>0.520002</v>
       </c>
       <c r="C107" t="n">
-        <v>0.446766</v>
+        <v>0.461827</v>
       </c>
       <c r="D107" t="n">
-        <v>0.402886</v>
+        <v>0.39526</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526883</v>
+        <v>0.52681</v>
       </c>
       <c r="C108" t="n">
-        <v>0.464707</v>
+        <v>0.466283</v>
       </c>
       <c r="D108" t="n">
-        <v>0.528934</v>
+        <v>0.529223</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537856</v>
+        <v>0.537199</v>
       </c>
       <c r="C109" t="n">
-        <v>0.472407</v>
+        <v>0.473594</v>
       </c>
       <c r="D109" t="n">
-        <v>0.528772</v>
+        <v>0.52894</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.589376</v>
+        <v>0.587863</v>
       </c>
       <c r="C110" t="n">
-        <v>0.564011</v>
+        <v>0.566335</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531212</v>
+        <v>0.531437</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.588673</v>
+        <v>0.587706</v>
       </c>
       <c r="C111" t="n">
-        <v>0.563134</v>
+        <v>0.566229</v>
       </c>
       <c r="D111" t="n">
-        <v>0.530235</v>
+        <v>0.531533</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.587867</v>
+        <v>0.588491</v>
       </c>
       <c r="C112" t="n">
-        <v>0.563445</v>
+        <v>0.566676</v>
       </c>
       <c r="D112" t="n">
-        <v>0.525618</v>
+        <v>0.5318929999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.587858</v>
+        <v>0.5885629999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.563134</v>
+        <v>0.566791</v>
       </c>
       <c r="D113" t="n">
-        <v>0.52573</v>
+        <v>0.530827</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586411</v>
+        <v>0.588318</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5631350000000001</v>
+        <v>0.562542</v>
       </c>
       <c r="D114" t="n">
-        <v>0.531708</v>
+        <v>0.533451</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.589885</v>
+        <v>0.5911999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.557829</v>
+        <v>0.566979</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5254799999999999</v>
+        <v>0.532343</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5898060000000001</v>
+        <v>0.593244</v>
       </c>
       <c r="C116" t="n">
-        <v>0.560588</v>
+        <v>0.5684129999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.534031</v>
+        <v>0.536065</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5912809999999999</v>
+        <v>0.5920609999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.567298</v>
+        <v>0.564089</v>
       </c>
       <c r="D117" t="n">
-        <v>0.535313</v>
+        <v>0.536621</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.597036</v>
+        <v>0.59734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.57128</v>
+        <v>0.573312</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539639</v>
+        <v>0.5369119999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599313</v>
+        <v>0.601226</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57235</v>
+        <v>0.5757100000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5393</v>
+        <v>0.54105</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.608097</v>
+        <v>0.604046</v>
       </c>
       <c r="C120" t="n">
-        <v>0.575532</v>
+        <v>0.577192</v>
       </c>
       <c r="D120" t="n">
-        <v>0.537322</v>
+        <v>0.5460429999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.610533</v>
+        <v>0.614142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.574213</v>
+        <v>0.580344</v>
       </c>
       <c r="D121" t="n">
-        <v>0.548496</v>
+        <v>0.550315</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618495</v>
+        <v>0.618506</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578992</v>
+        <v>0.587075</v>
       </c>
       <c r="D122" t="n">
-        <v>0.55572</v>
+        <v>0.558498</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.629291</v>
+        <v>0.630054</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587789</v>
+        <v>0.5938870000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.68691</v>
+        <v>0.68906</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7314659999999999</v>
+        <v>0.734508</v>
       </c>
       <c r="C124" t="n">
-        <v>0.691511</v>
+        <v>0.694571</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689726</v>
+        <v>0.693994</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.731887</v>
+        <v>0.734022</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692003</v>
+        <v>0.691952</v>
       </c>
       <c r="D125" t="n">
-        <v>0.68938</v>
+        <v>0.689143</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.733788</v>
+        <v>0.73626</v>
       </c>
       <c r="C126" t="n">
-        <v>0.692459</v>
+        <v>0.6957989999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.688701</v>
+        <v>0.693834</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.732784</v>
+        <v>0.735375</v>
       </c>
       <c r="C127" t="n">
-        <v>0.694076</v>
+        <v>0.697709</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691483</v>
+        <v>0.6942</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.732994</v>
+        <v>0.734853</v>
       </c>
       <c r="C128" t="n">
-        <v>0.695681</v>
+        <v>0.693149</v>
       </c>
       <c r="D128" t="n">
-        <v>0.692562</v>
+        <v>0.6912700000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.735892</v>
+        <v>0.737044</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696417</v>
+        <v>0.701862</v>
       </c>
       <c r="D129" t="n">
-        <v>0.694349</v>
+        <v>0.696029</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737409</v>
+        <v>0.737645</v>
       </c>
       <c r="C130" t="n">
-        <v>0.699066</v>
+        <v>0.700557</v>
       </c>
       <c r="D130" t="n">
-        <v>0.69249</v>
+        <v>0.694578</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.741008</v>
+        <v>0.740774</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700646</v>
+        <v>0.6990960000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.694767</v>
+        <v>0.696363</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.742611</v>
+        <v>0.7445929999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.705004</v>
+        <v>0.706577</v>
       </c>
       <c r="D132" t="n">
-        <v>0.694679</v>
+        <v>0.701283</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.747074</v>
+        <v>0.747669</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703109</v>
+        <v>0.710511</v>
       </c>
       <c r="D133" t="n">
-        <v>0.700217</v>
+        <v>0.704924</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749835</v>
+        <v>0.752866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.70446</v>
+        <v>0.715612</v>
       </c>
       <c r="D134" t="n">
-        <v>0.701364</v>
+        <v>0.704642</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758929</v>
+        <v>0.758859</v>
       </c>
       <c r="C135" t="n">
-        <v>0.716076</v>
+        <v>0.718958</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71033</v>
+        <v>0.71083</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.767029</v>
+        <v>0.76946</v>
       </c>
       <c r="C136" t="n">
-        <v>0.71846</v>
+        <v>0.720255</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715595</v>
+        <v>0.721034</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.778435</v>
+        <v>0.780161</v>
       </c>
       <c r="C137" t="n">
-        <v>0.731168</v>
+        <v>0.728582</v>
       </c>
       <c r="D137" t="n">
-        <v>0.82825</v>
+        <v>0.83022</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860537</v>
+        <v>0.864228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.815181</v>
+        <v>0.819138</v>
       </c>
       <c r="D138" t="n">
-        <v>0.826623</v>
+        <v>0.8312889999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.860522</v>
+        <v>0.864521</v>
       </c>
       <c r="C139" t="n">
-        <v>0.814229</v>
+        <v>0.819512</v>
       </c>
       <c r="D139" t="n">
-        <v>0.827416</v>
+        <v>0.831041</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.860551</v>
+        <v>0.864223</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8160770000000001</v>
+        <v>0.821995</v>
       </c>
       <c r="D140" t="n">
-        <v>0.828058</v>
+        <v>0.832534</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.860782</v>
+        <v>0.864246</v>
       </c>
       <c r="C141" t="n">
-        <v>0.818995</v>
+        <v>0.823729</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829416</v>
+        <v>0.83183</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.862574</v>
+        <v>0.865982</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8204129999999999</v>
+        <v>0.824099</v>
       </c>
       <c r="D142" t="n">
-        <v>0.830881</v>
+        <v>0.834494</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.862784</v>
+        <v>0.8670909999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.821921</v>
+        <v>0.82511</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829202</v>
+        <v>0.83327</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110034</v>
+        <v>0.11035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100296</v>
+        <v>0.100621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.104358</v>
+        <v>0.10609</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110324</v>
+        <v>0.110589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10051</v>
+        <v>0.100283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104397</v>
+        <v>0.105866</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110617</v>
+        <v>0.112302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101337</v>
+        <v>0.101088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.104707</v>
+        <v>0.106962</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11104</v>
+        <v>0.113622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10099</v>
+        <v>0.102155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105345</v>
+        <v>0.106693</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111402</v>
+        <v>0.113252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101036</v>
+        <v>0.101664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.105764</v>
+        <v>0.107434</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112436</v>
+        <v>0.115862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101459</v>
+        <v>0.102985</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106653</v>
+        <v>0.108279</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114407</v>
+        <v>0.115413</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102139</v>
+        <v>0.102372</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108017</v>
+        <v>0.109427</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118423</v>
+        <v>0.119634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107409</v>
+        <v>0.108725</v>
       </c>
       <c r="D9" t="n">
-        <v>0.10999</v>
+        <v>0.113808</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.120894</v>
+        <v>0.124689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110306</v>
+        <v>0.109613</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110833</v>
+        <v>0.113298</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.120746</v>
+        <v>0.123368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1124</v>
+        <v>0.110594</v>
       </c>
       <c r="D11" t="n">
-        <v>0.110597</v>
+        <v>0.113537</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.120938</v>
+        <v>0.123414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110058</v>
+        <v>0.110952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110308</v>
+        <v>0.113007</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121187</v>
+        <v>0.124127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.110411</v>
+        <v>0.113159</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111105</v>
+        <v>0.113764</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.121171</v>
+        <v>0.124536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110534</v>
+        <v>0.110491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1112</v>
+        <v>0.114523</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122847</v>
+        <v>0.124349</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110724</v>
+        <v>0.114734</v>
       </c>
       <c r="D15" t="n">
-        <v>0.111737</v>
+        <v>0.114457</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122925</v>
+        <v>0.124396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.110769</v>
+        <v>0.114967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111464</v>
+        <v>0.11447</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123986</v>
+        <v>0.125887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.111775</v>
+        <v>0.114962</v>
       </c>
       <c r="D17" t="n">
-        <v>0.112223</v>
+        <v>0.114592</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124617</v>
+        <v>0.125782</v>
       </c>
       <c r="C18" t="n">
-        <v>0.111676</v>
+        <v>0.114787</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112434</v>
+        <v>0.115262</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124538</v>
+        <v>0.125458</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112127</v>
+        <v>0.115306</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113763</v>
+        <v>0.115886</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125685</v>
+        <v>0.127452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.112663</v>
+        <v>0.113401</v>
       </c>
       <c r="D20" t="n">
-        <v>0.114197</v>
+        <v>0.11647</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127949</v>
+        <v>0.129525</v>
       </c>
       <c r="C21" t="n">
-        <v>0.113215</v>
+        <v>0.11704</v>
       </c>
       <c r="D21" t="n">
-        <v>0.115394</v>
+        <v>0.117876</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131357</v>
+        <v>0.133913</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116532</v>
+        <v>0.117848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119764</v>
+        <v>0.126459</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138772</v>
+        <v>0.139271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121144</v>
+        <v>0.12218</v>
       </c>
       <c r="D23" t="n">
-        <v>0.119241</v>
+        <v>0.134111</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132983</v>
+        <v>0.133347</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122726</v>
+        <v>0.120215</v>
       </c>
       <c r="D24" t="n">
-        <v>0.119132</v>
+        <v>0.122156</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133403</v>
+        <v>0.133654</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122927</v>
+        <v>0.120769</v>
       </c>
       <c r="D25" t="n">
-        <v>0.119837</v>
+        <v>0.122146</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133899</v>
+        <v>0.133785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122672</v>
+        <v>0.122415</v>
       </c>
       <c r="D26" t="n">
-        <v>0.119797</v>
+        <v>0.122455</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134091</v>
+        <v>0.134021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12288</v>
+        <v>0.120942</v>
       </c>
       <c r="D27" t="n">
-        <v>0.120074</v>
+        <v>0.12212</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134454</v>
+        <v>0.133844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.124595</v>
+        <v>0.121311</v>
       </c>
       <c r="D28" t="n">
-        <v>0.120172</v>
+        <v>0.122855</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135566</v>
+        <v>0.134783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122985</v>
+        <v>0.123458</v>
       </c>
       <c r="D29" t="n">
-        <v>0.120272</v>
+        <v>0.12275</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134688</v>
+        <v>0.135208</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124074</v>
+        <v>0.122171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12032</v>
+        <v>0.12544</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135085</v>
+        <v>0.135672</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123562</v>
+        <v>0.12337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.120884</v>
+        <v>0.123672</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135651</v>
+        <v>0.136227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1249</v>
+        <v>0.124768</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121331</v>
+        <v>0.123884</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137566</v>
+        <v>0.137708</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12702</v>
+        <v>0.124946</v>
       </c>
       <c r="D33" t="n">
-        <v>0.121838</v>
+        <v>0.124779</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13925</v>
+        <v>0.13906</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125364</v>
+        <v>0.12546</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126107</v>
+        <v>0.125886</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142862</v>
+        <v>0.142558</v>
       </c>
       <c r="C35" t="n">
-        <v>0.129448</v>
+        <v>0.126957</v>
       </c>
       <c r="D35" t="n">
-        <v>0.127508</v>
+        <v>0.12937</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147841</v>
+        <v>0.147358</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13377</v>
+        <v>0.133753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.133969</v>
+        <v>0.137687</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154875</v>
+        <v>0.154095</v>
       </c>
       <c r="C37" t="n">
-        <v>0.13781</v>
+        <v>0.136396</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131114</v>
+        <v>0.146246</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145103</v>
+        <v>0.144338</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133975</v>
+        <v>0.132862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.131619</v>
+        <v>0.132796</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.144648</v>
+        <v>0.1454</v>
       </c>
       <c r="C39" t="n">
-        <v>0.134424</v>
+        <v>0.132191</v>
       </c>
       <c r="D39" t="n">
-        <v>0.131614</v>
+        <v>0.13401</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145423</v>
+        <v>0.145472</v>
       </c>
       <c r="C40" t="n">
-        <v>0.135912</v>
+        <v>0.133067</v>
       </c>
       <c r="D40" t="n">
-        <v>0.131424</v>
+        <v>0.133563</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146076</v>
+        <v>0.148019</v>
       </c>
       <c r="C41" t="n">
-        <v>0.134494</v>
+        <v>0.132254</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13178</v>
+        <v>0.132674</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146023</v>
+        <v>0.145537</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135087</v>
+        <v>0.132719</v>
       </c>
       <c r="D42" t="n">
-        <v>0.132478</v>
+        <v>0.132557</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147918</v>
+        <v>0.144911</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135097</v>
+        <v>0.133406</v>
       </c>
       <c r="D43" t="n">
-        <v>0.133738</v>
+        <v>0.134725</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146699</v>
+        <v>0.148745</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135232</v>
+        <v>0.135395</v>
       </c>
       <c r="D44" t="n">
-        <v>0.132541</v>
+        <v>0.135301</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147816</v>
+        <v>0.147733</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135118</v>
+        <v>0.134535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132348</v>
+        <v>0.135319</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148624</v>
+        <v>0.148873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136587</v>
+        <v>0.138058</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134171</v>
+        <v>0.137141</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.14981</v>
+        <v>0.149066</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138776</v>
+        <v>0.136923</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136275</v>
+        <v>0.137227</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153648</v>
+        <v>0.152316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.140855</v>
+        <v>0.137841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.137696</v>
+        <v>0.139601</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155956</v>
+        <v>0.156833</v>
       </c>
       <c r="C49" t="n">
-        <v>0.142119</v>
+        <v>0.140651</v>
       </c>
       <c r="D49" t="n">
-        <v>0.140656</v>
+        <v>0.142474</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160125</v>
+        <v>0.161269</v>
       </c>
       <c r="C50" t="n">
-        <v>0.143667</v>
+        <v>0.143984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.145125</v>
+        <v>0.146261</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168577</v>
+        <v>0.164881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.148608</v>
+        <v>0.146944</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144907</v>
+        <v>0.153815</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173639</v>
+        <v>0.174468</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156139</v>
+        <v>0.154492</v>
       </c>
       <c r="D52" t="n">
-        <v>0.144903</v>
+        <v>0.16517</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158898</v>
+        <v>0.159087</v>
       </c>
       <c r="C53" t="n">
-        <v>0.145896</v>
+        <v>0.14272</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144962</v>
+        <v>0.144038</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159828</v>
+        <v>0.158444</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14638</v>
+        <v>0.14252</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1448</v>
+        <v>0.143945</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159842</v>
+        <v>0.160153</v>
       </c>
       <c r="C55" t="n">
-        <v>0.147013</v>
+        <v>0.143303</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145057</v>
+        <v>0.14403</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160491</v>
+        <v>0.160355</v>
       </c>
       <c r="C56" t="n">
-        <v>0.14639</v>
+        <v>0.145459</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145414</v>
+        <v>0.144363</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160526</v>
+        <v>0.160033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.147045</v>
+        <v>0.144565</v>
       </c>
       <c r="D57" t="n">
-        <v>0.145772</v>
+        <v>0.144871</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161505</v>
+        <v>0.161058</v>
       </c>
       <c r="C58" t="n">
-        <v>0.147058</v>
+        <v>0.144659</v>
       </c>
       <c r="D58" t="n">
-        <v>0.145729</v>
+        <v>0.145093</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162785</v>
+        <v>0.161494</v>
       </c>
       <c r="C59" t="n">
-        <v>0.148398</v>
+        <v>0.145962</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146835</v>
+        <v>0.146621</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16311</v>
+        <v>0.162249</v>
       </c>
       <c r="C60" t="n">
-        <v>0.150613</v>
+        <v>0.147731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147463</v>
+        <v>0.147024</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164503</v>
+        <v>0.165086</v>
       </c>
       <c r="C61" t="n">
-        <v>0.151042</v>
+        <v>0.149293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.148937</v>
+        <v>0.148285</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167041</v>
+        <v>0.165805</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151129</v>
+        <v>0.150472</v>
       </c>
       <c r="D62" t="n">
-        <v>0.151272</v>
+        <v>0.15084</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169973</v>
+        <v>0.170226</v>
       </c>
       <c r="C63" t="n">
-        <v>0.153793</v>
+        <v>0.151665</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153499</v>
+        <v>0.153725</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17469</v>
+        <v>0.1734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.157423</v>
+        <v>0.154845</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157418</v>
+        <v>0.158409</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178156</v>
+        <v>0.178707</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158444</v>
+        <v>0.158053</v>
       </c>
       <c r="D65" t="n">
-        <v>0.163419</v>
+        <v>0.164358</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188928</v>
+        <v>0.187874</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165253</v>
+        <v>0.163778</v>
       </c>
       <c r="D66" t="n">
-        <v>0.153816</v>
+        <v>0.174108</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181115</v>
+        <v>0.177444</v>
       </c>
       <c r="C67" t="n">
-        <v>0.161923</v>
+        <v>0.157446</v>
       </c>
       <c r="D67" t="n">
-        <v>0.155452</v>
+        <v>0.157019</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180785</v>
+        <v>0.176731</v>
       </c>
       <c r="C68" t="n">
-        <v>0.164695</v>
+        <v>0.156865</v>
       </c>
       <c r="D68" t="n">
-        <v>0.154905</v>
+        <v>0.160287</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179844</v>
+        <v>0.177938</v>
       </c>
       <c r="C69" t="n">
-        <v>0.16199</v>
+        <v>0.160214</v>
       </c>
       <c r="D69" t="n">
-        <v>0.155666</v>
+        <v>0.158945</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.17819</v>
+        <v>0.178457</v>
       </c>
       <c r="C70" t="n">
-        <v>0.163082</v>
+        <v>0.160447</v>
       </c>
       <c r="D70" t="n">
-        <v>0.155756</v>
+        <v>0.158248</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180214</v>
+        <v>0.180202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.165059</v>
+        <v>0.158739</v>
       </c>
       <c r="D71" t="n">
-        <v>0.155923</v>
+        <v>0.160417</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.186437</v>
+        <v>0.180652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.167013</v>
+        <v>0.161417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.156933</v>
+        <v>0.16091</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.186562</v>
+        <v>0.179844</v>
       </c>
       <c r="C73" t="n">
-        <v>0.163026</v>
+        <v>0.160494</v>
       </c>
       <c r="D73" t="n">
-        <v>0.157105</v>
+        <v>0.161184</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181168</v>
+        <v>0.181822</v>
       </c>
       <c r="C74" t="n">
-        <v>0.165974</v>
+        <v>0.16275</v>
       </c>
       <c r="D74" t="n">
-        <v>0.158499</v>
+        <v>0.163038</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183873</v>
+        <v>0.18211</v>
       </c>
       <c r="C75" t="n">
-        <v>0.166175</v>
+        <v>0.164129</v>
       </c>
       <c r="D75" t="n">
-        <v>0.159315</v>
+        <v>0.16501</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186769</v>
+        <v>0.18792</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167538</v>
+        <v>0.164383</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161682</v>
+        <v>0.16624</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19105</v>
+        <v>0.188922</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169151</v>
+        <v>0.166949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163532</v>
+        <v>0.167979</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193708</v>
+        <v>0.191675</v>
       </c>
       <c r="C78" t="n">
-        <v>0.169663</v>
+        <v>0.170178</v>
       </c>
       <c r="D78" t="n">
-        <v>0.166971</v>
+        <v>0.171098</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198158</v>
+        <v>0.196201</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175746</v>
+        <v>0.171655</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173064</v>
+        <v>0.176531</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206728</v>
+        <v>0.202101</v>
       </c>
       <c r="C80" t="n">
-        <v>0.180988</v>
+        <v>0.177592</v>
       </c>
       <c r="D80" t="n">
-        <v>0.237242</v>
+        <v>0.186285</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.345153</v>
+        <v>0.34082</v>
       </c>
       <c r="C81" t="n">
-        <v>0.294775</v>
+        <v>0.29264</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236313</v>
+        <v>0.288533</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3477</v>
+        <v>0.341586</v>
       </c>
       <c r="C82" t="n">
-        <v>0.295449</v>
+        <v>0.285661</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237435</v>
+        <v>0.287113</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346978</v>
+        <v>0.343062</v>
       </c>
       <c r="C83" t="n">
-        <v>0.293096</v>
+        <v>0.287685</v>
       </c>
       <c r="D83" t="n">
-        <v>0.23849</v>
+        <v>0.28888</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3468</v>
+        <v>0.343842</v>
       </c>
       <c r="C84" t="n">
-        <v>0.293763</v>
+        <v>0.285157</v>
       </c>
       <c r="D84" t="n">
-        <v>0.235993</v>
+        <v>0.285916</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.349042</v>
+        <v>0.34358</v>
       </c>
       <c r="C85" t="n">
-        <v>0.292414</v>
+        <v>0.28495</v>
       </c>
       <c r="D85" t="n">
-        <v>0.236466</v>
+        <v>0.281185</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.348543</v>
+        <v>0.346196</v>
       </c>
       <c r="C86" t="n">
-        <v>0.290747</v>
+        <v>0.283116</v>
       </c>
       <c r="D86" t="n">
-        <v>0.233106</v>
+        <v>0.286386</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.353342</v>
+        <v>0.345137</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290373</v>
+        <v>0.284587</v>
       </c>
       <c r="D87" t="n">
-        <v>0.235652</v>
+        <v>0.284487</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.354406</v>
+        <v>0.348467</v>
       </c>
       <c r="C88" t="n">
-        <v>0.285554</v>
+        <v>0.284869</v>
       </c>
       <c r="D88" t="n">
-        <v>0.235599</v>
+        <v>0.286143</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352913</v>
+        <v>0.351014</v>
       </c>
       <c r="C89" t="n">
-        <v>0.287876</v>
+        <v>0.284177</v>
       </c>
       <c r="D89" t="n">
-        <v>0.232671</v>
+        <v>0.280637</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353176</v>
+        <v>0.350725</v>
       </c>
       <c r="C90" t="n">
-        <v>0.284112</v>
+        <v>0.281087</v>
       </c>
       <c r="D90" t="n">
-        <v>0.230911</v>
+        <v>0.283165</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353344</v>
+        <v>0.35352</v>
       </c>
       <c r="C91" t="n">
-        <v>0.285273</v>
+        <v>0.281636</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233077</v>
+        <v>0.281421</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.359234</v>
+        <v>0.359029</v>
       </c>
       <c r="C92" t="n">
-        <v>0.285744</v>
+        <v>0.281952</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233086</v>
+        <v>0.282894</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.362377</v>
+        <v>0.358517</v>
       </c>
       <c r="C93" t="n">
-        <v>0.283462</v>
+        <v>0.284403</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2353</v>
+        <v>0.288415</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365805</v>
+        <v>0.365538</v>
       </c>
       <c r="C94" t="n">
-        <v>0.286252</v>
+        <v>0.288226</v>
       </c>
       <c r="D94" t="n">
-        <v>0.385466</v>
+        <v>0.294131</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502409</v>
+        <v>0.496946</v>
       </c>
       <c r="C95" t="n">
-        <v>0.457968</v>
+        <v>0.449906</v>
       </c>
       <c r="D95" t="n">
-        <v>0.385484</v>
+        <v>0.449539</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5020790000000001</v>
+        <v>0.497217</v>
       </c>
       <c r="C96" t="n">
-        <v>0.448186</v>
+        <v>0.448717</v>
       </c>
       <c r="D96" t="n">
-        <v>0.392363</v>
+        <v>0.448889</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.50261</v>
+        <v>0.497541</v>
       </c>
       <c r="C97" t="n">
-        <v>0.447556</v>
+        <v>0.449101</v>
       </c>
       <c r="D97" t="n">
-        <v>0.394303</v>
+        <v>0.448575</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.503723</v>
+        <v>0.497466</v>
       </c>
       <c r="C98" t="n">
-        <v>0.455474</v>
+        <v>0.448549</v>
       </c>
       <c r="D98" t="n">
-        <v>0.380711</v>
+        <v>0.447118</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.503417</v>
+        <v>0.497317</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454935</v>
+        <v>0.449467</v>
       </c>
       <c r="D99" t="n">
-        <v>0.38369</v>
+        <v>0.446391</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50399</v>
+        <v>0.498273</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454979</v>
+        <v>0.447388</v>
       </c>
       <c r="D100" t="n">
-        <v>0.385329</v>
+        <v>0.445839</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504399</v>
+        <v>0.499014</v>
       </c>
       <c r="C101" t="n">
-        <v>0.445729</v>
+        <v>0.447023</v>
       </c>
       <c r="D101" t="n">
-        <v>0.392414</v>
+        <v>0.444925</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504956</v>
+        <v>0.499871</v>
       </c>
       <c r="C102" t="n">
-        <v>0.454255</v>
+        <v>0.447478</v>
       </c>
       <c r="D102" t="n">
-        <v>0.392734</v>
+        <v>0.445533</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.507116</v>
+        <v>0.500571</v>
       </c>
       <c r="C103" t="n">
-        <v>0.455068</v>
+        <v>0.447746</v>
       </c>
       <c r="D103" t="n">
-        <v>0.393809</v>
+        <v>0.445944</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.509036</v>
+        <v>0.503068</v>
       </c>
       <c r="C104" t="n">
-        <v>0.456153</v>
+        <v>0.448378</v>
       </c>
       <c r="D104" t="n">
-        <v>0.385166</v>
+        <v>0.44742</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.512348</v>
+        <v>0.505146</v>
       </c>
       <c r="C105" t="n">
-        <v>0.457253</v>
+        <v>0.450012</v>
       </c>
       <c r="D105" t="n">
-        <v>0.395205</v>
+        <v>0.448707</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.515054</v>
+        <v>0.509127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.45864</v>
+        <v>0.452066</v>
       </c>
       <c r="D106" t="n">
-        <v>0.397997</v>
+        <v>0.450632</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.520002</v>
+        <v>0.513865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.461827</v>
+        <v>0.455549</v>
       </c>
       <c r="D107" t="n">
-        <v>0.39526</v>
+        <v>0.456004</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52681</v>
+        <v>0.521359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.466283</v>
+        <v>0.460148</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529223</v>
+        <v>0.462983</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537199</v>
+        <v>0.531563</v>
       </c>
       <c r="C109" t="n">
-        <v>0.473594</v>
+        <v>0.46776</v>
       </c>
       <c r="D109" t="n">
-        <v>0.52894</v>
+        <v>0.474643</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.587863</v>
+        <v>0.579109</v>
       </c>
       <c r="C110" t="n">
-        <v>0.566335</v>
+        <v>0.55786</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531437</v>
+        <v>0.556615</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.587706</v>
+        <v>0.581162</v>
       </c>
       <c r="C111" t="n">
-        <v>0.566229</v>
+        <v>0.557088</v>
       </c>
       <c r="D111" t="n">
-        <v>0.531533</v>
+        <v>0.557951</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.588491</v>
+        <v>0.5810340000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.566676</v>
+        <v>0.558603</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5318929999999999</v>
+        <v>0.556386</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5885629999999999</v>
+        <v>0.582186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.566791</v>
+        <v>0.557566</v>
       </c>
       <c r="D113" t="n">
-        <v>0.530827</v>
+        <v>0.554557</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.588318</v>
+        <v>0.582454</v>
       </c>
       <c r="C114" t="n">
-        <v>0.562542</v>
+        <v>0.557195</v>
       </c>
       <c r="D114" t="n">
-        <v>0.533451</v>
+        <v>0.555322</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5911999999999999</v>
+        <v>0.583653</v>
       </c>
       <c r="C115" t="n">
-        <v>0.566979</v>
+        <v>0.559298</v>
       </c>
       <c r="D115" t="n">
-        <v>0.532343</v>
+        <v>0.5573939999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.593244</v>
+        <v>0.585351</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5684129999999999</v>
+        <v>0.560342</v>
       </c>
       <c r="D116" t="n">
-        <v>0.536065</v>
+        <v>0.557991</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5920609999999999</v>
+        <v>0.586817</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564089</v>
+        <v>0.563106</v>
       </c>
       <c r="D117" t="n">
-        <v>0.536621</v>
+        <v>0.56032</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.59734</v>
+        <v>0.590553</v>
       </c>
       <c r="C118" t="n">
-        <v>0.573312</v>
+        <v>0.563419</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5369119999999999</v>
+        <v>0.561971</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.601226</v>
+        <v>0.593593</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5757100000000001</v>
+        <v>0.567689</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54105</v>
+        <v>0.564196</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.604046</v>
+        <v>0.598199</v>
       </c>
       <c r="C120" t="n">
-        <v>0.577192</v>
+        <v>0.568196</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5460429999999999</v>
+        <v>0.56765</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.614142</v>
+        <v>0.604818</v>
       </c>
       <c r="C121" t="n">
-        <v>0.580344</v>
+        <v>0.573122</v>
       </c>
       <c r="D121" t="n">
-        <v>0.550315</v>
+        <v>0.574673</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618506</v>
+        <v>0.613611</v>
       </c>
       <c r="C122" t="n">
-        <v>0.587075</v>
+        <v>0.578731</v>
       </c>
       <c r="D122" t="n">
-        <v>0.558498</v>
+        <v>0.581399</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.630054</v>
+        <v>0.623884</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5938870000000001</v>
+        <v>0.587871</v>
       </c>
       <c r="D123" t="n">
-        <v>0.68906</v>
+        <v>0.59302</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.734508</v>
+        <v>0.727635</v>
       </c>
       <c r="C124" t="n">
-        <v>0.694571</v>
+        <v>0.684537</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693994</v>
+        <v>0.683613</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.734022</v>
+        <v>0.728514</v>
       </c>
       <c r="C125" t="n">
-        <v>0.691952</v>
+        <v>0.68815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.689143</v>
+        <v>0.685828</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.73626</v>
+        <v>0.728581</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6957989999999999</v>
+        <v>0.686711</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693834</v>
+        <v>0.6843360000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.735375</v>
+        <v>0.730812</v>
       </c>
       <c r="C127" t="n">
-        <v>0.697709</v>
+        <v>0.688419</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6942</v>
+        <v>0.689654</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734853</v>
+        <v>0.730245</v>
       </c>
       <c r="C128" t="n">
-        <v>0.693149</v>
+        <v>0.688779</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6912700000000001</v>
+        <v>0.684439</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.737044</v>
+        <v>0.7302920000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.701862</v>
+        <v>0.693557</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696029</v>
+        <v>0.6864440000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737645</v>
+        <v>0.732602</v>
       </c>
       <c r="C130" t="n">
-        <v>0.700557</v>
+        <v>0.6968</v>
       </c>
       <c r="D130" t="n">
-        <v>0.694578</v>
+        <v>0.691817</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.740774</v>
+        <v>0.734578</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6990960000000001</v>
+        <v>0.69698</v>
       </c>
       <c r="D131" t="n">
-        <v>0.696363</v>
+        <v>0.689265</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7445929999999999</v>
+        <v>0.7394579999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.706577</v>
+        <v>0.699758</v>
       </c>
       <c r="D132" t="n">
-        <v>0.701283</v>
+        <v>0.694022</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.747669</v>
+        <v>0.742222</v>
       </c>
       <c r="C133" t="n">
-        <v>0.710511</v>
+        <v>0.703417</v>
       </c>
       <c r="D133" t="n">
-        <v>0.704924</v>
+        <v>0.699891</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.752866</v>
+        <v>0.746883</v>
       </c>
       <c r="C134" t="n">
-        <v>0.715612</v>
+        <v>0.703918</v>
       </c>
       <c r="D134" t="n">
-        <v>0.704642</v>
+        <v>0.703587</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.758859</v>
+        <v>0.752309</v>
       </c>
       <c r="C135" t="n">
-        <v>0.718958</v>
+        <v>0.713105</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71083</v>
+        <v>0.703677</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.76946</v>
+        <v>0.762252</v>
       </c>
       <c r="C136" t="n">
-        <v>0.720255</v>
+        <v>0.718875</v>
       </c>
       <c r="D136" t="n">
-        <v>0.721034</v>
+        <v>0.716696</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.780161</v>
+        <v>0.773459</v>
       </c>
       <c r="C137" t="n">
-        <v>0.728582</v>
+        <v>0.72753</v>
       </c>
       <c r="D137" t="n">
-        <v>0.83022</v>
+        <v>0.726619</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864228</v>
+        <v>0.85599</v>
       </c>
       <c r="C138" t="n">
-        <v>0.819138</v>
+        <v>0.812052</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8312889999999999</v>
+        <v>0.811853</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864521</v>
+        <v>0.8581220000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.819512</v>
+        <v>0.813165</v>
       </c>
       <c r="D139" t="n">
-        <v>0.831041</v>
+        <v>0.811559</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864223</v>
+        <v>0.858899</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821995</v>
+        <v>0.814671</v>
       </c>
       <c r="D140" t="n">
-        <v>0.832534</v>
+        <v>0.813418</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.864246</v>
+        <v>0.859966</v>
       </c>
       <c r="C141" t="n">
-        <v>0.823729</v>
+        <v>0.813853</v>
       </c>
       <c r="D141" t="n">
-        <v>0.83183</v>
+        <v>0.812115</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865982</v>
+        <v>0.858737</v>
       </c>
       <c r="C142" t="n">
-        <v>0.824099</v>
+        <v>0.818584</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834494</v>
+        <v>0.817094</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8670909999999999</v>
+        <v>0.862061</v>
       </c>
       <c r="C143" t="n">
-        <v>0.82511</v>
+        <v>0.818576</v>
       </c>
       <c r="D143" t="n">
-        <v>0.83327</v>
+        <v>0.816245</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11035</v>
+        <v>0.109858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100621</v>
+        <v>0.100066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10609</v>
+        <v>0.10584</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110589</v>
+        <v>0.110241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100283</v>
+        <v>0.100655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105866</v>
+        <v>0.105785</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112302</v>
+        <v>0.110523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101088</v>
+        <v>0.100384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106962</v>
+        <v>0.106123</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113622</v>
+        <v>0.110962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102155</v>
+        <v>0.101131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.106693</v>
+        <v>0.107001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113252</v>
+        <v>0.112649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.101664</v>
+        <v>0.102131</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107434</v>
+        <v>0.107236</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.115862</v>
+        <v>0.113121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102985</v>
+        <v>0.103328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108279</v>
+        <v>0.11165</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115413</v>
+        <v>0.114383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102372</v>
+        <v>0.102269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109427</v>
+        <v>0.109744</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119634</v>
+        <v>0.119199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108725</v>
+        <v>0.104686</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113808</v>
+        <v>0.117652</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124689</v>
+        <v>0.122138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109613</v>
+        <v>0.109517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113298</v>
+        <v>0.113491</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123368</v>
+        <v>0.121556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110594</v>
+        <v>0.110124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113537</v>
+        <v>0.113257</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123414</v>
+        <v>0.12304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110952</v>
+        <v>0.110158</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113007</v>
+        <v>0.113305</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124127</v>
+        <v>0.123669</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113159</v>
+        <v>0.110284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.113764</v>
+        <v>0.113803</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124536</v>
+        <v>0.123062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110491</v>
+        <v>0.110604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.114523</v>
+        <v>0.113335</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124349</v>
+        <v>0.123842</v>
       </c>
       <c r="C15" t="n">
-        <v>0.114734</v>
+        <v>0.110336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114457</v>
+        <v>0.113598</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124396</v>
+        <v>0.124243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114967</v>
+        <v>0.110885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.11447</v>
+        <v>0.114113</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.125887</v>
+        <v>0.124376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114962</v>
+        <v>0.111444</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114592</v>
+        <v>0.11447</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125782</v>
+        <v>0.124895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114787</v>
+        <v>0.112958</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115262</v>
+        <v>0.114898</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125458</v>
+        <v>0.125543</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115306</v>
+        <v>0.113579</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115886</v>
+        <v>0.114869</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127452</v>
+        <v>0.127058</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113401</v>
+        <v>0.112219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11647</v>
+        <v>0.116661</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129525</v>
+        <v>0.128693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11704</v>
+        <v>0.117518</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117876</v>
+        <v>0.120345</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.133913</v>
+        <v>0.132468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117848</v>
+        <v>0.115694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126459</v>
+        <v>0.123296</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139271</v>
+        <v>0.139736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12218</v>
+        <v>0.124636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.134111</v>
+        <v>0.133676</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133347</v>
+        <v>0.133063</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120215</v>
+        <v>0.121262</v>
       </c>
       <c r="D24" t="n">
-        <v>0.122156</v>
+        <v>0.12243</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133654</v>
+        <v>0.13453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120769</v>
+        <v>0.121526</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122146</v>
+        <v>0.123132</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133785</v>
+        <v>0.133546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122415</v>
+        <v>0.121163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.122455</v>
+        <v>0.122906</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134021</v>
+        <v>0.134354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.120942</v>
+        <v>0.121804</v>
       </c>
       <c r="D27" t="n">
-        <v>0.12212</v>
+        <v>0.123221</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133844</v>
+        <v>0.134786</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121311</v>
+        <v>0.122001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122855</v>
+        <v>0.123652</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134783</v>
+        <v>0.134732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123458</v>
+        <v>0.122393</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12275</v>
+        <v>0.123693</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135208</v>
+        <v>0.134897</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122171</v>
+        <v>0.122514</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12544</v>
+        <v>0.123597</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135672</v>
+        <v>0.135255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12337</v>
+        <v>0.122608</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123672</v>
+        <v>0.124116</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136227</v>
+        <v>0.136165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.124768</v>
+        <v>0.123573</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123884</v>
+        <v>0.124532</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137708</v>
+        <v>0.137143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124946</v>
+        <v>0.123516</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124779</v>
+        <v>0.125248</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13906</v>
+        <v>0.138362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.12546</v>
+        <v>0.124995</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125886</v>
+        <v>0.126723</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142558</v>
+        <v>0.142138</v>
       </c>
       <c r="C35" t="n">
-        <v>0.126957</v>
+        <v>0.127198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12937</v>
+        <v>0.130563</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147358</v>
+        <v>0.147492</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133753</v>
+        <v>0.134082</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137687</v>
+        <v>0.137624</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154095</v>
+        <v>0.154464</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136396</v>
+        <v>0.138532</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146246</v>
+        <v>0.146475</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144338</v>
+        <v>0.14472</v>
       </c>
       <c r="C38" t="n">
-        <v>0.132862</v>
+        <v>0.131568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132796</v>
+        <v>0.132886</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1454</v>
+        <v>0.14602</v>
       </c>
       <c r="C39" t="n">
-        <v>0.132191</v>
+        <v>0.13202</v>
       </c>
       <c r="D39" t="n">
-        <v>0.13401</v>
+        <v>0.130816</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145472</v>
+        <v>0.144558</v>
       </c>
       <c r="C40" t="n">
-        <v>0.133067</v>
+        <v>0.132376</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133563</v>
+        <v>0.133264</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148019</v>
+        <v>0.146462</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132254</v>
+        <v>0.132589</v>
       </c>
       <c r="D41" t="n">
-        <v>0.132674</v>
+        <v>0.133013</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145537</v>
+        <v>0.147094</v>
       </c>
       <c r="C42" t="n">
-        <v>0.132719</v>
+        <v>0.133136</v>
       </c>
       <c r="D42" t="n">
-        <v>0.132557</v>
+        <v>0.133841</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.144911</v>
+        <v>0.147167</v>
       </c>
       <c r="C43" t="n">
-        <v>0.133406</v>
+        <v>0.133178</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134725</v>
+        <v>0.134504</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148745</v>
+        <v>0.147079</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135395</v>
+        <v>0.134392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135301</v>
+        <v>0.135127</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147733</v>
+        <v>0.148539</v>
       </c>
       <c r="C45" t="n">
-        <v>0.134535</v>
+        <v>0.135021</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135319</v>
+        <v>0.135661</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148873</v>
+        <v>0.148469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.138058</v>
+        <v>0.135596</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137141</v>
+        <v>0.136202</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149066</v>
+        <v>0.147733</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136923</v>
+        <v>0.136208</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137227</v>
+        <v>0.136302</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152316</v>
+        <v>0.153977</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137841</v>
+        <v>0.138029</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139601</v>
+        <v>0.139365</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156833</v>
+        <v>0.156474</v>
       </c>
       <c r="C49" t="n">
-        <v>0.140651</v>
+        <v>0.141045</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142474</v>
+        <v>0.1434</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161269</v>
+        <v>0.161186</v>
       </c>
       <c r="C50" t="n">
-        <v>0.143984</v>
+        <v>0.14322</v>
       </c>
       <c r="D50" t="n">
-        <v>0.146261</v>
+        <v>0.14785</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.164881</v>
+        <v>0.167555</v>
       </c>
       <c r="C51" t="n">
-        <v>0.146944</v>
+        <v>0.147622</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153815</v>
+        <v>0.153903</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174468</v>
+        <v>0.176922</v>
       </c>
       <c r="C52" t="n">
-        <v>0.154492</v>
+        <v>0.154805</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16517</v>
+        <v>0.166011</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159087</v>
+        <v>0.159449</v>
       </c>
       <c r="C53" t="n">
-        <v>0.14272</v>
+        <v>0.142018</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144038</v>
+        <v>0.143034</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158444</v>
+        <v>0.159188</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14252</v>
+        <v>0.142585</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143945</v>
+        <v>0.143403</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160153</v>
+        <v>0.159556</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143303</v>
+        <v>0.14331</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14403</v>
+        <v>0.143911</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160355</v>
+        <v>0.159295</v>
       </c>
       <c r="C56" t="n">
-        <v>0.145459</v>
+        <v>0.143984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144363</v>
+        <v>0.14479</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160033</v>
+        <v>0.160287</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144565</v>
+        <v>0.143779</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144871</v>
+        <v>0.144321</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161058</v>
+        <v>0.160814</v>
       </c>
       <c r="C58" t="n">
-        <v>0.144659</v>
+        <v>0.144568</v>
       </c>
       <c r="D58" t="n">
-        <v>0.145093</v>
+        <v>0.144769</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161494</v>
+        <v>0.161564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.145962</v>
+        <v>0.146211</v>
       </c>
       <c r="D59" t="n">
-        <v>0.146621</v>
+        <v>0.145988</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162249</v>
+        <v>0.162689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147731</v>
+        <v>0.146693</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147024</v>
+        <v>0.147043</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165086</v>
+        <v>0.164547</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149293</v>
+        <v>0.147986</v>
       </c>
       <c r="D61" t="n">
-        <v>0.148285</v>
+        <v>0.148686</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165805</v>
+        <v>0.166891</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150472</v>
+        <v>0.149874</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15084</v>
+        <v>0.150993</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170226</v>
+        <v>0.169846</v>
       </c>
       <c r="C63" t="n">
-        <v>0.151665</v>
+        <v>0.151458</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153725</v>
+        <v>0.153288</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1734</v>
+        <v>0.173796</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154845</v>
+        <v>0.154234</v>
       </c>
       <c r="D64" t="n">
-        <v>0.158409</v>
+        <v>0.157831</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178707</v>
+        <v>0.178777</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158053</v>
+        <v>0.157907</v>
       </c>
       <c r="D65" t="n">
-        <v>0.164358</v>
+        <v>0.16415</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187874</v>
+        <v>0.187985</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163778</v>
+        <v>0.163442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.174108</v>
+        <v>0.173862</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.177444</v>
+        <v>0.180914</v>
       </c>
       <c r="C67" t="n">
-        <v>0.157446</v>
+        <v>0.158097</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157019</v>
+        <v>0.162024</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.176731</v>
+        <v>0.179796</v>
       </c>
       <c r="C68" t="n">
-        <v>0.156865</v>
+        <v>0.158734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160287</v>
+        <v>0.160328</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.177938</v>
+        <v>0.181089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.160214</v>
+        <v>0.159417</v>
       </c>
       <c r="D69" t="n">
-        <v>0.158945</v>
+        <v>0.161436</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.178457</v>
+        <v>0.182508</v>
       </c>
       <c r="C70" t="n">
-        <v>0.160447</v>
+        <v>0.158224</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158248</v>
+        <v>0.160667</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180202</v>
+        <v>0.178547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.158739</v>
+        <v>0.159057</v>
       </c>
       <c r="D71" t="n">
-        <v>0.160417</v>
+        <v>0.15931</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180652</v>
+        <v>0.180221</v>
       </c>
       <c r="C72" t="n">
-        <v>0.161417</v>
+        <v>0.162125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16091</v>
+        <v>0.161155</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.179844</v>
+        <v>0.180035</v>
       </c>
       <c r="C73" t="n">
-        <v>0.160494</v>
+        <v>0.161903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161184</v>
+        <v>0.161702</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.181822</v>
+        <v>0.182522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16275</v>
+        <v>0.160958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.163038</v>
+        <v>0.162692</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18211</v>
+        <v>0.18545</v>
       </c>
       <c r="C75" t="n">
-        <v>0.164129</v>
+        <v>0.165351</v>
       </c>
       <c r="D75" t="n">
-        <v>0.16501</v>
+        <v>0.164012</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.18792</v>
+        <v>0.186</v>
       </c>
       <c r="C76" t="n">
-        <v>0.164383</v>
+        <v>0.165027</v>
       </c>
       <c r="D76" t="n">
-        <v>0.16624</v>
+        <v>0.169268</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188922</v>
+        <v>0.190768</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166949</v>
+        <v>0.167865</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167979</v>
+        <v>0.169936</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191675</v>
+        <v>0.194555</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170178</v>
+        <v>0.170381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171098</v>
+        <v>0.173719</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196201</v>
+        <v>0.199946</v>
       </c>
       <c r="C79" t="n">
-        <v>0.171655</v>
+        <v>0.173523</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176531</v>
+        <v>0.177888</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.202101</v>
+        <v>0.208844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.177592</v>
+        <v>0.1763</v>
       </c>
       <c r="D80" t="n">
-        <v>0.186285</v>
+        <v>0.187191</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34082</v>
+        <v>0.343846</v>
       </c>
       <c r="C81" t="n">
-        <v>0.29264</v>
+        <v>0.291294</v>
       </c>
       <c r="D81" t="n">
-        <v>0.288533</v>
+        <v>0.292466</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341586</v>
+        <v>0.345959</v>
       </c>
       <c r="C82" t="n">
-        <v>0.285661</v>
+        <v>0.291382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.287113</v>
+        <v>0.291608</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343062</v>
+        <v>0.343051</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287685</v>
+        <v>0.288202</v>
       </c>
       <c r="D83" t="n">
-        <v>0.28888</v>
+        <v>0.286675</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343842</v>
+        <v>0.348377</v>
       </c>
       <c r="C84" t="n">
-        <v>0.285157</v>
+        <v>0.28579</v>
       </c>
       <c r="D84" t="n">
-        <v>0.285916</v>
+        <v>0.291787</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.34358</v>
+        <v>0.344815</v>
       </c>
       <c r="C85" t="n">
-        <v>0.28495</v>
+        <v>0.285624</v>
       </c>
       <c r="D85" t="n">
-        <v>0.281185</v>
+        <v>0.286159</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.346196</v>
+        <v>0.34494</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283116</v>
+        <v>0.285062</v>
       </c>
       <c r="D86" t="n">
-        <v>0.286386</v>
+        <v>0.284712</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.345137</v>
+        <v>0.348565</v>
       </c>
       <c r="C87" t="n">
-        <v>0.284587</v>
+        <v>0.284659</v>
       </c>
       <c r="D87" t="n">
-        <v>0.284487</v>
+        <v>0.283491</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348467</v>
+        <v>0.347077</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284869</v>
+        <v>0.283325</v>
       </c>
       <c r="D88" t="n">
-        <v>0.286143</v>
+        <v>0.282365</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.351014</v>
+        <v>0.348647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284177</v>
+        <v>0.285052</v>
       </c>
       <c r="D89" t="n">
-        <v>0.280637</v>
+        <v>0.276676</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.350725</v>
+        <v>0.352174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.281087</v>
+        <v>0.282352</v>
       </c>
       <c r="D90" t="n">
-        <v>0.283165</v>
+        <v>0.282552</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.35352</v>
+        <v>0.356719</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281636</v>
+        <v>0.284199</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281421</v>
+        <v>0.281708</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.359029</v>
+        <v>0.355498</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281952</v>
+        <v>0.281877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.282894</v>
+        <v>0.284705</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358517</v>
+        <v>0.357749</v>
       </c>
       <c r="C93" t="n">
-        <v>0.284403</v>
+        <v>0.284195</v>
       </c>
       <c r="D93" t="n">
-        <v>0.288415</v>
+        <v>0.28422</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365538</v>
+        <v>0.367108</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288226</v>
+        <v>0.288476</v>
       </c>
       <c r="D94" t="n">
-        <v>0.294131</v>
+        <v>0.289446</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.496946</v>
+        <v>0.502826</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449906</v>
+        <v>0.455207</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449539</v>
+        <v>0.456508</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.497217</v>
+        <v>0.503634</v>
       </c>
       <c r="C96" t="n">
-        <v>0.448717</v>
+        <v>0.454715</v>
       </c>
       <c r="D96" t="n">
-        <v>0.448889</v>
+        <v>0.452849</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.497541</v>
+        <v>0.50334</v>
       </c>
       <c r="C97" t="n">
-        <v>0.449101</v>
+        <v>0.453518</v>
       </c>
       <c r="D97" t="n">
-        <v>0.448575</v>
+        <v>0.45377</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.497466</v>
+        <v>0.5041060000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.448549</v>
+        <v>0.454785</v>
       </c>
       <c r="D98" t="n">
-        <v>0.447118</v>
+        <v>0.451986</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.497317</v>
+        <v>0.503403</v>
       </c>
       <c r="C99" t="n">
-        <v>0.449467</v>
+        <v>0.453619</v>
       </c>
       <c r="D99" t="n">
-        <v>0.446391</v>
+        <v>0.451045</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.498273</v>
+        <v>0.5039709999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447388</v>
+        <v>0.452589</v>
       </c>
       <c r="D100" t="n">
-        <v>0.445839</v>
+        <v>0.450516</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.499014</v>
+        <v>0.503999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447023</v>
+        <v>0.452277</v>
       </c>
       <c r="D101" t="n">
-        <v>0.444925</v>
+        <v>0.449392</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499871</v>
+        <v>0.505054</v>
       </c>
       <c r="C102" t="n">
-        <v>0.447478</v>
+        <v>0.452382</v>
       </c>
       <c r="D102" t="n">
-        <v>0.445533</v>
+        <v>0.450153</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.500571</v>
+        <v>0.507126</v>
       </c>
       <c r="C103" t="n">
-        <v>0.447746</v>
+        <v>0.452033</v>
       </c>
       <c r="D103" t="n">
-        <v>0.445944</v>
+        <v>0.450378</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.503068</v>
+        <v>0.50844</v>
       </c>
       <c r="C104" t="n">
-        <v>0.448378</v>
+        <v>0.452666</v>
       </c>
       <c r="D104" t="n">
-        <v>0.44742</v>
+        <v>0.451868</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.505146</v>
+        <v>0.510849</v>
       </c>
       <c r="C105" t="n">
-        <v>0.450012</v>
+        <v>0.456179</v>
       </c>
       <c r="D105" t="n">
-        <v>0.448707</v>
+        <v>0.454282</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.509127</v>
+        <v>0.514394</v>
       </c>
       <c r="C106" t="n">
-        <v>0.452066</v>
+        <v>0.458236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.450632</v>
+        <v>0.453464</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.513865</v>
+        <v>0.51934</v>
       </c>
       <c r="C107" t="n">
-        <v>0.455549</v>
+        <v>0.460348</v>
       </c>
       <c r="D107" t="n">
-        <v>0.456004</v>
+        <v>0.460545</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.521359</v>
+        <v>0.526571</v>
       </c>
       <c r="C108" t="n">
-        <v>0.460148</v>
+        <v>0.465555</v>
       </c>
       <c r="D108" t="n">
-        <v>0.462983</v>
+        <v>0.468011</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.531563</v>
+        <v>0.537384</v>
       </c>
       <c r="C109" t="n">
-        <v>0.46776</v>
+        <v>0.472659</v>
       </c>
       <c r="D109" t="n">
-        <v>0.474643</v>
+        <v>0.480325</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.579109</v>
+        <v>0.586591</v>
       </c>
       <c r="C110" t="n">
-        <v>0.55786</v>
+        <v>0.563384</v>
       </c>
       <c r="D110" t="n">
-        <v>0.556615</v>
+        <v>0.561602</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.581162</v>
+        <v>0.586114</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557088</v>
+        <v>0.557725</v>
       </c>
       <c r="D111" t="n">
-        <v>0.557951</v>
+        <v>0.554455</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5810340000000001</v>
+        <v>0.585279</v>
       </c>
       <c r="C112" t="n">
-        <v>0.558603</v>
+        <v>0.563404</v>
       </c>
       <c r="D112" t="n">
-        <v>0.556386</v>
+        <v>0.560822</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.582186</v>
+        <v>0.586252</v>
       </c>
       <c r="C113" t="n">
-        <v>0.557566</v>
+        <v>0.562843</v>
       </c>
       <c r="D113" t="n">
-        <v>0.554557</v>
+        <v>0.55977</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582454</v>
+        <v>0.586602</v>
       </c>
       <c r="C114" t="n">
-        <v>0.557195</v>
+        <v>0.563687</v>
       </c>
       <c r="D114" t="n">
-        <v>0.555322</v>
+        <v>0.562364</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583653</v>
+        <v>0.588855</v>
       </c>
       <c r="C115" t="n">
-        <v>0.559298</v>
+        <v>0.568014</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5573939999999999</v>
+        <v>0.563243</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585351</v>
+        <v>0.59063</v>
       </c>
       <c r="C116" t="n">
-        <v>0.560342</v>
+        <v>0.565478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.557991</v>
+        <v>0.563146</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.586817</v>
+        <v>0.5921</v>
       </c>
       <c r="C117" t="n">
-        <v>0.563106</v>
+        <v>0.566443</v>
       </c>
       <c r="D117" t="n">
-        <v>0.56032</v>
+        <v>0.5648570000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.590553</v>
+        <v>0.5955780000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563419</v>
+        <v>0.563977</v>
       </c>
       <c r="D118" t="n">
-        <v>0.561971</v>
+        <v>0.5608610000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.593593</v>
+        <v>0.599436</v>
       </c>
       <c r="C119" t="n">
-        <v>0.567689</v>
+        <v>0.571167</v>
       </c>
       <c r="D119" t="n">
-        <v>0.564196</v>
+        <v>0.569368</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.598199</v>
+        <v>0.602108</v>
       </c>
       <c r="C120" t="n">
-        <v>0.568196</v>
+        <v>0.574194</v>
       </c>
       <c r="D120" t="n">
-        <v>0.56765</v>
+        <v>0.567577</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.604818</v>
+        <v>0.609251</v>
       </c>
       <c r="C121" t="n">
-        <v>0.573122</v>
+        <v>0.5721270000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.574673</v>
+        <v>0.576955</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.613611</v>
+        <v>0.616448</v>
       </c>
       <c r="C122" t="n">
-        <v>0.578731</v>
+        <v>0.583274</v>
       </c>
       <c r="D122" t="n">
-        <v>0.581399</v>
+        <v>0.579209</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.623884</v>
+        <v>0.6288589999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587871</v>
+        <v>0.585876</v>
       </c>
       <c r="D123" t="n">
-        <v>0.59302</v>
+        <v>0.5980259999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.727635</v>
+        <v>0.732555</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684537</v>
+        <v>0.687874</v>
       </c>
       <c r="D124" t="n">
-        <v>0.683613</v>
+        <v>0.689758</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.728514</v>
+        <v>0.732989</v>
       </c>
       <c r="C125" t="n">
-        <v>0.68815</v>
+        <v>0.691495</v>
       </c>
       <c r="D125" t="n">
-        <v>0.685828</v>
+        <v>0.689903</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.728581</v>
+        <v>0.733131</v>
       </c>
       <c r="C126" t="n">
-        <v>0.686711</v>
+        <v>0.6946830000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6843360000000001</v>
+        <v>0.693035</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.730812</v>
+        <v>0.73432</v>
       </c>
       <c r="C127" t="n">
-        <v>0.688419</v>
+        <v>0.69489</v>
       </c>
       <c r="D127" t="n">
-        <v>0.689654</v>
+        <v>0.6891080000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.730245</v>
+        <v>0.734985</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688779</v>
+        <v>0.697245</v>
       </c>
       <c r="D128" t="n">
-        <v>0.684439</v>
+        <v>0.692555</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7302920000000001</v>
+        <v>0.736178</v>
       </c>
       <c r="C129" t="n">
-        <v>0.693557</v>
+        <v>0.697515</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6864440000000001</v>
+        <v>0.696453</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.732602</v>
+        <v>0.737133</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6968</v>
+        <v>0.702261</v>
       </c>
       <c r="D130" t="n">
-        <v>0.691817</v>
+        <v>0.69742</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.734578</v>
+        <v>0.742181</v>
       </c>
       <c r="C131" t="n">
-        <v>0.69698</v>
+        <v>0.698518</v>
       </c>
       <c r="D131" t="n">
-        <v>0.689265</v>
+        <v>0.699449</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7394579999999999</v>
+        <v>0.7430020000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.699758</v>
+        <v>0.702075</v>
       </c>
       <c r="D132" t="n">
-        <v>0.694022</v>
+        <v>0.698985</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.742222</v>
+        <v>0.745932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703417</v>
+        <v>0.7089029999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.699891</v>
+        <v>0.697502</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.746883</v>
+        <v>0.749744</v>
       </c>
       <c r="C134" t="n">
-        <v>0.703918</v>
+        <v>0.71372</v>
       </c>
       <c r="D134" t="n">
-        <v>0.703587</v>
+        <v>0.701892</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.752309</v>
+        <v>0.759054</v>
       </c>
       <c r="C135" t="n">
-        <v>0.713105</v>
+        <v>0.717622</v>
       </c>
       <c r="D135" t="n">
-        <v>0.703677</v>
+        <v>0.7145319999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.762252</v>
+        <v>0.767678</v>
       </c>
       <c r="C136" t="n">
-        <v>0.718875</v>
+        <v>0.721672</v>
       </c>
       <c r="D136" t="n">
-        <v>0.716696</v>
+        <v>0.720276</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.773459</v>
+        <v>0.7782480000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72753</v>
+        <v>0.731305</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726619</v>
+        <v>0.729626</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.85599</v>
+        <v>0.860735</v>
       </c>
       <c r="C138" t="n">
-        <v>0.812052</v>
+        <v>0.814676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.811853</v>
+        <v>0.8167990000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8581220000000001</v>
+        <v>0.861441</v>
       </c>
       <c r="C139" t="n">
-        <v>0.813165</v>
+        <v>0.818116</v>
       </c>
       <c r="D139" t="n">
-        <v>0.811559</v>
+        <v>0.815376</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.858899</v>
+        <v>0.863557</v>
       </c>
       <c r="C140" t="n">
-        <v>0.814671</v>
+        <v>0.820039</v>
       </c>
       <c r="D140" t="n">
-        <v>0.813418</v>
+        <v>0.817563</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.859966</v>
+        <v>0.863626</v>
       </c>
       <c r="C141" t="n">
-        <v>0.813853</v>
+        <v>0.819411</v>
       </c>
       <c r="D141" t="n">
-        <v>0.812115</v>
+        <v>0.819042</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.858737</v>
+        <v>0.862771</v>
       </c>
       <c r="C142" t="n">
-        <v>0.818584</v>
+        <v>0.819798</v>
       </c>
       <c r="D142" t="n">
-        <v>0.817094</v>
+        <v>0.820283</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.862061</v>
+        <v>0.863726</v>
       </c>
       <c r="C143" t="n">
-        <v>0.818576</v>
+        <v>0.822949</v>
       </c>
       <c r="D143" t="n">
-        <v>0.816245</v>
+        <v>0.822595</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109858</v>
+        <v>0.109418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100066</v>
+        <v>0.102526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.10584</v>
+        <v>0.105121</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110241</v>
+        <v>0.110618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100655</v>
+        <v>0.100914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.105785</v>
+        <v>0.10499</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110523</v>
+        <v>0.111122</v>
       </c>
       <c r="C4" t="n">
-        <v>0.100384</v>
+        <v>0.101447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106123</v>
+        <v>0.105902</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110962</v>
+        <v>0.111092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101131</v>
+        <v>0.101625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107001</v>
+        <v>0.105639</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112649</v>
+        <v>0.111985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102131</v>
+        <v>0.103823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107236</v>
+        <v>0.106221</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113121</v>
+        <v>0.112217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103328</v>
+        <v>0.101995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11165</v>
+        <v>0.106739</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114383</v>
+        <v>0.115576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102269</v>
+        <v>0.104087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109744</v>
+        <v>0.108763</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119199</v>
+        <v>0.118875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104686</v>
+        <v>0.105364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117652</v>
+        <v>0.112474</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122138</v>
+        <v>0.12235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109517</v>
+        <v>0.110622</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113491</v>
+        <v>0.112108</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121556</v>
+        <v>0.12141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110124</v>
+        <v>0.110187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113257</v>
+        <v>0.112943</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12304</v>
+        <v>0.121888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.110158</v>
+        <v>0.111215</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113305</v>
+        <v>0.112345</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123669</v>
+        <v>0.121555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.110284</v>
+        <v>0.111415</v>
       </c>
       <c r="D13" t="n">
-        <v>0.113803</v>
+        <v>0.112926</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123062</v>
+        <v>0.121436</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110604</v>
+        <v>0.11156</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113335</v>
+        <v>0.113703</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123842</v>
+        <v>0.122669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.110336</v>
+        <v>0.112049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113598</v>
+        <v>0.113171</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124243</v>
+        <v>0.124259</v>
       </c>
       <c r="C16" t="n">
-        <v>0.110885</v>
+        <v>0.111619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114113</v>
+        <v>0.114126</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124376</v>
+        <v>0.123264</v>
       </c>
       <c r="C17" t="n">
-        <v>0.111444</v>
+        <v>0.112785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.11447</v>
+        <v>0.113943</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124895</v>
+        <v>0.12408</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112958</v>
+        <v>0.112573</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114898</v>
+        <v>0.114065</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125543</v>
+        <v>0.124669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.113579</v>
+        <v>0.112889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114869</v>
+        <v>0.114964</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127058</v>
+        <v>0.126915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.112219</v>
+        <v>0.113644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116661</v>
+        <v>0.115942</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128693</v>
+        <v>0.127455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.117518</v>
+        <v>0.114076</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120345</v>
+        <v>0.119014</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132468</v>
+        <v>0.131108</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115694</v>
+        <v>0.117493</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123296</v>
+        <v>0.12271</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139736</v>
+        <v>0.138444</v>
       </c>
       <c r="C23" t="n">
-        <v>0.124636</v>
+        <v>0.122898</v>
       </c>
       <c r="D23" t="n">
-        <v>0.133676</v>
+        <v>0.133818</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133063</v>
+        <v>0.133556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121262</v>
+        <v>0.120967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.12243</v>
+        <v>0.121734</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13453</v>
+        <v>0.132898</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121526</v>
+        <v>0.121198</v>
       </c>
       <c r="D25" t="n">
-        <v>0.123132</v>
+        <v>0.121819</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133546</v>
+        <v>0.133758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121163</v>
+        <v>0.121346</v>
       </c>
       <c r="D26" t="n">
-        <v>0.122906</v>
+        <v>0.12662</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134354</v>
+        <v>0.134278</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121804</v>
+        <v>0.121447</v>
       </c>
       <c r="D27" t="n">
-        <v>0.123221</v>
+        <v>0.122177</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134786</v>
+        <v>0.133016</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122001</v>
+        <v>0.121754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123652</v>
+        <v>0.122443</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134732</v>
+        <v>0.1345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122393</v>
+        <v>0.121962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123693</v>
+        <v>0.12489</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134897</v>
+        <v>0.134013</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122514</v>
+        <v>0.122782</v>
       </c>
       <c r="D30" t="n">
-        <v>0.123597</v>
+        <v>0.122872</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135255</v>
+        <v>0.135444</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122608</v>
+        <v>0.123624</v>
       </c>
       <c r="D31" t="n">
-        <v>0.124116</v>
+        <v>0.126694</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136165</v>
+        <v>0.135166</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123573</v>
+        <v>0.123071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124532</v>
+        <v>0.124033</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137143</v>
+        <v>0.136552</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123516</v>
+        <v>0.125507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125248</v>
+        <v>0.125238</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138362</v>
+        <v>0.138283</v>
       </c>
       <c r="C34" t="n">
-        <v>0.124995</v>
+        <v>0.12538</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126723</v>
+        <v>0.126317</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142138</v>
+        <v>0.14181</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127198</v>
+        <v>0.127591</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130563</v>
+        <v>0.130239</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147492</v>
+        <v>0.146671</v>
       </c>
       <c r="C36" t="n">
-        <v>0.134082</v>
+        <v>0.131983</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137624</v>
+        <v>0.137457</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154464</v>
+        <v>0.154062</v>
       </c>
       <c r="C37" t="n">
-        <v>0.138532</v>
+        <v>0.137047</v>
       </c>
       <c r="D37" t="n">
-        <v>0.146475</v>
+        <v>0.145571</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14472</v>
+        <v>0.145516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.131568</v>
+        <v>0.133409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132886</v>
+        <v>0.132996</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14602</v>
+        <v>0.145737</v>
       </c>
       <c r="C39" t="n">
-        <v>0.13202</v>
+        <v>0.134226</v>
       </c>
       <c r="D39" t="n">
-        <v>0.130816</v>
+        <v>0.134723</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144558</v>
+        <v>0.145315</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132376</v>
+        <v>0.132412</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133264</v>
+        <v>0.133251</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146462</v>
+        <v>0.145669</v>
       </c>
       <c r="C41" t="n">
-        <v>0.132589</v>
+        <v>0.134464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.133013</v>
+        <v>0.134208</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.147094</v>
+        <v>0.14775</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133136</v>
+        <v>0.133973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.133841</v>
+        <v>0.134988</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147167</v>
+        <v>0.148514</v>
       </c>
       <c r="C43" t="n">
-        <v>0.133178</v>
+        <v>0.135275</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134504</v>
+        <v>0.135259</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147079</v>
+        <v>0.148458</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134392</v>
+        <v>0.13529</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135127</v>
+        <v>0.135642</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148539</v>
+        <v>0.147911</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135021</v>
+        <v>0.13568</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135661</v>
+        <v>0.135946</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148469</v>
+        <v>0.149777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135596</v>
+        <v>0.136378</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136202</v>
+        <v>0.137258</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.147733</v>
+        <v>0.14996</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136208</v>
+        <v>0.138579</v>
       </c>
       <c r="D47" t="n">
-        <v>0.136302</v>
+        <v>0.137614</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153977</v>
+        <v>0.154446</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138029</v>
+        <v>0.138597</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139365</v>
+        <v>0.140311</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156474</v>
+        <v>0.154638</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141045</v>
+        <v>0.141871</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1434</v>
+        <v>0.143796</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.161186</v>
+        <v>0.16011</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14322</v>
+        <v>0.145358</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14785</v>
+        <v>0.149738</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167555</v>
+        <v>0.166925</v>
       </c>
       <c r="C51" t="n">
-        <v>0.147622</v>
+        <v>0.151512</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153903</v>
+        <v>0.155393</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.176922</v>
+        <v>0.173147</v>
       </c>
       <c r="C52" t="n">
-        <v>0.154805</v>
+        <v>0.155744</v>
       </c>
       <c r="D52" t="n">
-        <v>0.166011</v>
+        <v>0.167688</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159449</v>
+        <v>0.160243</v>
       </c>
       <c r="C53" t="n">
-        <v>0.142018</v>
+        <v>0.143055</v>
       </c>
       <c r="D53" t="n">
-        <v>0.143034</v>
+        <v>0.144843</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159188</v>
+        <v>0.159592</v>
       </c>
       <c r="C54" t="n">
-        <v>0.142585</v>
+        <v>0.144494</v>
       </c>
       <c r="D54" t="n">
-        <v>0.143403</v>
+        <v>0.144891</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159556</v>
+        <v>0.160362</v>
       </c>
       <c r="C55" t="n">
-        <v>0.14331</v>
+        <v>0.144257</v>
       </c>
       <c r="D55" t="n">
-        <v>0.143911</v>
+        <v>0.145528</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159295</v>
+        <v>0.160613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.143984</v>
+        <v>0.144771</v>
       </c>
       <c r="D56" t="n">
-        <v>0.14479</v>
+        <v>0.145875</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.160287</v>
+        <v>0.161068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.143779</v>
+        <v>0.145504</v>
       </c>
       <c r="D57" t="n">
-        <v>0.144321</v>
+        <v>0.145091</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160814</v>
+        <v>0.160859</v>
       </c>
       <c r="C58" t="n">
-        <v>0.144568</v>
+        <v>0.146351</v>
       </c>
       <c r="D58" t="n">
-        <v>0.144769</v>
+        <v>0.146886</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161564</v>
+        <v>0.162893</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146211</v>
+        <v>0.147078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.145988</v>
+        <v>0.148937</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162689</v>
+        <v>0.163489</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146693</v>
+        <v>0.146662</v>
       </c>
       <c r="D60" t="n">
-        <v>0.147043</v>
+        <v>0.148425</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164547</v>
+        <v>0.164134</v>
       </c>
       <c r="C61" t="n">
-        <v>0.147986</v>
+        <v>0.149371</v>
       </c>
       <c r="D61" t="n">
-        <v>0.148686</v>
+        <v>0.150695</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166891</v>
+        <v>0.167261</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149874</v>
+        <v>0.15145</v>
       </c>
       <c r="D62" t="n">
-        <v>0.150993</v>
+        <v>0.153165</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169846</v>
+        <v>0.170621</v>
       </c>
       <c r="C63" t="n">
-        <v>0.151458</v>
+        <v>0.153001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.153288</v>
+        <v>0.155511</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173796</v>
+        <v>0.174549</v>
       </c>
       <c r="C64" t="n">
-        <v>0.154234</v>
+        <v>0.15631</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157831</v>
+        <v>0.159375</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178777</v>
+        <v>0.179688</v>
       </c>
       <c r="C65" t="n">
-        <v>0.157907</v>
+        <v>0.161037</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16415</v>
+        <v>0.165387</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187985</v>
+        <v>0.187698</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163442</v>
+        <v>0.166222</v>
       </c>
       <c r="D66" t="n">
-        <v>0.173862</v>
+        <v>0.174668</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180914</v>
+        <v>0.181331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158097</v>
+        <v>0.159213</v>
       </c>
       <c r="D67" t="n">
-        <v>0.162024</v>
+        <v>0.160665</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179796</v>
+        <v>0.1792</v>
       </c>
       <c r="C68" t="n">
-        <v>0.158734</v>
+        <v>0.157537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160328</v>
+        <v>0.160931</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181089</v>
+        <v>0.180181</v>
       </c>
       <c r="C69" t="n">
-        <v>0.159417</v>
+        <v>0.160456</v>
       </c>
       <c r="D69" t="n">
-        <v>0.161436</v>
+        <v>0.162022</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182508</v>
+        <v>0.180587</v>
       </c>
       <c r="C70" t="n">
-        <v>0.158224</v>
+        <v>0.162444</v>
       </c>
       <c r="D70" t="n">
-        <v>0.160667</v>
+        <v>0.162166</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.178547</v>
+        <v>0.181877</v>
       </c>
       <c r="C71" t="n">
-        <v>0.159057</v>
+        <v>0.161519</v>
       </c>
       <c r="D71" t="n">
-        <v>0.15931</v>
+        <v>0.163411</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180221</v>
+        <v>0.183138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.162125</v>
+        <v>0.162054</v>
       </c>
       <c r="D72" t="n">
-        <v>0.161155</v>
+        <v>0.164234</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.180035</v>
+        <v>0.185782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.161903</v>
+        <v>0.166648</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161702</v>
+        <v>0.164693</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.182522</v>
+        <v>0.183175</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160958</v>
+        <v>0.162573</v>
       </c>
       <c r="D74" t="n">
-        <v>0.162692</v>
+        <v>0.164749</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18545</v>
+        <v>0.182331</v>
       </c>
       <c r="C75" t="n">
-        <v>0.165351</v>
+        <v>0.164388</v>
       </c>
       <c r="D75" t="n">
-        <v>0.164012</v>
+        <v>0.166592</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186</v>
+        <v>0.186507</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165027</v>
+        <v>0.165937</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169268</v>
+        <v>0.168146</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.190768</v>
+        <v>0.188987</v>
       </c>
       <c r="C77" t="n">
-        <v>0.167865</v>
+        <v>0.168177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.169936</v>
+        <v>0.170941</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.194555</v>
+        <v>0.191192</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170381</v>
+        <v>0.170982</v>
       </c>
       <c r="D78" t="n">
-        <v>0.173719</v>
+        <v>0.174065</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.199946</v>
+        <v>0.197782</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173523</v>
+        <v>0.175513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.177888</v>
+        <v>0.180538</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.208844</v>
+        <v>0.20745</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1763</v>
+        <v>0.181022</v>
       </c>
       <c r="D80" t="n">
-        <v>0.187191</v>
+        <v>0.189414</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.343846</v>
+        <v>0.342552</v>
       </c>
       <c r="C81" t="n">
-        <v>0.291294</v>
+        <v>0.290848</v>
       </c>
       <c r="D81" t="n">
-        <v>0.292466</v>
+        <v>0.294925</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345959</v>
+        <v>0.344691</v>
       </c>
       <c r="C82" t="n">
-        <v>0.291382</v>
+        <v>0.291617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.291608</v>
+        <v>0.294067</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.343051</v>
+        <v>0.345405</v>
       </c>
       <c r="C83" t="n">
-        <v>0.288202</v>
+        <v>0.291199</v>
       </c>
       <c r="D83" t="n">
-        <v>0.286675</v>
+        <v>0.29084</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.348377</v>
+        <v>0.34802</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28579</v>
+        <v>0.288361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.291787</v>
+        <v>0.290622</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.344815</v>
+        <v>0.345074</v>
       </c>
       <c r="C85" t="n">
-        <v>0.285624</v>
+        <v>0.290654</v>
       </c>
       <c r="D85" t="n">
-        <v>0.286159</v>
+        <v>0.287093</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34494</v>
+        <v>0.34826</v>
       </c>
       <c r="C86" t="n">
-        <v>0.285062</v>
+        <v>0.285303</v>
       </c>
       <c r="D86" t="n">
-        <v>0.284712</v>
+        <v>0.286525</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.348565</v>
+        <v>0.34733</v>
       </c>
       <c r="C87" t="n">
-        <v>0.284659</v>
+        <v>0.287821</v>
       </c>
       <c r="D87" t="n">
-        <v>0.283491</v>
+        <v>0.284923</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.347077</v>
+        <v>0.349363</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283325</v>
+        <v>0.28512</v>
       </c>
       <c r="D88" t="n">
-        <v>0.282365</v>
+        <v>0.28591</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.348647</v>
+        <v>0.352161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285052</v>
+        <v>0.285844</v>
       </c>
       <c r="D89" t="n">
-        <v>0.276676</v>
+        <v>0.284815</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352174</v>
+        <v>0.352202</v>
       </c>
       <c r="C90" t="n">
-        <v>0.282352</v>
+        <v>0.287186</v>
       </c>
       <c r="D90" t="n">
-        <v>0.282552</v>
+        <v>0.284547</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356719</v>
+        <v>0.356082</v>
       </c>
       <c r="C91" t="n">
-        <v>0.284199</v>
+        <v>0.285867</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281708</v>
+        <v>0.287567</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355498</v>
+        <v>0.359482</v>
       </c>
       <c r="C92" t="n">
-        <v>0.281877</v>
+        <v>0.287058</v>
       </c>
       <c r="D92" t="n">
-        <v>0.284705</v>
+        <v>0.288142</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.357749</v>
+        <v>0.360713</v>
       </c>
       <c r="C93" t="n">
-        <v>0.284195</v>
+        <v>0.289893</v>
       </c>
       <c r="D93" t="n">
-        <v>0.28422</v>
+        <v>0.293439</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.367108</v>
+        <v>0.367415</v>
       </c>
       <c r="C94" t="n">
-        <v>0.288476</v>
+        <v>0.289875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.289446</v>
+        <v>0.298345</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502826</v>
+        <v>0.500336</v>
       </c>
       <c r="C95" t="n">
-        <v>0.455207</v>
+        <v>0.454146</v>
       </c>
       <c r="D95" t="n">
-        <v>0.456508</v>
+        <v>0.456271</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.503634</v>
+        <v>0.499605</v>
       </c>
       <c r="C96" t="n">
-        <v>0.454715</v>
+        <v>0.453207</v>
       </c>
       <c r="D96" t="n">
-        <v>0.452849</v>
+        <v>0.454726</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.50334</v>
+        <v>0.500618</v>
       </c>
       <c r="C97" t="n">
-        <v>0.453518</v>
+        <v>0.45261</v>
       </c>
       <c r="D97" t="n">
-        <v>0.45377</v>
+        <v>0.454445</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5041060000000001</v>
+        <v>0.500349</v>
       </c>
       <c r="C98" t="n">
-        <v>0.454785</v>
+        <v>0.45267</v>
       </c>
       <c r="D98" t="n">
-        <v>0.451986</v>
+        <v>0.453411</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.503403</v>
+        <v>0.500089</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453619</v>
+        <v>0.451274</v>
       </c>
       <c r="D99" t="n">
-        <v>0.451045</v>
+        <v>0.454066</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5039709999999999</v>
+        <v>0.50085</v>
       </c>
       <c r="C100" t="n">
-        <v>0.452589</v>
+        <v>0.450895</v>
       </c>
       <c r="D100" t="n">
-        <v>0.450516</v>
+        <v>0.452179</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.503999</v>
+        <v>0.5009400000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.452277</v>
+        <v>0.450949</v>
       </c>
       <c r="D101" t="n">
-        <v>0.449392</v>
+        <v>0.451626</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505054</v>
+        <v>0.501982</v>
       </c>
       <c r="C102" t="n">
-        <v>0.452382</v>
+        <v>0.451547</v>
       </c>
       <c r="D102" t="n">
-        <v>0.450153</v>
+        <v>0.451272</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.507126</v>
+        <v>0.504062</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452033</v>
+        <v>0.451627</v>
       </c>
       <c r="D103" t="n">
-        <v>0.450378</v>
+        <v>0.451809</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50844</v>
+        <v>0.505455</v>
       </c>
       <c r="C104" t="n">
-        <v>0.452666</v>
+        <v>0.452905</v>
       </c>
       <c r="D104" t="n">
-        <v>0.451868</v>
+        <v>0.452745</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.510849</v>
+        <v>0.508657</v>
       </c>
       <c r="C105" t="n">
-        <v>0.456179</v>
+        <v>0.454614</v>
       </c>
       <c r="D105" t="n">
-        <v>0.454282</v>
+        <v>0.454585</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514394</v>
+        <v>0.511339</v>
       </c>
       <c r="C106" t="n">
-        <v>0.458236</v>
+        <v>0.455995</v>
       </c>
       <c r="D106" t="n">
-        <v>0.453464</v>
+        <v>0.45631</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.51934</v>
+        <v>0.516551</v>
       </c>
       <c r="C107" t="n">
-        <v>0.460348</v>
+        <v>0.458304</v>
       </c>
       <c r="D107" t="n">
-        <v>0.460545</v>
+        <v>0.462151</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526571</v>
+        <v>0.523967</v>
       </c>
       <c r="C108" t="n">
-        <v>0.465555</v>
+        <v>0.463918</v>
       </c>
       <c r="D108" t="n">
-        <v>0.468011</v>
+        <v>0.468536</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537384</v>
+        <v>0.533232</v>
       </c>
       <c r="C109" t="n">
-        <v>0.472659</v>
+        <v>0.472185</v>
       </c>
       <c r="D109" t="n">
-        <v>0.480325</v>
+        <v>0.479706</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.586591</v>
+        <v>0.585333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.563384</v>
+        <v>0.562198</v>
       </c>
       <c r="D110" t="n">
-        <v>0.561602</v>
+        <v>0.565669</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.586114</v>
+        <v>0.585581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557725</v>
+        <v>0.562178</v>
       </c>
       <c r="D111" t="n">
-        <v>0.554455</v>
+        <v>0.564073</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.585279</v>
+        <v>0.589448</v>
       </c>
       <c r="C112" t="n">
-        <v>0.563404</v>
+        <v>0.564665</v>
       </c>
       <c r="D112" t="n">
-        <v>0.560822</v>
+        <v>0.564119</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.586252</v>
+        <v>0.587633</v>
       </c>
       <c r="C113" t="n">
-        <v>0.562843</v>
+        <v>0.564387</v>
       </c>
       <c r="D113" t="n">
-        <v>0.55977</v>
+        <v>0.566522</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.586602</v>
+        <v>0.588365</v>
       </c>
       <c r="C114" t="n">
-        <v>0.563687</v>
+        <v>0.565188</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562364</v>
+        <v>0.5661079999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.588855</v>
+        <v>0.5900260000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.568014</v>
+        <v>0.56549</v>
       </c>
       <c r="D115" t="n">
-        <v>0.563243</v>
+        <v>0.568039</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.59063</v>
+        <v>0.588741</v>
       </c>
       <c r="C116" t="n">
-        <v>0.565478</v>
+        <v>0.567291</v>
       </c>
       <c r="D116" t="n">
-        <v>0.563146</v>
+        <v>0.564689</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5921</v>
+        <v>0.591692</v>
       </c>
       <c r="C117" t="n">
-        <v>0.566443</v>
+        <v>0.568368</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5648570000000001</v>
+        <v>0.569841</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5955780000000001</v>
+        <v>0.595839</v>
       </c>
       <c r="C118" t="n">
-        <v>0.563977</v>
+        <v>0.569041</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5608610000000001</v>
+        <v>0.571007</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599436</v>
+        <v>0.597943</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571167</v>
+        <v>0.570667</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569368</v>
+        <v>0.572128</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.602108</v>
+        <v>0.603081</v>
       </c>
       <c r="C120" t="n">
-        <v>0.574194</v>
+        <v>0.576363</v>
       </c>
       <c r="D120" t="n">
-        <v>0.567577</v>
+        <v>0.576804</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.609251</v>
+        <v>0.610398</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5721270000000001</v>
+        <v>0.579736</v>
       </c>
       <c r="D121" t="n">
-        <v>0.576955</v>
+        <v>0.582411</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.616448</v>
+        <v>0.617933</v>
       </c>
       <c r="C122" t="n">
-        <v>0.583274</v>
+        <v>0.58446</v>
       </c>
       <c r="D122" t="n">
-        <v>0.579209</v>
+        <v>0.5893699999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6288589999999999</v>
+        <v>0.630203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585876</v>
+        <v>0.595285</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5980259999999999</v>
+        <v>0.602722</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.732555</v>
+        <v>0.731625</v>
       </c>
       <c r="C124" t="n">
-        <v>0.687874</v>
+        <v>0.69004</v>
       </c>
       <c r="D124" t="n">
-        <v>0.689758</v>
+        <v>0.693495</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.732989</v>
+        <v>0.7306</v>
       </c>
       <c r="C125" t="n">
-        <v>0.691495</v>
+        <v>0.692474</v>
       </c>
       <c r="D125" t="n">
-        <v>0.689903</v>
+        <v>0.694204</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.733131</v>
+        <v>0.732727</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6946830000000001</v>
+        <v>0.693973</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693035</v>
+        <v>0.694539</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73432</v>
+        <v>0.73414</v>
       </c>
       <c r="C127" t="n">
-        <v>0.69489</v>
+        <v>0.695418</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6891080000000001</v>
+        <v>0.695105</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734985</v>
+        <v>0.734563</v>
       </c>
       <c r="C128" t="n">
-        <v>0.697245</v>
+        <v>0.695619</v>
       </c>
       <c r="D128" t="n">
-        <v>0.692555</v>
+        <v>0.696088</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.736178</v>
+        <v>0.73482</v>
       </c>
       <c r="C129" t="n">
-        <v>0.697515</v>
+        <v>0.6973510000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696453</v>
+        <v>0.695268</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.737133</v>
+        <v>0.735782</v>
       </c>
       <c r="C130" t="n">
-        <v>0.702261</v>
+        <v>0.699838</v>
       </c>
       <c r="D130" t="n">
-        <v>0.69742</v>
+        <v>0.701302</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.742181</v>
+        <v>0.7394309999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.698518</v>
+        <v>0.701701</v>
       </c>
       <c r="D131" t="n">
-        <v>0.699449</v>
+        <v>0.700214</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7430020000000001</v>
+        <v>0.742634</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702075</v>
+        <v>0.705555</v>
       </c>
       <c r="D132" t="n">
-        <v>0.698985</v>
+        <v>0.705088</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.745932</v>
+        <v>0.745357</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7089029999999999</v>
+        <v>0.706989</v>
       </c>
       <c r="D133" t="n">
-        <v>0.697502</v>
+        <v>0.708365</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749744</v>
+        <v>0.750797</v>
       </c>
       <c r="C134" t="n">
-        <v>0.71372</v>
+        <v>0.70952</v>
       </c>
       <c r="D134" t="n">
-        <v>0.701892</v>
+        <v>0.711947</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.759054</v>
+        <v>0.756092</v>
       </c>
       <c r="C135" t="n">
-        <v>0.717622</v>
+        <v>0.716986</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7145319999999999</v>
+        <v>0.715767</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.767678</v>
+        <v>0.765802</v>
       </c>
       <c r="C136" t="n">
-        <v>0.721672</v>
+        <v>0.725004</v>
       </c>
       <c r="D136" t="n">
-        <v>0.720276</v>
+        <v>0.724778</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7782480000000001</v>
+        <v>0.776559</v>
       </c>
       <c r="C137" t="n">
-        <v>0.731305</v>
+        <v>0.73203</v>
       </c>
       <c r="D137" t="n">
-        <v>0.729626</v>
+        <v>0.735778</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.860735</v>
+        <v>0.862038</v>
       </c>
       <c r="C138" t="n">
-        <v>0.814676</v>
+        <v>0.817058</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8167990000000001</v>
+        <v>0.822267</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.861441</v>
+        <v>0.8636509999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818116</v>
+        <v>0.817941</v>
       </c>
       <c r="D139" t="n">
-        <v>0.815376</v>
+        <v>0.820941</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863557</v>
+        <v>0.864696</v>
       </c>
       <c r="C140" t="n">
-        <v>0.820039</v>
+        <v>0.819767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.817563</v>
+        <v>0.8232350000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863626</v>
+        <v>0.865022</v>
       </c>
       <c r="C141" t="n">
-        <v>0.819411</v>
+        <v>0.823304</v>
       </c>
       <c r="D141" t="n">
-        <v>0.819042</v>
+        <v>0.825233</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.862771</v>
+        <v>0.867126</v>
       </c>
       <c r="C142" t="n">
-        <v>0.819798</v>
+        <v>0.824844</v>
       </c>
       <c r="D142" t="n">
-        <v>0.820283</v>
+        <v>0.823692</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.863726</v>
+        <v>0.867072</v>
       </c>
       <c r="C143" t="n">
-        <v>0.822949</v>
+        <v>0.826391</v>
       </c>
       <c r="D143" t="n">
-        <v>0.822595</v>
+        <v>0.827515</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.109418</v>
+        <v>0.115864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102526</v>
+        <v>0.109531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105121</v>
+        <v>0.107983</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110618</v>
+        <v>0.113702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100914</v>
+        <v>0.104485</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10499</v>
+        <v>0.106822</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111122</v>
+        <v>0.114567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101447</v>
+        <v>0.107965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.105902</v>
+        <v>0.106423</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111092</v>
+        <v>0.113611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101625</v>
+        <v>0.103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105639</v>
+        <v>0.107104</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111985</v>
+        <v>0.114387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103823</v>
+        <v>0.103496</v>
       </c>
       <c r="D6" t="n">
-        <v>0.106221</v>
+        <v>0.108566</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.112217</v>
+        <v>0.118059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101995</v>
+        <v>0.106156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106739</v>
+        <v>0.110536</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115576</v>
+        <v>0.120107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.104087</v>
+        <v>0.111199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108763</v>
+        <v>0.111887</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118875</v>
+        <v>0.122882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105364</v>
+        <v>0.111524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112474</v>
+        <v>0.113822</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12235</v>
+        <v>0.12588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110622</v>
+        <v>0.116124</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112108</v>
+        <v>0.116555</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12141</v>
+        <v>0.126074</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110187</v>
+        <v>0.121798</v>
       </c>
       <c r="D11" t="n">
-        <v>0.112943</v>
+        <v>0.117026</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121888</v>
+        <v>0.125214</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111215</v>
+        <v>0.120266</v>
       </c>
       <c r="D12" t="n">
-        <v>0.112345</v>
+        <v>0.117935</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.121555</v>
+        <v>0.125231</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111415</v>
+        <v>0.116169</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112926</v>
+        <v>0.117414</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.121436</v>
+        <v>0.126439</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11156</v>
+        <v>0.11721</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113703</v>
+        <v>0.118375</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122669</v>
+        <v>0.126074</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112049</v>
+        <v>0.122522</v>
       </c>
       <c r="D15" t="n">
-        <v>0.113171</v>
+        <v>0.117264</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124259</v>
+        <v>0.12742</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111619</v>
+        <v>0.118431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114126</v>
+        <v>0.118431</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123264</v>
+        <v>0.126482</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112785</v>
+        <v>0.116959</v>
       </c>
       <c r="D17" t="n">
-        <v>0.113943</v>
+        <v>0.1183</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12408</v>
+        <v>0.127834</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112573</v>
+        <v>0.115953</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114065</v>
+        <v>0.118048</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.124669</v>
+        <v>0.128396</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112889</v>
+        <v>0.119576</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114964</v>
+        <v>0.118986</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126915</v>
+        <v>0.129595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113644</v>
+        <v>0.117183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115942</v>
+        <v>0.119444</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127455</v>
+        <v>0.131493</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114076</v>
+        <v>0.120966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119014</v>
+        <v>0.121495</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131108</v>
+        <v>0.134989</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117493</v>
+        <v>0.124428</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12271</v>
+        <v>0.125638</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138444</v>
+        <v>0.142424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122898</v>
+        <v>0.128265</v>
       </c>
       <c r="D23" t="n">
-        <v>0.133818</v>
+        <v>0.13712</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133556</v>
+        <v>0.134605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.120967</v>
+        <v>0.124738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121734</v>
+        <v>0.124986</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132898</v>
+        <v>0.133628</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121198</v>
+        <v>0.125424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121819</v>
+        <v>0.125304</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133758</v>
+        <v>0.135845</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121346</v>
+        <v>0.124012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.12662</v>
+        <v>0.125403</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134278</v>
+        <v>0.133842</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121447</v>
+        <v>0.124295</v>
       </c>
       <c r="D27" t="n">
-        <v>0.122177</v>
+        <v>0.125498</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133016</v>
+        <v>0.134748</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121754</v>
+        <v>0.126502</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122443</v>
+        <v>0.125309</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1345</v>
+        <v>0.135239</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121962</v>
+        <v>0.125707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12489</v>
+        <v>0.12584</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134013</v>
+        <v>0.134956</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122782</v>
+        <v>0.124879</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122872</v>
+        <v>0.126716</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135444</v>
+        <v>0.136926</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123624</v>
+        <v>0.125615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126694</v>
+        <v>0.12573</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135166</v>
+        <v>0.137229</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123071</v>
+        <v>0.12746</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124033</v>
+        <v>0.126371</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136552</v>
+        <v>0.138814</v>
       </c>
       <c r="C33" t="n">
-        <v>0.125507</v>
+        <v>0.125815</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125238</v>
+        <v>0.127089</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138283</v>
+        <v>0.138879</v>
       </c>
       <c r="C34" t="n">
-        <v>0.12538</v>
+        <v>0.128928</v>
       </c>
       <c r="D34" t="n">
-        <v>0.126317</v>
+        <v>0.128242</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.14181</v>
+        <v>0.145354</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127591</v>
+        <v>0.129655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130239</v>
+        <v>0.132159</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146671</v>
+        <v>0.148725</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131983</v>
+        <v>0.134861</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137457</v>
+        <v>0.138256</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154062</v>
+        <v>0.157465</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137047</v>
+        <v>0.141085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.145571</v>
+        <v>0.147458</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145516</v>
+        <v>0.14762</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133409</v>
+        <v>0.136925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132996</v>
+        <v>0.14255</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145737</v>
+        <v>0.14949</v>
       </c>
       <c r="C39" t="n">
-        <v>0.134226</v>
+        <v>0.139876</v>
       </c>
       <c r="D39" t="n">
-        <v>0.134723</v>
+        <v>0.141171</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145315</v>
+        <v>0.148374</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132412</v>
+        <v>0.139647</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133251</v>
+        <v>0.141066</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145669</v>
+        <v>0.149229</v>
       </c>
       <c r="C41" t="n">
-        <v>0.134464</v>
+        <v>0.13534</v>
       </c>
       <c r="D41" t="n">
-        <v>0.134208</v>
+        <v>0.138481</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14775</v>
+        <v>0.149013</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133973</v>
+        <v>0.13953</v>
       </c>
       <c r="D42" t="n">
-        <v>0.134988</v>
+        <v>0.139322</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148514</v>
+        <v>0.149634</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135275</v>
+        <v>0.136773</v>
       </c>
       <c r="D43" t="n">
-        <v>0.135259</v>
+        <v>0.138102</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148458</v>
+        <v>0.147202</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13529</v>
+        <v>0.139923</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135642</v>
+        <v>0.139913</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147911</v>
+        <v>0.151938</v>
       </c>
       <c r="C45" t="n">
-        <v>0.13568</v>
+        <v>0.138347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135946</v>
+        <v>0.138868</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149777</v>
+        <v>0.149756</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136378</v>
+        <v>0.139785</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137258</v>
+        <v>0.137707</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.14996</v>
+        <v>0.151209</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138579</v>
+        <v>0.14012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.137614</v>
+        <v>0.140122</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.154446</v>
+        <v>0.153276</v>
       </c>
       <c r="C48" t="n">
-        <v>0.138597</v>
+        <v>0.141516</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140311</v>
+        <v>0.141878</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154638</v>
+        <v>0.156032</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141871</v>
+        <v>0.143701</v>
       </c>
       <c r="D49" t="n">
-        <v>0.143796</v>
+        <v>0.14571</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.16011</v>
+        <v>0.160402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.145358</v>
+        <v>0.146741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149738</v>
+        <v>0.151213</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166925</v>
+        <v>0.168139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151512</v>
+        <v>0.150763</v>
       </c>
       <c r="D51" t="n">
-        <v>0.155393</v>
+        <v>0.158674</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173147</v>
+        <v>0.177722</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155744</v>
+        <v>0.156037</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167688</v>
+        <v>0.167366</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160243</v>
+        <v>0.161866</v>
       </c>
       <c r="C53" t="n">
-        <v>0.143055</v>
+        <v>0.149455</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144843</v>
+        <v>0.148808</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159592</v>
+        <v>0.160774</v>
       </c>
       <c r="C54" t="n">
-        <v>0.144494</v>
+        <v>0.146977</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144891</v>
+        <v>0.145311</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160362</v>
+        <v>0.160206</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144257</v>
+        <v>0.147186</v>
       </c>
       <c r="D55" t="n">
-        <v>0.145528</v>
+        <v>0.147941</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160613</v>
+        <v>0.161856</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144771</v>
+        <v>0.14906</v>
       </c>
       <c r="D56" t="n">
-        <v>0.145875</v>
+        <v>0.151171</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161068</v>
+        <v>0.162076</v>
       </c>
       <c r="C57" t="n">
-        <v>0.145504</v>
+        <v>0.147181</v>
       </c>
       <c r="D57" t="n">
-        <v>0.145091</v>
+        <v>0.148708</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160859</v>
+        <v>0.162123</v>
       </c>
       <c r="C58" t="n">
-        <v>0.146351</v>
+        <v>0.145505</v>
       </c>
       <c r="D58" t="n">
-        <v>0.146886</v>
+        <v>0.149337</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162893</v>
+        <v>0.162017</v>
       </c>
       <c r="C59" t="n">
-        <v>0.147078</v>
+        <v>0.150378</v>
       </c>
       <c r="D59" t="n">
-        <v>0.148937</v>
+        <v>0.152434</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.163489</v>
+        <v>0.165001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146662</v>
+        <v>0.147131</v>
       </c>
       <c r="D60" t="n">
-        <v>0.148425</v>
+        <v>0.151296</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164134</v>
+        <v>0.164026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149371</v>
+        <v>0.14823</v>
       </c>
       <c r="D61" t="n">
-        <v>0.150695</v>
+        <v>0.151833</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167261</v>
+        <v>0.166274</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15145</v>
+        <v>0.150127</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153165</v>
+        <v>0.153907</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170621</v>
+        <v>0.170173</v>
       </c>
       <c r="C63" t="n">
-        <v>0.153001</v>
+        <v>0.152203</v>
       </c>
       <c r="D63" t="n">
-        <v>0.155511</v>
+        <v>0.154669</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174549</v>
+        <v>0.174232</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15631</v>
+        <v>0.157263</v>
       </c>
       <c r="D64" t="n">
-        <v>0.159375</v>
+        <v>0.157868</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179688</v>
+        <v>0.179057</v>
       </c>
       <c r="C65" t="n">
-        <v>0.161037</v>
+        <v>0.160981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.165387</v>
+        <v>0.167452</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187698</v>
+        <v>0.188288</v>
       </c>
       <c r="C66" t="n">
-        <v>0.166222</v>
+        <v>0.165839</v>
       </c>
       <c r="D66" t="n">
-        <v>0.174668</v>
+        <v>0.175761</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181331</v>
+        <v>0.207334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.159213</v>
+        <v>0.16962</v>
       </c>
       <c r="D67" t="n">
-        <v>0.160665</v>
+        <v>0.17756</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1792</v>
+        <v>0.185709</v>
       </c>
       <c r="C68" t="n">
-        <v>0.157537</v>
+        <v>0.176214</v>
       </c>
       <c r="D68" t="n">
-        <v>0.160931</v>
+        <v>0.170605</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180181</v>
+        <v>0.189951</v>
       </c>
       <c r="C69" t="n">
-        <v>0.160456</v>
+        <v>0.169829</v>
       </c>
       <c r="D69" t="n">
-        <v>0.162022</v>
+        <v>0.173291</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.180587</v>
+        <v>0.197287</v>
       </c>
       <c r="C70" t="n">
-        <v>0.162444</v>
+        <v>0.170889</v>
       </c>
       <c r="D70" t="n">
-        <v>0.162166</v>
+        <v>0.178757</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181877</v>
+        <v>0.188893</v>
       </c>
       <c r="C71" t="n">
-        <v>0.161519</v>
+        <v>0.170938</v>
       </c>
       <c r="D71" t="n">
-        <v>0.163411</v>
+        <v>0.169097</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183138</v>
+        <v>0.188538</v>
       </c>
       <c r="C72" t="n">
-        <v>0.162054</v>
+        <v>0.167407</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164234</v>
+        <v>0.172121</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185782</v>
+        <v>0.190751</v>
       </c>
       <c r="C73" t="n">
-        <v>0.166648</v>
+        <v>0.17572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.164693</v>
+        <v>0.1729</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.183175</v>
+        <v>0.197702</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162573</v>
+        <v>0.168801</v>
       </c>
       <c r="D74" t="n">
-        <v>0.164749</v>
+        <v>0.173912</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.182331</v>
+        <v>0.191751</v>
       </c>
       <c r="C75" t="n">
-        <v>0.164388</v>
+        <v>0.174192</v>
       </c>
       <c r="D75" t="n">
-        <v>0.166592</v>
+        <v>0.172494</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186507</v>
+        <v>0.198552</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165937</v>
+        <v>0.174556</v>
       </c>
       <c r="D76" t="n">
-        <v>0.168146</v>
+        <v>0.174521</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.188987</v>
+        <v>0.192981</v>
       </c>
       <c r="C77" t="n">
-        <v>0.168177</v>
+        <v>0.175051</v>
       </c>
       <c r="D77" t="n">
-        <v>0.170941</v>
+        <v>0.174512</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.191192</v>
+        <v>0.198352</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170982</v>
+        <v>0.17497</v>
       </c>
       <c r="D78" t="n">
-        <v>0.174065</v>
+        <v>0.179832</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197782</v>
+        <v>0.19775</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175513</v>
+        <v>0.179363</v>
       </c>
       <c r="D79" t="n">
-        <v>0.180538</v>
+        <v>0.182305</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.20745</v>
+        <v>0.213488</v>
       </c>
       <c r="C80" t="n">
-        <v>0.181022</v>
+        <v>0.181491</v>
       </c>
       <c r="D80" t="n">
-        <v>0.189414</v>
+        <v>0.191375</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342552</v>
+        <v>0.345659</v>
       </c>
       <c r="C81" t="n">
-        <v>0.290848</v>
+        <v>0.282693</v>
       </c>
       <c r="D81" t="n">
-        <v>0.294925</v>
+        <v>0.297215</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344691</v>
+        <v>0.343993</v>
       </c>
       <c r="C82" t="n">
-        <v>0.291617</v>
+        <v>0.291618</v>
       </c>
       <c r="D82" t="n">
-        <v>0.294067</v>
+        <v>0.297041</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345405</v>
+        <v>0.350365</v>
       </c>
       <c r="C83" t="n">
-        <v>0.291199</v>
+        <v>0.29287</v>
       </c>
       <c r="D83" t="n">
-        <v>0.29084</v>
+        <v>0.297214</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.34802</v>
+        <v>0.349464</v>
       </c>
       <c r="C84" t="n">
-        <v>0.288361</v>
+        <v>0.29198</v>
       </c>
       <c r="D84" t="n">
-        <v>0.290622</v>
+        <v>0.297687</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.345074</v>
+        <v>0.348969</v>
       </c>
       <c r="C85" t="n">
-        <v>0.290654</v>
+        <v>0.295123</v>
       </c>
       <c r="D85" t="n">
-        <v>0.287093</v>
+        <v>0.280672</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.34826</v>
+        <v>0.349754</v>
       </c>
       <c r="C86" t="n">
-        <v>0.285303</v>
+        <v>0.281138</v>
       </c>
       <c r="D86" t="n">
-        <v>0.286525</v>
+        <v>0.278378</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.34733</v>
+        <v>0.353506</v>
       </c>
       <c r="C87" t="n">
-        <v>0.287821</v>
+        <v>0.289904</v>
       </c>
       <c r="D87" t="n">
-        <v>0.284923</v>
+        <v>0.293177</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.349363</v>
+        <v>0.349883</v>
       </c>
       <c r="C88" t="n">
-        <v>0.28512</v>
+        <v>0.290849</v>
       </c>
       <c r="D88" t="n">
-        <v>0.28591</v>
+        <v>0.292151</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352161</v>
+        <v>0.349837</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285844</v>
+        <v>0.281976</v>
       </c>
       <c r="D89" t="n">
-        <v>0.284815</v>
+        <v>0.272927</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.352202</v>
+        <v>0.357604</v>
       </c>
       <c r="C90" t="n">
-        <v>0.287186</v>
+        <v>0.283895</v>
       </c>
       <c r="D90" t="n">
-        <v>0.284547</v>
+        <v>0.2893</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356082</v>
+        <v>0.355228</v>
       </c>
       <c r="C91" t="n">
-        <v>0.285867</v>
+        <v>0.281071</v>
       </c>
       <c r="D91" t="n">
-        <v>0.287567</v>
+        <v>0.286085</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.359482</v>
+        <v>0.356893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.287058</v>
+        <v>0.288101</v>
       </c>
       <c r="D92" t="n">
-        <v>0.288142</v>
+        <v>0.281082</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360713</v>
+        <v>0.360942</v>
       </c>
       <c r="C93" t="n">
-        <v>0.289893</v>
+        <v>0.290142</v>
       </c>
       <c r="D93" t="n">
-        <v>0.293439</v>
+        <v>0.292308</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.367415</v>
+        <v>0.371483</v>
       </c>
       <c r="C94" t="n">
-        <v>0.289875</v>
+        <v>0.292823</v>
       </c>
       <c r="D94" t="n">
-        <v>0.298345</v>
+        <v>0.297854</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.500336</v>
+        <v>0.505422</v>
       </c>
       <c r="C95" t="n">
-        <v>0.454146</v>
+        <v>0.460715</v>
       </c>
       <c r="D95" t="n">
-        <v>0.456271</v>
+        <v>0.463979</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.499605</v>
+        <v>0.50559</v>
       </c>
       <c r="C96" t="n">
-        <v>0.453207</v>
+        <v>0.461145</v>
       </c>
       <c r="D96" t="n">
-        <v>0.454726</v>
+        <v>0.463349</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.500618</v>
+        <v>0.505337</v>
       </c>
       <c r="C97" t="n">
-        <v>0.45261</v>
+        <v>0.461001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.454445</v>
+        <v>0.461941</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.500349</v>
+        <v>0.505845</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45267</v>
+        <v>0.45877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453411</v>
+        <v>0.460756</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.500089</v>
+        <v>0.505894</v>
       </c>
       <c r="C99" t="n">
-        <v>0.451274</v>
+        <v>0.445582</v>
       </c>
       <c r="D99" t="n">
-        <v>0.454066</v>
+        <v>0.459026</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.50085</v>
+        <v>0.506934</v>
       </c>
       <c r="C100" t="n">
-        <v>0.450895</v>
+        <v>0.457595</v>
       </c>
       <c r="D100" t="n">
-        <v>0.452179</v>
+        <v>0.459233</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5009400000000001</v>
+        <v>0.507513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.450949</v>
+        <v>0.457721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.451626</v>
+        <v>0.445806</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.501982</v>
+        <v>0.508149</v>
       </c>
       <c r="C102" t="n">
-        <v>0.451547</v>
+        <v>0.4595</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451272</v>
+        <v>0.458075</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.504062</v>
+        <v>0.5098819999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.451627</v>
+        <v>0.458183</v>
       </c>
       <c r="D103" t="n">
-        <v>0.451809</v>
+        <v>0.459533</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.505455</v>
+        <v>0.51194</v>
       </c>
       <c r="C104" t="n">
-        <v>0.452905</v>
+        <v>0.459548</v>
       </c>
       <c r="D104" t="n">
-        <v>0.452745</v>
+        <v>0.458984</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.508657</v>
+        <v>0.514337</v>
       </c>
       <c r="C105" t="n">
-        <v>0.454614</v>
+        <v>0.460961</v>
       </c>
       <c r="D105" t="n">
-        <v>0.454585</v>
+        <v>0.461852</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.511339</v>
+        <v>0.517856</v>
       </c>
       <c r="C106" t="n">
-        <v>0.455995</v>
+        <v>0.46231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.45631</v>
+        <v>0.463813</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.516551</v>
+        <v>0.522213</v>
       </c>
       <c r="C107" t="n">
-        <v>0.458304</v>
+        <v>0.464791</v>
       </c>
       <c r="D107" t="n">
-        <v>0.462151</v>
+        <v>0.466935</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.523967</v>
+        <v>0.529622</v>
       </c>
       <c r="C108" t="n">
-        <v>0.463918</v>
+        <v>0.470377</v>
       </c>
       <c r="D108" t="n">
-        <v>0.468536</v>
+        <v>0.460666</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.533232</v>
+        <v>0.540458</v>
       </c>
       <c r="C109" t="n">
-        <v>0.472185</v>
+        <v>0.477763</v>
       </c>
       <c r="D109" t="n">
-        <v>0.479706</v>
+        <v>0.485128</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585333</v>
+        <v>0.590958</v>
       </c>
       <c r="C110" t="n">
-        <v>0.562198</v>
+        <v>0.570959</v>
       </c>
       <c r="D110" t="n">
-        <v>0.565669</v>
+        <v>0.573443</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585581</v>
+        <v>0.593866</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562178</v>
+        <v>0.572446</v>
       </c>
       <c r="D111" t="n">
-        <v>0.564073</v>
+        <v>0.569542</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.589448</v>
+        <v>0.592844</v>
       </c>
       <c r="C112" t="n">
-        <v>0.564665</v>
+        <v>0.573076</v>
       </c>
       <c r="D112" t="n">
-        <v>0.564119</v>
+        <v>0.573469</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.587633</v>
+        <v>0.593878</v>
       </c>
       <c r="C113" t="n">
-        <v>0.564387</v>
+        <v>0.571844</v>
       </c>
       <c r="D113" t="n">
-        <v>0.566522</v>
+        <v>0.570665</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.588365</v>
+        <v>0.592749</v>
       </c>
       <c r="C114" t="n">
-        <v>0.565188</v>
+        <v>0.57267</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5661079999999999</v>
+        <v>0.57091</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5900260000000001</v>
+        <v>0.5937480000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.56549</v>
+        <v>0.573893</v>
       </c>
       <c r="D115" t="n">
-        <v>0.568039</v>
+        <v>0.574446</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588741</v>
+        <v>0.598199</v>
       </c>
       <c r="C116" t="n">
-        <v>0.567291</v>
+        <v>0.573562</v>
       </c>
       <c r="D116" t="n">
-        <v>0.564689</v>
+        <v>0.575833</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.591692</v>
+        <v>0.600711</v>
       </c>
       <c r="C117" t="n">
-        <v>0.568368</v>
+        <v>0.5700539999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.569841</v>
+        <v>0.571052</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.595839</v>
+        <v>0.599908</v>
       </c>
       <c r="C118" t="n">
-        <v>0.569041</v>
+        <v>0.570952</v>
       </c>
       <c r="D118" t="n">
-        <v>0.571007</v>
+        <v>0.576124</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.597943</v>
+        <v>0.603738</v>
       </c>
       <c r="C119" t="n">
-        <v>0.570667</v>
+        <v>0.578365</v>
       </c>
       <c r="D119" t="n">
-        <v>0.572128</v>
+        <v>0.574694</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.603081</v>
+        <v>0.606816</v>
       </c>
       <c r="C120" t="n">
-        <v>0.576363</v>
+        <v>0.580928</v>
       </c>
       <c r="D120" t="n">
-        <v>0.576804</v>
+        <v>0.581717</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.610398</v>
+        <v>0.613529</v>
       </c>
       <c r="C121" t="n">
-        <v>0.579736</v>
+        <v>0.586096</v>
       </c>
       <c r="D121" t="n">
-        <v>0.582411</v>
+        <v>0.583921</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.617933</v>
+        <v>0.621893</v>
       </c>
       <c r="C122" t="n">
-        <v>0.58446</v>
+        <v>0.591672</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5893699999999999</v>
+        <v>0.594614</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.630203</v>
+        <v>0.636606</v>
       </c>
       <c r="C123" t="n">
-        <v>0.595285</v>
+        <v>0.599693</v>
       </c>
       <c r="D123" t="n">
-        <v>0.602722</v>
+        <v>0.607335</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.731625</v>
+        <v>0.739331</v>
       </c>
       <c r="C124" t="n">
-        <v>0.69004</v>
+        <v>0.698372</v>
       </c>
       <c r="D124" t="n">
-        <v>0.693495</v>
+        <v>0.701244</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7306</v>
+        <v>0.738186</v>
       </c>
       <c r="C125" t="n">
-        <v>0.692474</v>
+        <v>0.701944</v>
       </c>
       <c r="D125" t="n">
-        <v>0.694204</v>
+        <v>0.702844</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.732727</v>
+        <v>0.737963</v>
       </c>
       <c r="C126" t="n">
-        <v>0.693973</v>
+        <v>0.701898</v>
       </c>
       <c r="D126" t="n">
-        <v>0.694539</v>
+        <v>0.7031539999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.73414</v>
+        <v>0.738582</v>
       </c>
       <c r="C127" t="n">
-        <v>0.695418</v>
+        <v>0.702987</v>
       </c>
       <c r="D127" t="n">
-        <v>0.695105</v>
+        <v>0.703608</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.734563</v>
+        <v>0.742057</v>
       </c>
       <c r="C128" t="n">
-        <v>0.695619</v>
+        <v>0.701035</v>
       </c>
       <c r="D128" t="n">
-        <v>0.696088</v>
+        <v>0.704887</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.73482</v>
+        <v>0.739935</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6973510000000001</v>
+        <v>0.705883</v>
       </c>
       <c r="D129" t="n">
-        <v>0.695268</v>
+        <v>0.706194</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.735782</v>
+        <v>0.7441719999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.699838</v>
+        <v>0.703906</v>
       </c>
       <c r="D130" t="n">
-        <v>0.701302</v>
+        <v>0.70517</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7394309999999999</v>
+        <v>0.7432530000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701701</v>
+        <v>0.710157</v>
       </c>
       <c r="D131" t="n">
-        <v>0.700214</v>
+        <v>0.710496</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.742634</v>
+        <v>0.748902</v>
       </c>
       <c r="C132" t="n">
-        <v>0.705555</v>
+        <v>0.713341</v>
       </c>
       <c r="D132" t="n">
-        <v>0.705088</v>
+        <v>0.707848</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.745357</v>
+        <v>0.752626</v>
       </c>
       <c r="C133" t="n">
-        <v>0.706989</v>
+        <v>0.715585</v>
       </c>
       <c r="D133" t="n">
-        <v>0.708365</v>
+        <v>0.714168</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.750797</v>
+        <v>0.757625</v>
       </c>
       <c r="C134" t="n">
-        <v>0.70952</v>
+        <v>0.713893</v>
       </c>
       <c r="D134" t="n">
-        <v>0.711947</v>
+        <v>0.718628</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.756092</v>
+        <v>0.761765</v>
       </c>
       <c r="C135" t="n">
-        <v>0.716986</v>
+        <v>0.72455</v>
       </c>
       <c r="D135" t="n">
-        <v>0.715767</v>
+        <v>0.720977</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.765802</v>
+        <v>0.771983</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725004</v>
+        <v>0.725397</v>
       </c>
       <c r="D136" t="n">
-        <v>0.724778</v>
+        <v>0.728041</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.776559</v>
+        <v>0.783803</v>
       </c>
       <c r="C137" t="n">
-        <v>0.73203</v>
+        <v>0.738138</v>
       </c>
       <c r="D137" t="n">
-        <v>0.735778</v>
+        <v>0.73973</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.862038</v>
+        <v>0.87051</v>
       </c>
       <c r="C138" t="n">
-        <v>0.817058</v>
+        <v>0.825474</v>
       </c>
       <c r="D138" t="n">
-        <v>0.822267</v>
+        <v>0.827173</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8636509999999999</v>
+        <v>0.870659</v>
       </c>
       <c r="C139" t="n">
-        <v>0.817941</v>
+        <v>0.827451</v>
       </c>
       <c r="D139" t="n">
-        <v>0.820941</v>
+        <v>0.829129</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864696</v>
+        <v>0.872956</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819767</v>
+        <v>0.8289609999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8232350000000001</v>
+        <v>0.828819</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865022</v>
+        <v>0.872313</v>
       </c>
       <c r="C141" t="n">
-        <v>0.823304</v>
+        <v>0.830635</v>
       </c>
       <c r="D141" t="n">
-        <v>0.825233</v>
+        <v>0.832234</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.867126</v>
+        <v>0.872553</v>
       </c>
       <c r="C142" t="n">
-        <v>0.824844</v>
+        <v>0.8307639999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.823692</v>
+        <v>0.832382</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867072</v>
+        <v>0.87523</v>
       </c>
       <c r="C143" t="n">
-        <v>0.826391</v>
+        <v>0.832055</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827515</v>
+        <v>0.834242</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115864</v>
+        <v>0.110371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109531</v>
+        <v>0.10085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107983</v>
+        <v>0.106679</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.113702</v>
+        <v>0.110857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104485</v>
+        <v>0.100888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106822</v>
+        <v>0.106703</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114567</v>
+        <v>0.110909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.107965</v>
+        <v>0.101297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106423</v>
+        <v>0.10685</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113611</v>
+        <v>0.111938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.103</v>
+        <v>0.101596</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107104</v>
+        <v>0.107142</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114387</v>
+        <v>0.112902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103496</v>
+        <v>0.102633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108566</v>
+        <v>0.107933</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118059</v>
+        <v>0.113005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.106156</v>
+        <v>0.102435</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110536</v>
+        <v>0.108451</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120107</v>
+        <v>0.114147</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111199</v>
+        <v>0.103131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111887</v>
+        <v>0.109499</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122882</v>
+        <v>0.119265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111524</v>
+        <v>0.104972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113822</v>
+        <v>0.11263</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12588</v>
+        <v>0.122869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116124</v>
+        <v>0.111019</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116555</v>
+        <v>0.112905</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126074</v>
+        <v>0.122827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.121798</v>
+        <v>0.1108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.117026</v>
+        <v>0.11275</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125214</v>
+        <v>0.123364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.120266</v>
+        <v>0.11185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.117935</v>
+        <v>0.113239</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125231</v>
+        <v>0.123722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.116169</v>
+        <v>0.112125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.117414</v>
+        <v>0.11327</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126439</v>
+        <v>0.123608</v>
       </c>
       <c r="C14" t="n">
-        <v>0.11721</v>
+        <v>0.114831</v>
       </c>
       <c r="D14" t="n">
-        <v>0.118375</v>
+        <v>0.113473</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126074</v>
+        <v>0.123276</v>
       </c>
       <c r="C15" t="n">
-        <v>0.122522</v>
+        <v>0.111466</v>
       </c>
       <c r="D15" t="n">
-        <v>0.117264</v>
+        <v>0.114276</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12742</v>
+        <v>0.123806</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118431</v>
+        <v>0.111327</v>
       </c>
       <c r="D16" t="n">
-        <v>0.118431</v>
+        <v>0.113502</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126482</v>
+        <v>0.124154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.116959</v>
+        <v>0.114439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1183</v>
+        <v>0.113792</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127834</v>
+        <v>0.124872</v>
       </c>
       <c r="C18" t="n">
-        <v>0.115953</v>
+        <v>0.112038</v>
       </c>
       <c r="D18" t="n">
-        <v>0.118048</v>
+        <v>0.114099</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128396</v>
+        <v>0.125715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.119576</v>
+        <v>0.112381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118986</v>
+        <v>0.114785</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129595</v>
+        <v>0.126853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117183</v>
+        <v>0.118624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119444</v>
+        <v>0.115312</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.131493</v>
+        <v>0.128566</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120966</v>
+        <v>0.114284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121495</v>
+        <v>0.117296</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.134989</v>
+        <v>0.131471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.124428</v>
+        <v>0.119324</v>
       </c>
       <c r="D22" t="n">
-        <v>0.125638</v>
+        <v>0.121401</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142424</v>
+        <v>0.13889</v>
       </c>
       <c r="C23" t="n">
-        <v>0.128265</v>
+        <v>0.121553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.13712</v>
+        <v>0.121063</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134605</v>
+        <v>0.132618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.124738</v>
+        <v>0.121111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.124986</v>
+        <v>0.121251</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.133628</v>
+        <v>0.134369</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125424</v>
+        <v>0.121398</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125304</v>
+        <v>0.121233</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135845</v>
+        <v>0.133381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.124012</v>
+        <v>0.121468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125403</v>
+        <v>0.121749</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133842</v>
+        <v>0.133963</v>
       </c>
       <c r="C27" t="n">
-        <v>0.124295</v>
+        <v>0.121666</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125498</v>
+        <v>0.121776</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134748</v>
+        <v>0.134105</v>
       </c>
       <c r="C28" t="n">
-        <v>0.126502</v>
+        <v>0.122037</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125309</v>
+        <v>0.122201</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135239</v>
+        <v>0.135426</v>
       </c>
       <c r="C29" t="n">
-        <v>0.125707</v>
+        <v>0.12232</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12584</v>
+        <v>0.12261</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134956</v>
+        <v>0.135178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124879</v>
+        <v>0.122734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126716</v>
+        <v>0.122989</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136926</v>
+        <v>0.136233</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125615</v>
+        <v>0.122636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12573</v>
+        <v>0.123357</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137229</v>
+        <v>0.136005</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12746</v>
+        <v>0.123228</v>
       </c>
       <c r="D32" t="n">
-        <v>0.126371</v>
+        <v>0.123397</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138814</v>
+        <v>0.136718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.125815</v>
+        <v>0.123869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127089</v>
+        <v>0.124286</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.138879</v>
+        <v>0.13895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.128928</v>
+        <v>0.125093</v>
       </c>
       <c r="D34" t="n">
-        <v>0.128242</v>
+        <v>0.125861</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.145354</v>
+        <v>0.142144</v>
       </c>
       <c r="C35" t="n">
-        <v>0.129655</v>
+        <v>0.127824</v>
       </c>
       <c r="D35" t="n">
-        <v>0.132159</v>
+        <v>0.12908</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.148725</v>
+        <v>0.147398</v>
       </c>
       <c r="C36" t="n">
-        <v>0.134861</v>
+        <v>0.13164</v>
       </c>
       <c r="D36" t="n">
-        <v>0.138256</v>
+        <v>0.135675</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.157465</v>
+        <v>0.153954</v>
       </c>
       <c r="C37" t="n">
-        <v>0.141085</v>
+        <v>0.137125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.147458</v>
+        <v>0.131724</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14762</v>
+        <v>0.145645</v>
       </c>
       <c r="C38" t="n">
-        <v>0.136925</v>
+        <v>0.133673</v>
       </c>
       <c r="D38" t="n">
-        <v>0.14255</v>
+        <v>0.133252</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14949</v>
+        <v>0.14555</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139876</v>
+        <v>0.132889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.141171</v>
+        <v>0.133865</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148374</v>
+        <v>0.147324</v>
       </c>
       <c r="C40" t="n">
-        <v>0.139647</v>
+        <v>0.132586</v>
       </c>
       <c r="D40" t="n">
-        <v>0.141066</v>
+        <v>0.1343</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149229</v>
+        <v>0.146587</v>
       </c>
       <c r="C41" t="n">
-        <v>0.13534</v>
+        <v>0.133389</v>
       </c>
       <c r="D41" t="n">
-        <v>0.138481</v>
+        <v>0.13416</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149013</v>
+        <v>0.146044</v>
       </c>
       <c r="C42" t="n">
-        <v>0.13953</v>
+        <v>0.134358</v>
       </c>
       <c r="D42" t="n">
-        <v>0.139322</v>
+        <v>0.134666</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149634</v>
+        <v>0.145303</v>
       </c>
       <c r="C43" t="n">
-        <v>0.136773</v>
+        <v>0.135175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.138102</v>
+        <v>0.134858</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.147202</v>
+        <v>0.146773</v>
       </c>
       <c r="C44" t="n">
-        <v>0.139923</v>
+        <v>0.134058</v>
       </c>
       <c r="D44" t="n">
-        <v>0.139913</v>
+        <v>0.135335</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151938</v>
+        <v>0.147934</v>
       </c>
       <c r="C45" t="n">
-        <v>0.138347</v>
+        <v>0.136548</v>
       </c>
       <c r="D45" t="n">
-        <v>0.138868</v>
+        <v>0.136421</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149756</v>
+        <v>0.148622</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139785</v>
+        <v>0.135545</v>
       </c>
       <c r="D46" t="n">
-        <v>0.137707</v>
+        <v>0.136261</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151209</v>
+        <v>0.14929</v>
       </c>
       <c r="C47" t="n">
-        <v>0.14012</v>
+        <v>0.136908</v>
       </c>
       <c r="D47" t="n">
-        <v>0.140122</v>
+        <v>0.13704</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.153276</v>
+        <v>0.150865</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141516</v>
+        <v>0.13964</v>
       </c>
       <c r="D48" t="n">
-        <v>0.141878</v>
+        <v>0.13972</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156032</v>
+        <v>0.154783</v>
       </c>
       <c r="C49" t="n">
-        <v>0.143701</v>
+        <v>0.141068</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14571</v>
+        <v>0.142772</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160402</v>
+        <v>0.159786</v>
       </c>
       <c r="C50" t="n">
-        <v>0.146741</v>
+        <v>0.145214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.151213</v>
+        <v>0.148457</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168139</v>
+        <v>0.166709</v>
       </c>
       <c r="C51" t="n">
-        <v>0.150763</v>
+        <v>0.149701</v>
       </c>
       <c r="D51" t="n">
-        <v>0.158674</v>
+        <v>0.147198</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.177722</v>
+        <v>0.174225</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156037</v>
+        <v>0.155552</v>
       </c>
       <c r="D52" t="n">
-        <v>0.167366</v>
+        <v>0.146981</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161866</v>
+        <v>0.159252</v>
       </c>
       <c r="C53" t="n">
-        <v>0.149455</v>
+        <v>0.142964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.148808</v>
+        <v>0.147355</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160774</v>
+        <v>0.159446</v>
       </c>
       <c r="C54" t="n">
-        <v>0.146977</v>
+        <v>0.143559</v>
       </c>
       <c r="D54" t="n">
-        <v>0.145311</v>
+        <v>0.147645</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160206</v>
+        <v>0.159297</v>
       </c>
       <c r="C55" t="n">
-        <v>0.147186</v>
+        <v>0.144173</v>
       </c>
       <c r="D55" t="n">
-        <v>0.147941</v>
+        <v>0.148099</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161856</v>
+        <v>0.159826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.14906</v>
+        <v>0.144566</v>
       </c>
       <c r="D56" t="n">
-        <v>0.151171</v>
+        <v>0.147793</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162076</v>
+        <v>0.161215</v>
       </c>
       <c r="C57" t="n">
-        <v>0.147181</v>
+        <v>0.146169</v>
       </c>
       <c r="D57" t="n">
-        <v>0.148708</v>
+        <v>0.149298</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162123</v>
+        <v>0.160229</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145505</v>
+        <v>0.14652</v>
       </c>
       <c r="D58" t="n">
-        <v>0.149337</v>
+        <v>0.149551</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162017</v>
+        <v>0.161522</v>
       </c>
       <c r="C59" t="n">
-        <v>0.150378</v>
+        <v>0.147007</v>
       </c>
       <c r="D59" t="n">
-        <v>0.152434</v>
+        <v>0.149971</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.165001</v>
+        <v>0.162084</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147131</v>
+        <v>0.148172</v>
       </c>
       <c r="D60" t="n">
-        <v>0.151296</v>
+        <v>0.150699</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164026</v>
+        <v>0.164589</v>
       </c>
       <c r="C61" t="n">
-        <v>0.14823</v>
+        <v>0.150135</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151833</v>
+        <v>0.152773</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166274</v>
+        <v>0.166881</v>
       </c>
       <c r="C62" t="n">
-        <v>0.150127</v>
+        <v>0.151832</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153907</v>
+        <v>0.15473</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.170173</v>
+        <v>0.171048</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152203</v>
+        <v>0.152959</v>
       </c>
       <c r="D63" t="n">
-        <v>0.154669</v>
+        <v>0.157343</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174232</v>
+        <v>0.175204</v>
       </c>
       <c r="C64" t="n">
-        <v>0.157263</v>
+        <v>0.155708</v>
       </c>
       <c r="D64" t="n">
-        <v>0.157868</v>
+        <v>0.160455</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179057</v>
+        <v>0.181034</v>
       </c>
       <c r="C65" t="n">
-        <v>0.160981</v>
+        <v>0.160106</v>
       </c>
       <c r="D65" t="n">
-        <v>0.167452</v>
+        <v>0.166502</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188288</v>
+        <v>0.187554</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165839</v>
+        <v>0.165666</v>
       </c>
       <c r="D66" t="n">
-        <v>0.175761</v>
+        <v>0.158471</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.207334</v>
+        <v>0.178639</v>
       </c>
       <c r="C67" t="n">
-        <v>0.16962</v>
+        <v>0.158433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.17756</v>
+        <v>0.158724</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.185709</v>
+        <v>0.177687</v>
       </c>
       <c r="C68" t="n">
-        <v>0.176214</v>
+        <v>0.159769</v>
       </c>
       <c r="D68" t="n">
-        <v>0.170605</v>
+        <v>0.159375</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.189951</v>
+        <v>0.179344</v>
       </c>
       <c r="C69" t="n">
-        <v>0.169829</v>
+        <v>0.160008</v>
       </c>
       <c r="D69" t="n">
-        <v>0.173291</v>
+        <v>0.160072</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.197287</v>
+        <v>0.181769</v>
       </c>
       <c r="C70" t="n">
-        <v>0.170889</v>
+        <v>0.160576</v>
       </c>
       <c r="D70" t="n">
-        <v>0.178757</v>
+        <v>0.158864</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188893</v>
+        <v>0.180646</v>
       </c>
       <c r="C71" t="n">
-        <v>0.170938</v>
+        <v>0.160981</v>
       </c>
       <c r="D71" t="n">
-        <v>0.169097</v>
+        <v>0.159663</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188538</v>
+        <v>0.178539</v>
       </c>
       <c r="C72" t="n">
-        <v>0.167407</v>
+        <v>0.161526</v>
       </c>
       <c r="D72" t="n">
-        <v>0.172121</v>
+        <v>0.161135</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.190751</v>
+        <v>0.181674</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17572</v>
+        <v>0.16378</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1729</v>
+        <v>0.161613</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.197702</v>
+        <v>0.18446</v>
       </c>
       <c r="C74" t="n">
-        <v>0.168801</v>
+        <v>0.162715</v>
       </c>
       <c r="D74" t="n">
-        <v>0.173912</v>
+        <v>0.161884</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.191751</v>
+        <v>0.186168</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174192</v>
+        <v>0.166776</v>
       </c>
       <c r="D75" t="n">
-        <v>0.172494</v>
+        <v>0.163688</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198552</v>
+        <v>0.188839</v>
       </c>
       <c r="C76" t="n">
-        <v>0.174556</v>
+        <v>0.167744</v>
       </c>
       <c r="D76" t="n">
-        <v>0.174521</v>
+        <v>0.166364</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192981</v>
+        <v>0.19353</v>
       </c>
       <c r="C77" t="n">
-        <v>0.175051</v>
+        <v>0.169743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.174512</v>
+        <v>0.167817</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198352</v>
+        <v>0.196424</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17497</v>
+        <v>0.173429</v>
       </c>
       <c r="D78" t="n">
-        <v>0.179832</v>
+        <v>0.170685</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.19775</v>
+        <v>0.198876</v>
       </c>
       <c r="C79" t="n">
-        <v>0.179363</v>
+        <v>0.174925</v>
       </c>
       <c r="D79" t="n">
-        <v>0.182305</v>
+        <v>0.176614</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213488</v>
+        <v>0.208046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.181491</v>
+        <v>0.179027</v>
       </c>
       <c r="D80" t="n">
-        <v>0.191375</v>
+        <v>0.237758</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.345659</v>
+        <v>0.342915</v>
       </c>
       <c r="C81" t="n">
-        <v>0.282693</v>
+        <v>0.287709</v>
       </c>
       <c r="D81" t="n">
-        <v>0.297215</v>
+        <v>0.238615</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343993</v>
+        <v>0.340124</v>
       </c>
       <c r="C82" t="n">
-        <v>0.291618</v>
+        <v>0.290796</v>
       </c>
       <c r="D82" t="n">
-        <v>0.297041</v>
+        <v>0.237998</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.350365</v>
+        <v>0.344329</v>
       </c>
       <c r="C83" t="n">
-        <v>0.29287</v>
+        <v>0.286594</v>
       </c>
       <c r="D83" t="n">
-        <v>0.297214</v>
+        <v>0.241244</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.349464</v>
+        <v>0.343597</v>
       </c>
       <c r="C84" t="n">
-        <v>0.29198</v>
+        <v>0.286636</v>
       </c>
       <c r="D84" t="n">
-        <v>0.297687</v>
+        <v>0.23832</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.348969</v>
+        <v>0.346009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.295123</v>
+        <v>0.285345</v>
       </c>
       <c r="D85" t="n">
-        <v>0.280672</v>
+        <v>0.239476</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.349754</v>
+        <v>0.345261</v>
       </c>
       <c r="C86" t="n">
-        <v>0.281138</v>
+        <v>0.287105</v>
       </c>
       <c r="D86" t="n">
-        <v>0.278378</v>
+        <v>0.236632</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.353506</v>
+        <v>0.345013</v>
       </c>
       <c r="C87" t="n">
-        <v>0.289904</v>
+        <v>0.286242</v>
       </c>
       <c r="D87" t="n">
-        <v>0.293177</v>
+        <v>0.238099</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.349883</v>
+        <v>0.346766</v>
       </c>
       <c r="C88" t="n">
-        <v>0.290849</v>
+        <v>0.28659</v>
       </c>
       <c r="D88" t="n">
-        <v>0.292151</v>
+        <v>0.235912</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.349837</v>
+        <v>0.350062</v>
       </c>
       <c r="C89" t="n">
-        <v>0.281976</v>
+        <v>0.284732</v>
       </c>
       <c r="D89" t="n">
-        <v>0.272927</v>
+        <v>0.235952</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.357604</v>
+        <v>0.351463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.283895</v>
+        <v>0.2831</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2893</v>
+        <v>0.236854</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355228</v>
+        <v>0.350677</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281071</v>
+        <v>0.282615</v>
       </c>
       <c r="D91" t="n">
-        <v>0.286085</v>
+        <v>0.233466</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.356893</v>
+        <v>0.355267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.288101</v>
+        <v>0.279473</v>
       </c>
       <c r="D92" t="n">
-        <v>0.281082</v>
+        <v>0.235518</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360942</v>
+        <v>0.356875</v>
       </c>
       <c r="C93" t="n">
-        <v>0.290142</v>
+        <v>0.280404</v>
       </c>
       <c r="D93" t="n">
-        <v>0.292308</v>
+        <v>0.236681</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.371483</v>
+        <v>0.364856</v>
       </c>
       <c r="C94" t="n">
-        <v>0.292823</v>
+        <v>0.283439</v>
       </c>
       <c r="D94" t="n">
-        <v>0.297854</v>
+        <v>0.399045</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.505422</v>
+        <v>0.502726</v>
       </c>
       <c r="C95" t="n">
-        <v>0.460715</v>
+        <v>0.45624</v>
       </c>
       <c r="D95" t="n">
-        <v>0.463979</v>
+        <v>0.397338</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.50559</v>
+        <v>0.502803</v>
       </c>
       <c r="C96" t="n">
-        <v>0.461145</v>
+        <v>0.455192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.463349</v>
+        <v>0.397615</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.505337</v>
+        <v>0.503311</v>
       </c>
       <c r="C97" t="n">
-        <v>0.461001</v>
+        <v>0.448722</v>
       </c>
       <c r="D97" t="n">
-        <v>0.461941</v>
+        <v>0.397504</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505845</v>
+        <v>0.502955</v>
       </c>
       <c r="C98" t="n">
-        <v>0.45877</v>
+        <v>0.454661</v>
       </c>
       <c r="D98" t="n">
-        <v>0.460756</v>
+        <v>0.396139</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505894</v>
+        <v>0.503452</v>
       </c>
       <c r="C99" t="n">
-        <v>0.445582</v>
+        <v>0.453982</v>
       </c>
       <c r="D99" t="n">
-        <v>0.459026</v>
+        <v>0.395019</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506934</v>
+        <v>0.503431</v>
       </c>
       <c r="C100" t="n">
-        <v>0.457595</v>
+        <v>0.447514</v>
       </c>
       <c r="D100" t="n">
-        <v>0.459233</v>
+        <v>0.395437</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.507513</v>
+        <v>0.504356</v>
       </c>
       <c r="C101" t="n">
-        <v>0.457721</v>
+        <v>0.45374</v>
       </c>
       <c r="D101" t="n">
-        <v>0.445806</v>
+        <v>0.397105</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.508149</v>
+        <v>0.505393</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4595</v>
+        <v>0.454148</v>
       </c>
       <c r="D102" t="n">
-        <v>0.458075</v>
+        <v>0.395666</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5098819999999999</v>
+        <v>0.507007</v>
       </c>
       <c r="C103" t="n">
-        <v>0.458183</v>
+        <v>0.454506</v>
       </c>
       <c r="D103" t="n">
-        <v>0.459533</v>
+        <v>0.39817</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.51194</v>
+        <v>0.509409</v>
       </c>
       <c r="C104" t="n">
-        <v>0.459548</v>
+        <v>0.455041</v>
       </c>
       <c r="D104" t="n">
-        <v>0.458984</v>
+        <v>0.398713</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.514337</v>
+        <v>0.511574</v>
       </c>
       <c r="C105" t="n">
-        <v>0.460961</v>
+        <v>0.458025</v>
       </c>
       <c r="D105" t="n">
-        <v>0.461852</v>
+        <v>0.399619</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.517856</v>
+        <v>0.515334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.46231</v>
+        <v>0.453231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.463813</v>
+        <v>0.402371</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.522213</v>
+        <v>0.519769</v>
       </c>
       <c r="C107" t="n">
-        <v>0.464791</v>
+        <v>0.462105</v>
       </c>
       <c r="D107" t="n">
-        <v>0.466935</v>
+        <v>0.400601</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.529622</v>
+        <v>0.526964</v>
       </c>
       <c r="C108" t="n">
-        <v>0.470377</v>
+        <v>0.467479</v>
       </c>
       <c r="D108" t="n">
-        <v>0.460666</v>
+        <v>0.534436</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.540458</v>
+        <v>0.537569</v>
       </c>
       <c r="C109" t="n">
-        <v>0.477763</v>
+        <v>0.475013</v>
       </c>
       <c r="D109" t="n">
-        <v>0.485128</v>
+        <v>0.533636</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.590958</v>
+        <v>0.585785</v>
       </c>
       <c r="C110" t="n">
-        <v>0.570959</v>
+        <v>0.560625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.573443</v>
+        <v>0.531145</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.593866</v>
+        <v>0.58899</v>
       </c>
       <c r="C111" t="n">
-        <v>0.572446</v>
+        <v>0.565172</v>
       </c>
       <c r="D111" t="n">
-        <v>0.569542</v>
+        <v>0.536171</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.592844</v>
+        <v>0.589433</v>
       </c>
       <c r="C112" t="n">
-        <v>0.573076</v>
+        <v>0.565899</v>
       </c>
       <c r="D112" t="n">
-        <v>0.573469</v>
+        <v>0.529892</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.593878</v>
+        <v>0.589952</v>
       </c>
       <c r="C113" t="n">
-        <v>0.571844</v>
+        <v>0.5664400000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.570665</v>
+        <v>0.537767</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.592749</v>
+        <v>0.590268</v>
       </c>
       <c r="C114" t="n">
-        <v>0.57267</v>
+        <v>0.567353</v>
       </c>
       <c r="D114" t="n">
-        <v>0.57091</v>
+        <v>0.532724</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5937480000000001</v>
+        <v>0.59175</v>
       </c>
       <c r="C115" t="n">
-        <v>0.573893</v>
+        <v>0.567705</v>
       </c>
       <c r="D115" t="n">
-        <v>0.574446</v>
+        <v>0.538757</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.598199</v>
+        <v>0.5925049999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.573562</v>
+        <v>0.562879</v>
       </c>
       <c r="D116" t="n">
-        <v>0.575833</v>
+        <v>0.534984</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.600711</v>
+        <v>0.594851</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5700539999999999</v>
+        <v>0.564801</v>
       </c>
       <c r="D117" t="n">
-        <v>0.571052</v>
+        <v>0.5424639999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.599908</v>
+        <v>0.59944</v>
       </c>
       <c r="C118" t="n">
-        <v>0.570952</v>
+        <v>0.565932</v>
       </c>
       <c r="D118" t="n">
-        <v>0.576124</v>
+        <v>0.5450430000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.603738</v>
+        <v>0.600029</v>
       </c>
       <c r="C119" t="n">
-        <v>0.578365</v>
+        <v>0.574624</v>
       </c>
       <c r="D119" t="n">
-        <v>0.574694</v>
+        <v>0.545606</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.606816</v>
+        <v>0.603979</v>
       </c>
       <c r="C120" t="n">
-        <v>0.580928</v>
+        <v>0.571947</v>
       </c>
       <c r="D120" t="n">
-        <v>0.581717</v>
+        <v>0.550091</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.613529</v>
+        <v>0.61104</v>
       </c>
       <c r="C121" t="n">
-        <v>0.586096</v>
+        <v>0.580925</v>
       </c>
       <c r="D121" t="n">
-        <v>0.583921</v>
+        <v>0.5477959999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.621893</v>
+        <v>0.618234</v>
       </c>
       <c r="C122" t="n">
-        <v>0.591672</v>
+        <v>0.587776</v>
       </c>
       <c r="D122" t="n">
-        <v>0.594614</v>
+        <v>0.556844</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.636606</v>
+        <v>0.630508</v>
       </c>
       <c r="C123" t="n">
-        <v>0.599693</v>
+        <v>0.595472</v>
       </c>
       <c r="D123" t="n">
-        <v>0.607335</v>
+        <v>0.697087</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739331</v>
+        <v>0.733397</v>
       </c>
       <c r="C124" t="n">
-        <v>0.698372</v>
+        <v>0.695048</v>
       </c>
       <c r="D124" t="n">
-        <v>0.701244</v>
+        <v>0.695117</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.738186</v>
+        <v>0.735505</v>
       </c>
       <c r="C125" t="n">
-        <v>0.701944</v>
+        <v>0.694329</v>
       </c>
       <c r="D125" t="n">
-        <v>0.702844</v>
+        <v>0.698121</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.737963</v>
+        <v>0.736703</v>
       </c>
       <c r="C126" t="n">
-        <v>0.701898</v>
+        <v>0.696726</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7031539999999999</v>
+        <v>0.695033</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.738582</v>
+        <v>0.736988</v>
       </c>
       <c r="C127" t="n">
-        <v>0.702987</v>
+        <v>0.697147</v>
       </c>
       <c r="D127" t="n">
-        <v>0.703608</v>
+        <v>0.696037</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.742057</v>
+        <v>0.736343</v>
       </c>
       <c r="C128" t="n">
-        <v>0.701035</v>
+        <v>0.698151</v>
       </c>
       <c r="D128" t="n">
-        <v>0.704887</v>
+        <v>0.701933</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.739935</v>
+        <v>0.737903</v>
       </c>
       <c r="C129" t="n">
-        <v>0.705883</v>
+        <v>0.698632</v>
       </c>
       <c r="D129" t="n">
-        <v>0.706194</v>
+        <v>0.700618</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7441719999999999</v>
+        <v>0.738223</v>
       </c>
       <c r="C130" t="n">
-        <v>0.703906</v>
+        <v>0.702477</v>
       </c>
       <c r="D130" t="n">
-        <v>0.70517</v>
+        <v>0.70264</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7432530000000001</v>
+        <v>0.739662</v>
       </c>
       <c r="C131" t="n">
-        <v>0.710157</v>
+        <v>0.701698</v>
       </c>
       <c r="D131" t="n">
-        <v>0.710496</v>
+        <v>0.702884</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.748902</v>
+        <v>0.741916</v>
       </c>
       <c r="C132" t="n">
-        <v>0.713341</v>
+        <v>0.706391</v>
       </c>
       <c r="D132" t="n">
-        <v>0.707848</v>
+        <v>0.704007</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.752626</v>
+        <v>0.7470059999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.715585</v>
+        <v>0.705126</v>
       </c>
       <c r="D133" t="n">
-        <v>0.714168</v>
+        <v>0.7055399999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.757625</v>
+        <v>0.752888</v>
       </c>
       <c r="C134" t="n">
-        <v>0.713893</v>
+        <v>0.714908</v>
       </c>
       <c r="D134" t="n">
-        <v>0.718628</v>
+        <v>0.710827</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.761765</v>
+        <v>0.75831</v>
       </c>
       <c r="C135" t="n">
-        <v>0.72455</v>
+        <v>0.717696</v>
       </c>
       <c r="D135" t="n">
-        <v>0.720977</v>
+        <v>0.71494</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.771983</v>
+        <v>0.767782</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725397</v>
+        <v>0.725758</v>
       </c>
       <c r="D136" t="n">
-        <v>0.728041</v>
+        <v>0.723983</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.783803</v>
+        <v>0.778585</v>
       </c>
       <c r="C137" t="n">
-        <v>0.738138</v>
+        <v>0.734196</v>
       </c>
       <c r="D137" t="n">
-        <v>0.73973</v>
+        <v>0.831106</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.87051</v>
+        <v>0.861621</v>
       </c>
       <c r="C138" t="n">
-        <v>0.825474</v>
+        <v>0.815813</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827173</v>
+        <v>0.831701</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.870659</v>
+        <v>0.86274</v>
       </c>
       <c r="C139" t="n">
-        <v>0.827451</v>
+        <v>0.817605</v>
       </c>
       <c r="D139" t="n">
-        <v>0.829129</v>
+        <v>0.832182</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872956</v>
+        <v>0.863114</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8289609999999999</v>
+        <v>0.818959</v>
       </c>
       <c r="D140" t="n">
-        <v>0.828819</v>
+        <v>0.834207</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.872313</v>
+        <v>0.863835</v>
       </c>
       <c r="C141" t="n">
-        <v>0.830635</v>
+        <v>0.820781</v>
       </c>
       <c r="D141" t="n">
-        <v>0.832234</v>
+        <v>0.836001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.872553</v>
+        <v>0.864869</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8307639999999999</v>
+        <v>0.820881</v>
       </c>
       <c r="D142" t="n">
-        <v>0.832382</v>
+        <v>0.8345669999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.87523</v>
+        <v>0.86581</v>
       </c>
       <c r="C143" t="n">
-        <v>0.832055</v>
+        <v>0.822997</v>
       </c>
       <c r="D143" t="n">
-        <v>0.834242</v>
+        <v>0.838325</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110371</v>
+        <v>0.115529</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10085</v>
+        <v>0.109882</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106679</v>
+        <v>0.109891</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110857</v>
+        <v>0.117378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100888</v>
+        <v>0.110245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.106703</v>
+        <v>0.109052</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.110909</v>
+        <v>0.116055</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101297</v>
+        <v>0.109075</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10685</v>
+        <v>0.10827</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111938</v>
+        <v>0.114807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.101596</v>
+        <v>0.104126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.107142</v>
+        <v>0.108386</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112902</v>
+        <v>0.116345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.102633</v>
+        <v>0.109564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107933</v>
+        <v>0.109769</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113005</v>
+        <v>0.117796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102435</v>
+        <v>0.111384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108451</v>
+        <v>0.110787</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114147</v>
+        <v>0.120895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.103131</v>
+        <v>0.111787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109499</v>
+        <v>0.112054</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119265</v>
+        <v>0.122074</v>
       </c>
       <c r="C9" t="n">
-        <v>0.104972</v>
+        <v>0.112453</v>
       </c>
       <c r="D9" t="n">
-        <v>0.11263</v>
+        <v>0.112732</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.122869</v>
+        <v>0.124253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.111019</v>
+        <v>0.113086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112905</v>
+        <v>0.113926</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.122827</v>
+        <v>0.123902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1108</v>
+        <v>0.111792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11275</v>
+        <v>0.113387</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123364</v>
+        <v>0.123607</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11185</v>
+        <v>0.112307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113239</v>
+        <v>0.113839</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123722</v>
+        <v>0.123001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.112125</v>
+        <v>0.112034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11327</v>
+        <v>0.113771</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123608</v>
+        <v>0.122416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114831</v>
+        <v>0.112052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113473</v>
+        <v>0.113614</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.123276</v>
+        <v>0.122653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111466</v>
+        <v>0.112386</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114276</v>
+        <v>0.114197</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123806</v>
+        <v>0.123978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.111327</v>
+        <v>0.11415</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113502</v>
+        <v>0.114676</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124154</v>
+        <v>0.124316</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114439</v>
+        <v>0.112407</v>
       </c>
       <c r="D17" t="n">
-        <v>0.113792</v>
+        <v>0.114988</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124872</v>
+        <v>0.125103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112038</v>
+        <v>0.113021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114099</v>
+        <v>0.114853</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125715</v>
+        <v>0.125798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112381</v>
+        <v>0.112911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114785</v>
+        <v>0.115425</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126853</v>
+        <v>0.126658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.118624</v>
+        <v>0.113357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.115312</v>
+        <v>0.116088</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.128566</v>
+        <v>0.127645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114284</v>
+        <v>0.114052</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117296</v>
+        <v>0.117238</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.131471</v>
+        <v>0.132346</v>
       </c>
       <c r="C22" t="n">
-        <v>0.119324</v>
+        <v>0.117153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.121401</v>
+        <v>0.121874</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.13889</v>
+        <v>0.139701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121553</v>
+        <v>0.121516</v>
       </c>
       <c r="D23" t="n">
-        <v>0.121063</v>
+        <v>0.12252</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.132618</v>
+        <v>0.133694</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121111</v>
+        <v>0.121116</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121251</v>
+        <v>0.122094</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134369</v>
+        <v>0.134676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.121398</v>
+        <v>0.123321</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121233</v>
+        <v>0.121701</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133381</v>
+        <v>0.133602</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121468</v>
+        <v>0.121841</v>
       </c>
       <c r="D26" t="n">
-        <v>0.121749</v>
+        <v>0.121949</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.133963</v>
+        <v>0.1337</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121666</v>
+        <v>0.122036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.121776</v>
+        <v>0.122288</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134105</v>
+        <v>0.134137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122037</v>
+        <v>0.122178</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122201</v>
+        <v>0.122688</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135426</v>
+        <v>0.135286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.12232</v>
+        <v>0.12297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.12261</v>
+        <v>0.123103</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.135178</v>
+        <v>0.134217</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122734</v>
+        <v>0.12265</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122989</v>
+        <v>0.12267</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136233</v>
+        <v>0.13574</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122636</v>
+        <v>0.122772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123357</v>
+        <v>0.122825</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136005</v>
+        <v>0.13616</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123228</v>
+        <v>0.123833</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123397</v>
+        <v>0.123729</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136718</v>
+        <v>0.13706</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123869</v>
+        <v>0.123835</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124286</v>
+        <v>0.124474</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13895</v>
+        <v>0.139238</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125093</v>
+        <v>0.125313</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125861</v>
+        <v>0.125885</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.142144</v>
+        <v>0.143283</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127824</v>
+        <v>0.130458</v>
       </c>
       <c r="D35" t="n">
-        <v>0.12908</v>
+        <v>0.129341</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147398</v>
+        <v>0.146569</v>
       </c>
       <c r="C36" t="n">
-        <v>0.13164</v>
+        <v>0.134318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.135675</v>
+        <v>0.136059</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153954</v>
+        <v>0.154516</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137125</v>
+        <v>0.137036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131724</v>
+        <v>0.133492</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145645</v>
+        <v>0.148144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133673</v>
+        <v>0.131508</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133252</v>
+        <v>0.133345</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14555</v>
+        <v>0.145897</v>
       </c>
       <c r="C39" t="n">
-        <v>0.132889</v>
+        <v>0.132711</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133865</v>
+        <v>0.133832</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147324</v>
+        <v>0.145809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.132586</v>
+        <v>0.133837</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1343</v>
+        <v>0.133981</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146587</v>
+        <v>0.147066</v>
       </c>
       <c r="C41" t="n">
-        <v>0.133389</v>
+        <v>0.134485</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13416</v>
+        <v>0.13613</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146044</v>
+        <v>0.148482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.134358</v>
+        <v>0.133724</v>
       </c>
       <c r="D42" t="n">
-        <v>0.134666</v>
+        <v>0.136101</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.145303</v>
+        <v>0.15073</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135175</v>
+        <v>0.135058</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134858</v>
+        <v>0.134794</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.146773</v>
+        <v>0.151117</v>
       </c>
       <c r="C44" t="n">
-        <v>0.134058</v>
+        <v>0.135196</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135335</v>
+        <v>0.135604</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.147934</v>
+        <v>0.148636</v>
       </c>
       <c r="C45" t="n">
-        <v>0.136548</v>
+        <v>0.135452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.136421</v>
+        <v>0.135847</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148622</v>
+        <v>0.14837</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135545</v>
+        <v>0.135325</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136261</v>
+        <v>0.136212</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.14929</v>
+        <v>0.15008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.136908</v>
+        <v>0.138471</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13704</v>
+        <v>0.13686</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150865</v>
+        <v>0.152496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.13964</v>
+        <v>0.137764</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13972</v>
+        <v>0.139479</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154783</v>
+        <v>0.155654</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141068</v>
+        <v>0.141944</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142772</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.159786</v>
+        <v>0.15888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.145214</v>
+        <v>0.146229</v>
       </c>
       <c r="D50" t="n">
-        <v>0.148457</v>
+        <v>0.14981</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166709</v>
+        <v>0.167621</v>
       </c>
       <c r="C51" t="n">
-        <v>0.149701</v>
+        <v>0.149197</v>
       </c>
       <c r="D51" t="n">
-        <v>0.147198</v>
+        <v>0.14805</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174225</v>
+        <v>0.175084</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155552</v>
+        <v>0.156189</v>
       </c>
       <c r="D52" t="n">
-        <v>0.146981</v>
+        <v>0.14847</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159252</v>
+        <v>0.159317</v>
       </c>
       <c r="C53" t="n">
-        <v>0.142964</v>
+        <v>0.143725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.147355</v>
+        <v>0.146025</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159446</v>
+        <v>0.159054</v>
       </c>
       <c r="C54" t="n">
-        <v>0.143559</v>
+        <v>0.142836</v>
       </c>
       <c r="D54" t="n">
-        <v>0.147645</v>
+        <v>0.14869</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159297</v>
+        <v>0.160182</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144173</v>
+        <v>0.14469</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148099</v>
+        <v>0.149091</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159826</v>
+        <v>0.163037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144566</v>
+        <v>0.144986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.147793</v>
+        <v>0.148714</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161215</v>
+        <v>0.162897</v>
       </c>
       <c r="C57" t="n">
-        <v>0.146169</v>
+        <v>0.143238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149298</v>
+        <v>0.149011</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160229</v>
+        <v>0.161275</v>
       </c>
       <c r="C58" t="n">
-        <v>0.14652</v>
+        <v>0.146241</v>
       </c>
       <c r="D58" t="n">
-        <v>0.149551</v>
+        <v>0.150527</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161522</v>
+        <v>0.162069</v>
       </c>
       <c r="C59" t="n">
-        <v>0.147007</v>
+        <v>0.147385</v>
       </c>
       <c r="D59" t="n">
-        <v>0.149971</v>
+        <v>0.150765</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162084</v>
+        <v>0.166521</v>
       </c>
       <c r="C60" t="n">
-        <v>0.148172</v>
+        <v>0.149441</v>
       </c>
       <c r="D60" t="n">
-        <v>0.150699</v>
+        <v>0.152596</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164589</v>
+        <v>0.165423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.150135</v>
+        <v>0.149754</v>
       </c>
       <c r="D61" t="n">
-        <v>0.152773</v>
+        <v>0.153571</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166881</v>
+        <v>0.168074</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151832</v>
+        <v>0.152136</v>
       </c>
       <c r="D62" t="n">
-        <v>0.15473</v>
+        <v>0.155262</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171048</v>
+        <v>0.169715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152959</v>
+        <v>0.154409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157343</v>
+        <v>0.15863</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175204</v>
+        <v>0.174557</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155708</v>
+        <v>0.156916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160455</v>
+        <v>0.16218</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181034</v>
+        <v>0.179784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.160106</v>
+        <v>0.160041</v>
       </c>
       <c r="D65" t="n">
-        <v>0.166502</v>
+        <v>0.167947</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.187554</v>
+        <v>0.188084</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165666</v>
+        <v>0.165748</v>
       </c>
       <c r="D66" t="n">
-        <v>0.158471</v>
+        <v>0.159442</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.178639</v>
+        <v>0.177415</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158433</v>
+        <v>0.162996</v>
       </c>
       <c r="D67" t="n">
-        <v>0.158724</v>
+        <v>0.157708</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177687</v>
+        <v>0.187505</v>
       </c>
       <c r="C68" t="n">
-        <v>0.159769</v>
+        <v>0.163124</v>
       </c>
       <c r="D68" t="n">
-        <v>0.159375</v>
+        <v>0.158799</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.179344</v>
+        <v>0.184916</v>
       </c>
       <c r="C69" t="n">
-        <v>0.160008</v>
+        <v>0.165987</v>
       </c>
       <c r="D69" t="n">
-        <v>0.160072</v>
+        <v>0.160701</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181769</v>
+        <v>0.186093</v>
       </c>
       <c r="C70" t="n">
-        <v>0.160576</v>
+        <v>0.164854</v>
       </c>
       <c r="D70" t="n">
-        <v>0.158864</v>
+        <v>0.162908</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.180646</v>
+        <v>0.185688</v>
       </c>
       <c r="C71" t="n">
-        <v>0.160981</v>
+        <v>0.165795</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159663</v>
+        <v>0.162571</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.178539</v>
+        <v>0.184481</v>
       </c>
       <c r="C72" t="n">
-        <v>0.161526</v>
+        <v>0.165103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.161135</v>
+        <v>0.161888</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181674</v>
+        <v>0.184231</v>
       </c>
       <c r="C73" t="n">
-        <v>0.16378</v>
+        <v>0.167888</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161613</v>
+        <v>0.163542</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18446</v>
+        <v>0.193285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162715</v>
+        <v>0.167986</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161884</v>
+        <v>0.16425</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.186168</v>
+        <v>0.195831</v>
       </c>
       <c r="C75" t="n">
-        <v>0.166776</v>
+        <v>0.170505</v>
       </c>
       <c r="D75" t="n">
-        <v>0.163688</v>
+        <v>0.165984</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188839</v>
+        <v>0.198961</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167744</v>
+        <v>0.170783</v>
       </c>
       <c r="D76" t="n">
-        <v>0.166364</v>
+        <v>0.167229</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19353</v>
+        <v>0.18942</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169743</v>
+        <v>0.171001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167817</v>
+        <v>0.168356</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.196424</v>
+        <v>0.198399</v>
       </c>
       <c r="C78" t="n">
-        <v>0.173429</v>
+        <v>0.176374</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170685</v>
+        <v>0.172355</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198876</v>
+        <v>0.202347</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174925</v>
+        <v>0.174912</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176614</v>
+        <v>0.176049</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.208046</v>
+        <v>0.207387</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179027</v>
+        <v>0.179308</v>
       </c>
       <c r="D80" t="n">
-        <v>0.237758</v>
+        <v>0.241393</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342915</v>
+        <v>0.342723</v>
       </c>
       <c r="C81" t="n">
-        <v>0.287709</v>
+        <v>0.293155</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238615</v>
+        <v>0.239998</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.340124</v>
+        <v>0.341904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.290796</v>
+        <v>0.291183</v>
       </c>
       <c r="D82" t="n">
-        <v>0.237998</v>
+        <v>0.218244</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344329</v>
+        <v>0.346568</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286594</v>
+        <v>0.290485</v>
       </c>
       <c r="D83" t="n">
-        <v>0.241244</v>
+        <v>0.239079</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.343597</v>
+        <v>0.342647</v>
       </c>
       <c r="C84" t="n">
-        <v>0.286636</v>
+        <v>0.285767</v>
       </c>
       <c r="D84" t="n">
-        <v>0.23832</v>
+        <v>0.239524</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.346009</v>
+        <v>0.347903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.285345</v>
+        <v>0.28528</v>
       </c>
       <c r="D85" t="n">
-        <v>0.239476</v>
+        <v>0.240409</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345261</v>
+        <v>0.350187</v>
       </c>
       <c r="C86" t="n">
-        <v>0.287105</v>
+        <v>0.268857</v>
       </c>
       <c r="D86" t="n">
-        <v>0.236632</v>
+        <v>0.237273</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.345013</v>
+        <v>0.349491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.286242</v>
+        <v>0.281839</v>
       </c>
       <c r="D87" t="n">
-        <v>0.238099</v>
+        <v>0.235899</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.346766</v>
+        <v>0.34763</v>
       </c>
       <c r="C88" t="n">
-        <v>0.28659</v>
+        <v>0.26324</v>
       </c>
       <c r="D88" t="n">
-        <v>0.235912</v>
+        <v>0.236359</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350062</v>
+        <v>0.352474</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284732</v>
+        <v>0.281669</v>
       </c>
       <c r="D89" t="n">
-        <v>0.235952</v>
+        <v>0.23834</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.351463</v>
+        <v>0.360826</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2831</v>
+        <v>0.264768</v>
       </c>
       <c r="D90" t="n">
-        <v>0.236854</v>
+        <v>0.232482</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.350677</v>
+        <v>0.358012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.282615</v>
+        <v>0.283753</v>
       </c>
       <c r="D91" t="n">
-        <v>0.233466</v>
+        <v>0.238666</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.355267</v>
+        <v>0.358499</v>
       </c>
       <c r="C92" t="n">
-        <v>0.279473</v>
+        <v>0.289669</v>
       </c>
       <c r="D92" t="n">
-        <v>0.235518</v>
+        <v>0.238067</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356875</v>
+        <v>0.364039</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280404</v>
+        <v>0.287569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.236681</v>
+        <v>0.222944</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.364856</v>
+        <v>0.370429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283439</v>
+        <v>0.273707</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399045</v>
+        <v>0.386288</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.502726</v>
+        <v>0.501271</v>
       </c>
       <c r="C95" t="n">
-        <v>0.45624</v>
+        <v>0.455955</v>
       </c>
       <c r="D95" t="n">
-        <v>0.397338</v>
+        <v>0.398839</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.502803</v>
+        <v>0.501336</v>
       </c>
       <c r="C96" t="n">
-        <v>0.455192</v>
+        <v>0.444079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397615</v>
+        <v>0.398766</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.503311</v>
+        <v>0.501868</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448722</v>
+        <v>0.454807</v>
       </c>
       <c r="D97" t="n">
-        <v>0.397504</v>
+        <v>0.396629</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502955</v>
+        <v>0.502867</v>
       </c>
       <c r="C98" t="n">
-        <v>0.454661</v>
+        <v>0.441308</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396139</v>
+        <v>0.392856</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.503452</v>
+        <v>0.50325</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453982</v>
+        <v>0.453838</v>
       </c>
       <c r="D99" t="n">
-        <v>0.395019</v>
+        <v>0.396802</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503431</v>
+        <v>0.5030289999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.447514</v>
+        <v>0.452989</v>
       </c>
       <c r="D100" t="n">
-        <v>0.395437</v>
+        <v>0.383448</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504356</v>
+        <v>0.504123</v>
       </c>
       <c r="C101" t="n">
-        <v>0.45374</v>
+        <v>0.44027</v>
       </c>
       <c r="D101" t="n">
-        <v>0.397105</v>
+        <v>0.395621</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505393</v>
+        <v>0.504092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.454148</v>
+        <v>0.452643</v>
       </c>
       <c r="D102" t="n">
-        <v>0.395666</v>
+        <v>0.396324</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.507007</v>
+        <v>0.505673</v>
       </c>
       <c r="C103" t="n">
-        <v>0.454506</v>
+        <v>0.453081</v>
       </c>
       <c r="D103" t="n">
-        <v>0.39817</v>
+        <v>0.39544</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.509409</v>
+        <v>0.50729</v>
       </c>
       <c r="C104" t="n">
-        <v>0.455041</v>
+        <v>0.45382</v>
       </c>
       <c r="D104" t="n">
-        <v>0.398713</v>
+        <v>0.398934</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511574</v>
+        <v>0.509907</v>
       </c>
       <c r="C105" t="n">
-        <v>0.458025</v>
+        <v>0.455758</v>
       </c>
       <c r="D105" t="n">
-        <v>0.399619</v>
+        <v>0.399594</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.515334</v>
+        <v>0.513151</v>
       </c>
       <c r="C106" t="n">
-        <v>0.453231</v>
+        <v>0.444587</v>
       </c>
       <c r="D106" t="n">
-        <v>0.402371</v>
+        <v>0.401879</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519769</v>
+        <v>0.518377</v>
       </c>
       <c r="C107" t="n">
-        <v>0.462105</v>
+        <v>0.461405</v>
       </c>
       <c r="D107" t="n">
-        <v>0.400601</v>
+        <v>0.406509</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526964</v>
+        <v>0.525566</v>
       </c>
       <c r="C108" t="n">
-        <v>0.467479</v>
+        <v>0.465772</v>
       </c>
       <c r="D108" t="n">
-        <v>0.534436</v>
+        <v>0.530989</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537569</v>
+        <v>0.536673</v>
       </c>
       <c r="C109" t="n">
-        <v>0.475013</v>
+        <v>0.460087</v>
       </c>
       <c r="D109" t="n">
-        <v>0.533636</v>
+        <v>0.522265</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585785</v>
+        <v>0.582612</v>
       </c>
       <c r="C110" t="n">
-        <v>0.560625</v>
+        <v>0.556023</v>
       </c>
       <c r="D110" t="n">
-        <v>0.531145</v>
+        <v>0.534602</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.58899</v>
+        <v>0.585615</v>
       </c>
       <c r="C111" t="n">
-        <v>0.565172</v>
+        <v>0.562631</v>
       </c>
       <c r="D111" t="n">
-        <v>0.536171</v>
+        <v>0.532197</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.589433</v>
+        <v>0.586198</v>
       </c>
       <c r="C112" t="n">
-        <v>0.565899</v>
+        <v>0.556397</v>
       </c>
       <c r="D112" t="n">
-        <v>0.529892</v>
+        <v>0.532243</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589952</v>
+        <v>0.584912</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5664400000000001</v>
+        <v>0.56456</v>
       </c>
       <c r="D113" t="n">
-        <v>0.537767</v>
+        <v>0.53653</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.590268</v>
+        <v>0.585876</v>
       </c>
       <c r="C114" t="n">
-        <v>0.567353</v>
+        <v>0.563889</v>
       </c>
       <c r="D114" t="n">
-        <v>0.532724</v>
+        <v>0.5253910000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.59175</v>
+        <v>0.588901</v>
       </c>
       <c r="C115" t="n">
-        <v>0.567705</v>
+        <v>0.562458</v>
       </c>
       <c r="D115" t="n">
-        <v>0.538757</v>
+        <v>0.537955</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5925049999999999</v>
+        <v>0.588595</v>
       </c>
       <c r="C116" t="n">
-        <v>0.562879</v>
+        <v>0.5634</v>
       </c>
       <c r="D116" t="n">
-        <v>0.534984</v>
+        <v>0.527981</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.594851</v>
+        <v>0.5905</v>
       </c>
       <c r="C117" t="n">
-        <v>0.564801</v>
+        <v>0.565315</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5424639999999999</v>
+        <v>0.537861</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.59944</v>
+        <v>0.591904</v>
       </c>
       <c r="C118" t="n">
-        <v>0.565932</v>
+        <v>0.570258</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5450430000000001</v>
+        <v>0.539957</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.600029</v>
+        <v>0.5954120000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.574624</v>
+        <v>0.566959</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545606</v>
+        <v>0.5447650000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.603979</v>
+        <v>0.602416</v>
       </c>
       <c r="C120" t="n">
-        <v>0.571947</v>
+        <v>0.57489</v>
       </c>
       <c r="D120" t="n">
-        <v>0.550091</v>
+        <v>0.545764</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.61104</v>
+        <v>0.605658</v>
       </c>
       <c r="C121" t="n">
-        <v>0.580925</v>
+        <v>0.5766250000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5477959999999999</v>
+        <v>0.550814</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618234</v>
+        <v>0.618401</v>
       </c>
       <c r="C122" t="n">
-        <v>0.587776</v>
+        <v>0.583952</v>
       </c>
       <c r="D122" t="n">
-        <v>0.556844</v>
+        <v>0.558163</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.630508</v>
+        <v>0.628885</v>
       </c>
       <c r="C123" t="n">
-        <v>0.595472</v>
+        <v>0.594774</v>
       </c>
       <c r="D123" t="n">
-        <v>0.697087</v>
+        <v>0.6923</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.733397</v>
+        <v>0.730224</v>
       </c>
       <c r="C124" t="n">
-        <v>0.695048</v>
+        <v>0.690902</v>
       </c>
       <c r="D124" t="n">
-        <v>0.695117</v>
+        <v>0.694455</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.735505</v>
+        <v>0.7322109999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.694329</v>
+        <v>0.691721</v>
       </c>
       <c r="D125" t="n">
-        <v>0.698121</v>
+        <v>0.695832</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.736703</v>
+        <v>0.732297</v>
       </c>
       <c r="C126" t="n">
-        <v>0.696726</v>
+        <v>0.691561</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695033</v>
+        <v>0.6914670000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.736988</v>
+        <v>0.733049</v>
       </c>
       <c r="C127" t="n">
-        <v>0.697147</v>
+        <v>0.691326</v>
       </c>
       <c r="D127" t="n">
-        <v>0.696037</v>
+        <v>0.696356</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.736343</v>
+        <v>0.733024</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698151</v>
+        <v>0.695767</v>
       </c>
       <c r="D128" t="n">
-        <v>0.701933</v>
+        <v>0.692897</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.737903</v>
+        <v>0.732357</v>
       </c>
       <c r="C129" t="n">
-        <v>0.698632</v>
+        <v>0.696731</v>
       </c>
       <c r="D129" t="n">
-        <v>0.700618</v>
+        <v>0.693577</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.738223</v>
+        <v>0.735591</v>
       </c>
       <c r="C130" t="n">
-        <v>0.702477</v>
+        <v>0.700316</v>
       </c>
       <c r="D130" t="n">
-        <v>0.70264</v>
+        <v>0.701447</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.739662</v>
+        <v>0.737371</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701698</v>
+        <v>0.70165</v>
       </c>
       <c r="D131" t="n">
-        <v>0.702884</v>
+        <v>0.699691</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.741916</v>
+        <v>0.741449</v>
       </c>
       <c r="C132" t="n">
-        <v>0.706391</v>
+        <v>0.704036</v>
       </c>
       <c r="D132" t="n">
-        <v>0.704007</v>
+        <v>0.7042890000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7470059999999999</v>
+        <v>0.742807</v>
       </c>
       <c r="C133" t="n">
-        <v>0.705126</v>
+        <v>0.707021</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7055399999999999</v>
+        <v>0.706039</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.752888</v>
+        <v>0.748185</v>
       </c>
       <c r="C134" t="n">
-        <v>0.714908</v>
+        <v>0.712024</v>
       </c>
       <c r="D134" t="n">
-        <v>0.710827</v>
+        <v>0.7066210000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.75831</v>
+        <v>0.757474</v>
       </c>
       <c r="C135" t="n">
-        <v>0.717696</v>
+        <v>0.7161419999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71494</v>
+        <v>0.716647</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.767782</v>
+        <v>0.766015</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725758</v>
+        <v>0.722373</v>
       </c>
       <c r="D136" t="n">
-        <v>0.723983</v>
+        <v>0.721564</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.778585</v>
+        <v>0.776299</v>
       </c>
       <c r="C137" t="n">
-        <v>0.734196</v>
+        <v>0.733463</v>
       </c>
       <c r="D137" t="n">
-        <v>0.831106</v>
+        <v>0.8334589999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.861621</v>
+        <v>0.861151</v>
       </c>
       <c r="C138" t="n">
-        <v>0.815813</v>
+        <v>0.816835</v>
       </c>
       <c r="D138" t="n">
-        <v>0.831701</v>
+        <v>0.834425</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.86274</v>
+        <v>0.861447</v>
       </c>
       <c r="C139" t="n">
-        <v>0.817605</v>
+        <v>0.818539</v>
       </c>
       <c r="D139" t="n">
-        <v>0.832182</v>
+        <v>0.834981</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863114</v>
+        <v>0.863043</v>
       </c>
       <c r="C140" t="n">
-        <v>0.818959</v>
+        <v>0.815869</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834207</v>
+        <v>0.835721</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863835</v>
+        <v>0.8599059999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820781</v>
+        <v>0.8177179999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.836001</v>
+        <v>0.83491</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864869</v>
+        <v>0.864162</v>
       </c>
       <c r="C142" t="n">
-        <v>0.820881</v>
+        <v>0.821099</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8345669999999999</v>
+        <v>0.836189</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.86581</v>
+        <v>0.864129</v>
       </c>
       <c r="C143" t="n">
-        <v>0.822997</v>
+        <v>0.8257640000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.838325</v>
+        <v>0.838382</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115529</v>
+        <v>0.115954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.109882</v>
+        <v>0.104011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.109891</v>
+        <v>0.108617</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117378</v>
+        <v>0.1181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.110245</v>
+        <v>0.109204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109052</v>
+        <v>0.109078</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116055</v>
+        <v>0.116661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.109075</v>
+        <v>0.10766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.10827</v>
+        <v>0.108275</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.114807</v>
+        <v>0.117101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104126</v>
+        <v>0.104404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108386</v>
+        <v>0.108874</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.116345</v>
+        <v>0.118979</v>
       </c>
       <c r="C6" t="n">
-        <v>0.109564</v>
+        <v>0.109421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.109769</v>
+        <v>0.109612</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.117796</v>
+        <v>0.120249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111384</v>
+        <v>0.109747</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110787</v>
+        <v>0.109566</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120895</v>
+        <v>0.120703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111787</v>
+        <v>0.112304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112054</v>
+        <v>0.111629</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122074</v>
+        <v>0.125529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112453</v>
+        <v>0.108661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.112732</v>
+        <v>0.113127</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124253</v>
+        <v>0.121993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113086</v>
+        <v>0.110212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.113926</v>
+        <v>0.112818</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123902</v>
+        <v>0.121949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111792</v>
+        <v>0.110505</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113387</v>
+        <v>0.113682</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123607</v>
+        <v>0.122762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112307</v>
+        <v>0.11109</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113839</v>
+        <v>0.113657</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123001</v>
+        <v>0.123221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.112034</v>
+        <v>0.111219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.113771</v>
+        <v>0.113651</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.122416</v>
+        <v>0.123092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112052</v>
+        <v>0.111748</v>
       </c>
       <c r="D14" t="n">
-        <v>0.113614</v>
+        <v>0.114195</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122653</v>
+        <v>0.124325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112386</v>
+        <v>0.112436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114197</v>
+        <v>0.114273</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.123978</v>
+        <v>0.124113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11415</v>
+        <v>0.112173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114676</v>
+        <v>0.114514</v>
       </c>
     </row>
     <row r="17">
@@ -3458,10 +3458,10 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124316</v>
+        <v>0.124119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112407</v>
+        <v>0.114347</v>
       </c>
       <c r="D17" t="n">
         <v>0.114988</v>
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125103</v>
+        <v>0.124949</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113021</v>
+        <v>0.113448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114853</v>
+        <v>0.115467</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125798</v>
+        <v>0.126499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.112911</v>
+        <v>0.113932</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115425</v>
+        <v>0.11636</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.126658</v>
+        <v>0.127775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.113357</v>
+        <v>0.117162</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116088</v>
+        <v>0.116938</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.127645</v>
+        <v>0.129215</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114052</v>
+        <v>0.11532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.117238</v>
+        <v>0.118608</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132346</v>
+        <v>0.132399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117153</v>
+        <v>0.118859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.121874</v>
+        <v>0.122535</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139701</v>
+        <v>0.141318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121516</v>
+        <v>0.12796</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12252</v>
+        <v>0.124027</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133694</v>
+        <v>0.137834</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121116</v>
+        <v>0.121494</v>
       </c>
       <c r="D24" t="n">
-        <v>0.122094</v>
+        <v>0.121818</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134676</v>
+        <v>0.134516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123321</v>
+        <v>0.122306</v>
       </c>
       <c r="D25" t="n">
-        <v>0.121701</v>
+        <v>0.122686</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.133602</v>
+        <v>0.134782</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121841</v>
+        <v>0.122767</v>
       </c>
       <c r="D26" t="n">
-        <v>0.121949</v>
+        <v>0.122863</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1337</v>
+        <v>0.134597</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122036</v>
+        <v>0.122791</v>
       </c>
       <c r="D27" t="n">
-        <v>0.122288</v>
+        <v>0.123208</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134137</v>
+        <v>0.136137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122178</v>
+        <v>0.123257</v>
       </c>
       <c r="D28" t="n">
-        <v>0.122688</v>
+        <v>0.123095</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135286</v>
+        <v>0.134865</v>
       </c>
       <c r="C29" t="n">
-        <v>0.12297</v>
+        <v>0.123497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123103</v>
+        <v>0.123043</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.134217</v>
+        <v>0.136047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12265</v>
+        <v>0.123329</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12267</v>
+        <v>0.123931</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13574</v>
+        <v>0.136467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122772</v>
+        <v>0.123988</v>
       </c>
       <c r="D31" t="n">
-        <v>0.122825</v>
+        <v>0.124262</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13616</v>
+        <v>0.137404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123833</v>
+        <v>0.124835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123729</v>
+        <v>0.124354</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13706</v>
+        <v>0.139464</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123835</v>
+        <v>0.125057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124474</v>
+        <v>0.124862</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.139238</v>
+        <v>0.13982</v>
       </c>
       <c r="C34" t="n">
-        <v>0.125313</v>
+        <v>0.126712</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125885</v>
+        <v>0.12693</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.143283</v>
+        <v>0.144879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.130458</v>
+        <v>0.128901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.129341</v>
+        <v>0.130123</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.146569</v>
+        <v>0.147691</v>
       </c>
       <c r="C36" t="n">
-        <v>0.134318</v>
+        <v>0.132731</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136059</v>
+        <v>0.136872</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.154516</v>
+        <v>0.156096</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137036</v>
+        <v>0.137955</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133492</v>
+        <v>0.132157</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148144</v>
+        <v>0.146914</v>
       </c>
       <c r="C38" t="n">
-        <v>0.131508</v>
+        <v>0.133184</v>
       </c>
       <c r="D38" t="n">
-        <v>0.133345</v>
+        <v>0.135298</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.145897</v>
+        <v>0.147707</v>
       </c>
       <c r="C39" t="n">
-        <v>0.132711</v>
+        <v>0.133772</v>
       </c>
       <c r="D39" t="n">
-        <v>0.133832</v>
+        <v>0.135848</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145809</v>
+        <v>0.145564</v>
       </c>
       <c r="C40" t="n">
-        <v>0.133837</v>
+        <v>0.134133</v>
       </c>
       <c r="D40" t="n">
-        <v>0.133981</v>
+        <v>0.136696</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147066</v>
+        <v>0.146347</v>
       </c>
       <c r="C41" t="n">
-        <v>0.134485</v>
+        <v>0.135066</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13613</v>
+        <v>0.137094</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148482</v>
+        <v>0.149117</v>
       </c>
       <c r="C42" t="n">
-        <v>0.133724</v>
+        <v>0.135234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.136101</v>
+        <v>0.137211</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15073</v>
+        <v>0.147734</v>
       </c>
       <c r="C43" t="n">
-        <v>0.135058</v>
+        <v>0.134995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.134794</v>
+        <v>0.136657</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151117</v>
+        <v>0.149637</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135196</v>
+        <v>0.135189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.135604</v>
+        <v>0.136271</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148636</v>
+        <v>0.1492</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135452</v>
+        <v>0.136185</v>
       </c>
       <c r="D45" t="n">
-        <v>0.135847</v>
+        <v>0.136669</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14837</v>
+        <v>0.148849</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135325</v>
+        <v>0.136375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136212</v>
+        <v>0.136408</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15008</v>
+        <v>0.152161</v>
       </c>
       <c r="C47" t="n">
-        <v>0.138471</v>
+        <v>0.13728</v>
       </c>
       <c r="D47" t="n">
-        <v>0.13686</v>
+        <v>0.138305</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152496</v>
+        <v>0.152429</v>
       </c>
       <c r="C48" t="n">
-        <v>0.137764</v>
+        <v>0.140169</v>
       </c>
       <c r="D48" t="n">
-        <v>0.139479</v>
+        <v>0.140633</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.155654</v>
+        <v>0.157284</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141944</v>
+        <v>0.141711</v>
       </c>
       <c r="D49" t="n">
-        <v>0.142</v>
+        <v>0.144191</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.15888</v>
+        <v>0.160588</v>
       </c>
       <c r="C50" t="n">
-        <v>0.146229</v>
+        <v>0.14489</v>
       </c>
       <c r="D50" t="n">
-        <v>0.14981</v>
+        <v>0.149212</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167621</v>
+        <v>0.166667</v>
       </c>
       <c r="C51" t="n">
-        <v>0.149197</v>
+        <v>0.150483</v>
       </c>
       <c r="D51" t="n">
-        <v>0.14805</v>
+        <v>0.147006</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.175084</v>
+        <v>0.174999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.156189</v>
+        <v>0.155643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.14847</v>
+        <v>0.147692</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159317</v>
+        <v>0.158622</v>
       </c>
       <c r="C53" t="n">
-        <v>0.143725</v>
+        <v>0.143452</v>
       </c>
       <c r="D53" t="n">
-        <v>0.146025</v>
+        <v>0.147442</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159054</v>
+        <v>0.159368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.142836</v>
+        <v>0.143657</v>
       </c>
       <c r="D54" t="n">
-        <v>0.14869</v>
+        <v>0.147474</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160182</v>
+        <v>0.161304</v>
       </c>
       <c r="C55" t="n">
-        <v>0.14469</v>
+        <v>0.143667</v>
       </c>
       <c r="D55" t="n">
-        <v>0.149091</v>
+        <v>0.148101</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.163037</v>
+        <v>0.159825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.144986</v>
+        <v>0.145067</v>
       </c>
       <c r="D56" t="n">
-        <v>0.148714</v>
+        <v>0.148081</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162897</v>
+        <v>0.1609</v>
       </c>
       <c r="C57" t="n">
-        <v>0.143238</v>
+        <v>0.146066</v>
       </c>
       <c r="D57" t="n">
-        <v>0.149011</v>
+        <v>0.148443</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.161275</v>
+        <v>0.159901</v>
       </c>
       <c r="C58" t="n">
-        <v>0.146241</v>
+        <v>0.146288</v>
       </c>
       <c r="D58" t="n">
-        <v>0.150527</v>
+        <v>0.148856</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.162069</v>
+        <v>0.160484</v>
       </c>
       <c r="C59" t="n">
-        <v>0.147385</v>
+        <v>0.146441</v>
       </c>
       <c r="D59" t="n">
-        <v>0.150765</v>
+        <v>0.149365</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166521</v>
+        <v>0.162479</v>
       </c>
       <c r="C60" t="n">
-        <v>0.149441</v>
+        <v>0.147848</v>
       </c>
       <c r="D60" t="n">
-        <v>0.152596</v>
+        <v>0.150306</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.165423</v>
+        <v>0.16403</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149754</v>
+        <v>0.149036</v>
       </c>
       <c r="D61" t="n">
-        <v>0.153571</v>
+        <v>0.151854</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168074</v>
+        <v>0.166191</v>
       </c>
       <c r="C62" t="n">
-        <v>0.152136</v>
+        <v>0.151319</v>
       </c>
       <c r="D62" t="n">
-        <v>0.155262</v>
+        <v>0.153609</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169715</v>
+        <v>0.169416</v>
       </c>
       <c r="C63" t="n">
-        <v>0.154409</v>
+        <v>0.152819</v>
       </c>
       <c r="D63" t="n">
-        <v>0.15863</v>
+        <v>0.156793</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174557</v>
+        <v>0.173824</v>
       </c>
       <c r="C64" t="n">
-        <v>0.156916</v>
+        <v>0.155855</v>
       </c>
       <c r="D64" t="n">
-        <v>0.16218</v>
+        <v>0.160846</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.179784</v>
+        <v>0.178754</v>
       </c>
       <c r="C65" t="n">
-        <v>0.160041</v>
+        <v>0.158986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.167947</v>
+        <v>0.16638</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188084</v>
+        <v>0.185817</v>
       </c>
       <c r="C66" t="n">
-        <v>0.165748</v>
+        <v>0.164928</v>
       </c>
       <c r="D66" t="n">
-        <v>0.159442</v>
+        <v>0.15877</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.177415</v>
+        <v>0.18066</v>
       </c>
       <c r="C67" t="n">
-        <v>0.162996</v>
+        <v>0.158094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.157708</v>
+        <v>0.159449</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.187505</v>
+        <v>0.182228</v>
       </c>
       <c r="C68" t="n">
-        <v>0.163124</v>
+        <v>0.15981</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158799</v>
+        <v>0.158646</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.184916</v>
+        <v>0.178828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.165987</v>
+        <v>0.159205</v>
       </c>
       <c r="D69" t="n">
-        <v>0.160701</v>
+        <v>0.159025</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186093</v>
+        <v>0.186777</v>
       </c>
       <c r="C70" t="n">
-        <v>0.164854</v>
+        <v>0.160677</v>
       </c>
       <c r="D70" t="n">
-        <v>0.162908</v>
+        <v>0.160313</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185688</v>
+        <v>0.178928</v>
       </c>
       <c r="C71" t="n">
-        <v>0.165795</v>
+        <v>0.161483</v>
       </c>
       <c r="D71" t="n">
-        <v>0.162571</v>
+        <v>0.159535</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.184481</v>
+        <v>0.180548</v>
       </c>
       <c r="C72" t="n">
-        <v>0.165103</v>
+        <v>0.161445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.161888</v>
+        <v>0.16102</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184231</v>
+        <v>0.181749</v>
       </c>
       <c r="C73" t="n">
-        <v>0.167888</v>
+        <v>0.161976</v>
       </c>
       <c r="D73" t="n">
-        <v>0.163542</v>
+        <v>0.161231</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193285</v>
+        <v>0.179864</v>
       </c>
       <c r="C74" t="n">
-        <v>0.167986</v>
+        <v>0.163493</v>
       </c>
       <c r="D74" t="n">
-        <v>0.16425</v>
+        <v>0.161591</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195831</v>
+        <v>0.183778</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170505</v>
+        <v>0.166043</v>
       </c>
       <c r="D75" t="n">
-        <v>0.165984</v>
+        <v>0.163223</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198961</v>
+        <v>0.188133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.170783</v>
+        <v>0.165738</v>
       </c>
       <c r="D76" t="n">
-        <v>0.167229</v>
+        <v>0.164561</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18942</v>
+        <v>0.1879</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171001</v>
+        <v>0.169483</v>
       </c>
       <c r="D77" t="n">
-        <v>0.168356</v>
+        <v>0.167753</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198399</v>
+        <v>0.193934</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176374</v>
+        <v>0.170879</v>
       </c>
       <c r="D78" t="n">
-        <v>0.172355</v>
+        <v>0.171627</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.202347</v>
+        <v>0.195222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174912</v>
+        <v>0.175006</v>
       </c>
       <c r="D79" t="n">
-        <v>0.176049</v>
+        <v>0.175774</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.207387</v>
+        <v>0.203205</v>
       </c>
       <c r="C80" t="n">
-        <v>0.179308</v>
+        <v>0.178714</v>
       </c>
       <c r="D80" t="n">
-        <v>0.241393</v>
+        <v>0.238011</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.342723</v>
+        <v>0.34078</v>
       </c>
       <c r="C81" t="n">
-        <v>0.293155</v>
+        <v>0.289228</v>
       </c>
       <c r="D81" t="n">
-        <v>0.239998</v>
+        <v>0.238325</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.341904</v>
+        <v>0.34009</v>
       </c>
       <c r="C82" t="n">
-        <v>0.291183</v>
+        <v>0.287486</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218244</v>
+        <v>0.238866</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346568</v>
+        <v>0.344137</v>
       </c>
       <c r="C83" t="n">
-        <v>0.290485</v>
+        <v>0.286493</v>
       </c>
       <c r="D83" t="n">
-        <v>0.239079</v>
+        <v>0.239834</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.342647</v>
+        <v>0.34301</v>
       </c>
       <c r="C84" t="n">
-        <v>0.285767</v>
+        <v>0.28688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.239524</v>
+        <v>0.240221</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.347903</v>
+        <v>0.345507</v>
       </c>
       <c r="C85" t="n">
-        <v>0.28528</v>
+        <v>0.286777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.240409</v>
+        <v>0.237685</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.350187</v>
+        <v>0.348225</v>
       </c>
       <c r="C86" t="n">
-        <v>0.268857</v>
+        <v>0.283766</v>
       </c>
       <c r="D86" t="n">
-        <v>0.237273</v>
+        <v>0.238791</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.349491</v>
+        <v>0.347662</v>
       </c>
       <c r="C87" t="n">
-        <v>0.281839</v>
+        <v>0.284898</v>
       </c>
       <c r="D87" t="n">
-        <v>0.235899</v>
+        <v>0.237712</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.34763</v>
+        <v>0.350162</v>
       </c>
       <c r="C88" t="n">
-        <v>0.26324</v>
+        <v>0.281327</v>
       </c>
       <c r="D88" t="n">
-        <v>0.236359</v>
+        <v>0.234371</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.352474</v>
+        <v>0.346199</v>
       </c>
       <c r="C89" t="n">
-        <v>0.281669</v>
+        <v>0.284283</v>
       </c>
       <c r="D89" t="n">
-        <v>0.23834</v>
+        <v>0.236478</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.360826</v>
+        <v>0.349463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.264768</v>
+        <v>0.281083</v>
       </c>
       <c r="D90" t="n">
-        <v>0.232482</v>
+        <v>0.235078</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.358012</v>
+        <v>0.353763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.283753</v>
+        <v>0.281554</v>
       </c>
       <c r="D91" t="n">
-        <v>0.238666</v>
+        <v>0.235655</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.358499</v>
+        <v>0.354851</v>
       </c>
       <c r="C92" t="n">
-        <v>0.289669</v>
+        <v>0.280709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.238067</v>
+        <v>0.236025</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.364039</v>
+        <v>0.361142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.287569</v>
+        <v>0.282611</v>
       </c>
       <c r="D93" t="n">
-        <v>0.222944</v>
+        <v>0.240212</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.370429</v>
+        <v>0.362327</v>
       </c>
       <c r="C94" t="n">
-        <v>0.273707</v>
+        <v>0.290603</v>
       </c>
       <c r="D94" t="n">
-        <v>0.386288</v>
+        <v>0.387529</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.501271</v>
+        <v>0.503623</v>
       </c>
       <c r="C95" t="n">
-        <v>0.455955</v>
+        <v>0.457079</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398839</v>
+        <v>0.398526</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.501336</v>
+        <v>0.503379</v>
       </c>
       <c r="C96" t="n">
-        <v>0.444079</v>
+        <v>0.456497</v>
       </c>
       <c r="D96" t="n">
-        <v>0.398766</v>
+        <v>0.384712</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.501868</v>
+        <v>0.5036890000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.454807</v>
+        <v>0.455716</v>
       </c>
       <c r="D97" t="n">
-        <v>0.396629</v>
+        <v>0.396478</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.502867</v>
+        <v>0.503707</v>
       </c>
       <c r="C98" t="n">
-        <v>0.441308</v>
+        <v>0.455779</v>
       </c>
       <c r="D98" t="n">
-        <v>0.392856</v>
+        <v>0.396905</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.50325</v>
+        <v>0.503433</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453838</v>
+        <v>0.454747</v>
       </c>
       <c r="D99" t="n">
-        <v>0.396802</v>
+        <v>0.397252</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5030289999999999</v>
+        <v>0.503916</v>
       </c>
       <c r="C100" t="n">
-        <v>0.452989</v>
+        <v>0.454436</v>
       </c>
       <c r="D100" t="n">
-        <v>0.383448</v>
+        <v>0.397495</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504123</v>
+        <v>0.504646</v>
       </c>
       <c r="C101" t="n">
-        <v>0.44027</v>
+        <v>0.453695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.395621</v>
+        <v>0.396807</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.504092</v>
+        <v>0.50588</v>
       </c>
       <c r="C102" t="n">
-        <v>0.452643</v>
+        <v>0.454215</v>
       </c>
       <c r="D102" t="n">
-        <v>0.396324</v>
+        <v>0.397427</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.505673</v>
+        <v>0.506835</v>
       </c>
       <c r="C103" t="n">
-        <v>0.453081</v>
+        <v>0.441496</v>
       </c>
       <c r="D103" t="n">
-        <v>0.39544</v>
+        <v>0.396614</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50729</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45382</v>
+        <v>0.455862</v>
       </c>
       <c r="D104" t="n">
-        <v>0.398934</v>
+        <v>0.386684</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.509907</v>
+        <v>0.511198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.455758</v>
+        <v>0.457047</v>
       </c>
       <c r="D105" t="n">
-        <v>0.399594</v>
+        <v>0.400493</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.513151</v>
+        <v>0.514648</v>
       </c>
       <c r="C106" t="n">
-        <v>0.444587</v>
+        <v>0.458696</v>
       </c>
       <c r="D106" t="n">
-        <v>0.401879</v>
+        <v>0.392516</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.518377</v>
+        <v>0.519326</v>
       </c>
       <c r="C107" t="n">
-        <v>0.461405</v>
+        <v>0.461297</v>
       </c>
       <c r="D107" t="n">
-        <v>0.406509</v>
+        <v>0.406612</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.525566</v>
+        <v>0.526667</v>
       </c>
       <c r="C108" t="n">
-        <v>0.465772</v>
+        <v>0.466573</v>
       </c>
       <c r="D108" t="n">
-        <v>0.530989</v>
+        <v>0.528639</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.536673</v>
+        <v>0.537446</v>
       </c>
       <c r="C109" t="n">
-        <v>0.460087</v>
+        <v>0.475275</v>
       </c>
       <c r="D109" t="n">
-        <v>0.522265</v>
+        <v>0.53561</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.582612</v>
+        <v>0.5873119999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.556023</v>
+        <v>0.563658</v>
       </c>
       <c r="D110" t="n">
-        <v>0.534602</v>
+        <v>0.534045</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585615</v>
+        <v>0.587324</v>
       </c>
       <c r="C111" t="n">
-        <v>0.562631</v>
+        <v>0.564364</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532197</v>
+        <v>0.534188</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.586198</v>
+        <v>0.586439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.556397</v>
+        <v>0.5630849999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.532243</v>
+        <v>0.533799</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.584912</v>
+        <v>0.589732</v>
       </c>
       <c r="C113" t="n">
-        <v>0.56456</v>
+        <v>0.563297</v>
       </c>
       <c r="D113" t="n">
-        <v>0.53653</v>
+        <v>0.536257</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.585876</v>
+        <v>0.589446</v>
       </c>
       <c r="C114" t="n">
-        <v>0.563889</v>
+        <v>0.565265</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5253910000000001</v>
+        <v>0.536478</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.588901</v>
+        <v>0.589409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.562458</v>
+        <v>0.567219</v>
       </c>
       <c r="D115" t="n">
-        <v>0.537955</v>
+        <v>0.536621</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.588595</v>
+        <v>0.591931</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5634</v>
+        <v>0.5669960000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.527981</v>
+        <v>0.539243</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5905</v>
+        <v>0.591371</v>
       </c>
       <c r="C117" t="n">
-        <v>0.565315</v>
+        <v>0.569392</v>
       </c>
       <c r="D117" t="n">
-        <v>0.537861</v>
+        <v>0.532978</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591904</v>
+        <v>0.595749</v>
       </c>
       <c r="C118" t="n">
-        <v>0.570258</v>
+        <v>0.572095</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539957</v>
+        <v>0.534509</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5954120000000001</v>
+        <v>0.602019</v>
       </c>
       <c r="C119" t="n">
-        <v>0.566959</v>
+        <v>0.572679</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5447650000000001</v>
+        <v>0.546007</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.602416</v>
+        <v>0.604263</v>
       </c>
       <c r="C120" t="n">
-        <v>0.57489</v>
+        <v>0.571825</v>
       </c>
       <c r="D120" t="n">
-        <v>0.545764</v>
+        <v>0.542737</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.605658</v>
+        <v>0.609669</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5766250000000001</v>
+        <v>0.5756019999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.550814</v>
+        <v>0.555385</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.618401</v>
+        <v>0.615695</v>
       </c>
       <c r="C122" t="n">
-        <v>0.583952</v>
+        <v>0.579273</v>
       </c>
       <c r="D122" t="n">
-        <v>0.558163</v>
+        <v>0.5614170000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628885</v>
+        <v>0.63004</v>
       </c>
       <c r="C123" t="n">
-        <v>0.594774</v>
+        <v>0.589106</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6923</v>
+        <v>0.692289</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.730224</v>
+        <v>0.732834</v>
       </c>
       <c r="C124" t="n">
-        <v>0.690902</v>
+        <v>0.690347</v>
       </c>
       <c r="D124" t="n">
-        <v>0.694455</v>
+        <v>0.6931040000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7322109999999999</v>
+        <v>0.7328480000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.691721</v>
+        <v>0.6886</v>
       </c>
       <c r="D125" t="n">
-        <v>0.695832</v>
+        <v>0.690504</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.732297</v>
+        <v>0.732222</v>
       </c>
       <c r="C126" t="n">
-        <v>0.691561</v>
+        <v>0.689405</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6914670000000001</v>
+        <v>0.696761</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.733049</v>
+        <v>0.732734</v>
       </c>
       <c r="C127" t="n">
-        <v>0.691326</v>
+        <v>0.690842</v>
       </c>
       <c r="D127" t="n">
-        <v>0.696356</v>
+        <v>0.698956</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.733024</v>
+        <v>0.733398</v>
       </c>
       <c r="C128" t="n">
-        <v>0.695767</v>
+        <v>0.693555</v>
       </c>
       <c r="D128" t="n">
-        <v>0.692897</v>
+        <v>0.694663</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.732357</v>
+        <v>0.734992</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696731</v>
+        <v>0.695275</v>
       </c>
       <c r="D129" t="n">
-        <v>0.693577</v>
+        <v>0.695025</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.735591</v>
+        <v>0.737133</v>
       </c>
       <c r="C130" t="n">
-        <v>0.700316</v>
+        <v>0.697294</v>
       </c>
       <c r="D130" t="n">
-        <v>0.701447</v>
+        <v>0.698863</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.737371</v>
+        <v>0.738085</v>
       </c>
       <c r="C131" t="n">
-        <v>0.70165</v>
+        <v>0.697504</v>
       </c>
       <c r="D131" t="n">
-        <v>0.699691</v>
+        <v>0.700074</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.741449</v>
+        <v>0.744544</v>
       </c>
       <c r="C132" t="n">
-        <v>0.704036</v>
+        <v>0.702771</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7042890000000001</v>
+        <v>0.702292</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.742807</v>
+        <v>0.7459</v>
       </c>
       <c r="C133" t="n">
-        <v>0.707021</v>
+        <v>0.703392</v>
       </c>
       <c r="D133" t="n">
-        <v>0.706039</v>
+        <v>0.706253</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.748185</v>
+        <v>0.752233</v>
       </c>
       <c r="C134" t="n">
-        <v>0.712024</v>
+        <v>0.711587</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7066210000000001</v>
+        <v>0.707882</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.757474</v>
+        <v>0.756277</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7161419999999999</v>
+        <v>0.716009</v>
       </c>
       <c r="D135" t="n">
-        <v>0.716647</v>
+        <v>0.71124</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.766015</v>
+        <v>0.7652330000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.722373</v>
+        <v>0.722449</v>
       </c>
       <c r="D136" t="n">
-        <v>0.721564</v>
+        <v>0.72373</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.776299</v>
+        <v>0.775237</v>
       </c>
       <c r="C137" t="n">
-        <v>0.733463</v>
+        <v>0.7310720000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8334589999999999</v>
+        <v>0.833714</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.861151</v>
+        <v>0.862573</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816835</v>
+        <v>0.817203</v>
       </c>
       <c r="D138" t="n">
-        <v>0.834425</v>
+        <v>0.834124</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.861447</v>
+        <v>0.863266</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818539</v>
+        <v>0.818966</v>
       </c>
       <c r="D139" t="n">
-        <v>0.834981</v>
+        <v>0.83341</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.863043</v>
+        <v>0.863684</v>
       </c>
       <c r="C140" t="n">
-        <v>0.815869</v>
+        <v>0.820094</v>
       </c>
       <c r="D140" t="n">
-        <v>0.835721</v>
+        <v>0.836172</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8599059999999999</v>
+        <v>0.863828</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8177179999999999</v>
+        <v>0.822153</v>
       </c>
       <c r="D141" t="n">
-        <v>0.83491</v>
+        <v>0.836188</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864162</v>
+        <v>0.8656700000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.821099</v>
+        <v>0.824065</v>
       </c>
       <c r="D142" t="n">
-        <v>0.836189</v>
+        <v>0.835811</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.864129</v>
+        <v>0.865619</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8257640000000001</v>
+        <v>0.826446</v>
       </c>
       <c r="D143" t="n">
-        <v>0.838382</v>
+        <v>0.838017</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.110198</v>
+        <v>0.116161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.219091</v>
+        <v>0.221127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11295</v>
+        <v>0.110365</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110817</v>
+        <v>0.116207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233489</v>
+        <v>0.234764</v>
       </c>
       <c r="D3" t="n">
-        <v>0.113668</v>
+        <v>0.110535</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112506</v>
+        <v>0.116787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.250263</v>
+        <v>0.253415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113982</v>
+        <v>0.110876</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.112972</v>
+        <v>0.118893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.266516</v>
+        <v>0.266566</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114106</v>
+        <v>0.111678</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113237</v>
+        <v>0.118357</v>
       </c>
       <c r="C6" t="n">
-        <v>0.277063</v>
+        <v>0.277623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.114595</v>
+        <v>0.11119</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.113492</v>
+        <v>0.118839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.285838</v>
+        <v>0.284992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114906</v>
+        <v>0.116294</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11615</v>
+        <v>0.121639</v>
       </c>
       <c r="C8" t="n">
-        <v>0.174579</v>
+        <v>0.179733</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116731</v>
+        <v>0.113865</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118746</v>
+        <v>0.126076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.178777</v>
+        <v>0.184112</v>
       </c>
       <c r="D9" t="n">
-        <v>0.124539</v>
+        <v>0.115679</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130113</v>
+        <v>0.122112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184393</v>
+        <v>0.190326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.125113</v>
+        <v>0.11457</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133622</v>
+        <v>0.122797</v>
       </c>
       <c r="C11" t="n">
-        <v>0.191467</v>
+        <v>0.197312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.124708</v>
+        <v>0.115282</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128785</v>
+        <v>0.122761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.197715</v>
+        <v>0.206205</v>
       </c>
       <c r="D12" t="n">
-        <v>0.12479</v>
+        <v>0.116246</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128549</v>
+        <v>0.123295</v>
       </c>
       <c r="C13" t="n">
-        <v>0.208487</v>
+        <v>0.213574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124573</v>
+        <v>0.116564</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128181</v>
+        <v>0.123226</v>
       </c>
       <c r="C14" t="n">
-        <v>0.21635</v>
+        <v>0.220112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.124382</v>
+        <v>0.116452</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126783</v>
+        <v>0.123494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.226621</v>
+        <v>0.229821</v>
       </c>
       <c r="D15" t="n">
-        <v>0.124946</v>
+        <v>0.116741</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127721</v>
+        <v>0.124066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240686</v>
+        <v>0.24184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.124125</v>
+        <v>0.11762</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128416</v>
+        <v>0.124268</v>
       </c>
       <c r="C17" t="n">
-        <v>0.255729</v>
+        <v>0.257208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.124769</v>
+        <v>0.117546</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128714</v>
+        <v>0.125338</v>
       </c>
       <c r="C18" t="n">
-        <v>0.270831</v>
+        <v>0.271288</v>
       </c>
       <c r="D18" t="n">
-        <v>0.124711</v>
+        <v>0.117791</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.129146</v>
+        <v>0.125778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28831</v>
+        <v>0.286684</v>
       </c>
       <c r="D19" t="n">
-        <v>0.12559</v>
+        <v>0.117829</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.13025</v>
+        <v>0.126331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.29588</v>
+        <v>0.296977</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12514</v>
+        <v>0.118988</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.132711</v>
+        <v>0.128282</v>
       </c>
       <c r="C21" t="n">
-        <v>0.302647</v>
+        <v>0.303849</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12636</v>
+        <v>0.120536</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.135611</v>
+        <v>0.133364</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193242</v>
+        <v>0.196065</v>
       </c>
       <c r="D22" t="n">
-        <v>0.131301</v>
+        <v>0.123643</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.143395</v>
+        <v>0.140397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198367</v>
+        <v>0.202663</v>
       </c>
       <c r="D23" t="n">
-        <v>0.133907</v>
+        <v>0.124283</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143476</v>
+        <v>0.135381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.204914</v>
+        <v>0.207323</v>
       </c>
       <c r="D24" t="n">
-        <v>0.131952</v>
+        <v>0.124473</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.139187</v>
+        <v>0.133277</v>
       </c>
       <c r="C25" t="n">
-        <v>0.212168</v>
+        <v>0.212369</v>
       </c>
       <c r="D25" t="n">
-        <v>0.131525</v>
+        <v>0.124481</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139461</v>
+        <v>0.133988</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219172</v>
+        <v>0.218569</v>
       </c>
       <c r="D26" t="n">
-        <v>0.131906</v>
+        <v>0.124942</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135729</v>
+        <v>0.134085</v>
       </c>
       <c r="C27" t="n">
-        <v>0.226327</v>
+        <v>0.227113</v>
       </c>
       <c r="D27" t="n">
-        <v>0.130991</v>
+        <v>0.124598</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134613</v>
+        <v>0.134783</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23641</v>
+        <v>0.235359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.130496</v>
+        <v>0.125101</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135013</v>
+        <v>0.134492</v>
       </c>
       <c r="C29" t="n">
-        <v>0.244831</v>
+        <v>0.243135</v>
       </c>
       <c r="D29" t="n">
-        <v>0.130947</v>
+        <v>0.125266</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136383</v>
+        <v>0.134999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25565</v>
+        <v>0.254587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.131703</v>
+        <v>0.125617</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137219</v>
+        <v>0.135683</v>
       </c>
       <c r="C31" t="n">
-        <v>0.270805</v>
+        <v>0.268632</v>
       </c>
       <c r="D31" t="n">
-        <v>0.131222</v>
+        <v>0.126293</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137061</v>
+        <v>0.137008</v>
       </c>
       <c r="C32" t="n">
-        <v>0.282208</v>
+        <v>0.280845</v>
       </c>
       <c r="D32" t="n">
-        <v>0.132161</v>
+        <v>0.126894</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.138654</v>
+        <v>0.13764</v>
       </c>
       <c r="C33" t="n">
-        <v>0.294761</v>
+        <v>0.296135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.132907</v>
+        <v>0.127874</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142044</v>
+        <v>0.141189</v>
       </c>
       <c r="C34" t="n">
-        <v>0.307017</v>
+        <v>0.308174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.135314</v>
+        <v>0.128473</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.146042</v>
+        <v>0.143878</v>
       </c>
       <c r="C35" t="n">
-        <v>0.317377</v>
+        <v>0.317883</v>
       </c>
       <c r="D35" t="n">
-        <v>0.138429</v>
+        <v>0.131534</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.150802</v>
+        <v>0.148596</v>
       </c>
       <c r="C36" t="n">
-        <v>0.327224</v>
+        <v>0.326364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.143025</v>
+        <v>0.138296</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15537</v>
+        <v>0.155929</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206404</v>
+        <v>0.207101</v>
       </c>
       <c r="D37" t="n">
-        <v>0.145368</v>
+        <v>0.135407</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14676</v>
+        <v>0.147237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.210939</v>
+        <v>0.211221</v>
       </c>
       <c r="D38" t="n">
-        <v>0.143719</v>
+        <v>0.137877</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148188</v>
+        <v>0.147307</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216844</v>
+        <v>0.218168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.143708</v>
+        <v>0.136457</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150043</v>
+        <v>0.14808</v>
       </c>
       <c r="C40" t="n">
-        <v>0.224378</v>
+        <v>0.224991</v>
       </c>
       <c r="D40" t="n">
-        <v>0.144532</v>
+        <v>0.137316</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150741</v>
+        <v>0.147976</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23192</v>
+        <v>0.232388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146115</v>
+        <v>0.137551</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148465</v>
+        <v>0.148361</v>
       </c>
       <c r="C42" t="n">
-        <v>0.240944</v>
+        <v>0.241317</v>
       </c>
       <c r="D42" t="n">
-        <v>0.144271</v>
+        <v>0.137627</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148934</v>
+        <v>0.148814</v>
       </c>
       <c r="C43" t="n">
-        <v>0.250976</v>
+        <v>0.250787</v>
       </c>
       <c r="D43" t="n">
-        <v>0.147499</v>
+        <v>0.137864</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148108</v>
+        <v>0.147921</v>
       </c>
       <c r="C44" t="n">
-        <v>0.262585</v>
+        <v>0.261718</v>
       </c>
       <c r="D44" t="n">
-        <v>0.146308</v>
+        <v>0.138204</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.148067</v>
+        <v>0.151112</v>
       </c>
       <c r="C45" t="n">
-        <v>0.276112</v>
+        <v>0.274793</v>
       </c>
       <c r="D45" t="n">
-        <v>0.146158</v>
+        <v>0.139326</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.149678</v>
+        <v>0.150163</v>
       </c>
       <c r="C46" t="n">
-        <v>0.290144</v>
+        <v>0.288822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.147192</v>
+        <v>0.138808</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150912</v>
+        <v>0.151964</v>
       </c>
       <c r="C47" t="n">
-        <v>0.304974</v>
+        <v>0.303516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.146796</v>
+        <v>0.139882</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152601</v>
+        <v>0.154529</v>
       </c>
       <c r="C48" t="n">
-        <v>0.317673</v>
+        <v>0.316727</v>
       </c>
       <c r="D48" t="n">
-        <v>0.150218</v>
+        <v>0.141897</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156448</v>
+        <v>0.159081</v>
       </c>
       <c r="C49" t="n">
-        <v>0.329881</v>
+        <v>0.329649</v>
       </c>
       <c r="D49" t="n">
-        <v>0.15374</v>
+        <v>0.145238</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.162096</v>
+        <v>0.160425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.342401</v>
+        <v>0.340828</v>
       </c>
       <c r="D50" t="n">
-        <v>0.158695</v>
+        <v>0.150111</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167875</v>
+        <v>0.166987</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209847</v>
+        <v>0.210705</v>
       </c>
       <c r="D51" t="n">
-        <v>0.155997</v>
+        <v>0.149465</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174938</v>
+        <v>0.175207</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215564</v>
+        <v>0.216247</v>
       </c>
       <c r="D52" t="n">
-        <v>0.155926</v>
+        <v>0.150041</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161391</v>
+        <v>0.159761</v>
       </c>
       <c r="C53" t="n">
-        <v>0.221062</v>
+        <v>0.222416</v>
       </c>
       <c r="D53" t="n">
-        <v>0.155986</v>
+        <v>0.149894</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159439</v>
+        <v>0.159508</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227154</v>
+        <v>0.228793</v>
       </c>
       <c r="D54" t="n">
-        <v>0.15667</v>
+        <v>0.150668</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160874</v>
+        <v>0.159902</v>
       </c>
       <c r="C55" t="n">
-        <v>0.23542</v>
+        <v>0.237023</v>
       </c>
       <c r="D55" t="n">
-        <v>0.156342</v>
+        <v>0.150757</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159623</v>
+        <v>0.161454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.243535</v>
+        <v>0.244594</v>
       </c>
       <c r="D56" t="n">
-        <v>0.157817</v>
+        <v>0.150911</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163709</v>
+        <v>0.160853</v>
       </c>
       <c r="C57" t="n">
-        <v>0.254225</v>
+        <v>0.254271</v>
       </c>
       <c r="D57" t="n">
-        <v>0.157277</v>
+        <v>0.150843</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.160931</v>
+        <v>0.161261</v>
       </c>
       <c r="C58" t="n">
-        <v>0.265736</v>
+        <v>0.265627</v>
       </c>
       <c r="D58" t="n">
-        <v>0.158233</v>
+        <v>0.152037</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.161758</v>
+        <v>0.160884</v>
       </c>
       <c r="C59" t="n">
-        <v>0.27941</v>
+        <v>0.278226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.157968</v>
+        <v>0.152519</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16154</v>
+        <v>0.162858</v>
       </c>
       <c r="C60" t="n">
-        <v>0.293587</v>
+        <v>0.29235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.159026</v>
+        <v>0.153312</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.164665</v>
+        <v>0.165134</v>
       </c>
       <c r="C61" t="n">
-        <v>0.310641</v>
+        <v>0.306474</v>
       </c>
       <c r="D61" t="n">
-        <v>0.158416</v>
+        <v>0.155046</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168895</v>
+        <v>0.166509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.324613</v>
+        <v>0.321276</v>
       </c>
       <c r="D62" t="n">
-        <v>0.161896</v>
+        <v>0.156834</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.174054</v>
+        <v>0.170007</v>
       </c>
       <c r="C63" t="n">
-        <v>0.337556</v>
+        <v>0.33556</v>
       </c>
       <c r="D63" t="n">
-        <v>0.166333</v>
+        <v>0.159835</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184704</v>
+        <v>0.172601</v>
       </c>
       <c r="C64" t="n">
-        <v>0.352132</v>
+        <v>0.349146</v>
       </c>
       <c r="D64" t="n">
-        <v>0.170188</v>
+        <v>0.163994</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.186212</v>
+        <v>0.179487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.220947</v>
+        <v>0.213129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176092</v>
+        <v>0.170163</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190114</v>
+        <v>0.186793</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221694</v>
+        <v>0.218627</v>
       </c>
       <c r="D66" t="n">
-        <v>0.170107</v>
+        <v>0.16017</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182923</v>
+        <v>0.177298</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22357</v>
+        <v>0.223731</v>
       </c>
       <c r="D67" t="n">
-        <v>0.168874</v>
+        <v>0.160845</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.177979</v>
+        <v>0.179112</v>
       </c>
       <c r="C68" t="n">
-        <v>0.229969</v>
+        <v>0.23048</v>
       </c>
       <c r="D68" t="n">
-        <v>0.168739</v>
+        <v>0.162855</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.190077</v>
+        <v>0.183813</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238102</v>
+        <v>0.237238</v>
       </c>
       <c r="D69" t="n">
-        <v>0.170272</v>
+        <v>0.162461</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183214</v>
+        <v>0.18137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247755</v>
+        <v>0.246781</v>
       </c>
       <c r="D70" t="n">
-        <v>0.168825</v>
+        <v>0.164255</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.183377</v>
+        <v>0.181741</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256959</v>
+        <v>0.257456</v>
       </c>
       <c r="D71" t="n">
-        <v>0.169355</v>
+        <v>0.164046</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.189043</v>
+        <v>0.181745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.268855</v>
+        <v>0.269187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.173059</v>
+        <v>0.164552</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195028</v>
+        <v>0.184078</v>
       </c>
       <c r="C73" t="n">
-        <v>0.28212</v>
+        <v>0.28188</v>
       </c>
       <c r="D73" t="n">
-        <v>0.174222</v>
+        <v>0.165497</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.197744</v>
+        <v>0.185979</v>
       </c>
       <c r="C74" t="n">
-        <v>0.297114</v>
+        <v>0.296042</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175172</v>
+        <v>0.165061</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200633</v>
+        <v>0.191784</v>
       </c>
       <c r="C75" t="n">
-        <v>0.31178</v>
+        <v>0.311748</v>
       </c>
       <c r="D75" t="n">
-        <v>0.176736</v>
+        <v>0.169517</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.199504</v>
+        <v>0.192706</v>
       </c>
       <c r="C76" t="n">
-        <v>0.326122</v>
+        <v>0.326243</v>
       </c>
       <c r="D76" t="n">
-        <v>0.177591</v>
+        <v>0.168686</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.204864</v>
+        <v>0.196801</v>
       </c>
       <c r="C77" t="n">
-        <v>0.341351</v>
+        <v>0.340502</v>
       </c>
       <c r="D77" t="n">
-        <v>0.178718</v>
+        <v>0.172593</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.197155</v>
+        <v>0.195181</v>
       </c>
       <c r="C78" t="n">
-        <v>0.356036</v>
+        <v>0.356216</v>
       </c>
       <c r="D78" t="n">
-        <v>0.180543</v>
+        <v>0.175058</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.197519</v>
+        <v>0.201531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247667</v>
+        <v>0.244472</v>
       </c>
       <c r="D79" t="n">
-        <v>0.185479</v>
+        <v>0.18055</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.202753</v>
+        <v>0.203001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249355</v>
+        <v>0.250635</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247883</v>
+        <v>0.24273</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.346487</v>
+        <v>0.343038</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257893</v>
+        <v>0.257411</v>
       </c>
       <c r="D81" t="n">
-        <v>0.246423</v>
+        <v>0.245961</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.347888</v>
+        <v>0.342428</v>
       </c>
       <c r="C82" t="n">
-        <v>0.265794</v>
+        <v>0.265603</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24689</v>
+        <v>0.24302</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344428</v>
+        <v>0.346131</v>
       </c>
       <c r="C83" t="n">
-        <v>0.272423</v>
+        <v>0.270569</v>
       </c>
       <c r="D83" t="n">
-        <v>0.245868</v>
+        <v>0.240933</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.346901</v>
+        <v>0.345425</v>
       </c>
       <c r="C84" t="n">
-        <v>0.279443</v>
+        <v>0.278157</v>
       </c>
       <c r="D84" t="n">
-        <v>0.245328</v>
+        <v>0.24214</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.348034</v>
+        <v>0.347444</v>
       </c>
       <c r="C85" t="n">
-        <v>0.292182</v>
+        <v>0.288352</v>
       </c>
       <c r="D85" t="n">
-        <v>0.247228</v>
+        <v>0.24036</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.345521</v>
+        <v>0.346063</v>
       </c>
       <c r="C86" t="n">
-        <v>0.306913</v>
+        <v>0.304491</v>
       </c>
       <c r="D86" t="n">
-        <v>0.245063</v>
+        <v>0.239006</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347581</v>
+        <v>0.347579</v>
       </c>
       <c r="C87" t="n">
-        <v>0.319639</v>
+        <v>0.313286</v>
       </c>
       <c r="D87" t="n">
-        <v>0.244813</v>
+        <v>0.242044</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.348672</v>
+        <v>0.349757</v>
       </c>
       <c r="C88" t="n">
-        <v>0.334251</v>
+        <v>0.333509</v>
       </c>
       <c r="D88" t="n">
-        <v>0.242292</v>
+        <v>0.238353</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.350171</v>
+        <v>0.35019</v>
       </c>
       <c r="C89" t="n">
-        <v>0.348769</v>
+        <v>0.346292</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244511</v>
+        <v>0.236568</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.353686</v>
+        <v>0.353762</v>
       </c>
       <c r="C90" t="n">
-        <v>0.35918</v>
+        <v>0.36239</v>
       </c>
       <c r="D90" t="n">
-        <v>0.243247</v>
+        <v>0.237639</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356998</v>
+        <v>0.350394</v>
       </c>
       <c r="C91" t="n">
-        <v>0.374144</v>
+        <v>0.370886</v>
       </c>
       <c r="D91" t="n">
-        <v>0.242394</v>
+        <v>0.236163</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.357251</v>
+        <v>0.356429</v>
       </c>
       <c r="C92" t="n">
-        <v>0.383878</v>
+        <v>0.388941</v>
       </c>
       <c r="D92" t="n">
-        <v>0.228677</v>
+        <v>0.239348</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.360131</v>
+        <v>0.357081</v>
       </c>
       <c r="C93" t="n">
-        <v>0.399081</v>
+        <v>0.396161</v>
       </c>
       <c r="D93" t="n">
-        <v>0.22935</v>
+        <v>0.242226</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365627</v>
+        <v>0.367582</v>
       </c>
       <c r="C94" t="n">
-        <v>0.442681</v>
+        <v>0.445037</v>
       </c>
       <c r="D94" t="n">
-        <v>0.407941</v>
+        <v>0.402936</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.504386</v>
+        <v>0.504081</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449823</v>
+        <v>0.452761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.408694</v>
+        <v>0.402304</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.504037</v>
+        <v>0.504283</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457491</v>
+        <v>0.461321</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407584</v>
+        <v>0.401052</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5047469999999999</v>
+        <v>0.50435</v>
       </c>
       <c r="C97" t="n">
-        <v>0.468308</v>
+        <v>0.468408</v>
       </c>
       <c r="D97" t="n">
-        <v>0.407436</v>
+        <v>0.38933</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.50509</v>
+        <v>0.504094</v>
       </c>
       <c r="C98" t="n">
-        <v>0.475036</v>
+        <v>0.478389</v>
       </c>
       <c r="D98" t="n">
-        <v>0.393774</v>
+        <v>0.401998</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.504981</v>
+        <v>0.504414</v>
       </c>
       <c r="C99" t="n">
-        <v>0.492945</v>
+        <v>0.487832</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405159</v>
+        <v>0.400613</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.505428</v>
+        <v>0.505163</v>
       </c>
       <c r="C100" t="n">
-        <v>0.503707</v>
+        <v>0.504686</v>
       </c>
       <c r="D100" t="n">
-        <v>0.404612</v>
+        <v>0.40028</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.505358</v>
+        <v>0.505661</v>
       </c>
       <c r="C101" t="n">
-        <v>0.517285</v>
+        <v>0.511831</v>
       </c>
       <c r="D101" t="n">
-        <v>0.392083</v>
+        <v>0.387806</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.50745</v>
+        <v>0.506999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.533438</v>
+        <v>0.531394</v>
       </c>
       <c r="D102" t="n">
-        <v>0.393591</v>
+        <v>0.388608</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.508345</v>
+        <v>0.50897</v>
       </c>
       <c r="C103" t="n">
-        <v>0.548266</v>
+        <v>0.544777</v>
       </c>
       <c r="D103" t="n">
-        <v>0.40598</v>
+        <v>0.401695</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.50978</v>
+        <v>0.510081</v>
       </c>
       <c r="C104" t="n">
-        <v>0.551885</v>
+        <v>0.554214</v>
       </c>
       <c r="D104" t="n">
-        <v>0.407188</v>
+        <v>0.388691</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.513196</v>
+        <v>0.51211</v>
       </c>
       <c r="C105" t="n">
-        <v>0.566657</v>
+        <v>0.563558</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39697</v>
+        <v>0.403641</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.51761</v>
+        <v>0.515334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.568065</v>
+        <v>0.562532</v>
       </c>
       <c r="D106" t="n">
-        <v>0.398944</v>
+        <v>0.394068</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.52134</v>
+        <v>0.520918</v>
       </c>
       <c r="C107" t="n">
-        <v>0.564409</v>
+        <v>0.556674</v>
       </c>
       <c r="D107" t="n">
-        <v>0.404581</v>
+        <v>0.411263</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.52851</v>
+        <v>0.528319</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6281330000000001</v>
+        <v>0.631567</v>
       </c>
       <c r="D108" t="n">
-        <v>0.536187</v>
+        <v>0.540587</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537971</v>
+        <v>0.538701</v>
       </c>
       <c r="C109" t="n">
-        <v>0.634369</v>
+        <v>0.630825</v>
       </c>
       <c r="D109" t="n">
-        <v>0.535902</v>
+        <v>0.531542</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5898949999999999</v>
+        <v>0.587601</v>
       </c>
       <c r="C110" t="n">
-        <v>0.641343</v>
+        <v>0.643367</v>
       </c>
       <c r="D110" t="n">
-        <v>0.54797</v>
+        <v>0.5342789999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.589802</v>
+        <v>0.588816</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6489780000000001</v>
+        <v>0.650406</v>
       </c>
       <c r="D111" t="n">
-        <v>0.545812</v>
+        <v>0.541201</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5914</v>
+        <v>0.589224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.657946</v>
+        <v>0.653379</v>
       </c>
       <c r="D112" t="n">
-        <v>0.546591</v>
+        <v>0.541165</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592877</v>
+        <v>0.589803</v>
       </c>
       <c r="C113" t="n">
-        <v>0.66721</v>
+        <v>0.668538</v>
       </c>
       <c r="D113" t="n">
-        <v>0.54778</v>
+        <v>0.541997</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.591305</v>
+        <v>0.590591</v>
       </c>
       <c r="C114" t="n">
-        <v>0.669542</v>
+        <v>0.679975</v>
       </c>
       <c r="D114" t="n">
-        <v>0.539864</v>
+        <v>0.542141</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.592153</v>
+        <v>0.593453</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6938530000000001</v>
+        <v>0.692431</v>
       </c>
       <c r="D115" t="n">
-        <v>0.552932</v>
+        <v>0.539142</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.595144</v>
+        <v>0.59424</v>
       </c>
       <c r="C116" t="n">
-        <v>0.705538</v>
+        <v>0.706439</v>
       </c>
       <c r="D116" t="n">
-        <v>0.550964</v>
+        <v>0.543481</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.597343</v>
+        <v>0.594898</v>
       </c>
       <c r="C117" t="n">
-        <v>0.720942</v>
+        <v>0.716376</v>
       </c>
       <c r="D117" t="n">
-        <v>0.554329</v>
+        <v>0.54704</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.598366</v>
+        <v>0.597738</v>
       </c>
       <c r="C118" t="n">
-        <v>0.725657</v>
+        <v>0.731463</v>
       </c>
       <c r="D118" t="n">
-        <v>0.55357</v>
+        <v>0.543188</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.60123</v>
+        <v>0.599303</v>
       </c>
       <c r="C119" t="n">
-        <v>0.737803</v>
+        <v>0.747357</v>
       </c>
       <c r="D119" t="n">
-        <v>0.559758</v>
+        <v>0.549764</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.607061</v>
+        <v>0.604711</v>
       </c>
       <c r="C120" t="n">
-        <v>0.759641</v>
+        <v>0.760385</v>
       </c>
       <c r="D120" t="n">
-        <v>0.563013</v>
+        <v>0.547157</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.612922</v>
+        <v>0.612194</v>
       </c>
       <c r="C121" t="n">
-        <v>0.782342</v>
+        <v>0.780598</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5661</v>
+        <v>0.557767</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.619635</v>
+        <v>0.618739</v>
       </c>
       <c r="C122" t="n">
-        <v>0.70717</v>
+        <v>0.717541</v>
       </c>
       <c r="D122" t="n">
-        <v>0.570956</v>
+        <v>0.567009</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.632985</v>
+        <v>0.6316040000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.713143</v>
+        <v>0.723322</v>
       </c>
       <c r="D123" t="n">
-        <v>0.70811</v>
+        <v>0.700838</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.738166</v>
+        <v>0.735776</v>
       </c>
       <c r="C124" t="n">
-        <v>0.719737</v>
+        <v>0.730754</v>
       </c>
       <c r="D124" t="n">
-        <v>0.709724</v>
+        <v>0.70123</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.735684</v>
+        <v>0.732847</v>
       </c>
       <c r="C125" t="n">
-        <v>0.726434</v>
+        <v>0.736474</v>
       </c>
       <c r="D125" t="n">
-        <v>0.70917</v>
+        <v>0.700285</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.738487</v>
+        <v>0.73376</v>
       </c>
       <c r="C126" t="n">
-        <v>0.742747</v>
+        <v>0.744164</v>
       </c>
       <c r="D126" t="n">
-        <v>0.710597</v>
+        <v>0.7041230000000001</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.739039</v>
+        <v>0.734313</v>
       </c>
       <c r="C127" t="n">
-        <v>0.752015</v>
+        <v>0.753723</v>
       </c>
       <c r="D127" t="n">
-        <v>0.711993</v>
+        <v>0.702117</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.739</v>
+        <v>0.738524</v>
       </c>
       <c r="C128" t="n">
-        <v>0.763366</v>
+        <v>0.763428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.713592</v>
+        <v>0.699884</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.741725</v>
+        <v>0.7385699999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.766548</v>
+        <v>0.777918</v>
       </c>
       <c r="D129" t="n">
-        <v>0.712982</v>
+        <v>0.705678</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.744293</v>
+        <v>0.739592</v>
       </c>
       <c r="C130" t="n">
-        <v>0.787405</v>
+        <v>0.790257</v>
       </c>
       <c r="D130" t="n">
-        <v>0.712862</v>
+        <v>0.706372</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.745416</v>
+        <v>0.744069</v>
       </c>
       <c r="C131" t="n">
-        <v>0.802957</v>
+        <v>0.800297</v>
       </c>
       <c r="D131" t="n">
-        <v>0.717992</v>
+        <v>0.707185</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.746485</v>
+        <v>0.746078</v>
       </c>
       <c r="C132" t="n">
-        <v>0.818234</v>
+        <v>0.8211850000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.717454</v>
+        <v>0.710472</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.754723</v>
+        <v>0.749802</v>
       </c>
       <c r="C133" t="n">
-        <v>0.834613</v>
+        <v>0.830299</v>
       </c>
       <c r="D133" t="n">
-        <v>0.72132</v>
+        <v>0.714954</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.759047</v>
+        <v>0.754943</v>
       </c>
       <c r="C134" t="n">
-        <v>0.845298</v>
+        <v>0.842113</v>
       </c>
       <c r="D134" t="n">
-        <v>0.722523</v>
+        <v>0.716346</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.763442</v>
+        <v>0.759124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.880324</v>
+        <v>0.871541</v>
       </c>
       <c r="D135" t="n">
-        <v>0.72687</v>
+        <v>0.721162</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.773695</v>
+        <v>0.770598</v>
       </c>
       <c r="C136" t="n">
-        <v>0.763351</v>
+        <v>0.765656</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7343</v>
+        <v>0.727674</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.783026</v>
+        <v>0.781259</v>
       </c>
       <c r="C137" t="n">
-        <v>0.768054</v>
+        <v>0.77013</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8426630000000001</v>
+        <v>0.83897</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.86285</v>
+        <v>0.867198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.767974</v>
+        <v>0.776363</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8395359999999999</v>
+        <v>0.840226</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.859384</v>
+        <v>0.86783</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7803060000000001</v>
+        <v>0.7832750000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8413310000000001</v>
+        <v>0.842934</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.864682</v>
+        <v>0.868595</v>
       </c>
       <c r="C140" t="n">
-        <v>0.789042</v>
+        <v>0.791048</v>
       </c>
       <c r="D140" t="n">
-        <v>0.842441</v>
+        <v>0.842665</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866432</v>
+        <v>0.86822</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7974059999999999</v>
+        <v>0.795444</v>
       </c>
       <c r="D141" t="n">
-        <v>0.843924</v>
+        <v>0.844446</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.866661</v>
+        <v>0.8708090000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.801831</v>
+        <v>0.81018</v>
       </c>
       <c r="D142" t="n">
-        <v>0.844035</v>
+        <v>0.843933</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.866743</v>
+        <v>0.870525</v>
       </c>
       <c r="C143" t="n">
-        <v>0.813645</v>
+        <v>0.822207</v>
       </c>
       <c r="D143" t="n">
-        <v>0.84704</v>
+        <v>0.8447789999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered successful looukp.xlsx
+++ b/clang-x86/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115954</v>
+        <v>0.117142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.104011</v>
+        <v>0.104621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108617</v>
+        <v>0.10888</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1181</v>
+        <v>0.115224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109204</v>
+        <v>0.103481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109078</v>
+        <v>0.107898</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116661</v>
+        <v>0.115773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10766</v>
+        <v>0.103034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.108275</v>
+        <v>0.107804</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117101</v>
+        <v>0.116125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104404</v>
+        <v>0.103108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.108874</v>
+        <v>0.108271</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118979</v>
+        <v>0.116852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.109421</v>
+        <v>0.105518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.109612</v>
+        <v>0.109344</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.120249</v>
+        <v>0.119123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.109747</v>
+        <v>0.105573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.109566</v>
+        <v>0.10982</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120703</v>
+        <v>0.120638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.112304</v>
+        <v>0.105956</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111629</v>
+        <v>0.111174</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125529</v>
+        <v>0.122315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108661</v>
+        <v>0.106803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113127</v>
+        <v>0.113253</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121993</v>
+        <v>0.12174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110212</v>
+        <v>0.109558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112818</v>
+        <v>0.112471</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121949</v>
+        <v>0.122044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110505</v>
+        <v>0.110647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.113682</v>
+        <v>0.113491</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122762</v>
+        <v>0.122904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11109</v>
+        <v>0.111011</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113657</v>
+        <v>0.113175</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123221</v>
+        <v>0.123181</v>
       </c>
       <c r="C13" t="n">
-        <v>0.111219</v>
+        <v>0.110666</v>
       </c>
       <c r="D13" t="n">
-        <v>0.113651</v>
+        <v>0.113285</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.123092</v>
+        <v>0.123034</v>
       </c>
       <c r="C14" t="n">
-        <v>0.111748</v>
+        <v>0.111208</v>
       </c>
       <c r="D14" t="n">
-        <v>0.114195</v>
+        <v>0.113064</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124325</v>
+        <v>0.123656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112436</v>
+        <v>0.111772</v>
       </c>
       <c r="D15" t="n">
-        <v>0.114273</v>
+        <v>0.113868</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.124113</v>
+        <v>0.124047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112173</v>
+        <v>0.111143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.114514</v>
+        <v>0.11357</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124119</v>
+        <v>0.124114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.114347</v>
+        <v>0.113101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.114988</v>
+        <v>0.113999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124949</v>
+        <v>0.123807</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113448</v>
+        <v>0.112016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.115467</v>
+        <v>0.114668</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.126499</v>
+        <v>0.124697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.113932</v>
+        <v>0.113012</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11636</v>
+        <v>0.114818</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.127775</v>
+        <v>0.127181</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117162</v>
+        <v>0.1133</v>
       </c>
       <c r="D20" t="n">
-        <v>0.116938</v>
+        <v>0.115804</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.129215</v>
+        <v>0.128926</v>
       </c>
       <c r="C21" t="n">
-        <v>0.11532</v>
+        <v>0.114232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.118608</v>
+        <v>0.117415</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.132399</v>
+        <v>0.132927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118859</v>
+        <v>0.117996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122535</v>
+        <v>0.122168</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.141318</v>
+        <v>0.140437</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12796</v>
+        <v>0.121955</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124027</v>
+        <v>0.121629</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137834</v>
+        <v>0.133011</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121494</v>
+        <v>0.121638</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121818</v>
+        <v>0.121695</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134516</v>
+        <v>0.133348</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122306</v>
+        <v>0.121651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122686</v>
+        <v>0.122325</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134782</v>
+        <v>0.133448</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122767</v>
+        <v>0.123869</v>
       </c>
       <c r="D26" t="n">
-        <v>0.122863</v>
+        <v>0.121927</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134597</v>
+        <v>0.134734</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122791</v>
+        <v>0.1225</v>
       </c>
       <c r="D27" t="n">
-        <v>0.123208</v>
+        <v>0.122551</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136137</v>
+        <v>0.13503</v>
       </c>
       <c r="C28" t="n">
-        <v>0.123257</v>
+        <v>0.122222</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123095</v>
+        <v>0.122842</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134865</v>
+        <v>0.135862</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123497</v>
+        <v>0.122679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.123043</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136047</v>
+        <v>0.134914</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123329</v>
+        <v>0.122986</v>
       </c>
       <c r="D30" t="n">
-        <v>0.123931</v>
+        <v>0.122563</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136467</v>
+        <v>0.135597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123988</v>
+        <v>0.125395</v>
       </c>
       <c r="D31" t="n">
-        <v>0.124262</v>
+        <v>0.123435</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137404</v>
+        <v>0.136451</v>
       </c>
       <c r="C32" t="n">
-        <v>0.124835</v>
+        <v>0.12456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.124354</v>
+        <v>0.124601</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139464</v>
+        <v>0.137498</v>
       </c>
       <c r="C33" t="n">
-        <v>0.125057</v>
+        <v>0.124486</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124862</v>
+        <v>0.124973</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.13982</v>
+        <v>0.138883</v>
       </c>
       <c r="C34" t="n">
-        <v>0.126712</v>
+        <v>0.125559</v>
       </c>
       <c r="D34" t="n">
-        <v>0.12693</v>
+        <v>0.125927</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.144879</v>
+        <v>0.142269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.128901</v>
+        <v>0.128269</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130123</v>
+        <v>0.129681</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.147691</v>
+        <v>0.148507</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132731</v>
+        <v>0.132521</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136872</v>
+        <v>0.13629</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.156096</v>
+        <v>0.155013</v>
       </c>
       <c r="C37" t="n">
-        <v>0.137955</v>
+        <v>0.13715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132157</v>
+        <v>0.134734</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146914</v>
+        <v>0.146171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.133184</v>
+        <v>0.132055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.135298</v>
+        <v>0.134226</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147707</v>
+        <v>0.145078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.133772</v>
+        <v>0.132011</v>
       </c>
       <c r="D39" t="n">
-        <v>0.135848</v>
+        <v>0.13352</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145564</v>
+        <v>0.145714</v>
       </c>
       <c r="C40" t="n">
-        <v>0.134133</v>
+        <v>0.133014</v>
       </c>
       <c r="D40" t="n">
-        <v>0.136696</v>
+        <v>0.134329</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146347</v>
+        <v>0.146671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.135066</v>
+        <v>0.134004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.137094</v>
+        <v>0.134748</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149117</v>
+        <v>0.147206</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135234</v>
+        <v>0.134423</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137211</v>
+        <v>0.135923</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147734</v>
+        <v>0.146272</v>
       </c>
       <c r="C43" t="n">
-        <v>0.134995</v>
+        <v>0.133759</v>
       </c>
       <c r="D43" t="n">
-        <v>0.136657</v>
+        <v>0.13456</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149637</v>
+        <v>0.145109</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135189</v>
+        <v>0.134179</v>
       </c>
       <c r="D44" t="n">
-        <v>0.136271</v>
+        <v>0.13488</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1492</v>
+        <v>0.147703</v>
       </c>
       <c r="C45" t="n">
-        <v>0.136185</v>
+        <v>0.135011</v>
       </c>
       <c r="D45" t="n">
-        <v>0.136669</v>
+        <v>0.135509</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148849</v>
+        <v>0.149085</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136375</v>
+        <v>0.135577</v>
       </c>
       <c r="D46" t="n">
-        <v>0.136408</v>
+        <v>0.13662</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152161</v>
+        <v>0.149345</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13728</v>
+        <v>0.138132</v>
       </c>
       <c r="D47" t="n">
-        <v>0.138305</v>
+        <v>0.137883</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152429</v>
+        <v>0.151498</v>
       </c>
       <c r="C48" t="n">
-        <v>0.140169</v>
+        <v>0.139615</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140633</v>
+        <v>0.140485</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.157284</v>
+        <v>0.157065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.141711</v>
+        <v>0.141692</v>
       </c>
       <c r="D49" t="n">
-        <v>0.144191</v>
+        <v>0.142582</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.160588</v>
+        <v>0.15942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14489</v>
+        <v>0.144545</v>
       </c>
       <c r="D50" t="n">
-        <v>0.149212</v>
+        <v>0.148745</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.166667</v>
+        <v>0.168296</v>
       </c>
       <c r="C51" t="n">
-        <v>0.150483</v>
+        <v>0.148185</v>
       </c>
       <c r="D51" t="n">
-        <v>0.147006</v>
+        <v>0.147467</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.174999</v>
+        <v>0.175494</v>
       </c>
       <c r="C52" t="n">
-        <v>0.155643</v>
+        <v>0.154932</v>
       </c>
       <c r="D52" t="n">
-        <v>0.147692</v>
+        <v>0.147623</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158622</v>
+        <v>0.15907</v>
       </c>
       <c r="C53" t="n">
-        <v>0.143452</v>
+        <v>0.144846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.147442</v>
+        <v>0.147929</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.159368</v>
+        <v>0.158563</v>
       </c>
       <c r="C54" t="n">
-        <v>0.143657</v>
+        <v>0.144005</v>
       </c>
       <c r="D54" t="n">
-        <v>0.147474</v>
+        <v>0.148124</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161304</v>
+        <v>0.160102</v>
       </c>
       <c r="C55" t="n">
-        <v>0.143667</v>
+        <v>0.144483</v>
       </c>
       <c r="D55" t="n">
-        <v>0.148101</v>
+        <v>0.148639</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.159825</v>
+        <v>0.159049</v>
       </c>
       <c r="C56" t="n">
-        <v>0.145067</v>
+        <v>0.144294</v>
       </c>
       <c r="D56" t="n">
-        <v>0.148081</v>
+        <v>0.148477</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1609</v>
+        <v>0.160363</v>
       </c>
       <c r="C57" t="n">
-        <v>0.146066</v>
+        <v>0.144909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.148443</v>
+        <v>0.148332</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.159901</v>
+        <v>0.161431</v>
       </c>
       <c r="C58" t="n">
-        <v>0.146288</v>
+        <v>0.145589</v>
       </c>
       <c r="D58" t="n">
-        <v>0.148856</v>
+        <v>0.148753</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.160484</v>
+        <v>0.16092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146441</v>
+        <v>0.146677</v>
       </c>
       <c r="D59" t="n">
-        <v>0.149365</v>
+        <v>0.149489</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.162479</v>
+        <v>0.163627</v>
       </c>
       <c r="C60" t="n">
-        <v>0.147848</v>
+        <v>0.148076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.150306</v>
+        <v>0.150154</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.16403</v>
+        <v>0.165906</v>
       </c>
       <c r="C61" t="n">
-        <v>0.149036</v>
+        <v>0.149358</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151854</v>
+        <v>0.152022</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166191</v>
+        <v>0.166125</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151319</v>
+        <v>0.151299</v>
       </c>
       <c r="D62" t="n">
-        <v>0.153609</v>
+        <v>0.154555</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169416</v>
+        <v>0.170335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.152819</v>
+        <v>0.15323</v>
       </c>
       <c r="D63" t="n">
-        <v>0.156793</v>
+        <v>0.157106</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173824</v>
+        <v>0.173752</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155855</v>
+        <v>0.15562</v>
       </c>
       <c r="D64" t="n">
-        <v>0.160846</v>
+        <v>0.160816</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178754</v>
+        <v>0.180339</v>
       </c>
       <c r="C65" t="n">
-        <v>0.158986</v>
+        <v>0.158921</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16638</v>
+        <v>0.166614</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.185817</v>
+        <v>0.185779</v>
       </c>
       <c r="C66" t="n">
-        <v>0.164928</v>
+        <v>0.164723</v>
       </c>
       <c r="D66" t="n">
-        <v>0.15877</v>
+        <v>0.158209</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18066</v>
+        <v>0.177359</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158094</v>
+        <v>0.158851</v>
       </c>
       <c r="D67" t="n">
-        <v>0.159449</v>
+        <v>0.158686</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182228</v>
+        <v>0.179101</v>
       </c>
       <c r="C68" t="n">
-        <v>0.15981</v>
+        <v>0.160486</v>
       </c>
       <c r="D68" t="n">
-        <v>0.158646</v>
+        <v>0.159552</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.178828</v>
+        <v>0.183354</v>
       </c>
       <c r="C69" t="n">
-        <v>0.159205</v>
+        <v>0.16035</v>
       </c>
       <c r="D69" t="n">
-        <v>0.159025</v>
+        <v>0.159916</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.186777</v>
+        <v>0.181275</v>
       </c>
       <c r="C70" t="n">
-        <v>0.160677</v>
+        <v>0.159747</v>
       </c>
       <c r="D70" t="n">
-        <v>0.160313</v>
+        <v>0.158875</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.178928</v>
+        <v>0.181321</v>
       </c>
       <c r="C71" t="n">
-        <v>0.161483</v>
+        <v>0.161004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.159535</v>
+        <v>0.161577</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.180548</v>
+        <v>0.181212</v>
       </c>
       <c r="C72" t="n">
-        <v>0.161445</v>
+        <v>0.163091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16102</v>
+        <v>0.161424</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.181749</v>
+        <v>0.184478</v>
       </c>
       <c r="C73" t="n">
-        <v>0.161976</v>
+        <v>0.162437</v>
       </c>
       <c r="D73" t="n">
-        <v>0.161231</v>
+        <v>0.162811</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.179864</v>
+        <v>0.181982</v>
       </c>
       <c r="C74" t="n">
-        <v>0.163493</v>
+        <v>0.168484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.161591</v>
+        <v>0.16259</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.183778</v>
+        <v>0.188705</v>
       </c>
       <c r="C75" t="n">
-        <v>0.166043</v>
+        <v>0.166705</v>
       </c>
       <c r="D75" t="n">
-        <v>0.163223</v>
+        <v>0.164612</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.188133</v>
+        <v>0.189879</v>
       </c>
       <c r="C76" t="n">
-        <v>0.165738</v>
+        <v>0.167558</v>
       </c>
       <c r="D76" t="n">
-        <v>0.164561</v>
+        <v>0.165407</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1879</v>
+        <v>0.187419</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169483</v>
+        <v>0.171142</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167753</v>
+        <v>0.167375</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.193934</v>
+        <v>0.195181</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170879</v>
+        <v>0.170396</v>
       </c>
       <c r="D78" t="n">
-        <v>0.171627</v>
+        <v>0.171608</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.195222</v>
+        <v>0.201242</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175006</v>
+        <v>0.173571</v>
       </c>
       <c r="D79" t="n">
-        <v>0.175774</v>
+        <v>0.175918</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.203205</v>
+        <v>0.203732</v>
       </c>
       <c r="C80" t="n">
-        <v>0.178714</v>
+        <v>0.179379</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238011</v>
+        <v>0.236911</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.34078</v>
+        <v>0.337564</v>
       </c>
       <c r="C81" t="n">
-        <v>0.289228</v>
+        <v>0.290967</v>
       </c>
       <c r="D81" t="n">
-        <v>0.238325</v>
+        <v>0.236399</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34009</v>
+        <v>0.34555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.287486</v>
+        <v>0.285795</v>
       </c>
       <c r="D82" t="n">
-        <v>0.238866</v>
+        <v>0.238219</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.344137</v>
+        <v>0.344209</v>
       </c>
       <c r="C83" t="n">
-        <v>0.286493</v>
+        <v>0.288638</v>
       </c>
       <c r="D83" t="n">
-        <v>0.239834</v>
+        <v>0.237276</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.34301</v>
+        <v>0.347348</v>
       </c>
       <c r="C84" t="n">
-        <v>0.28688</v>
+        <v>0.288001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.240221</v>
+        <v>0.235092</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.345507</v>
+        <v>0.346862</v>
       </c>
       <c r="C85" t="n">
-        <v>0.286777</v>
+        <v>0.282773</v>
       </c>
       <c r="D85" t="n">
-        <v>0.237685</v>
+        <v>0.236944</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.348225</v>
+        <v>0.341987</v>
       </c>
       <c r="C86" t="n">
-        <v>0.283766</v>
+        <v>0.28596</v>
       </c>
       <c r="D86" t="n">
-        <v>0.238791</v>
+        <v>0.237745</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.347662</v>
+        <v>0.346697</v>
       </c>
       <c r="C87" t="n">
-        <v>0.284898</v>
+        <v>0.285356</v>
       </c>
       <c r="D87" t="n">
-        <v>0.237712</v>
+        <v>0.233436</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.350162</v>
+        <v>0.347459</v>
       </c>
       <c r="C88" t="n">
-        <v>0.281327</v>
+        <v>0.283046</v>
       </c>
       <c r="D88" t="n">
-        <v>0.234371</v>
+        <v>0.235577</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.346199</v>
+        <v>0.350106</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284283</v>
+        <v>0.282042</v>
       </c>
       <c r="D89" t="n">
-        <v>0.236478</v>
+        <v>0.235084</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.349463</v>
+        <v>0.352119</v>
       </c>
       <c r="C90" t="n">
-        <v>0.281083</v>
+        <v>0.281865</v>
       </c>
       <c r="D90" t="n">
-        <v>0.235078</v>
+        <v>0.234599</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353763</v>
+        <v>0.357558</v>
       </c>
       <c r="C91" t="n">
-        <v>0.281554</v>
+        <v>0.283859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.235655</v>
+        <v>0.238603</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.354851</v>
+        <v>0.355318</v>
       </c>
       <c r="C92" t="n">
-        <v>0.280709</v>
+        <v>0.28184</v>
       </c>
       <c r="D92" t="n">
-        <v>0.236025</v>
+        <v>0.234727</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.361142</v>
+        <v>0.361723</v>
       </c>
       <c r="C93" t="n">
-        <v>0.282611</v>
+        <v>0.285637</v>
       </c>
       <c r="D93" t="n">
-        <v>0.240212</v>
+        <v>0.240912</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362327</v>
+        <v>0.366763</v>
       </c>
       <c r="C94" t="n">
-        <v>0.290603</v>
+        <v>0.292042</v>
       </c>
       <c r="D94" t="n">
-        <v>0.387529</v>
+        <v>0.397616</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.503623</v>
+        <v>0.50087</v>
       </c>
       <c r="C95" t="n">
-        <v>0.457079</v>
+        <v>0.455278</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398526</v>
+        <v>0.396975</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.503379</v>
+        <v>0.501375</v>
       </c>
       <c r="C96" t="n">
-        <v>0.456497</v>
+        <v>0.454406</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384712</v>
+        <v>0.396635</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5036890000000001</v>
+        <v>0.501097</v>
       </c>
       <c r="C97" t="n">
-        <v>0.455716</v>
+        <v>0.448398</v>
       </c>
       <c r="D97" t="n">
-        <v>0.396478</v>
+        <v>0.390258</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.503707</v>
+        <v>0.501976</v>
       </c>
       <c r="C98" t="n">
-        <v>0.455779</v>
+        <v>0.453589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396905</v>
+        <v>0.389643</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.503433</v>
+        <v>0.501789</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454747</v>
+        <v>0.452338</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397252</v>
+        <v>0.395603</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.503916</v>
+        <v>0.502229</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454436</v>
+        <v>0.45194</v>
       </c>
       <c r="D100" t="n">
-        <v>0.397495</v>
+        <v>0.393898</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.504646</v>
+        <v>0.503683</v>
       </c>
       <c r="C101" t="n">
-        <v>0.453695</v>
+        <v>0.446478</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396807</v>
+        <v>0.394693</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.50588</v>
+        <v>0.504312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.454215</v>
+        <v>0.452126</v>
       </c>
       <c r="D102" t="n">
-        <v>0.397427</v>
+        <v>0.396279</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.506835</v>
+        <v>0.5055269999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.441496</v>
+        <v>0.453752</v>
       </c>
       <c r="D103" t="n">
-        <v>0.396614</v>
+        <v>0.395305</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.507497</v>
       </c>
       <c r="C104" t="n">
-        <v>0.455862</v>
+        <v>0.44747</v>
       </c>
       <c r="D104" t="n">
-        <v>0.386684</v>
+        <v>0.39801</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.511198</v>
+        <v>0.509752</v>
       </c>
       <c r="C105" t="n">
-        <v>0.457047</v>
+        <v>0.455615</v>
       </c>
       <c r="D105" t="n">
-        <v>0.400493</v>
+        <v>0.393561</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.514648</v>
+        <v>0.5139550000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.458696</v>
+        <v>0.458222</v>
       </c>
       <c r="D106" t="n">
-        <v>0.392516</v>
+        <v>0.396318</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.519326</v>
+        <v>0.519389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.461297</v>
+        <v>0.453764</v>
       </c>
       <c r="D107" t="n">
-        <v>0.406612</v>
+        <v>0.405773</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.526667</v>
+        <v>0.525657</v>
       </c>
       <c r="C108" t="n">
-        <v>0.466573</v>
+        <v>0.46546</v>
       </c>
       <c r="D108" t="n">
-        <v>0.528639</v>
+        <v>0.528326</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.537446</v>
+        <v>0.5361050000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.475275</v>
+        <v>0.466065</v>
       </c>
       <c r="D109" t="n">
-        <v>0.53561</v>
+        <v>0.533224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5873119999999999</v>
+        <v>0.585647</v>
       </c>
       <c r="C110" t="n">
-        <v>0.563658</v>
+        <v>0.5640579999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.534045</v>
+        <v>0.534351</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.587324</v>
+        <v>0.584731</v>
       </c>
       <c 